--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Desktop\Respaldo_Susana\Enero2021\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70955CFF-3D82-4576-8673-C7E706A0B681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC4D3D2-E0A4-4028-BAFC-A7F67AB34E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="330">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1031,6 +1031,9 @@
   <si>
     <t>2021/Enero</t>
   </si>
+  <si>
+    <t>2021/Febrero</t>
+  </si>
 </sst>
 </file>
 
@@ -1635,7 +1638,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1736,9 +1739,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1748,8 +1748,8 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2115,7 +2115,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="IW9" sqref="IW9"/>
+      <selection pane="bottomRight" activeCell="IX6" sqref="IX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2371,7 +2371,8 @@
     <col min="250" max="250" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="16.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="252" max="255" width="16.453125" style="4" customWidth="1"/>
-    <col min="256" max="722" width="10.81640625" style="28"/>
+    <col min="256" max="256" width="17.1796875" style="4" customWidth="1"/>
+    <col min="257" max="722" width="10.81640625" style="28"/>
     <col min="723" max="903" width="10.81640625" style="4"/>
     <col min="904" max="16384" width="10.81640625" style="3"/>
   </cols>
@@ -2387,310 +2388,310 @@
       </c>
     </row>
     <row r="4" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="35">
         <v>2000</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35">
         <v>2001</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35">
         <v>2002</v>
       </c>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40">
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35">
         <v>2003</v>
       </c>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40">
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40">
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35">
         <v>2005</v>
       </c>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40"/>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40">
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35">
         <v>2006</v>
       </c>
-      <c r="BX4" s="40"/>
-      <c r="BY4" s="40"/>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40"/>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40">
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="35">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="40"/>
-      <c r="CK4" s="40"/>
-      <c r="CL4" s="40"/>
-      <c r="CM4" s="40"/>
-      <c r="CN4" s="40"/>
-      <c r="CO4" s="40"/>
-      <c r="CP4" s="40"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="40"/>
-      <c r="CS4" s="40"/>
-      <c r="CT4" s="40"/>
-      <c r="CU4" s="40">
+      <c r="CJ4" s="35"/>
+      <c r="CK4" s="35"/>
+      <c r="CL4" s="35"/>
+      <c r="CM4" s="35"/>
+      <c r="CN4" s="35"/>
+      <c r="CO4" s="35"/>
+      <c r="CP4" s="35"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="35"/>
+      <c r="CT4" s="35"/>
+      <c r="CU4" s="35">
         <v>2008</v>
       </c>
-      <c r="CV4" s="40"/>
-      <c r="CW4" s="40"/>
-      <c r="CX4" s="40"/>
-      <c r="CY4" s="40"/>
-      <c r="CZ4" s="40"/>
-      <c r="DA4" s="40"/>
-      <c r="DB4" s="40"/>
-      <c r="DC4" s="40"/>
-      <c r="DD4" s="40"/>
-      <c r="DE4" s="40"/>
-      <c r="DF4" s="40"/>
-      <c r="DG4" s="40">
+      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
+      <c r="CX4" s="35"/>
+      <c r="CY4" s="35"/>
+      <c r="CZ4" s="35"/>
+      <c r="DA4" s="35"/>
+      <c r="DB4" s="35"/>
+      <c r="DC4" s="35"/>
+      <c r="DD4" s="35"/>
+      <c r="DE4" s="35"/>
+      <c r="DF4" s="35"/>
+      <c r="DG4" s="35">
         <v>2009</v>
       </c>
-      <c r="DH4" s="40"/>
-      <c r="DI4" s="40"/>
-      <c r="DJ4" s="40"/>
-      <c r="DK4" s="40"/>
-      <c r="DL4" s="40"/>
-      <c r="DM4" s="40"/>
-      <c r="DN4" s="40"/>
-      <c r="DO4" s="40"/>
-      <c r="DP4" s="40"/>
-      <c r="DQ4" s="40"/>
-      <c r="DR4" s="40"/>
-      <c r="DS4" s="40">
+      <c r="DH4" s="35"/>
+      <c r="DI4" s="35"/>
+      <c r="DJ4" s="35"/>
+      <c r="DK4" s="35"/>
+      <c r="DL4" s="35"/>
+      <c r="DM4" s="35"/>
+      <c r="DN4" s="35"/>
+      <c r="DO4" s="35"/>
+      <c r="DP4" s="35"/>
+      <c r="DQ4" s="35"/>
+      <c r="DR4" s="35"/>
+      <c r="DS4" s="35">
         <v>2010</v>
       </c>
-      <c r="DT4" s="40"/>
-      <c r="DU4" s="40"/>
-      <c r="DV4" s="40"/>
-      <c r="DW4" s="40"/>
-      <c r="DX4" s="40"/>
-      <c r="DY4" s="40"/>
-      <c r="DZ4" s="40"/>
-      <c r="EA4" s="40"/>
-      <c r="EB4" s="40"/>
-      <c r="EC4" s="40"/>
-      <c r="ED4" s="40"/>
-      <c r="EE4" s="40">
+      <c r="DT4" s="35"/>
+      <c r="DU4" s="35"/>
+      <c r="DV4" s="35"/>
+      <c r="DW4" s="35"/>
+      <c r="DX4" s="35"/>
+      <c r="DY4" s="35"/>
+      <c r="DZ4" s="35"/>
+      <c r="EA4" s="35"/>
+      <c r="EB4" s="35"/>
+      <c r="EC4" s="35"/>
+      <c r="ED4" s="35"/>
+      <c r="EE4" s="35">
         <v>2011</v>
       </c>
-      <c r="EF4" s="40"/>
-      <c r="EG4" s="40"/>
-      <c r="EH4" s="40"/>
-      <c r="EI4" s="40"/>
-      <c r="EJ4" s="40"/>
-      <c r="EK4" s="40"/>
-      <c r="EL4" s="40"/>
-      <c r="EM4" s="40"/>
-      <c r="EN4" s="40"/>
-      <c r="EO4" s="40"/>
-      <c r="EP4" s="40"/>
-      <c r="EQ4" s="40">
+      <c r="EF4" s="35"/>
+      <c r="EG4" s="35"/>
+      <c r="EH4" s="35"/>
+      <c r="EI4" s="35"/>
+      <c r="EJ4" s="35"/>
+      <c r="EK4" s="35"/>
+      <c r="EL4" s="35"/>
+      <c r="EM4" s="35"/>
+      <c r="EN4" s="35"/>
+      <c r="EO4" s="35"/>
+      <c r="EP4" s="35"/>
+      <c r="EQ4" s="35">
         <v>2012</v>
       </c>
-      <c r="ER4" s="40"/>
-      <c r="ES4" s="40"/>
-      <c r="ET4" s="40"/>
-      <c r="EU4" s="40"/>
-      <c r="EV4" s="40"/>
-      <c r="EW4" s="40"/>
-      <c r="EX4" s="40"/>
-      <c r="EY4" s="40"/>
-      <c r="EZ4" s="40"/>
-      <c r="FA4" s="40"/>
-      <c r="FB4" s="40"/>
-      <c r="FC4" s="40">
+      <c r="ER4" s="35"/>
+      <c r="ES4" s="35"/>
+      <c r="ET4" s="35"/>
+      <c r="EU4" s="35"/>
+      <c r="EV4" s="35"/>
+      <c r="EW4" s="35"/>
+      <c r="EX4" s="35"/>
+      <c r="EY4" s="35"/>
+      <c r="EZ4" s="35"/>
+      <c r="FA4" s="35"/>
+      <c r="FB4" s="35"/>
+      <c r="FC4" s="35">
         <v>2013</v>
       </c>
-      <c r="FD4" s="40"/>
-      <c r="FE4" s="40"/>
-      <c r="FF4" s="40"/>
-      <c r="FG4" s="40"/>
-      <c r="FH4" s="40"/>
-      <c r="FI4" s="40"/>
-      <c r="FJ4" s="40"/>
-      <c r="FK4" s="40"/>
-      <c r="FL4" s="40"/>
-      <c r="FM4" s="40"/>
-      <c r="FN4" s="40"/>
-      <c r="FO4" s="40">
+      <c r="FD4" s="35"/>
+      <c r="FE4" s="35"/>
+      <c r="FF4" s="35"/>
+      <c r="FG4" s="35"/>
+      <c r="FH4" s="35"/>
+      <c r="FI4" s="35"/>
+      <c r="FJ4" s="35"/>
+      <c r="FK4" s="35"/>
+      <c r="FL4" s="35"/>
+      <c r="FM4" s="35"/>
+      <c r="FN4" s="35"/>
+      <c r="FO4" s="35">
         <v>2014</v>
       </c>
-      <c r="FP4" s="40"/>
-      <c r="FQ4" s="40"/>
-      <c r="FR4" s="40"/>
-      <c r="FS4" s="40"/>
-      <c r="FT4" s="40"/>
-      <c r="FU4" s="40"/>
-      <c r="FV4" s="40"/>
-      <c r="FW4" s="40"/>
-      <c r="FX4" s="40"/>
-      <c r="FY4" s="40"/>
-      <c r="FZ4" s="40"/>
-      <c r="GA4" s="40">
+      <c r="FP4" s="35"/>
+      <c r="FQ4" s="35"/>
+      <c r="FR4" s="35"/>
+      <c r="FS4" s="35"/>
+      <c r="FT4" s="35"/>
+      <c r="FU4" s="35"/>
+      <c r="FV4" s="35"/>
+      <c r="FW4" s="35"/>
+      <c r="FX4" s="35"/>
+      <c r="FY4" s="35"/>
+      <c r="FZ4" s="35"/>
+      <c r="GA4" s="35">
         <v>2015</v>
       </c>
-      <c r="GB4" s="40"/>
-      <c r="GC4" s="40"/>
-      <c r="GD4" s="40"/>
-      <c r="GE4" s="40"/>
-      <c r="GF4" s="40"/>
-      <c r="GG4" s="40"/>
-      <c r="GH4" s="40"/>
-      <c r="GI4" s="40"/>
-      <c r="GJ4" s="40"/>
-      <c r="GK4" s="40"/>
-      <c r="GL4" s="40"/>
-      <c r="GM4" s="40">
+      <c r="GB4" s="35"/>
+      <c r="GC4" s="35"/>
+      <c r="GD4" s="35"/>
+      <c r="GE4" s="35"/>
+      <c r="GF4" s="35"/>
+      <c r="GG4" s="35"/>
+      <c r="GH4" s="35"/>
+      <c r="GI4" s="35"/>
+      <c r="GJ4" s="35"/>
+      <c r="GK4" s="35"/>
+      <c r="GL4" s="35"/>
+      <c r="GM4" s="35">
         <v>2016</v>
       </c>
-      <c r="GN4" s="40"/>
-      <c r="GO4" s="40"/>
-      <c r="GP4" s="40"/>
-      <c r="GQ4" s="40"/>
-      <c r="GR4" s="40"/>
-      <c r="GS4" s="40"/>
-      <c r="GT4" s="40"/>
-      <c r="GU4" s="40"/>
-      <c r="GV4" s="40"/>
-      <c r="GW4" s="40"/>
-      <c r="GX4" s="40"/>
-      <c r="GY4" s="40">
+      <c r="GN4" s="35"/>
+      <c r="GO4" s="35"/>
+      <c r="GP4" s="35"/>
+      <c r="GQ4" s="35"/>
+      <c r="GR4" s="35"/>
+      <c r="GS4" s="35"/>
+      <c r="GT4" s="35"/>
+      <c r="GU4" s="35"/>
+      <c r="GV4" s="35"/>
+      <c r="GW4" s="35"/>
+      <c r="GX4" s="35"/>
+      <c r="GY4" s="35">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="40"/>
-      <c r="HA4" s="40"/>
-      <c r="HB4" s="40"/>
-      <c r="HC4" s="40"/>
-      <c r="HD4" s="40"/>
-      <c r="HE4" s="40"/>
-      <c r="HF4" s="40"/>
-      <c r="HG4" s="40"/>
-      <c r="HH4" s="40"/>
-      <c r="HI4" s="40"/>
-      <c r="HJ4" s="40"/>
-      <c r="HK4" s="40">
+      <c r="GZ4" s="35"/>
+      <c r="HA4" s="35"/>
+      <c r="HB4" s="35"/>
+      <c r="HC4" s="35"/>
+      <c r="HD4" s="35"/>
+      <c r="HE4" s="35"/>
+      <c r="HF4" s="35"/>
+      <c r="HG4" s="35"/>
+      <c r="HH4" s="35"/>
+      <c r="HI4" s="35"/>
+      <c r="HJ4" s="35"/>
+      <c r="HK4" s="35">
         <v>2018</v>
       </c>
-      <c r="HL4" s="40"/>
-      <c r="HM4" s="40"/>
-      <c r="HN4" s="40"/>
-      <c r="HO4" s="40"/>
-      <c r="HP4" s="40"/>
-      <c r="HQ4" s="40"/>
-      <c r="HR4" s="40"/>
-      <c r="HS4" s="40"/>
-      <c r="HT4" s="40"/>
-      <c r="HU4" s="40"/>
-      <c r="HV4" s="40"/>
-      <c r="HW4" s="40">
+      <c r="HL4" s="35"/>
+      <c r="HM4" s="35"/>
+      <c r="HN4" s="35"/>
+      <c r="HO4" s="35"/>
+      <c r="HP4" s="35"/>
+      <c r="HQ4" s="35"/>
+      <c r="HR4" s="35"/>
+      <c r="HS4" s="35"/>
+      <c r="HT4" s="35"/>
+      <c r="HU4" s="35"/>
+      <c r="HV4" s="35"/>
+      <c r="HW4" s="35">
         <v>2019</v>
       </c>
-      <c r="HX4" s="40"/>
-      <c r="HY4" s="40"/>
-      <c r="HZ4" s="40"/>
-      <c r="IA4" s="40"/>
-      <c r="IB4" s="40"/>
-      <c r="IC4" s="40"/>
-      <c r="ID4" s="40"/>
-      <c r="IE4" s="40"/>
-      <c r="IF4" s="40"/>
-      <c r="IG4" s="40"/>
-      <c r="IH4" s="37"/>
-      <c r="II4" s="37">
+      <c r="HX4" s="35"/>
+      <c r="HY4" s="35"/>
+      <c r="HZ4" s="35"/>
+      <c r="IA4" s="35"/>
+      <c r="IB4" s="35"/>
+      <c r="IC4" s="35"/>
+      <c r="ID4" s="35"/>
+      <c r="IE4" s="35"/>
+      <c r="IF4" s="35"/>
+      <c r="IG4" s="35"/>
+      <c r="IH4" s="36"/>
+      <c r="II4" s="36">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="38"/>
-      <c r="IK4" s="38"/>
-      <c r="IL4" s="38"/>
-      <c r="IM4" s="38"/>
-      <c r="IN4" s="38"/>
-      <c r="IO4" s="38"/>
-      <c r="IP4" s="38"/>
-      <c r="IQ4" s="38"/>
-      <c r="IR4" s="38"/>
-      <c r="IS4" s="38"/>
-      <c r="IT4" s="39"/>
-      <c r="IU4" s="35">
+      <c r="IJ4" s="37"/>
+      <c r="IK4" s="37"/>
+      <c r="IL4" s="37"/>
+      <c r="IM4" s="37"/>
+      <c r="IN4" s="37"/>
+      <c r="IO4" s="37"/>
+      <c r="IP4" s="37"/>
+      <c r="IQ4" s="37"/>
+      <c r="IR4" s="37"/>
+      <c r="IS4" s="37"/>
+      <c r="IT4" s="38"/>
+      <c r="IU4" s="36">
         <v>2021</v>
       </c>
-      <c r="IV4" s="29"/>
+      <c r="IV4" s="38"/>
       <c r="IW4" s="29"/>
       <c r="IX4" s="29"/>
       <c r="IY4" s="29"/>
@@ -3340,8 +3341,8 @@
       <c r="AHS4" s="5"/>
     </row>
     <row r="5" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4101,7 +4102,9 @@
       <c r="IU5" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="IV5" s="29"/>
+      <c r="IV5" s="31" t="s">
+        <v>329</v>
+      </c>
       <c r="IW5" s="29"/>
       <c r="IX5" s="29"/>
       <c r="IY5" s="29"/>
@@ -4751,7 +4754,7 @@
       <c r="AHS5" s="5"/>
     </row>
     <row r="6" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="39" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5516,9 +5519,12 @@
       <c r="IU6" s="7">
         <v>90879</v>
       </c>
+      <c r="IV6" s="7">
+        <v>91852</v>
+      </c>
     </row>
     <row r="7" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A7" s="36"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>246</v>
       </c>
@@ -6281,9 +6287,12 @@
       <c r="IU7" s="8">
         <v>44</v>
       </c>
+      <c r="IV7" s="8">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>247</v>
       </c>
@@ -7046,9 +7055,12 @@
       <c r="IU8" s="7">
         <v>21679</v>
       </c>
+      <c r="IV8" s="7">
+        <v>21734</v>
+      </c>
     </row>
     <row r="9" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>248</v>
       </c>
@@ -7811,9 +7823,12 @@
       <c r="IU9" s="7">
         <v>443</v>
       </c>
+      <c r="IV9" s="7">
+        <v>426</v>
+      </c>
     </row>
     <row r="10" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>249</v>
       </c>
@@ -8576,9 +8591,12 @@
       <c r="IU10" s="8">
         <v>420</v>
       </c>
+      <c r="IV10" s="8">
+        <v>455</v>
+      </c>
     </row>
     <row r="11" spans="1:903" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9341,7 +9359,9 @@
       <c r="IU11" s="10">
         <v>113465</v>
       </c>
-      <c r="IV11" s="29"/>
+      <c r="IV11" s="10">
+        <v>114511</v>
+      </c>
       <c r="IW11" s="29"/>
       <c r="IX11" s="29"/>
       <c r="IY11" s="29"/>
@@ -9991,7 +10011,7 @@
       <c r="AHS11" s="5"/>
     </row>
     <row r="12" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="39" t="s">
         <v>250</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10756,9 +10776,12 @@
       <c r="IU12" s="7">
         <v>68889</v>
       </c>
+      <c r="IV12" s="7">
+        <v>69476</v>
+      </c>
     </row>
     <row r="13" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>252</v>
       </c>
@@ -11521,9 +11544,12 @@
       <c r="IU13" s="7">
         <v>18507</v>
       </c>
+      <c r="IV13" s="7">
+        <v>18772</v>
+      </c>
     </row>
     <row r="14" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="6" t="s">
         <v>253</v>
       </c>
@@ -12286,9 +12312,12 @@
       <c r="IU14" s="7">
         <v>29672</v>
       </c>
+      <c r="IV14" s="7">
+        <v>30170</v>
+      </c>
     </row>
     <row r="15" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="36"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="6" t="s">
         <v>254</v>
       </c>
@@ -13051,9 +13080,12 @@
       <c r="IU15" s="7">
         <v>22972</v>
       </c>
+      <c r="IV15" s="7">
+        <v>23102</v>
+      </c>
     </row>
     <row r="16" spans="1:903" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="6" t="s">
         <v>255</v>
       </c>
@@ -13816,9 +13848,12 @@
       <c r="IU16" s="7">
         <v>13751</v>
       </c>
+      <c r="IV16" s="7">
+        <v>13778</v>
+      </c>
     </row>
     <row r="17" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>256</v>
       </c>
@@ -14581,9 +14616,12 @@
       <c r="IU17" s="7">
         <v>42419</v>
       </c>
+      <c r="IV17" s="7">
+        <v>42664</v>
+      </c>
     </row>
     <row r="18" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="6" t="s">
         <v>257</v>
       </c>
@@ -15346,9 +15384,12 @@
       <c r="IU18" s="7">
         <v>54677</v>
       </c>
+      <c r="IV18" s="7">
+        <v>55191</v>
+      </c>
     </row>
     <row r="19" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="6" t="s">
         <v>258</v>
       </c>
@@ -16111,9 +16152,12 @@
       <c r="IU19" s="7">
         <v>63307</v>
       </c>
+      <c r="IV19" s="7">
+        <v>63369</v>
+      </c>
     </row>
     <row r="20" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="6" t="s">
         <v>259</v>
       </c>
@@ -16876,9 +16920,12 @@
       <c r="IU20" s="7">
         <v>50759</v>
       </c>
+      <c r="IV20" s="7">
+        <v>50532</v>
+      </c>
     </row>
     <row r="21" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="9" t="s">
         <v>250</v>
       </c>
@@ -17641,7 +17688,9 @@
       <c r="IU21" s="10">
         <v>364953</v>
       </c>
-      <c r="IV21" s="29"/>
+      <c r="IV21" s="10">
+        <v>367054</v>
+      </c>
       <c r="IW21" s="29"/>
       <c r="IX21" s="29"/>
       <c r="IY21" s="29"/>
@@ -18291,7 +18340,7 @@
       <c r="AHS21" s="5"/>
     </row>
     <row r="22" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="39" t="s">
         <v>260</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19056,9 +19105,12 @@
       <c r="IU22" s="7">
         <v>98946</v>
       </c>
+      <c r="IV22" s="7">
+        <v>98807</v>
+      </c>
     </row>
     <row r="23" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="36"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>262</v>
       </c>
@@ -19821,9 +19873,12 @@
       <c r="IU23" s="7">
         <v>36528</v>
       </c>
+      <c r="IV23" s="7">
+        <v>36525</v>
+      </c>
     </row>
     <row r="24" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="36"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>260</v>
       </c>
@@ -20586,7 +20641,9 @@
       <c r="IU24" s="10">
         <v>135474</v>
       </c>
-      <c r="IV24" s="29"/>
+      <c r="IV24" s="10">
+        <v>135332</v>
+      </c>
       <c r="IW24" s="29"/>
       <c r="IX24" s="29"/>
       <c r="IY24" s="29"/>
@@ -21236,7 +21293,7 @@
       <c r="AHS24" s="5"/>
     </row>
     <row r="25" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="39" t="s">
         <v>263</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22001,9 +22058,12 @@
       <c r="IU25" s="7">
         <v>4307</v>
       </c>
+      <c r="IV25" s="7">
+        <v>4346</v>
+      </c>
     </row>
     <row r="26" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="36"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="6" t="s">
         <v>265</v>
       </c>
@@ -22766,9 +22826,12 @@
       <c r="IU26" s="7">
         <v>5685</v>
       </c>
+      <c r="IV26" s="7">
+        <v>5654</v>
+      </c>
     </row>
     <row r="27" spans="1:903" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>263</v>
       </c>
@@ -23531,7 +23594,9 @@
       <c r="IU27" s="10">
         <v>9992</v>
       </c>
-      <c r="IV27" s="29"/>
+      <c r="IV27" s="10">
+        <v>10000</v>
+      </c>
       <c r="IW27" s="29"/>
       <c r="IX27" s="29"/>
       <c r="IY27" s="29"/>
@@ -24181,7 +24246,7 @@
       <c r="AHS27" s="5"/>
     </row>
     <row r="28" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="39" t="s">
         <v>266</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -24946,9 +25011,12 @@
       <c r="IU28" s="7">
         <v>1322</v>
       </c>
+      <c r="IV28" s="7">
+        <v>1340</v>
+      </c>
     </row>
     <row r="29" spans="1:903" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="36"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="6" t="s">
         <v>268</v>
       </c>
@@ -25711,9 +25779,12 @@
       <c r="IU29" s="7">
         <v>10009</v>
       </c>
+      <c r="IV29" s="7">
+        <v>10129</v>
+      </c>
     </row>
     <row r="30" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="36"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="6" t="s">
         <v>269</v>
       </c>
@@ -26476,9 +26547,12 @@
       <c r="IU30" s="7">
         <v>28157</v>
       </c>
+      <c r="IV30" s="7">
+        <v>27931</v>
+      </c>
     </row>
     <row r="31" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A31" s="36"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="6" t="s">
         <v>270</v>
       </c>
@@ -27241,9 +27315,12 @@
       <c r="IU31" s="7">
         <v>98556</v>
       </c>
+      <c r="IV31" s="7">
+        <v>98814</v>
+      </c>
     </row>
     <row r="32" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A32" s="36"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>271</v>
       </c>
@@ -28006,9 +28083,12 @@
       <c r="IU32" s="7">
         <v>20872</v>
       </c>
+      <c r="IV32" s="7">
+        <v>21057</v>
+      </c>
     </row>
     <row r="33" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A33" s="36"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="6" t="s">
         <v>272</v>
       </c>
@@ -28771,9 +28851,12 @@
       <c r="IU33" s="7">
         <v>9717</v>
       </c>
+      <c r="IV33" s="7">
+        <v>9678</v>
+      </c>
     </row>
     <row r="34" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A34" s="36"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>273</v>
       </c>
@@ -29536,9 +29619,12 @@
       <c r="IU34" s="7">
         <v>39470</v>
       </c>
+      <c r="IV34" s="7">
+        <v>40710</v>
+      </c>
     </row>
     <row r="35" spans="1:903" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="36"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>274</v>
       </c>
@@ -30301,9 +30387,12 @@
       <c r="IU35" s="7">
         <v>8503</v>
       </c>
+      <c r="IV35" s="7">
+        <v>8635</v>
+      </c>
     </row>
     <row r="36" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="36"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="6" t="s">
         <v>275</v>
       </c>
@@ -31066,9 +31155,12 @@
       <c r="IU36" s="7">
         <v>46152</v>
       </c>
+      <c r="IV36" s="7">
+        <v>46738</v>
+      </c>
     </row>
     <row r="37" spans="1:903" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="36"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="6" t="s">
         <v>276</v>
       </c>
@@ -31831,9 +31923,12 @@
       <c r="IU37" s="7">
         <v>56273</v>
       </c>
+      <c r="IV37" s="7">
+        <v>57482</v>
+      </c>
     </row>
     <row r="38" spans="1:903" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="36"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="6" t="s">
         <v>277</v>
       </c>
@@ -32596,9 +32691,12 @@
       <c r="IU38" s="7">
         <v>21101</v>
       </c>
+      <c r="IV38" s="7">
+        <v>21549</v>
+      </c>
     </row>
     <row r="39" spans="1:903" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="36"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
         <v>278</v>
       </c>
@@ -33361,9 +33459,12 @@
       <c r="IU39" s="7">
         <v>17204</v>
       </c>
+      <c r="IV39" s="7">
+        <v>17690</v>
+      </c>
     </row>
     <row r="40" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A40" s="36"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="6" t="s">
         <v>279</v>
       </c>
@@ -34126,9 +34227,12 @@
       <c r="IU40" s="7">
         <v>11086</v>
       </c>
+      <c r="IV40" s="7">
+        <v>11211</v>
+      </c>
     </row>
     <row r="41" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A41" s="36"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="6" t="s">
         <v>280</v>
       </c>
@@ -34891,9 +34995,12 @@
       <c r="IU41" s="7">
         <v>13547</v>
       </c>
+      <c r="IV41" s="7">
+        <v>13447</v>
+      </c>
     </row>
     <row r="42" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A42" s="36"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="6" t="s">
         <v>281</v>
       </c>
@@ -35656,9 +35763,12 @@
       <c r="IU42" s="7">
         <v>45829</v>
       </c>
+      <c r="IV42" s="7">
+        <v>46197</v>
+      </c>
     </row>
     <row r="43" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A43" s="36"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="6" t="s">
         <v>282</v>
       </c>
@@ -36421,9 +36531,12 @@
       <c r="IU43" s="7">
         <v>4349</v>
       </c>
+      <c r="IV43" s="7">
+        <v>4341</v>
+      </c>
     </row>
     <row r="44" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="36"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="6" t="s">
         <v>283</v>
       </c>
@@ -37186,9 +37299,12 @@
       <c r="IU44" s="7">
         <v>5148</v>
       </c>
+      <c r="IV44" s="7">
+        <v>5236</v>
+      </c>
     </row>
     <row r="45" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A45" s="36"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="6" t="s">
         <v>284</v>
       </c>
@@ -37951,9 +38067,12 @@
       <c r="IU45" s="7">
         <v>6182</v>
       </c>
+      <c r="IV45" s="7">
+        <v>6230</v>
+      </c>
     </row>
     <row r="46" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A46" s="36"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="6" t="s">
         <v>285</v>
       </c>
@@ -38716,9 +38835,12 @@
       <c r="IU46" s="7">
         <v>11266</v>
       </c>
+      <c r="IV46" s="7">
+        <v>11855</v>
+      </c>
     </row>
     <row r="47" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="36"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="6" t="s">
         <v>286</v>
       </c>
@@ -39481,9 +39603,12 @@
       <c r="IU47" s="8">
         <v>1092</v>
       </c>
+      <c r="IV47" s="8">
+        <v>1138</v>
+      </c>
     </row>
     <row r="48" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="36"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="9" t="s">
         <v>266</v>
       </c>
@@ -40246,7 +40371,9 @@
       <c r="IU48" s="10">
         <v>455835</v>
       </c>
-      <c r="IV48" s="29"/>
+      <c r="IV48" s="10">
+        <v>461408</v>
+      </c>
       <c r="IW48" s="29"/>
       <c r="IX48" s="29"/>
       <c r="IY48" s="29"/>
@@ -40895,8 +41022,8 @@
       <c r="AHR48" s="5"/>
       <c r="AHS48" s="5"/>
     </row>
-    <row r="49" spans="1:255" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="36" t="s">
+    <row r="49" spans="1:256" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="39" t="s">
         <v>287</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -41661,9 +41788,12 @@
       <c r="IU49" s="8">
         <v>9</v>
       </c>
+      <c r="IV49" s="8">
+        <v>9</v>
+      </c>
     </row>
-    <row r="50" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A50" s="36"/>
+    <row r="50" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>289</v>
       </c>
@@ -42426,9 +42556,12 @@
       <c r="IU50" s="8">
         <v>0</v>
       </c>
+      <c r="IV50" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:255" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="36"/>
+    <row r="51" spans="1:256" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>290</v>
       </c>
@@ -43191,9 +43324,12 @@
       <c r="IU51" s="7">
         <v>1363</v>
       </c>
+      <c r="IV51" s="7">
+        <v>1360</v>
+      </c>
     </row>
-    <row r="52" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A52" s="36"/>
+    <row r="52" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>291</v>
       </c>
@@ -43956,9 +44092,12 @@
       <c r="IU52" s="7">
         <v>1400</v>
       </c>
+      <c r="IV52" s="7">
+        <v>1208</v>
+      </c>
     </row>
-    <row r="53" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A53" s="36"/>
+    <row r="53" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>287</v>
       </c>
@@ -44721,9 +44860,12 @@
       <c r="IU53" s="10">
         <v>2772</v>
       </c>
+      <c r="IV53" s="10">
+        <v>2577</v>
+      </c>
     </row>
-    <row r="54" spans="1:255" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="36" t="s">
+    <row r="54" spans="1:256" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="39" t="s">
         <v>292</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -45488,9 +45630,12 @@
       <c r="IU54" s="7">
         <v>5784</v>
       </c>
+      <c r="IV54" s="7">
+        <v>5758</v>
+      </c>
     </row>
-    <row r="55" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A55" s="36"/>
+    <row r="55" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>294</v>
       </c>
@@ -46253,9 +46398,12 @@
       <c r="IU55" s="7">
         <v>44829</v>
       </c>
+      <c r="IV55" s="7">
+        <v>44976</v>
+      </c>
     </row>
-    <row r="56" spans="1:255" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="36"/>
+    <row r="56" spans="1:256" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>295</v>
       </c>
@@ -47018,9 +47166,12 @@
       <c r="IU56" s="7">
         <v>6791</v>
       </c>
+      <c r="IV56" s="7">
+        <v>6814</v>
+      </c>
     </row>
-    <row r="57" spans="1:255" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="36"/>
+    <row r="57" spans="1:256" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>296</v>
       </c>
@@ -47783,9 +47934,12 @@
       <c r="IU57" s="7">
         <v>190895</v>
       </c>
+      <c r="IV57" s="7">
+        <v>192534</v>
+      </c>
     </row>
-    <row r="58" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>297</v>
       </c>
@@ -48548,9 +48702,12 @@
       <c r="IU58" s="7">
         <v>25409</v>
       </c>
+      <c r="IV58" s="7">
+        <v>24996</v>
+      </c>
     </row>
-    <row r="59" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A59" s="36"/>
+    <row r="59" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>298</v>
       </c>
@@ -49313,9 +49470,12 @@
       <c r="IU59" s="7">
         <v>5578</v>
       </c>
+      <c r="IV59" s="7">
+        <v>5595</v>
+      </c>
     </row>
-    <row r="60" spans="1:255" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="36"/>
+    <row r="60" spans="1:256" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>299</v>
       </c>
@@ -50078,9 +50238,12 @@
       <c r="IU60" s="7">
         <v>43788</v>
       </c>
+      <c r="IV60" s="7">
+        <v>44930</v>
+      </c>
     </row>
-    <row r="61" spans="1:255" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="36"/>
+    <row r="61" spans="1:256" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>300</v>
       </c>
@@ -50843,9 +51006,12 @@
       <c r="IU61" s="8">
         <v>145</v>
       </c>
+      <c r="IV61" s="8">
+        <v>145</v>
+      </c>
     </row>
-    <row r="62" spans="1:255" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="36"/>
+    <row r="62" spans="1:256" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>301</v>
       </c>
@@ -51608,9 +51774,12 @@
       <c r="IU62" s="7">
         <v>15764</v>
       </c>
+      <c r="IV62" s="7">
+        <v>15732</v>
+      </c>
     </row>
-    <row r="63" spans="1:255" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="36"/>
+    <row r="63" spans="1:256" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>302</v>
       </c>
@@ -52373,9 +52542,12 @@
       <c r="IU63" s="7">
         <v>28502</v>
       </c>
+      <c r="IV63" s="7">
+        <v>28856</v>
+      </c>
     </row>
-    <row r="64" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A64" s="36"/>
+    <row r="64" spans="1:256" x14ac:dyDescent="0.35">
+      <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>303</v>
       </c>
@@ -53138,9 +53310,12 @@
       <c r="IU64" s="7">
         <v>46659</v>
       </c>
+      <c r="IV64" s="7">
+        <v>46606</v>
+      </c>
     </row>
     <row r="65" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A65" s="36"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="6" t="s">
         <v>304</v>
       </c>
@@ -53903,9 +54078,12 @@
       <c r="IU65" s="7">
         <v>181823</v>
       </c>
+      <c r="IV65" s="7">
+        <v>183755</v>
+      </c>
     </row>
     <row r="66" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A66" s="36"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="6" t="s">
         <v>305</v>
       </c>
@@ -54668,9 +54846,12 @@
       <c r="IU66" s="7">
         <v>14495</v>
       </c>
+      <c r="IV66" s="7">
+        <v>14471</v>
+      </c>
     </row>
     <row r="67" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A67" s="36"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="6" t="s">
         <v>306</v>
       </c>
@@ -55433,9 +55614,12 @@
       <c r="IU67" s="7">
         <v>5959</v>
       </c>
+      <c r="IV67" s="7">
+        <v>6024</v>
+      </c>
     </row>
     <row r="68" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="36"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="9" t="s">
         <v>292</v>
       </c>
@@ -56198,7 +56382,9 @@
       <c r="IU68" s="10">
         <v>616421</v>
       </c>
-      <c r="IV68" s="29"/>
+      <c r="IV68" s="10">
+        <v>621192</v>
+      </c>
       <c r="IW68" s="29"/>
       <c r="IX68" s="29"/>
       <c r="IY68" s="29"/>
@@ -56848,7 +57034,7 @@
       <c r="AHS68" s="5"/>
     </row>
     <row r="69" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="39" t="s">
         <v>307</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -57613,9 +57799,12 @@
       <c r="IU69" s="7">
         <v>9460</v>
       </c>
+      <c r="IV69" s="7">
+        <v>9672</v>
+      </c>
     </row>
     <row r="70" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A70" s="36"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="6" t="s">
         <v>309</v>
       </c>
@@ -58378,9 +58567,12 @@
       <c r="IU70" s="7">
         <v>1029</v>
       </c>
+      <c r="IV70" s="7">
+        <v>1031</v>
+      </c>
     </row>
     <row r="71" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="36"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="6" t="s">
         <v>310</v>
       </c>
@@ -59143,9 +59335,12 @@
       <c r="IU71" s="7">
         <v>23587</v>
       </c>
+      <c r="IV71" s="7">
+        <v>24061</v>
+      </c>
     </row>
     <row r="72" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A72" s="36"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="6" t="s">
         <v>311</v>
       </c>
@@ -59908,9 +60103,12 @@
       <c r="IU72" s="7">
         <v>2882</v>
       </c>
+      <c r="IV72" s="7">
+        <v>2878</v>
+      </c>
     </row>
     <row r="73" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A73" s="36"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="6" t="s">
         <v>312</v>
       </c>
@@ -60673,9 +60871,12 @@
       <c r="IU73" s="8">
         <v>284</v>
       </c>
+      <c r="IV73" s="8">
+        <v>314</v>
+      </c>
     </row>
     <row r="74" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A74" s="36"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="6" t="s">
         <v>313</v>
       </c>
@@ -61438,9 +61639,12 @@
       <c r="IU74" s="7">
         <v>50968</v>
       </c>
+      <c r="IV74" s="7">
+        <v>50703</v>
+      </c>
     </row>
     <row r="75" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="36"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="9" t="s">
         <v>307</v>
       </c>
@@ -62203,7 +62407,9 @@
       <c r="IU75" s="10">
         <v>88210</v>
       </c>
-      <c r="IV75" s="29"/>
+      <c r="IV75" s="10">
+        <v>88659</v>
+      </c>
       <c r="IW75" s="29"/>
       <c r="IX75" s="29"/>
       <c r="IY75" s="29"/>
@@ -63616,6 +63822,9 @@
       <c r="IU76" s="19">
         <v>1787122</v>
       </c>
+      <c r="IV76" s="19">
+        <v>1800733</v>
+      </c>
     </row>
     <row r="77" spans="1:903" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17"/>
@@ -63868,7 +64077,7 @@
       <c r="IS77" s="30"/>
       <c r="IT77" s="30"/>
       <c r="IU77" s="30"/>
-      <c r="IV77" s="27"/>
+      <c r="IV77" s="30"/>
       <c r="IW77" s="27"/>
       <c r="IX77" s="27"/>
       <c r="IY77" s="27"/>
@@ -64342,15 +64551,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
+  <mergeCells count="32">
+    <mergeCell ref="IU4:IV4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
@@ -64367,13 +64576,14 @@
     <mergeCell ref="DG4:DR4"/>
     <mergeCell ref="HW4:IH4"/>
     <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC4D3D2-E0A4-4028-BAFC-A7F67AB34E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="ta_división_grupo" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_grupo!$A$4:$IL$76</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="331">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -760,9 +759,6 @@
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
   <si>
-    <t>Agricultura.</t>
-  </si>
-  <si>
     <t>Caza.</t>
   </si>
   <si>
@@ -1034,11 +1030,17 @@
   <si>
     <t>2021/Febrero</t>
   </si>
+  <si>
+    <t>2021/Marzo</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1736,8 +1738,14 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1747,12 +1755,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2108,591 +2110,589 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AHS78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AHP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="IX6" sqref="IX6"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="IY8" sqref="IY8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="188" max="188" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="197" max="197" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="209" max="209" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="221" max="221" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="224" max="224" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="233" max="233" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="236" max="236" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="245" max="245" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="10.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="248" max="249" width="10.81640625" style="4"/>
+    <col min="246" max="246" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="10.85546875" style="4"/>
     <col min="250" max="250" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="16.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="252" max="255" width="16.453125" style="4" customWidth="1"/>
-    <col min="256" max="256" width="17.1796875" style="4" customWidth="1"/>
-    <col min="257" max="722" width="10.81640625" style="28"/>
-    <col min="723" max="903" width="10.81640625" style="4"/>
-    <col min="904" max="16384" width="10.81640625" style="3"/>
+    <col min="251" max="251" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="252" max="255" width="16.42578125" style="4" customWidth="1"/>
+    <col min="256" max="257" width="17.140625" style="4" customWidth="1"/>
+    <col min="258" max="719" width="10.85546875" style="28"/>
+    <col min="720" max="900" width="10.85546875" style="4"/>
+    <col min="901" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:903" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:900" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:903" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:900" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:900" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="C4" s="36">
         <v>2000</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36">
         <v>2001</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36">
         <v>2002</v>
       </c>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35">
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36">
         <v>2003</v>
       </c>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35">
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35">
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
+      <c r="BJ4" s="36"/>
+      <c r="BK4" s="36">
         <v>2005</v>
       </c>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35">
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="36"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="36"/>
+      <c r="BQ4" s="36"/>
+      <c r="BR4" s="36"/>
+      <c r="BS4" s="36"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="36"/>
+      <c r="BV4" s="36"/>
+      <c r="BW4" s="36">
         <v>2006</v>
       </c>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35">
+      <c r="BX4" s="36"/>
+      <c r="BY4" s="36"/>
+      <c r="BZ4" s="36"/>
+      <c r="CA4" s="36"/>
+      <c r="CB4" s="36"/>
+      <c r="CC4" s="36"/>
+      <c r="CD4" s="36"/>
+      <c r="CE4" s="36"/>
+      <c r="CF4" s="36"/>
+      <c r="CG4" s="36"/>
+      <c r="CH4" s="36"/>
+      <c r="CI4" s="36">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="35"/>
-      <c r="CM4" s="35"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="35"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="35">
+      <c r="CJ4" s="36"/>
+      <c r="CK4" s="36"/>
+      <c r="CL4" s="36"/>
+      <c r="CM4" s="36"/>
+      <c r="CN4" s="36"/>
+      <c r="CO4" s="36"/>
+      <c r="CP4" s="36"/>
+      <c r="CQ4" s="36"/>
+      <c r="CR4" s="36"/>
+      <c r="CS4" s="36"/>
+      <c r="CT4" s="36"/>
+      <c r="CU4" s="36">
         <v>2008</v>
       </c>
-      <c r="CV4" s="35"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="35"/>
-      <c r="CY4" s="35"/>
-      <c r="CZ4" s="35"/>
-      <c r="DA4" s="35"/>
-      <c r="DB4" s="35"/>
-      <c r="DC4" s="35"/>
-      <c r="DD4" s="35"/>
-      <c r="DE4" s="35"/>
-      <c r="DF4" s="35"/>
-      <c r="DG4" s="35">
+      <c r="CV4" s="36"/>
+      <c r="CW4" s="36"/>
+      <c r="CX4" s="36"/>
+      <c r="CY4" s="36"/>
+      <c r="CZ4" s="36"/>
+      <c r="DA4" s="36"/>
+      <c r="DB4" s="36"/>
+      <c r="DC4" s="36"/>
+      <c r="DD4" s="36"/>
+      <c r="DE4" s="36"/>
+      <c r="DF4" s="36"/>
+      <c r="DG4" s="36">
         <v>2009</v>
       </c>
-      <c r="DH4" s="35"/>
-      <c r="DI4" s="35"/>
-      <c r="DJ4" s="35"/>
-      <c r="DK4" s="35"/>
-      <c r="DL4" s="35"/>
-      <c r="DM4" s="35"/>
-      <c r="DN4" s="35"/>
-      <c r="DO4" s="35"/>
-      <c r="DP4" s="35"/>
-      <c r="DQ4" s="35"/>
-      <c r="DR4" s="35"/>
-      <c r="DS4" s="35">
+      <c r="DH4" s="36"/>
+      <c r="DI4" s="36"/>
+      <c r="DJ4" s="36"/>
+      <c r="DK4" s="36"/>
+      <c r="DL4" s="36"/>
+      <c r="DM4" s="36"/>
+      <c r="DN4" s="36"/>
+      <c r="DO4" s="36"/>
+      <c r="DP4" s="36"/>
+      <c r="DQ4" s="36"/>
+      <c r="DR4" s="36"/>
+      <c r="DS4" s="36">
         <v>2010</v>
       </c>
-      <c r="DT4" s="35"/>
-      <c r="DU4" s="35"/>
-      <c r="DV4" s="35"/>
-      <c r="DW4" s="35"/>
-      <c r="DX4" s="35"/>
-      <c r="DY4" s="35"/>
-      <c r="DZ4" s="35"/>
-      <c r="EA4" s="35"/>
-      <c r="EB4" s="35"/>
-      <c r="EC4" s="35"/>
-      <c r="ED4" s="35"/>
-      <c r="EE4" s="35">
+      <c r="DT4" s="36"/>
+      <c r="DU4" s="36"/>
+      <c r="DV4" s="36"/>
+      <c r="DW4" s="36"/>
+      <c r="DX4" s="36"/>
+      <c r="DY4" s="36"/>
+      <c r="DZ4" s="36"/>
+      <c r="EA4" s="36"/>
+      <c r="EB4" s="36"/>
+      <c r="EC4" s="36"/>
+      <c r="ED4" s="36"/>
+      <c r="EE4" s="36">
         <v>2011</v>
       </c>
-      <c r="EF4" s="35"/>
-      <c r="EG4" s="35"/>
-      <c r="EH4" s="35"/>
-      <c r="EI4" s="35"/>
-      <c r="EJ4" s="35"/>
-      <c r="EK4" s="35"/>
-      <c r="EL4" s="35"/>
-      <c r="EM4" s="35"/>
-      <c r="EN4" s="35"/>
-      <c r="EO4" s="35"/>
-      <c r="EP4" s="35"/>
-      <c r="EQ4" s="35">
+      <c r="EF4" s="36"/>
+      <c r="EG4" s="36"/>
+      <c r="EH4" s="36"/>
+      <c r="EI4" s="36"/>
+      <c r="EJ4" s="36"/>
+      <c r="EK4" s="36"/>
+      <c r="EL4" s="36"/>
+      <c r="EM4" s="36"/>
+      <c r="EN4" s="36"/>
+      <c r="EO4" s="36"/>
+      <c r="EP4" s="36"/>
+      <c r="EQ4" s="36">
         <v>2012</v>
       </c>
-      <c r="ER4" s="35"/>
-      <c r="ES4" s="35"/>
-      <c r="ET4" s="35"/>
-      <c r="EU4" s="35"/>
-      <c r="EV4" s="35"/>
-      <c r="EW4" s="35"/>
-      <c r="EX4" s="35"/>
-      <c r="EY4" s="35"/>
-      <c r="EZ4" s="35"/>
-      <c r="FA4" s="35"/>
-      <c r="FB4" s="35"/>
-      <c r="FC4" s="35">
+      <c r="ER4" s="36"/>
+      <c r="ES4" s="36"/>
+      <c r="ET4" s="36"/>
+      <c r="EU4" s="36"/>
+      <c r="EV4" s="36"/>
+      <c r="EW4" s="36"/>
+      <c r="EX4" s="36"/>
+      <c r="EY4" s="36"/>
+      <c r="EZ4" s="36"/>
+      <c r="FA4" s="36"/>
+      <c r="FB4" s="36"/>
+      <c r="FC4" s="36">
         <v>2013</v>
       </c>
-      <c r="FD4" s="35"/>
-      <c r="FE4" s="35"/>
-      <c r="FF4" s="35"/>
-      <c r="FG4" s="35"/>
-      <c r="FH4" s="35"/>
-      <c r="FI4" s="35"/>
-      <c r="FJ4" s="35"/>
-      <c r="FK4" s="35"/>
-      <c r="FL4" s="35"/>
-      <c r="FM4" s="35"/>
-      <c r="FN4" s="35"/>
-      <c r="FO4" s="35">
+      <c r="FD4" s="36"/>
+      <c r="FE4" s="36"/>
+      <c r="FF4" s="36"/>
+      <c r="FG4" s="36"/>
+      <c r="FH4" s="36"/>
+      <c r="FI4" s="36"/>
+      <c r="FJ4" s="36"/>
+      <c r="FK4" s="36"/>
+      <c r="FL4" s="36"/>
+      <c r="FM4" s="36"/>
+      <c r="FN4" s="36"/>
+      <c r="FO4" s="36">
         <v>2014</v>
       </c>
-      <c r="FP4" s="35"/>
-      <c r="FQ4" s="35"/>
-      <c r="FR4" s="35"/>
-      <c r="FS4" s="35"/>
-      <c r="FT4" s="35"/>
-      <c r="FU4" s="35"/>
-      <c r="FV4" s="35"/>
-      <c r="FW4" s="35"/>
-      <c r="FX4" s="35"/>
-      <c r="FY4" s="35"/>
-      <c r="FZ4" s="35"/>
-      <c r="GA4" s="35">
+      <c r="FP4" s="36"/>
+      <c r="FQ4" s="36"/>
+      <c r="FR4" s="36"/>
+      <c r="FS4" s="36"/>
+      <c r="FT4" s="36"/>
+      <c r="FU4" s="36"/>
+      <c r="FV4" s="36"/>
+      <c r="FW4" s="36"/>
+      <c r="FX4" s="36"/>
+      <c r="FY4" s="36"/>
+      <c r="FZ4" s="36"/>
+      <c r="GA4" s="36">
         <v>2015</v>
       </c>
-      <c r="GB4" s="35"/>
-      <c r="GC4" s="35"/>
-      <c r="GD4" s="35"/>
-      <c r="GE4" s="35"/>
-      <c r="GF4" s="35"/>
-      <c r="GG4" s="35"/>
-      <c r="GH4" s="35"/>
-      <c r="GI4" s="35"/>
-      <c r="GJ4" s="35"/>
-      <c r="GK4" s="35"/>
-      <c r="GL4" s="35"/>
-      <c r="GM4" s="35">
+      <c r="GB4" s="36"/>
+      <c r="GC4" s="36"/>
+      <c r="GD4" s="36"/>
+      <c r="GE4" s="36"/>
+      <c r="GF4" s="36"/>
+      <c r="GG4" s="36"/>
+      <c r="GH4" s="36"/>
+      <c r="GI4" s="36"/>
+      <c r="GJ4" s="36"/>
+      <c r="GK4" s="36"/>
+      <c r="GL4" s="36"/>
+      <c r="GM4" s="36">
         <v>2016</v>
       </c>
-      <c r="GN4" s="35"/>
-      <c r="GO4" s="35"/>
-      <c r="GP4" s="35"/>
-      <c r="GQ4" s="35"/>
-      <c r="GR4" s="35"/>
-      <c r="GS4" s="35"/>
-      <c r="GT4" s="35"/>
-      <c r="GU4" s="35"/>
-      <c r="GV4" s="35"/>
-      <c r="GW4" s="35"/>
-      <c r="GX4" s="35"/>
-      <c r="GY4" s="35">
+      <c r="GN4" s="36"/>
+      <c r="GO4" s="36"/>
+      <c r="GP4" s="36"/>
+      <c r="GQ4" s="36"/>
+      <c r="GR4" s="36"/>
+      <c r="GS4" s="36"/>
+      <c r="GT4" s="36"/>
+      <c r="GU4" s="36"/>
+      <c r="GV4" s="36"/>
+      <c r="GW4" s="36"/>
+      <c r="GX4" s="36"/>
+      <c r="GY4" s="36">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="35"/>
-      <c r="HA4" s="35"/>
-      <c r="HB4" s="35"/>
-      <c r="HC4" s="35"/>
-      <c r="HD4" s="35"/>
-      <c r="HE4" s="35"/>
-      <c r="HF4" s="35"/>
-      <c r="HG4" s="35"/>
-      <c r="HH4" s="35"/>
-      <c r="HI4" s="35"/>
-      <c r="HJ4" s="35"/>
-      <c r="HK4" s="35">
+      <c r="GZ4" s="36"/>
+      <c r="HA4" s="36"/>
+      <c r="HB4" s="36"/>
+      <c r="HC4" s="36"/>
+      <c r="HD4" s="36"/>
+      <c r="HE4" s="36"/>
+      <c r="HF4" s="36"/>
+      <c r="HG4" s="36"/>
+      <c r="HH4" s="36"/>
+      <c r="HI4" s="36"/>
+      <c r="HJ4" s="36"/>
+      <c r="HK4" s="36">
         <v>2018</v>
       </c>
-      <c r="HL4" s="35"/>
-      <c r="HM4" s="35"/>
-      <c r="HN4" s="35"/>
-      <c r="HO4" s="35"/>
-      <c r="HP4" s="35"/>
-      <c r="HQ4" s="35"/>
-      <c r="HR4" s="35"/>
-      <c r="HS4" s="35"/>
-      <c r="HT4" s="35"/>
-      <c r="HU4" s="35"/>
-      <c r="HV4" s="35"/>
-      <c r="HW4" s="35">
+      <c r="HL4" s="36"/>
+      <c r="HM4" s="36"/>
+      <c r="HN4" s="36"/>
+      <c r="HO4" s="36"/>
+      <c r="HP4" s="36"/>
+      <c r="HQ4" s="36"/>
+      <c r="HR4" s="36"/>
+      <c r="HS4" s="36"/>
+      <c r="HT4" s="36"/>
+      <c r="HU4" s="36"/>
+      <c r="HV4" s="36"/>
+      <c r="HW4" s="36">
         <v>2019</v>
       </c>
-      <c r="HX4" s="35"/>
-      <c r="HY4" s="35"/>
-      <c r="HZ4" s="35"/>
-      <c r="IA4" s="35"/>
-      <c r="IB4" s="35"/>
-      <c r="IC4" s="35"/>
-      <c r="ID4" s="35"/>
-      <c r="IE4" s="35"/>
-      <c r="IF4" s="35"/>
-      <c r="IG4" s="35"/>
-      <c r="IH4" s="36"/>
-      <c r="II4" s="36">
+      <c r="HX4" s="36"/>
+      <c r="HY4" s="36"/>
+      <c r="HZ4" s="36"/>
+      <c r="IA4" s="36"/>
+      <c r="IB4" s="36"/>
+      <c r="IC4" s="36"/>
+      <c r="ID4" s="36"/>
+      <c r="IE4" s="36"/>
+      <c r="IF4" s="36"/>
+      <c r="IG4" s="36"/>
+      <c r="IH4" s="38"/>
+      <c r="II4" s="38">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="37"/>
-      <c r="IK4" s="37"/>
-      <c r="IL4" s="37"/>
-      <c r="IM4" s="37"/>
-      <c r="IN4" s="37"/>
-      <c r="IO4" s="37"/>
-      <c r="IP4" s="37"/>
-      <c r="IQ4" s="37"/>
-      <c r="IR4" s="37"/>
-      <c r="IS4" s="37"/>
-      <c r="IT4" s="38"/>
-      <c r="IU4" s="36">
+      <c r="IJ4" s="39"/>
+      <c r="IK4" s="39"/>
+      <c r="IL4" s="39"/>
+      <c r="IM4" s="39"/>
+      <c r="IN4" s="39"/>
+      <c r="IO4" s="39"/>
+      <c r="IP4" s="39"/>
+      <c r="IQ4" s="39"/>
+      <c r="IR4" s="39"/>
+      <c r="IS4" s="39"/>
+      <c r="IT4" s="40"/>
+      <c r="IU4" s="38">
         <v>2021</v>
       </c>
-      <c r="IV4" s="38"/>
-      <c r="IW4" s="29"/>
+      <c r="IV4" s="39"/>
+      <c r="IW4" s="40"/>
       <c r="IX4" s="29"/>
       <c r="IY4" s="29"/>
       <c r="IZ4" s="29"/>
@@ -3155,9 +3155,9 @@
       <c r="AAO4" s="29"/>
       <c r="AAP4" s="29"/>
       <c r="AAQ4" s="29"/>
-      <c r="AAR4" s="29"/>
-      <c r="AAS4" s="29"/>
-      <c r="AAT4" s="29"/>
+      <c r="AAR4" s="5"/>
+      <c r="AAS4" s="5"/>
+      <c r="AAT4" s="5"/>
       <c r="AAU4" s="5"/>
       <c r="AAV4" s="5"/>
       <c r="AAW4" s="5"/>
@@ -3336,13 +3336,10 @@
       <c r="AHN4" s="5"/>
       <c r="AHO4" s="5"/>
       <c r="AHP4" s="5"/>
-      <c r="AHQ4" s="5"/>
-      <c r="AHR4" s="5"/>
-      <c r="AHS4" s="5"/>
     </row>
-    <row r="5" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:900" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4076,36 +4073,38 @@
         <v>243</v>
       </c>
       <c r="IM5" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="IN5" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="IN5" s="32" t="s">
+      <c r="IO5" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="IO5" s="33" t="s">
+      <c r="IP5" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="IP5" s="33" t="s">
+      <c r="IQ5" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="IQ5" s="34" t="s">
+      <c r="IR5" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="IR5" s="34" t="s">
+      <c r="IS5" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="IS5" s="31" t="s">
+      <c r="IT5" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="IT5" s="31" t="s">
-        <v>326</v>
-      </c>
       <c r="IU5" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="IV5" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="IV5" s="31" t="s">
+      <c r="IW5" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="IW5" s="29"/>
       <c r="IX5" s="29"/>
       <c r="IY5" s="29"/>
       <c r="IZ5" s="29"/>
@@ -4568,9 +4567,9 @@
       <c r="AAO5" s="29"/>
       <c r="AAP5" s="29"/>
       <c r="AAQ5" s="29"/>
-      <c r="AAR5" s="29"/>
-      <c r="AAS5" s="29"/>
-      <c r="AAT5" s="29"/>
+      <c r="AAR5" s="5"/>
+      <c r="AAS5" s="5"/>
+      <c r="AAT5" s="5"/>
       <c r="AAU5" s="5"/>
       <c r="AAV5" s="5"/>
       <c r="AAW5" s="5"/>
@@ -4749,16 +4748,13 @@
       <c r="AHN5" s="5"/>
       <c r="AHO5" s="5"/>
       <c r="AHP5" s="5"/>
-      <c r="AHQ5" s="5"/>
-      <c r="AHR5" s="5"/>
-      <c r="AHS5" s="5"/>
     </row>
-    <row r="6" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="C6" s="7">
         <v>32977</v>
@@ -5522,11 +5518,14 @@
       <c r="IV6" s="7">
         <v>91852</v>
       </c>
+      <c r="IW6" s="7">
+        <v>89875</v>
+      </c>
     </row>
-    <row r="7" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
       <c r="B7" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -6290,11 +6289,14 @@
       <c r="IV7" s="8">
         <v>44</v>
       </c>
+      <c r="IW7" s="7">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
       <c r="B8" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="7">
         <v>15598</v>
@@ -7058,11 +7060,14 @@
       <c r="IV8" s="7">
         <v>21734</v>
       </c>
+      <c r="IW8" s="7">
+        <v>22142</v>
+      </c>
     </row>
-    <row r="9" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
       <c r="B9" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" s="8">
         <v>224</v>
@@ -7826,11 +7831,14 @@
       <c r="IV9" s="7">
         <v>426</v>
       </c>
+      <c r="IW9" s="7">
+        <v>416</v>
+      </c>
     </row>
-    <row r="10" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
       <c r="B10" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="8">
         <v>760</v>
@@ -8594,9 +8602,12 @@
       <c r="IV10" s="8">
         <v>455</v>
       </c>
+      <c r="IW10" s="7">
+        <v>445</v>
+      </c>
     </row>
-    <row r="11" spans="1:903" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:900" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9362,7 +9373,9 @@
       <c r="IV11" s="10">
         <v>114511</v>
       </c>
-      <c r="IW11" s="29"/>
+      <c r="IW11" s="10">
+        <v>112922</v>
+      </c>
       <c r="IX11" s="29"/>
       <c r="IY11" s="29"/>
       <c r="IZ11" s="29"/>
@@ -9825,9 +9838,9 @@
       <c r="AAO11" s="29"/>
       <c r="AAP11" s="29"/>
       <c r="AAQ11" s="29"/>
-      <c r="AAR11" s="29"/>
-      <c r="AAS11" s="29"/>
-      <c r="AAT11" s="29"/>
+      <c r="AAR11" s="5"/>
+      <c r="AAS11" s="5"/>
+      <c r="AAT11" s="5"/>
       <c r="AAU11" s="5"/>
       <c r="AAV11" s="5"/>
       <c r="AAW11" s="5"/>
@@ -10006,16 +10019,13 @@
       <c r="AHN11" s="5"/>
       <c r="AHO11" s="5"/>
       <c r="AHP11" s="5"/>
-      <c r="AHQ11" s="5"/>
-      <c r="AHR11" s="5"/>
-      <c r="AHS11" s="5"/>
     </row>
-    <row r="12" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="C12" s="7">
         <v>33156</v>
@@ -10779,11 +10789,14 @@
       <c r="IV12" s="7">
         <v>69476</v>
       </c>
+      <c r="IW12" s="7">
+        <v>69907</v>
+      </c>
     </row>
-    <row r="13" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
       <c r="B13" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="7">
         <v>12831</v>
@@ -11547,11 +11560,14 @@
       <c r="IV13" s="7">
         <v>18772</v>
       </c>
+      <c r="IW13" s="7">
+        <v>18476</v>
+      </c>
     </row>
-    <row r="14" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
       <c r="B14" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C14" s="7">
         <v>11712</v>
@@ -12315,11 +12331,14 @@
       <c r="IV14" s="7">
         <v>30170</v>
       </c>
+      <c r="IW14" s="7">
+        <v>30276</v>
+      </c>
     </row>
-    <row r="15" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
       <c r="B15" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="7">
         <v>9718</v>
@@ -13083,11 +13102,14 @@
       <c r="IV15" s="7">
         <v>23102</v>
       </c>
+      <c r="IW15" s="7">
+        <v>23258</v>
+      </c>
     </row>
-    <row r="16" spans="1:903" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:900" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
       <c r="B16" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" s="7">
         <v>3882</v>
@@ -13851,11 +13873,14 @@
       <c r="IV16" s="7">
         <v>13778</v>
       </c>
+      <c r="IW16" s="7">
+        <v>13671</v>
+      </c>
     </row>
-    <row r="17" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
       <c r="B17" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="7">
         <v>13895</v>
@@ -14619,11 +14644,14 @@
       <c r="IV17" s="7">
         <v>42664</v>
       </c>
+      <c r="IW17" s="7">
+        <v>43445</v>
+      </c>
     </row>
-    <row r="18" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
       <c r="B18" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="7">
         <v>24673</v>
@@ -15387,11 +15415,14 @@
       <c r="IV18" s="7">
         <v>55191</v>
       </c>
+      <c r="IW18" s="7">
+        <v>55348</v>
+      </c>
     </row>
-    <row r="19" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
       <c r="B19" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="7">
         <v>34665</v>
@@ -16155,11 +16186,14 @@
       <c r="IV19" s="7">
         <v>63369</v>
       </c>
+      <c r="IW19" s="7">
+        <v>63690</v>
+      </c>
     </row>
-    <row r="20" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
       <c r="B20" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" s="7">
         <v>15444</v>
@@ -16923,11 +16957,14 @@
       <c r="IV20" s="7">
         <v>50532</v>
       </c>
+      <c r="IW20" s="7">
+        <v>50562</v>
+      </c>
     </row>
-    <row r="21" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="39"/>
+    <row r="21" spans="1:900" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
       <c r="B21" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" s="10">
         <v>159976</v>
@@ -17691,7 +17728,9 @@
       <c r="IV21" s="10">
         <v>367054</v>
       </c>
-      <c r="IW21" s="29"/>
+      <c r="IW21" s="10">
+        <v>368633</v>
+      </c>
       <c r="IX21" s="29"/>
       <c r="IY21" s="29"/>
       <c r="IZ21" s="29"/>
@@ -18154,9 +18193,9 @@
       <c r="AAO21" s="29"/>
       <c r="AAP21" s="29"/>
       <c r="AAQ21" s="29"/>
-      <c r="AAR21" s="29"/>
-      <c r="AAS21" s="29"/>
-      <c r="AAT21" s="29"/>
+      <c r="AAR21" s="5"/>
+      <c r="AAS21" s="5"/>
+      <c r="AAT21" s="5"/>
       <c r="AAU21" s="5"/>
       <c r="AAV21" s="5"/>
       <c r="AAW21" s="5"/>
@@ -18335,16 +18374,13 @@
       <c r="AHN21" s="5"/>
       <c r="AHO21" s="5"/>
       <c r="AHP21" s="5"/>
-      <c r="AHQ21" s="5"/>
-      <c r="AHR21" s="5"/>
-      <c r="AHS21" s="5"/>
     </row>
-    <row r="22" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="C22" s="7">
         <v>52371</v>
@@ -19108,11 +19144,14 @@
       <c r="IV22" s="7">
         <v>98807</v>
       </c>
+      <c r="IW22" s="7">
+        <v>98064</v>
+      </c>
     </row>
-    <row r="23" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
+    <row r="23" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
       <c r="B23" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C23" s="7">
         <v>10119</v>
@@ -19876,11 +19915,14 @@
       <c r="IV23" s="7">
         <v>36525</v>
       </c>
+      <c r="IW23" s="7">
+        <v>36582</v>
+      </c>
     </row>
-    <row r="24" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:900" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
       <c r="B24" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C24" s="10">
         <v>62490</v>
@@ -20644,7 +20686,9 @@
       <c r="IV24" s="10">
         <v>135332</v>
       </c>
-      <c r="IW24" s="29"/>
+      <c r="IW24" s="10">
+        <v>134646</v>
+      </c>
       <c r="IX24" s="29"/>
       <c r="IY24" s="29"/>
       <c r="IZ24" s="29"/>
@@ -21107,9 +21151,9 @@
       <c r="AAO24" s="29"/>
       <c r="AAP24" s="29"/>
       <c r="AAQ24" s="29"/>
-      <c r="AAR24" s="29"/>
-      <c r="AAS24" s="29"/>
-      <c r="AAT24" s="29"/>
+      <c r="AAR24" s="5"/>
+      <c r="AAS24" s="5"/>
+      <c r="AAT24" s="5"/>
       <c r="AAU24" s="5"/>
       <c r="AAV24" s="5"/>
       <c r="AAW24" s="5"/>
@@ -21288,16 +21332,13 @@
       <c r="AHN24" s="5"/>
       <c r="AHO24" s="5"/>
       <c r="AHP24" s="5"/>
-      <c r="AHQ24" s="5"/>
-      <c r="AHR24" s="5"/>
-      <c r="AHS24" s="5"/>
     </row>
-    <row r="25" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="C25" s="7">
         <v>2767</v>
@@ -22061,11 +22102,14 @@
       <c r="IV25" s="7">
         <v>4346</v>
       </c>
+      <c r="IW25" s="7">
+        <v>4481</v>
+      </c>
     </row>
-    <row r="26" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
       <c r="B26" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C26" s="7">
         <v>4509</v>
@@ -22829,11 +22873,14 @@
       <c r="IV26" s="7">
         <v>5654</v>
       </c>
+      <c r="IW26" s="7">
+        <v>5651</v>
+      </c>
     </row>
-    <row r="27" spans="1:903" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:900" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
       <c r="B27" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C27" s="10">
         <v>7276</v>
@@ -23597,7 +23644,9 @@
       <c r="IV27" s="10">
         <v>10000</v>
       </c>
-      <c r="IW27" s="29"/>
+      <c r="IW27" s="10">
+        <v>10132</v>
+      </c>
       <c r="IX27" s="29"/>
       <c r="IY27" s="29"/>
       <c r="IZ27" s="29"/>
@@ -24060,9 +24109,9 @@
       <c r="AAO27" s="29"/>
       <c r="AAP27" s="29"/>
       <c r="AAQ27" s="29"/>
-      <c r="AAR27" s="29"/>
-      <c r="AAS27" s="29"/>
-      <c r="AAT27" s="29"/>
+      <c r="AAR27" s="5"/>
+      <c r="AAS27" s="5"/>
+      <c r="AAT27" s="5"/>
       <c r="AAU27" s="5"/>
       <c r="AAV27" s="5"/>
       <c r="AAW27" s="5"/>
@@ -24241,16 +24290,13 @@
       <c r="AHN27" s="5"/>
       <c r="AHO27" s="5"/>
       <c r="AHP27" s="5"/>
-      <c r="AHQ27" s="5"/>
-      <c r="AHR27" s="5"/>
-      <c r="AHS27" s="5"/>
     </row>
-    <row r="28" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="C28" s="8">
         <v>585</v>
@@ -25014,11 +25060,14 @@
       <c r="IV28" s="7">
         <v>1340</v>
       </c>
+      <c r="IW28" s="7">
+        <v>1344</v>
+      </c>
     </row>
-    <row r="29" spans="1:903" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="39"/>
+    <row r="29" spans="1:900" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
       <c r="B29" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29" s="7">
         <v>23132</v>
@@ -25782,11 +25831,14 @@
       <c r="IV29" s="7">
         <v>10129</v>
       </c>
+      <c r="IW29" s="7">
+        <v>10392</v>
+      </c>
     </row>
-    <row r="30" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="39"/>
+    <row r="30" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
       <c r="B30" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C30" s="7">
         <v>8196</v>
@@ -26550,11 +26602,14 @@
       <c r="IV30" s="7">
         <v>27931</v>
       </c>
+      <c r="IW30" s="7">
+        <v>27821</v>
+      </c>
     </row>
-    <row r="31" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
+    <row r="31" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
       <c r="B31" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C31" s="7">
         <v>54446</v>
@@ -27318,11 +27373,14 @@
       <c r="IV31" s="7">
         <v>98814</v>
       </c>
+      <c r="IW31" s="7">
+        <v>98457</v>
+      </c>
     </row>
-    <row r="32" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A32" s="39"/>
+    <row r="32" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
       <c r="B32" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C32" s="7">
         <v>16186</v>
@@ -28086,11 +28144,14 @@
       <c r="IV32" s="7">
         <v>21057</v>
       </c>
+      <c r="IW32" s="7">
+        <v>21328</v>
+      </c>
     </row>
-    <row r="33" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A33" s="39"/>
+    <row r="33" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
       <c r="B33" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C33" s="7">
         <v>22695</v>
@@ -28854,11 +28915,14 @@
       <c r="IV33" s="7">
         <v>9678</v>
       </c>
+      <c r="IW33" s="7">
+        <v>9546</v>
+      </c>
     </row>
-    <row r="34" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A34" s="39"/>
+    <row r="34" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
       <c r="B34" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C34" s="7">
         <v>26932</v>
@@ -29622,11 +29686,14 @@
       <c r="IV34" s="7">
         <v>40710</v>
       </c>
+      <c r="IW34" s="7">
+        <v>40511</v>
+      </c>
     </row>
-    <row r="35" spans="1:903" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="39"/>
+    <row r="35" spans="1:900" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
       <c r="B35" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C35" s="7">
         <v>11188</v>
@@ -30390,11 +30457,14 @@
       <c r="IV35" s="7">
         <v>8635</v>
       </c>
+      <c r="IW35" s="7">
+        <v>8787</v>
+      </c>
     </row>
-    <row r="36" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="39"/>
+    <row r="36" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
       <c r="B36" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C36" s="7">
         <v>32335</v>
@@ -31158,11 +31228,14 @@
       <c r="IV36" s="7">
         <v>46738</v>
       </c>
+      <c r="IW36" s="7">
+        <v>46890</v>
+      </c>
     </row>
-    <row r="37" spans="1:903" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:900" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
       <c r="B37" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C37" s="7">
         <v>37166</v>
@@ -31926,11 +31999,14 @@
       <c r="IV37" s="7">
         <v>57482</v>
       </c>
+      <c r="IW37" s="7">
+        <v>57801</v>
+      </c>
     </row>
-    <row r="38" spans="1:903" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="39"/>
+    <row r="38" spans="1:900" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
       <c r="B38" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C38" s="7">
         <v>16307</v>
@@ -32694,11 +32770,14 @@
       <c r="IV38" s="7">
         <v>21549</v>
       </c>
+      <c r="IW38" s="7">
+        <v>21716</v>
+      </c>
     </row>
-    <row r="39" spans="1:903" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="39"/>
+    <row r="39" spans="1:900" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
       <c r="B39" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C39" s="7">
         <v>8460</v>
@@ -33462,11 +33541,14 @@
       <c r="IV39" s="7">
         <v>17690</v>
       </c>
+      <c r="IW39" s="7">
+        <v>17924</v>
+      </c>
     </row>
-    <row r="40" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A40" s="39"/>
+    <row r="40" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
       <c r="B40" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C40" s="7">
         <v>5082</v>
@@ -34230,11 +34312,14 @@
       <c r="IV40" s="7">
         <v>11211</v>
       </c>
+      <c r="IW40" s="7">
+        <v>11253</v>
+      </c>
     </row>
-    <row r="41" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A41" s="39"/>
+    <row r="41" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
       <c r="B41" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C41" s="7">
         <v>9673</v>
@@ -34998,11 +35083,14 @@
       <c r="IV41" s="7">
         <v>13447</v>
       </c>
+      <c r="IW41" s="7">
+        <v>13540</v>
+      </c>
     </row>
-    <row r="42" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A42" s="39"/>
+    <row r="42" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
       <c r="B42" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C42" s="7">
         <v>19058</v>
@@ -35766,11 +35854,14 @@
       <c r="IV42" s="7">
         <v>46197</v>
       </c>
+      <c r="IW42" s="7">
+        <v>46354</v>
+      </c>
     </row>
-    <row r="43" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A43" s="39"/>
+    <row r="43" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
       <c r="B43" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C43" s="7">
         <v>8416</v>
@@ -36534,11 +36625,14 @@
       <c r="IV43" s="7">
         <v>4341</v>
       </c>
+      <c r="IW43" s="7">
+        <v>4345</v>
+      </c>
     </row>
-    <row r="44" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="39"/>
+    <row r="44" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
       <c r="B44" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C44" s="7">
         <v>3411</v>
@@ -37302,11 +37396,14 @@
       <c r="IV44" s="7">
         <v>5236</v>
       </c>
+      <c r="IW44" s="7">
+        <v>5226</v>
+      </c>
     </row>
-    <row r="45" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A45" s="39"/>
+    <row r="45" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
       <c r="B45" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C45" s="7">
         <v>4183</v>
@@ -38070,11 +38167,14 @@
       <c r="IV45" s="7">
         <v>6230</v>
       </c>
+      <c r="IW45" s="7">
+        <v>6237</v>
+      </c>
     </row>
-    <row r="46" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A46" s="39"/>
+    <row r="46" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
       <c r="B46" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C46" s="7">
         <v>16704</v>
@@ -38838,11 +38938,14 @@
       <c r="IV46" s="7">
         <v>11855</v>
       </c>
+      <c r="IW46" s="7">
+        <v>11901</v>
+      </c>
     </row>
-    <row r="47" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
       <c r="B47" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C47" s="8">
         <v>740</v>
@@ -39606,11 +39709,14 @@
       <c r="IV47" s="8">
         <v>1138</v>
       </c>
+      <c r="IW47" s="7">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="48" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:900" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
       <c r="B48" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C48" s="10">
         <v>324895</v>
@@ -40374,7 +40480,9 @@
       <c r="IV48" s="10">
         <v>461408</v>
       </c>
-      <c r="IW48" s="29"/>
+      <c r="IW48" s="10">
+        <v>462527</v>
+      </c>
       <c r="IX48" s="29"/>
       <c r="IY48" s="29"/>
       <c r="IZ48" s="29"/>
@@ -40837,9 +40945,9 @@
       <c r="AAO48" s="29"/>
       <c r="AAP48" s="29"/>
       <c r="AAQ48" s="29"/>
-      <c r="AAR48" s="29"/>
-      <c r="AAS48" s="29"/>
-      <c r="AAT48" s="29"/>
+      <c r="AAR48" s="5"/>
+      <c r="AAS48" s="5"/>
+      <c r="AAT48" s="5"/>
       <c r="AAU48" s="5"/>
       <c r="AAV48" s="5"/>
       <c r="AAW48" s="5"/>
@@ -41018,16 +41126,13 @@
       <c r="AHN48" s="5"/>
       <c r="AHO48" s="5"/>
       <c r="AHP48" s="5"/>
-      <c r="AHQ48" s="5"/>
-      <c r="AHR48" s="5"/>
-      <c r="AHS48" s="5"/>
     </row>
-    <row r="49" spans="1:256" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="39" t="s">
+    <row r="49" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="C49" s="8">
         <v>0</v>
@@ -41791,11 +41896,14 @@
       <c r="IV49" s="8">
         <v>9</v>
       </c>
+      <c r="IW49" s="7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="50" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:257" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
       <c r="B50" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C50" s="8">
         <v>0</v>
@@ -42559,11 +42667,14 @@
       <c r="IV50" s="8">
         <v>0</v>
       </c>
+      <c r="IW50" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:256" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="39"/>
+    <row r="51" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
       <c r="B51" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C51" s="7">
         <v>1224</v>
@@ -43327,11 +43438,14 @@
       <c r="IV51" s="7">
         <v>1360</v>
       </c>
+      <c r="IW51" s="7">
+        <v>1358</v>
+      </c>
     </row>
-    <row r="52" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
       <c r="B52" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C52" s="8">
         <v>648</v>
@@ -44095,11 +44209,14 @@
       <c r="IV52" s="7">
         <v>1208</v>
       </c>
+      <c r="IW52" s="7">
+        <v>1166</v>
+      </c>
     </row>
-    <row r="53" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A53" s="39"/>
+    <row r="53" spans="1:257" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
       <c r="B53" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C53" s="10">
         <v>1872</v>
@@ -44863,13 +44980,16 @@
       <c r="IV53" s="10">
         <v>2577</v>
       </c>
+      <c r="IW53" s="10">
+        <v>2534</v>
+      </c>
     </row>
-    <row r="54" spans="1:256" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="39" t="s">
+    <row r="54" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="C54" s="7">
         <v>3718</v>
@@ -45633,11 +45753,14 @@
       <c r="IV54" s="7">
         <v>5758</v>
       </c>
+      <c r="IW54" s="7">
+        <v>5792</v>
+      </c>
     </row>
-    <row r="55" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A55" s="39"/>
+    <row r="55" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
       <c r="B55" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C55" s="7">
         <v>26797</v>
@@ -46401,11 +46524,14 @@
       <c r="IV55" s="7">
         <v>44976</v>
       </c>
+      <c r="IW55" s="7">
+        <v>44855</v>
+      </c>
     </row>
-    <row r="56" spans="1:256" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
       <c r="B56" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C56" s="7">
         <v>2329</v>
@@ -47169,11 +47295,14 @@
       <c r="IV56" s="7">
         <v>6814</v>
       </c>
+      <c r="IW56" s="7">
+        <v>6693</v>
+      </c>
     </row>
-    <row r="57" spans="1:256" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
       <c r="B57" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C57" s="7">
         <v>112592</v>
@@ -47937,11 +48066,14 @@
       <c r="IV57" s="7">
         <v>192534</v>
       </c>
+      <c r="IW57" s="7">
+        <v>193115</v>
+      </c>
     </row>
-    <row r="58" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:257" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
       <c r="B58" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C58" s="7">
         <v>21946</v>
@@ -48705,11 +48837,14 @@
       <c r="IV58" s="7">
         <v>24996</v>
       </c>
+      <c r="IW58" s="7">
+        <v>26119</v>
+      </c>
     </row>
-    <row r="59" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A59" s="39"/>
+    <row r="59" spans="1:257" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
       <c r="B59" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C59" s="7">
         <v>1901</v>
@@ -49473,11 +49608,14 @@
       <c r="IV59" s="7">
         <v>5595</v>
       </c>
+      <c r="IW59" s="7">
+        <v>5801</v>
+      </c>
     </row>
-    <row r="60" spans="1:256" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="39"/>
+    <row r="60" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
       <c r="B60" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C60" s="7">
         <v>33821</v>
@@ -50241,11 +50379,14 @@
       <c r="IV60" s="7">
         <v>44930</v>
       </c>
+      <c r="IW60" s="7">
+        <v>45150</v>
+      </c>
     </row>
-    <row r="61" spans="1:256" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="39"/>
+    <row r="61" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="35"/>
       <c r="B61" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C61" s="8">
         <v>62</v>
@@ -51009,11 +51150,14 @@
       <c r="IV61" s="8">
         <v>145</v>
       </c>
+      <c r="IW61" s="7">
+        <v>145</v>
+      </c>
     </row>
-    <row r="62" spans="1:256" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="39"/>
+    <row r="62" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="35"/>
       <c r="B62" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C62" s="7">
         <v>12690</v>
@@ -51777,11 +51921,14 @@
       <c r="IV62" s="7">
         <v>15732</v>
       </c>
+      <c r="IW62" s="7">
+        <v>15628</v>
+      </c>
     </row>
-    <row r="63" spans="1:256" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="39"/>
+    <row r="63" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="35"/>
       <c r="B63" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C63" s="7">
         <v>10464</v>
@@ -52545,11 +52692,14 @@
       <c r="IV63" s="7">
         <v>28856</v>
       </c>
+      <c r="IW63" s="7">
+        <v>29054</v>
+      </c>
     </row>
-    <row r="64" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:257" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="35"/>
       <c r="B64" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C64" s="7">
         <v>27774</v>
@@ -53313,11 +53463,14 @@
       <c r="IV64" s="7">
         <v>46606</v>
       </c>
+      <c r="IW64" s="7">
+        <v>47371</v>
+      </c>
     </row>
-    <row r="65" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A65" s="39"/>
+    <row r="65" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A65" s="35"/>
       <c r="B65" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C65" s="7">
         <v>68183</v>
@@ -54081,11 +54234,14 @@
       <c r="IV65" s="7">
         <v>183755</v>
       </c>
+      <c r="IW65" s="7">
+        <v>183456</v>
+      </c>
     </row>
-    <row r="66" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A66" s="39"/>
+    <row r="66" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A66" s="35"/>
       <c r="B66" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C66" s="7">
         <v>10771</v>
@@ -54849,11 +55005,14 @@
       <c r="IV66" s="7">
         <v>14471</v>
       </c>
+      <c r="IW66" s="7">
+        <v>14669</v>
+      </c>
     </row>
-    <row r="67" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A67" s="39"/>
+    <row r="67" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
       <c r="B67" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C67" s="7">
         <v>2548</v>
@@ -55617,11 +55776,14 @@
       <c r="IV67" s="7">
         <v>6024</v>
       </c>
+      <c r="IW67" s="7">
+        <v>6330</v>
+      </c>
     </row>
-    <row r="68" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="39"/>
+    <row r="68" spans="1:900" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="35"/>
       <c r="B68" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C68" s="10">
         <v>335596</v>
@@ -56385,7 +56547,9 @@
       <c r="IV68" s="10">
         <v>621192</v>
       </c>
-      <c r="IW68" s="29"/>
+      <c r="IW68" s="10">
+        <v>624178</v>
+      </c>
       <c r="IX68" s="29"/>
       <c r="IY68" s="29"/>
       <c r="IZ68" s="29"/>
@@ -56848,9 +57012,9 @@
       <c r="AAO68" s="29"/>
       <c r="AAP68" s="29"/>
       <c r="AAQ68" s="29"/>
-      <c r="AAR68" s="29"/>
-      <c r="AAS68" s="29"/>
-      <c r="AAT68" s="29"/>
+      <c r="AAR68" s="5"/>
+      <c r="AAS68" s="5"/>
+      <c r="AAT68" s="5"/>
       <c r="AAU68" s="5"/>
       <c r="AAV68" s="5"/>
       <c r="AAW68" s="5"/>
@@ -57029,16 +57193,13 @@
       <c r="AHN68" s="5"/>
       <c r="AHO68" s="5"/>
       <c r="AHP68" s="5"/>
-      <c r="AHQ68" s="5"/>
-      <c r="AHR68" s="5"/>
-      <c r="AHS68" s="5"/>
     </row>
-    <row r="69" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A69" s="39" t="s">
+    <row r="69" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="C69" s="7">
         <v>4386</v>
@@ -57802,11 +57963,14 @@
       <c r="IV69" s="7">
         <v>9672</v>
       </c>
+      <c r="IW69" s="7">
+        <v>9721</v>
+      </c>
     </row>
-    <row r="70" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A70" s="39"/>
+    <row r="70" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A70" s="35"/>
       <c r="B70" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C70" s="7">
         <v>1365</v>
@@ -58570,11 +58734,14 @@
       <c r="IV70" s="7">
         <v>1031</v>
       </c>
+      <c r="IW70" s="7">
+        <v>1040</v>
+      </c>
     </row>
-    <row r="71" spans="1:903" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="39"/>
+    <row r="71" spans="1:900" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="35"/>
       <c r="B71" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C71" s="7">
         <v>9299</v>
@@ -59338,11 +59505,14 @@
       <c r="IV71" s="7">
         <v>24061</v>
       </c>
+      <c r="IW71" s="7">
+        <v>24191</v>
+      </c>
     </row>
-    <row r="72" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A72" s="39"/>
+    <row r="72" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A72" s="35"/>
       <c r="B72" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C72" s="7">
         <v>1498</v>
@@ -60106,11 +60276,14 @@
       <c r="IV72" s="7">
         <v>2878</v>
       </c>
+      <c r="IW72" s="7">
+        <v>2779</v>
+      </c>
     </row>
-    <row r="73" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A73" s="39"/>
+    <row r="73" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A73" s="35"/>
       <c r="B73" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C73" s="8">
         <v>419</v>
@@ -60874,11 +61047,14 @@
       <c r="IV73" s="8">
         <v>314</v>
       </c>
+      <c r="IW73" s="7">
+        <v>259</v>
+      </c>
     </row>
-    <row r="74" spans="1:903" x14ac:dyDescent="0.35">
-      <c r="A74" s="39"/>
+    <row r="74" spans="1:900" x14ac:dyDescent="0.25">
+      <c r="A74" s="35"/>
       <c r="B74" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C74" s="7">
         <v>28178</v>
@@ -61642,11 +61818,14 @@
       <c r="IV74" s="7">
         <v>50703</v>
       </c>
+      <c r="IW74" s="7">
+        <v>50057</v>
+      </c>
     </row>
-    <row r="75" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="39"/>
+    <row r="75" spans="1:900" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="35"/>
       <c r="B75" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C75" s="10">
         <v>45145</v>
@@ -62410,7 +62589,9 @@
       <c r="IV75" s="10">
         <v>88659</v>
       </c>
-      <c r="IW75" s="29"/>
+      <c r="IW75" s="10">
+        <v>88047</v>
+      </c>
       <c r="IX75" s="29"/>
       <c r="IY75" s="29"/>
       <c r="IZ75" s="29"/>
@@ -62873,9 +63054,9 @@
       <c r="AAO75" s="29"/>
       <c r="AAP75" s="29"/>
       <c r="AAQ75" s="29"/>
-      <c r="AAR75" s="29"/>
-      <c r="AAS75" s="29"/>
-      <c r="AAT75" s="29"/>
+      <c r="AAR75" s="5"/>
+      <c r="AAS75" s="5"/>
+      <c r="AAT75" s="5"/>
       <c r="AAU75" s="5"/>
       <c r="AAV75" s="5"/>
       <c r="AAW75" s="5"/>
@@ -63054,13 +63235,10 @@
       <c r="AHN75" s="5"/>
       <c r="AHO75" s="5"/>
       <c r="AHP75" s="5"/>
-      <c r="AHQ75" s="5"/>
-      <c r="AHR75" s="5"/>
-      <c r="AHS75" s="5"/>
     </row>
-    <row r="76" spans="1:903" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:900" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="15">
@@ -63825,8 +64003,11 @@
       <c r="IV76" s="19">
         <v>1800733</v>
       </c>
+      <c r="IW76" s="19">
+        <v>1803619</v>
+      </c>
     </row>
-    <row r="77" spans="1:903" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:900" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -64078,7 +64259,7 @@
       <c r="IT77" s="30"/>
       <c r="IU77" s="30"/>
       <c r="IV77" s="30"/>
-      <c r="IW77" s="27"/>
+      <c r="IW77" s="30"/>
       <c r="IX77" s="27"/>
       <c r="IY77" s="27"/>
       <c r="IZ77" s="27"/>
@@ -64541,18 +64722,27 @@
       <c r="AAO77" s="27"/>
       <c r="AAP77" s="27"/>
       <c r="AAQ77" s="27"/>
-      <c r="AAR77" s="27"/>
-      <c r="AAS77" s="27"/>
-      <c r="AAT77" s="27"/>
     </row>
-    <row r="78" spans="1:903" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:900" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="IU4:IV4"/>
+    <mergeCell ref="IU4:IW4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="II4:IT4"/>
     <mergeCell ref="A69:A75"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A22:A24"/>
@@ -64560,7 +64750,6 @@
     <mergeCell ref="A28:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
-    <mergeCell ref="II4:IT4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -64573,17 +64762,6 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="332">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1036,6 +1036,9 @@
   <si>
     <t>Agricultura</t>
   </si>
+  <si>
+    <t>2021/Abril</t>
+  </si>
 </sst>
 </file>
 
@@ -1738,15 +1741,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1755,6 +1749,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2111,11 +2114,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHP78"/>
+  <dimension ref="A1:AHQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IY8" sqref="IY8"/>
+      <selection pane="topRight" activeCell="JB17" sqref="JB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,329 +2374,329 @@
     <col min="250" max="250" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="252" max="255" width="16.42578125" style="4" customWidth="1"/>
-    <col min="256" max="257" width="17.140625" style="4" customWidth="1"/>
-    <col min="258" max="719" width="10.85546875" style="28"/>
-    <col min="720" max="900" width="10.85546875" style="4"/>
-    <col min="901" max="16384" width="10.85546875" style="3"/>
+    <col min="256" max="258" width="17.140625" style="4" customWidth="1"/>
+    <col min="259" max="720" width="10.85546875" style="28"/>
+    <col min="721" max="901" width="10.85546875" style="4"/>
+    <col min="902" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:900" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:900" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:900" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:901" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="38">
         <v>2000</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38">
         <v>2001</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38">
         <v>2002</v>
       </c>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38">
         <v>2003</v>
       </c>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36">
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36">
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38">
         <v>2005</v>
       </c>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="36"/>
-      <c r="BQ4" s="36"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="36"/>
-      <c r="BV4" s="36"/>
-      <c r="BW4" s="36">
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38">
         <v>2006</v>
       </c>
-      <c r="BX4" s="36"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="36"/>
-      <c r="CA4" s="36"/>
-      <c r="CB4" s="36"/>
-      <c r="CC4" s="36"/>
-      <c r="CD4" s="36"/>
-      <c r="CE4" s="36"/>
-      <c r="CF4" s="36"/>
-      <c r="CG4" s="36"/>
-      <c r="CH4" s="36"/>
-      <c r="CI4" s="36">
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="36"/>
-      <c r="CK4" s="36"/>
-      <c r="CL4" s="36"/>
-      <c r="CM4" s="36"/>
-      <c r="CN4" s="36"/>
-      <c r="CO4" s="36"/>
-      <c r="CP4" s="36"/>
-      <c r="CQ4" s="36"/>
-      <c r="CR4" s="36"/>
-      <c r="CS4" s="36"/>
-      <c r="CT4" s="36"/>
-      <c r="CU4" s="36">
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38">
         <v>2008</v>
       </c>
-      <c r="CV4" s="36"/>
-      <c r="CW4" s="36"/>
-      <c r="CX4" s="36"/>
-      <c r="CY4" s="36"/>
-      <c r="CZ4" s="36"/>
-      <c r="DA4" s="36"/>
-      <c r="DB4" s="36"/>
-      <c r="DC4" s="36"/>
-      <c r="DD4" s="36"/>
-      <c r="DE4" s="36"/>
-      <c r="DF4" s="36"/>
-      <c r="DG4" s="36">
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38"/>
+      <c r="DG4" s="38">
         <v>2009</v>
       </c>
-      <c r="DH4" s="36"/>
-      <c r="DI4" s="36"/>
-      <c r="DJ4" s="36"/>
-      <c r="DK4" s="36"/>
-      <c r="DL4" s="36"/>
-      <c r="DM4" s="36"/>
-      <c r="DN4" s="36"/>
-      <c r="DO4" s="36"/>
-      <c r="DP4" s="36"/>
-      <c r="DQ4" s="36"/>
-      <c r="DR4" s="36"/>
-      <c r="DS4" s="36">
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
+      <c r="DJ4" s="38"/>
+      <c r="DK4" s="38"/>
+      <c r="DL4" s="38"/>
+      <c r="DM4" s="38"/>
+      <c r="DN4" s="38"/>
+      <c r="DO4" s="38"/>
+      <c r="DP4" s="38"/>
+      <c r="DQ4" s="38"/>
+      <c r="DR4" s="38"/>
+      <c r="DS4" s="38">
         <v>2010</v>
       </c>
-      <c r="DT4" s="36"/>
-      <c r="DU4" s="36"/>
-      <c r="DV4" s="36"/>
-      <c r="DW4" s="36"/>
-      <c r="DX4" s="36"/>
-      <c r="DY4" s="36"/>
-      <c r="DZ4" s="36"/>
-      <c r="EA4" s="36"/>
-      <c r="EB4" s="36"/>
-      <c r="EC4" s="36"/>
-      <c r="ED4" s="36"/>
-      <c r="EE4" s="36">
+      <c r="DT4" s="38"/>
+      <c r="DU4" s="38"/>
+      <c r="DV4" s="38"/>
+      <c r="DW4" s="38"/>
+      <c r="DX4" s="38"/>
+      <c r="DY4" s="38"/>
+      <c r="DZ4" s="38"/>
+      <c r="EA4" s="38"/>
+      <c r="EB4" s="38"/>
+      <c r="EC4" s="38"/>
+      <c r="ED4" s="38"/>
+      <c r="EE4" s="38">
         <v>2011</v>
       </c>
-      <c r="EF4" s="36"/>
-      <c r="EG4" s="36"/>
-      <c r="EH4" s="36"/>
-      <c r="EI4" s="36"/>
-      <c r="EJ4" s="36"/>
-      <c r="EK4" s="36"/>
-      <c r="EL4" s="36"/>
-      <c r="EM4" s="36"/>
-      <c r="EN4" s="36"/>
-      <c r="EO4" s="36"/>
-      <c r="EP4" s="36"/>
-      <c r="EQ4" s="36">
+      <c r="EF4" s="38"/>
+      <c r="EG4" s="38"/>
+      <c r="EH4" s="38"/>
+      <c r="EI4" s="38"/>
+      <c r="EJ4" s="38"/>
+      <c r="EK4" s="38"/>
+      <c r="EL4" s="38"/>
+      <c r="EM4" s="38"/>
+      <c r="EN4" s="38"/>
+      <c r="EO4" s="38"/>
+      <c r="EP4" s="38"/>
+      <c r="EQ4" s="38">
         <v>2012</v>
       </c>
-      <c r="ER4" s="36"/>
-      <c r="ES4" s="36"/>
-      <c r="ET4" s="36"/>
-      <c r="EU4" s="36"/>
-      <c r="EV4" s="36"/>
-      <c r="EW4" s="36"/>
-      <c r="EX4" s="36"/>
-      <c r="EY4" s="36"/>
-      <c r="EZ4" s="36"/>
-      <c r="FA4" s="36"/>
-      <c r="FB4" s="36"/>
-      <c r="FC4" s="36">
+      <c r="ER4" s="38"/>
+      <c r="ES4" s="38"/>
+      <c r="ET4" s="38"/>
+      <c r="EU4" s="38"/>
+      <c r="EV4" s="38"/>
+      <c r="EW4" s="38"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38"/>
+      <c r="FC4" s="38">
         <v>2013</v>
       </c>
-      <c r="FD4" s="36"/>
-      <c r="FE4" s="36"/>
-      <c r="FF4" s="36"/>
-      <c r="FG4" s="36"/>
-      <c r="FH4" s="36"/>
-      <c r="FI4" s="36"/>
-      <c r="FJ4" s="36"/>
-      <c r="FK4" s="36"/>
-      <c r="FL4" s="36"/>
-      <c r="FM4" s="36"/>
-      <c r="FN4" s="36"/>
-      <c r="FO4" s="36">
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="38"/>
+      <c r="FJ4" s="38"/>
+      <c r="FK4" s="38"/>
+      <c r="FL4" s="38"/>
+      <c r="FM4" s="38"/>
+      <c r="FN4" s="38"/>
+      <c r="FO4" s="38">
         <v>2014</v>
       </c>
-      <c r="FP4" s="36"/>
-      <c r="FQ4" s="36"/>
-      <c r="FR4" s="36"/>
-      <c r="FS4" s="36"/>
-      <c r="FT4" s="36"/>
-      <c r="FU4" s="36"/>
-      <c r="FV4" s="36"/>
-      <c r="FW4" s="36"/>
-      <c r="FX4" s="36"/>
-      <c r="FY4" s="36"/>
-      <c r="FZ4" s="36"/>
-      <c r="GA4" s="36">
+      <c r="FP4" s="38"/>
+      <c r="FQ4" s="38"/>
+      <c r="FR4" s="38"/>
+      <c r="FS4" s="38"/>
+      <c r="FT4" s="38"/>
+      <c r="FU4" s="38"/>
+      <c r="FV4" s="38"/>
+      <c r="FW4" s="38"/>
+      <c r="FX4" s="38"/>
+      <c r="FY4" s="38"/>
+      <c r="FZ4" s="38"/>
+      <c r="GA4" s="38">
         <v>2015</v>
       </c>
-      <c r="GB4" s="36"/>
-      <c r="GC4" s="36"/>
-      <c r="GD4" s="36"/>
-      <c r="GE4" s="36"/>
-      <c r="GF4" s="36"/>
-      <c r="GG4" s="36"/>
-      <c r="GH4" s="36"/>
-      <c r="GI4" s="36"/>
-      <c r="GJ4" s="36"/>
-      <c r="GK4" s="36"/>
-      <c r="GL4" s="36"/>
-      <c r="GM4" s="36">
+      <c r="GB4" s="38"/>
+      <c r="GC4" s="38"/>
+      <c r="GD4" s="38"/>
+      <c r="GE4" s="38"/>
+      <c r="GF4" s="38"/>
+      <c r="GG4" s="38"/>
+      <c r="GH4" s="38"/>
+      <c r="GI4" s="38"/>
+      <c r="GJ4" s="38"/>
+      <c r="GK4" s="38"/>
+      <c r="GL4" s="38"/>
+      <c r="GM4" s="38">
         <v>2016</v>
       </c>
-      <c r="GN4" s="36"/>
-      <c r="GO4" s="36"/>
-      <c r="GP4" s="36"/>
-      <c r="GQ4" s="36"/>
-      <c r="GR4" s="36"/>
-      <c r="GS4" s="36"/>
-      <c r="GT4" s="36"/>
-      <c r="GU4" s="36"/>
-      <c r="GV4" s="36"/>
-      <c r="GW4" s="36"/>
-      <c r="GX4" s="36"/>
-      <c r="GY4" s="36">
+      <c r="GN4" s="38"/>
+      <c r="GO4" s="38"/>
+      <c r="GP4" s="38"/>
+      <c r="GQ4" s="38"/>
+      <c r="GR4" s="38"/>
+      <c r="GS4" s="38"/>
+      <c r="GT4" s="38"/>
+      <c r="GU4" s="38"/>
+      <c r="GV4" s="38"/>
+      <c r="GW4" s="38"/>
+      <c r="GX4" s="38"/>
+      <c r="GY4" s="38">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="36"/>
-      <c r="HA4" s="36"/>
-      <c r="HB4" s="36"/>
-      <c r="HC4" s="36"/>
-      <c r="HD4" s="36"/>
-      <c r="HE4" s="36"/>
-      <c r="HF4" s="36"/>
-      <c r="HG4" s="36"/>
-      <c r="HH4" s="36"/>
-      <c r="HI4" s="36"/>
-      <c r="HJ4" s="36"/>
-      <c r="HK4" s="36">
+      <c r="GZ4" s="38"/>
+      <c r="HA4" s="38"/>
+      <c r="HB4" s="38"/>
+      <c r="HC4" s="38"/>
+      <c r="HD4" s="38"/>
+      <c r="HE4" s="38"/>
+      <c r="HF4" s="38"/>
+      <c r="HG4" s="38"/>
+      <c r="HH4" s="38"/>
+      <c r="HI4" s="38"/>
+      <c r="HJ4" s="38"/>
+      <c r="HK4" s="38">
         <v>2018</v>
       </c>
-      <c r="HL4" s="36"/>
-      <c r="HM4" s="36"/>
-      <c r="HN4" s="36"/>
-      <c r="HO4" s="36"/>
-      <c r="HP4" s="36"/>
-      <c r="HQ4" s="36"/>
-      <c r="HR4" s="36"/>
-      <c r="HS4" s="36"/>
-      <c r="HT4" s="36"/>
-      <c r="HU4" s="36"/>
-      <c r="HV4" s="36"/>
-      <c r="HW4" s="36">
+      <c r="HL4" s="38"/>
+      <c r="HM4" s="38"/>
+      <c r="HN4" s="38"/>
+      <c r="HO4" s="38"/>
+      <c r="HP4" s="38"/>
+      <c r="HQ4" s="38"/>
+      <c r="HR4" s="38"/>
+      <c r="HS4" s="38"/>
+      <c r="HT4" s="38"/>
+      <c r="HU4" s="38"/>
+      <c r="HV4" s="38"/>
+      <c r="HW4" s="38">
         <v>2019</v>
       </c>
-      <c r="HX4" s="36"/>
-      <c r="HY4" s="36"/>
-      <c r="HZ4" s="36"/>
-      <c r="IA4" s="36"/>
-      <c r="IB4" s="36"/>
-      <c r="IC4" s="36"/>
-      <c r="ID4" s="36"/>
-      <c r="IE4" s="36"/>
-      <c r="IF4" s="36"/>
-      <c r="IG4" s="36"/>
-      <c r="IH4" s="38"/>
-      <c r="II4" s="38">
+      <c r="HX4" s="38"/>
+      <c r="HY4" s="38"/>
+      <c r="HZ4" s="38"/>
+      <c r="IA4" s="38"/>
+      <c r="IB4" s="38"/>
+      <c r="IC4" s="38"/>
+      <c r="ID4" s="38"/>
+      <c r="IE4" s="38"/>
+      <c r="IF4" s="38"/>
+      <c r="IG4" s="38"/>
+      <c r="IH4" s="35"/>
+      <c r="II4" s="35">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="39"/>
-      <c r="IK4" s="39"/>
-      <c r="IL4" s="39"/>
-      <c r="IM4" s="39"/>
-      <c r="IN4" s="39"/>
-      <c r="IO4" s="39"/>
-      <c r="IP4" s="39"/>
-      <c r="IQ4" s="39"/>
-      <c r="IR4" s="39"/>
-      <c r="IS4" s="39"/>
-      <c r="IT4" s="40"/>
-      <c r="IU4" s="38">
+      <c r="IJ4" s="36"/>
+      <c r="IK4" s="36"/>
+      <c r="IL4" s="36"/>
+      <c r="IM4" s="36"/>
+      <c r="IN4" s="36"/>
+      <c r="IO4" s="36"/>
+      <c r="IP4" s="36"/>
+      <c r="IQ4" s="36"/>
+      <c r="IR4" s="36"/>
+      <c r="IS4" s="36"/>
+      <c r="IT4" s="37"/>
+      <c r="IU4" s="35">
         <v>2021</v>
       </c>
-      <c r="IV4" s="39"/>
-      <c r="IW4" s="40"/>
-      <c r="IX4" s="29"/>
+      <c r="IV4" s="36"/>
+      <c r="IW4" s="36"/>
+      <c r="IX4" s="37"/>
       <c r="IY4" s="29"/>
       <c r="IZ4" s="29"/>
       <c r="JA4" s="29"/>
@@ -3155,7 +3158,7 @@
       <c r="AAO4" s="29"/>
       <c r="AAP4" s="29"/>
       <c r="AAQ4" s="29"/>
-      <c r="AAR4" s="5"/>
+      <c r="AAR4" s="29"/>
       <c r="AAS4" s="5"/>
       <c r="AAT4" s="5"/>
       <c r="AAU4" s="5"/>
@@ -3336,10 +3339,11 @@
       <c r="AHN4" s="5"/>
       <c r="AHO4" s="5"/>
       <c r="AHP4" s="5"/>
+      <c r="AHQ4" s="5"/>
     </row>
-    <row r="5" spans="1:900" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+    <row r="5" spans="1:901" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4105,7 +4109,9 @@
       <c r="IW5" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="IX5" s="29"/>
+      <c r="IX5" s="31" t="s">
+        <v>331</v>
+      </c>
       <c r="IY5" s="29"/>
       <c r="IZ5" s="29"/>
       <c r="JA5" s="29"/>
@@ -4567,7 +4573,7 @@
       <c r="AAO5" s="29"/>
       <c r="AAP5" s="29"/>
       <c r="AAQ5" s="29"/>
-      <c r="AAR5" s="5"/>
+      <c r="AAR5" s="29"/>
       <c r="AAS5" s="5"/>
       <c r="AAT5" s="5"/>
       <c r="AAU5" s="5"/>
@@ -4748,9 +4754,10 @@
       <c r="AHN5" s="5"/>
       <c r="AHO5" s="5"/>
       <c r="AHP5" s="5"/>
+      <c r="AHQ5" s="5"/>
     </row>
-    <row r="6" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5521,9 +5528,12 @@
       <c r="IW6" s="7">
         <v>89875</v>
       </c>
+      <c r="IX6" s="7">
+        <v>90131</v>
+      </c>
     </row>
-    <row r="7" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6292,9 +6302,12 @@
       <c r="IW7" s="7">
         <v>44</v>
       </c>
+      <c r="IX7" s="7">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7063,9 +7076,12 @@
       <c r="IW8" s="7">
         <v>22142</v>
       </c>
+      <c r="IX8" s="7">
+        <v>22414</v>
+      </c>
     </row>
-    <row r="9" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7834,9 +7850,12 @@
       <c r="IW9" s="7">
         <v>416</v>
       </c>
+      <c r="IX9" s="7">
+        <v>416</v>
+      </c>
     </row>
-    <row r="10" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8605,9 +8624,12 @@
       <c r="IW10" s="7">
         <v>445</v>
       </c>
+      <c r="IX10" s="7">
+        <v>458</v>
+      </c>
     </row>
-    <row r="11" spans="1:900" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:901" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9376,7 +9398,9 @@
       <c r="IW11" s="10">
         <v>112922</v>
       </c>
-      <c r="IX11" s="29"/>
+      <c r="IX11" s="10">
+        <v>113463</v>
+      </c>
       <c r="IY11" s="29"/>
       <c r="IZ11" s="29"/>
       <c r="JA11" s="29"/>
@@ -9838,7 +9862,7 @@
       <c r="AAO11" s="29"/>
       <c r="AAP11" s="29"/>
       <c r="AAQ11" s="29"/>
-      <c r="AAR11" s="5"/>
+      <c r="AAR11" s="29"/>
       <c r="AAS11" s="5"/>
       <c r="AAT11" s="5"/>
       <c r="AAU11" s="5"/>
@@ -10019,9 +10043,10 @@
       <c r="AHN11" s="5"/>
       <c r="AHO11" s="5"/>
       <c r="AHP11" s="5"/>
+      <c r="AHQ11" s="5"/>
     </row>
-    <row r="12" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10792,9 +10817,12 @@
       <c r="IW12" s="7">
         <v>69907</v>
       </c>
+      <c r="IX12" s="7">
+        <v>70252</v>
+      </c>
     </row>
-    <row r="13" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11563,9 +11591,12 @@
       <c r="IW13" s="7">
         <v>18476</v>
       </c>
+      <c r="IX13" s="7">
+        <v>18507</v>
+      </c>
     </row>
-    <row r="14" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12334,9 +12365,12 @@
       <c r="IW14" s="7">
         <v>30276</v>
       </c>
+      <c r="IX14" s="7">
+        <v>30355</v>
+      </c>
     </row>
-    <row r="15" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13105,9 +13139,12 @@
       <c r="IW15" s="7">
         <v>23258</v>
       </c>
+      <c r="IX15" s="7">
+        <v>23220</v>
+      </c>
     </row>
-    <row r="16" spans="1:900" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+    <row r="16" spans="1:901" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -13876,9 +13913,12 @@
       <c r="IW16" s="7">
         <v>13671</v>
       </c>
+      <c r="IX16" s="7">
+        <v>13495</v>
+      </c>
     </row>
-    <row r="17" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14647,9 +14687,12 @@
       <c r="IW17" s="7">
         <v>43445</v>
       </c>
+      <c r="IX17" s="7">
+        <v>43674</v>
+      </c>
     </row>
-    <row r="18" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15418,9 +15461,12 @@
       <c r="IW18" s="7">
         <v>55348</v>
       </c>
+      <c r="IX18" s="7">
+        <v>55816</v>
+      </c>
     </row>
-    <row r="19" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16189,9 +16235,12 @@
       <c r="IW19" s="7">
         <v>63690</v>
       </c>
+      <c r="IX19" s="7">
+        <v>64356</v>
+      </c>
     </row>
-    <row r="20" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -16960,9 +17009,12 @@
       <c r="IW20" s="7">
         <v>50562</v>
       </c>
+      <c r="IX20" s="7">
+        <v>50275</v>
+      </c>
     </row>
-    <row r="21" spans="1:900" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -17731,7 +17783,9 @@
       <c r="IW21" s="10">
         <v>368633</v>
       </c>
-      <c r="IX21" s="29"/>
+      <c r="IX21" s="10">
+        <v>369950</v>
+      </c>
       <c r="IY21" s="29"/>
       <c r="IZ21" s="29"/>
       <c r="JA21" s="29"/>
@@ -18193,7 +18247,7 @@
       <c r="AAO21" s="29"/>
       <c r="AAP21" s="29"/>
       <c r="AAQ21" s="29"/>
-      <c r="AAR21" s="5"/>
+      <c r="AAR21" s="29"/>
       <c r="AAS21" s="5"/>
       <c r="AAT21" s="5"/>
       <c r="AAU21" s="5"/>
@@ -18374,9 +18428,10 @@
       <c r="AHN21" s="5"/>
       <c r="AHO21" s="5"/>
       <c r="AHP21" s="5"/>
+      <c r="AHQ21" s="5"/>
     </row>
-    <row r="22" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19147,9 +19202,12 @@
       <c r="IW22" s="7">
         <v>98064</v>
       </c>
+      <c r="IX22" s="7">
+        <v>99967</v>
+      </c>
     </row>
-    <row r="23" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -19918,9 +19976,12 @@
       <c r="IW23" s="7">
         <v>36582</v>
       </c>
+      <c r="IX23" s="7">
+        <v>36312</v>
+      </c>
     </row>
-    <row r="24" spans="1:900" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -20689,7 +20750,9 @@
       <c r="IW24" s="10">
         <v>134646</v>
       </c>
-      <c r="IX24" s="29"/>
+      <c r="IX24" s="10">
+        <v>136279</v>
+      </c>
       <c r="IY24" s="29"/>
       <c r="IZ24" s="29"/>
       <c r="JA24" s="29"/>
@@ -21151,7 +21214,7 @@
       <c r="AAO24" s="29"/>
       <c r="AAP24" s="29"/>
       <c r="AAQ24" s="29"/>
-      <c r="AAR24" s="5"/>
+      <c r="AAR24" s="29"/>
       <c r="AAS24" s="5"/>
       <c r="AAT24" s="5"/>
       <c r="AAU24" s="5"/>
@@ -21332,9 +21395,10 @@
       <c r="AHN24" s="5"/>
       <c r="AHO24" s="5"/>
       <c r="AHP24" s="5"/>
+      <c r="AHQ24" s="5"/>
     </row>
-    <row r="25" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+    <row r="25" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22105,9 +22169,12 @@
       <c r="IW25" s="7">
         <v>4481</v>
       </c>
+      <c r="IX25" s="7">
+        <v>4401</v>
+      </c>
     </row>
-    <row r="26" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -22876,9 +22943,12 @@
       <c r="IW26" s="7">
         <v>5651</v>
       </c>
+      <c r="IX26" s="7">
+        <v>5576</v>
+      </c>
     </row>
-    <row r="27" spans="1:900" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:901" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -23647,7 +23717,9 @@
       <c r="IW27" s="10">
         <v>10132</v>
       </c>
-      <c r="IX27" s="29"/>
+      <c r="IX27" s="10">
+        <v>9977</v>
+      </c>
       <c r="IY27" s="29"/>
       <c r="IZ27" s="29"/>
       <c r="JA27" s="29"/>
@@ -24109,7 +24181,7 @@
       <c r="AAO27" s="29"/>
       <c r="AAP27" s="29"/>
       <c r="AAQ27" s="29"/>
-      <c r="AAR27" s="5"/>
+      <c r="AAR27" s="29"/>
       <c r="AAS27" s="5"/>
       <c r="AAT27" s="5"/>
       <c r="AAU27" s="5"/>
@@ -24290,9 +24362,10 @@
       <c r="AHN27" s="5"/>
       <c r="AHO27" s="5"/>
       <c r="AHP27" s="5"/>
+      <c r="AHQ27" s="5"/>
     </row>
-    <row r="28" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25063,9 +25136,12 @@
       <c r="IW28" s="7">
         <v>1344</v>
       </c>
+      <c r="IX28" s="7">
+        <v>1346</v>
+      </c>
     </row>
-    <row r="29" spans="1:900" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:901" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -25834,9 +25910,12 @@
       <c r="IW29" s="7">
         <v>10392</v>
       </c>
+      <c r="IX29" s="7">
+        <v>10515</v>
+      </c>
     </row>
-    <row r="30" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -26605,9 +26684,12 @@
       <c r="IW30" s="7">
         <v>27821</v>
       </c>
+      <c r="IX30" s="7">
+        <v>27855</v>
+      </c>
     </row>
-    <row r="31" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27376,9 +27458,12 @@
       <c r="IW31" s="7">
         <v>98457</v>
       </c>
+      <c r="IX31" s="7">
+        <v>98231</v>
+      </c>
     </row>
-    <row r="32" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28147,9 +28232,12 @@
       <c r="IW32" s="7">
         <v>21328</v>
       </c>
+      <c r="IX32" s="7">
+        <v>21398</v>
+      </c>
     </row>
-    <row r="33" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -28918,9 +29006,12 @@
       <c r="IW33" s="7">
         <v>9546</v>
       </c>
+      <c r="IX33" s="7">
+        <v>9478</v>
+      </c>
     </row>
-    <row r="34" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -29689,9 +29780,12 @@
       <c r="IW34" s="7">
         <v>40511</v>
       </c>
+      <c r="IX34" s="7">
+        <v>40330</v>
+      </c>
     </row>
-    <row r="35" spans="1:900" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:901" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -30460,9 +30554,12 @@
       <c r="IW35" s="7">
         <v>8787</v>
       </c>
+      <c r="IX35" s="7">
+        <v>8755</v>
+      </c>
     </row>
-    <row r="36" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31231,9 +31328,12 @@
       <c r="IW36" s="7">
         <v>46890</v>
       </c>
+      <c r="IX36" s="7">
+        <v>47122</v>
+      </c>
     </row>
-    <row r="37" spans="1:900" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:901" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32002,9 +32102,12 @@
       <c r="IW37" s="7">
         <v>57801</v>
       </c>
+      <c r="IX37" s="7">
+        <v>57951</v>
+      </c>
     </row>
-    <row r="38" spans="1:900" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:901" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -32773,9 +32876,12 @@
       <c r="IW38" s="7">
         <v>21716</v>
       </c>
+      <c r="IX38" s="7">
+        <v>22119</v>
+      </c>
     </row>
-    <row r="39" spans="1:900" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:901" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -33544,9 +33650,12 @@
       <c r="IW39" s="7">
         <v>17924</v>
       </c>
+      <c r="IX39" s="7">
+        <v>18063</v>
+      </c>
     </row>
-    <row r="40" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -34315,9 +34424,12 @@
       <c r="IW40" s="7">
         <v>11253</v>
       </c>
+      <c r="IX40" s="7">
+        <v>11325</v>
+      </c>
     </row>
-    <row r="41" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35086,9 +35198,12 @@
       <c r="IW41" s="7">
         <v>13540</v>
       </c>
+      <c r="IX41" s="7">
+        <v>13681</v>
+      </c>
     </row>
-    <row r="42" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -35857,9 +35972,12 @@
       <c r="IW42" s="7">
         <v>46354</v>
       </c>
+      <c r="IX42" s="7">
+        <v>46709</v>
+      </c>
     </row>
-    <row r="43" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -36628,9 +36746,12 @@
       <c r="IW43" s="7">
         <v>4345</v>
       </c>
+      <c r="IX43" s="7">
+        <v>4327</v>
+      </c>
     </row>
-    <row r="44" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -37399,9 +37520,12 @@
       <c r="IW44" s="7">
         <v>5226</v>
       </c>
+      <c r="IX44" s="7">
+        <v>5273</v>
+      </c>
     </row>
-    <row r="45" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38170,9 +38294,12 @@
       <c r="IW45" s="7">
         <v>6237</v>
       </c>
+      <c r="IX45" s="7">
+        <v>6188</v>
+      </c>
     </row>
-    <row r="46" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -38941,9 +39068,12 @@
       <c r="IW46" s="7">
         <v>11901</v>
       </c>
+      <c r="IX46" s="7">
+        <v>11900</v>
+      </c>
     </row>
-    <row r="47" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -39712,9 +39842,12 @@
       <c r="IW47" s="7">
         <v>1154</v>
       </c>
+      <c r="IX47" s="7">
+        <v>1162</v>
+      </c>
     </row>
-    <row r="48" spans="1:900" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -40483,7 +40616,9 @@
       <c r="IW48" s="10">
         <v>462527</v>
       </c>
-      <c r="IX48" s="29"/>
+      <c r="IX48" s="10">
+        <v>463728</v>
+      </c>
       <c r="IY48" s="29"/>
       <c r="IZ48" s="29"/>
       <c r="JA48" s="29"/>
@@ -40945,7 +41080,7 @@
       <c r="AAO48" s="29"/>
       <c r="AAP48" s="29"/>
       <c r="AAQ48" s="29"/>
-      <c r="AAR48" s="5"/>
+      <c r="AAR48" s="29"/>
       <c r="AAS48" s="5"/>
       <c r="AAT48" s="5"/>
       <c r="AAU48" s="5"/>
@@ -41126,9 +41261,10 @@
       <c r="AHN48" s="5"/>
       <c r="AHO48" s="5"/>
       <c r="AHP48" s="5"/>
+      <c r="AHQ48" s="5"/>
     </row>
-    <row r="49" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+    <row r="49" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -41899,9 +42035,12 @@
       <c r="IW49" s="7">
         <v>10</v>
       </c>
+      <c r="IX49" s="7">
+        <v>9</v>
+      </c>
     </row>
-    <row r="50" spans="1:257" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -42670,9 +42809,12 @@
       <c r="IW50" s="7">
         <v>0</v>
       </c>
+      <c r="IX50" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:258" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -43441,9 +43583,12 @@
       <c r="IW51" s="7">
         <v>1358</v>
       </c>
+      <c r="IX51" s="7">
+        <v>1377</v>
+      </c>
     </row>
-    <row r="52" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
+    <row r="52" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -44212,9 +44357,12 @@
       <c r="IW52" s="7">
         <v>1166</v>
       </c>
+      <c r="IX52" s="7">
+        <v>1109</v>
+      </c>
     </row>
-    <row r="53" spans="1:257" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
+    <row r="53" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -44983,9 +45131,12 @@
       <c r="IW53" s="10">
         <v>2534</v>
       </c>
+      <c r="IX53" s="10">
+        <v>2495</v>
+      </c>
     </row>
-    <row r="54" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+    <row r="54" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -45756,9 +45907,12 @@
       <c r="IW54" s="7">
         <v>5792</v>
       </c>
+      <c r="IX54" s="7">
+        <v>5819</v>
+      </c>
     </row>
-    <row r="55" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -46527,9 +46681,12 @@
       <c r="IW55" s="7">
         <v>44855</v>
       </c>
+      <c r="IX55" s="7">
+        <v>45466</v>
+      </c>
     </row>
-    <row r="56" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -47298,9 +47455,12 @@
       <c r="IW56" s="7">
         <v>6693</v>
       </c>
+      <c r="IX56" s="7">
+        <v>6707</v>
+      </c>
     </row>
-    <row r="57" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -48069,9 +48229,12 @@
       <c r="IW57" s="7">
         <v>193115</v>
       </c>
+      <c r="IX57" s="7">
+        <v>193542</v>
+      </c>
     </row>
-    <row r="58" spans="1:257" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -48840,9 +49003,12 @@
       <c r="IW58" s="7">
         <v>26119</v>
       </c>
+      <c r="IX58" s="7">
+        <v>26486</v>
+      </c>
     </row>
-    <row r="59" spans="1:257" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
+    <row r="59" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -49611,9 +49777,12 @@
       <c r="IW59" s="7">
         <v>5801</v>
       </c>
+      <c r="IX59" s="7">
+        <v>5816</v>
+      </c>
     </row>
-    <row r="60" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -50382,9 +50551,12 @@
       <c r="IW60" s="7">
         <v>45150</v>
       </c>
+      <c r="IX60" s="7">
+        <v>44671</v>
+      </c>
     </row>
-    <row r="61" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
+    <row r="61" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -51153,9 +51325,12 @@
       <c r="IW61" s="7">
         <v>145</v>
       </c>
+      <c r="IX61" s="7">
+        <v>144</v>
+      </c>
     </row>
-    <row r="62" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -51924,9 +52099,12 @@
       <c r="IW62" s="7">
         <v>15628</v>
       </c>
+      <c r="IX62" s="7">
+        <v>15587</v>
+      </c>
     </row>
-    <row r="63" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -52695,9 +52873,12 @@
       <c r="IW63" s="7">
         <v>29054</v>
       </c>
+      <c r="IX63" s="7">
+        <v>29151</v>
+      </c>
     </row>
-    <row r="64" spans="1:257" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
+    <row r="64" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -53466,9 +53647,12 @@
       <c r="IW64" s="7">
         <v>47371</v>
       </c>
+      <c r="IX64" s="7">
+        <v>47020</v>
+      </c>
     </row>
-    <row r="65" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
+    <row r="65" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -54237,9 +54421,12 @@
       <c r="IW65" s="7">
         <v>183456</v>
       </c>
+      <c r="IX65" s="7">
+        <v>185273</v>
+      </c>
     </row>
-    <row r="66" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
+    <row r="66" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -55008,9 +55195,12 @@
       <c r="IW66" s="7">
         <v>14669</v>
       </c>
+      <c r="IX66" s="7">
+        <v>14672</v>
+      </c>
     </row>
-    <row r="67" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
+    <row r="67" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -55779,9 +55969,12 @@
       <c r="IW67" s="7">
         <v>6330</v>
       </c>
+      <c r="IX67" s="7">
+        <v>6380</v>
+      </c>
     </row>
-    <row r="68" spans="1:900" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
+    <row r="68" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -56550,7 +56743,9 @@
       <c r="IW68" s="10">
         <v>624178</v>
       </c>
-      <c r="IX68" s="29"/>
+      <c r="IX68" s="10">
+        <v>626734</v>
+      </c>
       <c r="IY68" s="29"/>
       <c r="IZ68" s="29"/>
       <c r="JA68" s="29"/>
@@ -57012,7 +57207,7 @@
       <c r="AAO68" s="29"/>
       <c r="AAP68" s="29"/>
       <c r="AAQ68" s="29"/>
-      <c r="AAR68" s="5"/>
+      <c r="AAR68" s="29"/>
       <c r="AAS68" s="5"/>
       <c r="AAT68" s="5"/>
       <c r="AAU68" s="5"/>
@@ -57193,9 +57388,10 @@
       <c r="AHN68" s="5"/>
       <c r="AHO68" s="5"/>
       <c r="AHP68" s="5"/>
+      <c r="AHQ68" s="5"/>
     </row>
-    <row r="69" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
+    <row r="69" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -57966,9 +58162,12 @@
       <c r="IW69" s="7">
         <v>9721</v>
       </c>
+      <c r="IX69" s="7">
+        <v>9814</v>
+      </c>
     </row>
-    <row r="70" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+    <row r="70" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -58737,9 +58936,12 @@
       <c r="IW70" s="7">
         <v>1040</v>
       </c>
+      <c r="IX70" s="7">
+        <v>1029</v>
+      </c>
     </row>
-    <row r="71" spans="1:900" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+    <row r="71" spans="1:901" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -59508,9 +59710,12 @@
       <c r="IW71" s="7">
         <v>24191</v>
       </c>
+      <c r="IX71" s="7">
+        <v>24182</v>
+      </c>
     </row>
-    <row r="72" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
+    <row r="72" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -60279,9 +60484,12 @@
       <c r="IW72" s="7">
         <v>2779</v>
       </c>
+      <c r="IX72" s="7">
+        <v>2834</v>
+      </c>
     </row>
-    <row r="73" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
+    <row r="73" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -61050,9 +61258,12 @@
       <c r="IW73" s="7">
         <v>259</v>
       </c>
+      <c r="IX73" s="7">
+        <v>294</v>
+      </c>
     </row>
-    <row r="74" spans="1:900" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
+    <row r="74" spans="1:901" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -61821,9 +62032,12 @@
       <c r="IW74" s="7">
         <v>50057</v>
       </c>
+      <c r="IX74" s="7">
+        <v>50105</v>
+      </c>
     </row>
-    <row r="75" spans="1:900" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
+    <row r="75" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -62592,7 +62806,9 @@
       <c r="IW75" s="10">
         <v>88047</v>
       </c>
-      <c r="IX75" s="29"/>
+      <c r="IX75" s="10">
+        <v>88258</v>
+      </c>
       <c r="IY75" s="29"/>
       <c r="IZ75" s="29"/>
       <c r="JA75" s="29"/>
@@ -63054,7 +63270,7 @@
       <c r="AAO75" s="29"/>
       <c r="AAP75" s="29"/>
       <c r="AAQ75" s="29"/>
-      <c r="AAR75" s="5"/>
+      <c r="AAR75" s="29"/>
       <c r="AAS75" s="5"/>
       <c r="AAT75" s="5"/>
       <c r="AAU75" s="5"/>
@@ -63235,8 +63451,9 @@
       <c r="AHN75" s="5"/>
       <c r="AHO75" s="5"/>
       <c r="AHP75" s="5"/>
+      <c r="AHQ75" s="5"/>
     </row>
-    <row r="76" spans="1:900" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -64006,8 +64223,11 @@
       <c r="IW76" s="19">
         <v>1803619</v>
       </c>
+      <c r="IX76" s="19">
+        <v>1810884</v>
+      </c>
     </row>
-    <row r="77" spans="1:900" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:901" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -64260,7 +64480,7 @@
       <c r="IU77" s="30"/>
       <c r="IV77" s="30"/>
       <c r="IW77" s="30"/>
-      <c r="IX77" s="27"/>
+      <c r="IX77" s="30"/>
       <c r="IY77" s="27"/>
       <c r="IZ77" s="27"/>
       <c r="JA77" s="27"/>
@@ -64722,15 +64942,35 @@
       <c r="AAO77" s="27"/>
       <c r="AAP77" s="27"/>
       <c r="AAQ77" s="27"/>
+      <c r="AAR77" s="27"/>
     </row>
-    <row r="78" spans="1:900" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="IU4:IW4"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="IU4:IX4"/>
     <mergeCell ref="DG4:DR4"/>
     <mergeCell ref="HW4:IH4"/>
     <mergeCell ref="HK4:HV4"/>
@@ -64743,25 +64983,6 @@
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
     <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="333">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1039,6 +1039,9 @@
   <si>
     <t>2021/Abril</t>
   </si>
+  <si>
+    <t>2021/Mayo</t>
+  </si>
 </sst>
 </file>
 
@@ -1643,7 +1646,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1758,6 +1761,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2118,7 +2124,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JB17" sqref="JB17"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,9 +2379,13 @@
     <col min="248" max="249" width="10.85546875" style="4"/>
     <col min="250" max="250" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="252" max="255" width="16.42578125" style="4" customWidth="1"/>
-    <col min="256" max="258" width="17.140625" style="4" customWidth="1"/>
-    <col min="259" max="720" width="10.85546875" style="28"/>
+    <col min="252" max="254" width="16.42578125" style="4" customWidth="1"/>
+    <col min="255" max="255" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.5703125" style="4" customWidth="1"/>
+    <col min="260" max="720" width="10.85546875" style="28"/>
     <col min="721" max="901" width="10.85546875" style="4"/>
     <col min="902" max="16384" width="10.85546875" style="3"/>
   </cols>
@@ -2696,8 +2706,8 @@
       </c>
       <c r="IV4" s="36"/>
       <c r="IW4" s="36"/>
-      <c r="IX4" s="37"/>
-      <c r="IY4" s="29"/>
+      <c r="IX4" s="36"/>
+      <c r="IY4" s="37"/>
       <c r="IZ4" s="29"/>
       <c r="JA4" s="29"/>
       <c r="JB4" s="29"/>
@@ -4112,7 +4122,9 @@
       <c r="IX5" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="IY5" s="29"/>
+      <c r="IY5" s="31" t="s">
+        <v>332</v>
+      </c>
       <c r="IZ5" s="29"/>
       <c r="JA5" s="29"/>
       <c r="JB5" s="29"/>
@@ -5531,6 +5543,9 @@
       <c r="IX6" s="7">
         <v>90131</v>
       </c>
+      <c r="IY6" s="7">
+        <v>84617</v>
+      </c>
     </row>
     <row r="7" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
@@ -6305,6 +6320,9 @@
       <c r="IX7" s="7">
         <v>44</v>
       </c>
+      <c r="IY7" s="7">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
@@ -7079,6 +7097,9 @@
       <c r="IX8" s="7">
         <v>22414</v>
       </c>
+      <c r="IY8" s="7">
+        <v>23070</v>
+      </c>
     </row>
     <row r="9" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
@@ -7853,6 +7874,9 @@
       <c r="IX9" s="7">
         <v>416</v>
       </c>
+      <c r="IY9" s="7">
+        <v>261</v>
+      </c>
     </row>
     <row r="10" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -8627,6 +8651,9 @@
       <c r="IX10" s="7">
         <v>458</v>
       </c>
+      <c r="IY10" s="7">
+        <v>449</v>
+      </c>
     </row>
     <row r="11" spans="1:901" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
@@ -9401,7 +9428,9 @@
       <c r="IX11" s="10">
         <v>113463</v>
       </c>
-      <c r="IY11" s="29"/>
+      <c r="IY11" s="10">
+        <v>108441</v>
+      </c>
       <c r="IZ11" s="29"/>
       <c r="JA11" s="29"/>
       <c r="JB11" s="29"/>
@@ -10820,6 +10849,9 @@
       <c r="IX12" s="7">
         <v>70252</v>
       </c>
+      <c r="IY12" s="7">
+        <v>70686</v>
+      </c>
     </row>
     <row r="13" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
@@ -11594,6 +11626,9 @@
       <c r="IX13" s="7">
         <v>18507</v>
       </c>
+      <c r="IY13" s="7">
+        <v>18613</v>
+      </c>
     </row>
     <row r="14" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
@@ -12368,6 +12403,9 @@
       <c r="IX14" s="7">
         <v>30355</v>
       </c>
+      <c r="IY14" s="7">
+        <v>30523</v>
+      </c>
     </row>
     <row r="15" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
@@ -13142,6 +13180,9 @@
       <c r="IX15" s="7">
         <v>23220</v>
       </c>
+      <c r="IY15" s="7">
+        <v>23190</v>
+      </c>
     </row>
     <row r="16" spans="1:901" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
@@ -13916,6 +13957,9 @@
       <c r="IX16" s="7">
         <v>13495</v>
       </c>
+      <c r="IY16" s="7">
+        <v>12811</v>
+      </c>
     </row>
     <row r="17" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
@@ -14690,6 +14734,9 @@
       <c r="IX17" s="7">
         <v>43674</v>
       </c>
+      <c r="IY17" s="7">
+        <v>44211</v>
+      </c>
     </row>
     <row r="18" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
@@ -15464,6 +15511,9 @@
       <c r="IX18" s="7">
         <v>55816</v>
       </c>
+      <c r="IY18" s="7">
+        <v>54479</v>
+      </c>
     </row>
     <row r="19" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
@@ -16238,6 +16288,9 @@
       <c r="IX19" s="7">
         <v>64356</v>
       </c>
+      <c r="IY19" s="7">
+        <v>64595</v>
+      </c>
     </row>
     <row r="20" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
@@ -17012,6 +17065,9 @@
       <c r="IX20" s="7">
         <v>50275</v>
       </c>
+      <c r="IY20" s="7">
+        <v>50519</v>
+      </c>
     </row>
     <row r="21" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
@@ -17786,7 +17842,9 @@
       <c r="IX21" s="10">
         <v>369950</v>
       </c>
-      <c r="IY21" s="29"/>
+      <c r="IY21" s="10">
+        <v>369627</v>
+      </c>
       <c r="IZ21" s="29"/>
       <c r="JA21" s="29"/>
       <c r="JB21" s="29"/>
@@ -19205,6 +19263,9 @@
       <c r="IX22" s="7">
         <v>99967</v>
       </c>
+      <c r="IY22" s="7">
+        <v>101762</v>
+      </c>
     </row>
     <row r="23" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
@@ -19979,6 +20040,9 @@
       <c r="IX23" s="7">
         <v>36312</v>
       </c>
+      <c r="IY23" s="7">
+        <v>36769</v>
+      </c>
     </row>
     <row r="24" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
@@ -20753,7 +20817,9 @@
       <c r="IX24" s="10">
         <v>136279</v>
       </c>
-      <c r="IY24" s="29"/>
+      <c r="IY24" s="10">
+        <v>138531</v>
+      </c>
       <c r="IZ24" s="29"/>
       <c r="JA24" s="29"/>
       <c r="JB24" s="29"/>
@@ -22172,6 +22238,9 @@
       <c r="IX25" s="7">
         <v>4401</v>
       </c>
+      <c r="IY25" s="7">
+        <v>4423</v>
+      </c>
     </row>
     <row r="26" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
@@ -22946,6 +23015,9 @@
       <c r="IX26" s="7">
         <v>5576</v>
       </c>
+      <c r="IY26" s="7">
+        <v>5584</v>
+      </c>
     </row>
     <row r="27" spans="1:901" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
@@ -23720,7 +23792,9 @@
       <c r="IX27" s="10">
         <v>9977</v>
       </c>
-      <c r="IY27" s="29"/>
+      <c r="IY27" s="10">
+        <v>10007</v>
+      </c>
       <c r="IZ27" s="29"/>
       <c r="JA27" s="29"/>
       <c r="JB27" s="29"/>
@@ -25139,6 +25213,9 @@
       <c r="IX28" s="7">
         <v>1346</v>
       </c>
+      <c r="IY28" s="7">
+        <v>1349</v>
+      </c>
     </row>
     <row r="29" spans="1:901" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
@@ -25913,6 +25990,9 @@
       <c r="IX29" s="7">
         <v>10515</v>
       </c>
+      <c r="IY29" s="7">
+        <v>10570</v>
+      </c>
     </row>
     <row r="30" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
@@ -26687,6 +26767,9 @@
       <c r="IX30" s="7">
         <v>27855</v>
       </c>
+      <c r="IY30" s="7">
+        <v>28055</v>
+      </c>
     </row>
     <row r="31" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
@@ -27461,6 +27544,9 @@
       <c r="IX31" s="7">
         <v>98231</v>
       </c>
+      <c r="IY31" s="7">
+        <v>97813</v>
+      </c>
     </row>
     <row r="32" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
@@ -28235,6 +28321,9 @@
       <c r="IX32" s="7">
         <v>21398</v>
       </c>
+      <c r="IY32" s="7">
+        <v>21745</v>
+      </c>
     </row>
     <row r="33" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
@@ -29009,6 +29098,9 @@
       <c r="IX33" s="7">
         <v>9478</v>
       </c>
+      <c r="IY33" s="7">
+        <v>9480</v>
+      </c>
     </row>
     <row r="34" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
@@ -29783,6 +29875,9 @@
       <c r="IX34" s="7">
         <v>40330</v>
       </c>
+      <c r="IY34" s="7">
+        <v>40540</v>
+      </c>
     </row>
     <row r="35" spans="1:901" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
@@ -30557,6 +30652,9 @@
       <c r="IX35" s="7">
         <v>8755</v>
       </c>
+      <c r="IY35" s="7">
+        <v>8880</v>
+      </c>
     </row>
     <row r="36" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
@@ -31331,6 +31429,9 @@
       <c r="IX36" s="7">
         <v>47122</v>
       </c>
+      <c r="IY36" s="7">
+        <v>47903</v>
+      </c>
     </row>
     <row r="37" spans="1:901" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
@@ -32105,6 +32206,9 @@
       <c r="IX37" s="7">
         <v>57951</v>
       </c>
+      <c r="IY37" s="7">
+        <v>57861</v>
+      </c>
     </row>
     <row r="38" spans="1:901" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
@@ -32879,6 +32983,9 @@
       <c r="IX38" s="7">
         <v>22119</v>
       </c>
+      <c r="IY38" s="7">
+        <v>22532</v>
+      </c>
     </row>
     <row r="39" spans="1:901" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
@@ -33653,6 +33760,9 @@
       <c r="IX39" s="7">
         <v>18063</v>
       </c>
+      <c r="IY39" s="7">
+        <v>18677</v>
+      </c>
     </row>
     <row r="40" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
@@ -34427,6 +34537,9 @@
       <c r="IX40" s="7">
         <v>11325</v>
       </c>
+      <c r="IY40" s="7">
+        <v>11437</v>
+      </c>
     </row>
     <row r="41" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
@@ -35201,6 +35314,9 @@
       <c r="IX41" s="7">
         <v>13681</v>
       </c>
+      <c r="IY41" s="7">
+        <v>13853</v>
+      </c>
     </row>
     <row r="42" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
@@ -35975,6 +36091,9 @@
       <c r="IX42" s="7">
         <v>46709</v>
       </c>
+      <c r="IY42" s="7">
+        <v>47190</v>
+      </c>
     </row>
     <row r="43" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
@@ -36749,6 +36868,9 @@
       <c r="IX43" s="7">
         <v>4327</v>
       </c>
+      <c r="IY43" s="7">
+        <v>4481</v>
+      </c>
     </row>
     <row r="44" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
@@ -37523,6 +37645,9 @@
       <c r="IX44" s="7">
         <v>5273</v>
       </c>
+      <c r="IY44" s="7">
+        <v>5373</v>
+      </c>
     </row>
     <row r="45" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
@@ -38297,6 +38422,9 @@
       <c r="IX45" s="7">
         <v>6188</v>
       </c>
+      <c r="IY45" s="7">
+        <v>6590</v>
+      </c>
     </row>
     <row r="46" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
@@ -39071,6 +39199,9 @@
       <c r="IX46" s="7">
         <v>11900</v>
       </c>
+      <c r="IY46" s="7">
+        <v>11842</v>
+      </c>
     </row>
     <row r="47" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
@@ -39845,6 +39976,9 @@
       <c r="IX47" s="7">
         <v>1162</v>
       </c>
+      <c r="IY47" s="7">
+        <v>1184</v>
+      </c>
     </row>
     <row r="48" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
@@ -40619,7 +40753,9 @@
       <c r="IX48" s="10">
         <v>463728</v>
       </c>
-      <c r="IY48" s="29"/>
+      <c r="IY48" s="10">
+        <v>467355</v>
+      </c>
       <c r="IZ48" s="29"/>
       <c r="JA48" s="29"/>
       <c r="JB48" s="29"/>
@@ -41263,7 +41399,7 @@
       <c r="AHP48" s="5"/>
       <c r="AHQ48" s="5"/>
     </row>
-    <row r="49" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
@@ -42038,8 +42174,11 @@
       <c r="IX49" s="7">
         <v>9</v>
       </c>
+      <c r="IY49" s="7">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
@@ -42812,8 +42951,11 @@
       <c r="IX50" s="7">
         <v>0</v>
       </c>
+      <c r="IY50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:258" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:259" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
@@ -43586,8 +43728,11 @@
       <c r="IX51" s="7">
         <v>1377</v>
       </c>
+      <c r="IY51" s="7">
+        <v>1371</v>
+      </c>
     </row>
-    <row r="52" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
@@ -44360,8 +44505,11 @@
       <c r="IX52" s="7">
         <v>1109</v>
       </c>
+      <c r="IY52" s="7">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="53" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
@@ -45134,8 +45282,11 @@
       <c r="IX53" s="10">
         <v>2495</v>
       </c>
+      <c r="IY53" s="10">
+        <v>2465</v>
+      </c>
     </row>
-    <row r="54" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
@@ -45910,8 +46061,11 @@
       <c r="IX54" s="7">
         <v>5819</v>
       </c>
+      <c r="IY54" s="7">
+        <v>5757</v>
+      </c>
     </row>
-    <row r="55" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
@@ -46684,8 +46838,11 @@
       <c r="IX55" s="7">
         <v>45466</v>
       </c>
+      <c r="IY55" s="7">
+        <v>45543</v>
+      </c>
     </row>
-    <row r="56" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
@@ -47458,8 +47615,11 @@
       <c r="IX56" s="7">
         <v>6707</v>
       </c>
+      <c r="IY56" s="7">
+        <v>6797</v>
+      </c>
     </row>
-    <row r="57" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
@@ -48232,8 +48392,11 @@
       <c r="IX57" s="7">
         <v>193542</v>
       </c>
+      <c r="IY57" s="7">
+        <v>196932</v>
+      </c>
     </row>
-    <row r="58" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
@@ -49006,8 +49169,11 @@
       <c r="IX58" s="7">
         <v>26486</v>
       </c>
+      <c r="IY58" s="7">
+        <v>26909</v>
+      </c>
     </row>
-    <row r="59" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
@@ -49780,8 +49946,11 @@
       <c r="IX59" s="7">
         <v>5816</v>
       </c>
+      <c r="IY59" s="7">
+        <v>5899</v>
+      </c>
     </row>
-    <row r="60" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
@@ -50554,8 +50723,11 @@
       <c r="IX60" s="7">
         <v>44671</v>
       </c>
+      <c r="IY60" s="7">
+        <v>44703</v>
+      </c>
     </row>
-    <row r="61" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
@@ -51328,8 +51500,11 @@
       <c r="IX61" s="7">
         <v>144</v>
       </c>
+      <c r="IY61" s="7">
+        <v>133</v>
+      </c>
     </row>
-    <row r="62" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
@@ -52102,8 +52277,11 @@
       <c r="IX62" s="7">
         <v>15587</v>
       </c>
+      <c r="IY62" s="7">
+        <v>15473</v>
+      </c>
     </row>
-    <row r="63" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
@@ -52876,8 +53054,11 @@
       <c r="IX63" s="7">
         <v>29151</v>
       </c>
+      <c r="IY63" s="7">
+        <v>29302</v>
+      </c>
     </row>
-    <row r="64" spans="1:258" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:259" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
@@ -53649,6 +53830,9 @@
       </c>
       <c r="IX64" s="7">
         <v>47020</v>
+      </c>
+      <c r="IY64" s="7">
+        <v>46677</v>
       </c>
     </row>
     <row r="65" spans="1:901" x14ac:dyDescent="0.25">
@@ -54424,6 +54608,9 @@
       <c r="IX65" s="7">
         <v>185273</v>
       </c>
+      <c r="IY65" s="7">
+        <v>184527</v>
+      </c>
     </row>
     <row r="66" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
@@ -55198,6 +55385,9 @@
       <c r="IX66" s="7">
         <v>14672</v>
       </c>
+      <c r="IY66" s="7">
+        <v>15045</v>
+      </c>
     </row>
     <row r="67" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
@@ -55972,6 +56162,9 @@
       <c r="IX67" s="7">
         <v>6380</v>
       </c>
+      <c r="IY67" s="7">
+        <v>6085</v>
+      </c>
     </row>
     <row r="68" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -56746,7 +56939,9 @@
       <c r="IX68" s="10">
         <v>626734</v>
       </c>
-      <c r="IY68" s="29"/>
+      <c r="IY68" s="10">
+        <v>629782</v>
+      </c>
       <c r="IZ68" s="29"/>
       <c r="JA68" s="29"/>
       <c r="JB68" s="29"/>
@@ -58165,6 +58360,9 @@
       <c r="IX69" s="7">
         <v>9814</v>
       </c>
+      <c r="IY69" s="7">
+        <v>9838</v>
+      </c>
     </row>
     <row r="70" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
@@ -58939,6 +59137,9 @@
       <c r="IX70" s="7">
         <v>1029</v>
       </c>
+      <c r="IY70" s="7">
+        <v>742</v>
+      </c>
     </row>
     <row r="71" spans="1:901" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
@@ -59713,6 +59914,9 @@
       <c r="IX71" s="7">
         <v>24182</v>
       </c>
+      <c r="IY71" s="7">
+        <v>24519</v>
+      </c>
     </row>
     <row r="72" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
@@ -60487,6 +60691,9 @@
       <c r="IX72" s="7">
         <v>2834</v>
       </c>
+      <c r="IY72" s="7">
+        <v>2731</v>
+      </c>
     </row>
     <row r="73" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
@@ -61261,6 +61468,9 @@
       <c r="IX73" s="7">
         <v>294</v>
       </c>
+      <c r="IY73" s="7">
+        <v>358</v>
+      </c>
     </row>
     <row r="74" spans="1:901" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
@@ -62035,6 +62245,9 @@
       <c r="IX74" s="7">
         <v>50105</v>
       </c>
+      <c r="IY74" s="7">
+        <v>51211</v>
+      </c>
     </row>
     <row r="75" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
@@ -62809,7 +63022,9 @@
       <c r="IX75" s="10">
         <v>88258</v>
       </c>
-      <c r="IY75" s="29"/>
+      <c r="IY75" s="10">
+        <v>89399</v>
+      </c>
       <c r="IZ75" s="29"/>
       <c r="JA75" s="29"/>
       <c r="JB75" s="29"/>
@@ -64226,6 +64441,10 @@
       <c r="IX76" s="19">
         <v>1810884</v>
       </c>
+      <c r="IY76" s="19">
+        <v>1815607</v>
+      </c>
+      <c r="IZ76" s="41"/>
     </row>
     <row r="77" spans="1:901" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
@@ -64481,7 +64700,7 @@
       <c r="IV77" s="30"/>
       <c r="IW77" s="30"/>
       <c r="IX77" s="30"/>
-      <c r="IY77" s="27"/>
+      <c r="IY77" s="30"/>
       <c r="IZ77" s="27"/>
       <c r="JA77" s="27"/>
       <c r="JB77" s="27"/>
@@ -64970,7 +65189,6 @@
     <mergeCell ref="A28:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
-    <mergeCell ref="IU4:IX4"/>
     <mergeCell ref="DG4:DR4"/>
     <mergeCell ref="HW4:IH4"/>
     <mergeCell ref="HK4:HV4"/>
@@ -64983,6 +65201,7 @@
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
     <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:IY4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="334">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1042,6 +1042,9 @@
   <si>
     <t>2021/Mayo</t>
   </si>
+  <si>
+    <t>2021/Junio</t>
+  </si>
 </sst>
 </file>
 
@@ -1744,6 +1747,18 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1752,18 +1767,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2120,11 +2123,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHQ78"/>
+  <dimension ref="A1:AHR78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A21"/>
+      <selection pane="topRight" activeCell="JE59" sqref="JE59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,331 +2387,332 @@
     <col min="256" max="256" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="11.5703125" style="4" customWidth="1"/>
-    <col min="260" max="720" width="10.85546875" style="28"/>
-    <col min="721" max="901" width="10.85546875" style="4"/>
-    <col min="902" max="16384" width="10.85546875" style="3"/>
+    <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
+    <col min="260" max="260" width="11.5703125" style="4" customWidth="1"/>
+    <col min="261" max="721" width="10.85546875" style="28"/>
+    <col min="722" max="902" width="10.85546875" style="4"/>
+    <col min="903" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:901" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:902" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:901" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:902" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:901" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:902" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>2000</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37">
         <v>2001</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37">
         <v>2002</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38">
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37">
         <v>2003</v>
       </c>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38">
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38">
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="37"/>
+      <c r="BK4" s="37">
         <v>2005</v>
       </c>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38">
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="37"/>
+      <c r="BO4" s="37"/>
+      <c r="BP4" s="37"/>
+      <c r="BQ4" s="37"/>
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="37"/>
+      <c r="BU4" s="37"/>
+      <c r="BV4" s="37"/>
+      <c r="BW4" s="37">
         <v>2006</v>
       </c>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38">
+      <c r="BX4" s="37"/>
+      <c r="BY4" s="37"/>
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="37"/>
+      <c r="CE4" s="37"/>
+      <c r="CF4" s="37"/>
+      <c r="CG4" s="37"/>
+      <c r="CH4" s="37"/>
+      <c r="CI4" s="37">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="38"/>
-      <c r="CU4" s="38">
+      <c r="CJ4" s="37"/>
+      <c r="CK4" s="37"/>
+      <c r="CL4" s="37"/>
+      <c r="CM4" s="37"/>
+      <c r="CN4" s="37"/>
+      <c r="CO4" s="37"/>
+      <c r="CP4" s="37"/>
+      <c r="CQ4" s="37"/>
+      <c r="CR4" s="37"/>
+      <c r="CS4" s="37"/>
+      <c r="CT4" s="37"/>
+      <c r="CU4" s="37">
         <v>2008</v>
       </c>
-      <c r="CV4" s="38"/>
-      <c r="CW4" s="38"/>
-      <c r="CX4" s="38"/>
-      <c r="CY4" s="38"/>
-      <c r="CZ4" s="38"/>
-      <c r="DA4" s="38"/>
-      <c r="DB4" s="38"/>
-      <c r="DC4" s="38"/>
-      <c r="DD4" s="38"/>
-      <c r="DE4" s="38"/>
-      <c r="DF4" s="38"/>
-      <c r="DG4" s="38">
+      <c r="CV4" s="37"/>
+      <c r="CW4" s="37"/>
+      <c r="CX4" s="37"/>
+      <c r="CY4" s="37"/>
+      <c r="CZ4" s="37"/>
+      <c r="DA4" s="37"/>
+      <c r="DB4" s="37"/>
+      <c r="DC4" s="37"/>
+      <c r="DD4" s="37"/>
+      <c r="DE4" s="37"/>
+      <c r="DF4" s="37"/>
+      <c r="DG4" s="37">
         <v>2009</v>
       </c>
-      <c r="DH4" s="38"/>
-      <c r="DI4" s="38"/>
-      <c r="DJ4" s="38"/>
-      <c r="DK4" s="38"/>
-      <c r="DL4" s="38"/>
-      <c r="DM4" s="38"/>
-      <c r="DN4" s="38"/>
-      <c r="DO4" s="38"/>
-      <c r="DP4" s="38"/>
-      <c r="DQ4" s="38"/>
-      <c r="DR4" s="38"/>
-      <c r="DS4" s="38">
+      <c r="DH4" s="37"/>
+      <c r="DI4" s="37"/>
+      <c r="DJ4" s="37"/>
+      <c r="DK4" s="37"/>
+      <c r="DL4" s="37"/>
+      <c r="DM4" s="37"/>
+      <c r="DN4" s="37"/>
+      <c r="DO4" s="37"/>
+      <c r="DP4" s="37"/>
+      <c r="DQ4" s="37"/>
+      <c r="DR4" s="37"/>
+      <c r="DS4" s="37">
         <v>2010</v>
       </c>
-      <c r="DT4" s="38"/>
-      <c r="DU4" s="38"/>
-      <c r="DV4" s="38"/>
-      <c r="DW4" s="38"/>
-      <c r="DX4" s="38"/>
-      <c r="DY4" s="38"/>
-      <c r="DZ4" s="38"/>
-      <c r="EA4" s="38"/>
-      <c r="EB4" s="38"/>
-      <c r="EC4" s="38"/>
-      <c r="ED4" s="38"/>
-      <c r="EE4" s="38">
+      <c r="DT4" s="37"/>
+      <c r="DU4" s="37"/>
+      <c r="DV4" s="37"/>
+      <c r="DW4" s="37"/>
+      <c r="DX4" s="37"/>
+      <c r="DY4" s="37"/>
+      <c r="DZ4" s="37"/>
+      <c r="EA4" s="37"/>
+      <c r="EB4" s="37"/>
+      <c r="EC4" s="37"/>
+      <c r="ED4" s="37"/>
+      <c r="EE4" s="37">
         <v>2011</v>
       </c>
-      <c r="EF4" s="38"/>
-      <c r="EG4" s="38"/>
-      <c r="EH4" s="38"/>
-      <c r="EI4" s="38"/>
-      <c r="EJ4" s="38"/>
-      <c r="EK4" s="38"/>
-      <c r="EL4" s="38"/>
-      <c r="EM4" s="38"/>
-      <c r="EN4" s="38"/>
-      <c r="EO4" s="38"/>
-      <c r="EP4" s="38"/>
-      <c r="EQ4" s="38">
+      <c r="EF4" s="37"/>
+      <c r="EG4" s="37"/>
+      <c r="EH4" s="37"/>
+      <c r="EI4" s="37"/>
+      <c r="EJ4" s="37"/>
+      <c r="EK4" s="37"/>
+      <c r="EL4" s="37"/>
+      <c r="EM4" s="37"/>
+      <c r="EN4" s="37"/>
+      <c r="EO4" s="37"/>
+      <c r="EP4" s="37"/>
+      <c r="EQ4" s="37">
         <v>2012</v>
       </c>
-      <c r="ER4" s="38"/>
-      <c r="ES4" s="38"/>
-      <c r="ET4" s="38"/>
-      <c r="EU4" s="38"/>
-      <c r="EV4" s="38"/>
-      <c r="EW4" s="38"/>
-      <c r="EX4" s="38"/>
-      <c r="EY4" s="38"/>
-      <c r="EZ4" s="38"/>
-      <c r="FA4" s="38"/>
-      <c r="FB4" s="38"/>
-      <c r="FC4" s="38">
+      <c r="ER4" s="37"/>
+      <c r="ES4" s="37"/>
+      <c r="ET4" s="37"/>
+      <c r="EU4" s="37"/>
+      <c r="EV4" s="37"/>
+      <c r="EW4" s="37"/>
+      <c r="EX4" s="37"/>
+      <c r="EY4" s="37"/>
+      <c r="EZ4" s="37"/>
+      <c r="FA4" s="37"/>
+      <c r="FB4" s="37"/>
+      <c r="FC4" s="37">
         <v>2013</v>
       </c>
-      <c r="FD4" s="38"/>
-      <c r="FE4" s="38"/>
-      <c r="FF4" s="38"/>
-      <c r="FG4" s="38"/>
-      <c r="FH4" s="38"/>
-      <c r="FI4" s="38"/>
-      <c r="FJ4" s="38"/>
-      <c r="FK4" s="38"/>
-      <c r="FL4" s="38"/>
-      <c r="FM4" s="38"/>
-      <c r="FN4" s="38"/>
-      <c r="FO4" s="38">
+      <c r="FD4" s="37"/>
+      <c r="FE4" s="37"/>
+      <c r="FF4" s="37"/>
+      <c r="FG4" s="37"/>
+      <c r="FH4" s="37"/>
+      <c r="FI4" s="37"/>
+      <c r="FJ4" s="37"/>
+      <c r="FK4" s="37"/>
+      <c r="FL4" s="37"/>
+      <c r="FM4" s="37"/>
+      <c r="FN4" s="37"/>
+      <c r="FO4" s="37">
         <v>2014</v>
       </c>
-      <c r="FP4" s="38"/>
-      <c r="FQ4" s="38"/>
-      <c r="FR4" s="38"/>
-      <c r="FS4" s="38"/>
-      <c r="FT4" s="38"/>
-      <c r="FU4" s="38"/>
-      <c r="FV4" s="38"/>
-      <c r="FW4" s="38"/>
-      <c r="FX4" s="38"/>
-      <c r="FY4" s="38"/>
-      <c r="FZ4" s="38"/>
-      <c r="GA4" s="38">
+      <c r="FP4" s="37"/>
+      <c r="FQ4" s="37"/>
+      <c r="FR4" s="37"/>
+      <c r="FS4" s="37"/>
+      <c r="FT4" s="37"/>
+      <c r="FU4" s="37"/>
+      <c r="FV4" s="37"/>
+      <c r="FW4" s="37"/>
+      <c r="FX4" s="37"/>
+      <c r="FY4" s="37"/>
+      <c r="FZ4" s="37"/>
+      <c r="GA4" s="37">
         <v>2015</v>
       </c>
-      <c r="GB4" s="38"/>
-      <c r="GC4" s="38"/>
-      <c r="GD4" s="38"/>
-      <c r="GE4" s="38"/>
-      <c r="GF4" s="38"/>
-      <c r="GG4" s="38"/>
-      <c r="GH4" s="38"/>
-      <c r="GI4" s="38"/>
-      <c r="GJ4" s="38"/>
-      <c r="GK4" s="38"/>
-      <c r="GL4" s="38"/>
-      <c r="GM4" s="38">
+      <c r="GB4" s="37"/>
+      <c r="GC4" s="37"/>
+      <c r="GD4" s="37"/>
+      <c r="GE4" s="37"/>
+      <c r="GF4" s="37"/>
+      <c r="GG4" s="37"/>
+      <c r="GH4" s="37"/>
+      <c r="GI4" s="37"/>
+      <c r="GJ4" s="37"/>
+      <c r="GK4" s="37"/>
+      <c r="GL4" s="37"/>
+      <c r="GM4" s="37">
         <v>2016</v>
       </c>
-      <c r="GN4" s="38"/>
-      <c r="GO4" s="38"/>
-      <c r="GP4" s="38"/>
-      <c r="GQ4" s="38"/>
-      <c r="GR4" s="38"/>
-      <c r="GS4" s="38"/>
-      <c r="GT4" s="38"/>
-      <c r="GU4" s="38"/>
-      <c r="GV4" s="38"/>
-      <c r="GW4" s="38"/>
-      <c r="GX4" s="38"/>
-      <c r="GY4" s="38">
+      <c r="GN4" s="37"/>
+      <c r="GO4" s="37"/>
+      <c r="GP4" s="37"/>
+      <c r="GQ4" s="37"/>
+      <c r="GR4" s="37"/>
+      <c r="GS4" s="37"/>
+      <c r="GT4" s="37"/>
+      <c r="GU4" s="37"/>
+      <c r="GV4" s="37"/>
+      <c r="GW4" s="37"/>
+      <c r="GX4" s="37"/>
+      <c r="GY4" s="37">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="38"/>
-      <c r="HA4" s="38"/>
-      <c r="HB4" s="38"/>
-      <c r="HC4" s="38"/>
-      <c r="HD4" s="38"/>
-      <c r="HE4" s="38"/>
-      <c r="HF4" s="38"/>
-      <c r="HG4" s="38"/>
-      <c r="HH4" s="38"/>
-      <c r="HI4" s="38"/>
-      <c r="HJ4" s="38"/>
-      <c r="HK4" s="38">
+      <c r="GZ4" s="37"/>
+      <c r="HA4" s="37"/>
+      <c r="HB4" s="37"/>
+      <c r="HC4" s="37"/>
+      <c r="HD4" s="37"/>
+      <c r="HE4" s="37"/>
+      <c r="HF4" s="37"/>
+      <c r="HG4" s="37"/>
+      <c r="HH4" s="37"/>
+      <c r="HI4" s="37"/>
+      <c r="HJ4" s="37"/>
+      <c r="HK4" s="37">
         <v>2018</v>
       </c>
-      <c r="HL4" s="38"/>
-      <c r="HM4" s="38"/>
-      <c r="HN4" s="38"/>
-      <c r="HO4" s="38"/>
-      <c r="HP4" s="38"/>
-      <c r="HQ4" s="38"/>
-      <c r="HR4" s="38"/>
-      <c r="HS4" s="38"/>
-      <c r="HT4" s="38"/>
-      <c r="HU4" s="38"/>
-      <c r="HV4" s="38"/>
-      <c r="HW4" s="38">
+      <c r="HL4" s="37"/>
+      <c r="HM4" s="37"/>
+      <c r="HN4" s="37"/>
+      <c r="HO4" s="37"/>
+      <c r="HP4" s="37"/>
+      <c r="HQ4" s="37"/>
+      <c r="HR4" s="37"/>
+      <c r="HS4" s="37"/>
+      <c r="HT4" s="37"/>
+      <c r="HU4" s="37"/>
+      <c r="HV4" s="37"/>
+      <c r="HW4" s="37">
         <v>2019</v>
       </c>
-      <c r="HX4" s="38"/>
-      <c r="HY4" s="38"/>
-      <c r="HZ4" s="38"/>
-      <c r="IA4" s="38"/>
-      <c r="IB4" s="38"/>
-      <c r="IC4" s="38"/>
-      <c r="ID4" s="38"/>
-      <c r="IE4" s="38"/>
-      <c r="IF4" s="38"/>
-      <c r="IG4" s="38"/>
-      <c r="IH4" s="35"/>
-      <c r="II4" s="35">
+      <c r="HX4" s="37"/>
+      <c r="HY4" s="37"/>
+      <c r="HZ4" s="37"/>
+      <c r="IA4" s="37"/>
+      <c r="IB4" s="37"/>
+      <c r="IC4" s="37"/>
+      <c r="ID4" s="37"/>
+      <c r="IE4" s="37"/>
+      <c r="IF4" s="37"/>
+      <c r="IG4" s="37"/>
+      <c r="IH4" s="39"/>
+      <c r="II4" s="39">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="36"/>
-      <c r="IK4" s="36"/>
-      <c r="IL4" s="36"/>
-      <c r="IM4" s="36"/>
-      <c r="IN4" s="36"/>
-      <c r="IO4" s="36"/>
-      <c r="IP4" s="36"/>
-      <c r="IQ4" s="36"/>
-      <c r="IR4" s="36"/>
-      <c r="IS4" s="36"/>
-      <c r="IT4" s="37"/>
-      <c r="IU4" s="35">
+      <c r="IJ4" s="40"/>
+      <c r="IK4" s="40"/>
+      <c r="IL4" s="40"/>
+      <c r="IM4" s="40"/>
+      <c r="IN4" s="40"/>
+      <c r="IO4" s="40"/>
+      <c r="IP4" s="40"/>
+      <c r="IQ4" s="40"/>
+      <c r="IR4" s="40"/>
+      <c r="IS4" s="40"/>
+      <c r="IT4" s="41"/>
+      <c r="IU4" s="39">
         <v>2021</v>
       </c>
-      <c r="IV4" s="36"/>
-      <c r="IW4" s="36"/>
-      <c r="IX4" s="36"/>
-      <c r="IY4" s="37"/>
-      <c r="IZ4" s="29"/>
+      <c r="IV4" s="40"/>
+      <c r="IW4" s="40"/>
+      <c r="IX4" s="40"/>
+      <c r="IY4" s="40"/>
+      <c r="IZ4" s="41"/>
       <c r="JA4" s="29"/>
       <c r="JB4" s="29"/>
       <c r="JC4" s="29"/>
@@ -3169,7 +3173,7 @@
       <c r="AAP4" s="29"/>
       <c r="AAQ4" s="29"/>
       <c r="AAR4" s="29"/>
-      <c r="AAS4" s="5"/>
+      <c r="AAS4" s="29"/>
       <c r="AAT4" s="5"/>
       <c r="AAU4" s="5"/>
       <c r="AAV4" s="5"/>
@@ -3350,10 +3354,11 @@
       <c r="AHO4" s="5"/>
       <c r="AHP4" s="5"/>
       <c r="AHQ4" s="5"/>
+      <c r="AHR4" s="5"/>
     </row>
-    <row r="5" spans="1:901" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:902" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4130,9 @@
       <c r="IY5" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="IZ5" s="29"/>
+      <c r="IZ5" s="31" t="s">
+        <v>333</v>
+      </c>
       <c r="JA5" s="29"/>
       <c r="JB5" s="29"/>
       <c r="JC5" s="29"/>
@@ -4586,7 +4593,7 @@
       <c r="AAP5" s="29"/>
       <c r="AAQ5" s="29"/>
       <c r="AAR5" s="29"/>
-      <c r="AAS5" s="5"/>
+      <c r="AAS5" s="29"/>
       <c r="AAT5" s="5"/>
       <c r="AAU5" s="5"/>
       <c r="AAV5" s="5"/>
@@ -4767,9 +4774,10 @@
       <c r="AHO5" s="5"/>
       <c r="AHP5" s="5"/>
       <c r="AHQ5" s="5"/>
+      <c r="AHR5" s="5"/>
     </row>
-    <row r="6" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5546,9 +5554,12 @@
       <c r="IY6" s="7">
         <v>84617</v>
       </c>
+      <c r="IZ6" s="7">
+        <v>83074</v>
+      </c>
     </row>
-    <row r="7" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6323,9 +6334,12 @@
       <c r="IY7" s="7">
         <v>44</v>
       </c>
+      <c r="IZ7" s="7">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7100,9 +7114,12 @@
       <c r="IY8" s="7">
         <v>23070</v>
       </c>
+      <c r="IZ8" s="7">
+        <v>23890</v>
+      </c>
     </row>
-    <row r="9" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7877,9 +7894,12 @@
       <c r="IY9" s="7">
         <v>261</v>
       </c>
+      <c r="IZ9" s="7">
+        <v>415</v>
+      </c>
     </row>
-    <row r="10" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8654,9 +8674,12 @@
       <c r="IY10" s="7">
         <v>449</v>
       </c>
+      <c r="IZ10" s="7">
+        <v>416</v>
+      </c>
     </row>
-    <row r="11" spans="1:901" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:902" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9431,7 +9454,9 @@
       <c r="IY11" s="10">
         <v>108441</v>
       </c>
-      <c r="IZ11" s="29"/>
+      <c r="IZ11" s="10">
+        <v>107839</v>
+      </c>
       <c r="JA11" s="29"/>
       <c r="JB11" s="29"/>
       <c r="JC11" s="29"/>
@@ -9892,7 +9917,7 @@
       <c r="AAP11" s="29"/>
       <c r="AAQ11" s="29"/>
       <c r="AAR11" s="29"/>
-      <c r="AAS11" s="5"/>
+      <c r="AAS11" s="29"/>
       <c r="AAT11" s="5"/>
       <c r="AAU11" s="5"/>
       <c r="AAV11" s="5"/>
@@ -10073,9 +10098,10 @@
       <c r="AHO11" s="5"/>
       <c r="AHP11" s="5"/>
       <c r="AHQ11" s="5"/>
+      <c r="AHR11" s="5"/>
     </row>
-    <row r="12" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10852,9 +10878,12 @@
       <c r="IY12" s="7">
         <v>70686</v>
       </c>
+      <c r="IZ12" s="7">
+        <v>71020</v>
+      </c>
     </row>
-    <row r="13" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11629,9 +11658,12 @@
       <c r="IY13" s="7">
         <v>18613</v>
       </c>
+      <c r="IZ13" s="7">
+        <v>18566</v>
+      </c>
     </row>
-    <row r="14" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12406,9 +12438,12 @@
       <c r="IY14" s="7">
         <v>30523</v>
       </c>
+      <c r="IZ14" s="7">
+        <v>30368</v>
+      </c>
     </row>
-    <row r="15" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13183,9 +13218,12 @@
       <c r="IY15" s="7">
         <v>23190</v>
       </c>
+      <c r="IZ15" s="7">
+        <v>23234</v>
+      </c>
     </row>
-    <row r="16" spans="1:901" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:902" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -13960,9 +13998,12 @@
       <c r="IY16" s="7">
         <v>12811</v>
       </c>
+      <c r="IZ16" s="7">
+        <v>14404</v>
+      </c>
     </row>
-    <row r="17" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14737,9 +14778,12 @@
       <c r="IY17" s="7">
         <v>44211</v>
       </c>
+      <c r="IZ17" s="7">
+        <v>44467</v>
+      </c>
     </row>
-    <row r="18" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15514,9 +15558,12 @@
       <c r="IY18" s="7">
         <v>54479</v>
       </c>
+      <c r="IZ18" s="7">
+        <v>56035</v>
+      </c>
     </row>
-    <row r="19" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16291,9 +16338,12 @@
       <c r="IY19" s="7">
         <v>64595</v>
       </c>
+      <c r="IZ19" s="7">
+        <v>64695</v>
+      </c>
     </row>
-    <row r="20" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17068,9 +17118,12 @@
       <c r="IY20" s="7">
         <v>50519</v>
       </c>
+      <c r="IZ20" s="7">
+        <v>49602</v>
+      </c>
     </row>
-    <row r="21" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+    <row r="21" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -17845,7 +17898,9 @@
       <c r="IY21" s="10">
         <v>369627</v>
       </c>
-      <c r="IZ21" s="29"/>
+      <c r="IZ21" s="10">
+        <v>372391</v>
+      </c>
       <c r="JA21" s="29"/>
       <c r="JB21" s="29"/>
       <c r="JC21" s="29"/>
@@ -18306,7 +18361,7 @@
       <c r="AAP21" s="29"/>
       <c r="AAQ21" s="29"/>
       <c r="AAR21" s="29"/>
-      <c r="AAS21" s="5"/>
+      <c r="AAS21" s="29"/>
       <c r="AAT21" s="5"/>
       <c r="AAU21" s="5"/>
       <c r="AAV21" s="5"/>
@@ -18487,9 +18542,10 @@
       <c r="AHO21" s="5"/>
       <c r="AHP21" s="5"/>
       <c r="AHQ21" s="5"/>
+      <c r="AHR21" s="5"/>
     </row>
-    <row r="22" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19266,9 +19322,12 @@
       <c r="IY22" s="7">
         <v>101762</v>
       </c>
+      <c r="IZ22" s="7">
+        <v>104004</v>
+      </c>
     </row>
-    <row r="23" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+    <row r="23" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20043,9 +20102,12 @@
       <c r="IY23" s="7">
         <v>36769</v>
       </c>
+      <c r="IZ23" s="7">
+        <v>36921</v>
+      </c>
     </row>
-    <row r="24" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -20820,7 +20882,9 @@
       <c r="IY24" s="10">
         <v>138531</v>
       </c>
-      <c r="IZ24" s="29"/>
+      <c r="IZ24" s="10">
+        <v>140925</v>
+      </c>
       <c r="JA24" s="29"/>
       <c r="JB24" s="29"/>
       <c r="JC24" s="29"/>
@@ -21281,7 +21345,7 @@
       <c r="AAP24" s="29"/>
       <c r="AAQ24" s="29"/>
       <c r="AAR24" s="29"/>
-      <c r="AAS24" s="5"/>
+      <c r="AAS24" s="29"/>
       <c r="AAT24" s="5"/>
       <c r="AAU24" s="5"/>
       <c r="AAV24" s="5"/>
@@ -21462,9 +21526,10 @@
       <c r="AHO24" s="5"/>
       <c r="AHP24" s="5"/>
       <c r="AHQ24" s="5"/>
+      <c r="AHR24" s="5"/>
     </row>
-    <row r="25" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22241,9 +22306,12 @@
       <c r="IY25" s="7">
         <v>4423</v>
       </c>
+      <c r="IZ25" s="7">
+        <v>4457</v>
+      </c>
     </row>
-    <row r="26" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23018,9 +23086,12 @@
       <c r="IY26" s="7">
         <v>5584</v>
       </c>
+      <c r="IZ26" s="7">
+        <v>5646</v>
+      </c>
     </row>
-    <row r="27" spans="1:901" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:902" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -23795,7 +23866,9 @@
       <c r="IY27" s="10">
         <v>10007</v>
       </c>
-      <c r="IZ27" s="29"/>
+      <c r="IZ27" s="10">
+        <v>10103</v>
+      </c>
       <c r="JA27" s="29"/>
       <c r="JB27" s="29"/>
       <c r="JC27" s="29"/>
@@ -24256,7 +24329,7 @@
       <c r="AAP27" s="29"/>
       <c r="AAQ27" s="29"/>
       <c r="AAR27" s="29"/>
-      <c r="AAS27" s="5"/>
+      <c r="AAS27" s="29"/>
       <c r="AAT27" s="5"/>
       <c r="AAU27" s="5"/>
       <c r="AAV27" s="5"/>
@@ -24437,9 +24510,10 @@
       <c r="AHO27" s="5"/>
       <c r="AHP27" s="5"/>
       <c r="AHQ27" s="5"/>
+      <c r="AHR27" s="5"/>
     </row>
-    <row r="28" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25216,9 +25290,12 @@
       <c r="IY28" s="7">
         <v>1349</v>
       </c>
+      <c r="IZ28" s="7">
+        <v>1352</v>
+      </c>
     </row>
-    <row r="29" spans="1:901" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+    <row r="29" spans="1:902" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -25993,9 +26070,12 @@
       <c r="IY29" s="7">
         <v>10570</v>
       </c>
+      <c r="IZ29" s="7">
+        <v>10634</v>
+      </c>
     </row>
-    <row r="30" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+    <row r="30" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -26770,9 +26850,12 @@
       <c r="IY30" s="7">
         <v>28055</v>
       </c>
+      <c r="IZ30" s="7">
+        <v>28218</v>
+      </c>
     </row>
-    <row r="31" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+    <row r="31" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27547,9 +27630,12 @@
       <c r="IY31" s="7">
         <v>97813</v>
       </c>
+      <c r="IZ31" s="7">
+        <v>97722</v>
+      </c>
     </row>
-    <row r="32" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+    <row r="32" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28324,9 +28410,12 @@
       <c r="IY32" s="7">
         <v>21745</v>
       </c>
+      <c r="IZ32" s="7">
+        <v>21545</v>
+      </c>
     </row>
-    <row r="33" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+    <row r="33" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29101,9 +29190,12 @@
       <c r="IY33" s="7">
         <v>9480</v>
       </c>
+      <c r="IZ33" s="7">
+        <v>9687</v>
+      </c>
     </row>
-    <row r="34" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+    <row r="34" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -29878,9 +29970,12 @@
       <c r="IY34" s="7">
         <v>40540</v>
       </c>
+      <c r="IZ34" s="7">
+        <v>41148</v>
+      </c>
     </row>
-    <row r="35" spans="1:901" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+    <row r="35" spans="1:902" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -30655,9 +30750,12 @@
       <c r="IY35" s="7">
         <v>8880</v>
       </c>
+      <c r="IZ35" s="7">
+        <v>8971</v>
+      </c>
     </row>
-    <row r="36" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+    <row r="36" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31432,9 +31530,12 @@
       <c r="IY36" s="7">
         <v>47903</v>
       </c>
+      <c r="IZ36" s="7">
+        <v>48227</v>
+      </c>
     </row>
-    <row r="37" spans="1:901" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:902" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32209,9 +32310,12 @@
       <c r="IY37" s="7">
         <v>57861</v>
       </c>
+      <c r="IZ37" s="7">
+        <v>56936</v>
+      </c>
     </row>
-    <row r="38" spans="1:901" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+    <row r="38" spans="1:902" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -32986,9 +33090,12 @@
       <c r="IY38" s="7">
         <v>22532</v>
       </c>
+      <c r="IZ38" s="7">
+        <v>22512</v>
+      </c>
     </row>
-    <row r="39" spans="1:901" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+    <row r="39" spans="1:902" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -33763,9 +33870,12 @@
       <c r="IY39" s="7">
         <v>18677</v>
       </c>
+      <c r="IZ39" s="7">
+        <v>19481</v>
+      </c>
     </row>
-    <row r="40" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+    <row r="40" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -34540,9 +34650,12 @@
       <c r="IY40" s="7">
         <v>11437</v>
       </c>
+      <c r="IZ40" s="7">
+        <v>11642</v>
+      </c>
     </row>
-    <row r="41" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+    <row r="41" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35317,9 +35430,12 @@
       <c r="IY41" s="7">
         <v>13853</v>
       </c>
+      <c r="IZ41" s="7">
+        <v>11914</v>
+      </c>
     </row>
-    <row r="42" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+    <row r="42" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36094,9 +36210,12 @@
       <c r="IY42" s="7">
         <v>47190</v>
       </c>
+      <c r="IZ42" s="7">
+        <v>44220</v>
+      </c>
     </row>
-    <row r="43" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+    <row r="43" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -36871,9 +36990,12 @@
       <c r="IY43" s="7">
         <v>4481</v>
       </c>
+      <c r="IZ43" s="7">
+        <v>4496</v>
+      </c>
     </row>
-    <row r="44" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+    <row r="44" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -37648,9 +37770,12 @@
       <c r="IY44" s="7">
         <v>5373</v>
       </c>
+      <c r="IZ44" s="7">
+        <v>5451</v>
+      </c>
     </row>
-    <row r="45" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+    <row r="45" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38425,9 +38550,12 @@
       <c r="IY45" s="7">
         <v>6590</v>
       </c>
+      <c r="IZ45" s="7">
+        <v>6685</v>
+      </c>
     </row>
-    <row r="46" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+    <row r="46" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39202,9 +39330,12 @@
       <c r="IY46" s="7">
         <v>11842</v>
       </c>
+      <c r="IZ46" s="7">
+        <v>12122</v>
+      </c>
     </row>
-    <row r="47" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -39979,9 +40110,12 @@
       <c r="IY47" s="7">
         <v>1184</v>
       </c>
+      <c r="IZ47" s="7">
+        <v>1152</v>
+      </c>
     </row>
-    <row r="48" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -40756,7 +40890,9 @@
       <c r="IY48" s="10">
         <v>467355</v>
       </c>
-      <c r="IZ48" s="29"/>
+      <c r="IZ48" s="10">
+        <v>464115</v>
+      </c>
       <c r="JA48" s="29"/>
       <c r="JB48" s="29"/>
       <c r="JC48" s="29"/>
@@ -41217,7 +41353,7 @@
       <c r="AAP48" s="29"/>
       <c r="AAQ48" s="29"/>
       <c r="AAR48" s="29"/>
-      <c r="AAS48" s="5"/>
+      <c r="AAS48" s="29"/>
       <c r="AAT48" s="5"/>
       <c r="AAU48" s="5"/>
       <c r="AAV48" s="5"/>
@@ -41398,9 +41534,10 @@
       <c r="AHO48" s="5"/>
       <c r="AHP48" s="5"/>
       <c r="AHQ48" s="5"/>
+      <c r="AHR48" s="5"/>
     </row>
-    <row r="49" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+    <row r="49" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42177,9 +42314,12 @@
       <c r="IY49" s="7">
         <v>19</v>
       </c>
+      <c r="IZ49" s="7">
+        <v>21</v>
+      </c>
     </row>
-    <row r="50" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -42954,9 +43094,12 @@
       <c r="IY50" s="7">
         <v>1</v>
       </c>
+      <c r="IZ50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:259" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+    <row r="51" spans="1:260" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -43731,9 +43874,12 @@
       <c r="IY51" s="7">
         <v>1371</v>
       </c>
+      <c r="IZ51" s="7">
+        <v>1382</v>
+      </c>
     </row>
-    <row r="52" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -44508,9 +44654,12 @@
       <c r="IY52" s="7">
         <v>1074</v>
       </c>
+      <c r="IZ52" s="7">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="53" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+    <row r="53" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -45285,9 +45434,12 @@
       <c r="IY53" s="10">
         <v>2465</v>
       </c>
+      <c r="IZ53" s="10">
+        <v>2420</v>
+      </c>
     </row>
-    <row r="54" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="54" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46064,9 +46216,12 @@
       <c r="IY54" s="7">
         <v>5757</v>
       </c>
+      <c r="IZ54" s="7">
+        <v>5713</v>
+      </c>
     </row>
-    <row r="55" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+    <row r="55" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -46841,9 +46996,12 @@
       <c r="IY55" s="7">
         <v>45543</v>
       </c>
+      <c r="IZ55" s="7">
+        <v>47123</v>
+      </c>
     </row>
-    <row r="56" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -47618,9 +47776,12 @@
       <c r="IY56" s="7">
         <v>6797</v>
       </c>
+      <c r="IZ56" s="7">
+        <v>6946</v>
+      </c>
     </row>
-    <row r="57" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -48395,9 +48556,12 @@
       <c r="IY57" s="7">
         <v>196932</v>
       </c>
+      <c r="IZ57" s="7">
+        <v>192629</v>
+      </c>
     </row>
-    <row r="58" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -49172,9 +49336,12 @@
       <c r="IY58" s="7">
         <v>26909</v>
       </c>
+      <c r="IZ58" s="7">
+        <v>29949</v>
+      </c>
     </row>
-    <row r="59" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+    <row r="59" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -49949,9 +50116,12 @@
       <c r="IY59" s="7">
         <v>5899</v>
       </c>
+      <c r="IZ59" s="7">
+        <v>5893</v>
+      </c>
     </row>
-    <row r="60" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+    <row r="60" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -50726,9 +50896,12 @@
       <c r="IY60" s="7">
         <v>44703</v>
       </c>
+      <c r="IZ60" s="7">
+        <v>44123</v>
+      </c>
     </row>
-    <row r="61" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+    <row r="61" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -51503,9 +51676,12 @@
       <c r="IY61" s="7">
         <v>133</v>
       </c>
+      <c r="IZ61" s="7">
+        <v>132</v>
+      </c>
     </row>
-    <row r="62" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+    <row r="62" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="36"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -52280,9 +52456,12 @@
       <c r="IY62" s="7">
         <v>15473</v>
       </c>
+      <c r="IZ62" s="7">
+        <v>15966</v>
+      </c>
     </row>
-    <row r="63" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+    <row r="63" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="36"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53057,9 +53236,12 @@
       <c r="IY63" s="7">
         <v>29302</v>
       </c>
+      <c r="IZ63" s="7">
+        <v>31084</v>
+      </c>
     </row>
-    <row r="64" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -53834,9 +54016,12 @@
       <c r="IY64" s="7">
         <v>46677</v>
       </c>
+      <c r="IZ64" s="7">
+        <v>47463</v>
+      </c>
     </row>
-    <row r="65" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+    <row r="65" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A65" s="36"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -54611,9 +54796,12 @@
       <c r="IY65" s="7">
         <v>184527</v>
       </c>
+      <c r="IZ65" s="7">
+        <v>184937</v>
+      </c>
     </row>
-    <row r="66" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+    <row r="66" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A66" s="36"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -55388,9 +55576,12 @@
       <c r="IY66" s="7">
         <v>15045</v>
       </c>
+      <c r="IZ66" s="7">
+        <v>15392</v>
+      </c>
     </row>
-    <row r="67" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+    <row r="67" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -56165,9 +56356,12 @@
       <c r="IY67" s="7">
         <v>6085</v>
       </c>
+      <c r="IZ67" s="7">
+        <v>6095</v>
+      </c>
     </row>
-    <row r="68" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+    <row r="68" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -56942,7 +57136,9 @@
       <c r="IY68" s="10">
         <v>629782</v>
       </c>
-      <c r="IZ68" s="29"/>
+      <c r="IZ68" s="10">
+        <v>633445</v>
+      </c>
       <c r="JA68" s="29"/>
       <c r="JB68" s="29"/>
       <c r="JC68" s="29"/>
@@ -57403,7 +57599,7 @@
       <c r="AAP68" s="29"/>
       <c r="AAQ68" s="29"/>
       <c r="AAR68" s="29"/>
-      <c r="AAS68" s="5"/>
+      <c r="AAS68" s="29"/>
       <c r="AAT68" s="5"/>
       <c r="AAU68" s="5"/>
       <c r="AAV68" s="5"/>
@@ -57584,9 +57780,10 @@
       <c r="AHO68" s="5"/>
       <c r="AHP68" s="5"/>
       <c r="AHQ68" s="5"/>
+      <c r="AHR68" s="5"/>
     </row>
-    <row r="69" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+    <row r="69" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -58363,9 +58560,12 @@
       <c r="IY69" s="7">
         <v>9838</v>
       </c>
+      <c r="IZ69" s="7">
+        <v>9790</v>
+      </c>
     </row>
-    <row r="70" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+    <row r="70" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A70" s="36"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -59140,9 +59340,12 @@
       <c r="IY70" s="7">
         <v>742</v>
       </c>
+      <c r="IZ70" s="7">
+        <v>722</v>
+      </c>
     </row>
-    <row r="71" spans="1:901" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+    <row r="71" spans="1:902" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="36"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -59917,9 +60120,12 @@
       <c r="IY71" s="7">
         <v>24519</v>
       </c>
+      <c r="IZ71" s="7">
+        <v>24353</v>
+      </c>
     </row>
-    <row r="72" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+    <row r="72" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A72" s="36"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -60694,9 +60900,12 @@
       <c r="IY72" s="7">
         <v>2731</v>
       </c>
+      <c r="IZ72" s="7">
+        <v>2920</v>
+      </c>
     </row>
-    <row r="73" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+    <row r="73" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -61471,9 +61680,12 @@
       <c r="IY73" s="7">
         <v>358</v>
       </c>
+      <c r="IZ73" s="7">
+        <v>434</v>
+      </c>
     </row>
-    <row r="74" spans="1:901" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+    <row r="74" spans="1:902" x14ac:dyDescent="0.25">
+      <c r="A74" s="36"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -62248,9 +62460,12 @@
       <c r="IY74" s="7">
         <v>51211</v>
       </c>
+      <c r="IZ74" s="7">
+        <v>51328</v>
+      </c>
     </row>
-    <row r="75" spans="1:901" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+    <row r="75" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -63025,7 +63240,9 @@
       <c r="IY75" s="10">
         <v>89399</v>
       </c>
-      <c r="IZ75" s="29"/>
+      <c r="IZ75" s="10">
+        <v>89547</v>
+      </c>
       <c r="JA75" s="29"/>
       <c r="JB75" s="29"/>
       <c r="JC75" s="29"/>
@@ -63486,7 +63703,7 @@
       <c r="AAP75" s="29"/>
       <c r="AAQ75" s="29"/>
       <c r="AAR75" s="29"/>
-      <c r="AAS75" s="5"/>
+      <c r="AAS75" s="29"/>
       <c r="AAT75" s="5"/>
       <c r="AAU75" s="5"/>
       <c r="AAV75" s="5"/>
@@ -63667,8 +63884,9 @@
       <c r="AHO75" s="5"/>
       <c r="AHP75" s="5"/>
       <c r="AHQ75" s="5"/>
+      <c r="AHR75" s="5"/>
     </row>
-    <row r="76" spans="1:901" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:902" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -64444,9 +64662,13 @@
       <c r="IY76" s="19">
         <v>1815607</v>
       </c>
-      <c r="IZ76" s="41"/>
+      <c r="IZ76" s="19">
+        <f>IZ11+IZ21+IZ24+IZ27+IZ48+IZ53+IZ68+IZ75</f>
+        <v>1820785</v>
+      </c>
+      <c r="JA76" s="35"/>
     </row>
-    <row r="77" spans="1:901" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:902" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -64701,7 +64923,7 @@
       <c r="IW77" s="30"/>
       <c r="IX77" s="30"/>
       <c r="IY77" s="30"/>
-      <c r="IZ77" s="27"/>
+      <c r="IZ77" s="30"/>
       <c r="JA77" s="27"/>
       <c r="JB77" s="27"/>
       <c r="JC77" s="27"/>
@@ -65162,14 +65384,35 @@
       <c r="AAP77" s="27"/>
       <c r="AAQ77" s="27"/>
       <c r="AAR77" s="27"/>
+      <c r="AAS77" s="27"/>
     </row>
-    <row r="78" spans="1:901" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:902" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:IZ4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -65182,26 +65425,6 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:IY4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="335">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1045,6 +1045,9 @@
   <si>
     <t>2021/Junio</t>
   </si>
+  <si>
+    <t>2021/Julio</t>
+  </si>
 </sst>
 </file>
 
@@ -1750,15 +1753,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1767,6 +1761,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2123,11 +2126,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHR78"/>
+  <dimension ref="A1:AHS78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JE59" sqref="JE59"/>
+      <selection pane="topRight" activeCell="JC61" sqref="JC61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,332 +2391,332 @@
     <col min="257" max="257" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
-    <col min="260" max="260" width="11.5703125" style="4" customWidth="1"/>
-    <col min="261" max="721" width="10.85546875" style="28"/>
-    <col min="722" max="902" width="10.85546875" style="4"/>
-    <col min="903" max="16384" width="10.85546875" style="3"/>
+    <col min="260" max="261" width="11.5703125" style="4" customWidth="1"/>
+    <col min="262" max="722" width="10.85546875" style="28"/>
+    <col min="723" max="903" width="10.85546875" style="4"/>
+    <col min="904" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:902" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:903" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:902" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:903" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:902" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="37"/>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="37"/>
-      <c r="BK4" s="37">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="37"/>
-      <c r="BP4" s="37"/>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="37"/>
-      <c r="BY4" s="37"/>
-      <c r="BZ4" s="37"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="37"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="37"/>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="37"/>
-      <c r="CL4" s="37"/>
-      <c r="CM4" s="37"/>
-      <c r="CN4" s="37"/>
-      <c r="CO4" s="37"/>
-      <c r="CP4" s="37"/>
-      <c r="CQ4" s="37"/>
-      <c r="CR4" s="37"/>
-      <c r="CS4" s="37"/>
-      <c r="CT4" s="37"/>
-      <c r="CU4" s="37">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="37"/>
-      <c r="CW4" s="37"/>
-      <c r="CX4" s="37"/>
-      <c r="CY4" s="37"/>
-      <c r="CZ4" s="37"/>
-      <c r="DA4" s="37"/>
-      <c r="DB4" s="37"/>
-      <c r="DC4" s="37"/>
-      <c r="DD4" s="37"/>
-      <c r="DE4" s="37"/>
-      <c r="DF4" s="37"/>
-      <c r="DG4" s="37">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="37"/>
-      <c r="DI4" s="37"/>
-      <c r="DJ4" s="37"/>
-      <c r="DK4" s="37"/>
-      <c r="DL4" s="37"/>
-      <c r="DM4" s="37"/>
-      <c r="DN4" s="37"/>
-      <c r="DO4" s="37"/>
-      <c r="DP4" s="37"/>
-      <c r="DQ4" s="37"/>
-      <c r="DR4" s="37"/>
-      <c r="DS4" s="37">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="37"/>
-      <c r="DU4" s="37"/>
-      <c r="DV4" s="37"/>
-      <c r="DW4" s="37"/>
-      <c r="DX4" s="37"/>
-      <c r="DY4" s="37"/>
-      <c r="DZ4" s="37"/>
-      <c r="EA4" s="37"/>
-      <c r="EB4" s="37"/>
-      <c r="EC4" s="37"/>
-      <c r="ED4" s="37"/>
-      <c r="EE4" s="37">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="37"/>
-      <c r="EG4" s="37"/>
-      <c r="EH4" s="37"/>
-      <c r="EI4" s="37"/>
-      <c r="EJ4" s="37"/>
-      <c r="EK4" s="37"/>
-      <c r="EL4" s="37"/>
-      <c r="EM4" s="37"/>
-      <c r="EN4" s="37"/>
-      <c r="EO4" s="37"/>
-      <c r="EP4" s="37"/>
-      <c r="EQ4" s="37">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="37"/>
-      <c r="ES4" s="37"/>
-      <c r="ET4" s="37"/>
-      <c r="EU4" s="37"/>
-      <c r="EV4" s="37"/>
-      <c r="EW4" s="37"/>
-      <c r="EX4" s="37"/>
-      <c r="EY4" s="37"/>
-      <c r="EZ4" s="37"/>
-      <c r="FA4" s="37"/>
-      <c r="FB4" s="37"/>
-      <c r="FC4" s="37">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="37"/>
-      <c r="FE4" s="37"/>
-      <c r="FF4" s="37"/>
-      <c r="FG4" s="37"/>
-      <c r="FH4" s="37"/>
-      <c r="FI4" s="37"/>
-      <c r="FJ4" s="37"/>
-      <c r="FK4" s="37"/>
-      <c r="FL4" s="37"/>
-      <c r="FM4" s="37"/>
-      <c r="FN4" s="37"/>
-      <c r="FO4" s="37">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="37"/>
-      <c r="FQ4" s="37"/>
-      <c r="FR4" s="37"/>
-      <c r="FS4" s="37"/>
-      <c r="FT4" s="37"/>
-      <c r="FU4" s="37"/>
-      <c r="FV4" s="37"/>
-      <c r="FW4" s="37"/>
-      <c r="FX4" s="37"/>
-      <c r="FY4" s="37"/>
-      <c r="FZ4" s="37"/>
-      <c r="GA4" s="37">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="37"/>
-      <c r="GC4" s="37"/>
-      <c r="GD4" s="37"/>
-      <c r="GE4" s="37"/>
-      <c r="GF4" s="37"/>
-      <c r="GG4" s="37"/>
-      <c r="GH4" s="37"/>
-      <c r="GI4" s="37"/>
-      <c r="GJ4" s="37"/>
-      <c r="GK4" s="37"/>
-      <c r="GL4" s="37"/>
-      <c r="GM4" s="37">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="37"/>
-      <c r="GO4" s="37"/>
-      <c r="GP4" s="37"/>
-      <c r="GQ4" s="37"/>
-      <c r="GR4" s="37"/>
-      <c r="GS4" s="37"/>
-      <c r="GT4" s="37"/>
-      <c r="GU4" s="37"/>
-      <c r="GV4" s="37"/>
-      <c r="GW4" s="37"/>
-      <c r="GX4" s="37"/>
-      <c r="GY4" s="37">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="37"/>
-      <c r="HA4" s="37"/>
-      <c r="HB4" s="37"/>
-      <c r="HC4" s="37"/>
-      <c r="HD4" s="37"/>
-      <c r="HE4" s="37"/>
-      <c r="HF4" s="37"/>
-      <c r="HG4" s="37"/>
-      <c r="HH4" s="37"/>
-      <c r="HI4" s="37"/>
-      <c r="HJ4" s="37"/>
-      <c r="HK4" s="37">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="37"/>
-      <c r="HM4" s="37"/>
-      <c r="HN4" s="37"/>
-      <c r="HO4" s="37"/>
-      <c r="HP4" s="37"/>
-      <c r="HQ4" s="37"/>
-      <c r="HR4" s="37"/>
-      <c r="HS4" s="37"/>
-      <c r="HT4" s="37"/>
-      <c r="HU4" s="37"/>
-      <c r="HV4" s="37"/>
-      <c r="HW4" s="37">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="37"/>
-      <c r="HY4" s="37"/>
-      <c r="HZ4" s="37"/>
-      <c r="IA4" s="37"/>
-      <c r="IB4" s="37"/>
-      <c r="IC4" s="37"/>
-      <c r="ID4" s="37"/>
-      <c r="IE4" s="37"/>
-      <c r="IF4" s="37"/>
-      <c r="IG4" s="37"/>
-      <c r="IH4" s="39"/>
-      <c r="II4" s="39">
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="36"/>
+      <c r="II4" s="36">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="40"/>
-      <c r="IK4" s="40"/>
-      <c r="IL4" s="40"/>
-      <c r="IM4" s="40"/>
-      <c r="IN4" s="40"/>
-      <c r="IO4" s="40"/>
-      <c r="IP4" s="40"/>
-      <c r="IQ4" s="40"/>
-      <c r="IR4" s="40"/>
-      <c r="IS4" s="40"/>
-      <c r="IT4" s="41"/>
-      <c r="IU4" s="39">
+      <c r="IJ4" s="37"/>
+      <c r="IK4" s="37"/>
+      <c r="IL4" s="37"/>
+      <c r="IM4" s="37"/>
+      <c r="IN4" s="37"/>
+      <c r="IO4" s="37"/>
+      <c r="IP4" s="37"/>
+      <c r="IQ4" s="37"/>
+      <c r="IR4" s="37"/>
+      <c r="IS4" s="37"/>
+      <c r="IT4" s="38"/>
+      <c r="IU4" s="36">
         <v>2021</v>
       </c>
-      <c r="IV4" s="40"/>
-      <c r="IW4" s="40"/>
-      <c r="IX4" s="40"/>
-      <c r="IY4" s="40"/>
-      <c r="IZ4" s="41"/>
-      <c r="JA4" s="29"/>
+      <c r="IV4" s="37"/>
+      <c r="IW4" s="37"/>
+      <c r="IX4" s="37"/>
+      <c r="IY4" s="37"/>
+      <c r="IZ4" s="37"/>
+      <c r="JA4" s="38"/>
       <c r="JB4" s="29"/>
       <c r="JC4" s="29"/>
       <c r="JD4" s="29"/>
@@ -3174,7 +3177,7 @@
       <c r="AAQ4" s="29"/>
       <c r="AAR4" s="29"/>
       <c r="AAS4" s="29"/>
-      <c r="AAT4" s="5"/>
+      <c r="AAT4" s="29"/>
       <c r="AAU4" s="5"/>
       <c r="AAV4" s="5"/>
       <c r="AAW4" s="5"/>
@@ -3355,10 +3358,11 @@
       <c r="AHP4" s="5"/>
       <c r="AHQ4" s="5"/>
       <c r="AHR4" s="5"/>
+      <c r="AHS4" s="5"/>
     </row>
-    <row r="5" spans="1:902" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
+    <row r="5" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4133,7 +4137,9 @@
       <c r="IZ5" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="JA5" s="29"/>
+      <c r="JA5" s="31" t="s">
+        <v>334</v>
+      </c>
       <c r="JB5" s="29"/>
       <c r="JC5" s="29"/>
       <c r="JD5" s="29"/>
@@ -4594,7 +4600,7 @@
       <c r="AAQ5" s="29"/>
       <c r="AAR5" s="29"/>
       <c r="AAS5" s="29"/>
-      <c r="AAT5" s="5"/>
+      <c r="AAT5" s="29"/>
       <c r="AAU5" s="5"/>
       <c r="AAV5" s="5"/>
       <c r="AAW5" s="5"/>
@@ -4775,9 +4781,10 @@
       <c r="AHP5" s="5"/>
       <c r="AHQ5" s="5"/>
       <c r="AHR5" s="5"/>
+      <c r="AHS5" s="5"/>
     </row>
-    <row r="6" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5557,9 +5564,12 @@
       <c r="IZ6" s="7">
         <v>83074</v>
       </c>
+      <c r="JA6" s="7">
+        <v>83743</v>
+      </c>
     </row>
-    <row r="7" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6337,9 +6347,12 @@
       <c r="IZ7" s="7">
         <v>44</v>
       </c>
+      <c r="JA7" s="7">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7117,9 +7130,12 @@
       <c r="IZ8" s="7">
         <v>23890</v>
       </c>
+      <c r="JA8" s="7">
+        <v>23245</v>
+      </c>
     </row>
-    <row r="9" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7897,9 +7913,12 @@
       <c r="IZ9" s="7">
         <v>415</v>
       </c>
+      <c r="JA9" s="7">
+        <v>698</v>
+      </c>
     </row>
-    <row r="10" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8677,9 +8696,12 @@
       <c r="IZ10" s="7">
         <v>416</v>
       </c>
+      <c r="JA10" s="7">
+        <v>416</v>
+      </c>
     </row>
-    <row r="11" spans="1:902" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:903" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9457,7 +9479,10 @@
       <c r="IZ11" s="10">
         <v>107839</v>
       </c>
-      <c r="JA11" s="29"/>
+      <c r="JA11" s="10">
+        <f>SUM(JA6:JA10)</f>
+        <v>108146</v>
+      </c>
       <c r="JB11" s="29"/>
       <c r="JC11" s="29"/>
       <c r="JD11" s="29"/>
@@ -9918,7 +9943,7 @@
       <c r="AAQ11" s="29"/>
       <c r="AAR11" s="29"/>
       <c r="AAS11" s="29"/>
-      <c r="AAT11" s="5"/>
+      <c r="AAT11" s="29"/>
       <c r="AAU11" s="5"/>
       <c r="AAV11" s="5"/>
       <c r="AAW11" s="5"/>
@@ -10099,9 +10124,10 @@
       <c r="AHP11" s="5"/>
       <c r="AHQ11" s="5"/>
       <c r="AHR11" s="5"/>
+      <c r="AHS11" s="5"/>
     </row>
-    <row r="12" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10881,9 +10907,12 @@
       <c r="IZ12" s="7">
         <v>71020</v>
       </c>
+      <c r="JA12" s="7">
+        <v>75762</v>
+      </c>
     </row>
-    <row r="13" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11661,9 +11690,12 @@
       <c r="IZ13" s="7">
         <v>18566</v>
       </c>
+      <c r="JA13" s="7">
+        <v>19400</v>
+      </c>
     </row>
-    <row r="14" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12441,9 +12473,12 @@
       <c r="IZ14" s="7">
         <v>30368</v>
       </c>
+      <c r="JA14" s="7">
+        <v>28563</v>
+      </c>
     </row>
-    <row r="15" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13221,9 +13256,12 @@
       <c r="IZ15" s="7">
         <v>23234</v>
       </c>
+      <c r="JA15" s="7">
+        <v>23946</v>
+      </c>
     </row>
-    <row r="16" spans="1:902" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:903" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14001,9 +14039,12 @@
       <c r="IZ16" s="7">
         <v>14404</v>
       </c>
+      <c r="JA16" s="7">
+        <v>15849</v>
+      </c>
     </row>
-    <row r="17" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14781,9 +14822,12 @@
       <c r="IZ17" s="7">
         <v>44467</v>
       </c>
+      <c r="JA17" s="7">
+        <v>45233</v>
+      </c>
     </row>
-    <row r="18" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15561,9 +15605,12 @@
       <c r="IZ18" s="7">
         <v>56035</v>
       </c>
+      <c r="JA18" s="7">
+        <v>57745</v>
+      </c>
     </row>
-    <row r="19" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16341,9 +16388,12 @@
       <c r="IZ19" s="7">
         <v>64695</v>
       </c>
+      <c r="JA19" s="7">
+        <v>67244</v>
+      </c>
     </row>
-    <row r="20" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17121,9 +17171,12 @@
       <c r="IZ20" s="7">
         <v>49602</v>
       </c>
+      <c r="JA20" s="7">
+        <v>48310</v>
+      </c>
     </row>
-    <row r="21" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -17901,7 +17954,10 @@
       <c r="IZ21" s="10">
         <v>372391</v>
       </c>
-      <c r="JA21" s="29"/>
+      <c r="JA21" s="10">
+        <f>SUM(JA12:JA20)</f>
+        <v>382052</v>
+      </c>
       <c r="JB21" s="29"/>
       <c r="JC21" s="29"/>
       <c r="JD21" s="29"/>
@@ -18362,7 +18418,7 @@
       <c r="AAQ21" s="29"/>
       <c r="AAR21" s="29"/>
       <c r="AAS21" s="29"/>
-      <c r="AAT21" s="5"/>
+      <c r="AAT21" s="29"/>
       <c r="AAU21" s="5"/>
       <c r="AAV21" s="5"/>
       <c r="AAW21" s="5"/>
@@ -18543,9 +18599,10 @@
       <c r="AHP21" s="5"/>
       <c r="AHQ21" s="5"/>
       <c r="AHR21" s="5"/>
+      <c r="AHS21" s="5"/>
     </row>
-    <row r="22" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19325,9 +19382,12 @@
       <c r="IZ22" s="7">
         <v>104004</v>
       </c>
+      <c r="JA22" s="7">
+        <v>103193</v>
+      </c>
     </row>
-    <row r="23" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20105,9 +20165,12 @@
       <c r="IZ23" s="7">
         <v>36921</v>
       </c>
+      <c r="JA23" s="7">
+        <v>34230</v>
+      </c>
     </row>
-    <row r="24" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+    <row r="24" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -20885,7 +20948,10 @@
       <c r="IZ24" s="10">
         <v>140925</v>
       </c>
-      <c r="JA24" s="29"/>
+      <c r="JA24" s="10">
+        <f>SUM(JA22:JA23)</f>
+        <v>137423</v>
+      </c>
       <c r="JB24" s="29"/>
       <c r="JC24" s="29"/>
       <c r="JD24" s="29"/>
@@ -21346,7 +21412,7 @@
       <c r="AAQ24" s="29"/>
       <c r="AAR24" s="29"/>
       <c r="AAS24" s="29"/>
-      <c r="AAT24" s="5"/>
+      <c r="AAT24" s="29"/>
       <c r="AAU24" s="5"/>
       <c r="AAV24" s="5"/>
       <c r="AAW24" s="5"/>
@@ -21527,9 +21593,10 @@
       <c r="AHP24" s="5"/>
       <c r="AHQ24" s="5"/>
       <c r="AHR24" s="5"/>
+      <c r="AHS24" s="5"/>
     </row>
-    <row r="25" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+    <row r="25" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22309,9 +22376,12 @@
       <c r="IZ25" s="7">
         <v>4457</v>
       </c>
+      <c r="JA25" s="7">
+        <v>4190</v>
+      </c>
     </row>
-    <row r="26" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23089,9 +23159,12 @@
       <c r="IZ26" s="7">
         <v>5646</v>
       </c>
+      <c r="JA26" s="7">
+        <v>5413</v>
+      </c>
     </row>
-    <row r="27" spans="1:902" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:903" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -23869,7 +23942,10 @@
       <c r="IZ27" s="10">
         <v>10103</v>
       </c>
-      <c r="JA27" s="29"/>
+      <c r="JA27" s="10">
+        <f>SUM(JA25:JA26)</f>
+        <v>9603</v>
+      </c>
       <c r="JB27" s="29"/>
       <c r="JC27" s="29"/>
       <c r="JD27" s="29"/>
@@ -24330,7 +24406,7 @@
       <c r="AAQ27" s="29"/>
       <c r="AAR27" s="29"/>
       <c r="AAS27" s="29"/>
-      <c r="AAT27" s="5"/>
+      <c r="AAT27" s="29"/>
       <c r="AAU27" s="5"/>
       <c r="AAV27" s="5"/>
       <c r="AAW27" s="5"/>
@@ -24511,9 +24587,10 @@
       <c r="AHP27" s="5"/>
       <c r="AHQ27" s="5"/>
       <c r="AHR27" s="5"/>
+      <c r="AHS27" s="5"/>
     </row>
-    <row r="28" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+    <row r="28" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25293,9 +25370,12 @@
       <c r="IZ28" s="7">
         <v>1352</v>
       </c>
+      <c r="JA28" s="7">
+        <v>1450</v>
+      </c>
     </row>
-    <row r="29" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+    <row r="29" spans="1:903" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26073,9 +26153,12 @@
       <c r="IZ29" s="7">
         <v>10634</v>
       </c>
+      <c r="JA29" s="7">
+        <v>10052</v>
+      </c>
     </row>
-    <row r="30" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+    <row r="30" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -26853,9 +26936,12 @@
       <c r="IZ30" s="7">
         <v>28218</v>
       </c>
+      <c r="JA30" s="7">
+        <v>28886</v>
+      </c>
     </row>
-    <row r="31" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27633,9 +27719,12 @@
       <c r="IZ31" s="7">
         <v>97722</v>
       </c>
+      <c r="JA31" s="7">
+        <v>100940</v>
+      </c>
     </row>
-    <row r="32" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+    <row r="32" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28413,9 +28502,12 @@
       <c r="IZ32" s="7">
         <v>21545</v>
       </c>
+      <c r="JA32" s="7">
+        <v>20977</v>
+      </c>
     </row>
-    <row r="33" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+    <row r="33" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29193,9 +29285,12 @@
       <c r="IZ33" s="7">
         <v>9687</v>
       </c>
+      <c r="JA33" s="7">
+        <v>9346</v>
+      </c>
     </row>
-    <row r="34" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+    <row r="34" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -29973,9 +30068,12 @@
       <c r="IZ34" s="7">
         <v>41148</v>
       </c>
+      <c r="JA34" s="7">
+        <v>42215</v>
+      </c>
     </row>
-    <row r="35" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
+    <row r="35" spans="1:903" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -30753,9 +30851,12 @@
       <c r="IZ35" s="7">
         <v>8971</v>
       </c>
+      <c r="JA35" s="7">
+        <v>9756</v>
+      </c>
     </row>
-    <row r="36" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+    <row r="36" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31533,9 +31634,12 @@
       <c r="IZ36" s="7">
         <v>48227</v>
       </c>
+      <c r="JA36" s="7">
+        <v>49939</v>
+      </c>
     </row>
-    <row r="37" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:903" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32313,9 +32417,12 @@
       <c r="IZ37" s="7">
         <v>56936</v>
       </c>
+      <c r="JA37" s="7">
+        <v>58203</v>
+      </c>
     </row>
-    <row r="38" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
+    <row r="38" spans="1:903" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33093,9 +33200,12 @@
       <c r="IZ38" s="7">
         <v>22512</v>
       </c>
+      <c r="JA38" s="7">
+        <v>22843</v>
+      </c>
     </row>
-    <row r="39" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+    <row r="39" spans="1:903" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -33873,9 +33983,12 @@
       <c r="IZ39" s="7">
         <v>19481</v>
       </c>
+      <c r="JA39" s="7">
+        <v>22143</v>
+      </c>
     </row>
-    <row r="40" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+    <row r="40" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -34653,9 +34766,12 @@
       <c r="IZ40" s="7">
         <v>11642</v>
       </c>
+      <c r="JA40" s="7">
+        <v>11900</v>
+      </c>
     </row>
-    <row r="41" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+    <row r="41" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35433,9 +35549,12 @@
       <c r="IZ41" s="7">
         <v>11914</v>
       </c>
+      <c r="JA41" s="7">
+        <v>11763</v>
+      </c>
     </row>
-    <row r="42" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+    <row r="42" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36213,9 +36332,12 @@
       <c r="IZ42" s="7">
         <v>44220</v>
       </c>
+      <c r="JA42" s="7">
+        <v>42321</v>
+      </c>
     </row>
-    <row r="43" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+    <row r="43" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -36993,9 +37115,12 @@
       <c r="IZ43" s="7">
         <v>4496</v>
       </c>
+      <c r="JA43" s="7">
+        <v>5061</v>
+      </c>
     </row>
-    <row r="44" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
+    <row r="44" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -37773,9 +37898,12 @@
       <c r="IZ44" s="7">
         <v>5451</v>
       </c>
+      <c r="JA44" s="7">
+        <v>5480</v>
+      </c>
     </row>
-    <row r="45" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+    <row r="45" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38553,9 +38681,12 @@
       <c r="IZ45" s="7">
         <v>6685</v>
       </c>
+      <c r="JA45" s="7">
+        <v>6481</v>
+      </c>
     </row>
-    <row r="46" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+    <row r="46" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39333,9 +39464,12 @@
       <c r="IZ46" s="7">
         <v>12122</v>
       </c>
+      <c r="JA46" s="7">
+        <v>12080</v>
+      </c>
     </row>
-    <row r="47" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
+    <row r="47" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40113,9 +40247,12 @@
       <c r="IZ47" s="7">
         <v>1152</v>
       </c>
+      <c r="JA47" s="7">
+        <v>1170</v>
+      </c>
     </row>
-    <row r="48" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
+    <row r="48" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -40893,7 +41030,10 @@
       <c r="IZ48" s="10">
         <v>464115</v>
       </c>
-      <c r="JA48" s="29"/>
+      <c r="JA48" s="10">
+        <f>SUM(JA28:JA47)</f>
+        <v>473006</v>
+      </c>
       <c r="JB48" s="29"/>
       <c r="JC48" s="29"/>
       <c r="JD48" s="29"/>
@@ -41354,7 +41494,7 @@
       <c r="AAQ48" s="29"/>
       <c r="AAR48" s="29"/>
       <c r="AAS48" s="29"/>
-      <c r="AAT48" s="5"/>
+      <c r="AAT48" s="29"/>
       <c r="AAU48" s="5"/>
       <c r="AAV48" s="5"/>
       <c r="AAW48" s="5"/>
@@ -41535,9 +41675,10 @@
       <c r="AHP48" s="5"/>
       <c r="AHQ48" s="5"/>
       <c r="AHR48" s="5"/>
+      <c r="AHS48" s="5"/>
     </row>
-    <row r="49" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+    <row r="49" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42317,9 +42458,12 @@
       <c r="IZ49" s="7">
         <v>21</v>
       </c>
+      <c r="JA49" s="7">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+    <row r="50" spans="1:261" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43097,9 +43241,12 @@
       <c r="IZ50" s="7">
         <v>1</v>
       </c>
+      <c r="JA50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:260" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
+    <row r="51" spans="1:261" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -43877,9 +44024,12 @@
       <c r="IZ51" s="7">
         <v>1382</v>
       </c>
+      <c r="JA51" s="7">
+        <v>1494</v>
+      </c>
     </row>
-    <row r="52" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
+    <row r="52" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -44657,9 +44807,12 @@
       <c r="IZ52" s="7">
         <v>1016</v>
       </c>
+      <c r="JA52" s="7">
+        <v>1063</v>
+      </c>
     </row>
-    <row r="53" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
+    <row r="53" spans="1:261" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -45437,9 +45590,13 @@
       <c r="IZ53" s="10">
         <v>2420</v>
       </c>
+      <c r="JA53" s="10">
+        <f>SUM(JA49:JA52)</f>
+        <v>2577</v>
+      </c>
     </row>
-    <row r="54" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+    <row r="54" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46219,9 +46376,12 @@
       <c r="IZ54" s="7">
         <v>5713</v>
       </c>
+      <c r="JA54" s="7">
+        <v>5720</v>
+      </c>
     </row>
-    <row r="55" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
+    <row r="55" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -46999,9 +47159,12 @@
       <c r="IZ55" s="7">
         <v>47123</v>
       </c>
+      <c r="JA55" s="7">
+        <v>51039</v>
+      </c>
     </row>
-    <row r="56" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
+    <row r="56" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -47779,9 +47942,12 @@
       <c r="IZ56" s="7">
         <v>6946</v>
       </c>
+      <c r="JA56" s="7">
+        <v>6963</v>
+      </c>
     </row>
-    <row r="57" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
+    <row r="57" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -48559,9 +48725,12 @@
       <c r="IZ57" s="7">
         <v>192629</v>
       </c>
+      <c r="JA57" s="7">
+        <v>189751</v>
+      </c>
     </row>
-    <row r="58" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:261" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -49339,9 +49508,12 @@
       <c r="IZ58" s="7">
         <v>29949</v>
       </c>
+      <c r="JA58" s="7">
+        <v>30431</v>
+      </c>
     </row>
-    <row r="59" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
+    <row r="59" spans="1:261" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50119,9 +50291,12 @@
       <c r="IZ59" s="7">
         <v>5893</v>
       </c>
+      <c r="JA59" s="7">
+        <v>5576</v>
+      </c>
     </row>
-    <row r="60" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
+    <row r="60" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -50899,9 +51074,12 @@
       <c r="IZ60" s="7">
         <v>44123</v>
       </c>
+      <c r="JA60" s="7">
+        <v>41889</v>
+      </c>
     </row>
-    <row r="61" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
+    <row r="61" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -51679,9 +51857,12 @@
       <c r="IZ61" s="7">
         <v>132</v>
       </c>
+      <c r="JA61" s="7">
+        <v>132</v>
+      </c>
     </row>
-    <row r="62" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
+    <row r="62" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -52459,9 +52640,12 @@
       <c r="IZ62" s="7">
         <v>15966</v>
       </c>
+      <c r="JA62" s="7">
+        <v>19171</v>
+      </c>
     </row>
-    <row r="63" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
+    <row r="63" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53239,9 +53423,12 @@
       <c r="IZ63" s="7">
         <v>31084</v>
       </c>
+      <c r="JA63" s="7">
+        <v>31766</v>
+      </c>
     </row>
-    <row r="64" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
+    <row r="64" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54019,9 +54206,12 @@
       <c r="IZ64" s="7">
         <v>47463</v>
       </c>
+      <c r="JA64" s="7">
+        <v>47486</v>
+      </c>
     </row>
-    <row r="65" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
+    <row r="65" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -54799,9 +54989,12 @@
       <c r="IZ65" s="7">
         <v>184937</v>
       </c>
+      <c r="JA65" s="7">
+        <v>167923</v>
+      </c>
     </row>
-    <row r="66" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
+    <row r="66" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A66" s="40"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -55579,9 +55772,12 @@
       <c r="IZ66" s="7">
         <v>15392</v>
       </c>
+      <c r="JA66" s="7">
+        <v>16199</v>
+      </c>
     </row>
-    <row r="67" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
+    <row r="67" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -56359,9 +56555,12 @@
       <c r="IZ67" s="7">
         <v>6095</v>
       </c>
+      <c r="JA67" s="7">
+        <v>6467</v>
+      </c>
     </row>
-    <row r="68" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
+    <row r="68" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="40"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -57139,7 +57338,10 @@
       <c r="IZ68" s="10">
         <v>633445</v>
       </c>
-      <c r="JA68" s="29"/>
+      <c r="JA68" s="10">
+        <f>SUM(JA54:JA67)</f>
+        <v>620513</v>
+      </c>
       <c r="JB68" s="29"/>
       <c r="JC68" s="29"/>
       <c r="JD68" s="29"/>
@@ -57600,7 +57802,7 @@
       <c r="AAQ68" s="29"/>
       <c r="AAR68" s="29"/>
       <c r="AAS68" s="29"/>
-      <c r="AAT68" s="5"/>
+      <c r="AAT68" s="29"/>
       <c r="AAU68" s="5"/>
       <c r="AAV68" s="5"/>
       <c r="AAW68" s="5"/>
@@ -57781,9 +57983,10 @@
       <c r="AHP68" s="5"/>
       <c r="AHQ68" s="5"/>
       <c r="AHR68" s="5"/>
+      <c r="AHS68" s="5"/>
     </row>
-    <row r="69" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
+    <row r="69" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A69" s="40" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -58563,9 +58766,12 @@
       <c r="IZ69" s="7">
         <v>9790</v>
       </c>
+      <c r="JA69" s="7">
+        <v>8880</v>
+      </c>
     </row>
-    <row r="70" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
+    <row r="70" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -59343,9 +59549,12 @@
       <c r="IZ70" s="7">
         <v>722</v>
       </c>
+      <c r="JA70" s="7">
+        <v>649</v>
+      </c>
     </row>
-    <row r="71" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
+    <row r="71" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -60123,9 +60332,12 @@
       <c r="IZ71" s="7">
         <v>24353</v>
       </c>
+      <c r="JA71" s="7">
+        <v>28377</v>
+      </c>
     </row>
-    <row r="72" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
+    <row r="72" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A72" s="40"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -60903,9 +61115,12 @@
       <c r="IZ72" s="7">
         <v>2920</v>
       </c>
+      <c r="JA72" s="7">
+        <v>3123</v>
+      </c>
     </row>
-    <row r="73" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
+    <row r="73" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A73" s="40"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -61683,9 +61898,12 @@
       <c r="IZ73" s="7">
         <v>434</v>
       </c>
+      <c r="JA73" s="7">
+        <v>457</v>
+      </c>
     </row>
-    <row r="74" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
+    <row r="74" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A74" s="40"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -62463,9 +62681,12 @@
       <c r="IZ74" s="7">
         <v>51328</v>
       </c>
+      <c r="JA74" s="7">
+        <v>51769</v>
+      </c>
     </row>
-    <row r="75" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
+    <row r="75" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -63243,7 +63464,10 @@
       <c r="IZ75" s="10">
         <v>89547</v>
       </c>
-      <c r="JA75" s="29"/>
+      <c r="JA75" s="10">
+        <f>SUM(JA69:JA74)</f>
+        <v>93255</v>
+      </c>
       <c r="JB75" s="29"/>
       <c r="JC75" s="29"/>
       <c r="JD75" s="29"/>
@@ -63704,7 +63928,7 @@
       <c r="AAQ75" s="29"/>
       <c r="AAR75" s="29"/>
       <c r="AAS75" s="29"/>
-      <c r="AAT75" s="5"/>
+      <c r="AAT75" s="29"/>
       <c r="AAU75" s="5"/>
       <c r="AAV75" s="5"/>
       <c r="AAW75" s="5"/>
@@ -63885,8 +64109,9 @@
       <c r="AHP75" s="5"/>
       <c r="AHQ75" s="5"/>
       <c r="AHR75" s="5"/>
+      <c r="AHS75" s="5"/>
     </row>
-    <row r="76" spans="1:902" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:903" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -64666,9 +64891,13 @@
         <f>IZ11+IZ21+IZ24+IZ27+IZ48+IZ53+IZ68+IZ75</f>
         <v>1820785</v>
       </c>
-      <c r="JA76" s="35"/>
+      <c r="JA76" s="19">
+        <f>JA11+JA21+JA24+JA27+JA48+JA53+JA68+JA75</f>
+        <v>1826575</v>
+      </c>
+      <c r="JB76" s="35"/>
     </row>
-    <row r="77" spans="1:902" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:903" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -64924,7 +65153,7 @@
       <c r="IX77" s="30"/>
       <c r="IY77" s="30"/>
       <c r="IZ77" s="30"/>
-      <c r="JA77" s="27"/>
+      <c r="JA77" s="30"/>
       <c r="JB77" s="27"/>
       <c r="JC77" s="27"/>
       <c r="JD77" s="27"/>
@@ -65385,34 +65614,15 @@
       <c r="AAQ77" s="27"/>
       <c r="AAR77" s="27"/>
       <c r="AAS77" s="27"/>
+      <c r="AAT77" s="27"/>
     </row>
-    <row r="78" spans="1:902" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:903" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:IZ4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -65425,6 +65635,26 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JA4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="336">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1048,6 +1048,9 @@
   <si>
     <t>2021/Julio</t>
   </si>
+  <si>
+    <t>2021/Agosto</t>
+  </si>
 </sst>
 </file>
 
@@ -1652,7 +1655,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1753,6 +1756,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1762,14 +1774,8 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2130,7 +2136,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JC61" sqref="JC61"/>
+      <selection pane="topRight" activeCell="JE10" sqref="JE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,8 +2397,10 @@
     <col min="257" max="257" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
-    <col min="260" max="261" width="11.5703125" style="4" customWidth="1"/>
-    <col min="262" max="722" width="10.85546875" style="28"/>
+    <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
+    <col min="263" max="264" width="10.85546875" style="28"/>
+    <col min="265" max="265" width="33.85546875" style="28" customWidth="1"/>
+    <col min="266" max="722" width="10.85546875" style="28"/>
     <col min="723" max="903" width="10.85546875" style="4"/>
     <col min="904" max="16384" width="10.85546875" style="3"/>
   </cols>
@@ -2408,316 +2416,316 @@
       </c>
     </row>
     <row r="4" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="37">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="37"/>
+      <c r="BK4" s="37">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="37"/>
+      <c r="BO4" s="37"/>
+      <c r="BP4" s="37"/>
+      <c r="BQ4" s="37"/>
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="37"/>
+      <c r="BU4" s="37"/>
+      <c r="BV4" s="37"/>
+      <c r="BW4" s="37">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="37"/>
+      <c r="BY4" s="37"/>
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="37"/>
+      <c r="CE4" s="37"/>
+      <c r="CF4" s="37"/>
+      <c r="CG4" s="37"/>
+      <c r="CH4" s="37"/>
+      <c r="CI4" s="37">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="37"/>
+      <c r="CK4" s="37"/>
+      <c r="CL4" s="37"/>
+      <c r="CM4" s="37"/>
+      <c r="CN4" s="37"/>
+      <c r="CO4" s="37"/>
+      <c r="CP4" s="37"/>
+      <c r="CQ4" s="37"/>
+      <c r="CR4" s="37"/>
+      <c r="CS4" s="37"/>
+      <c r="CT4" s="37"/>
+      <c r="CU4" s="37">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="37"/>
+      <c r="CW4" s="37"/>
+      <c r="CX4" s="37"/>
+      <c r="CY4" s="37"/>
+      <c r="CZ4" s="37"/>
+      <c r="DA4" s="37"/>
+      <c r="DB4" s="37"/>
+      <c r="DC4" s="37"/>
+      <c r="DD4" s="37"/>
+      <c r="DE4" s="37"/>
+      <c r="DF4" s="37"/>
+      <c r="DG4" s="37">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="37"/>
+      <c r="DI4" s="37"/>
+      <c r="DJ4" s="37"/>
+      <c r="DK4" s="37"/>
+      <c r="DL4" s="37"/>
+      <c r="DM4" s="37"/>
+      <c r="DN4" s="37"/>
+      <c r="DO4" s="37"/>
+      <c r="DP4" s="37"/>
+      <c r="DQ4" s="37"/>
+      <c r="DR4" s="37"/>
+      <c r="DS4" s="37">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="37"/>
+      <c r="DU4" s="37"/>
+      <c r="DV4" s="37"/>
+      <c r="DW4" s="37"/>
+      <c r="DX4" s="37"/>
+      <c r="DY4" s="37"/>
+      <c r="DZ4" s="37"/>
+      <c r="EA4" s="37"/>
+      <c r="EB4" s="37"/>
+      <c r="EC4" s="37"/>
+      <c r="ED4" s="37"/>
+      <c r="EE4" s="37">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="37"/>
+      <c r="EG4" s="37"/>
+      <c r="EH4" s="37"/>
+      <c r="EI4" s="37"/>
+      <c r="EJ4" s="37"/>
+      <c r="EK4" s="37"/>
+      <c r="EL4" s="37"/>
+      <c r="EM4" s="37"/>
+      <c r="EN4" s="37"/>
+      <c r="EO4" s="37"/>
+      <c r="EP4" s="37"/>
+      <c r="EQ4" s="37">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="37"/>
+      <c r="ES4" s="37"/>
+      <c r="ET4" s="37"/>
+      <c r="EU4" s="37"/>
+      <c r="EV4" s="37"/>
+      <c r="EW4" s="37"/>
+      <c r="EX4" s="37"/>
+      <c r="EY4" s="37"/>
+      <c r="EZ4" s="37"/>
+      <c r="FA4" s="37"/>
+      <c r="FB4" s="37"/>
+      <c r="FC4" s="37">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="37"/>
+      <c r="FE4" s="37"/>
+      <c r="FF4" s="37"/>
+      <c r="FG4" s="37"/>
+      <c r="FH4" s="37"/>
+      <c r="FI4" s="37"/>
+      <c r="FJ4" s="37"/>
+      <c r="FK4" s="37"/>
+      <c r="FL4" s="37"/>
+      <c r="FM4" s="37"/>
+      <c r="FN4" s="37"/>
+      <c r="FO4" s="37">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="37"/>
+      <c r="FQ4" s="37"/>
+      <c r="FR4" s="37"/>
+      <c r="FS4" s="37"/>
+      <c r="FT4" s="37"/>
+      <c r="FU4" s="37"/>
+      <c r="FV4" s="37"/>
+      <c r="FW4" s="37"/>
+      <c r="FX4" s="37"/>
+      <c r="FY4" s="37"/>
+      <c r="FZ4" s="37"/>
+      <c r="GA4" s="37">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="37"/>
+      <c r="GC4" s="37"/>
+      <c r="GD4" s="37"/>
+      <c r="GE4" s="37"/>
+      <c r="GF4" s="37"/>
+      <c r="GG4" s="37"/>
+      <c r="GH4" s="37"/>
+      <c r="GI4" s="37"/>
+      <c r="GJ4" s="37"/>
+      <c r="GK4" s="37"/>
+      <c r="GL4" s="37"/>
+      <c r="GM4" s="37">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="37"/>
+      <c r="GO4" s="37"/>
+      <c r="GP4" s="37"/>
+      <c r="GQ4" s="37"/>
+      <c r="GR4" s="37"/>
+      <c r="GS4" s="37"/>
+      <c r="GT4" s="37"/>
+      <c r="GU4" s="37"/>
+      <c r="GV4" s="37"/>
+      <c r="GW4" s="37"/>
+      <c r="GX4" s="37"/>
+      <c r="GY4" s="37">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="37"/>
+      <c r="HA4" s="37"/>
+      <c r="HB4" s="37"/>
+      <c r="HC4" s="37"/>
+      <c r="HD4" s="37"/>
+      <c r="HE4" s="37"/>
+      <c r="HF4" s="37"/>
+      <c r="HG4" s="37"/>
+      <c r="HH4" s="37"/>
+      <c r="HI4" s="37"/>
+      <c r="HJ4" s="37"/>
+      <c r="HK4" s="37">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="37"/>
+      <c r="HM4" s="37"/>
+      <c r="HN4" s="37"/>
+      <c r="HO4" s="37"/>
+      <c r="HP4" s="37"/>
+      <c r="HQ4" s="37"/>
+      <c r="HR4" s="37"/>
+      <c r="HS4" s="37"/>
+      <c r="HT4" s="37"/>
+      <c r="HU4" s="37"/>
+      <c r="HV4" s="37"/>
+      <c r="HW4" s="37">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
-      <c r="IH4" s="36"/>
-      <c r="II4" s="36">
+      <c r="HX4" s="37"/>
+      <c r="HY4" s="37"/>
+      <c r="HZ4" s="37"/>
+      <c r="IA4" s="37"/>
+      <c r="IB4" s="37"/>
+      <c r="IC4" s="37"/>
+      <c r="ID4" s="37"/>
+      <c r="IE4" s="37"/>
+      <c r="IF4" s="37"/>
+      <c r="IG4" s="37"/>
+      <c r="IH4" s="39"/>
+      <c r="II4" s="39">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="37"/>
-      <c r="IK4" s="37"/>
-      <c r="IL4" s="37"/>
-      <c r="IM4" s="37"/>
-      <c r="IN4" s="37"/>
-      <c r="IO4" s="37"/>
-      <c r="IP4" s="37"/>
-      <c r="IQ4" s="37"/>
-      <c r="IR4" s="37"/>
-      <c r="IS4" s="37"/>
-      <c r="IT4" s="38"/>
-      <c r="IU4" s="36">
+      <c r="IJ4" s="40"/>
+      <c r="IK4" s="40"/>
+      <c r="IL4" s="40"/>
+      <c r="IM4" s="40"/>
+      <c r="IN4" s="40"/>
+      <c r="IO4" s="40"/>
+      <c r="IP4" s="40"/>
+      <c r="IQ4" s="40"/>
+      <c r="IR4" s="40"/>
+      <c r="IS4" s="40"/>
+      <c r="IT4" s="41"/>
+      <c r="IU4" s="39">
         <v>2021</v>
       </c>
-      <c r="IV4" s="37"/>
-      <c r="IW4" s="37"/>
-      <c r="IX4" s="37"/>
-      <c r="IY4" s="37"/>
-      <c r="IZ4" s="37"/>
-      <c r="JA4" s="38"/>
-      <c r="JB4" s="29"/>
+      <c r="IV4" s="40"/>
+      <c r="IW4" s="40"/>
+      <c r="IX4" s="40"/>
+      <c r="IY4" s="40"/>
+      <c r="IZ4" s="40"/>
+      <c r="JA4" s="40"/>
+      <c r="JB4" s="41"/>
       <c r="JC4" s="29"/>
       <c r="JD4" s="29"/>
       <c r="JE4" s="29"/>
@@ -3361,8 +3369,8 @@
       <c r="AHS4" s="5"/>
     </row>
     <row r="5" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4140,7 +4148,9 @@
       <c r="JA5" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="JB5" s="29"/>
+      <c r="JB5" s="31" t="s">
+        <v>335</v>
+      </c>
       <c r="JC5" s="29"/>
       <c r="JD5" s="29"/>
       <c r="JE5" s="29"/>
@@ -4784,7 +4794,7 @@
       <c r="AHS5" s="5"/>
     </row>
     <row r="6" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="36" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5567,9 +5577,12 @@
       <c r="JA6" s="7">
         <v>83743</v>
       </c>
+      <c r="JB6" s="7">
+        <v>87987</v>
+      </c>
     </row>
     <row r="7" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6350,9 +6363,12 @@
       <c r="JA7" s="7">
         <v>44</v>
       </c>
+      <c r="JB7" s="7">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7133,9 +7149,12 @@
       <c r="JA8" s="7">
         <v>23245</v>
       </c>
+      <c r="JB8" s="7">
+        <v>23429</v>
+      </c>
     </row>
     <row r="9" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7916,9 +7935,12 @@
       <c r="JA9" s="7">
         <v>698</v>
       </c>
+      <c r="JB9" s="7">
+        <v>710</v>
+      </c>
     </row>
     <row r="10" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8699,9 +8721,12 @@
       <c r="JA10" s="7">
         <v>416</v>
       </c>
+      <c r="JB10" s="7">
+        <v>441</v>
+      </c>
     </row>
     <row r="11" spans="1:903" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9483,7 +9508,10 @@
         <f>SUM(JA6:JA10)</f>
         <v>108146</v>
       </c>
-      <c r="JB11" s="29"/>
+      <c r="JB11" s="10">
+        <f>SUM(JB6:JB10)</f>
+        <v>112612</v>
+      </c>
       <c r="JC11" s="29"/>
       <c r="JD11" s="29"/>
       <c r="JE11" s="29"/>
@@ -10127,7 +10155,7 @@
       <c r="AHS11" s="5"/>
     </row>
     <row r="12" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10910,9 +10938,12 @@
       <c r="JA12" s="7">
         <v>75762</v>
       </c>
+      <c r="JB12" s="7">
+        <v>76885</v>
+      </c>
     </row>
     <row r="13" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11693,9 +11724,12 @@
       <c r="JA13" s="7">
         <v>19400</v>
       </c>
+      <c r="JB13" s="7">
+        <v>19831</v>
+      </c>
     </row>
     <row r="14" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12476,9 +12510,12 @@
       <c r="JA14" s="7">
         <v>28563</v>
       </c>
+      <c r="JB14" s="7">
+        <v>28012</v>
+      </c>
     </row>
     <row r="15" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13259,9 +13296,12 @@
       <c r="JA15" s="7">
         <v>23946</v>
       </c>
+      <c r="JB15" s="7">
+        <v>24042</v>
+      </c>
     </row>
     <row r="16" spans="1:903" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14042,9 +14082,12 @@
       <c r="JA16" s="7">
         <v>15849</v>
       </c>
+      <c r="JB16" s="7">
+        <v>16100</v>
+      </c>
     </row>
     <row r="17" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14825,9 +14868,12 @@
       <c r="JA17" s="7">
         <v>45233</v>
       </c>
+      <c r="JB17" s="7">
+        <v>45684</v>
+      </c>
     </row>
     <row r="18" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15608,9 +15654,12 @@
       <c r="JA18" s="7">
         <v>57745</v>
       </c>
+      <c r="JB18" s="7">
+        <v>57990</v>
+      </c>
     </row>
     <row r="19" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16391,9 +16440,12 @@
       <c r="JA19" s="7">
         <v>67244</v>
       </c>
+      <c r="JB19" s="7">
+        <v>67249</v>
+      </c>
     </row>
     <row r="20" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17174,9 +17226,12 @@
       <c r="JA20" s="7">
         <v>48310</v>
       </c>
+      <c r="JB20" s="7">
+        <v>47177</v>
+      </c>
     </row>
     <row r="21" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -17958,7 +18013,10 @@
         <f>SUM(JA12:JA20)</f>
         <v>382052</v>
       </c>
-      <c r="JB21" s="29"/>
+      <c r="JB21" s="10">
+        <f>SUM(JB12:JB20)</f>
+        <v>382970</v>
+      </c>
       <c r="JC21" s="29"/>
       <c r="JD21" s="29"/>
       <c r="JE21" s="29"/>
@@ -18602,7 +18660,7 @@
       <c r="AHS21" s="5"/>
     </row>
     <row r="22" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="36" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19385,9 +19443,12 @@
       <c r="JA22" s="7">
         <v>103193</v>
       </c>
+      <c r="JB22" s="7">
+        <v>105012</v>
+      </c>
     </row>
     <row r="23" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20168,9 +20229,12 @@
       <c r="JA23" s="7">
         <v>34230</v>
       </c>
+      <c r="JB23" s="7">
+        <v>34591</v>
+      </c>
     </row>
     <row r="24" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -20952,7 +21016,10 @@
         <f>SUM(JA22:JA23)</f>
         <v>137423</v>
       </c>
-      <c r="JB24" s="29"/>
+      <c r="JB24" s="10">
+        <f>SUM(JB22:JB23)</f>
+        <v>139603</v>
+      </c>
       <c r="JC24" s="29"/>
       <c r="JD24" s="29"/>
       <c r="JE24" s="29"/>
@@ -21596,7 +21663,7 @@
       <c r="AHS24" s="5"/>
     </row>
     <row r="25" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="36" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22379,9 +22446,12 @@
       <c r="JA25" s="7">
         <v>4190</v>
       </c>
+      <c r="JB25" s="7">
+        <v>4159</v>
+      </c>
     </row>
     <row r="26" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23162,9 +23232,12 @@
       <c r="JA26" s="7">
         <v>5413</v>
       </c>
+      <c r="JB26" s="7">
+        <v>5453</v>
+      </c>
     </row>
     <row r="27" spans="1:903" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -23946,7 +24019,10 @@
         <f>SUM(JA25:JA26)</f>
         <v>9603</v>
       </c>
-      <c r="JB27" s="29"/>
+      <c r="JB27" s="10">
+        <f>SUM(JB25:JB26)</f>
+        <v>9612</v>
+      </c>
       <c r="JC27" s="29"/>
       <c r="JD27" s="29"/>
       <c r="JE27" s="29"/>
@@ -24590,7 +24666,7 @@
       <c r="AHS27" s="5"/>
     </row>
     <row r="28" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25373,9 +25449,12 @@
       <c r="JA28" s="7">
         <v>1450</v>
       </c>
+      <c r="JB28" s="7">
+        <v>1292</v>
+      </c>
     </row>
     <row r="29" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26156,9 +26235,12 @@
       <c r="JA29" s="7">
         <v>10052</v>
       </c>
+      <c r="JB29" s="7">
+        <v>10180</v>
+      </c>
     </row>
     <row r="30" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -26939,9 +27021,12 @@
       <c r="JA30" s="7">
         <v>28886</v>
       </c>
+      <c r="JB30" s="7">
+        <v>28703</v>
+      </c>
     </row>
     <row r="31" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27722,9 +27807,12 @@
       <c r="JA31" s="7">
         <v>100940</v>
       </c>
+      <c r="JB31" s="7">
+        <v>100853</v>
+      </c>
     </row>
     <row r="32" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28505,9 +28593,12 @@
       <c r="JA32" s="7">
         <v>20977</v>
       </c>
+      <c r="JB32" s="7">
+        <v>22711</v>
+      </c>
     </row>
     <row r="33" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29288,9 +29379,12 @@
       <c r="JA33" s="7">
         <v>9346</v>
       </c>
+      <c r="JB33" s="7">
+        <v>9517</v>
+      </c>
     </row>
     <row r="34" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30071,9 +30165,12 @@
       <c r="JA34" s="7">
         <v>42215</v>
       </c>
+      <c r="JB34" s="7">
+        <v>42788</v>
+      </c>
     </row>
     <row r="35" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -30854,9 +30951,12 @@
       <c r="JA35" s="7">
         <v>9756</v>
       </c>
+      <c r="JB35" s="7">
+        <v>9742</v>
+      </c>
     </row>
     <row r="36" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31637,9 +31737,12 @@
       <c r="JA36" s="7">
         <v>49939</v>
       </c>
+      <c r="JB36" s="7">
+        <v>50044</v>
+      </c>
     </row>
     <row r="37" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32420,9 +32523,12 @@
       <c r="JA37" s="7">
         <v>58203</v>
       </c>
+      <c r="JB37" s="7">
+        <v>58725</v>
+      </c>
     </row>
     <row r="38" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33203,9 +33309,12 @@
       <c r="JA38" s="7">
         <v>22843</v>
       </c>
+      <c r="JB38" s="7">
+        <v>22990</v>
+      </c>
     </row>
     <row r="39" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -33986,9 +34095,12 @@
       <c r="JA39" s="7">
         <v>22143</v>
       </c>
+      <c r="JB39" s="7">
+        <v>22022</v>
+      </c>
     </row>
     <row r="40" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -34769,9 +34881,12 @@
       <c r="JA40" s="7">
         <v>11900</v>
       </c>
+      <c r="JB40" s="7">
+        <v>12013</v>
+      </c>
     </row>
     <row r="41" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35552,9 +35667,12 @@
       <c r="JA41" s="7">
         <v>11763</v>
       </c>
+      <c r="JB41" s="7">
+        <v>11616</v>
+      </c>
     </row>
     <row r="42" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36335,9 +36453,12 @@
       <c r="JA42" s="7">
         <v>42321</v>
       </c>
+      <c r="JB42" s="7">
+        <v>42539</v>
+      </c>
     </row>
     <row r="43" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37118,9 +37239,12 @@
       <c r="JA43" s="7">
         <v>5061</v>
       </c>
+      <c r="JB43" s="7">
+        <v>5090</v>
+      </c>
     </row>
     <row r="44" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -37901,9 +38025,12 @@
       <c r="JA44" s="7">
         <v>5480</v>
       </c>
+      <c r="JB44" s="7">
+        <v>5588</v>
+      </c>
     </row>
     <row r="45" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38684,9 +38811,12 @@
       <c r="JA45" s="7">
         <v>6481</v>
       </c>
+      <c r="JB45" s="28">
+        <v>6578</v>
+      </c>
     </row>
     <row r="46" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39467,9 +39597,12 @@
       <c r="JA46" s="7">
         <v>12080</v>
       </c>
+      <c r="JB46" s="7">
+        <v>12304</v>
+      </c>
     </row>
     <row r="47" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40250,9 +40383,12 @@
       <c r="JA47" s="7">
         <v>1170</v>
       </c>
+      <c r="JB47" s="7">
+        <v>1722</v>
+      </c>
     </row>
     <row r="48" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41034,7 +41170,10 @@
         <f>SUM(JA28:JA47)</f>
         <v>473006</v>
       </c>
-      <c r="JB48" s="29"/>
+      <c r="JB48" s="10">
+        <f>SUM(JB28:JB47)</f>
+        <v>477017</v>
+      </c>
       <c r="JC48" s="29"/>
       <c r="JD48" s="29"/>
       <c r="JE48" s="29"/>
@@ -41677,8 +41816,8 @@
       <c r="AHR48" s="5"/>
       <c r="AHS48" s="5"/>
     </row>
-    <row r="49" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+    <row r="49" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42461,9 +42600,12 @@
       <c r="JA49" s="7">
         <v>19</v>
       </c>
+      <c r="JB49" s="7">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+    <row r="50" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43244,9 +43386,12 @@
       <c r="JA50" s="7">
         <v>1</v>
       </c>
+      <c r="JB50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:261" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+    <row r="51" spans="1:262" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44027,9 +44172,12 @@
       <c r="JA51" s="7">
         <v>1494</v>
       </c>
+      <c r="JB51" s="7">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="52" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+    <row r="52" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -44810,9 +44958,12 @@
       <c r="JA52" s="7">
         <v>1063</v>
       </c>
+      <c r="JB52" s="7">
+        <v>1118</v>
+      </c>
     </row>
-    <row r="53" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+    <row r="53" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -45594,9 +45745,13 @@
         <f>SUM(JA49:JA52)</f>
         <v>2577</v>
       </c>
+      <c r="JB53" s="10">
+        <f>SUM(JB49:JB52)</f>
+        <v>2692</v>
+      </c>
     </row>
-    <row r="54" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+    <row r="54" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46379,9 +46534,12 @@
       <c r="JA54" s="7">
         <v>5720</v>
       </c>
+      <c r="JB54" s="7">
+        <v>5748</v>
+      </c>
     </row>
-    <row r="55" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+    <row r="55" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -47162,9 +47320,12 @@
       <c r="JA55" s="7">
         <v>51039</v>
       </c>
+      <c r="JB55" s="7">
+        <v>50635</v>
+      </c>
     </row>
-    <row r="56" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+    <row r="56" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -47945,9 +48106,12 @@
       <c r="JA56" s="7">
         <v>6963</v>
       </c>
+      <c r="JB56" s="7">
+        <v>6418</v>
+      </c>
     </row>
-    <row r="57" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+    <row r="57" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -48728,9 +48892,12 @@
       <c r="JA57" s="7">
         <v>189751</v>
       </c>
+      <c r="JB57" s="7">
+        <v>189184</v>
+      </c>
     </row>
-    <row r="58" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+    <row r="58" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -49511,9 +49678,12 @@
       <c r="JA58" s="7">
         <v>30431</v>
       </c>
+      <c r="JB58" s="7">
+        <v>30201</v>
+      </c>
     </row>
-    <row r="59" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+    <row r="59" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50294,9 +50464,12 @@
       <c r="JA59" s="7">
         <v>5576</v>
       </c>
+      <c r="JB59" s="42">
+        <v>5737</v>
+      </c>
     </row>
-    <row r="60" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+    <row r="60" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -51077,9 +51250,12 @@
       <c r="JA60" s="7">
         <v>41889</v>
       </c>
+      <c r="JB60" s="7">
+        <v>43980</v>
+      </c>
     </row>
-    <row r="61" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+    <row r="61" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -51860,9 +52036,12 @@
       <c r="JA61" s="7">
         <v>132</v>
       </c>
+      <c r="JB61" s="7">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+    <row r="62" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="36"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -52643,9 +52822,12 @@
       <c r="JA62" s="7">
         <v>19171</v>
       </c>
+      <c r="JB62" s="7">
+        <v>19397</v>
+      </c>
     </row>
-    <row r="63" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+    <row r="63" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="36"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53426,9 +53608,12 @@
       <c r="JA63" s="7">
         <v>31766</v>
       </c>
+      <c r="JB63" s="7">
+        <v>32423</v>
+      </c>
     </row>
-    <row r="64" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+    <row r="64" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54209,9 +54394,12 @@
       <c r="JA64" s="7">
         <v>47486</v>
       </c>
+      <c r="JB64" s="7">
+        <v>46958</v>
+      </c>
     </row>
     <row r="65" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -54992,9 +55180,12 @@
       <c r="JA65" s="7">
         <v>167923</v>
       </c>
+      <c r="JB65" s="7">
+        <v>166229</v>
+      </c>
     </row>
     <row r="66" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -55775,9 +55966,12 @@
       <c r="JA66" s="7">
         <v>16199</v>
       </c>
+      <c r="JB66" s="7">
+        <v>15878</v>
+      </c>
     </row>
     <row r="67" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -56558,9 +56752,12 @@
       <c r="JA67" s="7">
         <v>6467</v>
       </c>
+      <c r="JB67" s="7">
+        <v>6218</v>
+      </c>
     </row>
     <row r="68" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -57342,7 +57539,10 @@
         <f>SUM(JA54:JA67)</f>
         <v>620513</v>
       </c>
-      <c r="JB68" s="29"/>
+      <c r="JB68" s="10">
+        <f>SUM(JB54:JB67)</f>
+        <v>619137</v>
+      </c>
       <c r="JC68" s="29"/>
       <c r="JD68" s="29"/>
       <c r="JE68" s="29"/>
@@ -57986,7 +58186,7 @@
       <c r="AHS68" s="5"/>
     </row>
     <row r="69" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="36" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -58769,9 +58969,12 @@
       <c r="JA69" s="7">
         <v>8880</v>
       </c>
+      <c r="JB69" s="7">
+        <v>9137</v>
+      </c>
     </row>
     <row r="70" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -59552,9 +59755,12 @@
       <c r="JA70" s="7">
         <v>649</v>
       </c>
+      <c r="JB70" s="7">
+        <v>595</v>
+      </c>
     </row>
     <row r="71" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -60335,9 +60541,12 @@
       <c r="JA71" s="7">
         <v>28377</v>
       </c>
+      <c r="JB71" s="7">
+        <v>29080</v>
+      </c>
     </row>
     <row r="72" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -61118,9 +61327,12 @@
       <c r="JA72" s="7">
         <v>3123</v>
       </c>
+      <c r="JB72" s="7">
+        <v>3236</v>
+      </c>
     </row>
     <row r="73" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -61901,9 +62113,12 @@
       <c r="JA73" s="7">
         <v>457</v>
       </c>
+      <c r="JB73" s="7">
+        <v>514</v>
+      </c>
     </row>
     <row r="74" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -62684,9 +62899,12 @@
       <c r="JA74" s="7">
         <v>51769</v>
       </c>
+      <c r="JB74" s="7">
+        <v>51770</v>
+      </c>
     </row>
     <row r="75" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -63468,7 +63686,10 @@
         <f>SUM(JA69:JA74)</f>
         <v>93255</v>
       </c>
-      <c r="JB75" s="29"/>
+      <c r="JB75" s="10">
+        <f>SUM(JB69:JB74)</f>
+        <v>94332</v>
+      </c>
       <c r="JC75" s="29"/>
       <c r="JD75" s="29"/>
       <c r="JE75" s="29"/>
@@ -64895,7 +65116,11 @@
         <f>JA11+JA21+JA24+JA27+JA48+JA53+JA68+JA75</f>
         <v>1826575</v>
       </c>
-      <c r="JB76" s="35"/>
+      <c r="JB76" s="19">
+        <f>JB11+JB21+JB24+JB27+JB48+JB53+JB68+JB75</f>
+        <v>1837975</v>
+      </c>
+      <c r="JC76" s="35"/>
     </row>
     <row r="77" spans="1:903" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
@@ -65154,7 +65379,7 @@
       <c r="IY77" s="30"/>
       <c r="IZ77" s="30"/>
       <c r="JA77" s="30"/>
-      <c r="JB77" s="27"/>
+      <c r="JB77" s="30"/>
       <c r="JC77" s="27"/>
       <c r="JD77" s="27"/>
       <c r="JE77" s="27"/>
@@ -65623,6 +65848,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JB4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -65635,26 +65880,6 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:JA4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="337">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1051,6 +1051,9 @@
   <si>
     <t>2021/Agosto</t>
   </si>
+  <si>
+    <t>2021/Septiembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1655,7 +1658,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1756,14 +1759,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1774,9 +1771,16 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2132,11 +2136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHS78"/>
+  <dimension ref="A1:AHT78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JE10" sqref="JE10"/>
+      <selection pane="topRight" activeCell="JI55" sqref="JI55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,335 +2402,336 @@
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
-    <col min="263" max="264" width="10.85546875" style="28"/>
-    <col min="265" max="265" width="33.85546875" style="28" customWidth="1"/>
-    <col min="266" max="722" width="10.85546875" style="28"/>
-    <col min="723" max="903" width="10.85546875" style="4"/>
-    <col min="904" max="16384" width="10.85546875" style="3"/>
+    <col min="263" max="263" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="10.85546875" style="28"/>
+    <col min="266" max="266" width="33.85546875" style="28" customWidth="1"/>
+    <col min="267" max="723" width="10.85546875" style="28"/>
+    <col min="724" max="904" width="10.85546875" style="4"/>
+    <col min="905" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:903" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:904" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:903" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:904" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:904" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="40">
         <v>2000</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40">
         <v>2001</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40">
         <v>2002</v>
       </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40">
         <v>2003</v>
       </c>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37">
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="37"/>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="37"/>
-      <c r="BK4" s="37">
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40">
         <v>2005</v>
       </c>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="37"/>
-      <c r="BP4" s="37"/>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37">
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40"/>
+      <c r="BQ4" s="40"/>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="40"/>
+      <c r="BV4" s="40"/>
+      <c r="BW4" s="40">
         <v>2006</v>
       </c>
-      <c r="BX4" s="37"/>
-      <c r="BY4" s="37"/>
-      <c r="BZ4" s="37"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="37"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="37"/>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37">
+      <c r="BX4" s="40"/>
+      <c r="BY4" s="40"/>
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
+      <c r="CC4" s="40"/>
+      <c r="CD4" s="40"/>
+      <c r="CE4" s="40"/>
+      <c r="CF4" s="40"/>
+      <c r="CG4" s="40"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="40">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="37"/>
-      <c r="CL4" s="37"/>
-      <c r="CM4" s="37"/>
-      <c r="CN4" s="37"/>
-      <c r="CO4" s="37"/>
-      <c r="CP4" s="37"/>
-      <c r="CQ4" s="37"/>
-      <c r="CR4" s="37"/>
-      <c r="CS4" s="37"/>
-      <c r="CT4" s="37"/>
-      <c r="CU4" s="37">
+      <c r="CJ4" s="40"/>
+      <c r="CK4" s="40"/>
+      <c r="CL4" s="40"/>
+      <c r="CM4" s="40"/>
+      <c r="CN4" s="40"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="40"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="40"/>
+      <c r="CS4" s="40"/>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="40">
         <v>2008</v>
       </c>
-      <c r="CV4" s="37"/>
-      <c r="CW4" s="37"/>
-      <c r="CX4" s="37"/>
-      <c r="CY4" s="37"/>
-      <c r="CZ4" s="37"/>
-      <c r="DA4" s="37"/>
-      <c r="DB4" s="37"/>
-      <c r="DC4" s="37"/>
-      <c r="DD4" s="37"/>
-      <c r="DE4" s="37"/>
-      <c r="DF4" s="37"/>
-      <c r="DG4" s="37">
+      <c r="CV4" s="40"/>
+      <c r="CW4" s="40"/>
+      <c r="CX4" s="40"/>
+      <c r="CY4" s="40"/>
+      <c r="CZ4" s="40"/>
+      <c r="DA4" s="40"/>
+      <c r="DB4" s="40"/>
+      <c r="DC4" s="40"/>
+      <c r="DD4" s="40"/>
+      <c r="DE4" s="40"/>
+      <c r="DF4" s="40"/>
+      <c r="DG4" s="40">
         <v>2009</v>
       </c>
-      <c r="DH4" s="37"/>
-      <c r="DI4" s="37"/>
-      <c r="DJ4" s="37"/>
-      <c r="DK4" s="37"/>
-      <c r="DL4" s="37"/>
-      <c r="DM4" s="37"/>
-      <c r="DN4" s="37"/>
-      <c r="DO4" s="37"/>
-      <c r="DP4" s="37"/>
-      <c r="DQ4" s="37"/>
-      <c r="DR4" s="37"/>
-      <c r="DS4" s="37">
+      <c r="DH4" s="40"/>
+      <c r="DI4" s="40"/>
+      <c r="DJ4" s="40"/>
+      <c r="DK4" s="40"/>
+      <c r="DL4" s="40"/>
+      <c r="DM4" s="40"/>
+      <c r="DN4" s="40"/>
+      <c r="DO4" s="40"/>
+      <c r="DP4" s="40"/>
+      <c r="DQ4" s="40"/>
+      <c r="DR4" s="40"/>
+      <c r="DS4" s="40">
         <v>2010</v>
       </c>
-      <c r="DT4" s="37"/>
-      <c r="DU4" s="37"/>
-      <c r="DV4" s="37"/>
-      <c r="DW4" s="37"/>
-      <c r="DX4" s="37"/>
-      <c r="DY4" s="37"/>
-      <c r="DZ4" s="37"/>
-      <c r="EA4" s="37"/>
-      <c r="EB4" s="37"/>
-      <c r="EC4" s="37"/>
-      <c r="ED4" s="37"/>
-      <c r="EE4" s="37">
+      <c r="DT4" s="40"/>
+      <c r="DU4" s="40"/>
+      <c r="DV4" s="40"/>
+      <c r="DW4" s="40"/>
+      <c r="DX4" s="40"/>
+      <c r="DY4" s="40"/>
+      <c r="DZ4" s="40"/>
+      <c r="EA4" s="40"/>
+      <c r="EB4" s="40"/>
+      <c r="EC4" s="40"/>
+      <c r="ED4" s="40"/>
+      <c r="EE4" s="40">
         <v>2011</v>
       </c>
-      <c r="EF4" s="37"/>
-      <c r="EG4" s="37"/>
-      <c r="EH4" s="37"/>
-      <c r="EI4" s="37"/>
-      <c r="EJ4" s="37"/>
-      <c r="EK4" s="37"/>
-      <c r="EL4" s="37"/>
-      <c r="EM4" s="37"/>
-      <c r="EN4" s="37"/>
-      <c r="EO4" s="37"/>
-      <c r="EP4" s="37"/>
-      <c r="EQ4" s="37">
+      <c r="EF4" s="40"/>
+      <c r="EG4" s="40"/>
+      <c r="EH4" s="40"/>
+      <c r="EI4" s="40"/>
+      <c r="EJ4" s="40"/>
+      <c r="EK4" s="40"/>
+      <c r="EL4" s="40"/>
+      <c r="EM4" s="40"/>
+      <c r="EN4" s="40"/>
+      <c r="EO4" s="40"/>
+      <c r="EP4" s="40"/>
+      <c r="EQ4" s="40">
         <v>2012</v>
       </c>
-      <c r="ER4" s="37"/>
-      <c r="ES4" s="37"/>
-      <c r="ET4" s="37"/>
-      <c r="EU4" s="37"/>
-      <c r="EV4" s="37"/>
-      <c r="EW4" s="37"/>
-      <c r="EX4" s="37"/>
-      <c r="EY4" s="37"/>
-      <c r="EZ4" s="37"/>
-      <c r="FA4" s="37"/>
-      <c r="FB4" s="37"/>
-      <c r="FC4" s="37">
+      <c r="ER4" s="40"/>
+      <c r="ES4" s="40"/>
+      <c r="ET4" s="40"/>
+      <c r="EU4" s="40"/>
+      <c r="EV4" s="40"/>
+      <c r="EW4" s="40"/>
+      <c r="EX4" s="40"/>
+      <c r="EY4" s="40"/>
+      <c r="EZ4" s="40"/>
+      <c r="FA4" s="40"/>
+      <c r="FB4" s="40"/>
+      <c r="FC4" s="40">
         <v>2013</v>
       </c>
-      <c r="FD4" s="37"/>
-      <c r="FE4" s="37"/>
-      <c r="FF4" s="37"/>
-      <c r="FG4" s="37"/>
-      <c r="FH4" s="37"/>
-      <c r="FI4" s="37"/>
-      <c r="FJ4" s="37"/>
-      <c r="FK4" s="37"/>
-      <c r="FL4" s="37"/>
-      <c r="FM4" s="37"/>
-      <c r="FN4" s="37"/>
-      <c r="FO4" s="37">
+      <c r="FD4" s="40"/>
+      <c r="FE4" s="40"/>
+      <c r="FF4" s="40"/>
+      <c r="FG4" s="40"/>
+      <c r="FH4" s="40"/>
+      <c r="FI4" s="40"/>
+      <c r="FJ4" s="40"/>
+      <c r="FK4" s="40"/>
+      <c r="FL4" s="40"/>
+      <c r="FM4" s="40"/>
+      <c r="FN4" s="40"/>
+      <c r="FO4" s="40">
         <v>2014</v>
       </c>
-      <c r="FP4" s="37"/>
-      <c r="FQ4" s="37"/>
-      <c r="FR4" s="37"/>
-      <c r="FS4" s="37"/>
-      <c r="FT4" s="37"/>
-      <c r="FU4" s="37"/>
-      <c r="FV4" s="37"/>
-      <c r="FW4" s="37"/>
-      <c r="FX4" s="37"/>
-      <c r="FY4" s="37"/>
-      <c r="FZ4" s="37"/>
-      <c r="GA4" s="37">
+      <c r="FP4" s="40"/>
+      <c r="FQ4" s="40"/>
+      <c r="FR4" s="40"/>
+      <c r="FS4" s="40"/>
+      <c r="FT4" s="40"/>
+      <c r="FU4" s="40"/>
+      <c r="FV4" s="40"/>
+      <c r="FW4" s="40"/>
+      <c r="FX4" s="40"/>
+      <c r="FY4" s="40"/>
+      <c r="FZ4" s="40"/>
+      <c r="GA4" s="40">
         <v>2015</v>
       </c>
-      <c r="GB4" s="37"/>
-      <c r="GC4" s="37"/>
-      <c r="GD4" s="37"/>
-      <c r="GE4" s="37"/>
-      <c r="GF4" s="37"/>
-      <c r="GG4" s="37"/>
-      <c r="GH4" s="37"/>
-      <c r="GI4" s="37"/>
-      <c r="GJ4" s="37"/>
-      <c r="GK4" s="37"/>
-      <c r="GL4" s="37"/>
-      <c r="GM4" s="37">
+      <c r="GB4" s="40"/>
+      <c r="GC4" s="40"/>
+      <c r="GD4" s="40"/>
+      <c r="GE4" s="40"/>
+      <c r="GF4" s="40"/>
+      <c r="GG4" s="40"/>
+      <c r="GH4" s="40"/>
+      <c r="GI4" s="40"/>
+      <c r="GJ4" s="40"/>
+      <c r="GK4" s="40"/>
+      <c r="GL4" s="40"/>
+      <c r="GM4" s="40">
         <v>2016</v>
       </c>
-      <c r="GN4" s="37"/>
-      <c r="GO4" s="37"/>
-      <c r="GP4" s="37"/>
-      <c r="GQ4" s="37"/>
-      <c r="GR4" s="37"/>
-      <c r="GS4" s="37"/>
-      <c r="GT4" s="37"/>
-      <c r="GU4" s="37"/>
-      <c r="GV4" s="37"/>
-      <c r="GW4" s="37"/>
-      <c r="GX4" s="37"/>
-      <c r="GY4" s="37">
+      <c r="GN4" s="40"/>
+      <c r="GO4" s="40"/>
+      <c r="GP4" s="40"/>
+      <c r="GQ4" s="40"/>
+      <c r="GR4" s="40"/>
+      <c r="GS4" s="40"/>
+      <c r="GT4" s="40"/>
+      <c r="GU4" s="40"/>
+      <c r="GV4" s="40"/>
+      <c r="GW4" s="40"/>
+      <c r="GX4" s="40"/>
+      <c r="GY4" s="40">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="37"/>
-      <c r="HA4" s="37"/>
-      <c r="HB4" s="37"/>
-      <c r="HC4" s="37"/>
-      <c r="HD4" s="37"/>
-      <c r="HE4" s="37"/>
-      <c r="HF4" s="37"/>
-      <c r="HG4" s="37"/>
-      <c r="HH4" s="37"/>
-      <c r="HI4" s="37"/>
-      <c r="HJ4" s="37"/>
-      <c r="HK4" s="37">
+      <c r="GZ4" s="40"/>
+      <c r="HA4" s="40"/>
+      <c r="HB4" s="40"/>
+      <c r="HC4" s="40"/>
+      <c r="HD4" s="40"/>
+      <c r="HE4" s="40"/>
+      <c r="HF4" s="40"/>
+      <c r="HG4" s="40"/>
+      <c r="HH4" s="40"/>
+      <c r="HI4" s="40"/>
+      <c r="HJ4" s="40"/>
+      <c r="HK4" s="40">
         <v>2018</v>
       </c>
-      <c r="HL4" s="37"/>
-      <c r="HM4" s="37"/>
-      <c r="HN4" s="37"/>
-      <c r="HO4" s="37"/>
-      <c r="HP4" s="37"/>
-      <c r="HQ4" s="37"/>
-      <c r="HR4" s="37"/>
-      <c r="HS4" s="37"/>
-      <c r="HT4" s="37"/>
-      <c r="HU4" s="37"/>
-      <c r="HV4" s="37"/>
-      <c r="HW4" s="37">
+      <c r="HL4" s="40"/>
+      <c r="HM4" s="40"/>
+      <c r="HN4" s="40"/>
+      <c r="HO4" s="40"/>
+      <c r="HP4" s="40"/>
+      <c r="HQ4" s="40"/>
+      <c r="HR4" s="40"/>
+      <c r="HS4" s="40"/>
+      <c r="HT4" s="40"/>
+      <c r="HU4" s="40"/>
+      <c r="HV4" s="40"/>
+      <c r="HW4" s="40">
         <v>2019</v>
       </c>
-      <c r="HX4" s="37"/>
-      <c r="HY4" s="37"/>
-      <c r="HZ4" s="37"/>
-      <c r="IA4" s="37"/>
-      <c r="IB4" s="37"/>
-      <c r="IC4" s="37"/>
-      <c r="ID4" s="37"/>
-      <c r="IE4" s="37"/>
-      <c r="IF4" s="37"/>
-      <c r="IG4" s="37"/>
-      <c r="IH4" s="39"/>
-      <c r="II4" s="39">
+      <c r="HX4" s="40"/>
+      <c r="HY4" s="40"/>
+      <c r="HZ4" s="40"/>
+      <c r="IA4" s="40"/>
+      <c r="IB4" s="40"/>
+      <c r="IC4" s="40"/>
+      <c r="ID4" s="40"/>
+      <c r="IE4" s="40"/>
+      <c r="IF4" s="40"/>
+      <c r="IG4" s="40"/>
+      <c r="IH4" s="37"/>
+      <c r="II4" s="37">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="40"/>
-      <c r="IK4" s="40"/>
-      <c r="IL4" s="40"/>
-      <c r="IM4" s="40"/>
-      <c r="IN4" s="40"/>
-      <c r="IO4" s="40"/>
-      <c r="IP4" s="40"/>
-      <c r="IQ4" s="40"/>
-      <c r="IR4" s="40"/>
-      <c r="IS4" s="40"/>
-      <c r="IT4" s="41"/>
-      <c r="IU4" s="39">
+      <c r="IJ4" s="38"/>
+      <c r="IK4" s="38"/>
+      <c r="IL4" s="38"/>
+      <c r="IM4" s="38"/>
+      <c r="IN4" s="38"/>
+      <c r="IO4" s="38"/>
+      <c r="IP4" s="38"/>
+      <c r="IQ4" s="38"/>
+      <c r="IR4" s="38"/>
+      <c r="IS4" s="38"/>
+      <c r="IT4" s="39"/>
+      <c r="IU4" s="37">
         <v>2021</v>
       </c>
-      <c r="IV4" s="40"/>
-      <c r="IW4" s="40"/>
-      <c r="IX4" s="40"/>
-      <c r="IY4" s="40"/>
-      <c r="IZ4" s="40"/>
-      <c r="JA4" s="40"/>
-      <c r="JB4" s="41"/>
-      <c r="JC4" s="29"/>
+      <c r="IV4" s="38"/>
+      <c r="IW4" s="38"/>
+      <c r="IX4" s="38"/>
+      <c r="IY4" s="38"/>
+      <c r="IZ4" s="38"/>
+      <c r="JA4" s="38"/>
+      <c r="JB4" s="38"/>
+      <c r="JC4" s="39"/>
       <c r="JD4" s="29"/>
       <c r="JE4" s="29"/>
       <c r="JF4" s="29"/>
@@ -3186,7 +3191,7 @@
       <c r="AAR4" s="29"/>
       <c r="AAS4" s="29"/>
       <c r="AAT4" s="29"/>
-      <c r="AAU4" s="5"/>
+      <c r="AAU4" s="29"/>
       <c r="AAV4" s="5"/>
       <c r="AAW4" s="5"/>
       <c r="AAX4" s="5"/>
@@ -3367,10 +3372,11 @@
       <c r="AHQ4" s="5"/>
       <c r="AHR4" s="5"/>
       <c r="AHS4" s="5"/>
+      <c r="AHT4" s="5"/>
     </row>
-    <row r="5" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
+    <row r="5" spans="1:904" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4151,7 +4157,9 @@
       <c r="JB5" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="JC5" s="29"/>
+      <c r="JC5" s="31" t="s">
+        <v>336</v>
+      </c>
       <c r="JD5" s="29"/>
       <c r="JE5" s="29"/>
       <c r="JF5" s="29"/>
@@ -4611,7 +4619,7 @@
       <c r="AAR5" s="29"/>
       <c r="AAS5" s="29"/>
       <c r="AAT5" s="29"/>
-      <c r="AAU5" s="5"/>
+      <c r="AAU5" s="29"/>
       <c r="AAV5" s="5"/>
       <c r="AAW5" s="5"/>
       <c r="AAX5" s="5"/>
@@ -4792,9 +4800,10 @@
       <c r="AHQ5" s="5"/>
       <c r="AHR5" s="5"/>
       <c r="AHS5" s="5"/>
+      <c r="AHT5" s="5"/>
     </row>
-    <row r="6" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5580,9 +5589,12 @@
       <c r="JB6" s="7">
         <v>87987</v>
       </c>
+      <c r="JC6" s="7">
+        <v>90653</v>
+      </c>
     </row>
-    <row r="7" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6366,9 +6378,12 @@
       <c r="JB7" s="7">
         <v>45</v>
       </c>
+      <c r="JC7" s="7">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7152,9 +7167,12 @@
       <c r="JB8" s="7">
         <v>23429</v>
       </c>
+      <c r="JC8" s="7">
+        <v>23376</v>
+      </c>
     </row>
-    <row r="9" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7938,9 +7956,12 @@
       <c r="JB9" s="7">
         <v>710</v>
       </c>
+      <c r="JC9" s="7">
+        <v>574</v>
+      </c>
     </row>
-    <row r="10" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8724,9 +8745,12 @@
       <c r="JB10" s="7">
         <v>441</v>
       </c>
+      <c r="JC10" s="7">
+        <v>396</v>
+      </c>
     </row>
-    <row r="11" spans="1:903" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:904" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9509,10 +9533,12 @@
         <v>108146</v>
       </c>
       <c r="JB11" s="10">
-        <f>SUM(JB6:JB10)</f>
         <v>112612</v>
       </c>
-      <c r="JC11" s="29"/>
+      <c r="JC11" s="10">
+        <f>SUM(JC6:JC10)</f>
+        <v>115046</v>
+      </c>
       <c r="JD11" s="29"/>
       <c r="JE11" s="29"/>
       <c r="JF11" s="29"/>
@@ -9972,7 +9998,7 @@
       <c r="AAR11" s="29"/>
       <c r="AAS11" s="29"/>
       <c r="AAT11" s="29"/>
-      <c r="AAU11" s="5"/>
+      <c r="AAU11" s="29"/>
       <c r="AAV11" s="5"/>
       <c r="AAW11" s="5"/>
       <c r="AAX11" s="5"/>
@@ -10153,9 +10179,10 @@
       <c r="AHQ11" s="5"/>
       <c r="AHR11" s="5"/>
       <c r="AHS11" s="5"/>
+      <c r="AHT11" s="5"/>
     </row>
-    <row r="12" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10941,9 +10968,12 @@
       <c r="JB12" s="7">
         <v>76885</v>
       </c>
+      <c r="JC12" s="7">
+        <v>76606</v>
+      </c>
     </row>
-    <row r="13" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11727,9 +11757,12 @@
       <c r="JB13" s="7">
         <v>19831</v>
       </c>
+      <c r="JC13" s="7">
+        <v>19673</v>
+      </c>
     </row>
-    <row r="14" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12513,9 +12546,12 @@
       <c r="JB14" s="7">
         <v>28012</v>
       </c>
+      <c r="JC14" s="7">
+        <v>29228</v>
+      </c>
     </row>
-    <row r="15" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13299,9 +13335,12 @@
       <c r="JB15" s="7">
         <v>24042</v>
       </c>
+      <c r="JC15" s="7">
+        <v>23877</v>
+      </c>
     </row>
-    <row r="16" spans="1:903" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:904" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14085,9 +14124,12 @@
       <c r="JB16" s="7">
         <v>16100</v>
       </c>
+      <c r="JC16" s="7">
+        <v>16568</v>
+      </c>
     </row>
-    <row r="17" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14871,9 +14913,12 @@
       <c r="JB17" s="7">
         <v>45684</v>
       </c>
+      <c r="JC17" s="7">
+        <v>46379</v>
+      </c>
     </row>
-    <row r="18" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15657,9 +15702,12 @@
       <c r="JB18" s="7">
         <v>57990</v>
       </c>
+      <c r="JC18" s="7">
+        <v>58267</v>
+      </c>
     </row>
-    <row r="19" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16443,9 +16491,12 @@
       <c r="JB19" s="7">
         <v>67249</v>
       </c>
+      <c r="JC19" s="7">
+        <v>67461</v>
+      </c>
     </row>
-    <row r="20" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17229,9 +17280,12 @@
       <c r="JB20" s="7">
         <v>47177</v>
       </c>
+      <c r="JC20" s="7">
+        <v>47415</v>
+      </c>
     </row>
-    <row r="21" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18014,10 +18068,12 @@
         <v>382052</v>
       </c>
       <c r="JB21" s="10">
-        <f>SUM(JB12:JB20)</f>
         <v>382970</v>
       </c>
-      <c r="JC21" s="29"/>
+      <c r="JC21" s="10">
+        <f>SUM(JC12:JC20)</f>
+        <v>385474</v>
+      </c>
       <c r="JD21" s="29"/>
       <c r="JE21" s="29"/>
       <c r="JF21" s="29"/>
@@ -18477,7 +18533,7 @@
       <c r="AAR21" s="29"/>
       <c r="AAS21" s="29"/>
       <c r="AAT21" s="29"/>
-      <c r="AAU21" s="5"/>
+      <c r="AAU21" s="29"/>
       <c r="AAV21" s="5"/>
       <c r="AAW21" s="5"/>
       <c r="AAX21" s="5"/>
@@ -18658,9 +18714,10 @@
       <c r="AHQ21" s="5"/>
       <c r="AHR21" s="5"/>
       <c r="AHS21" s="5"/>
+      <c r="AHT21" s="5"/>
     </row>
-    <row r="22" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19446,9 +19503,12 @@
       <c r="JB22" s="7">
         <v>105012</v>
       </c>
+      <c r="JC22" s="7">
+        <v>105564</v>
+      </c>
     </row>
-    <row r="23" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20232,9 +20292,12 @@
       <c r="JB23" s="7">
         <v>34591</v>
       </c>
+      <c r="JC23" s="7">
+        <v>35248</v>
+      </c>
     </row>
-    <row r="24" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+    <row r="24" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21017,10 +21080,12 @@
         <v>137423</v>
       </c>
       <c r="JB24" s="10">
-        <f>SUM(JB22:JB23)</f>
         <v>139603</v>
       </c>
-      <c r="JC24" s="29"/>
+      <c r="JC24" s="10">
+        <f>SUM(JC22:JC23)</f>
+        <v>140812</v>
+      </c>
       <c r="JD24" s="29"/>
       <c r="JE24" s="29"/>
       <c r="JF24" s="29"/>
@@ -21480,7 +21545,7 @@
       <c r="AAR24" s="29"/>
       <c r="AAS24" s="29"/>
       <c r="AAT24" s="29"/>
-      <c r="AAU24" s="5"/>
+      <c r="AAU24" s="29"/>
       <c r="AAV24" s="5"/>
       <c r="AAW24" s="5"/>
       <c r="AAX24" s="5"/>
@@ -21661,9 +21726,10 @@
       <c r="AHQ24" s="5"/>
       <c r="AHR24" s="5"/>
       <c r="AHS24" s="5"/>
+      <c r="AHT24" s="5"/>
     </row>
-    <row r="25" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+    <row r="25" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22449,9 +22515,12 @@
       <c r="JB25" s="7">
         <v>4159</v>
       </c>
+      <c r="JC25" s="7">
+        <v>4170</v>
+      </c>
     </row>
-    <row r="26" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23235,9 +23304,12 @@
       <c r="JB26" s="7">
         <v>5453</v>
       </c>
+      <c r="JC26" s="7">
+        <v>5392</v>
+      </c>
     </row>
-    <row r="27" spans="1:903" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:904" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24020,10 +24092,12 @@
         <v>9603</v>
       </c>
       <c r="JB27" s="10">
-        <f>SUM(JB25:JB26)</f>
         <v>9612</v>
       </c>
-      <c r="JC27" s="29"/>
+      <c r="JC27" s="10">
+        <f>SUM(JC25:JC26)</f>
+        <v>9562</v>
+      </c>
       <c r="JD27" s="29"/>
       <c r="JE27" s="29"/>
       <c r="JF27" s="29"/>
@@ -24483,7 +24557,7 @@
       <c r="AAR27" s="29"/>
       <c r="AAS27" s="29"/>
       <c r="AAT27" s="29"/>
-      <c r="AAU27" s="5"/>
+      <c r="AAU27" s="29"/>
       <c r="AAV27" s="5"/>
       <c r="AAW27" s="5"/>
       <c r="AAX27" s="5"/>
@@ -24664,9 +24738,10 @@
       <c r="AHQ27" s="5"/>
       <c r="AHR27" s="5"/>
       <c r="AHS27" s="5"/>
+      <c r="AHT27" s="5"/>
     </row>
-    <row r="28" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+    <row r="28" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25452,9 +25527,12 @@
       <c r="JB28" s="7">
         <v>1292</v>
       </c>
+      <c r="JC28" s="7">
+        <v>807</v>
+      </c>
     </row>
-    <row r="29" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+    <row r="29" spans="1:904" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26238,9 +26316,12 @@
       <c r="JB29" s="7">
         <v>10180</v>
       </c>
+      <c r="JC29" s="7">
+        <v>10360</v>
+      </c>
     </row>
-    <row r="30" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+    <row r="30" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27024,9 +27105,12 @@
       <c r="JB30" s="7">
         <v>28703</v>
       </c>
+      <c r="JC30" s="7">
+        <v>28546</v>
+      </c>
     </row>
-    <row r="31" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27810,9 +27894,12 @@
       <c r="JB31" s="7">
         <v>100853</v>
       </c>
+      <c r="JC31" s="7">
+        <v>101456</v>
+      </c>
     </row>
-    <row r="32" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+    <row r="32" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28596,9 +28683,12 @@
       <c r="JB32" s="7">
         <v>22711</v>
       </c>
+      <c r="JC32" s="7">
+        <v>23239</v>
+      </c>
     </row>
-    <row r="33" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+    <row r="33" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29382,9 +29472,12 @@
       <c r="JB33" s="7">
         <v>9517</v>
       </c>
+      <c r="JC33" s="7">
+        <v>9477</v>
+      </c>
     </row>
-    <row r="34" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+    <row r="34" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30168,9 +30261,12 @@
       <c r="JB34" s="7">
         <v>42788</v>
       </c>
+      <c r="JC34" s="7">
+        <v>43064</v>
+      </c>
     </row>
-    <row r="35" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
+    <row r="35" spans="1:904" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -30954,9 +31050,12 @@
       <c r="JB35" s="7">
         <v>9742</v>
       </c>
+      <c r="JC35" s="7">
+        <v>9890</v>
+      </c>
     </row>
-    <row r="36" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+    <row r="36" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31740,9 +31839,12 @@
       <c r="JB36" s="7">
         <v>50044</v>
       </c>
+      <c r="JC36" s="7">
+        <v>50938</v>
+      </c>
     </row>
-    <row r="37" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:904" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32526,9 +32628,12 @@
       <c r="JB37" s="7">
         <v>58725</v>
       </c>
+      <c r="JC37" s="7">
+        <v>59020</v>
+      </c>
     </row>
-    <row r="38" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
+    <row r="38" spans="1:904" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33312,9 +33417,12 @@
       <c r="JB38" s="7">
         <v>22990</v>
       </c>
+      <c r="JC38" s="7">
+        <v>23100</v>
+      </c>
     </row>
-    <row r="39" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+    <row r="39" spans="1:904" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34098,9 +34206,12 @@
       <c r="JB39" s="7">
         <v>22022</v>
       </c>
+      <c r="JC39" s="7">
+        <v>22605</v>
+      </c>
     </row>
-    <row r="40" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+    <row r="40" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -34884,9 +34995,12 @@
       <c r="JB40" s="7">
         <v>12013</v>
       </c>
+      <c r="JC40" s="7">
+        <v>12153</v>
+      </c>
     </row>
-    <row r="41" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+    <row r="41" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35670,9 +35784,12 @@
       <c r="JB41" s="7">
         <v>11616</v>
       </c>
+      <c r="JC41" s="7">
+        <v>11464</v>
+      </c>
     </row>
-    <row r="42" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+    <row r="42" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36456,9 +36573,12 @@
       <c r="JB42" s="7">
         <v>42539</v>
       </c>
+      <c r="JC42" s="7">
+        <v>42777</v>
+      </c>
     </row>
-    <row r="43" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+    <row r="43" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37242,9 +37362,12 @@
       <c r="JB43" s="7">
         <v>5090</v>
       </c>
+      <c r="JC43" s="7">
+        <v>4967</v>
+      </c>
     </row>
-    <row r="44" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
+    <row r="44" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38028,9 +38151,12 @@
       <c r="JB44" s="7">
         <v>5588</v>
       </c>
+      <c r="JC44" s="7">
+        <v>5701</v>
+      </c>
     </row>
-    <row r="45" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+    <row r="45" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38811,12 +38937,15 @@
       <c r="JA45" s="7">
         <v>6481</v>
       </c>
-      <c r="JB45" s="28">
+      <c r="JB45" s="30">
         <v>6578</v>
       </c>
+      <c r="JC45" s="36">
+        <v>6305</v>
+      </c>
     </row>
-    <row r="46" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+    <row r="46" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39600,9 +39729,12 @@
       <c r="JB46" s="7">
         <v>12304</v>
       </c>
+      <c r="JC46" s="7">
+        <v>12446</v>
+      </c>
     </row>
-    <row r="47" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
+    <row r="47" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40386,9 +40518,12 @@
       <c r="JB47" s="7">
         <v>1722</v>
       </c>
+      <c r="JC47" s="7">
+        <v>1748</v>
+      </c>
     </row>
-    <row r="48" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
+    <row r="48" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41171,10 +41306,12 @@
         <v>473006</v>
       </c>
       <c r="JB48" s="10">
-        <f>SUM(JB28:JB47)</f>
         <v>477017</v>
       </c>
-      <c r="JC48" s="29"/>
+      <c r="JC48" s="10">
+        <f>SUM(JC28:JC47)</f>
+        <v>480063</v>
+      </c>
       <c r="JD48" s="29"/>
       <c r="JE48" s="29"/>
       <c r="JF48" s="29"/>
@@ -41634,7 +41771,7 @@
       <c r="AAR48" s="29"/>
       <c r="AAS48" s="29"/>
       <c r="AAT48" s="29"/>
-      <c r="AAU48" s="5"/>
+      <c r="AAU48" s="29"/>
       <c r="AAV48" s="5"/>
       <c r="AAW48" s="5"/>
       <c r="AAX48" s="5"/>
@@ -41815,9 +41952,10 @@
       <c r="AHQ48" s="5"/>
       <c r="AHR48" s="5"/>
       <c r="AHS48" s="5"/>
+      <c r="AHT48" s="5"/>
     </row>
-    <row r="49" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+    <row r="49" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42603,9 +42741,12 @@
       <c r="JB49" s="7">
         <v>18</v>
       </c>
+      <c r="JC49" s="7">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+    <row r="50" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43389,9 +43530,12 @@
       <c r="JB50" s="7">
         <v>1</v>
       </c>
+      <c r="JC50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:262" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
+    <row r="51" spans="1:263" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44175,9 +44319,12 @@
       <c r="JB51" s="7">
         <v>1555</v>
       </c>
+      <c r="JC51" s="7">
+        <v>1516</v>
+      </c>
     </row>
-    <row r="52" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
+    <row r="52" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -44961,9 +45108,12 @@
       <c r="JB52" s="7">
         <v>1118</v>
       </c>
+      <c r="JC52" s="7">
+        <v>1104</v>
+      </c>
     </row>
-    <row r="53" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
+    <row r="53" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -45746,12 +45896,15 @@
         <v>2577</v>
       </c>
       <c r="JB53" s="10">
-        <f>SUM(JB49:JB52)</f>
         <v>2692</v>
       </c>
+      <c r="JC53" s="10">
+        <f>SUM(JC49:JC52)</f>
+        <v>2640</v>
+      </c>
     </row>
-    <row r="54" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+    <row r="54" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46537,9 +46690,12 @@
       <c r="JB54" s="7">
         <v>5748</v>
       </c>
+      <c r="JC54" s="7">
+        <v>5756</v>
+      </c>
     </row>
-    <row r="55" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
+    <row r="55" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -47323,9 +47479,12 @@
       <c r="JB55" s="7">
         <v>50635</v>
       </c>
+      <c r="JC55" s="7">
+        <v>49002</v>
+      </c>
     </row>
-    <row r="56" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
+    <row r="56" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -48109,9 +48268,12 @@
       <c r="JB56" s="7">
         <v>6418</v>
       </c>
+      <c r="JC56" s="7">
+        <v>6709</v>
+      </c>
     </row>
-    <row r="57" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
+    <row r="57" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -48895,9 +49057,12 @@
       <c r="JB57" s="7">
         <v>189184</v>
       </c>
+      <c r="JC57" s="7">
+        <v>188372</v>
+      </c>
     </row>
-    <row r="58" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -49681,9 +49846,12 @@
       <c r="JB58" s="7">
         <v>30201</v>
       </c>
+      <c r="JC58" s="7">
+        <v>29728</v>
+      </c>
     </row>
-    <row r="59" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
+    <row r="59" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50464,12 +50632,15 @@
       <c r="JA59" s="7">
         <v>5576</v>
       </c>
-      <c r="JB59" s="42">
+      <c r="JB59" s="7">
         <v>5737</v>
       </c>
+      <c r="JC59" s="36">
+        <v>5881</v>
+      </c>
     </row>
-    <row r="60" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
+    <row r="60" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -51253,9 +51424,12 @@
       <c r="JB60" s="7">
         <v>43980</v>
       </c>
+      <c r="JC60" s="7">
+        <v>47059</v>
+      </c>
     </row>
-    <row r="61" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
+    <row r="61" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -52039,9 +52213,12 @@
       <c r="JB61" s="7">
         <v>131</v>
       </c>
+      <c r="JC61" s="43">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
+    <row r="62" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -52825,9 +53002,12 @@
       <c r="JB62" s="7">
         <v>19397</v>
       </c>
+      <c r="JC62" s="7">
+        <v>19375</v>
+      </c>
     </row>
-    <row r="63" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
+    <row r="63" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53611,9 +53791,12 @@
       <c r="JB63" s="7">
         <v>32423</v>
       </c>
+      <c r="JC63" s="7">
+        <v>32689</v>
+      </c>
     </row>
-    <row r="64" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
+    <row r="64" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54397,9 +54580,12 @@
       <c r="JB64" s="7">
         <v>46958</v>
       </c>
+      <c r="JC64" s="7">
+        <v>47765</v>
+      </c>
     </row>
-    <row r="65" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
+    <row r="65" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -55183,9 +55369,12 @@
       <c r="JB65" s="7">
         <v>166229</v>
       </c>
+      <c r="JC65" s="7">
+        <v>164297</v>
+      </c>
     </row>
-    <row r="66" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
+    <row r="66" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -55969,9 +56158,12 @@
       <c r="JB66" s="7">
         <v>15878</v>
       </c>
+      <c r="JC66" s="7">
+        <v>16837</v>
+      </c>
     </row>
-    <row r="67" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
+    <row r="67" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -56755,9 +56947,12 @@
       <c r="JB67" s="7">
         <v>6218</v>
       </c>
+      <c r="JC67" s="7">
+        <v>6258</v>
+      </c>
     </row>
-    <row r="68" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
+    <row r="68" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -57540,10 +57735,12 @@
         <v>620513</v>
       </c>
       <c r="JB68" s="10">
-        <f>SUM(JB54:JB67)</f>
         <v>619137</v>
       </c>
-      <c r="JC68" s="29"/>
+      <c r="JC68" s="10">
+        <f>SUM(JC54:JC67)</f>
+        <v>619859</v>
+      </c>
       <c r="JD68" s="29"/>
       <c r="JE68" s="29"/>
       <c r="JF68" s="29"/>
@@ -58003,7 +58200,7 @@
       <c r="AAR68" s="29"/>
       <c r="AAS68" s="29"/>
       <c r="AAT68" s="29"/>
-      <c r="AAU68" s="5"/>
+      <c r="AAU68" s="29"/>
       <c r="AAV68" s="5"/>
       <c r="AAW68" s="5"/>
       <c r="AAX68" s="5"/>
@@ -58184,9 +58381,10 @@
       <c r="AHQ68" s="5"/>
       <c r="AHR68" s="5"/>
       <c r="AHS68" s="5"/>
+      <c r="AHT68" s="5"/>
     </row>
-    <row r="69" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
+    <row r="69" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A69" s="41" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -58972,9 +59170,12 @@
       <c r="JB69" s="7">
         <v>9137</v>
       </c>
+      <c r="JC69" s="7">
+        <v>9453</v>
+      </c>
     </row>
-    <row r="70" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
+    <row r="70" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -59758,9 +59959,12 @@
       <c r="JB70" s="7">
         <v>595</v>
       </c>
+      <c r="JC70" s="7">
+        <v>596</v>
+      </c>
     </row>
-    <row r="71" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
+    <row r="71" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -60544,9 +60748,12 @@
       <c r="JB71" s="7">
         <v>29080</v>
       </c>
+      <c r="JC71" s="7">
+        <v>29973</v>
+      </c>
     </row>
-    <row r="72" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
+    <row r="72" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -61330,9 +61537,12 @@
       <c r="JB72" s="7">
         <v>3236</v>
       </c>
+      <c r="JC72" s="7">
+        <v>3454</v>
+      </c>
     </row>
-    <row r="73" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
+    <row r="73" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -62116,9 +62326,12 @@
       <c r="JB73" s="7">
         <v>514</v>
       </c>
+      <c r="JC73" s="7">
+        <v>498</v>
+      </c>
     </row>
-    <row r="74" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
+    <row r="74" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -62902,9 +63115,12 @@
       <c r="JB74" s="7">
         <v>51770</v>
       </c>
+      <c r="JC74" s="7">
+        <v>50301</v>
+      </c>
     </row>
-    <row r="75" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
+    <row r="75" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -63687,10 +63903,12 @@
         <v>93255</v>
       </c>
       <c r="JB75" s="10">
-        <f>SUM(JB69:JB74)</f>
         <v>94332</v>
       </c>
-      <c r="JC75" s="29"/>
+      <c r="JC75" s="10">
+        <f>SUM(JC69:JC74)</f>
+        <v>94275</v>
+      </c>
       <c r="JD75" s="29"/>
       <c r="JE75" s="29"/>
       <c r="JF75" s="29"/>
@@ -64150,7 +64368,7 @@
       <c r="AAR75" s="29"/>
       <c r="AAS75" s="29"/>
       <c r="AAT75" s="29"/>
-      <c r="AAU75" s="5"/>
+      <c r="AAU75" s="29"/>
       <c r="AAV75" s="5"/>
       <c r="AAW75" s="5"/>
       <c r="AAX75" s="5"/>
@@ -64331,8 +64549,9 @@
       <c r="AHQ75" s="5"/>
       <c r="AHR75" s="5"/>
       <c r="AHS75" s="5"/>
+      <c r="AHT75" s="5"/>
     </row>
-    <row r="76" spans="1:903" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:904" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -65117,12 +65336,15 @@
         <v>1826575</v>
       </c>
       <c r="JB76" s="19">
-        <f>JB11+JB21+JB24+JB27+JB48+JB53+JB68+JB75</f>
         <v>1837975</v>
       </c>
-      <c r="JC76" s="35"/>
+      <c r="JC76" s="19">
+        <f>JC11+JC21+JC24+JC27+JC48+JC53+JC68+JC75</f>
+        <v>1847731</v>
+      </c>
+      <c r="JD76" s="35"/>
     </row>
-    <row r="77" spans="1:903" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:904" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -65380,7 +65602,7 @@
       <c r="IZ77" s="30"/>
       <c r="JA77" s="30"/>
       <c r="JB77" s="30"/>
-      <c r="JC77" s="27"/>
+      <c r="JC77" s="30"/>
       <c r="JD77" s="27"/>
       <c r="JE77" s="27"/>
       <c r="JF77" s="27"/>
@@ -65840,34 +66062,15 @@
       <c r="AAR77" s="27"/>
       <c r="AAS77" s="27"/>
       <c r="AAT77" s="27"/>
+      <c r="AAU77" s="27"/>
     </row>
-    <row r="78" spans="1:903" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:904" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:JB4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -65880,6 +66083,26 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JC4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="338">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1054,6 +1054,9 @@
   <si>
     <t>2021/Septiembre</t>
   </si>
+  <si>
+    <t>2021/Octubre</t>
+  </si>
 </sst>
 </file>
 
@@ -1762,6 +1765,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1771,16 +1784,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2136,11 +2139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHT78"/>
+  <dimension ref="A1:AHU78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JI55" sqref="JI55"/>
+      <selection pane="topRight" activeCell="JG13" sqref="JG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,337 +2405,338 @@
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
-    <col min="263" max="263" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="10.85546875" style="28"/>
-    <col min="266" max="266" width="33.85546875" style="28" customWidth="1"/>
-    <col min="267" max="723" width="10.85546875" style="28"/>
-    <col min="724" max="904" width="10.85546875" style="4"/>
-    <col min="905" max="16384" width="10.85546875" style="3"/>
+    <col min="263" max="263" width="16.140625" style="4" customWidth="1"/>
+    <col min="264" max="264" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="265" max="266" width="10.85546875" style="28"/>
+    <col min="267" max="267" width="33.85546875" style="28" customWidth="1"/>
+    <col min="268" max="724" width="10.85546875" style="28"/>
+    <col min="725" max="905" width="10.85546875" style="4"/>
+    <col min="906" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:904" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:905" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:904" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:905" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:904" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:905" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40"/>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="40"/>
-      <c r="BY4" s="40"/>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40"/>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="40"/>
-      <c r="CK4" s="40"/>
-      <c r="CL4" s="40"/>
-      <c r="CM4" s="40"/>
-      <c r="CN4" s="40"/>
-      <c r="CO4" s="40"/>
-      <c r="CP4" s="40"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="40"/>
-      <c r="CS4" s="40"/>
-      <c r="CT4" s="40"/>
-      <c r="CU4" s="40">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="40"/>
-      <c r="CW4" s="40"/>
-      <c r="CX4" s="40"/>
-      <c r="CY4" s="40"/>
-      <c r="CZ4" s="40"/>
-      <c r="DA4" s="40"/>
-      <c r="DB4" s="40"/>
-      <c r="DC4" s="40"/>
-      <c r="DD4" s="40"/>
-      <c r="DE4" s="40"/>
-      <c r="DF4" s="40"/>
-      <c r="DG4" s="40">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="40"/>
-      <c r="DI4" s="40"/>
-      <c r="DJ4" s="40"/>
-      <c r="DK4" s="40"/>
-      <c r="DL4" s="40"/>
-      <c r="DM4" s="40"/>
-      <c r="DN4" s="40"/>
-      <c r="DO4" s="40"/>
-      <c r="DP4" s="40"/>
-      <c r="DQ4" s="40"/>
-      <c r="DR4" s="40"/>
-      <c r="DS4" s="40">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="40"/>
-      <c r="DU4" s="40"/>
-      <c r="DV4" s="40"/>
-      <c r="DW4" s="40"/>
-      <c r="DX4" s="40"/>
-      <c r="DY4" s="40"/>
-      <c r="DZ4" s="40"/>
-      <c r="EA4" s="40"/>
-      <c r="EB4" s="40"/>
-      <c r="EC4" s="40"/>
-      <c r="ED4" s="40"/>
-      <c r="EE4" s="40">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="40"/>
-      <c r="EG4" s="40"/>
-      <c r="EH4" s="40"/>
-      <c r="EI4" s="40"/>
-      <c r="EJ4" s="40"/>
-      <c r="EK4" s="40"/>
-      <c r="EL4" s="40"/>
-      <c r="EM4" s="40"/>
-      <c r="EN4" s="40"/>
-      <c r="EO4" s="40"/>
-      <c r="EP4" s="40"/>
-      <c r="EQ4" s="40">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="40"/>
-      <c r="ES4" s="40"/>
-      <c r="ET4" s="40"/>
-      <c r="EU4" s="40"/>
-      <c r="EV4" s="40"/>
-      <c r="EW4" s="40"/>
-      <c r="EX4" s="40"/>
-      <c r="EY4" s="40"/>
-      <c r="EZ4" s="40"/>
-      <c r="FA4" s="40"/>
-      <c r="FB4" s="40"/>
-      <c r="FC4" s="40">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="40"/>
-      <c r="FE4" s="40"/>
-      <c r="FF4" s="40"/>
-      <c r="FG4" s="40"/>
-      <c r="FH4" s="40"/>
-      <c r="FI4" s="40"/>
-      <c r="FJ4" s="40"/>
-      <c r="FK4" s="40"/>
-      <c r="FL4" s="40"/>
-      <c r="FM4" s="40"/>
-      <c r="FN4" s="40"/>
-      <c r="FO4" s="40">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="40"/>
-      <c r="FQ4" s="40"/>
-      <c r="FR4" s="40"/>
-      <c r="FS4" s="40"/>
-      <c r="FT4" s="40"/>
-      <c r="FU4" s="40"/>
-      <c r="FV4" s="40"/>
-      <c r="FW4" s="40"/>
-      <c r="FX4" s="40"/>
-      <c r="FY4" s="40"/>
-      <c r="FZ4" s="40"/>
-      <c r="GA4" s="40">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="40"/>
-      <c r="GC4" s="40"/>
-      <c r="GD4" s="40"/>
-      <c r="GE4" s="40"/>
-      <c r="GF4" s="40"/>
-      <c r="GG4" s="40"/>
-      <c r="GH4" s="40"/>
-      <c r="GI4" s="40"/>
-      <c r="GJ4" s="40"/>
-      <c r="GK4" s="40"/>
-      <c r="GL4" s="40"/>
-      <c r="GM4" s="40">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="40"/>
-      <c r="GO4" s="40"/>
-      <c r="GP4" s="40"/>
-      <c r="GQ4" s="40"/>
-      <c r="GR4" s="40"/>
-      <c r="GS4" s="40"/>
-      <c r="GT4" s="40"/>
-      <c r="GU4" s="40"/>
-      <c r="GV4" s="40"/>
-      <c r="GW4" s="40"/>
-      <c r="GX4" s="40"/>
-      <c r="GY4" s="40">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="40"/>
-      <c r="HA4" s="40"/>
-      <c r="HB4" s="40"/>
-      <c r="HC4" s="40"/>
-      <c r="HD4" s="40"/>
-      <c r="HE4" s="40"/>
-      <c r="HF4" s="40"/>
-      <c r="HG4" s="40"/>
-      <c r="HH4" s="40"/>
-      <c r="HI4" s="40"/>
-      <c r="HJ4" s="40"/>
-      <c r="HK4" s="40">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="40"/>
-      <c r="HM4" s="40"/>
-      <c r="HN4" s="40"/>
-      <c r="HO4" s="40"/>
-      <c r="HP4" s="40"/>
-      <c r="HQ4" s="40"/>
-      <c r="HR4" s="40"/>
-      <c r="HS4" s="40"/>
-      <c r="HT4" s="40"/>
-      <c r="HU4" s="40"/>
-      <c r="HV4" s="40"/>
-      <c r="HW4" s="40">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="40"/>
-      <c r="HY4" s="40"/>
-      <c r="HZ4" s="40"/>
-      <c r="IA4" s="40"/>
-      <c r="IB4" s="40"/>
-      <c r="IC4" s="40"/>
-      <c r="ID4" s="40"/>
-      <c r="IE4" s="40"/>
-      <c r="IF4" s="40"/>
-      <c r="IG4" s="40"/>
-      <c r="IH4" s="37"/>
-      <c r="II4" s="37">
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="41"/>
+      <c r="II4" s="41">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="38"/>
-      <c r="IK4" s="38"/>
-      <c r="IL4" s="38"/>
-      <c r="IM4" s="38"/>
-      <c r="IN4" s="38"/>
-      <c r="IO4" s="38"/>
-      <c r="IP4" s="38"/>
-      <c r="IQ4" s="38"/>
-      <c r="IR4" s="38"/>
-      <c r="IS4" s="38"/>
-      <c r="IT4" s="39"/>
-      <c r="IU4" s="37">
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="43"/>
+      <c r="IU4" s="41">
         <v>2021</v>
       </c>
-      <c r="IV4" s="38"/>
-      <c r="IW4" s="38"/>
-      <c r="IX4" s="38"/>
-      <c r="IY4" s="38"/>
-      <c r="IZ4" s="38"/>
-      <c r="JA4" s="38"/>
-      <c r="JB4" s="38"/>
-      <c r="JC4" s="39"/>
-      <c r="JD4" s="29"/>
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
+      <c r="IY4" s="42"/>
+      <c r="IZ4" s="42"/>
+      <c r="JA4" s="42"/>
+      <c r="JB4" s="42"/>
+      <c r="JC4" s="42"/>
+      <c r="JD4" s="43"/>
       <c r="JE4" s="29"/>
       <c r="JF4" s="29"/>
       <c r="JG4" s="29"/>
@@ -3192,7 +3196,7 @@
       <c r="AAS4" s="29"/>
       <c r="AAT4" s="29"/>
       <c r="AAU4" s="29"/>
-      <c r="AAV4" s="5"/>
+      <c r="AAV4" s="29"/>
       <c r="AAW4" s="5"/>
       <c r="AAX4" s="5"/>
       <c r="AAY4" s="5"/>
@@ -3373,10 +3377,11 @@
       <c r="AHR4" s="5"/>
       <c r="AHS4" s="5"/>
       <c r="AHT4" s="5"/>
+      <c r="AHU4" s="5"/>
     </row>
-    <row r="5" spans="1:904" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
+    <row r="5" spans="1:905" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4160,7 +4165,9 @@
       <c r="JC5" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="JD5" s="29"/>
+      <c r="JD5" s="31" t="s">
+        <v>337</v>
+      </c>
       <c r="JE5" s="29"/>
       <c r="JF5" s="29"/>
       <c r="JG5" s="29"/>
@@ -4620,7 +4627,7 @@
       <c r="AAS5" s="29"/>
       <c r="AAT5" s="29"/>
       <c r="AAU5" s="29"/>
-      <c r="AAV5" s="5"/>
+      <c r="AAV5" s="29"/>
       <c r="AAW5" s="5"/>
       <c r="AAX5" s="5"/>
       <c r="AAY5" s="5"/>
@@ -4801,9 +4808,10 @@
       <c r="AHR5" s="5"/>
       <c r="AHS5" s="5"/>
       <c r="AHT5" s="5"/>
+      <c r="AHU5" s="5"/>
     </row>
-    <row r="6" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5592,9 +5600,12 @@
       <c r="JC6" s="7">
         <v>90653</v>
       </c>
+      <c r="JD6" s="7">
+        <v>92825</v>
+      </c>
     </row>
-    <row r="7" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+    <row r="7" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6381,9 +6392,12 @@
       <c r="JC7" s="7">
         <v>47</v>
       </c>
+      <c r="JD7" s="7">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+    <row r="8" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7170,9 +7184,12 @@
       <c r="JC8" s="7">
         <v>23376</v>
       </c>
+      <c r="JD8" s="7">
+        <v>23356</v>
+      </c>
     </row>
-    <row r="9" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7959,9 +7976,12 @@
       <c r="JC9" s="7">
         <v>574</v>
       </c>
+      <c r="JD9" s="7">
+        <v>575</v>
+      </c>
     </row>
-    <row r="10" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8748,9 +8768,12 @@
       <c r="JC10" s="7">
         <v>396</v>
       </c>
+      <c r="JD10" s="7">
+        <v>408</v>
+      </c>
     </row>
-    <row r="11" spans="1:904" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+    <row r="11" spans="1:905" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9539,7 +9562,10 @@
         <f>SUM(JC6:JC10)</f>
         <v>115046</v>
       </c>
-      <c r="JD11" s="29"/>
+      <c r="JD11" s="10">
+        <f>SUM(JD6:JD10)</f>
+        <v>117212</v>
+      </c>
       <c r="JE11" s="29"/>
       <c r="JF11" s="29"/>
       <c r="JG11" s="29"/>
@@ -9999,7 +10025,7 @@
       <c r="AAS11" s="29"/>
       <c r="AAT11" s="29"/>
       <c r="AAU11" s="29"/>
-      <c r="AAV11" s="5"/>
+      <c r="AAV11" s="29"/>
       <c r="AAW11" s="5"/>
       <c r="AAX11" s="5"/>
       <c r="AAY11" s="5"/>
@@ -10180,9 +10206,10 @@
       <c r="AHR11" s="5"/>
       <c r="AHS11" s="5"/>
       <c r="AHT11" s="5"/>
+      <c r="AHU11" s="5"/>
     </row>
-    <row r="12" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10971,9 +10998,12 @@
       <c r="JC12" s="7">
         <v>76606</v>
       </c>
+      <c r="JD12" s="7">
+        <v>77459</v>
+      </c>
     </row>
-    <row r="13" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11760,9 +11790,12 @@
       <c r="JC13" s="7">
         <v>19673</v>
       </c>
+      <c r="JD13" s="7">
+        <v>19960</v>
+      </c>
     </row>
-    <row r="14" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12549,9 +12582,12 @@
       <c r="JC14" s="7">
         <v>29228</v>
       </c>
+      <c r="JD14" s="7">
+        <v>29192</v>
+      </c>
     </row>
-    <row r="15" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13338,9 +13374,12 @@
       <c r="JC15" s="7">
         <v>23877</v>
       </c>
+      <c r="JD15" s="7">
+        <v>23645</v>
+      </c>
     </row>
-    <row r="16" spans="1:904" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:905" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14127,9 +14166,12 @@
       <c r="JC16" s="7">
         <v>16568</v>
       </c>
+      <c r="JD16" s="7">
+        <v>17478</v>
+      </c>
     </row>
-    <row r="17" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+    <row r="17" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14916,9 +14958,12 @@
       <c r="JC17" s="7">
         <v>46379</v>
       </c>
+      <c r="JD17" s="7">
+        <v>47286</v>
+      </c>
     </row>
-    <row r="18" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15705,9 +15750,12 @@
       <c r="JC18" s="7">
         <v>58267</v>
       </c>
+      <c r="JD18" s="7">
+        <v>58381</v>
+      </c>
     </row>
-    <row r="19" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+    <row r="19" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16494,9 +16542,12 @@
       <c r="JC19" s="7">
         <v>67461</v>
       </c>
+      <c r="JD19" s="7">
+        <v>67355</v>
+      </c>
     </row>
-    <row r="20" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+    <row r="20" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17283,9 +17334,12 @@
       <c r="JC20" s="7">
         <v>47415</v>
       </c>
+      <c r="JD20" s="7">
+        <v>47617</v>
+      </c>
     </row>
-    <row r="21" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+    <row r="21" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18074,7 +18128,10 @@
         <f>SUM(JC12:JC20)</f>
         <v>385474</v>
       </c>
-      <c r="JD21" s="29"/>
+      <c r="JD21" s="10">
+        <f>SUM(JD12:JD20)</f>
+        <v>388373</v>
+      </c>
       <c r="JE21" s="29"/>
       <c r="JF21" s="29"/>
       <c r="JG21" s="29"/>
@@ -18534,7 +18591,7 @@
       <c r="AAS21" s="29"/>
       <c r="AAT21" s="29"/>
       <c r="AAU21" s="29"/>
-      <c r="AAV21" s="5"/>
+      <c r="AAV21" s="29"/>
       <c r="AAW21" s="5"/>
       <c r="AAX21" s="5"/>
       <c r="AAY21" s="5"/>
@@ -18715,9 +18772,10 @@
       <c r="AHR21" s="5"/>
       <c r="AHS21" s="5"/>
       <c r="AHT21" s="5"/>
+      <c r="AHU21" s="5"/>
     </row>
-    <row r="22" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19506,9 +19564,12 @@
       <c r="JC22" s="7">
         <v>105564</v>
       </c>
+      <c r="JD22" s="7">
+        <v>105707</v>
+      </c>
     </row>
-    <row r="23" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20295,9 +20356,12 @@
       <c r="JC23" s="7">
         <v>35248</v>
       </c>
+      <c r="JD23" s="7">
+        <v>35858</v>
+      </c>
     </row>
-    <row r="24" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+    <row r="24" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21086,7 +21150,10 @@
         <f>SUM(JC22:JC23)</f>
         <v>140812</v>
       </c>
-      <c r="JD24" s="29"/>
+      <c r="JD24" s="10">
+        <f>SUM(JD22:JD23)</f>
+        <v>141565</v>
+      </c>
       <c r="JE24" s="29"/>
       <c r="JF24" s="29"/>
       <c r="JG24" s="29"/>
@@ -21546,7 +21613,7 @@
       <c r="AAS24" s="29"/>
       <c r="AAT24" s="29"/>
       <c r="AAU24" s="29"/>
-      <c r="AAV24" s="5"/>
+      <c r="AAV24" s="29"/>
       <c r="AAW24" s="5"/>
       <c r="AAX24" s="5"/>
       <c r="AAY24" s="5"/>
@@ -21727,9 +21794,10 @@
       <c r="AHR24" s="5"/>
       <c r="AHS24" s="5"/>
       <c r="AHT24" s="5"/>
+      <c r="AHU24" s="5"/>
     </row>
-    <row r="25" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22518,9 +22586,12 @@
       <c r="JC25" s="7">
         <v>4170</v>
       </c>
+      <c r="JD25" s="7">
+        <v>4150</v>
+      </c>
     </row>
-    <row r="26" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+    <row r="26" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23307,9 +23378,12 @@
       <c r="JC26" s="7">
         <v>5392</v>
       </c>
+      <c r="JD26" s="7">
+        <v>5358</v>
+      </c>
     </row>
-    <row r="27" spans="1:904" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+    <row r="27" spans="1:905" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24098,7 +24172,10 @@
         <f>SUM(JC25:JC26)</f>
         <v>9562</v>
       </c>
-      <c r="JD27" s="29"/>
+      <c r="JD27" s="10">
+        <f>SUM(JD25:JD26)</f>
+        <v>9508</v>
+      </c>
       <c r="JE27" s="29"/>
       <c r="JF27" s="29"/>
       <c r="JG27" s="29"/>
@@ -24558,7 +24635,7 @@
       <c r="AAS27" s="29"/>
       <c r="AAT27" s="29"/>
       <c r="AAU27" s="29"/>
-      <c r="AAV27" s="5"/>
+      <c r="AAV27" s="29"/>
       <c r="AAW27" s="5"/>
       <c r="AAX27" s="5"/>
       <c r="AAY27" s="5"/>
@@ -24739,9 +24816,10 @@
       <c r="AHR27" s="5"/>
       <c r="AHS27" s="5"/>
       <c r="AHT27" s="5"/>
+      <c r="AHU27" s="5"/>
     </row>
-    <row r="28" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25530,9 +25608,12 @@
       <c r="JC28" s="7">
         <v>807</v>
       </c>
+      <c r="JD28" s="7">
+        <v>729</v>
+      </c>
     </row>
-    <row r="29" spans="1:904" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+    <row r="29" spans="1:905" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26319,9 +26400,12 @@
       <c r="JC29" s="7">
         <v>10360</v>
       </c>
+      <c r="JD29" s="7">
+        <v>10464</v>
+      </c>
     </row>
-    <row r="30" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+    <row r="30" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27108,9 +27192,12 @@
       <c r="JC30" s="7">
         <v>28546</v>
       </c>
+      <c r="JD30" s="7">
+        <v>28486</v>
+      </c>
     </row>
-    <row r="31" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+    <row r="31" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27897,9 +27984,12 @@
       <c r="JC31" s="7">
         <v>101456</v>
       </c>
+      <c r="JD31" s="7">
+        <v>101834</v>
+      </c>
     </row>
-    <row r="32" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+    <row r="32" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28686,9 +28776,12 @@
       <c r="JC32" s="7">
         <v>23239</v>
       </c>
+      <c r="JD32" s="7">
+        <v>23647</v>
+      </c>
     </row>
-    <row r="33" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+    <row r="33" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29475,9 +29568,12 @@
       <c r="JC33" s="7">
         <v>9477</v>
       </c>
+      <c r="JD33" s="7">
+        <v>9426</v>
+      </c>
     </row>
-    <row r="34" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+    <row r="34" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30264,9 +30360,12 @@
       <c r="JC34" s="7">
         <v>43064</v>
       </c>
+      <c r="JD34" s="7">
+        <v>43620</v>
+      </c>
     </row>
-    <row r="35" spans="1:904" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+    <row r="35" spans="1:905" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31053,9 +31152,12 @@
       <c r="JC35" s="7">
         <v>9890</v>
       </c>
+      <c r="JD35" s="7">
+        <v>9984</v>
+      </c>
     </row>
-    <row r="36" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+    <row r="36" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31842,9 +31944,12 @@
       <c r="JC36" s="7">
         <v>50938</v>
       </c>
+      <c r="JD36" s="7">
+        <v>50865</v>
+      </c>
     </row>
-    <row r="37" spans="1:904" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+    <row r="37" spans="1:905" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32631,9 +32736,12 @@
       <c r="JC37" s="7">
         <v>59020</v>
       </c>
+      <c r="JD37" s="7">
+        <v>59264</v>
+      </c>
     </row>
-    <row r="38" spans="1:904" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+    <row r="38" spans="1:905" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33420,9 +33528,12 @@
       <c r="JC38" s="7">
         <v>23100</v>
       </c>
+      <c r="JD38" s="7">
+        <v>23369</v>
+      </c>
     </row>
-    <row r="39" spans="1:904" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+    <row r="39" spans="1:905" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34209,9 +34320,12 @@
       <c r="JC39" s="7">
         <v>22605</v>
       </c>
+      <c r="JD39" s="7">
+        <v>22581</v>
+      </c>
     </row>
-    <row r="40" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+    <row r="40" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -34998,9 +35112,12 @@
       <c r="JC40" s="7">
         <v>12153</v>
       </c>
+      <c r="JD40" s="7">
+        <v>12143</v>
+      </c>
     </row>
-    <row r="41" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+    <row r="41" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35787,9 +35904,12 @@
       <c r="JC41" s="7">
         <v>11464</v>
       </c>
+      <c r="JD41" s="7">
+        <v>11377</v>
+      </c>
     </row>
-    <row r="42" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+    <row r="42" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36576,9 +36696,12 @@
       <c r="JC42" s="7">
         <v>42777</v>
       </c>
+      <c r="JD42" s="7">
+        <v>42632</v>
+      </c>
     </row>
-    <row r="43" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+    <row r="43" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37365,9 +37488,12 @@
       <c r="JC43" s="7">
         <v>4967</v>
       </c>
+      <c r="JD43" s="7">
+        <v>4997</v>
+      </c>
     </row>
-    <row r="44" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+    <row r="44" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38154,9 +38280,12 @@
       <c r="JC44" s="7">
         <v>5701</v>
       </c>
+      <c r="JD44" s="7">
+        <v>5730</v>
+      </c>
     </row>
-    <row r="45" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+    <row r="45" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38943,9 +39072,12 @@
       <c r="JC45" s="36">
         <v>6305</v>
       </c>
+      <c r="JD45" s="36">
+        <v>6326</v>
+      </c>
     </row>
-    <row r="46" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+    <row r="46" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39732,9 +39864,12 @@
       <c r="JC46" s="7">
         <v>12446</v>
       </c>
+      <c r="JD46" s="7">
+        <v>12528</v>
+      </c>
     </row>
-    <row r="47" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+    <row r="47" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40521,9 +40656,12 @@
       <c r="JC47" s="7">
         <v>1748</v>
       </c>
+      <c r="JD47" s="7">
+        <v>1693</v>
+      </c>
     </row>
-    <row r="48" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+    <row r="48" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41312,7 +41450,10 @@
         <f>SUM(JC28:JC47)</f>
         <v>480063</v>
       </c>
-      <c r="JD48" s="29"/>
+      <c r="JD48" s="10">
+        <f>SUM(JD28:JD47)</f>
+        <v>481695</v>
+      </c>
       <c r="JE48" s="29"/>
       <c r="JF48" s="29"/>
       <c r="JG48" s="29"/>
@@ -41772,7 +41913,7 @@
       <c r="AAS48" s="29"/>
       <c r="AAT48" s="29"/>
       <c r="AAU48" s="29"/>
-      <c r="AAV48" s="5"/>
+      <c r="AAV48" s="29"/>
       <c r="AAW48" s="5"/>
       <c r="AAX48" s="5"/>
       <c r="AAY48" s="5"/>
@@ -41953,9 +42094,10 @@
       <c r="AHR48" s="5"/>
       <c r="AHS48" s="5"/>
       <c r="AHT48" s="5"/>
+      <c r="AHU48" s="5"/>
     </row>
-    <row r="49" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42744,9 +42886,12 @@
       <c r="JC49" s="7">
         <v>19</v>
       </c>
+      <c r="JD49" s="7">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+    <row r="50" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43533,9 +43678,12 @@
       <c r="JC50" s="7">
         <v>1</v>
       </c>
+      <c r="JD50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:263" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+    <row r="51" spans="1:264" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44322,9 +44470,12 @@
       <c r="JC51" s="7">
         <v>1516</v>
       </c>
+      <c r="JD51" s="7">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="52" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+    <row r="52" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -45111,9 +45262,12 @@
       <c r="JC52" s="7">
         <v>1104</v>
       </c>
+      <c r="JD52" s="7">
+        <v>1109</v>
+      </c>
     </row>
-    <row r="53" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+    <row r="53" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -45902,9 +46056,13 @@
         <f>SUM(JC49:JC52)</f>
         <v>2640</v>
       </c>
+      <c r="JD53" s="10">
+        <f>SUM(JD49:JD52)</f>
+        <v>2620</v>
+      </c>
     </row>
-    <row r="54" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+    <row r="54" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46693,9 +46851,12 @@
       <c r="JC54" s="7">
         <v>5756</v>
       </c>
+      <c r="JD54" s="7">
+        <v>5839</v>
+      </c>
     </row>
-    <row r="55" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+    <row r="55" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -47482,9 +47643,12 @@
       <c r="JC55" s="7">
         <v>49002</v>
       </c>
+      <c r="JD55" s="7">
+        <v>50033</v>
+      </c>
     </row>
-    <row r="56" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+    <row r="56" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -48271,9 +48435,12 @@
       <c r="JC56" s="7">
         <v>6709</v>
       </c>
+      <c r="JD56" s="7">
+        <v>6796</v>
+      </c>
     </row>
-    <row r="57" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+    <row r="57" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -49060,9 +49227,12 @@
       <c r="JC57" s="7">
         <v>188372</v>
       </c>
+      <c r="JD57" s="7">
+        <v>186484</v>
+      </c>
     </row>
-    <row r="58" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+    <row r="58" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -49849,9 +50019,12 @@
       <c r="JC58" s="7">
         <v>29728</v>
       </c>
+      <c r="JD58" s="7">
+        <v>30309</v>
+      </c>
     </row>
-    <row r="59" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+    <row r="59" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50638,9 +50811,12 @@
       <c r="JC59" s="36">
         <v>5881</v>
       </c>
+      <c r="JD59" s="36">
+        <v>5818</v>
+      </c>
     </row>
-    <row r="60" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
+    <row r="60" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -51427,9 +51603,12 @@
       <c r="JC60" s="7">
         <v>47059</v>
       </c>
+      <c r="JD60" s="7">
+        <v>47599</v>
+      </c>
     </row>
-    <row r="61" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+    <row r="61" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -52213,12 +52392,15 @@
       <c r="JB61" s="7">
         <v>131</v>
       </c>
-      <c r="JC61" s="43">
+      <c r="JC61" s="37">
         <v>131</v>
       </c>
+      <c r="JD61" s="37">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
+    <row r="62" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -53005,9 +53187,12 @@
       <c r="JC62" s="7">
         <v>19375</v>
       </c>
+      <c r="JD62" s="7">
+        <v>19920</v>
+      </c>
     </row>
-    <row r="63" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
+    <row r="63" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53794,9 +53979,12 @@
       <c r="JC63" s="7">
         <v>32689</v>
       </c>
+      <c r="JD63" s="7">
+        <v>32979</v>
+      </c>
     </row>
-    <row r="64" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+    <row r="64" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54583,9 +54771,12 @@
       <c r="JC64" s="7">
         <v>47765</v>
       </c>
+      <c r="JD64" s="7">
+        <v>48359</v>
+      </c>
     </row>
-    <row r="65" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
+    <row r="65" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -55372,9 +55563,12 @@
       <c r="JC65" s="7">
         <v>164297</v>
       </c>
+      <c r="JD65" s="7">
+        <v>164520</v>
+      </c>
     </row>
-    <row r="66" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
+    <row r="66" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -56161,9 +56355,12 @@
       <c r="JC66" s="7">
         <v>16837</v>
       </c>
+      <c r="JD66" s="7">
+        <v>17107</v>
+      </c>
     </row>
-    <row r="67" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
+    <row r="67" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -56950,9 +57147,12 @@
       <c r="JC67" s="7">
         <v>6258</v>
       </c>
+      <c r="JD67" s="7">
+        <v>6310</v>
+      </c>
     </row>
-    <row r="68" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
+    <row r="68" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -57741,7 +57941,10 @@
         <f>SUM(JC54:JC67)</f>
         <v>619859</v>
       </c>
-      <c r="JD68" s="29"/>
+      <c r="JD68" s="10">
+        <f>SUM(JD54:JD67)</f>
+        <v>622204</v>
+      </c>
       <c r="JE68" s="29"/>
       <c r="JF68" s="29"/>
       <c r="JG68" s="29"/>
@@ -58201,7 +58404,7 @@
       <c r="AAS68" s="29"/>
       <c r="AAT68" s="29"/>
       <c r="AAU68" s="29"/>
-      <c r="AAV68" s="5"/>
+      <c r="AAV68" s="29"/>
       <c r="AAW68" s="5"/>
       <c r="AAX68" s="5"/>
       <c r="AAY68" s="5"/>
@@ -58382,9 +58585,10 @@
       <c r="AHR68" s="5"/>
       <c r="AHS68" s="5"/>
       <c r="AHT68" s="5"/>
+      <c r="AHU68" s="5"/>
     </row>
-    <row r="69" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
+    <row r="69" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -59173,9 +59377,12 @@
       <c r="JC69" s="7">
         <v>9453</v>
       </c>
+      <c r="JD69" s="7">
+        <v>9569</v>
+      </c>
     </row>
-    <row r="70" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+    <row r="70" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -59962,9 +60169,12 @@
       <c r="JC70" s="7">
         <v>596</v>
       </c>
+      <c r="JD70" s="7">
+        <v>600</v>
+      </c>
     </row>
-    <row r="71" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
+    <row r="71" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -60751,9 +60961,12 @@
       <c r="JC71" s="7">
         <v>29973</v>
       </c>
+      <c r="JD71" s="7">
+        <v>30391</v>
+      </c>
     </row>
-    <row r="72" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
+    <row r="72" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -61540,9 +61753,12 @@
       <c r="JC72" s="7">
         <v>3454</v>
       </c>
+      <c r="JD72" s="7">
+        <v>3517</v>
+      </c>
     </row>
-    <row r="73" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
+    <row r="73" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -62329,9 +62545,12 @@
       <c r="JC73" s="7">
         <v>498</v>
       </c>
+      <c r="JD73" s="7">
+        <v>532</v>
+      </c>
     </row>
-    <row r="74" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
+    <row r="74" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -63118,9 +63337,12 @@
       <c r="JC74" s="7">
         <v>50301</v>
       </c>
+      <c r="JD74" s="7">
+        <v>50449</v>
+      </c>
     </row>
-    <row r="75" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
+    <row r="75" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -63909,7 +64131,10 @@
         <f>SUM(JC69:JC74)</f>
         <v>94275</v>
       </c>
-      <c r="JD75" s="29"/>
+      <c r="JD75" s="10">
+        <f>SUM(JD69:JD74)</f>
+        <v>95058</v>
+      </c>
       <c r="JE75" s="29"/>
       <c r="JF75" s="29"/>
       <c r="JG75" s="29"/>
@@ -64369,7 +64594,7 @@
       <c r="AAS75" s="29"/>
       <c r="AAT75" s="29"/>
       <c r="AAU75" s="29"/>
-      <c r="AAV75" s="5"/>
+      <c r="AAV75" s="29"/>
       <c r="AAW75" s="5"/>
       <c r="AAX75" s="5"/>
       <c r="AAY75" s="5"/>
@@ -64550,8 +64775,9 @@
       <c r="AHR75" s="5"/>
       <c r="AHS75" s="5"/>
       <c r="AHT75" s="5"/>
+      <c r="AHU75" s="5"/>
     </row>
-    <row r="76" spans="1:904" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:905" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -65342,9 +65568,13 @@
         <f>JC11+JC21+JC24+JC27+JC48+JC53+JC68+JC75</f>
         <v>1847731</v>
       </c>
-      <c r="JD76" s="35"/>
+      <c r="JD76" s="19">
+        <f>JD11+JD21+JD24+JD27+JD48+JD53+JD68+JD75</f>
+        <v>1858235</v>
+      </c>
+      <c r="JE76" s="35"/>
     </row>
-    <row r="77" spans="1:904" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:905" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -65603,7 +65833,7 @@
       <c r="JA77" s="30"/>
       <c r="JB77" s="30"/>
       <c r="JC77" s="30"/>
-      <c r="JD77" s="27"/>
+      <c r="JD77" s="30"/>
       <c r="JE77" s="27"/>
       <c r="JF77" s="27"/>
       <c r="JG77" s="27"/>
@@ -66063,14 +66293,35 @@
       <c r="AAS77" s="27"/>
       <c r="AAT77" s="27"/>
       <c r="AAU77" s="27"/>
+      <c r="AAV77" s="27"/>
     </row>
-    <row r="78" spans="1:904" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:905" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JD4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -66083,26 +66334,6 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:JC4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="339">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1057,6 +1057,9 @@
   <si>
     <t>2021/Octubre</t>
   </si>
+  <si>
+    <t>2021/Noviembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1766,15 +1769,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1783,6 +1777,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2139,11 +2142,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHU78"/>
+  <dimension ref="A1:AHV78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JG13" sqref="JG13"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,339 +2408,339 @@
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
-    <col min="263" max="263" width="16.140625" style="4" customWidth="1"/>
-    <col min="264" max="264" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="265" max="266" width="10.85546875" style="28"/>
-    <col min="267" max="267" width="33.85546875" style="28" customWidth="1"/>
-    <col min="268" max="724" width="10.85546875" style="28"/>
-    <col min="725" max="905" width="10.85546875" style="4"/>
-    <col min="906" max="16384" width="10.85546875" style="3"/>
+    <col min="263" max="264" width="16.140625" style="4" customWidth="1"/>
+    <col min="265" max="265" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="267" width="10.85546875" style="28"/>
+    <col min="268" max="268" width="33.85546875" style="28" customWidth="1"/>
+    <col min="269" max="725" width="10.85546875" style="28"/>
+    <col min="726" max="906" width="10.85546875" style="4"/>
+    <col min="907" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:905" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:906" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:905" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:906" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:905" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:906" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="41">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41"/>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41"/>
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41"/>
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41"/>
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41"/>
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
+      <c r="ED4" s="41"/>
+      <c r="EE4" s="41">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="41"/>
+      <c r="EG4" s="41"/>
+      <c r="EH4" s="41"/>
+      <c r="EI4" s="41"/>
+      <c r="EJ4" s="41"/>
+      <c r="EK4" s="41"/>
+      <c r="EL4" s="41"/>
+      <c r="EM4" s="41"/>
+      <c r="EN4" s="41"/>
+      <c r="EO4" s="41"/>
+      <c r="EP4" s="41"/>
+      <c r="EQ4" s="41">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="41"/>
+      <c r="ES4" s="41"/>
+      <c r="ET4" s="41"/>
+      <c r="EU4" s="41"/>
+      <c r="EV4" s="41"/>
+      <c r="EW4" s="41"/>
+      <c r="EX4" s="41"/>
+      <c r="EY4" s="41"/>
+      <c r="EZ4" s="41"/>
+      <c r="FA4" s="41"/>
+      <c r="FB4" s="41"/>
+      <c r="FC4" s="41">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="41"/>
+      <c r="FE4" s="41"/>
+      <c r="FF4" s="41"/>
+      <c r="FG4" s="41"/>
+      <c r="FH4" s="41"/>
+      <c r="FI4" s="41"/>
+      <c r="FJ4" s="41"/>
+      <c r="FK4" s="41"/>
+      <c r="FL4" s="41"/>
+      <c r="FM4" s="41"/>
+      <c r="FN4" s="41"/>
+      <c r="FO4" s="41">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="41"/>
+      <c r="FQ4" s="41"/>
+      <c r="FR4" s="41"/>
+      <c r="FS4" s="41"/>
+      <c r="FT4" s="41"/>
+      <c r="FU4" s="41"/>
+      <c r="FV4" s="41"/>
+      <c r="FW4" s="41"/>
+      <c r="FX4" s="41"/>
+      <c r="FY4" s="41"/>
+      <c r="FZ4" s="41"/>
+      <c r="GA4" s="41">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="41"/>
+      <c r="GC4" s="41"/>
+      <c r="GD4" s="41"/>
+      <c r="GE4" s="41"/>
+      <c r="GF4" s="41"/>
+      <c r="GG4" s="41"/>
+      <c r="GH4" s="41"/>
+      <c r="GI4" s="41"/>
+      <c r="GJ4" s="41"/>
+      <c r="GK4" s="41"/>
+      <c r="GL4" s="41"/>
+      <c r="GM4" s="41">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="41"/>
+      <c r="GO4" s="41"/>
+      <c r="GP4" s="41"/>
+      <c r="GQ4" s="41"/>
+      <c r="GR4" s="41"/>
+      <c r="GS4" s="41"/>
+      <c r="GT4" s="41"/>
+      <c r="GU4" s="41"/>
+      <c r="GV4" s="41"/>
+      <c r="GW4" s="41"/>
+      <c r="GX4" s="41"/>
+      <c r="GY4" s="41">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="41"/>
+      <c r="HA4" s="41"/>
+      <c r="HB4" s="41"/>
+      <c r="HC4" s="41"/>
+      <c r="HD4" s="41"/>
+      <c r="HE4" s="41"/>
+      <c r="HF4" s="41"/>
+      <c r="HG4" s="41"/>
+      <c r="HH4" s="41"/>
+      <c r="HI4" s="41"/>
+      <c r="HJ4" s="41"/>
+      <c r="HK4" s="41">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="41"/>
+      <c r="HM4" s="41"/>
+      <c r="HN4" s="41"/>
+      <c r="HO4" s="41"/>
+      <c r="HP4" s="41"/>
+      <c r="HQ4" s="41"/>
+      <c r="HR4" s="41"/>
+      <c r="HS4" s="41"/>
+      <c r="HT4" s="41"/>
+      <c r="HU4" s="41"/>
+      <c r="HV4" s="41"/>
+      <c r="HW4" s="41">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
-      <c r="IH4" s="41"/>
-      <c r="II4" s="41">
+      <c r="HX4" s="41"/>
+      <c r="HY4" s="41"/>
+      <c r="HZ4" s="41"/>
+      <c r="IA4" s="41"/>
+      <c r="IB4" s="41"/>
+      <c r="IC4" s="41"/>
+      <c r="ID4" s="41"/>
+      <c r="IE4" s="41"/>
+      <c r="IF4" s="41"/>
+      <c r="IG4" s="41"/>
+      <c r="IH4" s="38"/>
+      <c r="II4" s="38">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="42"/>
-      <c r="IK4" s="42"/>
-      <c r="IL4" s="42"/>
-      <c r="IM4" s="42"/>
-      <c r="IN4" s="42"/>
-      <c r="IO4" s="42"/>
-      <c r="IP4" s="42"/>
-      <c r="IQ4" s="42"/>
-      <c r="IR4" s="42"/>
-      <c r="IS4" s="42"/>
-      <c r="IT4" s="43"/>
-      <c r="IU4" s="41">
+      <c r="IJ4" s="39"/>
+      <c r="IK4" s="39"/>
+      <c r="IL4" s="39"/>
+      <c r="IM4" s="39"/>
+      <c r="IN4" s="39"/>
+      <c r="IO4" s="39"/>
+      <c r="IP4" s="39"/>
+      <c r="IQ4" s="39"/>
+      <c r="IR4" s="39"/>
+      <c r="IS4" s="39"/>
+      <c r="IT4" s="40"/>
+      <c r="IU4" s="38">
         <v>2021</v>
       </c>
-      <c r="IV4" s="42"/>
-      <c r="IW4" s="42"/>
-      <c r="IX4" s="42"/>
-      <c r="IY4" s="42"/>
-      <c r="IZ4" s="42"/>
-      <c r="JA4" s="42"/>
-      <c r="JB4" s="42"/>
-      <c r="JC4" s="42"/>
-      <c r="JD4" s="43"/>
-      <c r="JE4" s="29"/>
+      <c r="IV4" s="39"/>
+      <c r="IW4" s="39"/>
+      <c r="IX4" s="39"/>
+      <c r="IY4" s="39"/>
+      <c r="IZ4" s="39"/>
+      <c r="JA4" s="39"/>
+      <c r="JB4" s="39"/>
+      <c r="JC4" s="39"/>
+      <c r="JD4" s="39"/>
+      <c r="JE4" s="40"/>
       <c r="JF4" s="29"/>
       <c r="JG4" s="29"/>
       <c r="JH4" s="29"/>
@@ -3197,7 +3200,7 @@
       <c r="AAT4" s="29"/>
       <c r="AAU4" s="29"/>
       <c r="AAV4" s="29"/>
-      <c r="AAW4" s="5"/>
+      <c r="AAW4" s="29"/>
       <c r="AAX4" s="5"/>
       <c r="AAY4" s="5"/>
       <c r="AAZ4" s="5"/>
@@ -3378,10 +3381,11 @@
       <c r="AHS4" s="5"/>
       <c r="AHT4" s="5"/>
       <c r="AHU4" s="5"/>
+      <c r="AHV4" s="5"/>
     </row>
-    <row r="5" spans="1:905" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:906" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4168,7 +4172,9 @@
       <c r="JD5" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="JE5" s="29"/>
+      <c r="JE5" s="31" t="s">
+        <v>338</v>
+      </c>
       <c r="JF5" s="29"/>
       <c r="JG5" s="29"/>
       <c r="JH5" s="29"/>
@@ -4628,7 +4634,7 @@
       <c r="AAT5" s="29"/>
       <c r="AAU5" s="29"/>
       <c r="AAV5" s="29"/>
-      <c r="AAW5" s="5"/>
+      <c r="AAW5" s="29"/>
       <c r="AAX5" s="5"/>
       <c r="AAY5" s="5"/>
       <c r="AAZ5" s="5"/>
@@ -4809,9 +4815,10 @@
       <c r="AHS5" s="5"/>
       <c r="AHT5" s="5"/>
       <c r="AHU5" s="5"/>
+      <c r="AHV5" s="5"/>
     </row>
-    <row r="6" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5603,9 +5610,12 @@
       <c r="JD6" s="7">
         <v>92825</v>
       </c>
+      <c r="JE6" s="7">
+        <v>94695</v>
+      </c>
     </row>
-    <row r="7" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6395,9 +6405,12 @@
       <c r="JD7" s="7">
         <v>48</v>
       </c>
+      <c r="JE7" s="7">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7187,9 +7200,12 @@
       <c r="JD8" s="7">
         <v>23356</v>
       </c>
+      <c r="JE8" s="7">
+        <v>23541</v>
+      </c>
     </row>
-    <row r="9" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7979,9 +7995,12 @@
       <c r="JD9" s="7">
         <v>575</v>
       </c>
+      <c r="JE9" s="7">
+        <v>547</v>
+      </c>
     </row>
-    <row r="10" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8771,9 +8790,12 @@
       <c r="JD10" s="7">
         <v>408</v>
       </c>
+      <c r="JE10" s="7">
+        <v>390</v>
+      </c>
     </row>
-    <row r="11" spans="1:905" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:906" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9563,10 +9585,12 @@
         <v>115046</v>
       </c>
       <c r="JD11" s="10">
-        <f>SUM(JD6:JD10)</f>
         <v>117212</v>
       </c>
-      <c r="JE11" s="29"/>
+      <c r="JE11" s="10">
+        <f>SUM(JE6:JE10)</f>
+        <v>119220</v>
+      </c>
       <c r="JF11" s="29"/>
       <c r="JG11" s="29"/>
       <c r="JH11" s="29"/>
@@ -10026,7 +10050,7 @@
       <c r="AAT11" s="29"/>
       <c r="AAU11" s="29"/>
       <c r="AAV11" s="29"/>
-      <c r="AAW11" s="5"/>
+      <c r="AAW11" s="29"/>
       <c r="AAX11" s="5"/>
       <c r="AAY11" s="5"/>
       <c r="AAZ11" s="5"/>
@@ -10207,9 +10231,10 @@
       <c r="AHS11" s="5"/>
       <c r="AHT11" s="5"/>
       <c r="AHU11" s="5"/>
+      <c r="AHV11" s="5"/>
     </row>
-    <row r="12" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11001,9 +11026,12 @@
       <c r="JD12" s="7">
         <v>77459</v>
       </c>
+      <c r="JE12" s="7">
+        <v>77795</v>
+      </c>
     </row>
-    <row r="13" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11793,9 +11821,12 @@
       <c r="JD13" s="7">
         <v>19960</v>
       </c>
+      <c r="JE13" s="7">
+        <v>20104</v>
+      </c>
     </row>
-    <row r="14" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12585,9 +12616,12 @@
       <c r="JD14" s="7">
         <v>29192</v>
       </c>
+      <c r="JE14" s="7">
+        <v>29623</v>
+      </c>
     </row>
-    <row r="15" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13377,9 +13411,12 @@
       <c r="JD15" s="7">
         <v>23645</v>
       </c>
+      <c r="JE15" s="7">
+        <v>23376</v>
+      </c>
     </row>
-    <row r="16" spans="1:905" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:906" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14169,9 +14206,12 @@
       <c r="JD16" s="7">
         <v>17478</v>
       </c>
+      <c r="JE16" s="7">
+        <v>17829</v>
+      </c>
     </row>
-    <row r="17" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14961,9 +15001,12 @@
       <c r="JD17" s="7">
         <v>47286</v>
       </c>
+      <c r="JE17" s="7">
+        <v>47239</v>
+      </c>
     </row>
-    <row r="18" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15753,9 +15796,12 @@
       <c r="JD18" s="7">
         <v>58381</v>
       </c>
+      <c r="JE18" s="7">
+        <v>58545</v>
+      </c>
     </row>
-    <row r="19" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16545,9 +16591,12 @@
       <c r="JD19" s="7">
         <v>67355</v>
       </c>
+      <c r="JE19" s="7">
+        <v>68121</v>
+      </c>
     </row>
-    <row r="20" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17337,9 +17386,12 @@
       <c r="JD20" s="7">
         <v>47617</v>
       </c>
+      <c r="JE20" s="7">
+        <v>48602</v>
+      </c>
     </row>
-    <row r="21" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18129,10 +18181,12 @@
         <v>385474</v>
       </c>
       <c r="JD21" s="10">
-        <f>SUM(JD12:JD20)</f>
         <v>388373</v>
       </c>
-      <c r="JE21" s="29"/>
+      <c r="JE21" s="10">
+        <f>SUM(JE12:JE20)</f>
+        <v>391234</v>
+      </c>
       <c r="JF21" s="29"/>
       <c r="JG21" s="29"/>
       <c r="JH21" s="29"/>
@@ -18592,7 +18646,7 @@
       <c r="AAT21" s="29"/>
       <c r="AAU21" s="29"/>
       <c r="AAV21" s="29"/>
-      <c r="AAW21" s="5"/>
+      <c r="AAW21" s="29"/>
       <c r="AAX21" s="5"/>
       <c r="AAY21" s="5"/>
       <c r="AAZ21" s="5"/>
@@ -18773,9 +18827,10 @@
       <c r="AHS21" s="5"/>
       <c r="AHT21" s="5"/>
       <c r="AHU21" s="5"/>
+      <c r="AHV21" s="5"/>
     </row>
-    <row r="22" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19567,9 +19622,12 @@
       <c r="JD22" s="7">
         <v>105707</v>
       </c>
+      <c r="JE22" s="7">
+        <v>105642</v>
+      </c>
     </row>
-    <row r="23" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+    <row r="23" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20359,9 +20417,12 @@
       <c r="JD23" s="7">
         <v>35858</v>
       </c>
+      <c r="JE23" s="7">
+        <v>36181</v>
+      </c>
     </row>
-    <row r="24" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+    <row r="24" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21151,10 +21212,12 @@
         <v>140812</v>
       </c>
       <c r="JD24" s="10">
-        <f>SUM(JD22:JD23)</f>
         <v>141565</v>
       </c>
-      <c r="JE24" s="29"/>
+      <c r="JE24" s="10">
+        <f>SUM(JE22:JE23)</f>
+        <v>141823</v>
+      </c>
       <c r="JF24" s="29"/>
       <c r="JG24" s="29"/>
       <c r="JH24" s="29"/>
@@ -21614,7 +21677,7 @@
       <c r="AAT24" s="29"/>
       <c r="AAU24" s="29"/>
       <c r="AAV24" s="29"/>
-      <c r="AAW24" s="5"/>
+      <c r="AAW24" s="29"/>
       <c r="AAX24" s="5"/>
       <c r="AAY24" s="5"/>
       <c r="AAZ24" s="5"/>
@@ -21795,9 +21858,10 @@
       <c r="AHS24" s="5"/>
       <c r="AHT24" s="5"/>
       <c r="AHU24" s="5"/>
+      <c r="AHV24" s="5"/>
     </row>
-    <row r="25" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22589,9 +22653,12 @@
       <c r="JD25" s="7">
         <v>4150</v>
       </c>
+      <c r="JE25" s="7">
+        <v>4241</v>
+      </c>
     </row>
-    <row r="26" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23381,9 +23448,12 @@
       <c r="JD26" s="7">
         <v>5358</v>
       </c>
+      <c r="JE26" s="7">
+        <v>5329</v>
+      </c>
     </row>
-    <row r="27" spans="1:905" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:906" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24173,10 +24243,12 @@
         <v>9562</v>
       </c>
       <c r="JD27" s="10">
-        <f>SUM(JD25:JD26)</f>
         <v>9508</v>
       </c>
-      <c r="JE27" s="29"/>
+      <c r="JE27" s="10">
+        <f>SUM(JE25:JE26)</f>
+        <v>9570</v>
+      </c>
       <c r="JF27" s="29"/>
       <c r="JG27" s="29"/>
       <c r="JH27" s="29"/>
@@ -24636,7 +24708,7 @@
       <c r="AAT27" s="29"/>
       <c r="AAU27" s="29"/>
       <c r="AAV27" s="29"/>
-      <c r="AAW27" s="5"/>
+      <c r="AAW27" s="29"/>
       <c r="AAX27" s="5"/>
       <c r="AAY27" s="5"/>
       <c r="AAZ27" s="5"/>
@@ -24817,9 +24889,10 @@
       <c r="AHS27" s="5"/>
       <c r="AHT27" s="5"/>
       <c r="AHU27" s="5"/>
+      <c r="AHV27" s="5"/>
     </row>
-    <row r="28" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25611,9 +25684,12 @@
       <c r="JD28" s="7">
         <v>729</v>
       </c>
+      <c r="JE28" s="7">
+        <v>751</v>
+      </c>
     </row>
-    <row r="29" spans="1:905" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:906" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26403,9 +26479,12 @@
       <c r="JD29" s="7">
         <v>10464</v>
       </c>
+      <c r="JE29" s="7">
+        <v>10462</v>
+      </c>
     </row>
-    <row r="30" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27195,9 +27274,12 @@
       <c r="JD30" s="7">
         <v>28486</v>
       </c>
+      <c r="JE30" s="7">
+        <v>28188</v>
+      </c>
     </row>
-    <row r="31" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27987,9 +28069,12 @@
       <c r="JD31" s="7">
         <v>101834</v>
       </c>
+      <c r="JE31" s="7">
+        <v>102691</v>
+      </c>
     </row>
-    <row r="32" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28779,9 +28864,12 @@
       <c r="JD32" s="7">
         <v>23647</v>
       </c>
+      <c r="JE32" s="7">
+        <v>23795</v>
+      </c>
     </row>
-    <row r="33" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29571,9 +29659,12 @@
       <c r="JD33" s="7">
         <v>9426</v>
       </c>
+      <c r="JE33" s="7">
+        <v>9441</v>
+      </c>
     </row>
-    <row r="34" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30363,9 +30454,12 @@
       <c r="JD34" s="7">
         <v>43620</v>
       </c>
+      <c r="JE34" s="7">
+        <v>43648</v>
+      </c>
     </row>
-    <row r="35" spans="1:905" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:906" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31155,9 +31249,12 @@
       <c r="JD35" s="7">
         <v>9984</v>
       </c>
+      <c r="JE35" s="7">
+        <v>10143</v>
+      </c>
     </row>
-    <row r="36" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31947,9 +32044,12 @@
       <c r="JD36" s="7">
         <v>50865</v>
       </c>
+      <c r="JE36" s="7">
+        <v>51499</v>
+      </c>
     </row>
-    <row r="37" spans="1:905" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:906" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32739,9 +32839,12 @@
       <c r="JD37" s="7">
         <v>59264</v>
       </c>
+      <c r="JE37" s="7">
+        <v>59922</v>
+      </c>
     </row>
-    <row r="38" spans="1:905" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:906" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33531,9 +33634,12 @@
       <c r="JD38" s="7">
         <v>23369</v>
       </c>
+      <c r="JE38" s="7">
+        <v>23549</v>
+      </c>
     </row>
-    <row r="39" spans="1:905" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:906" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34323,9 +34429,12 @@
       <c r="JD39" s="7">
         <v>22581</v>
       </c>
+      <c r="JE39" s="7">
+        <v>22622</v>
+      </c>
     </row>
-    <row r="40" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35115,9 +35224,12 @@
       <c r="JD40" s="7">
         <v>12143</v>
       </c>
+      <c r="JE40" s="7">
+        <v>12155</v>
+      </c>
     </row>
-    <row r="41" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35907,9 +36019,12 @@
       <c r="JD41" s="7">
         <v>11377</v>
       </c>
+      <c r="JE41" s="7">
+        <v>11740</v>
+      </c>
     </row>
-    <row r="42" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36699,9 +36814,12 @@
       <c r="JD42" s="7">
         <v>42632</v>
       </c>
+      <c r="JE42" s="7">
+        <v>42945</v>
+      </c>
     </row>
-    <row r="43" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37491,9 +37609,12 @@
       <c r="JD43" s="7">
         <v>4997</v>
       </c>
+      <c r="JE43" s="7">
+        <v>5054</v>
+      </c>
     </row>
-    <row r="44" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38283,9 +38404,12 @@
       <c r="JD44" s="7">
         <v>5730</v>
       </c>
+      <c r="JE44" s="7">
+        <v>5790</v>
+      </c>
     </row>
-    <row r="45" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39075,9 +39199,12 @@
       <c r="JD45" s="36">
         <v>6326</v>
       </c>
+      <c r="JE45" s="36">
+        <v>6413</v>
+      </c>
     </row>
-    <row r="46" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39867,9 +39994,12 @@
       <c r="JD46" s="7">
         <v>12528</v>
       </c>
+      <c r="JE46" s="7">
+        <v>12171</v>
+      </c>
     </row>
-    <row r="47" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40659,9 +40789,12 @@
       <c r="JD47" s="7">
         <v>1693</v>
       </c>
+      <c r="JE47" s="7">
+        <v>1669</v>
+      </c>
     </row>
-    <row r="48" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41451,10 +41584,12 @@
         <v>480063</v>
       </c>
       <c r="JD48" s="10">
-        <f>SUM(JD28:JD47)</f>
         <v>481695</v>
       </c>
-      <c r="JE48" s="29"/>
+      <c r="JE48" s="10">
+        <f>SUM(JE28:JE47)</f>
+        <v>484648</v>
+      </c>
       <c r="JF48" s="29"/>
       <c r="JG48" s="29"/>
       <c r="JH48" s="29"/>
@@ -41914,7 +42049,7 @@
       <c r="AAT48" s="29"/>
       <c r="AAU48" s="29"/>
       <c r="AAV48" s="29"/>
-      <c r="AAW48" s="5"/>
+      <c r="AAW48" s="29"/>
       <c r="AAX48" s="5"/>
       <c r="AAY48" s="5"/>
       <c r="AAZ48" s="5"/>
@@ -42095,9 +42230,10 @@
       <c r="AHS48" s="5"/>
       <c r="AHT48" s="5"/>
       <c r="AHU48" s="5"/>
+      <c r="AHV48" s="5"/>
     </row>
-    <row r="49" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42889,9 +43025,12 @@
       <c r="JD49" s="7">
         <v>18</v>
       </c>
+      <c r="JE49" s="7">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:264" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43681,9 +43820,12 @@
       <c r="JD50" s="7">
         <v>1</v>
       </c>
+      <c r="JE50" s="7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="1:264" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:265" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44473,9 +44615,12 @@
       <c r="JD51" s="7">
         <v>1492</v>
       </c>
+      <c r="JE51" s="7">
+        <v>1487</v>
+      </c>
     </row>
-    <row r="52" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -45265,9 +45410,12 @@
       <c r="JD52" s="7">
         <v>1109</v>
       </c>
+      <c r="JE52" s="7">
+        <v>1138</v>
+      </c>
     </row>
-    <row r="53" spans="1:264" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46057,12 +46205,15 @@
         <v>2640</v>
       </c>
       <c r="JD53" s="10">
-        <f>SUM(JD49:JD52)</f>
         <v>2620</v>
       </c>
+      <c r="JE53" s="10">
+        <f>SUM(JE49:JE52)</f>
+        <v>2646</v>
+      </c>
     </row>
-    <row r="54" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46854,9 +47005,12 @@
       <c r="JD54" s="7">
         <v>5839</v>
       </c>
+      <c r="JE54" s="7">
+        <v>5840</v>
+      </c>
     </row>
-    <row r="55" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -47646,9 +47800,12 @@
       <c r="JD55" s="7">
         <v>50033</v>
       </c>
+      <c r="JE55" s="7">
+        <v>50815</v>
+      </c>
     </row>
-    <row r="56" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+    <row r="56" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -48438,9 +48595,12 @@
       <c r="JD56" s="7">
         <v>6796</v>
       </c>
+      <c r="JE56" s="7">
+        <v>6894</v>
+      </c>
     </row>
-    <row r="57" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -49230,9 +49390,12 @@
       <c r="JD57" s="7">
         <v>186484</v>
       </c>
+      <c r="JE57" s="7">
+        <v>188354</v>
+      </c>
     </row>
-    <row r="58" spans="1:264" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -50022,9 +50185,12 @@
       <c r="JD58" s="7">
         <v>30309</v>
       </c>
+      <c r="JE58" s="7">
+        <v>31202</v>
+      </c>
     </row>
-    <row r="59" spans="1:264" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+    <row r="59" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50814,9 +50980,12 @@
       <c r="JD59" s="36">
         <v>5818</v>
       </c>
+      <c r="JE59" s="36">
+        <v>5727</v>
+      </c>
     </row>
-    <row r="60" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -51606,9 +51775,12 @@
       <c r="JD60" s="7">
         <v>47599</v>
       </c>
+      <c r="JE60" s="7">
+        <v>48176</v>
+      </c>
     </row>
-    <row r="61" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+    <row r="61" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -52398,9 +52570,12 @@
       <c r="JD61" s="37">
         <v>131</v>
       </c>
+      <c r="JE61" s="37">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+    <row r="62" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -53190,9 +53365,12 @@
       <c r="JD62" s="7">
         <v>19920</v>
       </c>
+      <c r="JE62" s="7">
+        <v>19989</v>
+      </c>
     </row>
-    <row r="63" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+    <row r="63" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53982,9 +54160,12 @@
       <c r="JD63" s="7">
         <v>32979</v>
       </c>
+      <c r="JE63" s="7">
+        <v>33269</v>
+      </c>
     </row>
-    <row r="64" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+    <row r="64" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54774,9 +54955,12 @@
       <c r="JD64" s="7">
         <v>48359</v>
       </c>
+      <c r="JE64" s="7">
+        <v>48667</v>
+      </c>
     </row>
-    <row r="65" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+    <row r="65" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -55566,9 +55750,12 @@
       <c r="JD65" s="7">
         <v>164520</v>
       </c>
+      <c r="JE65" s="7">
+        <v>163640</v>
+      </c>
     </row>
-    <row r="66" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+    <row r="66" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -56358,9 +56545,12 @@
       <c r="JD66" s="7">
         <v>17107</v>
       </c>
+      <c r="JE66" s="7">
+        <v>17368</v>
+      </c>
     </row>
-    <row r="67" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+    <row r="67" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -57150,9 +57340,12 @@
       <c r="JD67" s="7">
         <v>6310</v>
       </c>
+      <c r="JE67" s="7">
+        <v>6391</v>
+      </c>
     </row>
-    <row r="68" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+    <row r="68" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -57942,10 +58135,12 @@
         <v>619859</v>
       </c>
       <c r="JD68" s="10">
-        <f>SUM(JD54:JD67)</f>
         <v>622204</v>
       </c>
-      <c r="JE68" s="29"/>
+      <c r="JE68" s="10">
+        <f>SUM(JE54:JE67)</f>
+        <v>626463</v>
+      </c>
       <c r="JF68" s="29"/>
       <c r="JG68" s="29"/>
       <c r="JH68" s="29"/>
@@ -58405,7 +58600,7 @@
       <c r="AAT68" s="29"/>
       <c r="AAU68" s="29"/>
       <c r="AAV68" s="29"/>
-      <c r="AAW68" s="5"/>
+      <c r="AAW68" s="29"/>
       <c r="AAX68" s="5"/>
       <c r="AAY68" s="5"/>
       <c r="AAZ68" s="5"/>
@@ -58586,9 +58781,10 @@
       <c r="AHS68" s="5"/>
       <c r="AHT68" s="5"/>
       <c r="AHU68" s="5"/>
+      <c r="AHV68" s="5"/>
     </row>
-    <row r="69" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+    <row r="69" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -59380,9 +59576,12 @@
       <c r="JD69" s="7">
         <v>9569</v>
       </c>
+      <c r="JE69" s="7">
+        <v>9742</v>
+      </c>
     </row>
-    <row r="70" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+    <row r="70" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -60172,9 +60371,12 @@
       <c r="JD70" s="7">
         <v>600</v>
       </c>
+      <c r="JE70" s="7">
+        <v>802</v>
+      </c>
     </row>
-    <row r="71" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+    <row r="71" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -60964,9 +61166,12 @@
       <c r="JD71" s="7">
         <v>30391</v>
       </c>
+      <c r="JE71" s="7">
+        <v>32202</v>
+      </c>
     </row>
-    <row r="72" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+    <row r="72" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -61756,9 +61961,12 @@
       <c r="JD72" s="7">
         <v>3517</v>
       </c>
+      <c r="JE72" s="7">
+        <v>3595</v>
+      </c>
     </row>
-    <row r="73" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+    <row r="73" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -62548,9 +62756,12 @@
       <c r="JD73" s="7">
         <v>532</v>
       </c>
+      <c r="JE73" s="7">
+        <v>656</v>
+      </c>
     </row>
-    <row r="74" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+    <row r="74" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -63340,9 +63551,12 @@
       <c r="JD74" s="7">
         <v>50449</v>
       </c>
+      <c r="JE74" s="7">
+        <v>50875</v>
+      </c>
     </row>
-    <row r="75" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+    <row r="75" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -64132,10 +64346,12 @@
         <v>94275</v>
       </c>
       <c r="JD75" s="10">
-        <f>SUM(JD69:JD74)</f>
         <v>95058</v>
       </c>
-      <c r="JE75" s="29"/>
+      <c r="JE75" s="10">
+        <f>SUM(JE69:JE74)</f>
+        <v>97872</v>
+      </c>
       <c r="JF75" s="29"/>
       <c r="JG75" s="29"/>
       <c r="JH75" s="29"/>
@@ -64595,7 +64811,7 @@
       <c r="AAT75" s="29"/>
       <c r="AAU75" s="29"/>
       <c r="AAV75" s="29"/>
-      <c r="AAW75" s="5"/>
+      <c r="AAW75" s="29"/>
       <c r="AAX75" s="5"/>
       <c r="AAY75" s="5"/>
       <c r="AAZ75" s="5"/>
@@ -64776,8 +64992,9 @@
       <c r="AHS75" s="5"/>
       <c r="AHT75" s="5"/>
       <c r="AHU75" s="5"/>
+      <c r="AHV75" s="5"/>
     </row>
-    <row r="76" spans="1:905" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:906" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -65569,12 +65786,15 @@
         <v>1847731</v>
       </c>
       <c r="JD76" s="19">
-        <f>JD11+JD21+JD24+JD27+JD48+JD53+JD68+JD75</f>
         <v>1858235</v>
       </c>
-      <c r="JE76" s="35"/>
+      <c r="JE76" s="19">
+        <f>JE11+JE21+JE24+JE27+JE48+JE53+JE68+JE75</f>
+        <v>1873476</v>
+      </c>
+      <c r="JF76" s="35"/>
     </row>
-    <row r="77" spans="1:905" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:906" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -65834,7 +66054,7 @@
       <c r="JB77" s="30"/>
       <c r="JC77" s="30"/>
       <c r="JD77" s="30"/>
-      <c r="JE77" s="27"/>
+      <c r="JE77" s="30"/>
       <c r="JF77" s="27"/>
       <c r="JG77" s="27"/>
       <c r="JH77" s="27"/>
@@ -66294,34 +66514,15 @@
       <c r="AAT77" s="27"/>
       <c r="AAU77" s="27"/>
       <c r="AAV77" s="27"/>
+      <c r="AAW77" s="27"/>
     </row>
-    <row r="78" spans="1:905" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:906" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:JD4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -66334,6 +66535,26 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JE4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="340">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1060,6 +1060,9 @@
   <si>
     <t>2021/Noviembre</t>
   </si>
+  <si>
+    <t>2021/Diciembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1664,7 +1667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1768,7 +1771,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1777,15 +1794,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2142,11 +2150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHV78"/>
+  <dimension ref="A1:AHW78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="JH78" sqref="JH78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,340 +2416,340 @@
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
-    <col min="263" max="264" width="16.140625" style="4" customWidth="1"/>
-    <col min="265" max="265" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="266" max="267" width="10.85546875" style="28"/>
-    <col min="268" max="268" width="33.85546875" style="28" customWidth="1"/>
-    <col min="269" max="725" width="10.85546875" style="28"/>
-    <col min="726" max="906" width="10.85546875" style="4"/>
-    <col min="907" max="16384" width="10.85546875" style="3"/>
+    <col min="263" max="265" width="16.140625" style="4" customWidth="1"/>
+    <col min="266" max="266" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="268" width="10.85546875" style="28"/>
+    <col min="269" max="269" width="33.85546875" style="28" customWidth="1"/>
+    <col min="270" max="726" width="10.85546875" style="28"/>
+    <col min="727" max="907" width="10.85546875" style="4"/>
+    <col min="908" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:906" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:906" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:906" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="40">
         <v>2000</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40">
         <v>2001</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40">
         <v>2002</v>
       </c>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40">
         <v>2003</v>
       </c>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41">
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41">
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40">
         <v>2005</v>
       </c>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41">
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40"/>
+      <c r="BQ4" s="40"/>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="40"/>
+      <c r="BV4" s="40"/>
+      <c r="BW4" s="40">
         <v>2006</v>
       </c>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41">
+      <c r="BX4" s="40"/>
+      <c r="BY4" s="40"/>
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
+      <c r="CC4" s="40"/>
+      <c r="CD4" s="40"/>
+      <c r="CE4" s="40"/>
+      <c r="CF4" s="40"/>
+      <c r="CG4" s="40"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="40">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41"/>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41">
+      <c r="CJ4" s="40"/>
+      <c r="CK4" s="40"/>
+      <c r="CL4" s="40"/>
+      <c r="CM4" s="40"/>
+      <c r="CN4" s="40"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="40"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="40"/>
+      <c r="CS4" s="40"/>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="40">
         <v>2008</v>
       </c>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41"/>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41">
+      <c r="CV4" s="40"/>
+      <c r="CW4" s="40"/>
+      <c r="CX4" s="40"/>
+      <c r="CY4" s="40"/>
+      <c r="CZ4" s="40"/>
+      <c r="DA4" s="40"/>
+      <c r="DB4" s="40"/>
+      <c r="DC4" s="40"/>
+      <c r="DD4" s="40"/>
+      <c r="DE4" s="40"/>
+      <c r="DF4" s="40"/>
+      <c r="DG4" s="40">
         <v>2009</v>
       </c>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41"/>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41"/>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41"/>
-      <c r="DS4" s="41">
+      <c r="DH4" s="40"/>
+      <c r="DI4" s="40"/>
+      <c r="DJ4" s="40"/>
+      <c r="DK4" s="40"/>
+      <c r="DL4" s="40"/>
+      <c r="DM4" s="40"/>
+      <c r="DN4" s="40"/>
+      <c r="DO4" s="40"/>
+      <c r="DP4" s="40"/>
+      <c r="DQ4" s="40"/>
+      <c r="DR4" s="40"/>
+      <c r="DS4" s="40">
         <v>2010</v>
       </c>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41"/>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
-      <c r="ED4" s="41"/>
-      <c r="EE4" s="41">
+      <c r="DT4" s="40"/>
+      <c r="DU4" s="40"/>
+      <c r="DV4" s="40"/>
+      <c r="DW4" s="40"/>
+      <c r="DX4" s="40"/>
+      <c r="DY4" s="40"/>
+      <c r="DZ4" s="40"/>
+      <c r="EA4" s="40"/>
+      <c r="EB4" s="40"/>
+      <c r="EC4" s="40"/>
+      <c r="ED4" s="40"/>
+      <c r="EE4" s="40">
         <v>2011</v>
       </c>
-      <c r="EF4" s="41"/>
-      <c r="EG4" s="41"/>
-      <c r="EH4" s="41"/>
-      <c r="EI4" s="41"/>
-      <c r="EJ4" s="41"/>
-      <c r="EK4" s="41"/>
-      <c r="EL4" s="41"/>
-      <c r="EM4" s="41"/>
-      <c r="EN4" s="41"/>
-      <c r="EO4" s="41"/>
-      <c r="EP4" s="41"/>
-      <c r="EQ4" s="41">
+      <c r="EF4" s="40"/>
+      <c r="EG4" s="40"/>
+      <c r="EH4" s="40"/>
+      <c r="EI4" s="40"/>
+      <c r="EJ4" s="40"/>
+      <c r="EK4" s="40"/>
+      <c r="EL4" s="40"/>
+      <c r="EM4" s="40"/>
+      <c r="EN4" s="40"/>
+      <c r="EO4" s="40"/>
+      <c r="EP4" s="40"/>
+      <c r="EQ4" s="40">
         <v>2012</v>
       </c>
-      <c r="ER4" s="41"/>
-      <c r="ES4" s="41"/>
-      <c r="ET4" s="41"/>
-      <c r="EU4" s="41"/>
-      <c r="EV4" s="41"/>
-      <c r="EW4" s="41"/>
-      <c r="EX4" s="41"/>
-      <c r="EY4" s="41"/>
-      <c r="EZ4" s="41"/>
-      <c r="FA4" s="41"/>
-      <c r="FB4" s="41"/>
-      <c r="FC4" s="41">
+      <c r="ER4" s="40"/>
+      <c r="ES4" s="40"/>
+      <c r="ET4" s="40"/>
+      <c r="EU4" s="40"/>
+      <c r="EV4" s="40"/>
+      <c r="EW4" s="40"/>
+      <c r="EX4" s="40"/>
+      <c r="EY4" s="40"/>
+      <c r="EZ4" s="40"/>
+      <c r="FA4" s="40"/>
+      <c r="FB4" s="40"/>
+      <c r="FC4" s="40">
         <v>2013</v>
       </c>
-      <c r="FD4" s="41"/>
-      <c r="FE4" s="41"/>
-      <c r="FF4" s="41"/>
-      <c r="FG4" s="41"/>
-      <c r="FH4" s="41"/>
-      <c r="FI4" s="41"/>
-      <c r="FJ4" s="41"/>
-      <c r="FK4" s="41"/>
-      <c r="FL4" s="41"/>
-      <c r="FM4" s="41"/>
-      <c r="FN4" s="41"/>
-      <c r="FO4" s="41">
+      <c r="FD4" s="40"/>
+      <c r="FE4" s="40"/>
+      <c r="FF4" s="40"/>
+      <c r="FG4" s="40"/>
+      <c r="FH4" s="40"/>
+      <c r="FI4" s="40"/>
+      <c r="FJ4" s="40"/>
+      <c r="FK4" s="40"/>
+      <c r="FL4" s="40"/>
+      <c r="FM4" s="40"/>
+      <c r="FN4" s="40"/>
+      <c r="FO4" s="40">
         <v>2014</v>
       </c>
-      <c r="FP4" s="41"/>
-      <c r="FQ4" s="41"/>
-      <c r="FR4" s="41"/>
-      <c r="FS4" s="41"/>
-      <c r="FT4" s="41"/>
-      <c r="FU4" s="41"/>
-      <c r="FV4" s="41"/>
-      <c r="FW4" s="41"/>
-      <c r="FX4" s="41"/>
-      <c r="FY4" s="41"/>
-      <c r="FZ4" s="41"/>
-      <c r="GA4" s="41">
+      <c r="FP4" s="40"/>
+      <c r="FQ4" s="40"/>
+      <c r="FR4" s="40"/>
+      <c r="FS4" s="40"/>
+      <c r="FT4" s="40"/>
+      <c r="FU4" s="40"/>
+      <c r="FV4" s="40"/>
+      <c r="FW4" s="40"/>
+      <c r="FX4" s="40"/>
+      <c r="FY4" s="40"/>
+      <c r="FZ4" s="40"/>
+      <c r="GA4" s="40">
         <v>2015</v>
       </c>
-      <c r="GB4" s="41"/>
-      <c r="GC4" s="41"/>
-      <c r="GD4" s="41"/>
-      <c r="GE4" s="41"/>
-      <c r="GF4" s="41"/>
-      <c r="GG4" s="41"/>
-      <c r="GH4" s="41"/>
-      <c r="GI4" s="41"/>
-      <c r="GJ4" s="41"/>
-      <c r="GK4" s="41"/>
-      <c r="GL4" s="41"/>
-      <c r="GM4" s="41">
+      <c r="GB4" s="40"/>
+      <c r="GC4" s="40"/>
+      <c r="GD4" s="40"/>
+      <c r="GE4" s="40"/>
+      <c r="GF4" s="40"/>
+      <c r="GG4" s="40"/>
+      <c r="GH4" s="40"/>
+      <c r="GI4" s="40"/>
+      <c r="GJ4" s="40"/>
+      <c r="GK4" s="40"/>
+      <c r="GL4" s="40"/>
+      <c r="GM4" s="40">
         <v>2016</v>
       </c>
-      <c r="GN4" s="41"/>
-      <c r="GO4" s="41"/>
-      <c r="GP4" s="41"/>
-      <c r="GQ4" s="41"/>
-      <c r="GR4" s="41"/>
-      <c r="GS4" s="41"/>
-      <c r="GT4" s="41"/>
-      <c r="GU4" s="41"/>
-      <c r="GV4" s="41"/>
-      <c r="GW4" s="41"/>
-      <c r="GX4" s="41"/>
-      <c r="GY4" s="41">
+      <c r="GN4" s="40"/>
+      <c r="GO4" s="40"/>
+      <c r="GP4" s="40"/>
+      <c r="GQ4" s="40"/>
+      <c r="GR4" s="40"/>
+      <c r="GS4" s="40"/>
+      <c r="GT4" s="40"/>
+      <c r="GU4" s="40"/>
+      <c r="GV4" s="40"/>
+      <c r="GW4" s="40"/>
+      <c r="GX4" s="40"/>
+      <c r="GY4" s="40">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="41"/>
-      <c r="HA4" s="41"/>
-      <c r="HB4" s="41"/>
-      <c r="HC4" s="41"/>
-      <c r="HD4" s="41"/>
-      <c r="HE4" s="41"/>
-      <c r="HF4" s="41"/>
-      <c r="HG4" s="41"/>
-      <c r="HH4" s="41"/>
-      <c r="HI4" s="41"/>
-      <c r="HJ4" s="41"/>
-      <c r="HK4" s="41">
+      <c r="GZ4" s="40"/>
+      <c r="HA4" s="40"/>
+      <c r="HB4" s="40"/>
+      <c r="HC4" s="40"/>
+      <c r="HD4" s="40"/>
+      <c r="HE4" s="40"/>
+      <c r="HF4" s="40"/>
+      <c r="HG4" s="40"/>
+      <c r="HH4" s="40"/>
+      <c r="HI4" s="40"/>
+      <c r="HJ4" s="40"/>
+      <c r="HK4" s="40">
         <v>2018</v>
       </c>
-      <c r="HL4" s="41"/>
-      <c r="HM4" s="41"/>
-      <c r="HN4" s="41"/>
-      <c r="HO4" s="41"/>
-      <c r="HP4" s="41"/>
-      <c r="HQ4" s="41"/>
-      <c r="HR4" s="41"/>
-      <c r="HS4" s="41"/>
-      <c r="HT4" s="41"/>
-      <c r="HU4" s="41"/>
-      <c r="HV4" s="41"/>
-      <c r="HW4" s="41">
+      <c r="HL4" s="40"/>
+      <c r="HM4" s="40"/>
+      <c r="HN4" s="40"/>
+      <c r="HO4" s="40"/>
+      <c r="HP4" s="40"/>
+      <c r="HQ4" s="40"/>
+      <c r="HR4" s="40"/>
+      <c r="HS4" s="40"/>
+      <c r="HT4" s="40"/>
+      <c r="HU4" s="40"/>
+      <c r="HV4" s="40"/>
+      <c r="HW4" s="40">
         <v>2019</v>
       </c>
-      <c r="HX4" s="41"/>
-      <c r="HY4" s="41"/>
-      <c r="HZ4" s="41"/>
-      <c r="IA4" s="41"/>
-      <c r="IB4" s="41"/>
-      <c r="IC4" s="41"/>
-      <c r="ID4" s="41"/>
-      <c r="IE4" s="41"/>
-      <c r="IF4" s="41"/>
-      <c r="IG4" s="41"/>
-      <c r="IH4" s="38"/>
-      <c r="II4" s="38">
+      <c r="HX4" s="40"/>
+      <c r="HY4" s="40"/>
+      <c r="HZ4" s="40"/>
+      <c r="IA4" s="40"/>
+      <c r="IB4" s="40"/>
+      <c r="IC4" s="40"/>
+      <c r="ID4" s="40"/>
+      <c r="IE4" s="40"/>
+      <c r="IF4" s="40"/>
+      <c r="IG4" s="40"/>
+      <c r="IH4" s="42"/>
+      <c r="II4" s="42">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="39"/>
-      <c r="IK4" s="39"/>
-      <c r="IL4" s="39"/>
-      <c r="IM4" s="39"/>
-      <c r="IN4" s="39"/>
-      <c r="IO4" s="39"/>
-      <c r="IP4" s="39"/>
-      <c r="IQ4" s="39"/>
-      <c r="IR4" s="39"/>
-      <c r="IS4" s="39"/>
-      <c r="IT4" s="40"/>
-      <c r="IU4" s="38">
+      <c r="IJ4" s="43"/>
+      <c r="IK4" s="43"/>
+      <c r="IL4" s="43"/>
+      <c r="IM4" s="43"/>
+      <c r="IN4" s="43"/>
+      <c r="IO4" s="43"/>
+      <c r="IP4" s="43"/>
+      <c r="IQ4" s="43"/>
+      <c r="IR4" s="43"/>
+      <c r="IS4" s="43"/>
+      <c r="IT4" s="44"/>
+      <c r="IU4" s="42">
         <v>2021</v>
       </c>
-      <c r="IV4" s="39"/>
-      <c r="IW4" s="39"/>
-      <c r="IX4" s="39"/>
-      <c r="IY4" s="39"/>
-      <c r="IZ4" s="39"/>
-      <c r="JA4" s="39"/>
-      <c r="JB4" s="39"/>
-      <c r="JC4" s="39"/>
-      <c r="JD4" s="39"/>
-      <c r="JE4" s="40"/>
-      <c r="JF4" s="29"/>
+      <c r="IV4" s="43"/>
+      <c r="IW4" s="43"/>
+      <c r="IX4" s="43"/>
+      <c r="IY4" s="43"/>
+      <c r="IZ4" s="43"/>
+      <c r="JA4" s="43"/>
+      <c r="JB4" s="43"/>
+      <c r="JC4" s="43"/>
+      <c r="JD4" s="43"/>
+      <c r="JE4" s="43"/>
+      <c r="JF4" s="44"/>
       <c r="JG4" s="29"/>
       <c r="JH4" s="29"/>
       <c r="JI4" s="29"/>
@@ -3201,7 +3209,7 @@
       <c r="AAU4" s="29"/>
       <c r="AAV4" s="29"/>
       <c r="AAW4" s="29"/>
-      <c r="AAX4" s="5"/>
+      <c r="AAX4" s="29"/>
       <c r="AAY4" s="5"/>
       <c r="AAZ4" s="5"/>
       <c r="ABA4" s="5"/>
@@ -3382,10 +3390,11 @@
       <c r="AHT4" s="5"/>
       <c r="AHU4" s="5"/>
       <c r="AHV4" s="5"/>
+      <c r="AHW4" s="5"/>
     </row>
-    <row r="5" spans="1:906" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="43"/>
+    <row r="5" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4175,7 +4184,9 @@
       <c r="JE5" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="JF5" s="29"/>
+      <c r="JF5" s="31" t="s">
+        <v>339</v>
+      </c>
       <c r="JG5" s="29"/>
       <c r="JH5" s="29"/>
       <c r="JI5" s="29"/>
@@ -4635,7 +4646,7 @@
       <c r="AAU5" s="29"/>
       <c r="AAV5" s="29"/>
       <c r="AAW5" s="29"/>
-      <c r="AAX5" s="5"/>
+      <c r="AAX5" s="29"/>
       <c r="AAY5" s="5"/>
       <c r="AAZ5" s="5"/>
       <c r="ABA5" s="5"/>
@@ -4816,9 +4827,10 @@
       <c r="AHT5" s="5"/>
       <c r="AHU5" s="5"/>
       <c r="AHV5" s="5"/>
+      <c r="AHW5" s="5"/>
     </row>
-    <row r="6" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5613,9 +5625,12 @@
       <c r="JE6" s="7">
         <v>94695</v>
       </c>
+      <c r="JF6" s="7">
+        <v>92102</v>
+      </c>
     </row>
-    <row r="7" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6408,9 +6423,12 @@
       <c r="JE7" s="7">
         <v>47</v>
       </c>
+      <c r="JF7" s="7">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+    <row r="8" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7203,9 +7221,12 @@
       <c r="JE8" s="7">
         <v>23541</v>
       </c>
+      <c r="JF8" s="7">
+        <v>23294</v>
+      </c>
     </row>
-    <row r="9" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+    <row r="9" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7998,9 +8019,12 @@
       <c r="JE9" s="7">
         <v>547</v>
       </c>
+      <c r="JF9" s="7">
+        <v>439</v>
+      </c>
     </row>
-    <row r="10" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8793,9 +8817,12 @@
       <c r="JE10" s="7">
         <v>390</v>
       </c>
+      <c r="JF10" s="7">
+        <v>367</v>
+      </c>
     </row>
-    <row r="11" spans="1:906" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9588,10 +9615,12 @@
         <v>117212</v>
       </c>
       <c r="JE11" s="10">
-        <f>SUM(JE6:JE10)</f>
         <v>119220</v>
       </c>
-      <c r="JF11" s="29"/>
+      <c r="JF11" s="10">
+        <f>SUM(JF6:JF10)</f>
+        <v>116251</v>
+      </c>
       <c r="JG11" s="29"/>
       <c r="JH11" s="29"/>
       <c r="JI11" s="29"/>
@@ -10051,7 +10080,7 @@
       <c r="AAU11" s="29"/>
       <c r="AAV11" s="29"/>
       <c r="AAW11" s="29"/>
-      <c r="AAX11" s="5"/>
+      <c r="AAX11" s="29"/>
       <c r="AAY11" s="5"/>
       <c r="AAZ11" s="5"/>
       <c r="ABA11" s="5"/>
@@ -10232,9 +10261,10 @@
       <c r="AHT11" s="5"/>
       <c r="AHU11" s="5"/>
       <c r="AHV11" s="5"/>
+      <c r="AHW11" s="5"/>
     </row>
-    <row r="12" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11029,9 +11059,12 @@
       <c r="JE12" s="7">
         <v>77795</v>
       </c>
+      <c r="JF12" s="7">
+        <v>76849</v>
+      </c>
     </row>
-    <row r="13" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11824,9 +11857,12 @@
       <c r="JE13" s="7">
         <v>20104</v>
       </c>
+      <c r="JF13" s="7">
+        <v>19911</v>
+      </c>
     </row>
-    <row r="14" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+    <row r="14" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12619,9 +12655,12 @@
       <c r="JE14" s="7">
         <v>29623</v>
       </c>
+      <c r="JF14" s="7">
+        <v>32156</v>
+      </c>
     </row>
-    <row r="15" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13414,9 +13453,12 @@
       <c r="JE15" s="7">
         <v>23376</v>
       </c>
+      <c r="JF15" s="7">
+        <v>23100</v>
+      </c>
     </row>
-    <row r="16" spans="1:906" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:907" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14209,9 +14251,12 @@
       <c r="JE16" s="7">
         <v>17829</v>
       </c>
+      <c r="JF16" s="7">
+        <v>17578</v>
+      </c>
     </row>
-    <row r="17" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15004,9 +15049,12 @@
       <c r="JE17" s="7">
         <v>47239</v>
       </c>
+      <c r="JF17" s="7">
+        <v>46749</v>
+      </c>
     </row>
-    <row r="18" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+    <row r="18" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15799,9 +15847,12 @@
       <c r="JE18" s="7">
         <v>58545</v>
       </c>
+      <c r="JF18" s="7">
+        <v>58238</v>
+      </c>
     </row>
-    <row r="19" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+    <row r="19" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16594,9 +16645,12 @@
       <c r="JE19" s="7">
         <v>68121</v>
       </c>
+      <c r="JF19" s="7">
+        <v>67643</v>
+      </c>
     </row>
-    <row r="20" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+    <row r="20" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17389,9 +17443,12 @@
       <c r="JE20" s="7">
         <v>48602</v>
       </c>
+      <c r="JF20" s="7">
+        <v>46725</v>
+      </c>
     </row>
-    <row r="21" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+    <row r="21" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18184,10 +18241,12 @@
         <v>388373</v>
       </c>
       <c r="JE21" s="10">
-        <f>SUM(JE12:JE20)</f>
         <v>391234</v>
       </c>
-      <c r="JF21" s="29"/>
+      <c r="JF21" s="10">
+        <f>SUM(JF12:JF20)</f>
+        <v>388949</v>
+      </c>
       <c r="JG21" s="29"/>
       <c r="JH21" s="29"/>
       <c r="JI21" s="29"/>
@@ -18647,7 +18706,7 @@
       <c r="AAU21" s="29"/>
       <c r="AAV21" s="29"/>
       <c r="AAW21" s="29"/>
-      <c r="AAX21" s="5"/>
+      <c r="AAX21" s="29"/>
       <c r="AAY21" s="5"/>
       <c r="AAZ21" s="5"/>
       <c r="ABA21" s="5"/>
@@ -18828,9 +18887,10 @@
       <c r="AHT21" s="5"/>
       <c r="AHU21" s="5"/>
       <c r="AHV21" s="5"/>
+      <c r="AHW21" s="5"/>
     </row>
-    <row r="22" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19625,9 +19685,12 @@
       <c r="JE22" s="7">
         <v>105642</v>
       </c>
+      <c r="JF22" s="7">
+        <v>99351</v>
+      </c>
     </row>
-    <row r="23" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20420,9 +20483,12 @@
       <c r="JE23" s="7">
         <v>36181</v>
       </c>
+      <c r="JF23" s="7">
+        <v>35196</v>
+      </c>
     </row>
-    <row r="24" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21215,10 +21281,12 @@
         <v>141565</v>
       </c>
       <c r="JE24" s="10">
-        <f>SUM(JE22:JE23)</f>
         <v>141823</v>
       </c>
-      <c r="JF24" s="29"/>
+      <c r="JF24" s="10">
+        <f>SUM(JF22:JF23)</f>
+        <v>134547</v>
+      </c>
       <c r="JG24" s="29"/>
       <c r="JH24" s="29"/>
       <c r="JI24" s="29"/>
@@ -21678,7 +21746,7 @@
       <c r="AAU24" s="29"/>
       <c r="AAV24" s="29"/>
       <c r="AAW24" s="29"/>
-      <c r="AAX24" s="5"/>
+      <c r="AAX24" s="29"/>
       <c r="AAY24" s="5"/>
       <c r="AAZ24" s="5"/>
       <c r="ABA24" s="5"/>
@@ -21859,9 +21927,10 @@
       <c r="AHT24" s="5"/>
       <c r="AHU24" s="5"/>
       <c r="AHV24" s="5"/>
+      <c r="AHW24" s="5"/>
     </row>
-    <row r="25" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22656,9 +22725,12 @@
       <c r="JE25" s="7">
         <v>4241</v>
       </c>
+      <c r="JF25" s="7">
+        <v>4039</v>
+      </c>
     </row>
-    <row r="26" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+    <row r="26" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23451,9 +23523,12 @@
       <c r="JE26" s="7">
         <v>5329</v>
       </c>
+      <c r="JF26" s="7">
+        <v>5354</v>
+      </c>
     </row>
-    <row r="27" spans="1:906" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+    <row r="27" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24246,10 +24321,12 @@
         <v>9508</v>
       </c>
       <c r="JE27" s="10">
-        <f>SUM(JE25:JE26)</f>
         <v>9570</v>
       </c>
-      <c r="JF27" s="29"/>
+      <c r="JF27" s="10">
+        <f>SUM(JF25:JF26)</f>
+        <v>9393</v>
+      </c>
       <c r="JG27" s="29"/>
       <c r="JH27" s="29"/>
       <c r="JI27" s="29"/>
@@ -24709,7 +24786,7 @@
       <c r="AAU27" s="29"/>
       <c r="AAV27" s="29"/>
       <c r="AAW27" s="29"/>
-      <c r="AAX27" s="5"/>
+      <c r="AAX27" s="29"/>
       <c r="AAY27" s="5"/>
       <c r="AAZ27" s="5"/>
       <c r="ABA27" s="5"/>
@@ -24890,9 +24967,10 @@
       <c r="AHT27" s="5"/>
       <c r="AHU27" s="5"/>
       <c r="AHV27" s="5"/>
+      <c r="AHW27" s="5"/>
     </row>
-    <row r="28" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25687,9 +25765,12 @@
       <c r="JE28" s="7">
         <v>751</v>
       </c>
+      <c r="JF28" s="7">
+        <v>743</v>
+      </c>
     </row>
-    <row r="29" spans="1:906" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+    <row r="29" spans="1:907" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26482,9 +26563,12 @@
       <c r="JE29" s="7">
         <v>10462</v>
       </c>
+      <c r="JF29" s="7">
+        <v>10327</v>
+      </c>
     </row>
-    <row r="30" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+    <row r="30" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27277,9 +27361,12 @@
       <c r="JE30" s="7">
         <v>28188</v>
       </c>
+      <c r="JF30" s="7">
+        <v>27679</v>
+      </c>
     </row>
-    <row r="31" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+    <row r="31" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28072,9 +28159,12 @@
       <c r="JE31" s="7">
         <v>102691</v>
       </c>
+      <c r="JF31" s="7">
+        <v>102075</v>
+      </c>
     </row>
-    <row r="32" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28867,9 +28957,12 @@
       <c r="JE32" s="7">
         <v>23795</v>
       </c>
+      <c r="JF32" s="7">
+        <v>23605</v>
+      </c>
     </row>
-    <row r="33" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+    <row r="33" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29662,9 +29755,12 @@
       <c r="JE33" s="7">
         <v>9441</v>
       </c>
+      <c r="JF33" s="7">
+        <v>9308</v>
+      </c>
     </row>
-    <row r="34" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+    <row r="34" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30457,9 +30553,12 @@
       <c r="JE34" s="7">
         <v>43648</v>
       </c>
+      <c r="JF34" s="7">
+        <v>42684</v>
+      </c>
     </row>
-    <row r="35" spans="1:906" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+    <row r="35" spans="1:907" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31252,9 +31351,12 @@
       <c r="JE35" s="7">
         <v>10143</v>
       </c>
+      <c r="JF35" s="7">
+        <v>9998</v>
+      </c>
     </row>
-    <row r="36" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+    <row r="36" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32047,9 +32149,12 @@
       <c r="JE36" s="7">
         <v>51499</v>
       </c>
+      <c r="JF36" s="7">
+        <v>50787</v>
+      </c>
     </row>
-    <row r="37" spans="1:906" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+    <row r="37" spans="1:907" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32842,9 +32947,12 @@
       <c r="JE37" s="7">
         <v>59922</v>
       </c>
+      <c r="JF37" s="7">
+        <v>60651</v>
+      </c>
     </row>
-    <row r="38" spans="1:906" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+    <row r="38" spans="1:907" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33637,9 +33745,12 @@
       <c r="JE38" s="7">
         <v>23549</v>
       </c>
+      <c r="JF38" s="7">
+        <v>23069</v>
+      </c>
     </row>
-    <row r="39" spans="1:906" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+    <row r="39" spans="1:907" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34432,9 +34543,12 @@
       <c r="JE39" s="7">
         <v>22622</v>
       </c>
+      <c r="JF39" s="7">
+        <v>22659</v>
+      </c>
     </row>
-    <row r="40" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+    <row r="40" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35227,9 +35341,12 @@
       <c r="JE40" s="7">
         <v>12155</v>
       </c>
+      <c r="JF40" s="7">
+        <v>11913</v>
+      </c>
     </row>
-    <row r="41" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+    <row r="41" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36022,9 +36139,12 @@
       <c r="JE41" s="7">
         <v>11740</v>
       </c>
+      <c r="JF41" s="7">
+        <v>11688</v>
+      </c>
     </row>
-    <row r="42" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+    <row r="42" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36817,9 +36937,12 @@
       <c r="JE42" s="7">
         <v>42945</v>
       </c>
+      <c r="JF42" s="7">
+        <v>42672</v>
+      </c>
     </row>
-    <row r="43" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+    <row r="43" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37612,9 +37735,12 @@
       <c r="JE43" s="7">
         <v>5054</v>
       </c>
+      <c r="JF43" s="7">
+        <v>5025</v>
+      </c>
     </row>
-    <row r="44" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+    <row r="44" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38407,9 +38533,12 @@
       <c r="JE44" s="7">
         <v>5790</v>
       </c>
+      <c r="JF44" s="7">
+        <v>5678</v>
+      </c>
     </row>
-    <row r="45" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+    <row r="45" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39193,18 +39322,21 @@
       <c r="JB45" s="30">
         <v>6578</v>
       </c>
-      <c r="JC45" s="36">
+      <c r="JC45" s="37">
         <v>6305</v>
       </c>
-      <c r="JD45" s="36">
+      <c r="JD45" s="37">
         <v>6326</v>
       </c>
-      <c r="JE45" s="36">
+      <c r="JE45" s="37">
         <v>6413</v>
       </c>
+      <c r="JF45" s="37">
+        <v>6324</v>
+      </c>
     </row>
-    <row r="46" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+    <row r="46" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39997,9 +40129,12 @@
       <c r="JE46" s="7">
         <v>12171</v>
       </c>
+      <c r="JF46" s="7">
+        <v>12129</v>
+      </c>
     </row>
-    <row r="47" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+    <row r="47" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40792,9 +40927,12 @@
       <c r="JE47" s="7">
         <v>1669</v>
       </c>
+      <c r="JF47" s="7">
+        <v>1646</v>
+      </c>
     </row>
-    <row r="48" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+    <row r="48" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41587,10 +41725,12 @@
         <v>481695</v>
       </c>
       <c r="JE48" s="10">
-        <f>SUM(JE28:JE47)</f>
         <v>484648</v>
       </c>
-      <c r="JF48" s="29"/>
+      <c r="JF48" s="10">
+        <f>SUM(JF28:JF47)</f>
+        <v>480660</v>
+      </c>
       <c r="JG48" s="29"/>
       <c r="JH48" s="29"/>
       <c r="JI48" s="29"/>
@@ -42050,7 +42190,7 @@
       <c r="AAU48" s="29"/>
       <c r="AAV48" s="29"/>
       <c r="AAW48" s="29"/>
-      <c r="AAX48" s="5"/>
+      <c r="AAX48" s="29"/>
       <c r="AAY48" s="5"/>
       <c r="AAZ48" s="5"/>
       <c r="ABA48" s="5"/>
@@ -42231,9 +42371,10 @@
       <c r="AHT48" s="5"/>
       <c r="AHU48" s="5"/>
       <c r="AHV48" s="5"/>
+      <c r="AHW48" s="5"/>
     </row>
-    <row r="49" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43028,9 +43169,12 @@
       <c r="JE49" s="7">
         <v>18</v>
       </c>
+      <c r="JF49" s="7">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+    <row r="50" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43823,9 +43967,12 @@
       <c r="JE50" s="7">
         <v>3</v>
       </c>
+      <c r="JF50" s="7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:265" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+    <row r="51" spans="1:266" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44618,9 +44765,12 @@
       <c r="JE51" s="7">
         <v>1487</v>
       </c>
+      <c r="JF51" s="7">
+        <v>1464</v>
+      </c>
     </row>
-    <row r="52" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -45413,9 +45563,12 @@
       <c r="JE52" s="7">
         <v>1138</v>
       </c>
+      <c r="JF52" s="7">
+        <v>1139</v>
+      </c>
     </row>
-    <row r="53" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+    <row r="53" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46208,12 +46361,15 @@
         <v>2620</v>
       </c>
       <c r="JE53" s="10">
-        <f>SUM(JE49:JE52)</f>
         <v>2646</v>
       </c>
+      <c r="JF53" s="10">
+        <f>SUM(JF49:JF52)</f>
+        <v>2624</v>
+      </c>
     </row>
-    <row r="54" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47008,9 +47164,12 @@
       <c r="JE54" s="7">
         <v>5840</v>
       </c>
+      <c r="JF54" s="7">
+        <v>5833</v>
+      </c>
     </row>
-    <row r="55" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+    <row r="55" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -47803,9 +47962,12 @@
       <c r="JE55" s="7">
         <v>50815</v>
       </c>
+      <c r="JF55" s="7">
+        <v>51400</v>
+      </c>
     </row>
-    <row r="56" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
+    <row r="56" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -48598,9 +48760,12 @@
       <c r="JE56" s="7">
         <v>6894</v>
       </c>
+      <c r="JF56" s="7">
+        <v>6918</v>
+      </c>
     </row>
-    <row r="57" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+    <row r="57" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -49393,9 +49558,12 @@
       <c r="JE57" s="7">
         <v>188354</v>
       </c>
+      <c r="JF57" s="7">
+        <v>188776</v>
+      </c>
     </row>
-    <row r="58" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+    <row r="58" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -50188,9 +50356,12 @@
       <c r="JE58" s="7">
         <v>31202</v>
       </c>
+      <c r="JF58" s="7">
+        <v>31212</v>
+      </c>
     </row>
-    <row r="59" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+    <row r="59" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50983,9 +51154,12 @@
       <c r="JE59" s="36">
         <v>5727</v>
       </c>
+      <c r="JF59" s="36">
+        <v>5726</v>
+      </c>
     </row>
-    <row r="60" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+    <row r="60" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -51778,9 +51952,12 @@
       <c r="JE60" s="7">
         <v>48176</v>
       </c>
+      <c r="JF60" s="7">
+        <v>44444</v>
+      </c>
     </row>
-    <row r="61" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+    <row r="61" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -52564,18 +52741,21 @@
       <c r="JB61" s="7">
         <v>131</v>
       </c>
-      <c r="JC61" s="37">
+      <c r="JC61" s="38">
         <v>131</v>
       </c>
-      <c r="JD61" s="37">
+      <c r="JD61" s="38">
         <v>131</v>
       </c>
-      <c r="JE61" s="37">
+      <c r="JE61" s="38">
         <v>131</v>
       </c>
+      <c r="JF61" s="38">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+    <row r="62" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -53368,9 +53548,12 @@
       <c r="JE62" s="7">
         <v>19989</v>
       </c>
+      <c r="JF62" s="7">
+        <v>19651</v>
+      </c>
     </row>
-    <row r="63" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+    <row r="63" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -54163,9 +54346,12 @@
       <c r="JE63" s="7">
         <v>33269</v>
       </c>
+      <c r="JF63" s="7">
+        <v>33169</v>
+      </c>
     </row>
-    <row r="64" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+    <row r="64" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54958,9 +55144,12 @@
       <c r="JE64" s="7">
         <v>48667</v>
       </c>
+      <c r="JF64" s="7">
+        <v>47992</v>
+      </c>
     </row>
-    <row r="65" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+    <row r="65" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -55753,9 +55942,12 @@
       <c r="JE65" s="7">
         <v>163640</v>
       </c>
+      <c r="JF65" s="7">
+        <v>161092</v>
+      </c>
     </row>
-    <row r="66" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+    <row r="66" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -56548,9 +56740,12 @@
       <c r="JE66" s="7">
         <v>17368</v>
       </c>
+      <c r="JF66" s="7">
+        <v>17621</v>
+      </c>
     </row>
-    <row r="67" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+    <row r="67" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -57343,9 +57538,12 @@
       <c r="JE67" s="7">
         <v>6391</v>
       </c>
+      <c r="JF67" s="7">
+        <v>6355</v>
+      </c>
     </row>
-    <row r="68" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+    <row r="68" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -58138,10 +58336,12 @@
         <v>622204</v>
       </c>
       <c r="JE68" s="10">
-        <f>SUM(JE54:JE67)</f>
         <v>626463</v>
       </c>
-      <c r="JF68" s="29"/>
+      <c r="JF68" s="10">
+        <f>SUM(JF54:JF67)</f>
+        <v>620320</v>
+      </c>
       <c r="JG68" s="29"/>
       <c r="JH68" s="29"/>
       <c r="JI68" s="29"/>
@@ -58601,7 +58801,7 @@
       <c r="AAU68" s="29"/>
       <c r="AAV68" s="29"/>
       <c r="AAW68" s="29"/>
-      <c r="AAX68" s="5"/>
+      <c r="AAX68" s="29"/>
       <c r="AAY68" s="5"/>
       <c r="AAZ68" s="5"/>
       <c r="ABA68" s="5"/>
@@ -58782,9 +58982,10 @@
       <c r="AHT68" s="5"/>
       <c r="AHU68" s="5"/>
       <c r="AHV68" s="5"/>
+      <c r="AHW68" s="5"/>
     </row>
-    <row r="69" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+    <row r="69" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -59579,9 +59780,12 @@
       <c r="JE69" s="7">
         <v>9742</v>
       </c>
+      <c r="JF69" s="7">
+        <v>9734</v>
+      </c>
     </row>
-    <row r="70" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+    <row r="70" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -60374,9 +60578,12 @@
       <c r="JE70" s="7">
         <v>802</v>
       </c>
+      <c r="JF70" s="7">
+        <v>804</v>
+      </c>
     </row>
-    <row r="71" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+    <row r="71" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -61169,9 +61376,12 @@
       <c r="JE71" s="7">
         <v>32202</v>
       </c>
+      <c r="JF71" s="7">
+        <v>31388</v>
+      </c>
     </row>
-    <row r="72" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+    <row r="72" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -61964,9 +62174,12 @@
       <c r="JE72" s="7">
         <v>3595</v>
       </c>
+      <c r="JF72" s="7">
+        <v>3709</v>
+      </c>
     </row>
-    <row r="73" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+    <row r="73" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -62759,9 +62972,12 @@
       <c r="JE73" s="7">
         <v>656</v>
       </c>
+      <c r="JF73" s="7">
+        <v>544</v>
+      </c>
     </row>
-    <row r="74" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+    <row r="74" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -63554,9 +63770,12 @@
       <c r="JE74" s="7">
         <v>50875</v>
       </c>
+      <c r="JF74" s="7">
+        <v>51076</v>
+      </c>
     </row>
-    <row r="75" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+    <row r="75" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -64349,10 +64568,12 @@
         <v>95058</v>
       </c>
       <c r="JE75" s="10">
-        <f>SUM(JE69:JE74)</f>
         <v>97872</v>
       </c>
-      <c r="JF75" s="29"/>
+      <c r="JF75" s="10">
+        <f>SUM(JF69:JF74)</f>
+        <v>97255</v>
+      </c>
       <c r="JG75" s="29"/>
       <c r="JH75" s="29"/>
       <c r="JI75" s="29"/>
@@ -64812,7 +65033,7 @@
       <c r="AAU75" s="29"/>
       <c r="AAV75" s="29"/>
       <c r="AAW75" s="29"/>
-      <c r="AAX75" s="5"/>
+      <c r="AAX75" s="29"/>
       <c r="AAY75" s="5"/>
       <c r="AAZ75" s="5"/>
       <c r="ABA75" s="5"/>
@@ -64993,8 +65214,9 @@
       <c r="AHT75" s="5"/>
       <c r="AHU75" s="5"/>
       <c r="AHV75" s="5"/>
+      <c r="AHW75" s="5"/>
     </row>
-    <row r="76" spans="1:906" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -65789,12 +66011,15 @@
         <v>1858235</v>
       </c>
       <c r="JE76" s="19">
-        <f>JE11+JE21+JE24+JE27+JE48+JE53+JE68+JE75</f>
         <v>1873476</v>
       </c>
-      <c r="JF76" s="35"/>
+      <c r="JF76" s="19">
+        <f>JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <v>1849999</v>
+      </c>
+      <c r="JG76" s="35"/>
     </row>
-    <row r="77" spans="1:906" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:907" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -66055,7 +66280,7 @@
       <c r="JC77" s="30"/>
       <c r="JD77" s="30"/>
       <c r="JE77" s="30"/>
-      <c r="JF77" s="27"/>
+      <c r="JF77" s="30"/>
       <c r="JG77" s="27"/>
       <c r="JH77" s="27"/>
       <c r="JI77" s="27"/>
@@ -66515,14 +66740,35 @@
       <c r="AAU77" s="27"/>
       <c r="AAV77" s="27"/>
       <c r="AAW77" s="27"/>
+      <c r="AAX77" s="27"/>
     </row>
-    <row r="78" spans="1:906" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JF4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -66535,26 +66781,6 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:JE4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="341">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1022,9 +1022,6 @@
     <t>2020/Diciembre</t>
   </si>
   <si>
-    <t>2000-2021</t>
-  </si>
-  <si>
     <t>2021/Enero</t>
   </si>
   <si>
@@ -1062,6 +1059,12 @@
   </si>
   <si>
     <t>2021/Diciembre</t>
+  </si>
+  <si>
+    <t>2000-2022</t>
+  </si>
+  <si>
+    <t>2022/Enero</t>
   </si>
 </sst>
 </file>
@@ -1765,9 +1768,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1776,6 +1776,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2154,7 +2157,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JH78" sqref="JH78"/>
+      <selection pane="topRight" activeCell="JI74" sqref="JI74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,7 +2421,8 @@
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
     <col min="263" max="265" width="16.140625" style="4" customWidth="1"/>
     <col min="266" max="266" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="267" max="268" width="10.85546875" style="28"/>
+    <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="10.85546875" style="28"/>
     <col min="269" max="269" width="33.85546875" style="28" customWidth="1"/>
     <col min="270" max="726" width="10.85546875" style="28"/>
     <col min="727" max="907" width="10.85546875" style="4"/>
@@ -2432,7 +2436,7 @@
     </row>
     <row r="2" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2750,7 +2754,9 @@
       <c r="JD4" s="43"/>
       <c r="JE4" s="43"/>
       <c r="JF4" s="44"/>
-      <c r="JG4" s="29"/>
+      <c r="JG4" s="38">
+        <v>2022</v>
+      </c>
       <c r="JH4" s="29"/>
       <c r="JI4" s="29"/>
       <c r="JJ4" s="29"/>
@@ -4152,42 +4158,44 @@
         <v>325</v>
       </c>
       <c r="IU5" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="IV5" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="IV5" s="31" t="s">
+      <c r="IW5" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="IW5" s="31" t="s">
-        <v>329</v>
-      </c>
       <c r="IX5" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="IY5" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="IY5" s="31" t="s">
+      <c r="IZ5" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="IZ5" s="31" t="s">
+      <c r="JA5" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="JA5" s="31" t="s">
+      <c r="JB5" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="JB5" s="31" t="s">
+      <c r="JC5" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="JC5" s="31" t="s">
+      <c r="JD5" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="JD5" s="31" t="s">
+      <c r="JE5" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="JE5" s="31" t="s">
+      <c r="JF5" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="JF5" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="JG5" s="29"/>
+      <c r="JG5" s="31" t="s">
+        <v>340</v>
+      </c>
       <c r="JH5" s="29"/>
       <c r="JI5" s="29"/>
       <c r="JJ5" s="29"/>
@@ -4834,7 +4842,7 @@
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="7">
         <v>32977</v>
@@ -5627,6 +5635,9 @@
       </c>
       <c r="JF6" s="7">
         <v>92102</v>
+      </c>
+      <c r="JG6" s="7">
+        <v>97140</v>
       </c>
     </row>
     <row r="7" spans="1:907" x14ac:dyDescent="0.25">
@@ -6426,6 +6437,9 @@
       <c r="JF7" s="7">
         <v>49</v>
       </c>
+      <c r="JG7" s="8">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
@@ -7224,6 +7238,9 @@
       <c r="JF8" s="7">
         <v>23294</v>
       </c>
+      <c r="JG8" s="7">
+        <v>23545</v>
+      </c>
     </row>
     <row r="9" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
@@ -8022,6 +8039,9 @@
       <c r="JF9" s="7">
         <v>439</v>
       </c>
+      <c r="JG9" s="7">
+        <v>476</v>
+      </c>
     </row>
     <row r="10" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -8820,6 +8840,9 @@
       <c r="JF10" s="7">
         <v>367</v>
       </c>
+      <c r="JG10" s="8">
+        <v>377</v>
+      </c>
     </row>
     <row r="11" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
@@ -9621,7 +9644,10 @@
         <f>SUM(JF6:JF10)</f>
         <v>116251</v>
       </c>
-      <c r="JG11" s="29"/>
+      <c r="JG11" s="10">
+        <f>SUM(JG6:JG10)</f>
+        <v>121583</v>
+      </c>
       <c r="JH11" s="29"/>
       <c r="JI11" s="29"/>
       <c r="JJ11" s="29"/>
@@ -11062,6 +11088,9 @@
       <c r="JF12" s="7">
         <v>76849</v>
       </c>
+      <c r="JG12" s="7">
+        <v>77267</v>
+      </c>
     </row>
     <row r="13" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
@@ -11860,6 +11889,9 @@
       <c r="JF13" s="7">
         <v>19911</v>
       </c>
+      <c r="JG13" s="7">
+        <v>19663</v>
+      </c>
     </row>
     <row r="14" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
@@ -12658,6 +12690,9 @@
       <c r="JF14" s="7">
         <v>32156</v>
       </c>
+      <c r="JG14" s="7">
+        <v>32456</v>
+      </c>
     </row>
     <row r="15" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
@@ -13456,6 +13491,9 @@
       <c r="JF15" s="7">
         <v>23100</v>
       </c>
+      <c r="JG15" s="7">
+        <v>22996</v>
+      </c>
     </row>
     <row r="16" spans="1:907" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
@@ -14254,6 +14292,9 @@
       <c r="JF16" s="7">
         <v>17578</v>
       </c>
+      <c r="JG16" s="7">
+        <v>17242</v>
+      </c>
     </row>
     <row r="17" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
@@ -15052,6 +15093,9 @@
       <c r="JF17" s="7">
         <v>46749</v>
       </c>
+      <c r="JG17" s="7">
+        <v>47115</v>
+      </c>
     </row>
     <row r="18" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
@@ -15850,6 +15894,9 @@
       <c r="JF18" s="7">
         <v>58238</v>
       </c>
+      <c r="JG18" s="7">
+        <v>58526</v>
+      </c>
     </row>
     <row r="19" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
@@ -16648,6 +16695,9 @@
       <c r="JF19" s="7">
         <v>67643</v>
       </c>
+      <c r="JG19" s="7">
+        <v>67146</v>
+      </c>
     </row>
     <row r="20" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
@@ -17446,6 +17496,9 @@
       <c r="JF20" s="7">
         <v>46725</v>
       </c>
+      <c r="JG20" s="7">
+        <v>45811</v>
+      </c>
     </row>
     <row r="21" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
@@ -18247,7 +18300,10 @@
         <f>SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
-      <c r="JG21" s="29"/>
+      <c r="JG21" s="10">
+        <f>SUM(JG12:JG20)</f>
+        <v>388222</v>
+      </c>
       <c r="JH21" s="29"/>
       <c r="JI21" s="29"/>
       <c r="JJ21" s="29"/>
@@ -19688,6 +19744,9 @@
       <c r="JF22" s="7">
         <v>99351</v>
       </c>
+      <c r="JG22" s="7">
+        <v>100894</v>
+      </c>
     </row>
     <row r="23" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
@@ -20486,6 +20545,9 @@
       <c r="JF23" s="7">
         <v>35196</v>
       </c>
+      <c r="JG23" s="7">
+        <v>34794</v>
+      </c>
     </row>
     <row r="24" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
@@ -21287,7 +21349,10 @@
         <f>SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
-      <c r="JG24" s="29"/>
+      <c r="JG24" s="10">
+        <f>SUM(JG22:JG23)</f>
+        <v>135688</v>
+      </c>
       <c r="JH24" s="29"/>
       <c r="JI24" s="29"/>
       <c r="JJ24" s="29"/>
@@ -22728,6 +22793,9 @@
       <c r="JF25" s="7">
         <v>4039</v>
       </c>
+      <c r="JG25" s="7">
+        <v>4087</v>
+      </c>
     </row>
     <row r="26" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
@@ -23526,6 +23594,9 @@
       <c r="JF26" s="7">
         <v>5354</v>
       </c>
+      <c r="JG26" s="7">
+        <v>5346</v>
+      </c>
     </row>
     <row r="27" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
@@ -24327,7 +24398,10 @@
         <f>SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
-      <c r="JG27" s="29"/>
+      <c r="JG27" s="10">
+        <f>SUM(JG25:JG26)</f>
+        <v>9433</v>
+      </c>
       <c r="JH27" s="29"/>
       <c r="JI27" s="29"/>
       <c r="JJ27" s="29"/>
@@ -25768,6 +25842,9 @@
       <c r="JF28" s="7">
         <v>743</v>
       </c>
+      <c r="JG28" s="7">
+        <v>767</v>
+      </c>
     </row>
     <row r="29" spans="1:907" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
@@ -26566,6 +26643,9 @@
       <c r="JF29" s="7">
         <v>10327</v>
       </c>
+      <c r="JG29" s="7">
+        <v>10224</v>
+      </c>
     </row>
     <row r="30" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
@@ -27364,6 +27444,9 @@
       <c r="JF30" s="7">
         <v>27679</v>
       </c>
+      <c r="JG30" s="7">
+        <v>28023</v>
+      </c>
     </row>
     <row r="31" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
@@ -28162,6 +28245,9 @@
       <c r="JF31" s="7">
         <v>102075</v>
       </c>
+      <c r="JG31" s="7">
+        <v>102276</v>
+      </c>
     </row>
     <row r="32" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
@@ -28960,6 +29046,9 @@
       <c r="JF32" s="7">
         <v>23605</v>
       </c>
+      <c r="JG32" s="7">
+        <v>23800</v>
+      </c>
     </row>
     <row r="33" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
@@ -29758,6 +29847,9 @@
       <c r="JF33" s="7">
         <v>9308</v>
       </c>
+      <c r="JG33" s="7">
+        <v>9331</v>
+      </c>
     </row>
     <row r="34" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
@@ -30556,6 +30648,9 @@
       <c r="JF34" s="7">
         <v>42684</v>
       </c>
+      <c r="JG34" s="7">
+        <v>42953</v>
+      </c>
     </row>
     <row r="35" spans="1:907" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
@@ -31354,6 +31449,9 @@
       <c r="JF35" s="7">
         <v>9998</v>
       </c>
+      <c r="JG35" s="7">
+        <v>10055</v>
+      </c>
     </row>
     <row r="36" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
@@ -32152,6 +32250,9 @@
       <c r="JF36" s="7">
         <v>50787</v>
       </c>
+      <c r="JG36" s="7">
+        <v>51431</v>
+      </c>
     </row>
     <row r="37" spans="1:907" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
@@ -32950,6 +33051,9 @@
       <c r="JF37" s="7">
         <v>60651</v>
       </c>
+      <c r="JG37" s="7">
+        <v>61164</v>
+      </c>
     </row>
     <row r="38" spans="1:907" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
@@ -33748,6 +33852,9 @@
       <c r="JF38" s="7">
         <v>23069</v>
       </c>
+      <c r="JG38" s="7">
+        <v>23083</v>
+      </c>
     </row>
     <row r="39" spans="1:907" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
@@ -34546,6 +34653,9 @@
       <c r="JF39" s="7">
         <v>22659</v>
       </c>
+      <c r="JG39" s="7">
+        <v>22697</v>
+      </c>
     </row>
     <row r="40" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
@@ -35344,6 +35454,9 @@
       <c r="JF40" s="7">
         <v>11913</v>
       </c>
+      <c r="JG40" s="7">
+        <v>11824</v>
+      </c>
     </row>
     <row r="41" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
@@ -36142,6 +36255,9 @@
       <c r="JF41" s="7">
         <v>11688</v>
       </c>
+      <c r="JG41" s="7">
+        <v>11573</v>
+      </c>
     </row>
     <row r="42" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
@@ -36940,6 +37056,9 @@
       <c r="JF42" s="7">
         <v>42672</v>
       </c>
+      <c r="JG42" s="7">
+        <v>42870</v>
+      </c>
     </row>
     <row r="43" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
@@ -37738,6 +37857,9 @@
       <c r="JF43" s="7">
         <v>5025</v>
       </c>
+      <c r="JG43" s="7">
+        <v>4986</v>
+      </c>
     </row>
     <row r="44" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
@@ -38536,6 +38658,9 @@
       <c r="JF44" s="7">
         <v>5678</v>
       </c>
+      <c r="JG44" s="7">
+        <v>5723</v>
+      </c>
     </row>
     <row r="45" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
@@ -39322,17 +39447,20 @@
       <c r="JB45" s="30">
         <v>6578</v>
       </c>
-      <c r="JC45" s="37">
+      <c r="JC45" s="36">
         <v>6305</v>
       </c>
-      <c r="JD45" s="37">
+      <c r="JD45" s="36">
         <v>6326</v>
       </c>
-      <c r="JE45" s="37">
+      <c r="JE45" s="36">
         <v>6413</v>
       </c>
-      <c r="JF45" s="37">
+      <c r="JF45" s="36">
         <v>6324</v>
+      </c>
+      <c r="JG45" s="7">
+        <v>6370</v>
       </c>
     </row>
     <row r="46" spans="1:907" x14ac:dyDescent="0.25">
@@ -40132,6 +40260,9 @@
       <c r="JF46" s="7">
         <v>12129</v>
       </c>
+      <c r="JG46" s="7">
+        <v>12243</v>
+      </c>
     </row>
     <row r="47" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
@@ -40930,6 +41061,9 @@
       <c r="JF47" s="7">
         <v>1646</v>
       </c>
+      <c r="JG47" s="8">
+        <v>1654</v>
+      </c>
     </row>
     <row r="48" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
@@ -41731,7 +41865,10 @@
         <f>SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
-      <c r="JG48" s="29"/>
+      <c r="JG48" s="10">
+        <f>SUM(JG28:JG47)</f>
+        <v>483047</v>
+      </c>
       <c r="JH48" s="29"/>
       <c r="JI48" s="29"/>
       <c r="JJ48" s="29"/>
@@ -42373,7 +42510,7 @@
       <c r="AHV48" s="5"/>
       <c r="AHW48" s="5"/>
     </row>
-    <row r="49" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
@@ -43172,8 +43309,11 @@
       <c r="JF49" s="7">
         <v>19</v>
       </c>
+      <c r="JG49" s="8">
+        <v>21</v>
+      </c>
     </row>
-    <row r="50" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
@@ -43970,8 +44110,11 @@
       <c r="JF50" s="7">
         <v>2</v>
       </c>
+      <c r="JG50" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:266" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:267" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
@@ -44768,8 +44911,11 @@
       <c r="JF51" s="7">
         <v>1464</v>
       </c>
+      <c r="JG51" s="7">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="52" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
@@ -45566,8 +45712,11 @@
       <c r="JF52" s="7">
         <v>1139</v>
       </c>
+      <c r="JG52" s="7">
+        <v>1127</v>
+      </c>
     </row>
-    <row r="53" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
@@ -46367,8 +46516,12 @@
         <f>SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
+      <c r="JG53" s="10">
+        <f>SUM(JG49:JG52)</f>
+        <v>2642</v>
+      </c>
     </row>
-    <row r="54" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
@@ -47167,8 +47320,11 @@
       <c r="JF54" s="7">
         <v>5833</v>
       </c>
+      <c r="JG54" s="7">
+        <v>5794</v>
+      </c>
     </row>
-    <row r="55" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
@@ -47965,8 +48121,11 @@
       <c r="JF55" s="7">
         <v>51400</v>
       </c>
+      <c r="JG55" s="7">
+        <v>51650</v>
+      </c>
     </row>
-    <row r="56" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
@@ -48763,8 +48922,11 @@
       <c r="JF56" s="7">
         <v>6918</v>
       </c>
+      <c r="JG56" s="7">
+        <v>6952</v>
+      </c>
     </row>
-    <row r="57" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
@@ -49561,8 +49723,11 @@
       <c r="JF57" s="7">
         <v>188776</v>
       </c>
+      <c r="JG57" s="7">
+        <v>187358</v>
+      </c>
     </row>
-    <row r="58" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
@@ -50359,8 +50524,11 @@
       <c r="JF58" s="7">
         <v>31212</v>
       </c>
+      <c r="JG58" s="7">
+        <v>30777</v>
+      </c>
     </row>
-    <row r="59" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
@@ -51145,20 +51313,23 @@
       <c r="JB59" s="7">
         <v>5737</v>
       </c>
-      <c r="JC59" s="36">
+      <c r="JC59" s="35">
         <v>5881</v>
       </c>
-      <c r="JD59" s="36">
+      <c r="JD59" s="35">
         <v>5818</v>
       </c>
-      <c r="JE59" s="36">
+      <c r="JE59" s="35">
         <v>5727</v>
       </c>
-      <c r="JF59" s="36">
+      <c r="JF59" s="35">
         <v>5726</v>
       </c>
+      <c r="JG59" s="7">
+        <v>6082</v>
+      </c>
     </row>
-    <row r="60" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
@@ -51955,8 +52126,11 @@
       <c r="JF60" s="7">
         <v>44444</v>
       </c>
+      <c r="JG60" s="7">
+        <v>46868</v>
+      </c>
     </row>
-    <row r="61" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
@@ -52741,20 +52915,23 @@
       <c r="JB61" s="7">
         <v>131</v>
       </c>
-      <c r="JC61" s="38">
+      <c r="JC61" s="37">
         <v>131</v>
       </c>
-      <c r="JD61" s="38">
+      <c r="JD61" s="37">
         <v>131</v>
       </c>
-      <c r="JE61" s="38">
+      <c r="JE61" s="37">
         <v>131</v>
       </c>
-      <c r="JF61" s="38">
+      <c r="JF61" s="37">
         <v>131</v>
       </c>
+      <c r="JG61" s="8">
+        <v>133</v>
+      </c>
     </row>
-    <row r="62" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
@@ -53551,8 +53728,11 @@
       <c r="JF62" s="7">
         <v>19651</v>
       </c>
+      <c r="JG62" s="7">
+        <v>19595</v>
+      </c>
     </row>
-    <row r="63" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
@@ -54349,8 +54529,11 @@
       <c r="JF63" s="7">
         <v>33169</v>
       </c>
+      <c r="JG63" s="7">
+        <v>33470</v>
+      </c>
     </row>
-    <row r="64" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
@@ -55146,6 +55329,9 @@
       </c>
       <c r="JF64" s="7">
         <v>47992</v>
+      </c>
+      <c r="JG64" s="7">
+        <v>48176</v>
       </c>
     </row>
     <row r="65" spans="1:907" x14ac:dyDescent="0.25">
@@ -55945,6 +56131,9 @@
       <c r="JF65" s="7">
         <v>161092</v>
       </c>
+      <c r="JG65" s="7">
+        <v>161490</v>
+      </c>
     </row>
     <row r="66" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
@@ -56743,6 +56932,9 @@
       <c r="JF66" s="7">
         <v>17621</v>
       </c>
+      <c r="JG66" s="7">
+        <v>17459</v>
+      </c>
     </row>
     <row r="67" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
@@ -57541,6 +57733,9 @@
       <c r="JF67" s="7">
         <v>6355</v>
       </c>
+      <c r="JG67" s="7">
+        <v>6397</v>
+      </c>
     </row>
     <row r="68" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -58342,7 +58537,10 @@
         <f>SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
-      <c r="JG68" s="29"/>
+      <c r="JG68" s="10">
+        <f>SUM(JG54:JG67)</f>
+        <v>622201</v>
+      </c>
       <c r="JH68" s="29"/>
       <c r="JI68" s="29"/>
       <c r="JJ68" s="29"/>
@@ -59783,6 +59981,9 @@
       <c r="JF69" s="7">
         <v>9734</v>
       </c>
+      <c r="JG69" s="7">
+        <v>9657</v>
+      </c>
     </row>
     <row r="70" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
@@ -60581,6 +60782,9 @@
       <c r="JF70" s="7">
         <v>804</v>
       </c>
+      <c r="JG70" s="7">
+        <v>899</v>
+      </c>
     </row>
     <row r="71" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
@@ -61379,6 +61583,9 @@
       <c r="JF71" s="7">
         <v>31388</v>
       </c>
+      <c r="JG71" s="7">
+        <v>31695</v>
+      </c>
     </row>
     <row r="72" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
@@ -62177,6 +62384,9 @@
       <c r="JF72" s="7">
         <v>3709</v>
       </c>
+      <c r="JG72" s="7">
+        <v>3741</v>
+      </c>
     </row>
     <row r="73" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
@@ -62975,6 +63185,9 @@
       <c r="JF73" s="7">
         <v>544</v>
       </c>
+      <c r="JG73" s="8">
+        <v>629</v>
+      </c>
     </row>
     <row r="74" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
@@ -63773,6 +63986,9 @@
       <c r="JF74" s="7">
         <v>51076</v>
       </c>
+      <c r="JG74" s="7">
+        <v>51722</v>
+      </c>
     </row>
     <row r="75" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
@@ -64574,7 +64790,10 @@
         <f>SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
-      <c r="JG75" s="29"/>
+      <c r="JG75" s="10">
+        <f>SUM(JG69:JG74)</f>
+        <v>98343</v>
+      </c>
       <c r="JH75" s="29"/>
       <c r="JI75" s="29"/>
       <c r="JJ75" s="29"/>
@@ -66017,7 +66236,10 @@
         <f>JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
-      <c r="JG76" s="35"/>
+      <c r="JG76" s="19">
+        <f>JG11+JG21+JG24+JG27+JG48+JG53+JG68+JG75</f>
+        <v>1861159</v>
+      </c>
     </row>
     <row r="77" spans="1:907" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
@@ -66281,7 +66503,7 @@
       <c r="JD77" s="30"/>
       <c r="JE77" s="30"/>
       <c r="JF77" s="30"/>
-      <c r="JG77" s="27"/>
+      <c r="JG77" s="30"/>
       <c r="JH77" s="27"/>
       <c r="JI77" s="27"/>
       <c r="JJ77" s="27"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="342">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1066,6 +1066,9 @@
   <si>
     <t>2022/Enero</t>
   </si>
+  <si>
+    <t>2022/febrero</t>
+  </si>
 </sst>
 </file>
 
@@ -1670,7 +1673,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1776,6 +1779,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2157,7 +2163,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JI74" sqref="JI74"/>
+      <selection pane="topRight" activeCell="JG85" sqref="JG85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,8 +2427,7 @@
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
     <col min="263" max="265" width="16.140625" style="4" customWidth="1"/>
     <col min="266" max="266" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="10.85546875" style="28"/>
+    <col min="267" max="268" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="269" max="269" width="33.85546875" style="28" customWidth="1"/>
     <col min="270" max="726" width="10.85546875" style="28"/>
     <col min="727" max="907" width="10.85546875" style="4"/>
@@ -2440,324 +2445,326 @@
       </c>
     </row>
     <row r="4" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="41">
         <v>2000</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41">
         <v>2001</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41">
         <v>2002</v>
       </c>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40">
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41">
         <v>2003</v>
       </c>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40">
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40">
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41">
         <v>2005</v>
       </c>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40"/>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40">
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41"/>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41">
         <v>2006</v>
       </c>
-      <c r="BX4" s="40"/>
-      <c r="BY4" s="40"/>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40"/>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40">
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41"/>
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="40"/>
-      <c r="CK4" s="40"/>
-      <c r="CL4" s="40"/>
-      <c r="CM4" s="40"/>
-      <c r="CN4" s="40"/>
-      <c r="CO4" s="40"/>
-      <c r="CP4" s="40"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="40"/>
-      <c r="CS4" s="40"/>
-      <c r="CT4" s="40"/>
-      <c r="CU4" s="40">
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41">
         <v>2008</v>
       </c>
-      <c r="CV4" s="40"/>
-      <c r="CW4" s="40"/>
-      <c r="CX4" s="40"/>
-      <c r="CY4" s="40"/>
-      <c r="CZ4" s="40"/>
-      <c r="DA4" s="40"/>
-      <c r="DB4" s="40"/>
-      <c r="DC4" s="40"/>
-      <c r="DD4" s="40"/>
-      <c r="DE4" s="40"/>
-      <c r="DF4" s="40"/>
-      <c r="DG4" s="40">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41"/>
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41">
         <v>2009</v>
       </c>
-      <c r="DH4" s="40"/>
-      <c r="DI4" s="40"/>
-      <c r="DJ4" s="40"/>
-      <c r="DK4" s="40"/>
-      <c r="DL4" s="40"/>
-      <c r="DM4" s="40"/>
-      <c r="DN4" s="40"/>
-      <c r="DO4" s="40"/>
-      <c r="DP4" s="40"/>
-      <c r="DQ4" s="40"/>
-      <c r="DR4" s="40"/>
-      <c r="DS4" s="40">
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41"/>
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41"/>
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41">
         <v>2010</v>
       </c>
-      <c r="DT4" s="40"/>
-      <c r="DU4" s="40"/>
-      <c r="DV4" s="40"/>
-      <c r="DW4" s="40"/>
-      <c r="DX4" s="40"/>
-      <c r="DY4" s="40"/>
-      <c r="DZ4" s="40"/>
-      <c r="EA4" s="40"/>
-      <c r="EB4" s="40"/>
-      <c r="EC4" s="40"/>
-      <c r="ED4" s="40"/>
-      <c r="EE4" s="40">
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
+      <c r="ED4" s="41"/>
+      <c r="EE4" s="41">
         <v>2011</v>
       </c>
-      <c r="EF4" s="40"/>
-      <c r="EG4" s="40"/>
-      <c r="EH4" s="40"/>
-      <c r="EI4" s="40"/>
-      <c r="EJ4" s="40"/>
-      <c r="EK4" s="40"/>
-      <c r="EL4" s="40"/>
-      <c r="EM4" s="40"/>
-      <c r="EN4" s="40"/>
-      <c r="EO4" s="40"/>
-      <c r="EP4" s="40"/>
-      <c r="EQ4" s="40">
+      <c r="EF4" s="41"/>
+      <c r="EG4" s="41"/>
+      <c r="EH4" s="41"/>
+      <c r="EI4" s="41"/>
+      <c r="EJ4" s="41"/>
+      <c r="EK4" s="41"/>
+      <c r="EL4" s="41"/>
+      <c r="EM4" s="41"/>
+      <c r="EN4" s="41"/>
+      <c r="EO4" s="41"/>
+      <c r="EP4" s="41"/>
+      <c r="EQ4" s="41">
         <v>2012</v>
       </c>
-      <c r="ER4" s="40"/>
-      <c r="ES4" s="40"/>
-      <c r="ET4" s="40"/>
-      <c r="EU4" s="40"/>
-      <c r="EV4" s="40"/>
-      <c r="EW4" s="40"/>
-      <c r="EX4" s="40"/>
-      <c r="EY4" s="40"/>
-      <c r="EZ4" s="40"/>
-      <c r="FA4" s="40"/>
-      <c r="FB4" s="40"/>
-      <c r="FC4" s="40">
+      <c r="ER4" s="41"/>
+      <c r="ES4" s="41"/>
+      <c r="ET4" s="41"/>
+      <c r="EU4" s="41"/>
+      <c r="EV4" s="41"/>
+      <c r="EW4" s="41"/>
+      <c r="EX4" s="41"/>
+      <c r="EY4" s="41"/>
+      <c r="EZ4" s="41"/>
+      <c r="FA4" s="41"/>
+      <c r="FB4" s="41"/>
+      <c r="FC4" s="41">
         <v>2013</v>
       </c>
-      <c r="FD4" s="40"/>
-      <c r="FE4" s="40"/>
-      <c r="FF4" s="40"/>
-      <c r="FG4" s="40"/>
-      <c r="FH4" s="40"/>
-      <c r="FI4" s="40"/>
-      <c r="FJ4" s="40"/>
-      <c r="FK4" s="40"/>
-      <c r="FL4" s="40"/>
-      <c r="FM4" s="40"/>
-      <c r="FN4" s="40"/>
-      <c r="FO4" s="40">
+      <c r="FD4" s="41"/>
+      <c r="FE4" s="41"/>
+      <c r="FF4" s="41"/>
+      <c r="FG4" s="41"/>
+      <c r="FH4" s="41"/>
+      <c r="FI4" s="41"/>
+      <c r="FJ4" s="41"/>
+      <c r="FK4" s="41"/>
+      <c r="FL4" s="41"/>
+      <c r="FM4" s="41"/>
+      <c r="FN4" s="41"/>
+      <c r="FO4" s="41">
         <v>2014</v>
       </c>
-      <c r="FP4" s="40"/>
-      <c r="FQ4" s="40"/>
-      <c r="FR4" s="40"/>
-      <c r="FS4" s="40"/>
-      <c r="FT4" s="40"/>
-      <c r="FU4" s="40"/>
-      <c r="FV4" s="40"/>
-      <c r="FW4" s="40"/>
-      <c r="FX4" s="40"/>
-      <c r="FY4" s="40"/>
-      <c r="FZ4" s="40"/>
-      <c r="GA4" s="40">
+      <c r="FP4" s="41"/>
+      <c r="FQ4" s="41"/>
+      <c r="FR4" s="41"/>
+      <c r="FS4" s="41"/>
+      <c r="FT4" s="41"/>
+      <c r="FU4" s="41"/>
+      <c r="FV4" s="41"/>
+      <c r="FW4" s="41"/>
+      <c r="FX4" s="41"/>
+      <c r="FY4" s="41"/>
+      <c r="FZ4" s="41"/>
+      <c r="GA4" s="41">
         <v>2015</v>
       </c>
-      <c r="GB4" s="40"/>
-      <c r="GC4" s="40"/>
-      <c r="GD4" s="40"/>
-      <c r="GE4" s="40"/>
-      <c r="GF4" s="40"/>
-      <c r="GG4" s="40"/>
-      <c r="GH4" s="40"/>
-      <c r="GI4" s="40"/>
-      <c r="GJ4" s="40"/>
-      <c r="GK4" s="40"/>
-      <c r="GL4" s="40"/>
-      <c r="GM4" s="40">
+      <c r="GB4" s="41"/>
+      <c r="GC4" s="41"/>
+      <c r="GD4" s="41"/>
+      <c r="GE4" s="41"/>
+      <c r="GF4" s="41"/>
+      <c r="GG4" s="41"/>
+      <c r="GH4" s="41"/>
+      <c r="GI4" s="41"/>
+      <c r="GJ4" s="41"/>
+      <c r="GK4" s="41"/>
+      <c r="GL4" s="41"/>
+      <c r="GM4" s="41">
         <v>2016</v>
       </c>
-      <c r="GN4" s="40"/>
-      <c r="GO4" s="40"/>
-      <c r="GP4" s="40"/>
-      <c r="GQ4" s="40"/>
-      <c r="GR4" s="40"/>
-      <c r="GS4" s="40"/>
-      <c r="GT4" s="40"/>
-      <c r="GU4" s="40"/>
-      <c r="GV4" s="40"/>
-      <c r="GW4" s="40"/>
-      <c r="GX4" s="40"/>
-      <c r="GY4" s="40">
+      <c r="GN4" s="41"/>
+      <c r="GO4" s="41"/>
+      <c r="GP4" s="41"/>
+      <c r="GQ4" s="41"/>
+      <c r="GR4" s="41"/>
+      <c r="GS4" s="41"/>
+      <c r="GT4" s="41"/>
+      <c r="GU4" s="41"/>
+      <c r="GV4" s="41"/>
+      <c r="GW4" s="41"/>
+      <c r="GX4" s="41"/>
+      <c r="GY4" s="41">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="40"/>
-      <c r="HA4" s="40"/>
-      <c r="HB4" s="40"/>
-      <c r="HC4" s="40"/>
-      <c r="HD4" s="40"/>
-      <c r="HE4" s="40"/>
-      <c r="HF4" s="40"/>
-      <c r="HG4" s="40"/>
-      <c r="HH4" s="40"/>
-      <c r="HI4" s="40"/>
-      <c r="HJ4" s="40"/>
-      <c r="HK4" s="40">
+      <c r="GZ4" s="41"/>
+      <c r="HA4" s="41"/>
+      <c r="HB4" s="41"/>
+      <c r="HC4" s="41"/>
+      <c r="HD4" s="41"/>
+      <c r="HE4" s="41"/>
+      <c r="HF4" s="41"/>
+      <c r="HG4" s="41"/>
+      <c r="HH4" s="41"/>
+      <c r="HI4" s="41"/>
+      <c r="HJ4" s="41"/>
+      <c r="HK4" s="41">
         <v>2018</v>
       </c>
-      <c r="HL4" s="40"/>
-      <c r="HM4" s="40"/>
-      <c r="HN4" s="40"/>
-      <c r="HO4" s="40"/>
-      <c r="HP4" s="40"/>
-      <c r="HQ4" s="40"/>
-      <c r="HR4" s="40"/>
-      <c r="HS4" s="40"/>
-      <c r="HT4" s="40"/>
-      <c r="HU4" s="40"/>
-      <c r="HV4" s="40"/>
-      <c r="HW4" s="40">
+      <c r="HL4" s="41"/>
+      <c r="HM4" s="41"/>
+      <c r="HN4" s="41"/>
+      <c r="HO4" s="41"/>
+      <c r="HP4" s="41"/>
+      <c r="HQ4" s="41"/>
+      <c r="HR4" s="41"/>
+      <c r="HS4" s="41"/>
+      <c r="HT4" s="41"/>
+      <c r="HU4" s="41"/>
+      <c r="HV4" s="41"/>
+      <c r="HW4" s="41">
         <v>2019</v>
       </c>
-      <c r="HX4" s="40"/>
-      <c r="HY4" s="40"/>
-      <c r="HZ4" s="40"/>
-      <c r="IA4" s="40"/>
-      <c r="IB4" s="40"/>
-      <c r="IC4" s="40"/>
-      <c r="ID4" s="40"/>
-      <c r="IE4" s="40"/>
-      <c r="IF4" s="40"/>
-      <c r="IG4" s="40"/>
-      <c r="IH4" s="42"/>
-      <c r="II4" s="42">
+      <c r="HX4" s="41"/>
+      <c r="HY4" s="41"/>
+      <c r="HZ4" s="41"/>
+      <c r="IA4" s="41"/>
+      <c r="IB4" s="41"/>
+      <c r="IC4" s="41"/>
+      <c r="ID4" s="41"/>
+      <c r="IE4" s="41"/>
+      <c r="IF4" s="41"/>
+      <c r="IG4" s="41"/>
+      <c r="IH4" s="43"/>
+      <c r="II4" s="43">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="43"/>
-      <c r="IK4" s="43"/>
-      <c r="IL4" s="43"/>
-      <c r="IM4" s="43"/>
-      <c r="IN4" s="43"/>
-      <c r="IO4" s="43"/>
-      <c r="IP4" s="43"/>
-      <c r="IQ4" s="43"/>
-      <c r="IR4" s="43"/>
-      <c r="IS4" s="43"/>
-      <c r="IT4" s="44"/>
-      <c r="IU4" s="42">
+      <c r="IJ4" s="44"/>
+      <c r="IK4" s="44"/>
+      <c r="IL4" s="44"/>
+      <c r="IM4" s="44"/>
+      <c r="IN4" s="44"/>
+      <c r="IO4" s="44"/>
+      <c r="IP4" s="44"/>
+      <c r="IQ4" s="44"/>
+      <c r="IR4" s="44"/>
+      <c r="IS4" s="44"/>
+      <c r="IT4" s="45"/>
+      <c r="IU4" s="43">
         <v>2021</v>
       </c>
-      <c r="IV4" s="43"/>
-      <c r="IW4" s="43"/>
-      <c r="IX4" s="43"/>
-      <c r="IY4" s="43"/>
-      <c r="IZ4" s="43"/>
-      <c r="JA4" s="43"/>
-      <c r="JB4" s="43"/>
-      <c r="JC4" s="43"/>
-      <c r="JD4" s="43"/>
-      <c r="JE4" s="43"/>
-      <c r="JF4" s="44"/>
+      <c r="IV4" s="44"/>
+      <c r="IW4" s="44"/>
+      <c r="IX4" s="44"/>
+      <c r="IY4" s="44"/>
+      <c r="IZ4" s="44"/>
+      <c r="JA4" s="44"/>
+      <c r="JB4" s="44"/>
+      <c r="JC4" s="44"/>
+      <c r="JD4" s="44"/>
+      <c r="JE4" s="44"/>
+      <c r="JF4" s="45"/>
       <c r="JG4" s="38">
         <v>2022</v>
       </c>
-      <c r="JH4" s="29"/>
+      <c r="JH4" s="39">
+        <v>2022</v>
+      </c>
       <c r="JI4" s="29"/>
       <c r="JJ4" s="29"/>
       <c r="JK4" s="29"/>
@@ -3399,8 +3406,8 @@
       <c r="AHW4" s="5"/>
     </row>
     <row r="5" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4196,7 +4203,9 @@
       <c r="JG5" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="JH5" s="29"/>
+      <c r="JH5" s="31" t="s">
+        <v>341</v>
+      </c>
       <c r="JI5" s="29"/>
       <c r="JJ5" s="29"/>
       <c r="JK5" s="29"/>
@@ -4838,7 +4847,7 @@
       <c r="AHW5" s="5"/>
     </row>
     <row r="6" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5639,9 +5648,12 @@
       <c r="JG6" s="7">
         <v>97140</v>
       </c>
+      <c r="JH6" s="7">
+        <v>98642</v>
+      </c>
     </row>
     <row r="7" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6440,9 +6452,12 @@
       <c r="JG7" s="8">
         <v>45</v>
       </c>
+      <c r="JH7" s="8">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7241,9 +7256,12 @@
       <c r="JG8" s="7">
         <v>23545</v>
       </c>
+      <c r="JH8" s="7">
+        <v>23728</v>
+      </c>
     </row>
     <row r="9" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8042,9 +8060,12 @@
       <c r="JG9" s="7">
         <v>476</v>
       </c>
+      <c r="JH9" s="7">
+        <v>473</v>
+      </c>
     </row>
     <row r="10" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8843,9 +8864,12 @@
       <c r="JG10" s="8">
         <v>377</v>
       </c>
+      <c r="JH10" s="8">
+        <v>414</v>
+      </c>
     </row>
     <row r="11" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9648,7 +9672,10 @@
         <f>SUM(JG6:JG10)</f>
         <v>121583</v>
       </c>
-      <c r="JH11" s="29"/>
+      <c r="JH11" s="10">
+        <f>SUM(JH6:JH10)</f>
+        <v>123302</v>
+      </c>
       <c r="JI11" s="29"/>
       <c r="JJ11" s="29"/>
       <c r="JK11" s="29"/>
@@ -10290,7 +10317,7 @@
       <c r="AHW11" s="5"/>
     </row>
     <row r="12" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11091,9 +11118,12 @@
       <c r="JG12" s="7">
         <v>77267</v>
       </c>
+      <c r="JH12" s="7">
+        <v>77288</v>
+      </c>
     </row>
     <row r="13" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11892,9 +11922,12 @@
       <c r="JG13" s="7">
         <v>19663</v>
       </c>
+      <c r="JH13" s="7">
+        <v>19888</v>
+      </c>
     </row>
     <row r="14" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12693,9 +12726,12 @@
       <c r="JG14" s="7">
         <v>32456</v>
       </c>
+      <c r="JH14" s="7">
+        <v>32694</v>
+      </c>
     </row>
     <row r="15" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13494,9 +13530,12 @@
       <c r="JG15" s="7">
         <v>22996</v>
       </c>
+      <c r="JH15" s="7">
+        <v>22910</v>
+      </c>
     </row>
     <row r="16" spans="1:907" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14295,9 +14334,12 @@
       <c r="JG16" s="7">
         <v>17242</v>
       </c>
+      <c r="JH16" s="7">
+        <v>16943</v>
+      </c>
     </row>
     <row r="17" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15096,9 +15138,12 @@
       <c r="JG17" s="7">
         <v>47115</v>
       </c>
+      <c r="JH17" s="7">
+        <v>47514</v>
+      </c>
     </row>
     <row r="18" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15897,9 +15942,12 @@
       <c r="JG18" s="7">
         <v>58526</v>
       </c>
+      <c r="JH18" s="7">
+        <v>58788</v>
+      </c>
     </row>
     <row r="19" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16698,9 +16746,12 @@
       <c r="JG19" s="7">
         <v>67146</v>
       </c>
+      <c r="JH19" s="7">
+        <v>66880</v>
+      </c>
     </row>
     <row r="20" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17499,9 +17550,12 @@
       <c r="JG20" s="7">
         <v>45811</v>
       </c>
+      <c r="JH20" s="7">
+        <v>45841</v>
+      </c>
     </row>
     <row r="21" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18304,7 +18358,10 @@
         <f>SUM(JG12:JG20)</f>
         <v>388222</v>
       </c>
-      <c r="JH21" s="29"/>
+      <c r="JH21" s="10">
+        <f>SUM(JH12:JH20)</f>
+        <v>388746</v>
+      </c>
       <c r="JI21" s="29"/>
       <c r="JJ21" s="29"/>
       <c r="JK21" s="29"/>
@@ -18946,7 +19003,7 @@
       <c r="AHW21" s="5"/>
     </row>
     <row r="22" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19747,9 +19804,12 @@
       <c r="JG22" s="7">
         <v>100894</v>
       </c>
+      <c r="JH22" s="7">
+        <v>101205</v>
+      </c>
     </row>
     <row r="23" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20548,9 +20608,12 @@
       <c r="JG23" s="7">
         <v>34794</v>
       </c>
+      <c r="JH23" s="7">
+        <v>35183</v>
+      </c>
     </row>
     <row r="24" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21353,7 +21416,10 @@
         <f>SUM(JG22:JG23)</f>
         <v>135688</v>
       </c>
-      <c r="JH24" s="29"/>
+      <c r="JH24" s="10">
+        <f>SUM(JH22:JH23)</f>
+        <v>136388</v>
+      </c>
       <c r="JI24" s="29"/>
       <c r="JJ24" s="29"/>
       <c r="JK24" s="29"/>
@@ -21995,7 +22061,7 @@
       <c r="AHW24" s="5"/>
     </row>
     <row r="25" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22796,9 +22862,12 @@
       <c r="JG25" s="7">
         <v>4087</v>
       </c>
+      <c r="JH25" s="7">
+        <v>4164</v>
+      </c>
     </row>
     <row r="26" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23597,9 +23666,12 @@
       <c r="JG26" s="7">
         <v>5346</v>
       </c>
+      <c r="JH26" s="7">
+        <v>5386</v>
+      </c>
     </row>
     <row r="27" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24402,7 +24474,10 @@
         <f>SUM(JG25:JG26)</f>
         <v>9433</v>
       </c>
-      <c r="JH27" s="29"/>
+      <c r="JH27" s="10">
+        <f>SUM(JH25:JH26)</f>
+        <v>9550</v>
+      </c>
       <c r="JI27" s="29"/>
       <c r="JJ27" s="29"/>
       <c r="JK27" s="29"/>
@@ -25044,7 +25119,7 @@
       <c r="AHW27" s="5"/>
     </row>
     <row r="28" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="40" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25845,9 +25920,12 @@
       <c r="JG28" s="7">
         <v>767</v>
       </c>
+      <c r="JH28" s="7">
+        <v>768</v>
+      </c>
     </row>
     <row r="29" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26646,9 +26724,12 @@
       <c r="JG29" s="7">
         <v>10224</v>
       </c>
+      <c r="JH29" s="7">
+        <v>10285</v>
+      </c>
     </row>
     <row r="30" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27447,9 +27528,12 @@
       <c r="JG30" s="7">
         <v>28023</v>
       </c>
+      <c r="JH30" s="7">
+        <v>28475</v>
+      </c>
     </row>
     <row r="31" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28248,9 +28332,12 @@
       <c r="JG31" s="7">
         <v>102276</v>
       </c>
+      <c r="JH31" s="7">
+        <v>102574</v>
+      </c>
     </row>
     <row r="32" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29049,9 +29136,12 @@
       <c r="JG32" s="7">
         <v>23800</v>
       </c>
+      <c r="JH32" s="7">
+        <v>23877</v>
+      </c>
     </row>
     <row r="33" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29850,9 +29940,12 @@
       <c r="JG33" s="7">
         <v>9331</v>
       </c>
+      <c r="JH33" s="7">
+        <v>9513</v>
+      </c>
     </row>
     <row r="34" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30651,9 +30744,12 @@
       <c r="JG34" s="7">
         <v>42953</v>
       </c>
+      <c r="JH34" s="7">
+        <v>43388</v>
+      </c>
     </row>
     <row r="35" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31452,9 +31548,12 @@
       <c r="JG35" s="7">
         <v>10055</v>
       </c>
+      <c r="JH35" s="7">
+        <v>10224</v>
+      </c>
     </row>
     <row r="36" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32253,9 +32352,12 @@
       <c r="JG36" s="7">
         <v>51431</v>
       </c>
+      <c r="JH36" s="7">
+        <v>52135</v>
+      </c>
     </row>
     <row r="37" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33054,9 +33156,12 @@
       <c r="JG37" s="7">
         <v>61164</v>
       </c>
+      <c r="JH37" s="7">
+        <v>62517</v>
+      </c>
     </row>
     <row r="38" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33855,9 +33960,12 @@
       <c r="JG38" s="7">
         <v>23083</v>
       </c>
+      <c r="JH38" s="7">
+        <v>22864</v>
+      </c>
     </row>
     <row r="39" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34656,9 +34764,12 @@
       <c r="JG39" s="7">
         <v>22697</v>
       </c>
+      <c r="JH39" s="7">
+        <v>22974</v>
+      </c>
     </row>
     <row r="40" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35457,9 +35568,12 @@
       <c r="JG40" s="7">
         <v>11824</v>
       </c>
+      <c r="JH40" s="7">
+        <v>11975</v>
+      </c>
     </row>
     <row r="41" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36258,9 +36372,12 @@
       <c r="JG41" s="7">
         <v>11573</v>
       </c>
+      <c r="JH41" s="7">
+        <v>11620</v>
+      </c>
     </row>
     <row r="42" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37059,9 +37176,12 @@
       <c r="JG42" s="7">
         <v>42870</v>
       </c>
+      <c r="JH42" s="7">
+        <v>43273</v>
+      </c>
     </row>
     <row r="43" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37860,9 +37980,12 @@
       <c r="JG43" s="7">
         <v>4986</v>
       </c>
+      <c r="JH43" s="7">
+        <v>5009</v>
+      </c>
     </row>
     <row r="44" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38661,9 +38784,12 @@
       <c r="JG44" s="7">
         <v>5723</v>
       </c>
+      <c r="JH44" s="7">
+        <v>5773</v>
+      </c>
     </row>
     <row r="45" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39462,9 +39588,12 @@
       <c r="JG45" s="7">
         <v>6370</v>
       </c>
+      <c r="JH45" s="7">
+        <v>6671</v>
+      </c>
     </row>
     <row r="46" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40263,9 +40392,12 @@
       <c r="JG46" s="7">
         <v>12243</v>
       </c>
+      <c r="JH46" s="7">
+        <v>12271</v>
+      </c>
     </row>
     <row r="47" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41064,9 +41196,12 @@
       <c r="JG47" s="8">
         <v>1654</v>
       </c>
+      <c r="JH47" s="8">
+        <v>1632</v>
+      </c>
     </row>
     <row r="48" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41869,7 +42004,10 @@
         <f>SUM(JG28:JG47)</f>
         <v>483047</v>
       </c>
-      <c r="JH48" s="29"/>
+      <c r="JH48" s="10">
+        <f>SUM(JH28:JH47)</f>
+        <v>487818</v>
+      </c>
       <c r="JI48" s="29"/>
       <c r="JJ48" s="29"/>
       <c r="JK48" s="29"/>
@@ -42510,8 +42648,8 @@
       <c r="AHV48" s="5"/>
       <c r="AHW48" s="5"/>
     </row>
-    <row r="49" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+    <row r="49" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43312,9 +43450,12 @@
       <c r="JG49" s="8">
         <v>21</v>
       </c>
+      <c r="JH49" s="8">
+        <v>21</v>
+      </c>
     </row>
-    <row r="50" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44113,9 +44254,12 @@
       <c r="JG50" s="8">
         <v>2</v>
       </c>
+      <c r="JH50" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:267" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+    <row r="51" spans="1:268" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44914,9 +45058,12 @@
       <c r="JG51" s="7">
         <v>1492</v>
       </c>
+      <c r="JH51" s="7">
+        <v>1476</v>
+      </c>
     </row>
-    <row r="52" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -45715,9 +45862,12 @@
       <c r="JG52" s="7">
         <v>1127</v>
       </c>
+      <c r="JH52" s="7">
+        <v>1144</v>
+      </c>
     </row>
-    <row r="53" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+    <row r="53" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46520,9 +46670,13 @@
         <f>SUM(JG49:JG52)</f>
         <v>2642</v>
       </c>
+      <c r="JH53" s="10">
+        <f>SUM(JH49:JH52)</f>
+        <v>2643</v>
+      </c>
     </row>
-    <row r="54" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="54" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47323,9 +47477,12 @@
       <c r="JG54" s="7">
         <v>5794</v>
       </c>
+      <c r="JH54" s="35">
+        <v>5843</v>
+      </c>
     </row>
-    <row r="55" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+    <row r="55" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48124,9 +48281,12 @@
       <c r="JG55" s="7">
         <v>51650</v>
       </c>
+      <c r="JH55" s="7">
+        <v>51973</v>
+      </c>
     </row>
-    <row r="56" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -48925,9 +49085,12 @@
       <c r="JG56" s="7">
         <v>6952</v>
       </c>
+      <c r="JH56" s="7">
+        <v>7046</v>
+      </c>
     </row>
-    <row r="57" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -49726,9 +49889,12 @@
       <c r="JG57" s="7">
         <v>187358</v>
       </c>
+      <c r="JH57" s="7">
+        <v>188724</v>
+      </c>
     </row>
-    <row r="58" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -50527,9 +50693,12 @@
       <c r="JG58" s="7">
         <v>30777</v>
       </c>
+      <c r="JH58" s="7">
+        <v>31102</v>
+      </c>
     </row>
-    <row r="59" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+    <row r="59" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -51328,9 +51497,12 @@
       <c r="JG59" s="7">
         <v>6082</v>
       </c>
+      <c r="JH59" s="7">
+        <v>6102</v>
+      </c>
     </row>
-    <row r="60" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+    <row r="60" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -52129,9 +52301,12 @@
       <c r="JG60" s="7">
         <v>46868</v>
       </c>
+      <c r="JH60" s="7">
+        <v>48190</v>
+      </c>
     </row>
-    <row r="61" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+    <row r="61" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -52930,9 +53105,12 @@
       <c r="JG61" s="8">
         <v>133</v>
       </c>
+      <c r="JH61" s="8">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+    <row r="62" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -53731,9 +53909,12 @@
       <c r="JG62" s="7">
         <v>19595</v>
       </c>
+      <c r="JH62" s="7">
+        <v>19663</v>
+      </c>
     </row>
-    <row r="63" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+    <row r="63" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -54532,9 +54713,12 @@
       <c r="JG63" s="7">
         <v>33470</v>
       </c>
+      <c r="JH63" s="7">
+        <v>33651</v>
+      </c>
     </row>
-    <row r="64" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -55333,9 +55517,12 @@
       <c r="JG64" s="7">
         <v>48176</v>
       </c>
+      <c r="JH64" s="7">
+        <v>48539</v>
+      </c>
     </row>
     <row r="65" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+      <c r="A65" s="40"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -56134,9 +56321,12 @@
       <c r="JG65" s="7">
         <v>161490</v>
       </c>
+      <c r="JH65" s="7">
+        <v>161379</v>
+      </c>
     </row>
     <row r="66" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -56935,9 +57125,12 @@
       <c r="JG66" s="7">
         <v>17459</v>
       </c>
+      <c r="JH66" s="7">
+        <v>17797</v>
+      </c>
     </row>
     <row r="67" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -57736,9 +57929,12 @@
       <c r="JG67" s="7">
         <v>6397</v>
       </c>
+      <c r="JH67" s="7">
+        <v>6490</v>
+      </c>
     </row>
     <row r="68" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -58541,7 +58737,10 @@
         <f>SUM(JG54:JG67)</f>
         <v>622201</v>
       </c>
-      <c r="JH68" s="29"/>
+      <c r="JH68" s="10">
+        <f>SUM(JH54:JH67)</f>
+        <v>626630</v>
+      </c>
       <c r="JI68" s="29"/>
       <c r="JJ68" s="29"/>
       <c r="JK68" s="29"/>
@@ -59183,7 +59382,7 @@
       <c r="AHW68" s="5"/>
     </row>
     <row r="69" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="40" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -59984,9 +60183,12 @@
       <c r="JG69" s="7">
         <v>9657</v>
       </c>
+      <c r="JH69" s="7">
+        <v>9717</v>
+      </c>
     </row>
     <row r="70" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -60785,9 +60987,12 @@
       <c r="JG70" s="7">
         <v>899</v>
       </c>
+      <c r="JH70" s="7">
+        <v>929</v>
+      </c>
     </row>
     <row r="71" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -61586,9 +61791,12 @@
       <c r="JG71" s="7">
         <v>31695</v>
       </c>
+      <c r="JH71" s="7">
+        <v>32254</v>
+      </c>
     </row>
     <row r="72" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -62387,9 +62595,12 @@
       <c r="JG72" s="7">
         <v>3741</v>
       </c>
+      <c r="JH72" s="7">
+        <v>3762</v>
+      </c>
     </row>
     <row r="73" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+      <c r="A73" s="40"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -63188,9 +63399,12 @@
       <c r="JG73" s="8">
         <v>629</v>
       </c>
+      <c r="JH73" s="8">
+        <v>534</v>
+      </c>
     </row>
     <row r="74" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -63989,9 +64203,12 @@
       <c r="JG74" s="7">
         <v>51722</v>
       </c>
+      <c r="JH74" s="7">
+        <v>52349</v>
+      </c>
     </row>
     <row r="75" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -64794,7 +65011,10 @@
         <f>SUM(JG69:JG74)</f>
         <v>98343</v>
       </c>
-      <c r="JH75" s="29"/>
+      <c r="JH75" s="10">
+        <f>SUM(JH69:JH74)</f>
+        <v>99545</v>
+      </c>
       <c r="JI75" s="29"/>
       <c r="JJ75" s="29"/>
       <c r="JK75" s="29"/>
@@ -66240,6 +66460,10 @@
         <f>JG11+JG21+JG24+JG27+JG48+JG53+JG68+JG75</f>
         <v>1861159</v>
       </c>
+      <c r="JH76" s="19">
+        <f>JH11+JH21+JH24+JH27+JH48+JH53+JH68+JH75</f>
+        <v>1874622</v>
+      </c>
     </row>
     <row r="77" spans="1:907" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
@@ -66504,7 +66728,7 @@
       <c r="JE77" s="30"/>
       <c r="JF77" s="30"/>
       <c r="JG77" s="30"/>
-      <c r="JH77" s="27"/>
+      <c r="JH77" s="30"/>
       <c r="JI77" s="27"/>
       <c r="JJ77" s="27"/>
       <c r="JK77" s="27"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="343">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1069,6 +1069,9 @@
   <si>
     <t>2022/febrero</t>
   </si>
+  <si>
+    <t>2022/marzo</t>
+  </si>
 </sst>
 </file>
 
@@ -1673,7 +1676,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1779,12 +1782,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2159,11 +2156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHW78"/>
+  <dimension ref="A1:AHX78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JG85" sqref="JG85"/>
+      <selection pane="topRight" activeCell="JK15" sqref="JK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,345 +2424,345 @@
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
     <col min="263" max="265" width="16.140625" style="4" customWidth="1"/>
     <col min="266" max="266" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="267" max="268" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="33.85546875" style="28" customWidth="1"/>
-    <col min="270" max="726" width="10.85546875" style="28"/>
-    <col min="727" max="907" width="10.85546875" style="4"/>
-    <col min="908" max="16384" width="10.85546875" style="3"/>
+    <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="11" style="4" customWidth="1"/>
+    <col min="269" max="269" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="33.85546875" style="28" customWidth="1"/>
+    <col min="271" max="727" width="10.85546875" style="28"/>
+    <col min="728" max="908" width="10.85546875" style="4"/>
+    <col min="909" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:907" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:908" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:907" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:908" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:908" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41"/>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41"/>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41"/>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41"/>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41"/>
-      <c r="DS4" s="41">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41"/>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
-      <c r="ED4" s="41"/>
-      <c r="EE4" s="41">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="41"/>
-      <c r="EG4" s="41"/>
-      <c r="EH4" s="41"/>
-      <c r="EI4" s="41"/>
-      <c r="EJ4" s="41"/>
-      <c r="EK4" s="41"/>
-      <c r="EL4" s="41"/>
-      <c r="EM4" s="41"/>
-      <c r="EN4" s="41"/>
-      <c r="EO4" s="41"/>
-      <c r="EP4" s="41"/>
-      <c r="EQ4" s="41">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="41"/>
-      <c r="ES4" s="41"/>
-      <c r="ET4" s="41"/>
-      <c r="EU4" s="41"/>
-      <c r="EV4" s="41"/>
-      <c r="EW4" s="41"/>
-      <c r="EX4" s="41"/>
-      <c r="EY4" s="41"/>
-      <c r="EZ4" s="41"/>
-      <c r="FA4" s="41"/>
-      <c r="FB4" s="41"/>
-      <c r="FC4" s="41">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="41"/>
-      <c r="FE4" s="41"/>
-      <c r="FF4" s="41"/>
-      <c r="FG4" s="41"/>
-      <c r="FH4" s="41"/>
-      <c r="FI4" s="41"/>
-      <c r="FJ4" s="41"/>
-      <c r="FK4" s="41"/>
-      <c r="FL4" s="41"/>
-      <c r="FM4" s="41"/>
-      <c r="FN4" s="41"/>
-      <c r="FO4" s="41">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="41"/>
-      <c r="FQ4" s="41"/>
-      <c r="FR4" s="41"/>
-      <c r="FS4" s="41"/>
-      <c r="FT4" s="41"/>
-      <c r="FU4" s="41"/>
-      <c r="FV4" s="41"/>
-      <c r="FW4" s="41"/>
-      <c r="FX4" s="41"/>
-      <c r="FY4" s="41"/>
-      <c r="FZ4" s="41"/>
-      <c r="GA4" s="41">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="41"/>
-      <c r="GC4" s="41"/>
-      <c r="GD4" s="41"/>
-      <c r="GE4" s="41"/>
-      <c r="GF4" s="41"/>
-      <c r="GG4" s="41"/>
-      <c r="GH4" s="41"/>
-      <c r="GI4" s="41"/>
-      <c r="GJ4" s="41"/>
-      <c r="GK4" s="41"/>
-      <c r="GL4" s="41"/>
-      <c r="GM4" s="41">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="41"/>
-      <c r="GO4" s="41"/>
-      <c r="GP4" s="41"/>
-      <c r="GQ4" s="41"/>
-      <c r="GR4" s="41"/>
-      <c r="GS4" s="41"/>
-      <c r="GT4" s="41"/>
-      <c r="GU4" s="41"/>
-      <c r="GV4" s="41"/>
-      <c r="GW4" s="41"/>
-      <c r="GX4" s="41"/>
-      <c r="GY4" s="41">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="41"/>
-      <c r="HA4" s="41"/>
-      <c r="HB4" s="41"/>
-      <c r="HC4" s="41"/>
-      <c r="HD4" s="41"/>
-      <c r="HE4" s="41"/>
-      <c r="HF4" s="41"/>
-      <c r="HG4" s="41"/>
-      <c r="HH4" s="41"/>
-      <c r="HI4" s="41"/>
-      <c r="HJ4" s="41"/>
-      <c r="HK4" s="41">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="41"/>
-      <c r="HM4" s="41"/>
-      <c r="HN4" s="41"/>
-      <c r="HO4" s="41"/>
-      <c r="HP4" s="41"/>
-      <c r="HQ4" s="41"/>
-      <c r="HR4" s="41"/>
-      <c r="HS4" s="41"/>
-      <c r="HT4" s="41"/>
-      <c r="HU4" s="41"/>
-      <c r="HV4" s="41"/>
-      <c r="HW4" s="41">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="41"/>
-      <c r="HY4" s="41"/>
-      <c r="HZ4" s="41"/>
-      <c r="IA4" s="41"/>
-      <c r="IB4" s="41"/>
-      <c r="IC4" s="41"/>
-      <c r="ID4" s="41"/>
-      <c r="IE4" s="41"/>
-      <c r="IF4" s="41"/>
-      <c r="IG4" s="41"/>
-      <c r="IH4" s="43"/>
-      <c r="II4" s="43">
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="41"/>
+      <c r="II4" s="41">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="44"/>
-      <c r="IK4" s="44"/>
-      <c r="IL4" s="44"/>
-      <c r="IM4" s="44"/>
-      <c r="IN4" s="44"/>
-      <c r="IO4" s="44"/>
-      <c r="IP4" s="44"/>
-      <c r="IQ4" s="44"/>
-      <c r="IR4" s="44"/>
-      <c r="IS4" s="44"/>
-      <c r="IT4" s="45"/>
-      <c r="IU4" s="43">
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="43"/>
+      <c r="IU4" s="41">
         <v>2021</v>
       </c>
-      <c r="IV4" s="44"/>
-      <c r="IW4" s="44"/>
-      <c r="IX4" s="44"/>
-      <c r="IY4" s="44"/>
-      <c r="IZ4" s="44"/>
-      <c r="JA4" s="44"/>
-      <c r="JB4" s="44"/>
-      <c r="JC4" s="44"/>
-      <c r="JD4" s="44"/>
-      <c r="JE4" s="44"/>
-      <c r="JF4" s="45"/>
-      <c r="JG4" s="38">
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
+      <c r="IY4" s="42"/>
+      <c r="IZ4" s="42"/>
+      <c r="JA4" s="42"/>
+      <c r="JB4" s="42"/>
+      <c r="JC4" s="42"/>
+      <c r="JD4" s="42"/>
+      <c r="JE4" s="42"/>
+      <c r="JF4" s="43"/>
+      <c r="JG4" s="41">
         <v>2022</v>
       </c>
-      <c r="JH4" s="39">
-        <v>2022</v>
-      </c>
-      <c r="JI4" s="29"/>
+      <c r="JH4" s="42"/>
+      <c r="JI4" s="43"/>
       <c r="JJ4" s="29"/>
       <c r="JK4" s="29"/>
       <c r="JL4" s="29"/>
@@ -3223,7 +3220,7 @@
       <c r="AAV4" s="29"/>
       <c r="AAW4" s="29"/>
       <c r="AAX4" s="29"/>
-      <c r="AAY4" s="5"/>
+      <c r="AAY4" s="29"/>
       <c r="AAZ4" s="5"/>
       <c r="ABA4" s="5"/>
       <c r="ABB4" s="5"/>
@@ -3404,10 +3401,11 @@
       <c r="AHU4" s="5"/>
       <c r="AHV4" s="5"/>
       <c r="AHW4" s="5"/>
+      <c r="AHX4" s="5"/>
     </row>
-    <row r="5" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
+    <row r="5" spans="1:908" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4206,7 +4204,9 @@
       <c r="JH5" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="JI5" s="29"/>
+      <c r="JI5" s="31" t="s">
+        <v>342</v>
+      </c>
       <c r="JJ5" s="29"/>
       <c r="JK5" s="29"/>
       <c r="JL5" s="29"/>
@@ -4664,7 +4664,7 @@
       <c r="AAV5" s="29"/>
       <c r="AAW5" s="29"/>
       <c r="AAX5" s="29"/>
-      <c r="AAY5" s="5"/>
+      <c r="AAY5" s="29"/>
       <c r="AAZ5" s="5"/>
       <c r="ABA5" s="5"/>
       <c r="ABB5" s="5"/>
@@ -4845,9 +4845,10 @@
       <c r="AHU5" s="5"/>
       <c r="AHV5" s="5"/>
       <c r="AHW5" s="5"/>
+      <c r="AHX5" s="5"/>
     </row>
-    <row r="6" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5651,9 +5652,12 @@
       <c r="JH6" s="7">
         <v>98642</v>
       </c>
+      <c r="JI6" s="7">
+        <v>100243</v>
+      </c>
     </row>
-    <row r="7" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+    <row r="7" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6455,9 +6459,12 @@
       <c r="JH7" s="8">
         <v>45</v>
       </c>
+      <c r="JI7" s="8">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7259,9 +7266,12 @@
       <c r="JH8" s="7">
         <v>23728</v>
       </c>
+      <c r="JI8" s="7">
+        <v>23739</v>
+      </c>
     </row>
-    <row r="9" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+    <row r="9" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8063,9 +8073,12 @@
       <c r="JH9" s="7">
         <v>473</v>
       </c>
+      <c r="JI9" s="7">
+        <v>482</v>
+      </c>
     </row>
-    <row r="10" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+    <row r="10" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8867,9 +8880,12 @@
       <c r="JH10" s="8">
         <v>414</v>
       </c>
+      <c r="JI10" s="8">
+        <v>408</v>
+      </c>
     </row>
-    <row r="11" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:908" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9676,7 +9692,10 @@
         <f>SUM(JH6:JH10)</f>
         <v>123302</v>
       </c>
-      <c r="JI11" s="29"/>
+      <c r="JI11" s="10">
+        <f>SUM(JI6:JI10)</f>
+        <v>124917</v>
+      </c>
       <c r="JJ11" s="29"/>
       <c r="JK11" s="29"/>
       <c r="JL11" s="29"/>
@@ -10134,7 +10153,7 @@
       <c r="AAV11" s="29"/>
       <c r="AAW11" s="29"/>
       <c r="AAX11" s="29"/>
-      <c r="AAY11" s="5"/>
+      <c r="AAY11" s="29"/>
       <c r="AAZ11" s="5"/>
       <c r="ABA11" s="5"/>
       <c r="ABB11" s="5"/>
@@ -10315,9 +10334,10 @@
       <c r="AHU11" s="5"/>
       <c r="AHV11" s="5"/>
       <c r="AHW11" s="5"/>
+      <c r="AHX11" s="5"/>
     </row>
-    <row r="12" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11121,9 +11141,12 @@
       <c r="JH12" s="7">
         <v>77288</v>
       </c>
+      <c r="JI12" s="7">
+        <v>77423</v>
+      </c>
     </row>
-    <row r="13" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11925,9 +11948,12 @@
       <c r="JH13" s="7">
         <v>19888</v>
       </c>
+      <c r="JI13" s="7">
+        <v>20212</v>
+      </c>
     </row>
-    <row r="14" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+    <row r="14" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12729,9 +12755,12 @@
       <c r="JH14" s="7">
         <v>32694</v>
       </c>
+      <c r="JI14" s="7">
+        <v>32846</v>
+      </c>
     </row>
-    <row r="15" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13533,9 +13562,12 @@
       <c r="JH15" s="7">
         <v>22910</v>
       </c>
+      <c r="JI15" s="7">
+        <v>22739</v>
+      </c>
     </row>
-    <row r="16" spans="1:907" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:908" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14337,9 +14369,12 @@
       <c r="JH16" s="7">
         <v>16943</v>
       </c>
+      <c r="JI16" s="7">
+        <v>16798</v>
+      </c>
     </row>
-    <row r="17" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15141,9 +15176,12 @@
       <c r="JH17" s="7">
         <v>47514</v>
       </c>
+      <c r="JI17" s="7">
+        <v>47849</v>
+      </c>
     </row>
-    <row r="18" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+    <row r="18" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15945,9 +15983,12 @@
       <c r="JH18" s="7">
         <v>58788</v>
       </c>
+      <c r="JI18" s="7">
+        <v>59065</v>
+      </c>
     </row>
-    <row r="19" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+    <row r="19" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16749,9 +16790,12 @@
       <c r="JH19" s="7">
         <v>66880</v>
       </c>
+      <c r="JI19" s="7">
+        <v>66639</v>
+      </c>
     </row>
-    <row r="20" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17553,9 +17597,12 @@
       <c r="JH20" s="7">
         <v>45841</v>
       </c>
+      <c r="JI20" s="7">
+        <v>45465</v>
+      </c>
     </row>
-    <row r="21" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18362,7 +18409,10 @@
         <f>SUM(JH12:JH20)</f>
         <v>388746</v>
       </c>
-      <c r="JI21" s="29"/>
+      <c r="JI21" s="10">
+        <f>SUM(JI12:JI20)</f>
+        <v>389036</v>
+      </c>
       <c r="JJ21" s="29"/>
       <c r="JK21" s="29"/>
       <c r="JL21" s="29"/>
@@ -18820,7 +18870,7 @@
       <c r="AAV21" s="29"/>
       <c r="AAW21" s="29"/>
       <c r="AAX21" s="29"/>
-      <c r="AAY21" s="5"/>
+      <c r="AAY21" s="29"/>
       <c r="AAZ21" s="5"/>
       <c r="ABA21" s="5"/>
       <c r="ABB21" s="5"/>
@@ -19001,9 +19051,10 @@
       <c r="AHU21" s="5"/>
       <c r="AHV21" s="5"/>
       <c r="AHW21" s="5"/>
+      <c r="AHX21" s="5"/>
     </row>
-    <row r="22" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19807,9 +19858,12 @@
       <c r="JH22" s="7">
         <v>101205</v>
       </c>
+      <c r="JI22" s="7">
+        <v>101900</v>
+      </c>
     </row>
-    <row r="23" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+    <row r="23" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20611,9 +20665,12 @@
       <c r="JH23" s="7">
         <v>35183</v>
       </c>
+      <c r="JI23" s="7">
+        <v>35444</v>
+      </c>
     </row>
-    <row r="24" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+    <row r="24" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21420,7 +21477,10 @@
         <f>SUM(JH22:JH23)</f>
         <v>136388</v>
       </c>
-      <c r="JI24" s="29"/>
+      <c r="JI24" s="10">
+        <f>SUM(JI22:JI23)</f>
+        <v>137344</v>
+      </c>
       <c r="JJ24" s="29"/>
       <c r="JK24" s="29"/>
       <c r="JL24" s="29"/>
@@ -21878,7 +21938,7 @@
       <c r="AAV24" s="29"/>
       <c r="AAW24" s="29"/>
       <c r="AAX24" s="29"/>
-      <c r="AAY24" s="5"/>
+      <c r="AAY24" s="29"/>
       <c r="AAZ24" s="5"/>
       <c r="ABA24" s="5"/>
       <c r="ABB24" s="5"/>
@@ -22059,9 +22119,10 @@
       <c r="AHU24" s="5"/>
       <c r="AHV24" s="5"/>
       <c r="AHW24" s="5"/>
+      <c r="AHX24" s="5"/>
     </row>
-    <row r="25" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22865,9 +22926,12 @@
       <c r="JH25" s="7">
         <v>4164</v>
       </c>
+      <c r="JI25" s="7">
+        <v>4259</v>
+      </c>
     </row>
-    <row r="26" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+    <row r="26" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23669,9 +23733,12 @@
       <c r="JH26" s="7">
         <v>5386</v>
       </c>
+      <c r="JI26" s="7">
+        <v>5360</v>
+      </c>
     </row>
-    <row r="27" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+    <row r="27" spans="1:908" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24478,7 +24545,10 @@
         <f>SUM(JH25:JH26)</f>
         <v>9550</v>
       </c>
-      <c r="JI27" s="29"/>
+      <c r="JI27" s="10">
+        <f>SUM(JI25:JI26)</f>
+        <v>9619</v>
+      </c>
       <c r="JJ27" s="29"/>
       <c r="JK27" s="29"/>
       <c r="JL27" s="29"/>
@@ -24936,7 +25006,7 @@
       <c r="AAV27" s="29"/>
       <c r="AAW27" s="29"/>
       <c r="AAX27" s="29"/>
-      <c r="AAY27" s="5"/>
+      <c r="AAY27" s="29"/>
       <c r="AAZ27" s="5"/>
       <c r="ABA27" s="5"/>
       <c r="ABB27" s="5"/>
@@ -25117,9 +25187,10 @@
       <c r="AHU27" s="5"/>
       <c r="AHV27" s="5"/>
       <c r="AHW27" s="5"/>
+      <c r="AHX27" s="5"/>
     </row>
-    <row r="28" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25923,9 +25994,12 @@
       <c r="JH28" s="7">
         <v>768</v>
       </c>
+      <c r="JI28" s="7">
+        <v>821</v>
+      </c>
     </row>
-    <row r="29" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+    <row r="29" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26727,9 +26801,12 @@
       <c r="JH29" s="7">
         <v>10285</v>
       </c>
+      <c r="JI29" s="7">
+        <v>10501</v>
+      </c>
     </row>
-    <row r="30" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+    <row r="30" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27531,9 +27608,12 @@
       <c r="JH30" s="7">
         <v>28475</v>
       </c>
+      <c r="JI30" s="7">
+        <v>28833</v>
+      </c>
     </row>
-    <row r="31" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+    <row r="31" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28335,9 +28415,12 @@
       <c r="JH31" s="7">
         <v>102574</v>
       </c>
+      <c r="JI31" s="7">
+        <v>103266</v>
+      </c>
     </row>
-    <row r="32" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+    <row r="32" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29139,9 +29222,12 @@
       <c r="JH32" s="7">
         <v>23877</v>
       </c>
+      <c r="JI32" s="7">
+        <v>24195</v>
+      </c>
     </row>
-    <row r="33" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+    <row r="33" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29943,9 +30029,12 @@
       <c r="JH33" s="7">
         <v>9513</v>
       </c>
+      <c r="JI33" s="7">
+        <v>9715</v>
+      </c>
     </row>
-    <row r="34" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+    <row r="34" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30747,9 +30836,12 @@
       <c r="JH34" s="7">
         <v>43388</v>
       </c>
+      <c r="JI34" s="7">
+        <v>43753</v>
+      </c>
     </row>
-    <row r="35" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+    <row r="35" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31551,9 +31643,12 @@
       <c r="JH35" s="7">
         <v>10224</v>
       </c>
+      <c r="JI35" s="7">
+        <v>10338</v>
+      </c>
     </row>
-    <row r="36" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+    <row r="36" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32355,9 +32450,12 @@
       <c r="JH36" s="7">
         <v>52135</v>
       </c>
+      <c r="JI36" s="7">
+        <v>52613</v>
+      </c>
     </row>
-    <row r="37" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+    <row r="37" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33159,9 +33257,12 @@
       <c r="JH37" s="7">
         <v>62517</v>
       </c>
+      <c r="JI37" s="7">
+        <v>64469</v>
+      </c>
     </row>
-    <row r="38" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+    <row r="38" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33963,9 +34064,12 @@
       <c r="JH38" s="7">
         <v>22864</v>
       </c>
+      <c r="JI38" s="7">
+        <v>22932</v>
+      </c>
     </row>
-    <row r="39" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+    <row r="39" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34767,9 +34871,12 @@
       <c r="JH39" s="7">
         <v>22974</v>
       </c>
+      <c r="JI39" s="7">
+        <v>22990</v>
+      </c>
     </row>
-    <row r="40" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+    <row r="40" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35571,9 +35678,12 @@
       <c r="JH40" s="7">
         <v>11975</v>
       </c>
+      <c r="JI40" s="7">
+        <v>12001</v>
+      </c>
     </row>
-    <row r="41" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+    <row r="41" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36375,9 +36485,12 @@
       <c r="JH41" s="7">
         <v>11620</v>
       </c>
+      <c r="JI41" s="7">
+        <v>11682</v>
+      </c>
     </row>
-    <row r="42" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+    <row r="42" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37179,9 +37292,12 @@
       <c r="JH42" s="7">
         <v>43273</v>
       </c>
+      <c r="JI42" s="7">
+        <v>43761</v>
+      </c>
     </row>
-    <row r="43" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+    <row r="43" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37983,9 +38099,12 @@
       <c r="JH43" s="7">
         <v>5009</v>
       </c>
+      <c r="JI43" s="7">
+        <v>4998</v>
+      </c>
     </row>
-    <row r="44" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+    <row r="44" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38787,9 +38906,12 @@
       <c r="JH44" s="7">
         <v>5773</v>
       </c>
+      <c r="JI44" s="7">
+        <v>5839</v>
+      </c>
     </row>
-    <row r="45" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+    <row r="45" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39591,9 +39713,12 @@
       <c r="JH45" s="7">
         <v>6671</v>
       </c>
+      <c r="JI45" s="7">
+        <v>6621</v>
+      </c>
     </row>
-    <row r="46" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+    <row r="46" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40395,9 +40520,12 @@
       <c r="JH46" s="7">
         <v>12271</v>
       </c>
+      <c r="JI46" s="7">
+        <v>12454</v>
+      </c>
     </row>
-    <row r="47" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+    <row r="47" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41193,15 +41321,18 @@
       <c r="JF47" s="7">
         <v>1646</v>
       </c>
-      <c r="JG47" s="8">
+      <c r="JG47" s="7">
         <v>1654</v>
       </c>
-      <c r="JH47" s="8">
+      <c r="JH47" s="7">
         <v>1632</v>
       </c>
+      <c r="JI47" s="7">
+        <v>1631</v>
+      </c>
     </row>
-    <row r="48" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+    <row r="48" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42008,7 +42139,10 @@
         <f>SUM(JH28:JH47)</f>
         <v>487818</v>
       </c>
-      <c r="JI48" s="29"/>
+      <c r="JI48" s="10">
+        <f>SUM(JI28:JI47)</f>
+        <v>493413</v>
+      </c>
       <c r="JJ48" s="29"/>
       <c r="JK48" s="29"/>
       <c r="JL48" s="29"/>
@@ -42466,7 +42600,7 @@
       <c r="AAV48" s="29"/>
       <c r="AAW48" s="29"/>
       <c r="AAX48" s="29"/>
-      <c r="AAY48" s="5"/>
+      <c r="AAY48" s="29"/>
       <c r="AAZ48" s="5"/>
       <c r="ABA48" s="5"/>
       <c r="ABB48" s="5"/>
@@ -42647,9 +42781,10 @@
       <c r="AHU48" s="5"/>
       <c r="AHV48" s="5"/>
       <c r="AHW48" s="5"/>
+      <c r="AHX48" s="5"/>
     </row>
-    <row r="49" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+    <row r="49" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43453,9 +43588,12 @@
       <c r="JH49" s="8">
         <v>21</v>
       </c>
+      <c r="JI49" s="8">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+    <row r="50" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44257,9 +44395,12 @@
       <c r="JH50" s="8">
         <v>2</v>
       </c>
+      <c r="JI50" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+    <row r="51" spans="1:269" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -45061,9 +45202,12 @@
       <c r="JH51" s="7">
         <v>1476</v>
       </c>
+      <c r="JI51" s="7">
+        <v>1458</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+    <row r="52" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -45865,9 +46009,12 @@
       <c r="JH52" s="7">
         <v>1144</v>
       </c>
+      <c r="JI52" s="7">
+        <v>1096</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+    <row r="53" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46674,9 +46821,13 @@
         <f>SUM(JH49:JH52)</f>
         <v>2643</v>
       </c>
+      <c r="JI53" s="10">
+        <f>SUM(JI49:JI52)</f>
+        <v>2577</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+    <row r="54" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47477,12 +47628,15 @@
       <c r="JG54" s="7">
         <v>5794</v>
       </c>
-      <c r="JH54" s="35">
+      <c r="JH54" s="36">
         <v>5843</v>
       </c>
+      <c r="JI54" s="36">
+        <v>5805</v>
+      </c>
     </row>
-    <row r="55" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+    <row r="55" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48284,9 +48438,12 @@
       <c r="JH55" s="7">
         <v>51973</v>
       </c>
+      <c r="JI55" s="7">
+        <v>51756</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+    <row r="56" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -49088,9 +49245,12 @@
       <c r="JH56" s="7">
         <v>7046</v>
       </c>
+      <c r="JI56" s="7">
+        <v>7122</v>
+      </c>
     </row>
-    <row r="57" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+    <row r="57" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -49892,9 +50052,12 @@
       <c r="JH57" s="7">
         <v>188724</v>
       </c>
+      <c r="JI57" s="7">
+        <v>189093</v>
+      </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+    <row r="58" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -50696,9 +50859,12 @@
       <c r="JH58" s="7">
         <v>31102</v>
       </c>
+      <c r="JI58" s="7">
+        <v>31677</v>
+      </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+    <row r="59" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -51500,9 +51666,12 @@
       <c r="JH59" s="7">
         <v>6102</v>
       </c>
+      <c r="JI59" s="7">
+        <v>6176</v>
+      </c>
     </row>
-    <row r="60" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+    <row r="60" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -52304,9 +52473,12 @@
       <c r="JH60" s="7">
         <v>48190</v>
       </c>
+      <c r="JI60" s="7">
+        <v>48399</v>
+      </c>
     </row>
-    <row r="61" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+    <row r="61" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -53108,9 +53280,12 @@
       <c r="JH61" s="8">
         <v>131</v>
       </c>
+      <c r="JI61" s="8">
+        <v>135</v>
+      </c>
     </row>
-    <row r="62" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+    <row r="62" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -53912,9 +54087,12 @@
       <c r="JH62" s="7">
         <v>19663</v>
       </c>
+      <c r="JI62" s="7">
+        <v>19716</v>
+      </c>
     </row>
-    <row r="63" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+    <row r="63" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -54716,9 +54894,12 @@
       <c r="JH63" s="7">
         <v>33651</v>
       </c>
+      <c r="JI63" s="7">
+        <v>33848</v>
+      </c>
     </row>
-    <row r="64" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+    <row r="64" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -55520,9 +55701,12 @@
       <c r="JH64" s="7">
         <v>48539</v>
       </c>
+      <c r="JI64" s="7">
+        <v>48591</v>
+      </c>
     </row>
-    <row r="65" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+    <row r="65" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -56324,9 +56508,12 @@
       <c r="JH65" s="7">
         <v>161379</v>
       </c>
+      <c r="JI65" s="7">
+        <v>163310</v>
+      </c>
     </row>
-    <row r="66" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+    <row r="66" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -57128,9 +57315,12 @@
       <c r="JH66" s="7">
         <v>17797</v>
       </c>
+      <c r="JI66" s="7">
+        <v>18017</v>
+      </c>
     </row>
-    <row r="67" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+    <row r="67" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -57932,9 +58122,12 @@
       <c r="JH67" s="7">
         <v>6490</v>
       </c>
+      <c r="JI67" s="7">
+        <v>6401</v>
+      </c>
     </row>
-    <row r="68" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+    <row r="68" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -58741,7 +58934,10 @@
         <f>SUM(JH54:JH67)</f>
         <v>626630</v>
       </c>
-      <c r="JI68" s="29"/>
+      <c r="JI68" s="10">
+        <f>SUM(JI54:JI67)</f>
+        <v>630046</v>
+      </c>
       <c r="JJ68" s="29"/>
       <c r="JK68" s="29"/>
       <c r="JL68" s="29"/>
@@ -59199,7 +59395,7 @@
       <c r="AAV68" s="29"/>
       <c r="AAW68" s="29"/>
       <c r="AAX68" s="29"/>
-      <c r="AAY68" s="5"/>
+      <c r="AAY68" s="29"/>
       <c r="AAZ68" s="5"/>
       <c r="ABA68" s="5"/>
       <c r="ABB68" s="5"/>
@@ -59380,9 +59576,10 @@
       <c r="AHU68" s="5"/>
       <c r="AHV68" s="5"/>
       <c r="AHW68" s="5"/>
+      <c r="AHX68" s="5"/>
     </row>
-    <row r="69" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
+    <row r="69" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -60186,9 +60383,12 @@
       <c r="JH69" s="7">
         <v>9717</v>
       </c>
+      <c r="JI69" s="7">
+        <v>9729</v>
+      </c>
     </row>
-    <row r="70" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+    <row r="70" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -60990,9 +61190,12 @@
       <c r="JH70" s="7">
         <v>929</v>
       </c>
+      <c r="JI70" s="7">
+        <v>834</v>
+      </c>
     </row>
-    <row r="71" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+    <row r="71" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -61794,9 +61997,12 @@
       <c r="JH71" s="7">
         <v>32254</v>
       </c>
+      <c r="JI71" s="7">
+        <v>32322</v>
+      </c>
     </row>
-    <row r="72" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+    <row r="72" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -62598,9 +62804,12 @@
       <c r="JH72" s="7">
         <v>3762</v>
       </c>
+      <c r="JI72" s="7">
+        <v>3784</v>
+      </c>
     </row>
-    <row r="73" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+    <row r="73" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -63402,9 +63611,12 @@
       <c r="JH73" s="8">
         <v>534</v>
       </c>
+      <c r="JI73" s="8">
+        <v>533</v>
+      </c>
     </row>
-    <row r="74" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+    <row r="74" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -64206,9 +64418,12 @@
       <c r="JH74" s="7">
         <v>52349</v>
       </c>
+      <c r="JI74" s="7">
+        <v>52622</v>
+      </c>
     </row>
-    <row r="75" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+    <row r="75" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -65015,7 +65230,10 @@
         <f>SUM(JH69:JH74)</f>
         <v>99545</v>
       </c>
-      <c r="JI75" s="29"/>
+      <c r="JI75" s="10">
+        <f>SUM(JI69:JI74)</f>
+        <v>99824</v>
+      </c>
       <c r="JJ75" s="29"/>
       <c r="JK75" s="29"/>
       <c r="JL75" s="29"/>
@@ -65473,7 +65691,7 @@
       <c r="AAV75" s="29"/>
       <c r="AAW75" s="29"/>
       <c r="AAX75" s="29"/>
-      <c r="AAY75" s="5"/>
+      <c r="AAY75" s="29"/>
       <c r="AAZ75" s="5"/>
       <c r="ABA75" s="5"/>
       <c r="ABB75" s="5"/>
@@ -65654,8 +65872,9 @@
       <c r="AHU75" s="5"/>
       <c r="AHV75" s="5"/>
       <c r="AHW75" s="5"/>
+      <c r="AHX75" s="5"/>
     </row>
-    <row r="76" spans="1:907" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:908" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -66464,8 +66683,12 @@
         <f>JH11+JH21+JH24+JH27+JH48+JH53+JH68+JH75</f>
         <v>1874622</v>
       </c>
+      <c r="JI76" s="19">
+        <f>JI11+JI21+JI24+JI27+JI48+JI53+JI68+JI75</f>
+        <v>1886776</v>
+      </c>
     </row>
-    <row r="77" spans="1:907" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:908" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -66729,7 +66952,7 @@
       <c r="JF77" s="30"/>
       <c r="JG77" s="30"/>
       <c r="JH77" s="30"/>
-      <c r="JI77" s="27"/>
+      <c r="JI77" s="30"/>
       <c r="JJ77" s="27"/>
       <c r="JK77" s="27"/>
       <c r="JL77" s="27"/>
@@ -67187,14 +67410,16 @@
       <c r="AAV77" s="27"/>
       <c r="AAW77" s="27"/>
       <c r="AAX77" s="27"/>
+      <c r="AAY77" s="27"/>
     </row>
-    <row r="78" spans="1:907" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:908" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="JG4:JI4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="598"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="ta_división_grupo" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="344">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1072,6 +1072,9 @@
   <si>
     <t>2022/marzo</t>
   </si>
+  <si>
+    <t>2022/abril</t>
+  </si>
 </sst>
 </file>
 
@@ -1783,15 +1786,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1800,6 +1794,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2156,614 +2159,614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHX78"/>
+  <dimension ref="A1:AHY78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JK15" sqref="JK15"/>
+      <selection pane="topRight" activeCell="JK74" sqref="JK74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="188" max="188" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="197" max="197" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="209" max="209" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="221" max="221" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="224" max="224" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="233" max="233" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="236" max="236" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="245" max="245" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="248" max="249" width="10.85546875" style="4"/>
+    <col min="246" max="246" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="10.875" style="4"/>
     <col min="250" max="250" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="252" max="254" width="16.42578125" style="4" customWidth="1"/>
+    <col min="251" max="251" width="16.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="252" max="254" width="16.375" style="4" customWidth="1"/>
     <col min="255" max="255" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
-    <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
-    <col min="263" max="265" width="16.140625" style="4" customWidth="1"/>
-    <col min="266" max="266" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="10.125" style="4" customWidth="1"/>
+    <col min="260" max="262" width="11.625" style="4" customWidth="1"/>
+    <col min="263" max="265" width="16.125" style="4" customWidth="1"/>
+    <col min="266" max="266" width="16.375" style="4" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="11" style="4" customWidth="1"/>
-    <col min="269" max="269" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="33.85546875" style="28" customWidth="1"/>
-    <col min="271" max="727" width="10.85546875" style="28"/>
-    <col min="728" max="908" width="10.85546875" style="4"/>
-    <col min="909" max="16384" width="10.85546875" style="3"/>
+    <col min="268" max="269" width="11" style="4" customWidth="1"/>
+    <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="33.875" style="28" customWidth="1"/>
+    <col min="272" max="728" width="10.875" style="28"/>
+    <col min="729" max="909" width="10.875" style="4"/>
+    <col min="910" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:908" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="41">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41"/>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41"/>
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41"/>
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41"/>
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41"/>
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
+      <c r="ED4" s="41"/>
+      <c r="EE4" s="41">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="41"/>
+      <c r="EG4" s="41"/>
+      <c r="EH4" s="41"/>
+      <c r="EI4" s="41"/>
+      <c r="EJ4" s="41"/>
+      <c r="EK4" s="41"/>
+      <c r="EL4" s="41"/>
+      <c r="EM4" s="41"/>
+      <c r="EN4" s="41"/>
+      <c r="EO4" s="41"/>
+      <c r="EP4" s="41"/>
+      <c r="EQ4" s="41">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="41"/>
+      <c r="ES4" s="41"/>
+      <c r="ET4" s="41"/>
+      <c r="EU4" s="41"/>
+      <c r="EV4" s="41"/>
+      <c r="EW4" s="41"/>
+      <c r="EX4" s="41"/>
+      <c r="EY4" s="41"/>
+      <c r="EZ4" s="41"/>
+      <c r="FA4" s="41"/>
+      <c r="FB4" s="41"/>
+      <c r="FC4" s="41">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="41"/>
+      <c r="FE4" s="41"/>
+      <c r="FF4" s="41"/>
+      <c r="FG4" s="41"/>
+      <c r="FH4" s="41"/>
+      <c r="FI4" s="41"/>
+      <c r="FJ4" s="41"/>
+      <c r="FK4" s="41"/>
+      <c r="FL4" s="41"/>
+      <c r="FM4" s="41"/>
+      <c r="FN4" s="41"/>
+      <c r="FO4" s="41">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="41"/>
+      <c r="FQ4" s="41"/>
+      <c r="FR4" s="41"/>
+      <c r="FS4" s="41"/>
+      <c r="FT4" s="41"/>
+      <c r="FU4" s="41"/>
+      <c r="FV4" s="41"/>
+      <c r="FW4" s="41"/>
+      <c r="FX4" s="41"/>
+      <c r="FY4" s="41"/>
+      <c r="FZ4" s="41"/>
+      <c r="GA4" s="41">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="41"/>
+      <c r="GC4" s="41"/>
+      <c r="GD4" s="41"/>
+      <c r="GE4" s="41"/>
+      <c r="GF4" s="41"/>
+      <c r="GG4" s="41"/>
+      <c r="GH4" s="41"/>
+      <c r="GI4" s="41"/>
+      <c r="GJ4" s="41"/>
+      <c r="GK4" s="41"/>
+      <c r="GL4" s="41"/>
+      <c r="GM4" s="41">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="41"/>
+      <c r="GO4" s="41"/>
+      <c r="GP4" s="41"/>
+      <c r="GQ4" s="41"/>
+      <c r="GR4" s="41"/>
+      <c r="GS4" s="41"/>
+      <c r="GT4" s="41"/>
+      <c r="GU4" s="41"/>
+      <c r="GV4" s="41"/>
+      <c r="GW4" s="41"/>
+      <c r="GX4" s="41"/>
+      <c r="GY4" s="41">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="41"/>
+      <c r="HA4" s="41"/>
+      <c r="HB4" s="41"/>
+      <c r="HC4" s="41"/>
+      <c r="HD4" s="41"/>
+      <c r="HE4" s="41"/>
+      <c r="HF4" s="41"/>
+      <c r="HG4" s="41"/>
+      <c r="HH4" s="41"/>
+      <c r="HI4" s="41"/>
+      <c r="HJ4" s="41"/>
+      <c r="HK4" s="41">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="41"/>
+      <c r="HM4" s="41"/>
+      <c r="HN4" s="41"/>
+      <c r="HO4" s="41"/>
+      <c r="HP4" s="41"/>
+      <c r="HQ4" s="41"/>
+      <c r="HR4" s="41"/>
+      <c r="HS4" s="41"/>
+      <c r="HT4" s="41"/>
+      <c r="HU4" s="41"/>
+      <c r="HV4" s="41"/>
+      <c r="HW4" s="41">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
-      <c r="IH4" s="41"/>
-      <c r="II4" s="41">
+      <c r="HX4" s="41"/>
+      <c r="HY4" s="41"/>
+      <c r="HZ4" s="41"/>
+      <c r="IA4" s="41"/>
+      <c r="IB4" s="41"/>
+      <c r="IC4" s="41"/>
+      <c r="ID4" s="41"/>
+      <c r="IE4" s="41"/>
+      <c r="IF4" s="41"/>
+      <c r="IG4" s="41"/>
+      <c r="IH4" s="38"/>
+      <c r="II4" s="38">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="42"/>
-      <c r="IK4" s="42"/>
-      <c r="IL4" s="42"/>
-      <c r="IM4" s="42"/>
-      <c r="IN4" s="42"/>
-      <c r="IO4" s="42"/>
-      <c r="IP4" s="42"/>
-      <c r="IQ4" s="42"/>
-      <c r="IR4" s="42"/>
-      <c r="IS4" s="42"/>
-      <c r="IT4" s="43"/>
-      <c r="IU4" s="41">
+      <c r="IJ4" s="39"/>
+      <c r="IK4" s="39"/>
+      <c r="IL4" s="39"/>
+      <c r="IM4" s="39"/>
+      <c r="IN4" s="39"/>
+      <c r="IO4" s="39"/>
+      <c r="IP4" s="39"/>
+      <c r="IQ4" s="39"/>
+      <c r="IR4" s="39"/>
+      <c r="IS4" s="39"/>
+      <c r="IT4" s="40"/>
+      <c r="IU4" s="38">
         <v>2021</v>
       </c>
-      <c r="IV4" s="42"/>
-      <c r="IW4" s="42"/>
-      <c r="IX4" s="42"/>
-      <c r="IY4" s="42"/>
-      <c r="IZ4" s="42"/>
-      <c r="JA4" s="42"/>
-      <c r="JB4" s="42"/>
-      <c r="JC4" s="42"/>
-      <c r="JD4" s="42"/>
-      <c r="JE4" s="42"/>
-      <c r="JF4" s="43"/>
-      <c r="JG4" s="41">
+      <c r="IV4" s="39"/>
+      <c r="IW4" s="39"/>
+      <c r="IX4" s="39"/>
+      <c r="IY4" s="39"/>
+      <c r="IZ4" s="39"/>
+      <c r="JA4" s="39"/>
+      <c r="JB4" s="39"/>
+      <c r="JC4" s="39"/>
+      <c r="JD4" s="39"/>
+      <c r="JE4" s="39"/>
+      <c r="JF4" s="40"/>
+      <c r="JG4" s="38">
         <v>2022</v>
       </c>
-      <c r="JH4" s="42"/>
-      <c r="JI4" s="43"/>
-      <c r="JJ4" s="29"/>
+      <c r="JH4" s="39"/>
+      <c r="JI4" s="39"/>
+      <c r="JJ4" s="40"/>
       <c r="JK4" s="29"/>
       <c r="JL4" s="29"/>
       <c r="JM4" s="29"/>
@@ -3221,7 +3224,7 @@
       <c r="AAW4" s="29"/>
       <c r="AAX4" s="29"/>
       <c r="AAY4" s="29"/>
-      <c r="AAZ4" s="5"/>
+      <c r="AAZ4" s="29"/>
       <c r="ABA4" s="5"/>
       <c r="ABB4" s="5"/>
       <c r="ABC4" s="5"/>
@@ -3402,10 +3405,11 @@
       <c r="AHV4" s="5"/>
       <c r="AHW4" s="5"/>
       <c r="AHX4" s="5"/>
+      <c r="AHY4" s="5"/>
     </row>
-    <row r="5" spans="1:908" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4207,7 +4211,9 @@
       <c r="JI5" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="JJ5" s="29"/>
+      <c r="JJ5" s="31" t="s">
+        <v>343</v>
+      </c>
       <c r="JK5" s="29"/>
       <c r="JL5" s="29"/>
       <c r="JM5" s="29"/>
@@ -4665,7 +4671,7 @@
       <c r="AAW5" s="29"/>
       <c r="AAX5" s="29"/>
       <c r="AAY5" s="29"/>
-      <c r="AAZ5" s="5"/>
+      <c r="AAZ5" s="29"/>
       <c r="ABA5" s="5"/>
       <c r="ABB5" s="5"/>
       <c r="ABC5" s="5"/>
@@ -4846,9 +4852,10 @@
       <c r="AHV5" s="5"/>
       <c r="AHW5" s="5"/>
       <c r="AHX5" s="5"/>
+      <c r="AHY5" s="5"/>
     </row>
-    <row r="6" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5655,9 +5662,12 @@
       <c r="JI6" s="7">
         <v>100243</v>
       </c>
+      <c r="JJ6" s="7">
+        <v>96108</v>
+      </c>
     </row>
-    <row r="7" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6462,9 +6472,12 @@
       <c r="JI7" s="8">
         <v>45</v>
       </c>
+      <c r="JJ7" s="8">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7269,9 +7282,12 @@
       <c r="JI8" s="7">
         <v>23739</v>
       </c>
+      <c r="JJ8" s="7">
+        <v>23648</v>
+      </c>
     </row>
-    <row r="9" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8076,9 +8092,12 @@
       <c r="JI9" s="7">
         <v>482</v>
       </c>
+      <c r="JJ9" s="7">
+        <v>501</v>
+      </c>
     </row>
-    <row r="10" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8883,9 +8902,12 @@
       <c r="JI10" s="8">
         <v>408</v>
       </c>
+      <c r="JJ10" s="8">
+        <v>406</v>
+      </c>
     </row>
-    <row r="11" spans="1:908" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9696,7 +9718,10 @@
         <f>SUM(JI6:JI10)</f>
         <v>124917</v>
       </c>
-      <c r="JJ11" s="29"/>
+      <c r="JJ11" s="10">
+        <f>SUM(JJ6:JJ10)</f>
+        <v>120707</v>
+      </c>
       <c r="JK11" s="29"/>
       <c r="JL11" s="29"/>
       <c r="JM11" s="29"/>
@@ -10154,7 +10179,7 @@
       <c r="AAW11" s="29"/>
       <c r="AAX11" s="29"/>
       <c r="AAY11" s="29"/>
-      <c r="AAZ11" s="5"/>
+      <c r="AAZ11" s="29"/>
       <c r="ABA11" s="5"/>
       <c r="ABB11" s="5"/>
       <c r="ABC11" s="5"/>
@@ -10335,9 +10360,10 @@
       <c r="AHV11" s="5"/>
       <c r="AHW11" s="5"/>
       <c r="AHX11" s="5"/>
+      <c r="AHY11" s="5"/>
     </row>
-    <row r="12" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11144,9 +11170,12 @@
       <c r="JI12" s="7">
         <v>77423</v>
       </c>
+      <c r="JJ12" s="7">
+        <v>77135</v>
+      </c>
     </row>
-    <row r="13" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11951,9 +11980,12 @@
       <c r="JI13" s="7">
         <v>20212</v>
       </c>
+      <c r="JJ13" s="7">
+        <v>20414</v>
+      </c>
     </row>
-    <row r="14" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12758,9 +12790,12 @@
       <c r="JI14" s="7">
         <v>32846</v>
       </c>
+      <c r="JJ14" s="7">
+        <v>32843</v>
+      </c>
     </row>
-    <row r="15" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13565,9 +13600,12 @@
       <c r="JI15" s="7">
         <v>22739</v>
       </c>
+      <c r="JJ15" s="7">
+        <v>22664</v>
+      </c>
     </row>
-    <row r="16" spans="1:908" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:909" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14372,9 +14410,12 @@
       <c r="JI16" s="7">
         <v>16798</v>
       </c>
+      <c r="JJ16" s="7">
+        <v>16665</v>
+      </c>
     </row>
-    <row r="17" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15179,9 +15220,12 @@
       <c r="JI17" s="7">
         <v>47849</v>
       </c>
+      <c r="JJ17" s="7">
+        <v>48027</v>
+      </c>
     </row>
-    <row r="18" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15986,9 +16030,12 @@
       <c r="JI18" s="7">
         <v>59065</v>
       </c>
+      <c r="JJ18" s="7">
+        <v>59416</v>
+      </c>
     </row>
-    <row r="19" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16793,9 +16840,12 @@
       <c r="JI19" s="7">
         <v>66639</v>
       </c>
+      <c r="JJ19" s="7">
+        <v>66446</v>
+      </c>
     </row>
-    <row r="20" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17600,9 +17650,12 @@
       <c r="JI20" s="7">
         <v>45465</v>
       </c>
+      <c r="JJ20" s="7">
+        <v>45762</v>
+      </c>
     </row>
-    <row r="21" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18413,7 +18466,10 @@
         <f>SUM(JI12:JI20)</f>
         <v>389036</v>
       </c>
-      <c r="JJ21" s="29"/>
+      <c r="JJ21" s="10">
+        <f>SUM(JJ12:JJ20)</f>
+        <v>389372</v>
+      </c>
       <c r="JK21" s="29"/>
       <c r="JL21" s="29"/>
       <c r="JM21" s="29"/>
@@ -18871,7 +18927,7 @@
       <c r="AAW21" s="29"/>
       <c r="AAX21" s="29"/>
       <c r="AAY21" s="29"/>
-      <c r="AAZ21" s="5"/>
+      <c r="AAZ21" s="29"/>
       <c r="ABA21" s="5"/>
       <c r="ABB21" s="5"/>
       <c r="ABC21" s="5"/>
@@ -19052,9 +19108,10 @@
       <c r="AHV21" s="5"/>
       <c r="AHW21" s="5"/>
       <c r="AHX21" s="5"/>
+      <c r="AHY21" s="5"/>
     </row>
-    <row r="22" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19861,9 +19918,12 @@
       <c r="JI22" s="7">
         <v>101900</v>
       </c>
+      <c r="JJ22" s="7">
+        <v>102081</v>
+      </c>
     </row>
-    <row r="23" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+    <row r="23" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20668,9 +20728,12 @@
       <c r="JI23" s="7">
         <v>35444</v>
       </c>
+      <c r="JJ23" s="7">
+        <v>35054</v>
+      </c>
     </row>
-    <row r="24" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+    <row r="24" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21481,7 +21544,10 @@
         <f>SUM(JI22:JI23)</f>
         <v>137344</v>
       </c>
-      <c r="JJ24" s="29"/>
+      <c r="JJ24" s="10">
+        <f>SUM(JJ22:JJ23)</f>
+        <v>137135</v>
+      </c>
       <c r="JK24" s="29"/>
       <c r="JL24" s="29"/>
       <c r="JM24" s="29"/>
@@ -21939,7 +22005,7 @@
       <c r="AAW24" s="29"/>
       <c r="AAX24" s="29"/>
       <c r="AAY24" s="29"/>
-      <c r="AAZ24" s="5"/>
+      <c r="AAZ24" s="29"/>
       <c r="ABA24" s="5"/>
       <c r="ABB24" s="5"/>
       <c r="ABC24" s="5"/>
@@ -22120,9 +22186,10 @@
       <c r="AHV24" s="5"/>
       <c r="AHW24" s="5"/>
       <c r="AHX24" s="5"/>
+      <c r="AHY24" s="5"/>
     </row>
-    <row r="25" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22929,9 +22996,12 @@
       <c r="JI25" s="7">
         <v>4259</v>
       </c>
+      <c r="JJ25" s="7">
+        <v>4209</v>
+      </c>
     </row>
-    <row r="26" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23736,9 +23806,12 @@
       <c r="JI26" s="7">
         <v>5360</v>
       </c>
+      <c r="JJ26" s="7">
+        <v>5331</v>
+      </c>
     </row>
-    <row r="27" spans="1:908" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24549,7 +24622,10 @@
         <f>SUM(JI25:JI26)</f>
         <v>9619</v>
       </c>
-      <c r="JJ27" s="29"/>
+      <c r="JJ27" s="10">
+        <f>SUM(JJ25:JJ26)</f>
+        <v>9540</v>
+      </c>
       <c r="JK27" s="29"/>
       <c r="JL27" s="29"/>
       <c r="JM27" s="29"/>
@@ -25007,7 +25083,7 @@
       <c r="AAW27" s="29"/>
       <c r="AAX27" s="29"/>
       <c r="AAY27" s="29"/>
-      <c r="AAZ27" s="5"/>
+      <c r="AAZ27" s="29"/>
       <c r="ABA27" s="5"/>
       <c r="ABB27" s="5"/>
       <c r="ABC27" s="5"/>
@@ -25188,9 +25264,10 @@
       <c r="AHV27" s="5"/>
       <c r="AHW27" s="5"/>
       <c r="AHX27" s="5"/>
+      <c r="AHY27" s="5"/>
     </row>
-    <row r="28" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25997,9 +26074,12 @@
       <c r="JI28" s="7">
         <v>821</v>
       </c>
+      <c r="JJ28" s="7">
+        <v>831</v>
+      </c>
     </row>
-    <row r="29" spans="1:908" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26804,9 +26884,12 @@
       <c r="JI29" s="7">
         <v>10501</v>
       </c>
+      <c r="JJ29" s="7">
+        <v>10470</v>
+      </c>
     </row>
-    <row r="30" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27611,9 +27694,12 @@
       <c r="JI30" s="7">
         <v>28833</v>
       </c>
+      <c r="JJ30" s="7">
+        <v>28785</v>
+      </c>
     </row>
-    <row r="31" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28418,9 +28504,12 @@
       <c r="JI31" s="7">
         <v>103266</v>
       </c>
+      <c r="JJ31" s="7">
+        <v>103501</v>
+      </c>
     </row>
-    <row r="32" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29225,9 +29314,12 @@
       <c r="JI32" s="7">
         <v>24195</v>
       </c>
+      <c r="JJ32" s="7">
+        <v>24426</v>
+      </c>
     </row>
-    <row r="33" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30032,9 +30124,12 @@
       <c r="JI33" s="7">
         <v>9715</v>
       </c>
+      <c r="JJ33" s="7">
+        <v>9862</v>
+      </c>
     </row>
-    <row r="34" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30839,9 +30934,12 @@
       <c r="JI34" s="7">
         <v>43753</v>
       </c>
+      <c r="JJ34" s="7">
+        <v>43672</v>
+      </c>
     </row>
-    <row r="35" spans="1:908" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31646,9 +31744,12 @@
       <c r="JI35" s="7">
         <v>10338</v>
       </c>
+      <c r="JJ35" s="7">
+        <v>10468</v>
+      </c>
     </row>
-    <row r="36" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32453,9 +32554,12 @@
       <c r="JI36" s="7">
         <v>52613</v>
       </c>
+      <c r="JJ36" s="7">
+        <v>52851</v>
+      </c>
     </row>
-    <row r="37" spans="1:908" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33260,9 +33364,12 @@
       <c r="JI37" s="7">
         <v>64469</v>
       </c>
+      <c r="JJ37" s="7">
+        <v>65421</v>
+      </c>
     </row>
-    <row r="38" spans="1:908" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34067,9 +34174,12 @@
       <c r="JI38" s="7">
         <v>22932</v>
       </c>
+      <c r="JJ38" s="7">
+        <v>22862</v>
+      </c>
     </row>
-    <row r="39" spans="1:908" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34874,9 +34984,12 @@
       <c r="JI39" s="7">
         <v>22990</v>
       </c>
+      <c r="JJ39" s="7">
+        <v>22961</v>
+      </c>
     </row>
-    <row r="40" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35681,9 +35794,12 @@
       <c r="JI40" s="7">
         <v>12001</v>
       </c>
+      <c r="JJ40" s="7">
+        <v>11923</v>
+      </c>
     </row>
-    <row r="41" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36488,9 +36604,12 @@
       <c r="JI41" s="7">
         <v>11682</v>
       </c>
+      <c r="JJ41" s="7">
+        <v>11637</v>
+      </c>
     </row>
-    <row r="42" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37295,9 +37414,12 @@
       <c r="JI42" s="7">
         <v>43761</v>
       </c>
+      <c r="JJ42" s="7">
+        <v>43688</v>
+      </c>
     </row>
-    <row r="43" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38102,9 +38224,12 @@
       <c r="JI43" s="7">
         <v>4998</v>
       </c>
+      <c r="JJ43" s="7">
+        <v>4968</v>
+      </c>
     </row>
-    <row r="44" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38909,9 +39034,12 @@
       <c r="JI44" s="7">
         <v>5839</v>
       </c>
+      <c r="JJ44" s="7">
+        <v>5822</v>
+      </c>
     </row>
-    <row r="45" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39716,9 +39844,12 @@
       <c r="JI45" s="7">
         <v>6621</v>
       </c>
+      <c r="JJ45" s="7">
+        <v>6564</v>
+      </c>
     </row>
-    <row r="46" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40523,9 +40654,12 @@
       <c r="JI46" s="7">
         <v>12454</v>
       </c>
+      <c r="JJ46" s="7">
+        <v>12462</v>
+      </c>
     </row>
-    <row r="47" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41330,9 +41464,12 @@
       <c r="JI47" s="7">
         <v>1631</v>
       </c>
+      <c r="JJ47" s="7">
+        <v>1650</v>
+      </c>
     </row>
-    <row r="48" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42143,7 +42280,10 @@
         <f>SUM(JI28:JI47)</f>
         <v>493413</v>
       </c>
-      <c r="JJ48" s="29"/>
+      <c r="JJ48" s="10">
+        <f>SUM(JJ28:JJ47)</f>
+        <v>494824</v>
+      </c>
       <c r="JK48" s="29"/>
       <c r="JL48" s="29"/>
       <c r="JM48" s="29"/>
@@ -42601,7 +42741,7 @@
       <c r="AAW48" s="29"/>
       <c r="AAX48" s="29"/>
       <c r="AAY48" s="29"/>
-      <c r="AAZ48" s="5"/>
+      <c r="AAZ48" s="29"/>
       <c r="ABA48" s="5"/>
       <c r="ABB48" s="5"/>
       <c r="ABC48" s="5"/>
@@ -42782,9 +42922,10 @@
       <c r="AHV48" s="5"/>
       <c r="AHW48" s="5"/>
       <c r="AHX48" s="5"/>
+      <c r="AHY48" s="5"/>
     </row>
-    <row r="49" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43591,9 +43732,12 @@
       <c r="JI49" s="8">
         <v>19</v>
       </c>
+      <c r="JJ49" s="8">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44398,9 +44542,12 @@
       <c r="JI50" s="8">
         <v>4</v>
       </c>
+      <c r="JJ50" s="8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="51" spans="1:269" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:270" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -45205,9 +45352,12 @@
       <c r="JI51" s="7">
         <v>1458</v>
       </c>
+      <c r="JJ51" s="7">
+        <v>1447</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -46012,9 +46162,12 @@
       <c r="JI52" s="7">
         <v>1096</v>
       </c>
+      <c r="JJ52" s="7">
+        <v>1085</v>
+      </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46825,9 +46978,13 @@
         <f>SUM(JI49:JI52)</f>
         <v>2577</v>
       </c>
+      <c r="JJ53" s="10">
+        <f>SUM(JJ49:JJ52)</f>
+        <v>2556</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47634,9 +47791,12 @@
       <c r="JI54" s="36">
         <v>5805</v>
       </c>
+      <c r="JJ54" s="36">
+        <v>5806</v>
+      </c>
     </row>
-    <row r="55" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48441,9 +48601,12 @@
       <c r="JI55" s="7">
         <v>51756</v>
       </c>
+      <c r="JJ55" s="7">
+        <v>51776</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+    <row r="56" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -49248,9 +49411,12 @@
       <c r="JI56" s="7">
         <v>7122</v>
       </c>
+      <c r="JJ56" s="7">
+        <v>7279</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -50055,9 +50221,12 @@
       <c r="JI57" s="7">
         <v>189093</v>
       </c>
+      <c r="JJ57" s="7">
+        <v>189528</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -50862,9 +51031,12 @@
       <c r="JI58" s="7">
         <v>31677</v>
       </c>
+      <c r="JJ58" s="7">
+        <v>31858</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+    <row r="59" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -51669,9 +51841,12 @@
       <c r="JI59" s="7">
         <v>6176</v>
       </c>
+      <c r="JJ59" s="7">
+        <v>6256</v>
+      </c>
     </row>
-    <row r="60" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -52476,9 +52651,12 @@
       <c r="JI60" s="7">
         <v>48399</v>
       </c>
+      <c r="JJ60" s="7">
+        <v>47390</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+    <row r="61" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -53283,9 +53461,12 @@
       <c r="JI61" s="8">
         <v>135</v>
       </c>
+      <c r="JJ61" s="8">
+        <v>136</v>
+      </c>
     </row>
-    <row r="62" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+    <row r="62" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -54090,9 +54271,12 @@
       <c r="JI62" s="7">
         <v>19716</v>
       </c>
+      <c r="JJ62" s="7">
+        <v>19723</v>
+      </c>
     </row>
-    <row r="63" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+    <row r="63" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -54897,9 +55081,12 @@
       <c r="JI63" s="7">
         <v>33848</v>
       </c>
+      <c r="JJ63" s="7">
+        <v>34047</v>
+      </c>
     </row>
-    <row r="64" spans="1:269" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+    <row r="64" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -55704,9 +55891,12 @@
       <c r="JI64" s="7">
         <v>48591</v>
       </c>
+      <c r="JJ64" s="7">
+        <v>48767</v>
+      </c>
     </row>
-    <row r="65" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+    <row r="65" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -56511,9 +56701,12 @@
       <c r="JI65" s="7">
         <v>163310</v>
       </c>
+      <c r="JJ65" s="7">
+        <v>163198</v>
+      </c>
     </row>
-    <row r="66" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+    <row r="66" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -57318,9 +57511,12 @@
       <c r="JI66" s="7">
         <v>18017</v>
       </c>
+      <c r="JJ66" s="7">
+        <v>18310</v>
+      </c>
     </row>
-    <row r="67" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+    <row r="67" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -58125,9 +58321,12 @@
       <c r="JI67" s="7">
         <v>6401</v>
       </c>
+      <c r="JJ67" s="7">
+        <v>6347</v>
+      </c>
     </row>
-    <row r="68" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+    <row r="68" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -58938,7 +59137,10 @@
         <f>SUM(JI54:JI67)</f>
         <v>630046</v>
       </c>
-      <c r="JJ68" s="29"/>
+      <c r="JJ68" s="10">
+        <f>SUM(JJ54:JJ67)</f>
+        <v>630421</v>
+      </c>
       <c r="JK68" s="29"/>
       <c r="JL68" s="29"/>
       <c r="JM68" s="29"/>
@@ -59396,7 +59598,7 @@
       <c r="AAW68" s="29"/>
       <c r="AAX68" s="29"/>
       <c r="AAY68" s="29"/>
-      <c r="AAZ68" s="5"/>
+      <c r="AAZ68" s="29"/>
       <c r="ABA68" s="5"/>
       <c r="ABB68" s="5"/>
       <c r="ABC68" s="5"/>
@@ -59577,9 +59779,10 @@
       <c r="AHV68" s="5"/>
       <c r="AHW68" s="5"/>
       <c r="AHX68" s="5"/>
+      <c r="AHY68" s="5"/>
     </row>
-    <row r="69" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+    <row r="69" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -60386,9 +60589,12 @@
       <c r="JI69" s="7">
         <v>9729</v>
       </c>
+      <c r="JJ69" s="7">
+        <v>9619</v>
+      </c>
     </row>
-    <row r="70" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+    <row r="70" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -61193,9 +61399,12 @@
       <c r="JI70" s="7">
         <v>834</v>
       </c>
+      <c r="JJ70" s="7">
+        <v>839</v>
+      </c>
     </row>
-    <row r="71" spans="1:908" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+    <row r="71" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -62000,9 +62209,12 @@
       <c r="JI71" s="7">
         <v>32322</v>
       </c>
+      <c r="JJ71" s="7">
+        <v>32362</v>
+      </c>
     </row>
-    <row r="72" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+    <row r="72" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -62807,9 +63019,12 @@
       <c r="JI72" s="7">
         <v>3784</v>
       </c>
+      <c r="JJ72" s="7">
+        <v>4005</v>
+      </c>
     </row>
-    <row r="73" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+    <row r="73" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -63614,9 +63829,12 @@
       <c r="JI73" s="8">
         <v>533</v>
       </c>
+      <c r="JJ73" s="8">
+        <v>534</v>
+      </c>
     </row>
-    <row r="74" spans="1:908" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+    <row r="74" spans="1:909" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -64421,9 +64639,12 @@
       <c r="JI74" s="7">
         <v>52622</v>
       </c>
+      <c r="JJ74" s="7">
+        <v>52801</v>
+      </c>
     </row>
-    <row r="75" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+    <row r="75" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -65234,7 +65455,10 @@
         <f>SUM(JI69:JI74)</f>
         <v>99824</v>
       </c>
-      <c r="JJ75" s="29"/>
+      <c r="JJ75" s="10">
+        <f>SUM(JJ69:JJ74)</f>
+        <v>100160</v>
+      </c>
       <c r="JK75" s="29"/>
       <c r="JL75" s="29"/>
       <c r="JM75" s="29"/>
@@ -65692,7 +65916,7 @@
       <c r="AAW75" s="29"/>
       <c r="AAX75" s="29"/>
       <c r="AAY75" s="29"/>
-      <c r="AAZ75" s="5"/>
+      <c r="AAZ75" s="29"/>
       <c r="ABA75" s="5"/>
       <c r="ABB75" s="5"/>
       <c r="ABC75" s="5"/>
@@ -65873,8 +66097,9 @@
       <c r="AHV75" s="5"/>
       <c r="AHW75" s="5"/>
       <c r="AHX75" s="5"/>
+      <c r="AHY75" s="5"/>
     </row>
-    <row r="76" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -66687,8 +66912,12 @@
         <f>JI11+JI21+JI24+JI27+JI48+JI53+JI68+JI75</f>
         <v>1886776</v>
       </c>
+      <c r="JJ76" s="19">
+        <f>JJ11+JJ21+JJ24+JJ27+JJ48+JJ53+JJ68+JJ75</f>
+        <v>1884715</v>
+      </c>
     </row>
-    <row r="77" spans="1:908" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:909" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -66953,7 +67182,7 @@
       <c r="JG77" s="30"/>
       <c r="JH77" s="30"/>
       <c r="JI77" s="30"/>
-      <c r="JJ77" s="27"/>
+      <c r="JJ77" s="30"/>
       <c r="JK77" s="27"/>
       <c r="JL77" s="27"/>
       <c r="JM77" s="27"/>
@@ -67411,15 +67640,35 @@
       <c r="AAW77" s="27"/>
       <c r="AAX77" s="27"/>
       <c r="AAY77" s="27"/>
+      <c r="AAZ77" s="27"/>
     </row>
-    <row r="78" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="JG4:JI4"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="JG4:JJ4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -67433,25 +67682,6 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="345">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1075,6 +1075,9 @@
   <si>
     <t>2022/abril</t>
   </si>
+  <si>
+    <t>2022/mayo</t>
+  </si>
 </sst>
 </file>
 
@@ -1786,6 +1789,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,15 +1806,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2163,7 +2166,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JK74" sqref="JK74"/>
+      <selection pane="topRight" activeCell="JD84" sqref="JD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2429,8 +2432,7 @@
     <col min="266" max="266" width="16.375" style="4" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="268" max="269" width="11" style="4" customWidth="1"/>
-    <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="33.875" style="28" customWidth="1"/>
+    <col min="270" max="271" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="272" max="728" width="10.875" style="28"/>
     <col min="729" max="909" width="10.875" style="4"/>
     <col min="910" max="16384" width="10.875" style="3"/>
@@ -2447,327 +2449,327 @@
       </c>
     </row>
     <row r="4" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41"/>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41"/>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41"/>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41"/>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41"/>
-      <c r="DS4" s="41">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41"/>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
-      <c r="ED4" s="41"/>
-      <c r="EE4" s="41">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="41"/>
-      <c r="EG4" s="41"/>
-      <c r="EH4" s="41"/>
-      <c r="EI4" s="41"/>
-      <c r="EJ4" s="41"/>
-      <c r="EK4" s="41"/>
-      <c r="EL4" s="41"/>
-      <c r="EM4" s="41"/>
-      <c r="EN4" s="41"/>
-      <c r="EO4" s="41"/>
-      <c r="EP4" s="41"/>
-      <c r="EQ4" s="41">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="41"/>
-      <c r="ES4" s="41"/>
-      <c r="ET4" s="41"/>
-      <c r="EU4" s="41"/>
-      <c r="EV4" s="41"/>
-      <c r="EW4" s="41"/>
-      <c r="EX4" s="41"/>
-      <c r="EY4" s="41"/>
-      <c r="EZ4" s="41"/>
-      <c r="FA4" s="41"/>
-      <c r="FB4" s="41"/>
-      <c r="FC4" s="41">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="41"/>
-      <c r="FE4" s="41"/>
-      <c r="FF4" s="41"/>
-      <c r="FG4" s="41"/>
-      <c r="FH4" s="41"/>
-      <c r="FI4" s="41"/>
-      <c r="FJ4" s="41"/>
-      <c r="FK4" s="41"/>
-      <c r="FL4" s="41"/>
-      <c r="FM4" s="41"/>
-      <c r="FN4" s="41"/>
-      <c r="FO4" s="41">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="41"/>
-      <c r="FQ4" s="41"/>
-      <c r="FR4" s="41"/>
-      <c r="FS4" s="41"/>
-      <c r="FT4" s="41"/>
-      <c r="FU4" s="41"/>
-      <c r="FV4" s="41"/>
-      <c r="FW4" s="41"/>
-      <c r="FX4" s="41"/>
-      <c r="FY4" s="41"/>
-      <c r="FZ4" s="41"/>
-      <c r="GA4" s="41">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="41"/>
-      <c r="GC4" s="41"/>
-      <c r="GD4" s="41"/>
-      <c r="GE4" s="41"/>
-      <c r="GF4" s="41"/>
-      <c r="GG4" s="41"/>
-      <c r="GH4" s="41"/>
-      <c r="GI4" s="41"/>
-      <c r="GJ4" s="41"/>
-      <c r="GK4" s="41"/>
-      <c r="GL4" s="41"/>
-      <c r="GM4" s="41">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="41"/>
-      <c r="GO4" s="41"/>
-      <c r="GP4" s="41"/>
-      <c r="GQ4" s="41"/>
-      <c r="GR4" s="41"/>
-      <c r="GS4" s="41"/>
-      <c r="GT4" s="41"/>
-      <c r="GU4" s="41"/>
-      <c r="GV4" s="41"/>
-      <c r="GW4" s="41"/>
-      <c r="GX4" s="41"/>
-      <c r="GY4" s="41">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="41"/>
-      <c r="HA4" s="41"/>
-      <c r="HB4" s="41"/>
-      <c r="HC4" s="41"/>
-      <c r="HD4" s="41"/>
-      <c r="HE4" s="41"/>
-      <c r="HF4" s="41"/>
-      <c r="HG4" s="41"/>
-      <c r="HH4" s="41"/>
-      <c r="HI4" s="41"/>
-      <c r="HJ4" s="41"/>
-      <c r="HK4" s="41">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="41"/>
-      <c r="HM4" s="41"/>
-      <c r="HN4" s="41"/>
-      <c r="HO4" s="41"/>
-      <c r="HP4" s="41"/>
-      <c r="HQ4" s="41"/>
-      <c r="HR4" s="41"/>
-      <c r="HS4" s="41"/>
-      <c r="HT4" s="41"/>
-      <c r="HU4" s="41"/>
-      <c r="HV4" s="41"/>
-      <c r="HW4" s="41">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="41"/>
-      <c r="HY4" s="41"/>
-      <c r="HZ4" s="41"/>
-      <c r="IA4" s="41"/>
-      <c r="IB4" s="41"/>
-      <c r="IC4" s="41"/>
-      <c r="ID4" s="41"/>
-      <c r="IE4" s="41"/>
-      <c r="IF4" s="41"/>
-      <c r="IG4" s="41"/>
-      <c r="IH4" s="38"/>
-      <c r="II4" s="38">
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="41"/>
+      <c r="II4" s="41">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="39"/>
-      <c r="IK4" s="39"/>
-      <c r="IL4" s="39"/>
-      <c r="IM4" s="39"/>
-      <c r="IN4" s="39"/>
-      <c r="IO4" s="39"/>
-      <c r="IP4" s="39"/>
-      <c r="IQ4" s="39"/>
-      <c r="IR4" s="39"/>
-      <c r="IS4" s="39"/>
-      <c r="IT4" s="40"/>
-      <c r="IU4" s="38">
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="43"/>
+      <c r="IU4" s="41">
         <v>2021</v>
       </c>
-      <c r="IV4" s="39"/>
-      <c r="IW4" s="39"/>
-      <c r="IX4" s="39"/>
-      <c r="IY4" s="39"/>
-      <c r="IZ4" s="39"/>
-      <c r="JA4" s="39"/>
-      <c r="JB4" s="39"/>
-      <c r="JC4" s="39"/>
-      <c r="JD4" s="39"/>
-      <c r="JE4" s="39"/>
-      <c r="JF4" s="40"/>
-      <c r="JG4" s="38">
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
+      <c r="IY4" s="42"/>
+      <c r="IZ4" s="42"/>
+      <c r="JA4" s="42"/>
+      <c r="JB4" s="42"/>
+      <c r="JC4" s="42"/>
+      <c r="JD4" s="42"/>
+      <c r="JE4" s="42"/>
+      <c r="JF4" s="43"/>
+      <c r="JG4" s="39">
         <v>2022</v>
       </c>
       <c r="JH4" s="39"/>
       <c r="JI4" s="39"/>
-      <c r="JJ4" s="40"/>
-      <c r="JK4" s="29"/>
+      <c r="JJ4" s="39"/>
+      <c r="JK4" s="39"/>
       <c r="JL4" s="29"/>
       <c r="JM4" s="29"/>
       <c r="JN4" s="29"/>
@@ -3408,8 +3410,8 @@
       <c r="AHY4" s="5"/>
     </row>
     <row r="5" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4214,7 +4216,9 @@
       <c r="JJ5" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="JK5" s="29"/>
+      <c r="JK5" s="31" t="s">
+        <v>344</v>
+      </c>
       <c r="JL5" s="29"/>
       <c r="JM5" s="29"/>
       <c r="JN5" s="29"/>
@@ -4855,7 +4859,7 @@
       <c r="AHY5" s="5"/>
     </row>
     <row r="6" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5665,9 +5669,12 @@
       <c r="JJ6" s="7">
         <v>96108</v>
       </c>
+      <c r="JK6" s="7">
+        <v>92092</v>
+      </c>
     </row>
     <row r="7" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6475,9 +6482,12 @@
       <c r="JJ7" s="8">
         <v>44</v>
       </c>
+      <c r="JK7" s="8">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7285,9 +7295,12 @@
       <c r="JJ8" s="7">
         <v>23648</v>
       </c>
+      <c r="JK8" s="7">
+        <v>23489</v>
+      </c>
     </row>
     <row r="9" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8095,9 +8108,12 @@
       <c r="JJ9" s="7">
         <v>501</v>
       </c>
+      <c r="JK9" s="7">
+        <v>481</v>
+      </c>
     </row>
     <row r="10" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8905,9 +8921,12 @@
       <c r="JJ10" s="8">
         <v>406</v>
       </c>
+      <c r="JK10" s="8">
+        <v>419</v>
+      </c>
     </row>
     <row r="11" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9722,7 +9741,10 @@
         <f>SUM(JJ6:JJ10)</f>
         <v>120707</v>
       </c>
-      <c r="JK11" s="29"/>
+      <c r="JK11" s="10">
+        <f>SUM(JK6:JK10)</f>
+        <v>116527</v>
+      </c>
       <c r="JL11" s="29"/>
       <c r="JM11" s="29"/>
       <c r="JN11" s="29"/>
@@ -10363,7 +10385,7 @@
       <c r="AHY11" s="5"/>
     </row>
     <row r="12" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11173,9 +11195,12 @@
       <c r="JJ12" s="7">
         <v>77135</v>
       </c>
+      <c r="JK12" s="7">
+        <v>77058</v>
+      </c>
     </row>
     <row r="13" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11983,9 +12008,12 @@
       <c r="JJ13" s="7">
         <v>20414</v>
       </c>
+      <c r="JK13" s="7">
+        <v>20603</v>
+      </c>
     </row>
     <row r="14" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12793,9 +12821,12 @@
       <c r="JJ14" s="7">
         <v>32843</v>
       </c>
+      <c r="JK14" s="7">
+        <v>32937</v>
+      </c>
     </row>
     <row r="15" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13603,9 +13634,12 @@
       <c r="JJ15" s="7">
         <v>22664</v>
       </c>
+      <c r="JK15" s="7">
+        <v>22645</v>
+      </c>
     </row>
     <row r="16" spans="1:909" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14413,9 +14447,12 @@
       <c r="JJ16" s="7">
         <v>16665</v>
       </c>
+      <c r="JK16" s="7">
+        <v>15962</v>
+      </c>
     </row>
     <row r="17" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15223,9 +15260,12 @@
       <c r="JJ17" s="7">
         <v>48027</v>
       </c>
+      <c r="JK17" s="7">
+        <v>48430</v>
+      </c>
     </row>
     <row r="18" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16033,9 +16073,12 @@
       <c r="JJ18" s="7">
         <v>59416</v>
       </c>
+      <c r="JK18" s="7">
+        <v>59698</v>
+      </c>
     </row>
     <row r="19" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16843,9 +16886,12 @@
       <c r="JJ19" s="7">
         <v>66446</v>
       </c>
+      <c r="JK19" s="7">
+        <v>66743</v>
+      </c>
     </row>
     <row r="20" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17653,9 +17699,12 @@
       <c r="JJ20" s="7">
         <v>45762</v>
       </c>
+      <c r="JK20" s="7">
+        <v>46081</v>
+      </c>
     </row>
     <row r="21" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18470,7 +18519,10 @@
         <f>SUM(JJ12:JJ20)</f>
         <v>389372</v>
       </c>
-      <c r="JK21" s="29"/>
+      <c r="JK21" s="10">
+        <f>SUM(JK12:JK20)</f>
+        <v>390157</v>
+      </c>
       <c r="JL21" s="29"/>
       <c r="JM21" s="29"/>
       <c r="JN21" s="29"/>
@@ -19111,7 +19163,7 @@
       <c r="AHY21" s="5"/>
     </row>
     <row r="22" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19921,9 +19973,12 @@
       <c r="JJ22" s="7">
         <v>102081</v>
       </c>
+      <c r="JK22" s="7">
+        <v>103997</v>
+      </c>
     </row>
     <row r="23" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20731,9 +20786,12 @@
       <c r="JJ23" s="7">
         <v>35054</v>
       </c>
+      <c r="JK23" s="7">
+        <v>35465</v>
+      </c>
     </row>
     <row r="24" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21548,7 +21606,10 @@
         <f>SUM(JJ22:JJ23)</f>
         <v>137135</v>
       </c>
-      <c r="JK24" s="29"/>
+      <c r="JK24" s="10">
+        <f>SUM(JK22:JK23)</f>
+        <v>139462</v>
+      </c>
       <c r="JL24" s="29"/>
       <c r="JM24" s="29"/>
       <c r="JN24" s="29"/>
@@ -22189,7 +22250,7 @@
       <c r="AHY24" s="5"/>
     </row>
     <row r="25" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22999,9 +23060,12 @@
       <c r="JJ25" s="7">
         <v>4209</v>
       </c>
+      <c r="JK25" s="7">
+        <v>4269</v>
+      </c>
     </row>
     <row r="26" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23809,9 +23873,12 @@
       <c r="JJ26" s="7">
         <v>5331</v>
       </c>
+      <c r="JK26" s="7">
+        <v>5331</v>
+      </c>
     </row>
     <row r="27" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24626,7 +24693,10 @@
         <f>SUM(JJ25:JJ26)</f>
         <v>9540</v>
       </c>
-      <c r="JK27" s="29"/>
+      <c r="JK27" s="10">
+        <f>SUM(JK25:JK26)</f>
+        <v>9600</v>
+      </c>
       <c r="JL27" s="29"/>
       <c r="JM27" s="29"/>
       <c r="JN27" s="29"/>
@@ -25267,7 +25337,7 @@
       <c r="AHY27" s="5"/>
     </row>
     <row r="28" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26077,9 +26147,12 @@
       <c r="JJ28" s="7">
         <v>831</v>
       </c>
+      <c r="JK28" s="7">
+        <v>838</v>
+      </c>
     </row>
     <row r="29" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26887,9 +26960,12 @@
       <c r="JJ29" s="7">
         <v>10470</v>
       </c>
+      <c r="JK29" s="7">
+        <v>10607</v>
+      </c>
     </row>
     <row r="30" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27697,9 +27773,12 @@
       <c r="JJ30" s="7">
         <v>28785</v>
       </c>
+      <c r="JK30" s="7">
+        <v>28915</v>
+      </c>
     </row>
     <row r="31" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28507,9 +28586,12 @@
       <c r="JJ31" s="7">
         <v>103501</v>
       </c>
+      <c r="JK31" s="7">
+        <v>103188</v>
+      </c>
     </row>
     <row r="32" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29317,9 +29399,12 @@
       <c r="JJ32" s="7">
         <v>24426</v>
       </c>
+      <c r="JK32" s="7">
+        <v>24776</v>
+      </c>
     </row>
     <row r="33" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30127,9 +30212,12 @@
       <c r="JJ33" s="7">
         <v>9862</v>
       </c>
+      <c r="JK33" s="7">
+        <v>9619</v>
+      </c>
     </row>
     <row r="34" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30937,9 +31025,12 @@
       <c r="JJ34" s="7">
         <v>43672</v>
       </c>
+      <c r="JK34" s="7">
+        <v>43728</v>
+      </c>
     </row>
     <row r="35" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31747,9 +31838,12 @@
       <c r="JJ35" s="7">
         <v>10468</v>
       </c>
+      <c r="JK35" s="7">
+        <v>10421</v>
+      </c>
     </row>
     <row r="36" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32557,9 +32651,12 @@
       <c r="JJ36" s="7">
         <v>52851</v>
       </c>
+      <c r="JK36" s="7">
+        <v>52959</v>
+      </c>
     </row>
     <row r="37" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33367,9 +33464,12 @@
       <c r="JJ37" s="7">
         <v>65421</v>
       </c>
+      <c r="JK37" s="7">
+        <v>66631</v>
+      </c>
     </row>
     <row r="38" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34177,9 +34277,12 @@
       <c r="JJ38" s="7">
         <v>22862</v>
       </c>
+      <c r="JK38" s="7">
+        <v>22565</v>
+      </c>
     </row>
     <row r="39" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34987,9 +35090,12 @@
       <c r="JJ39" s="7">
         <v>22961</v>
       </c>
+      <c r="JK39" s="7">
+        <v>23081</v>
+      </c>
     </row>
     <row r="40" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35797,9 +35903,12 @@
       <c r="JJ40" s="7">
         <v>11923</v>
       </c>
+      <c r="JK40" s="7">
+        <v>11956</v>
+      </c>
     </row>
     <row r="41" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36607,9 +36716,12 @@
       <c r="JJ41" s="7">
         <v>11637</v>
       </c>
+      <c r="JK41" s="7">
+        <v>11525</v>
+      </c>
     </row>
     <row r="42" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37417,9 +37529,12 @@
       <c r="JJ42" s="7">
         <v>43688</v>
       </c>
+      <c r="JK42" s="7">
+        <v>43891</v>
+      </c>
     </row>
     <row r="43" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38227,9 +38342,12 @@
       <c r="JJ43" s="7">
         <v>4968</v>
       </c>
+      <c r="JK43" s="7">
+        <v>5016</v>
+      </c>
     </row>
     <row r="44" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -39037,9 +39155,12 @@
       <c r="JJ44" s="7">
         <v>5822</v>
       </c>
+      <c r="JK44" s="7">
+        <v>5951</v>
+      </c>
     </row>
     <row r="45" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39847,9 +39968,12 @@
       <c r="JJ45" s="7">
         <v>6564</v>
       </c>
+      <c r="JK45" s="7">
+        <v>6623</v>
+      </c>
     </row>
     <row r="46" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40657,9 +40781,12 @@
       <c r="JJ46" s="7">
         <v>12462</v>
       </c>
+      <c r="JK46" s="7">
+        <v>12742</v>
+      </c>
     </row>
     <row r="47" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41467,9 +41594,12 @@
       <c r="JJ47" s="7">
         <v>1650</v>
       </c>
+      <c r="JK47" s="7">
+        <v>1650</v>
+      </c>
     </row>
     <row r="48" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42284,7 +42414,10 @@
         <f>SUM(JJ28:JJ47)</f>
         <v>494824</v>
       </c>
-      <c r="JK48" s="29"/>
+      <c r="JK48" s="10">
+        <f>SUM(JK28:JK47)</f>
+        <v>496682</v>
+      </c>
       <c r="JL48" s="29"/>
       <c r="JM48" s="29"/>
       <c r="JN48" s="29"/>
@@ -42924,8 +43057,8 @@
       <c r="AHX48" s="5"/>
       <c r="AHY48" s="5"/>
     </row>
-    <row r="49" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43735,9 +43868,12 @@
       <c r="JJ49" s="8">
         <v>18</v>
       </c>
+      <c r="JK49" s="8">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+    <row r="50" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44545,9 +44681,12 @@
       <c r="JJ50" s="8">
         <v>6</v>
       </c>
+      <c r="JK50" s="8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+    <row r="51" spans="1:271" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -45355,9 +45494,12 @@
       <c r="JJ51" s="7">
         <v>1447</v>
       </c>
+      <c r="JK51" s="7">
+        <v>1451</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -46165,9 +46307,12 @@
       <c r="JJ52" s="7">
         <v>1085</v>
       </c>
+      <c r="JK52" s="7">
+        <v>1061</v>
+      </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+    <row r="53" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46982,9 +47127,13 @@
         <f>SUM(JJ49:JJ52)</f>
         <v>2556</v>
       </c>
+      <c r="JK53" s="10">
+        <f>SUM(JK49:JK52)</f>
+        <v>2538</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47794,9 +47943,12 @@
       <c r="JJ54" s="36">
         <v>5806</v>
       </c>
+      <c r="JK54" s="36">
+        <v>5754</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+    <row r="55" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48604,9 +48756,12 @@
       <c r="JJ55" s="7">
         <v>51776</v>
       </c>
+      <c r="JK55" s="7">
+        <v>51651</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
+    <row r="56" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -49414,9 +49569,12 @@
       <c r="JJ56" s="7">
         <v>7279</v>
       </c>
+      <c r="JK56" s="7">
+        <v>7293</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+    <row r="57" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -50224,9 +50382,12 @@
       <c r="JJ57" s="7">
         <v>189528</v>
       </c>
+      <c r="JK57" s="7">
+        <v>189901</v>
+      </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+    <row r="58" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -51034,9 +51195,12 @@
       <c r="JJ58" s="7">
         <v>31858</v>
       </c>
+      <c r="JK58" s="7">
+        <v>31996</v>
+      </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+    <row r="59" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -51844,9 +52008,12 @@
       <c r="JJ59" s="7">
         <v>6256</v>
       </c>
+      <c r="JK59" s="7">
+        <v>6297</v>
+      </c>
     </row>
-    <row r="60" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+    <row r="60" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -52654,9 +52821,12 @@
       <c r="JJ60" s="7">
         <v>47390</v>
       </c>
+      <c r="JK60" s="7">
+        <v>47280</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+    <row r="61" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -53464,9 +53634,12 @@
       <c r="JJ61" s="8">
         <v>136</v>
       </c>
+      <c r="JK61" s="8">
+        <v>135</v>
+      </c>
     </row>
-    <row r="62" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+    <row r="62" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -54274,9 +54447,12 @@
       <c r="JJ62" s="7">
         <v>19723</v>
       </c>
+      <c r="JK62" s="7">
+        <v>19761</v>
+      </c>
     </row>
-    <row r="63" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+    <row r="63" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -55084,9 +55260,12 @@
       <c r="JJ63" s="7">
         <v>34047</v>
       </c>
+      <c r="JK63" s="7">
+        <v>34024</v>
+      </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+    <row r="64" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -55894,9 +56073,12 @@
       <c r="JJ64" s="7">
         <v>48767</v>
       </c>
+      <c r="JK64" s="7">
+        <v>48362</v>
+      </c>
     </row>
     <row r="65" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -56704,9 +56886,12 @@
       <c r="JJ65" s="7">
         <v>163198</v>
       </c>
+      <c r="JK65" s="7">
+        <v>164779</v>
+      </c>
     </row>
     <row r="66" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -57514,9 +57699,12 @@
       <c r="JJ66" s="7">
         <v>18310</v>
       </c>
+      <c r="JK66" s="7">
+        <v>19033</v>
+      </c>
     </row>
     <row r="67" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -58324,9 +58512,12 @@
       <c r="JJ67" s="7">
         <v>6347</v>
       </c>
+      <c r="JK67" s="7">
+        <v>6344</v>
+      </c>
     </row>
     <row r="68" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -59141,7 +59332,10 @@
         <f>SUM(JJ54:JJ67)</f>
         <v>630421</v>
       </c>
-      <c r="JK68" s="29"/>
+      <c r="JK68" s="10">
+        <f>SUM(JK54:JK67)</f>
+        <v>632610</v>
+      </c>
       <c r="JL68" s="29"/>
       <c r="JM68" s="29"/>
       <c r="JN68" s="29"/>
@@ -59782,7 +59976,7 @@
       <c r="AHY68" s="5"/>
     </row>
     <row r="69" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -60592,9 +60786,12 @@
       <c r="JJ69" s="7">
         <v>9619</v>
       </c>
+      <c r="JK69" s="7">
+        <v>9650</v>
+      </c>
     </row>
     <row r="70" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -61402,9 +61599,12 @@
       <c r="JJ70" s="7">
         <v>839</v>
       </c>
+      <c r="JK70" s="7">
+        <v>851</v>
+      </c>
     </row>
     <row r="71" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -62212,9 +62412,12 @@
       <c r="JJ71" s="7">
         <v>32362</v>
       </c>
+      <c r="JK71" s="7">
+        <v>32656</v>
+      </c>
     </row>
     <row r="72" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -63022,9 +63225,12 @@
       <c r="JJ72" s="7">
         <v>4005</v>
       </c>
+      <c r="JK72" s="7">
+        <v>4079</v>
+      </c>
     </row>
     <row r="73" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+      <c r="A73" s="38"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -63832,9 +64038,12 @@
       <c r="JJ73" s="8">
         <v>534</v>
       </c>
+      <c r="JK73" s="8">
+        <v>689</v>
+      </c>
     </row>
     <row r="74" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -64642,9 +64851,12 @@
       <c r="JJ74" s="7">
         <v>52801</v>
       </c>
+      <c r="JK74" s="7">
+        <v>52731</v>
+      </c>
     </row>
     <row r="75" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -65459,7 +65671,10 @@
         <f>SUM(JJ69:JJ74)</f>
         <v>100160</v>
       </c>
-      <c r="JK75" s="29"/>
+      <c r="JK75" s="10">
+        <f>SUM(JK69:JK74)</f>
+        <v>100656</v>
+      </c>
       <c r="JL75" s="29"/>
       <c r="JM75" s="29"/>
       <c r="JN75" s="29"/>
@@ -66916,6 +67131,10 @@
         <f>JJ11+JJ21+JJ24+JJ27+JJ48+JJ53+JJ68+JJ75</f>
         <v>1884715</v>
       </c>
+      <c r="JK76" s="19">
+        <f>JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
+        <v>1888232</v>
+      </c>
     </row>
     <row r="77" spans="1:909" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
@@ -67183,7 +67402,7 @@
       <c r="JH77" s="30"/>
       <c r="JI77" s="30"/>
       <c r="JJ77" s="30"/>
-      <c r="JK77" s="27"/>
+      <c r="JK77" s="30"/>
       <c r="JL77" s="27"/>
       <c r="JM77" s="27"/>
       <c r="JN77" s="27"/>
@@ -67649,26 +67868,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="JG4:JJ4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -67682,6 +67881,26 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="JG4:JK4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="346">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1078,6 +1078,9 @@
   <si>
     <t>2022/mayo</t>
   </si>
+  <si>
+    <t>2022/junio</t>
+  </si>
 </sst>
 </file>
 
@@ -1789,13 +1792,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2162,11 +2165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHY78"/>
+  <dimension ref="A1:AHZ78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JD84" sqref="JD84"/>
+      <selection pane="topRight" activeCell="JO7" sqref="JO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2432,308 +2435,310 @@
     <col min="266" max="266" width="16.375" style="4" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="268" max="269" width="11" style="4" customWidth="1"/>
-    <col min="270" max="271" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="272" max="728" width="10.875" style="28"/>
-    <col min="729" max="909" width="10.875" style="4"/>
-    <col min="910" max="16384" width="10.875" style="3"/>
+    <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="12.625" style="4" customWidth="1"/>
+    <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="273" max="729" width="10.875" style="28"/>
+    <col min="730" max="910" width="10.875" style="4"/>
+    <col min="911" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:909" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:910" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:909" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:910" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38"/>
+      <c r="DG4" s="38">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
+      <c r="DJ4" s="38"/>
+      <c r="DK4" s="38"/>
+      <c r="DL4" s="38"/>
+      <c r="DM4" s="38"/>
+      <c r="DN4" s="38"/>
+      <c r="DO4" s="38"/>
+      <c r="DP4" s="38"/>
+      <c r="DQ4" s="38"/>
+      <c r="DR4" s="38"/>
+      <c r="DS4" s="38">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="38"/>
+      <c r="DU4" s="38"/>
+      <c r="DV4" s="38"/>
+      <c r="DW4" s="38"/>
+      <c r="DX4" s="38"/>
+      <c r="DY4" s="38"/>
+      <c r="DZ4" s="38"/>
+      <c r="EA4" s="38"/>
+      <c r="EB4" s="38"/>
+      <c r="EC4" s="38"/>
+      <c r="ED4" s="38"/>
+      <c r="EE4" s="38">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="38"/>
+      <c r="EG4" s="38"/>
+      <c r="EH4" s="38"/>
+      <c r="EI4" s="38"/>
+      <c r="EJ4" s="38"/>
+      <c r="EK4" s="38"/>
+      <c r="EL4" s="38"/>
+      <c r="EM4" s="38"/>
+      <c r="EN4" s="38"/>
+      <c r="EO4" s="38"/>
+      <c r="EP4" s="38"/>
+      <c r="EQ4" s="38">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="38"/>
+      <c r="ES4" s="38"/>
+      <c r="ET4" s="38"/>
+      <c r="EU4" s="38"/>
+      <c r="EV4" s="38"/>
+      <c r="EW4" s="38"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38"/>
+      <c r="FC4" s="38">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="38"/>
+      <c r="FJ4" s="38"/>
+      <c r="FK4" s="38"/>
+      <c r="FL4" s="38"/>
+      <c r="FM4" s="38"/>
+      <c r="FN4" s="38"/>
+      <c r="FO4" s="38">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="38"/>
+      <c r="FQ4" s="38"/>
+      <c r="FR4" s="38"/>
+      <c r="FS4" s="38"/>
+      <c r="FT4" s="38"/>
+      <c r="FU4" s="38"/>
+      <c r="FV4" s="38"/>
+      <c r="FW4" s="38"/>
+      <c r="FX4" s="38"/>
+      <c r="FY4" s="38"/>
+      <c r="FZ4" s="38"/>
+      <c r="GA4" s="38">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="38"/>
+      <c r="GC4" s="38"/>
+      <c r="GD4" s="38"/>
+      <c r="GE4" s="38"/>
+      <c r="GF4" s="38"/>
+      <c r="GG4" s="38"/>
+      <c r="GH4" s="38"/>
+      <c r="GI4" s="38"/>
+      <c r="GJ4" s="38"/>
+      <c r="GK4" s="38"/>
+      <c r="GL4" s="38"/>
+      <c r="GM4" s="38">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="38"/>
+      <c r="GO4" s="38"/>
+      <c r="GP4" s="38"/>
+      <c r="GQ4" s="38"/>
+      <c r="GR4" s="38"/>
+      <c r="GS4" s="38"/>
+      <c r="GT4" s="38"/>
+      <c r="GU4" s="38"/>
+      <c r="GV4" s="38"/>
+      <c r="GW4" s="38"/>
+      <c r="GX4" s="38"/>
+      <c r="GY4" s="38">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="38"/>
+      <c r="HA4" s="38"/>
+      <c r="HB4" s="38"/>
+      <c r="HC4" s="38"/>
+      <c r="HD4" s="38"/>
+      <c r="HE4" s="38"/>
+      <c r="HF4" s="38"/>
+      <c r="HG4" s="38"/>
+      <c r="HH4" s="38"/>
+      <c r="HI4" s="38"/>
+      <c r="HJ4" s="38"/>
+      <c r="HK4" s="38">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="38"/>
+      <c r="HM4" s="38"/>
+      <c r="HN4" s="38"/>
+      <c r="HO4" s="38"/>
+      <c r="HP4" s="38"/>
+      <c r="HQ4" s="38"/>
+      <c r="HR4" s="38"/>
+      <c r="HS4" s="38"/>
+      <c r="HT4" s="38"/>
+      <c r="HU4" s="38"/>
+      <c r="HV4" s="38"/>
+      <c r="HW4" s="38">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
+      <c r="HX4" s="38"/>
+      <c r="HY4" s="38"/>
+      <c r="HZ4" s="38"/>
+      <c r="IA4" s="38"/>
+      <c r="IB4" s="38"/>
+      <c r="IC4" s="38"/>
+      <c r="ID4" s="38"/>
+      <c r="IE4" s="38"/>
+      <c r="IF4" s="38"/>
+      <c r="IG4" s="38"/>
       <c r="IH4" s="41"/>
       <c r="II4" s="41">
         <v>2020</v>
@@ -2763,14 +2768,14 @@
       <c r="JD4" s="42"/>
       <c r="JE4" s="42"/>
       <c r="JF4" s="43"/>
-      <c r="JG4" s="39">
+      <c r="JG4" s="38">
         <v>2022</v>
       </c>
-      <c r="JH4" s="39"/>
-      <c r="JI4" s="39"/>
-      <c r="JJ4" s="39"/>
-      <c r="JK4" s="39"/>
-      <c r="JL4" s="29"/>
+      <c r="JH4" s="38"/>
+      <c r="JI4" s="38"/>
+      <c r="JJ4" s="38"/>
+      <c r="JK4" s="38"/>
+      <c r="JL4" s="38"/>
       <c r="JM4" s="29"/>
       <c r="JN4" s="29"/>
       <c r="JO4" s="29"/>
@@ -3227,7 +3232,7 @@
       <c r="AAX4" s="29"/>
       <c r="AAY4" s="29"/>
       <c r="AAZ4" s="29"/>
-      <c r="ABA4" s="5"/>
+      <c r="ABA4" s="29"/>
       <c r="ABB4" s="5"/>
       <c r="ABC4" s="5"/>
       <c r="ABD4" s="5"/>
@@ -3408,10 +3413,11 @@
       <c r="AHW4" s="5"/>
       <c r="AHX4" s="5"/>
       <c r="AHY4" s="5"/>
+      <c r="AHZ4" s="5"/>
     </row>
-    <row r="5" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4219,7 +4225,9 @@
       <c r="JK5" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="JL5" s="29"/>
+      <c r="JL5" s="31" t="s">
+        <v>345</v>
+      </c>
       <c r="JM5" s="29"/>
       <c r="JN5" s="29"/>
       <c r="JO5" s="29"/>
@@ -4676,7 +4684,7 @@
       <c r="AAX5" s="29"/>
       <c r="AAY5" s="29"/>
       <c r="AAZ5" s="29"/>
-      <c r="ABA5" s="5"/>
+      <c r="ABA5" s="29"/>
       <c r="ABB5" s="5"/>
       <c r="ABC5" s="5"/>
       <c r="ABD5" s="5"/>
@@ -4857,9 +4865,10 @@
       <c r="AHW5" s="5"/>
       <c r="AHX5" s="5"/>
       <c r="AHY5" s="5"/>
+      <c r="AHZ5" s="5"/>
     </row>
-    <row r="6" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5672,9 +5681,12 @@
       <c r="JK6" s="7">
         <v>92092</v>
       </c>
+      <c r="JL6" s="7">
+        <v>90670</v>
+      </c>
     </row>
-    <row r="7" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6485,9 +6497,12 @@
       <c r="JK7" s="8">
         <v>46</v>
       </c>
+      <c r="JL7" s="8">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7298,9 +7313,12 @@
       <c r="JK8" s="7">
         <v>23489</v>
       </c>
+      <c r="JL8" s="7">
+        <v>23288</v>
+      </c>
     </row>
-    <row r="9" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8111,9 +8129,12 @@
       <c r="JK9" s="7">
         <v>481</v>
       </c>
+      <c r="JL9" s="7">
+        <v>337</v>
+      </c>
     </row>
-    <row r="10" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8924,9 +8945,12 @@
       <c r="JK10" s="8">
         <v>419</v>
       </c>
+      <c r="JL10" s="8">
+        <v>426</v>
+      </c>
     </row>
-    <row r="11" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:910" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9722,30 +9746,33 @@
         <v>119220</v>
       </c>
       <c r="JF11" s="10">
-        <f>SUM(JF6:JF10)</f>
+        <f t="shared" ref="JF11:JL11" si="0">SUM(JF6:JF10)</f>
         <v>116251</v>
       </c>
       <c r="JG11" s="10">
-        <f>SUM(JG6:JG10)</f>
+        <f t="shared" si="0"/>
         <v>121583</v>
       </c>
       <c r="JH11" s="10">
-        <f>SUM(JH6:JH10)</f>
+        <f t="shared" si="0"/>
         <v>123302</v>
       </c>
       <c r="JI11" s="10">
-        <f>SUM(JI6:JI10)</f>
+        <f t="shared" si="0"/>
         <v>124917</v>
       </c>
       <c r="JJ11" s="10">
-        <f>SUM(JJ6:JJ10)</f>
+        <f t="shared" si="0"/>
         <v>120707</v>
       </c>
       <c r="JK11" s="10">
-        <f>SUM(JK6:JK10)</f>
+        <f t="shared" ref="JK11" si="1">SUM(JK6:JK10)</f>
         <v>116527</v>
       </c>
-      <c r="JL11" s="29"/>
+      <c r="JL11" s="10">
+        <f t="shared" si="0"/>
+        <v>114765</v>
+      </c>
       <c r="JM11" s="29"/>
       <c r="JN11" s="29"/>
       <c r="JO11" s="29"/>
@@ -10202,7 +10229,7 @@
       <c r="AAX11" s="29"/>
       <c r="AAY11" s="29"/>
       <c r="AAZ11" s="29"/>
-      <c r="ABA11" s="5"/>
+      <c r="ABA11" s="29"/>
       <c r="ABB11" s="5"/>
       <c r="ABC11" s="5"/>
       <c r="ABD11" s="5"/>
@@ -10383,9 +10410,10 @@
       <c r="AHW11" s="5"/>
       <c r="AHX11" s="5"/>
       <c r="AHY11" s="5"/>
+      <c r="AHZ11" s="5"/>
     </row>
-    <row r="12" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11198,9 +11226,12 @@
       <c r="JK12" s="7">
         <v>77058</v>
       </c>
+      <c r="JL12" s="7">
+        <v>77371</v>
+      </c>
     </row>
-    <row r="13" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12011,9 +12042,12 @@
       <c r="JK13" s="7">
         <v>20603</v>
       </c>
+      <c r="JL13" s="7">
+        <v>20479</v>
+      </c>
     </row>
-    <row r="14" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12824,9 +12858,12 @@
       <c r="JK14" s="7">
         <v>32937</v>
       </c>
+      <c r="JL14" s="7">
+        <v>33210</v>
+      </c>
     </row>
-    <row r="15" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13637,9 +13674,12 @@
       <c r="JK15" s="7">
         <v>22645</v>
       </c>
+      <c r="JL15" s="7">
+        <v>22624</v>
+      </c>
     </row>
-    <row r="16" spans="1:909" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:910" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14450,9 +14490,12 @@
       <c r="JK16" s="7">
         <v>15962</v>
       </c>
+      <c r="JL16" s="7">
+        <v>15446</v>
+      </c>
     </row>
-    <row r="17" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15263,9 +15306,12 @@
       <c r="JK17" s="7">
         <v>48430</v>
       </c>
+      <c r="JL17" s="7">
+        <v>48641</v>
+      </c>
     </row>
-    <row r="18" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16076,9 +16122,12 @@
       <c r="JK18" s="7">
         <v>59698</v>
       </c>
+      <c r="JL18" s="7">
+        <v>59930</v>
+      </c>
     </row>
-    <row r="19" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16889,9 +16938,12 @@
       <c r="JK19" s="7">
         <v>66743</v>
       </c>
+      <c r="JL19" s="7">
+        <v>67725</v>
+      </c>
     </row>
-    <row r="20" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17702,9 +17754,12 @@
       <c r="JK20" s="7">
         <v>46081</v>
       </c>
+      <c r="JL20" s="7">
+        <v>47817</v>
+      </c>
     </row>
-    <row r="21" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18500,30 +18555,33 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f>SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JL21" si="2">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
-        <f>SUM(JG12:JG20)</f>
+        <f t="shared" si="2"/>
         <v>388222</v>
       </c>
       <c r="JH21" s="10">
-        <f>SUM(JH12:JH20)</f>
+        <f t="shared" si="2"/>
         <v>388746</v>
       </c>
       <c r="JI21" s="10">
-        <f>SUM(JI12:JI20)</f>
+        <f t="shared" si="2"/>
         <v>389036</v>
       </c>
       <c r="JJ21" s="10">
-        <f>SUM(JJ12:JJ20)</f>
+        <f t="shared" si="2"/>
         <v>389372</v>
       </c>
       <c r="JK21" s="10">
-        <f>SUM(JK12:JK20)</f>
+        <f t="shared" ref="JK21" si="3">SUM(JK12:JK20)</f>
         <v>390157</v>
       </c>
-      <c r="JL21" s="29"/>
+      <c r="JL21" s="10">
+        <f t="shared" si="2"/>
+        <v>393243</v>
+      </c>
       <c r="JM21" s="29"/>
       <c r="JN21" s="29"/>
       <c r="JO21" s="29"/>
@@ -18980,7 +19038,7 @@
       <c r="AAX21" s="29"/>
       <c r="AAY21" s="29"/>
       <c r="AAZ21" s="29"/>
-      <c r="ABA21" s="5"/>
+      <c r="ABA21" s="29"/>
       <c r="ABB21" s="5"/>
       <c r="ABC21" s="5"/>
       <c r="ABD21" s="5"/>
@@ -19161,9 +19219,10 @@
       <c r="AHW21" s="5"/>
       <c r="AHX21" s="5"/>
       <c r="AHY21" s="5"/>
+      <c r="AHZ21" s="5"/>
     </row>
-    <row r="22" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19976,9 +20035,12 @@
       <c r="JK22" s="7">
         <v>103997</v>
       </c>
+      <c r="JL22" s="7">
+        <v>104996</v>
+      </c>
     </row>
-    <row r="23" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+    <row r="23" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20789,9 +20851,12 @@
       <c r="JK23" s="7">
         <v>35465</v>
       </c>
+      <c r="JL23" s="7">
+        <v>35591</v>
+      </c>
     </row>
-    <row r="24" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+    <row r="24" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21587,30 +21652,33 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f>SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JL24" si="4">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
-        <f>SUM(JG22:JG23)</f>
+        <f t="shared" si="4"/>
         <v>135688</v>
       </c>
       <c r="JH24" s="10">
-        <f>SUM(JH22:JH23)</f>
+        <f t="shared" si="4"/>
         <v>136388</v>
       </c>
       <c r="JI24" s="10">
-        <f>SUM(JI22:JI23)</f>
+        <f t="shared" si="4"/>
         <v>137344</v>
       </c>
       <c r="JJ24" s="10">
-        <f>SUM(JJ22:JJ23)</f>
+        <f t="shared" si="4"/>
         <v>137135</v>
       </c>
       <c r="JK24" s="10">
-        <f>SUM(JK22:JK23)</f>
+        <f t="shared" ref="JK24" si="5">SUM(JK22:JK23)</f>
         <v>139462</v>
       </c>
-      <c r="JL24" s="29"/>
+      <c r="JL24" s="10">
+        <f t="shared" si="4"/>
+        <v>140587</v>
+      </c>
       <c r="JM24" s="29"/>
       <c r="JN24" s="29"/>
       <c r="JO24" s="29"/>
@@ -22067,7 +22135,7 @@
       <c r="AAX24" s="29"/>
       <c r="AAY24" s="29"/>
       <c r="AAZ24" s="29"/>
-      <c r="ABA24" s="5"/>
+      <c r="ABA24" s="29"/>
       <c r="ABB24" s="5"/>
       <c r="ABC24" s="5"/>
       <c r="ABD24" s="5"/>
@@ -22248,9 +22316,10 @@
       <c r="AHW24" s="5"/>
       <c r="AHX24" s="5"/>
       <c r="AHY24" s="5"/>
+      <c r="AHZ24" s="5"/>
     </row>
-    <row r="25" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23063,9 +23132,12 @@
       <c r="JK25" s="7">
         <v>4269</v>
       </c>
+      <c r="JL25" s="7">
+        <v>4315</v>
+      </c>
     </row>
-    <row r="26" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23876,9 +23948,12 @@
       <c r="JK26" s="7">
         <v>5331</v>
       </c>
+      <c r="JL26" s="7">
+        <v>5423</v>
+      </c>
     </row>
-    <row r="27" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:910" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24674,30 +24749,33 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f>SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JL27" si="6">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
-        <f>SUM(JG25:JG26)</f>
+        <f t="shared" si="6"/>
         <v>9433</v>
       </c>
       <c r="JH27" s="10">
-        <f>SUM(JH25:JH26)</f>
+        <f t="shared" si="6"/>
         <v>9550</v>
       </c>
       <c r="JI27" s="10">
-        <f>SUM(JI25:JI26)</f>
+        <f t="shared" si="6"/>
         <v>9619</v>
       </c>
       <c r="JJ27" s="10">
-        <f>SUM(JJ25:JJ26)</f>
+        <f t="shared" si="6"/>
         <v>9540</v>
       </c>
       <c r="JK27" s="10">
-        <f>SUM(JK25:JK26)</f>
+        <f t="shared" ref="JK27" si="7">SUM(JK25:JK26)</f>
         <v>9600</v>
       </c>
-      <c r="JL27" s="29"/>
+      <c r="JL27" s="10">
+        <f t="shared" si="6"/>
+        <v>9738</v>
+      </c>
       <c r="JM27" s="29"/>
       <c r="JN27" s="29"/>
       <c r="JO27" s="29"/>
@@ -25154,7 +25232,7 @@
       <c r="AAX27" s="29"/>
       <c r="AAY27" s="29"/>
       <c r="AAZ27" s="29"/>
-      <c r="ABA27" s="5"/>
+      <c r="ABA27" s="29"/>
       <c r="ABB27" s="5"/>
       <c r="ABC27" s="5"/>
       <c r="ABD27" s="5"/>
@@ -25335,9 +25413,10 @@
       <c r="AHW27" s="5"/>
       <c r="AHX27" s="5"/>
       <c r="AHY27" s="5"/>
+      <c r="AHZ27" s="5"/>
     </row>
-    <row r="28" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26150,9 +26229,12 @@
       <c r="JK28" s="7">
         <v>838</v>
       </c>
+      <c r="JL28" s="7">
+        <v>842</v>
+      </c>
     </row>
-    <row r="29" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26963,9 +27045,12 @@
       <c r="JK29" s="7">
         <v>10607</v>
       </c>
+      <c r="JL29" s="7">
+        <v>10539</v>
+      </c>
     </row>
-    <row r="30" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27776,9 +27861,12 @@
       <c r="JK30" s="7">
         <v>28915</v>
       </c>
+      <c r="JL30" s="7">
+        <v>29221</v>
+      </c>
     </row>
-    <row r="31" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28589,9 +28677,12 @@
       <c r="JK31" s="7">
         <v>103188</v>
       </c>
+      <c r="JL31" s="7">
+        <v>102974</v>
+      </c>
     </row>
-    <row r="32" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29402,9 +29493,12 @@
       <c r="JK32" s="7">
         <v>24776</v>
       </c>
+      <c r="JL32" s="7">
+        <v>25049</v>
+      </c>
     </row>
-    <row r="33" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30215,9 +30309,12 @@
       <c r="JK33" s="7">
         <v>9619</v>
       </c>
+      <c r="JL33" s="7">
+        <v>9712</v>
+      </c>
     </row>
-    <row r="34" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31028,9 +31125,12 @@
       <c r="JK34" s="7">
         <v>43728</v>
       </c>
+      <c r="JL34" s="7">
+        <v>43387</v>
+      </c>
     </row>
-    <row r="35" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31841,9 +31941,12 @@
       <c r="JK35" s="7">
         <v>10421</v>
       </c>
+      <c r="JL35" s="7">
+        <v>10417</v>
+      </c>
     </row>
-    <row r="36" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32654,9 +32757,12 @@
       <c r="JK36" s="7">
         <v>52959</v>
       </c>
+      <c r="JL36" s="7">
+        <v>53162</v>
+      </c>
     </row>
-    <row r="37" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33467,9 +33573,12 @@
       <c r="JK37" s="7">
         <v>66631</v>
       </c>
+      <c r="JL37" s="7">
+        <v>68492</v>
+      </c>
     </row>
-    <row r="38" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34280,9 +34389,12 @@
       <c r="JK38" s="7">
         <v>22565</v>
       </c>
+      <c r="JL38" s="7">
+        <v>22395</v>
+      </c>
     </row>
-    <row r="39" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35093,9 +35205,12 @@
       <c r="JK39" s="7">
         <v>23081</v>
       </c>
+      <c r="JL39" s="7">
+        <v>23161</v>
+      </c>
     </row>
-    <row r="40" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35906,9 +36021,12 @@
       <c r="JK40" s="7">
         <v>11956</v>
       </c>
+      <c r="JL40" s="7">
+        <v>12034</v>
+      </c>
     </row>
-    <row r="41" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36719,9 +36837,12 @@
       <c r="JK41" s="7">
         <v>11525</v>
       </c>
+      <c r="JL41" s="7">
+        <v>11175</v>
+      </c>
     </row>
-    <row r="42" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37532,9 +37653,12 @@
       <c r="JK42" s="7">
         <v>43891</v>
       </c>
+      <c r="JL42" s="7">
+        <v>44082</v>
+      </c>
     </row>
-    <row r="43" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38345,9 +38469,12 @@
       <c r="JK43" s="7">
         <v>5016</v>
       </c>
+      <c r="JL43" s="7">
+        <v>4936</v>
+      </c>
     </row>
-    <row r="44" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -39158,9 +39285,12 @@
       <c r="JK44" s="7">
         <v>5951</v>
       </c>
+      <c r="JL44" s="7">
+        <v>5991</v>
+      </c>
     </row>
-    <row r="45" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39971,9 +40101,12 @@
       <c r="JK45" s="7">
         <v>6623</v>
       </c>
+      <c r="JL45" s="7">
+        <v>7233</v>
+      </c>
     </row>
-    <row r="46" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40784,9 +40917,12 @@
       <c r="JK46" s="7">
         <v>12742</v>
       </c>
+      <c r="JL46" s="7">
+        <v>13086</v>
+      </c>
     </row>
-    <row r="47" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41597,9 +41733,12 @@
       <c r="JK47" s="7">
         <v>1650</v>
       </c>
+      <c r="JL47" s="7">
+        <v>1653</v>
+      </c>
     </row>
-    <row r="48" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42395,30 +42534,33 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f>SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JL48" si="8">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
-        <f>SUM(JG28:JG47)</f>
+        <f t="shared" si="8"/>
         <v>483047</v>
       </c>
       <c r="JH48" s="10">
-        <f>SUM(JH28:JH47)</f>
+        <f t="shared" si="8"/>
         <v>487818</v>
       </c>
       <c r="JI48" s="10">
-        <f>SUM(JI28:JI47)</f>
+        <f t="shared" si="8"/>
         <v>493413</v>
       </c>
       <c r="JJ48" s="10">
-        <f>SUM(JJ28:JJ47)</f>
+        <f t="shared" si="8"/>
         <v>494824</v>
       </c>
       <c r="JK48" s="10">
-        <f>SUM(JK28:JK47)</f>
+        <f t="shared" ref="JK48" si="9">SUM(JK28:JK47)</f>
         <v>496682</v>
       </c>
-      <c r="JL48" s="29"/>
+      <c r="JL48" s="10">
+        <f t="shared" si="8"/>
+        <v>499541</v>
+      </c>
       <c r="JM48" s="29"/>
       <c r="JN48" s="29"/>
       <c r="JO48" s="29"/>
@@ -42875,7 +43017,7 @@
       <c r="AAX48" s="29"/>
       <c r="AAY48" s="29"/>
       <c r="AAZ48" s="29"/>
-      <c r="ABA48" s="5"/>
+      <c r="ABA48" s="29"/>
       <c r="ABB48" s="5"/>
       <c r="ABC48" s="5"/>
       <c r="ABD48" s="5"/>
@@ -43056,9 +43198,10 @@
       <c r="AHW48" s="5"/>
       <c r="AHX48" s="5"/>
       <c r="AHY48" s="5"/>
+      <c r="AHZ48" s="5"/>
     </row>
-    <row r="49" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43871,9 +44014,12 @@
       <c r="JK49" s="8">
         <v>18</v>
       </c>
+      <c r="JL49" s="8">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44684,9 +44830,12 @@
       <c r="JK50" s="8">
         <v>8</v>
       </c>
+      <c r="JL50" s="8">
+        <v>11</v>
+      </c>
     </row>
-    <row r="51" spans="1:271" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:272" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -45497,9 +45646,12 @@
       <c r="JK51" s="7">
         <v>1451</v>
       </c>
+      <c r="JL51" s="7">
+        <v>1444</v>
+      </c>
     </row>
-    <row r="52" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -46310,9 +46462,12 @@
       <c r="JK52" s="7">
         <v>1061</v>
       </c>
+      <c r="JL52" s="7">
+        <v>1065</v>
+      </c>
     </row>
-    <row r="53" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -47108,32 +47263,36 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f>SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JL53" si="10">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
-        <f>SUM(JG49:JG52)</f>
+        <f t="shared" si="10"/>
         <v>2642</v>
       </c>
       <c r="JH53" s="10">
-        <f>SUM(JH49:JH52)</f>
+        <f t="shared" si="10"/>
         <v>2643</v>
       </c>
       <c r="JI53" s="10">
-        <f>SUM(JI49:JI52)</f>
+        <f t="shared" si="10"/>
         <v>2577</v>
       </c>
       <c r="JJ53" s="10">
-        <f>SUM(JJ49:JJ52)</f>
+        <f t="shared" si="10"/>
         <v>2556</v>
       </c>
       <c r="JK53" s="10">
-        <f>SUM(JK49:JK52)</f>
+        <f t="shared" ref="JK53" si="11">SUM(JK49:JK52)</f>
         <v>2538</v>
       </c>
+      <c r="JL53" s="10">
+        <f t="shared" si="10"/>
+        <v>2538</v>
+      </c>
     </row>
-    <row r="54" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47946,9 +48105,12 @@
       <c r="JK54" s="36">
         <v>5754</v>
       </c>
+      <c r="JL54" s="36">
+        <v>5726</v>
+      </c>
     </row>
-    <row r="55" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48759,9 +48921,12 @@
       <c r="JK55" s="7">
         <v>51651</v>
       </c>
+      <c r="JL55" s="7">
+        <v>52128</v>
+      </c>
     </row>
-    <row r="56" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+    <row r="56" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -49572,9 +49737,12 @@
       <c r="JK56" s="7">
         <v>7293</v>
       </c>
+      <c r="JL56" s="7">
+        <v>7276</v>
+      </c>
     </row>
-    <row r="57" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -50385,9 +50553,12 @@
       <c r="JK57" s="7">
         <v>189901</v>
       </c>
+      <c r="JL57" s="7">
+        <v>190156</v>
+      </c>
     </row>
-    <row r="58" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -51198,9 +51369,12 @@
       <c r="JK58" s="7">
         <v>31996</v>
       </c>
+      <c r="JL58" s="7">
+        <v>32399</v>
+      </c>
     </row>
-    <row r="59" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+    <row r="59" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -52011,9 +52185,12 @@
       <c r="JK59" s="7">
         <v>6297</v>
       </c>
+      <c r="JL59" s="7">
+        <v>6394</v>
+      </c>
     </row>
-    <row r="60" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -52824,9 +53001,12 @@
       <c r="JK60" s="7">
         <v>47280</v>
       </c>
+      <c r="JL60" s="7">
+        <v>46963</v>
+      </c>
     </row>
-    <row r="61" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+    <row r="61" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -53637,9 +53817,12 @@
       <c r="JK61" s="8">
         <v>135</v>
       </c>
+      <c r="JL61" s="8">
+        <v>136</v>
+      </c>
     </row>
-    <row r="62" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+    <row r="62" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -54450,9 +54633,12 @@
       <c r="JK62" s="7">
         <v>19761</v>
       </c>
+      <c r="JL62" s="7">
+        <v>19845</v>
+      </c>
     </row>
-    <row r="63" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+    <row r="63" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -55263,9 +55449,12 @@
       <c r="JK63" s="7">
         <v>34024</v>
       </c>
+      <c r="JL63" s="7">
+        <v>33982</v>
+      </c>
     </row>
-    <row r="64" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+    <row r="64" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -56076,9 +56265,12 @@
       <c r="JK64" s="7">
         <v>48362</v>
       </c>
+      <c r="JL64" s="7">
+        <v>48607</v>
+      </c>
     </row>
-    <row r="65" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+    <row r="65" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -56889,9 +57081,12 @@
       <c r="JK65" s="7">
         <v>164779</v>
       </c>
+      <c r="JL65" s="7">
+        <v>165666</v>
+      </c>
     </row>
-    <row r="66" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+    <row r="66" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A66" s="40"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -57702,9 +57897,12 @@
       <c r="JK66" s="7">
         <v>19033</v>
       </c>
+      <c r="JL66" s="7">
+        <v>19304</v>
+      </c>
     </row>
-    <row r="67" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+    <row r="67" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -58515,9 +58713,12 @@
       <c r="JK67" s="7">
         <v>6344</v>
       </c>
+      <c r="JL67" s="7">
+        <v>6182</v>
+      </c>
     </row>
-    <row r="68" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+    <row r="68" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="40"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -59313,30 +59514,33 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f>SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JL68" si="12">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
-        <f>SUM(JG54:JG67)</f>
+        <f t="shared" si="12"/>
         <v>622201</v>
       </c>
       <c r="JH68" s="10">
-        <f>SUM(JH54:JH67)</f>
+        <f t="shared" si="12"/>
         <v>626630</v>
       </c>
       <c r="JI68" s="10">
-        <f>SUM(JI54:JI67)</f>
+        <f t="shared" si="12"/>
         <v>630046</v>
       </c>
       <c r="JJ68" s="10">
-        <f>SUM(JJ54:JJ67)</f>
+        <f t="shared" si="12"/>
         <v>630421</v>
       </c>
       <c r="JK68" s="10">
-        <f>SUM(JK54:JK67)</f>
+        <f t="shared" ref="JK68" si="13">SUM(JK54:JK67)</f>
         <v>632610</v>
       </c>
-      <c r="JL68" s="29"/>
+      <c r="JL68" s="10">
+        <f t="shared" si="12"/>
+        <v>634764</v>
+      </c>
       <c r="JM68" s="29"/>
       <c r="JN68" s="29"/>
       <c r="JO68" s="29"/>
@@ -59793,7 +59997,7 @@
       <c r="AAX68" s="29"/>
       <c r="AAY68" s="29"/>
       <c r="AAZ68" s="29"/>
-      <c r="ABA68" s="5"/>
+      <c r="ABA68" s="29"/>
       <c r="ABB68" s="5"/>
       <c r="ABC68" s="5"/>
       <c r="ABD68" s="5"/>
@@ -59974,9 +60178,10 @@
       <c r="AHW68" s="5"/>
       <c r="AHX68" s="5"/>
       <c r="AHY68" s="5"/>
+      <c r="AHZ68" s="5"/>
     </row>
-    <row r="69" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+    <row r="69" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A69" s="40" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -60789,9 +60994,12 @@
       <c r="JK69" s="7">
         <v>9650</v>
       </c>
+      <c r="JL69" s="7">
+        <v>9729</v>
+      </c>
     </row>
-    <row r="70" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+    <row r="70" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -61602,9 +61810,12 @@
       <c r="JK70" s="7">
         <v>851</v>
       </c>
+      <c r="JL70" s="7">
+        <v>854</v>
+      </c>
     </row>
-    <row r="71" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+    <row r="71" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -62415,9 +62626,12 @@
       <c r="JK71" s="7">
         <v>32656</v>
       </c>
+      <c r="JL71" s="7">
+        <v>33193</v>
+      </c>
     </row>
-    <row r="72" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+    <row r="72" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A72" s="40"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -63228,9 +63442,12 @@
       <c r="JK72" s="7">
         <v>4079</v>
       </c>
+      <c r="JL72" s="7">
+        <v>4176</v>
+      </c>
     </row>
-    <row r="73" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+    <row r="73" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A73" s="40"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -64041,9 +64258,12 @@
       <c r="JK73" s="8">
         <v>689</v>
       </c>
+      <c r="JL73" s="8">
+        <v>543</v>
+      </c>
     </row>
-    <row r="74" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+    <row r="74" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A74" s="40"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -64854,9 +65074,12 @@
       <c r="JK74" s="7">
         <v>52731</v>
       </c>
+      <c r="JL74" s="7">
+        <v>53084</v>
+      </c>
     </row>
-    <row r="75" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+    <row r="75" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -65652,30 +65875,33 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f>SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JL75" si="14">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
-        <f>SUM(JG69:JG74)</f>
+        <f t="shared" si="14"/>
         <v>98343</v>
       </c>
       <c r="JH75" s="10">
-        <f>SUM(JH69:JH74)</f>
+        <f t="shared" si="14"/>
         <v>99545</v>
       </c>
       <c r="JI75" s="10">
-        <f>SUM(JI69:JI74)</f>
+        <f t="shared" si="14"/>
         <v>99824</v>
       </c>
       <c r="JJ75" s="10">
-        <f>SUM(JJ69:JJ74)</f>
+        <f t="shared" si="14"/>
         <v>100160</v>
       </c>
       <c r="JK75" s="10">
-        <f>SUM(JK69:JK74)</f>
+        <f t="shared" ref="JK75" si="15">SUM(JK69:JK74)</f>
         <v>100656</v>
       </c>
-      <c r="JL75" s="29"/>
+      <c r="JL75" s="10">
+        <f t="shared" si="14"/>
+        <v>101579</v>
+      </c>
       <c r="JM75" s="29"/>
       <c r="JN75" s="29"/>
       <c r="JO75" s="29"/>
@@ -66132,7 +66358,7 @@
       <c r="AAX75" s="29"/>
       <c r="AAY75" s="29"/>
       <c r="AAZ75" s="29"/>
-      <c r="ABA75" s="5"/>
+      <c r="ABA75" s="29"/>
       <c r="ABB75" s="5"/>
       <c r="ABC75" s="5"/>
       <c r="ABD75" s="5"/>
@@ -66313,8 +66539,9 @@
       <c r="AHW75" s="5"/>
       <c r="AHX75" s="5"/>
       <c r="AHY75" s="5"/>
+      <c r="AHZ75" s="5"/>
     </row>
-    <row r="76" spans="1:909" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:910" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -67112,31 +67339,35 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f>JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JL76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
-        <f>JG11+JG21+JG24+JG27+JG48+JG53+JG68+JG75</f>
+        <f t="shared" si="16"/>
         <v>1861159</v>
       </c>
       <c r="JH76" s="19">
-        <f>JH11+JH21+JH24+JH27+JH48+JH53+JH68+JH75</f>
+        <f t="shared" si="16"/>
         <v>1874622</v>
       </c>
       <c r="JI76" s="19">
-        <f>JI11+JI21+JI24+JI27+JI48+JI53+JI68+JI75</f>
+        <f t="shared" si="16"/>
         <v>1886776</v>
       </c>
       <c r="JJ76" s="19">
-        <f>JJ11+JJ21+JJ24+JJ27+JJ48+JJ53+JJ68+JJ75</f>
+        <f t="shared" si="16"/>
         <v>1884715</v>
       </c>
       <c r="JK76" s="19">
-        <f>JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
+        <f t="shared" ref="JK76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
         <v>1888232</v>
       </c>
+      <c r="JL76" s="19">
+        <f t="shared" si="16"/>
+        <v>1896755</v>
+      </c>
     </row>
-    <row r="77" spans="1:909" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:910" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -67403,7 +67634,7 @@
       <c r="JI77" s="30"/>
       <c r="JJ77" s="30"/>
       <c r="JK77" s="30"/>
-      <c r="JL77" s="27"/>
+      <c r="JL77" s="30"/>
       <c r="JM77" s="27"/>
       <c r="JN77" s="27"/>
       <c r="JO77" s="27"/>
@@ -67860,14 +68091,37 @@
       <c r="AAX77" s="27"/>
       <c r="AAY77" s="27"/>
       <c r="AAZ77" s="27"/>
+      <c r="ABA77" s="27"/>
     </row>
-    <row r="78" spans="1:909" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:910" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="JG4:JL4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -67879,28 +68133,6 @@
     <mergeCell ref="GY4:HJ4"/>
     <mergeCell ref="GM4:GX4"/>
     <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="JG4:JK4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="347">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1081,6 +1081,9 @@
   <si>
     <t>2022/junio</t>
   </si>
+  <si>
+    <t>2022/julio</t>
+  </si>
 </sst>
 </file>
 
@@ -1792,13 +1795,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2165,7 +2168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHZ78"/>
+  <dimension ref="A1:AIA78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -2437,308 +2440,308 @@
     <col min="268" max="269" width="11" style="4" customWidth="1"/>
     <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="271" max="271" width="12.625" style="4" customWidth="1"/>
-    <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="273" max="729" width="10.875" style="28"/>
-    <col min="730" max="910" width="10.875" style="4"/>
-    <col min="911" max="16384" width="10.875" style="3"/>
+    <col min="272" max="273" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="274" max="730" width="10.875" style="28"/>
+    <col min="731" max="911" width="10.875" style="4"/>
+    <col min="912" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:910" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:911" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:910" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:911" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:911" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="38"/>
-      <c r="CU4" s="38">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="38"/>
-      <c r="CW4" s="38"/>
-      <c r="CX4" s="38"/>
-      <c r="CY4" s="38"/>
-      <c r="CZ4" s="38"/>
-      <c r="DA4" s="38"/>
-      <c r="DB4" s="38"/>
-      <c r="DC4" s="38"/>
-      <c r="DD4" s="38"/>
-      <c r="DE4" s="38"/>
-      <c r="DF4" s="38"/>
-      <c r="DG4" s="38">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="38"/>
-      <c r="DI4" s="38"/>
-      <c r="DJ4" s="38"/>
-      <c r="DK4" s="38"/>
-      <c r="DL4" s="38"/>
-      <c r="DM4" s="38"/>
-      <c r="DN4" s="38"/>
-      <c r="DO4" s="38"/>
-      <c r="DP4" s="38"/>
-      <c r="DQ4" s="38"/>
-      <c r="DR4" s="38"/>
-      <c r="DS4" s="38">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="38"/>
-      <c r="DU4" s="38"/>
-      <c r="DV4" s="38"/>
-      <c r="DW4" s="38"/>
-      <c r="DX4" s="38"/>
-      <c r="DY4" s="38"/>
-      <c r="DZ4" s="38"/>
-      <c r="EA4" s="38"/>
-      <c r="EB4" s="38"/>
-      <c r="EC4" s="38"/>
-      <c r="ED4" s="38"/>
-      <c r="EE4" s="38">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="38"/>
-      <c r="EG4" s="38"/>
-      <c r="EH4" s="38"/>
-      <c r="EI4" s="38"/>
-      <c r="EJ4" s="38"/>
-      <c r="EK4" s="38"/>
-      <c r="EL4" s="38"/>
-      <c r="EM4" s="38"/>
-      <c r="EN4" s="38"/>
-      <c r="EO4" s="38"/>
-      <c r="EP4" s="38"/>
-      <c r="EQ4" s="38">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="38"/>
-      <c r="ES4" s="38"/>
-      <c r="ET4" s="38"/>
-      <c r="EU4" s="38"/>
-      <c r="EV4" s="38"/>
-      <c r="EW4" s="38"/>
-      <c r="EX4" s="38"/>
-      <c r="EY4" s="38"/>
-      <c r="EZ4" s="38"/>
-      <c r="FA4" s="38"/>
-      <c r="FB4" s="38"/>
-      <c r="FC4" s="38">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="38"/>
-      <c r="FE4" s="38"/>
-      <c r="FF4" s="38"/>
-      <c r="FG4" s="38"/>
-      <c r="FH4" s="38"/>
-      <c r="FI4" s="38"/>
-      <c r="FJ4" s="38"/>
-      <c r="FK4" s="38"/>
-      <c r="FL4" s="38"/>
-      <c r="FM4" s="38"/>
-      <c r="FN4" s="38"/>
-      <c r="FO4" s="38">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="38"/>
-      <c r="FQ4" s="38"/>
-      <c r="FR4" s="38"/>
-      <c r="FS4" s="38"/>
-      <c r="FT4" s="38"/>
-      <c r="FU4" s="38"/>
-      <c r="FV4" s="38"/>
-      <c r="FW4" s="38"/>
-      <c r="FX4" s="38"/>
-      <c r="FY4" s="38"/>
-      <c r="FZ4" s="38"/>
-      <c r="GA4" s="38">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="38"/>
-      <c r="GC4" s="38"/>
-      <c r="GD4" s="38"/>
-      <c r="GE4" s="38"/>
-      <c r="GF4" s="38"/>
-      <c r="GG4" s="38"/>
-      <c r="GH4" s="38"/>
-      <c r="GI4" s="38"/>
-      <c r="GJ4" s="38"/>
-      <c r="GK4" s="38"/>
-      <c r="GL4" s="38"/>
-      <c r="GM4" s="38">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="38"/>
-      <c r="GO4" s="38"/>
-      <c r="GP4" s="38"/>
-      <c r="GQ4" s="38"/>
-      <c r="GR4" s="38"/>
-      <c r="GS4" s="38"/>
-      <c r="GT4" s="38"/>
-      <c r="GU4" s="38"/>
-      <c r="GV4" s="38"/>
-      <c r="GW4" s="38"/>
-      <c r="GX4" s="38"/>
-      <c r="GY4" s="38">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="38"/>
-      <c r="HA4" s="38"/>
-      <c r="HB4" s="38"/>
-      <c r="HC4" s="38"/>
-      <c r="HD4" s="38"/>
-      <c r="HE4" s="38"/>
-      <c r="HF4" s="38"/>
-      <c r="HG4" s="38"/>
-      <c r="HH4" s="38"/>
-      <c r="HI4" s="38"/>
-      <c r="HJ4" s="38"/>
-      <c r="HK4" s="38">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="38"/>
-      <c r="HM4" s="38"/>
-      <c r="HN4" s="38"/>
-      <c r="HO4" s="38"/>
-      <c r="HP4" s="38"/>
-      <c r="HQ4" s="38"/>
-      <c r="HR4" s="38"/>
-      <c r="HS4" s="38"/>
-      <c r="HT4" s="38"/>
-      <c r="HU4" s="38"/>
-      <c r="HV4" s="38"/>
-      <c r="HW4" s="38">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="38"/>
-      <c r="HY4" s="38"/>
-      <c r="HZ4" s="38"/>
-      <c r="IA4" s="38"/>
-      <c r="IB4" s="38"/>
-      <c r="IC4" s="38"/>
-      <c r="ID4" s="38"/>
-      <c r="IE4" s="38"/>
-      <c r="IF4" s="38"/>
-      <c r="IG4" s="38"/>
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
       <c r="IH4" s="41"/>
       <c r="II4" s="41">
         <v>2020</v>
@@ -2768,15 +2771,15 @@
       <c r="JD4" s="42"/>
       <c r="JE4" s="42"/>
       <c r="JF4" s="43"/>
-      <c r="JG4" s="38">
+      <c r="JG4" s="39">
         <v>2022</v>
       </c>
-      <c r="JH4" s="38"/>
-      <c r="JI4" s="38"/>
-      <c r="JJ4" s="38"/>
-      <c r="JK4" s="38"/>
-      <c r="JL4" s="38"/>
-      <c r="JM4" s="29"/>
+      <c r="JH4" s="39"/>
+      <c r="JI4" s="39"/>
+      <c r="JJ4" s="39"/>
+      <c r="JK4" s="39"/>
+      <c r="JL4" s="39"/>
+      <c r="JM4" s="39"/>
       <c r="JN4" s="29"/>
       <c r="JO4" s="29"/>
       <c r="JP4" s="29"/>
@@ -3233,7 +3236,7 @@
       <c r="AAY4" s="29"/>
       <c r="AAZ4" s="29"/>
       <c r="ABA4" s="29"/>
-      <c r="ABB4" s="5"/>
+      <c r="ABB4" s="29"/>
       <c r="ABC4" s="5"/>
       <c r="ABD4" s="5"/>
       <c r="ABE4" s="5"/>
@@ -3414,10 +3417,11 @@
       <c r="AHX4" s="5"/>
       <c r="AHY4" s="5"/>
       <c r="AHZ4" s="5"/>
+      <c r="AIA4" s="5"/>
     </row>
-    <row r="5" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
+    <row r="5" spans="1:911" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4232,9 @@
       <c r="JL5" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="JM5" s="29"/>
+      <c r="JM5" s="31" t="s">
+        <v>346</v>
+      </c>
       <c r="JN5" s="29"/>
       <c r="JO5" s="29"/>
       <c r="JP5" s="29"/>
@@ -4685,7 +4691,7 @@
       <c r="AAY5" s="29"/>
       <c r="AAZ5" s="29"/>
       <c r="ABA5" s="29"/>
-      <c r="ABB5" s="5"/>
+      <c r="ABB5" s="29"/>
       <c r="ABC5" s="5"/>
       <c r="ABD5" s="5"/>
       <c r="ABE5" s="5"/>
@@ -4866,9 +4872,10 @@
       <c r="AHX5" s="5"/>
       <c r="AHY5" s="5"/>
       <c r="AHZ5" s="5"/>
+      <c r="AIA5" s="5"/>
     </row>
-    <row r="6" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5684,9 +5691,12 @@
       <c r="JL6" s="7">
         <v>90670</v>
       </c>
+      <c r="JM6" s="7">
+        <v>87732</v>
+      </c>
     </row>
-    <row r="7" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+    <row r="7" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6500,9 +6510,12 @@
       <c r="JL7" s="8">
         <v>44</v>
       </c>
+      <c r="JM7" s="8">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7316,9 +7329,12 @@
       <c r="JL8" s="7">
         <v>23288</v>
       </c>
+      <c r="JM8" s="7">
+        <v>23374</v>
+      </c>
     </row>
-    <row r="9" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+    <row r="9" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8132,9 +8148,12 @@
       <c r="JL9" s="7">
         <v>337</v>
       </c>
+      <c r="JM9" s="7">
+        <v>1303</v>
+      </c>
     </row>
-    <row r="10" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+    <row r="10" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8948,9 +8967,12 @@
       <c r="JL10" s="8">
         <v>426</v>
       </c>
+      <c r="JM10" s="8">
+        <v>410</v>
+      </c>
     </row>
-    <row r="11" spans="1:910" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:911" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9746,7 +9768,7 @@
         <v>119220</v>
       </c>
       <c r="JF11" s="10">
-        <f t="shared" ref="JF11:JL11" si="0">SUM(JF6:JF10)</f>
+        <f t="shared" ref="JF11:JM11" si="0">SUM(JF6:JF10)</f>
         <v>116251</v>
       </c>
       <c r="JG11" s="10">
@@ -9766,14 +9788,17 @@
         <v>120707</v>
       </c>
       <c r="JK11" s="10">
-        <f t="shared" ref="JK11" si="1">SUM(JK6:JK10)</f>
+        <f t="shared" ref="JK11:JL11" si="1">SUM(JK6:JK10)</f>
         <v>116527</v>
       </c>
       <c r="JL11" s="10">
+        <f t="shared" si="1"/>
+        <v>114765</v>
+      </c>
+      <c r="JM11" s="10">
         <f t="shared" si="0"/>
-        <v>114765</v>
-      </c>
-      <c r="JM11" s="29"/>
+        <v>112865</v>
+      </c>
       <c r="JN11" s="29"/>
       <c r="JO11" s="29"/>
       <c r="JP11" s="29"/>
@@ -10230,7 +10255,7 @@
       <c r="AAY11" s="29"/>
       <c r="AAZ11" s="29"/>
       <c r="ABA11" s="29"/>
-      <c r="ABB11" s="5"/>
+      <c r="ABB11" s="29"/>
       <c r="ABC11" s="5"/>
       <c r="ABD11" s="5"/>
       <c r="ABE11" s="5"/>
@@ -10411,9 +10436,10 @@
       <c r="AHX11" s="5"/>
       <c r="AHY11" s="5"/>
       <c r="AHZ11" s="5"/>
+      <c r="AIA11" s="5"/>
     </row>
-    <row r="12" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11229,9 +11255,12 @@
       <c r="JL12" s="7">
         <v>77371</v>
       </c>
+      <c r="JM12" s="7">
+        <v>77524</v>
+      </c>
     </row>
-    <row r="13" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12045,9 +12074,12 @@
       <c r="JL13" s="7">
         <v>20479</v>
       </c>
+      <c r="JM13" s="7">
+        <v>20623</v>
+      </c>
     </row>
-    <row r="14" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+    <row r="14" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12861,9 +12893,12 @@
       <c r="JL14" s="7">
         <v>33210</v>
       </c>
+      <c r="JM14" s="7">
+        <v>33489</v>
+      </c>
     </row>
-    <row r="15" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13677,9 +13712,12 @@
       <c r="JL15" s="7">
         <v>22624</v>
       </c>
+      <c r="JM15" s="7">
+        <v>22634</v>
+      </c>
     </row>
-    <row r="16" spans="1:910" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:911" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14493,9 +14531,12 @@
       <c r="JL16" s="7">
         <v>15446</v>
       </c>
+      <c r="JM16" s="7">
+        <v>15588</v>
+      </c>
     </row>
-    <row r="17" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15309,9 +15350,12 @@
       <c r="JL17" s="7">
         <v>48641</v>
       </c>
+      <c r="JM17" s="7">
+        <v>48716</v>
+      </c>
     </row>
-    <row r="18" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+    <row r="18" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16125,9 +16169,12 @@
       <c r="JL18" s="7">
         <v>59930</v>
       </c>
+      <c r="JM18" s="7">
+        <v>60250</v>
+      </c>
     </row>
-    <row r="19" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+    <row r="19" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16941,9 +16988,12 @@
       <c r="JL19" s="7">
         <v>67725</v>
       </c>
+      <c r="JM19" s="7">
+        <v>67829</v>
+      </c>
     </row>
-    <row r="20" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17757,9 +17807,12 @@
       <c r="JL20" s="7">
         <v>47817</v>
       </c>
+      <c r="JM20" s="7">
+        <v>45928</v>
+      </c>
     </row>
-    <row r="21" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18555,7 +18608,7 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f t="shared" ref="JF21:JL21" si="2">SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JM21" si="2">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
@@ -18575,14 +18628,17 @@
         <v>389372</v>
       </c>
       <c r="JK21" s="10">
-        <f t="shared" ref="JK21" si="3">SUM(JK12:JK20)</f>
+        <f t="shared" ref="JK21:JL21" si="3">SUM(JK12:JK20)</f>
         <v>390157</v>
       </c>
       <c r="JL21" s="10">
+        <f t="shared" si="3"/>
+        <v>393243</v>
+      </c>
+      <c r="JM21" s="10">
         <f t="shared" si="2"/>
-        <v>393243</v>
-      </c>
-      <c r="JM21" s="29"/>
+        <v>392581</v>
+      </c>
       <c r="JN21" s="29"/>
       <c r="JO21" s="29"/>
       <c r="JP21" s="29"/>
@@ -19039,7 +19095,7 @@
       <c r="AAY21" s="29"/>
       <c r="AAZ21" s="29"/>
       <c r="ABA21" s="29"/>
-      <c r="ABB21" s="5"/>
+      <c r="ABB21" s="29"/>
       <c r="ABC21" s="5"/>
       <c r="ABD21" s="5"/>
       <c r="ABE21" s="5"/>
@@ -19220,9 +19276,10 @@
       <c r="AHX21" s="5"/>
       <c r="AHY21" s="5"/>
       <c r="AHZ21" s="5"/>
+      <c r="AIA21" s="5"/>
     </row>
-    <row r="22" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -20038,9 +20095,12 @@
       <c r="JL22" s="7">
         <v>104996</v>
       </c>
+      <c r="JM22" s="7">
+        <v>106727</v>
+      </c>
     </row>
-    <row r="23" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+    <row r="23" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20854,9 +20914,12 @@
       <c r="JL23" s="7">
         <v>35591</v>
       </c>
+      <c r="JM23" s="7">
+        <v>35615</v>
+      </c>
     </row>
-    <row r="24" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+    <row r="24" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21652,7 +21715,7 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f t="shared" ref="JF24:JL24" si="4">SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JM24" si="4">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
@@ -21672,14 +21735,17 @@
         <v>137135</v>
       </c>
       <c r="JK24" s="10">
-        <f t="shared" ref="JK24" si="5">SUM(JK22:JK23)</f>
+        <f t="shared" ref="JK24:JL24" si="5">SUM(JK22:JK23)</f>
         <v>139462</v>
       </c>
       <c r="JL24" s="10">
+        <f t="shared" si="5"/>
+        <v>140587</v>
+      </c>
+      <c r="JM24" s="10">
         <f t="shared" si="4"/>
-        <v>140587</v>
-      </c>
-      <c r="JM24" s="29"/>
+        <v>142342</v>
+      </c>
       <c r="JN24" s="29"/>
       <c r="JO24" s="29"/>
       <c r="JP24" s="29"/>
@@ -22136,7 +22202,7 @@
       <c r="AAY24" s="29"/>
       <c r="AAZ24" s="29"/>
       <c r="ABA24" s="29"/>
-      <c r="ABB24" s="5"/>
+      <c r="ABB24" s="29"/>
       <c r="ABC24" s="5"/>
       <c r="ABD24" s="5"/>
       <c r="ABE24" s="5"/>
@@ -22317,9 +22383,10 @@
       <c r="AHX24" s="5"/>
       <c r="AHY24" s="5"/>
       <c r="AHZ24" s="5"/>
+      <c r="AIA24" s="5"/>
     </row>
-    <row r="25" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23135,9 +23202,12 @@
       <c r="JL25" s="7">
         <v>4315</v>
       </c>
+      <c r="JM25" s="7">
+        <v>4266</v>
+      </c>
     </row>
-    <row r="26" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+    <row r="26" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23951,9 +24021,12 @@
       <c r="JL26" s="7">
         <v>5423</v>
       </c>
+      <c r="JM26" s="7">
+        <v>5416</v>
+      </c>
     </row>
-    <row r="27" spans="1:910" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+    <row r="27" spans="1:911" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24749,7 +24822,7 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f t="shared" ref="JF27:JL27" si="6">SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JM27" si="6">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
@@ -24769,14 +24842,17 @@
         <v>9540</v>
       </c>
       <c r="JK27" s="10">
-        <f t="shared" ref="JK27" si="7">SUM(JK25:JK26)</f>
+        <f t="shared" ref="JK27:JL27" si="7">SUM(JK25:JK26)</f>
         <v>9600</v>
       </c>
       <c r="JL27" s="10">
+        <f t="shared" si="7"/>
+        <v>9738</v>
+      </c>
+      <c r="JM27" s="10">
         <f t="shared" si="6"/>
-        <v>9738</v>
-      </c>
-      <c r="JM27" s="29"/>
+        <v>9682</v>
+      </c>
       <c r="JN27" s="29"/>
       <c r="JO27" s="29"/>
       <c r="JP27" s="29"/>
@@ -25233,7 +25309,7 @@
       <c r="AAY27" s="29"/>
       <c r="AAZ27" s="29"/>
       <c r="ABA27" s="29"/>
-      <c r="ABB27" s="5"/>
+      <c r="ABB27" s="29"/>
       <c r="ABC27" s="5"/>
       <c r="ABD27" s="5"/>
       <c r="ABE27" s="5"/>
@@ -25414,9 +25490,10 @@
       <c r="AHX27" s="5"/>
       <c r="AHY27" s="5"/>
       <c r="AHZ27" s="5"/>
+      <c r="AIA27" s="5"/>
     </row>
-    <row r="28" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26232,9 +26309,12 @@
       <c r="JL28" s="7">
         <v>842</v>
       </c>
+      <c r="JM28" s="7">
+        <v>863</v>
+      </c>
     </row>
-    <row r="29" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+    <row r="29" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -27048,9 +27128,12 @@
       <c r="JL29" s="7">
         <v>10539</v>
       </c>
+      <c r="JM29" s="7">
+        <v>10598</v>
+      </c>
     </row>
-    <row r="30" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+    <row r="30" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27864,9 +27947,12 @@
       <c r="JL30" s="7">
         <v>29221</v>
       </c>
+      <c r="JM30" s="7">
+        <v>29478</v>
+      </c>
     </row>
-    <row r="31" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+    <row r="31" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28680,9 +28766,12 @@
       <c r="JL31" s="7">
         <v>102974</v>
       </c>
+      <c r="JM31" s="7">
+        <v>103257</v>
+      </c>
     </row>
-    <row r="32" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+    <row r="32" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29496,9 +29585,12 @@
       <c r="JL32" s="7">
         <v>25049</v>
       </c>
+      <c r="JM32" s="7">
+        <v>25371</v>
+      </c>
     </row>
-    <row r="33" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+    <row r="33" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30312,9 +30404,12 @@
       <c r="JL33" s="7">
         <v>9712</v>
       </c>
+      <c r="JM33" s="7">
+        <v>9767</v>
+      </c>
     </row>
-    <row r="34" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+    <row r="34" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31128,9 +31223,12 @@
       <c r="JL34" s="7">
         <v>43387</v>
       </c>
+      <c r="JM34" s="7">
+        <v>43964</v>
+      </c>
     </row>
-    <row r="35" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+    <row r="35" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31944,9 +32042,12 @@
       <c r="JL35" s="7">
         <v>10417</v>
       </c>
+      <c r="JM35" s="7">
+        <v>10524</v>
+      </c>
     </row>
-    <row r="36" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+    <row r="36" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32760,9 +32861,12 @@
       <c r="JL36" s="7">
         <v>53162</v>
       </c>
+      <c r="JM36" s="7">
+        <v>53575</v>
+      </c>
     </row>
-    <row r="37" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+    <row r="37" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33576,9 +33680,12 @@
       <c r="JL37" s="7">
         <v>68492</v>
       </c>
+      <c r="JM37" s="7">
+        <v>69684</v>
+      </c>
     </row>
-    <row r="38" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+    <row r="38" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34392,9 +34499,12 @@
       <c r="JL38" s="7">
         <v>22395</v>
       </c>
+      <c r="JM38" s="7">
+        <v>21982</v>
+      </c>
     </row>
-    <row r="39" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+    <row r="39" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35208,9 +35318,12 @@
       <c r="JL39" s="7">
         <v>23161</v>
       </c>
+      <c r="JM39" s="7">
+        <v>23442</v>
+      </c>
     </row>
-    <row r="40" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+    <row r="40" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -36024,9 +36137,12 @@
       <c r="JL40" s="7">
         <v>12034</v>
       </c>
+      <c r="JM40" s="7">
+        <v>12036</v>
+      </c>
     </row>
-    <row r="41" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+    <row r="41" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36840,9 +36956,12 @@
       <c r="JL41" s="7">
         <v>11175</v>
       </c>
+      <c r="JM41" s="7">
+        <v>10870</v>
+      </c>
     </row>
-    <row r="42" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+    <row r="42" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37656,9 +37775,12 @@
       <c r="JL42" s="7">
         <v>44082</v>
       </c>
+      <c r="JM42" s="7">
+        <v>44194</v>
+      </c>
     </row>
-    <row r="43" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+    <row r="43" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38472,9 +38594,12 @@
       <c r="JL43" s="7">
         <v>4936</v>
       </c>
+      <c r="JM43" s="7">
+        <v>4928</v>
+      </c>
     </row>
-    <row r="44" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+    <row r="44" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -39288,9 +39413,12 @@
       <c r="JL44" s="7">
         <v>5991</v>
       </c>
+      <c r="JM44" s="7">
+        <v>5763</v>
+      </c>
     </row>
-    <row r="45" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+    <row r="45" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -40104,9 +40232,12 @@
       <c r="JL45" s="7">
         <v>7233</v>
       </c>
+      <c r="JM45" s="7">
+        <v>7163</v>
+      </c>
     </row>
-    <row r="46" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+    <row r="46" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40920,9 +41051,12 @@
       <c r="JL46" s="7">
         <v>13086</v>
       </c>
+      <c r="JM46" s="7">
+        <v>13286</v>
+      </c>
     </row>
-    <row r="47" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+    <row r="47" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41736,9 +41870,12 @@
       <c r="JL47" s="7">
         <v>1653</v>
       </c>
+      <c r="JM47" s="7">
+        <v>1604</v>
+      </c>
     </row>
-    <row r="48" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+    <row r="48" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42534,7 +42671,7 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f t="shared" ref="JF48:JL48" si="8">SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JM48" si="8">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
@@ -42554,14 +42691,17 @@
         <v>494824</v>
       </c>
       <c r="JK48" s="10">
-        <f t="shared" ref="JK48" si="9">SUM(JK28:JK47)</f>
+        <f t="shared" ref="JK48:JL48" si="9">SUM(JK28:JK47)</f>
         <v>496682</v>
       </c>
       <c r="JL48" s="10">
+        <f t="shared" si="9"/>
+        <v>499541</v>
+      </c>
+      <c r="JM48" s="10">
         <f t="shared" si="8"/>
-        <v>499541</v>
-      </c>
-      <c r="JM48" s="29"/>
+        <v>502349</v>
+      </c>
       <c r="JN48" s="29"/>
       <c r="JO48" s="29"/>
       <c r="JP48" s="29"/>
@@ -43018,7 +43158,7 @@
       <c r="AAY48" s="29"/>
       <c r="AAZ48" s="29"/>
       <c r="ABA48" s="29"/>
-      <c r="ABB48" s="5"/>
+      <c r="ABB48" s="29"/>
       <c r="ABC48" s="5"/>
       <c r="ABD48" s="5"/>
       <c r="ABE48" s="5"/>
@@ -43199,9 +43339,10 @@
       <c r="AHX48" s="5"/>
       <c r="AHY48" s="5"/>
       <c r="AHZ48" s="5"/>
+      <c r="AIA48" s="5"/>
     </row>
-    <row r="49" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+    <row r="49" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -44017,9 +44158,12 @@
       <c r="JL49" s="8">
         <v>18</v>
       </c>
+      <c r="JM49" s="8">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+    <row r="50" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44833,9 +44977,12 @@
       <c r="JL50" s="8">
         <v>11</v>
       </c>
+      <c r="JM50" s="8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="51" spans="1:272" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+    <row r="51" spans="1:273" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -45649,9 +45796,12 @@
       <c r="JL51" s="7">
         <v>1444</v>
       </c>
+      <c r="JM51" s="7">
+        <v>1414</v>
+      </c>
     </row>
-    <row r="52" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+    <row r="52" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -46465,9 +46615,12 @@
       <c r="JL52" s="7">
         <v>1065</v>
       </c>
+      <c r="JM52" s="7">
+        <v>1028</v>
+      </c>
     </row>
-    <row r="53" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+    <row r="53" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -47263,7 +47416,7 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f t="shared" ref="JF53:JL53" si="10">SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JM53" si="10">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
@@ -47283,16 +47436,20 @@
         <v>2556</v>
       </c>
       <c r="JK53" s="10">
-        <f t="shared" ref="JK53" si="11">SUM(JK49:JK52)</f>
+        <f t="shared" ref="JK53:JL53" si="11">SUM(JK49:JK52)</f>
         <v>2538</v>
       </c>
       <c r="JL53" s="10">
+        <f t="shared" si="11"/>
+        <v>2538</v>
+      </c>
+      <c r="JM53" s="10">
         <f t="shared" si="10"/>
-        <v>2538</v>
+        <v>2465</v>
       </c>
     </row>
-    <row r="54" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+    <row r="54" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -48108,9 +48265,12 @@
       <c r="JL54" s="36">
         <v>5726</v>
       </c>
+      <c r="JM54" s="36">
+        <v>5713</v>
+      </c>
     </row>
-    <row r="55" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+    <row r="55" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48924,9 +49084,12 @@
       <c r="JL55" s="7">
         <v>52128</v>
       </c>
+      <c r="JM55" s="7">
+        <v>52455</v>
+      </c>
     </row>
-    <row r="56" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+    <row r="56" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -49740,9 +49903,12 @@
       <c r="JL56" s="7">
         <v>7276</v>
       </c>
+      <c r="JM56" s="7">
+        <v>7234</v>
+      </c>
     </row>
-    <row r="57" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+    <row r="57" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -50556,9 +50722,12 @@
       <c r="JL57" s="7">
         <v>190156</v>
       </c>
+      <c r="JM57" s="7">
+        <v>190203</v>
+      </c>
     </row>
-    <row r="58" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+    <row r="58" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -51372,9 +51541,12 @@
       <c r="JL58" s="7">
         <v>32399</v>
       </c>
+      <c r="JM58" s="7">
+        <v>32677</v>
+      </c>
     </row>
-    <row r="59" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+    <row r="59" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -52188,9 +52360,12 @@
       <c r="JL59" s="7">
         <v>6394</v>
       </c>
+      <c r="JM59" s="7">
+        <v>6406</v>
+      </c>
     </row>
-    <row r="60" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+    <row r="60" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -53004,9 +53179,12 @@
       <c r="JL60" s="7">
         <v>46963</v>
       </c>
+      <c r="JM60" s="7">
+        <v>43708</v>
+      </c>
     </row>
-    <row r="61" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+    <row r="61" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -53820,9 +53998,12 @@
       <c r="JL61" s="8">
         <v>136</v>
       </c>
+      <c r="JM61" s="8">
+        <v>139</v>
+      </c>
     </row>
-    <row r="62" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+    <row r="62" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -54636,9 +54817,12 @@
       <c r="JL62" s="7">
         <v>19845</v>
       </c>
+      <c r="JM62" s="7">
+        <v>19992</v>
+      </c>
     </row>
-    <row r="63" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+    <row r="63" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -55452,9 +55636,12 @@
       <c r="JL63" s="7">
         <v>33982</v>
       </c>
+      <c r="JM63" s="7">
+        <v>33889</v>
+      </c>
     </row>
-    <row r="64" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+    <row r="64" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -56268,9 +56455,12 @@
       <c r="JL64" s="7">
         <v>48607</v>
       </c>
+      <c r="JM64" s="7">
+        <v>48719</v>
+      </c>
     </row>
-    <row r="65" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+    <row r="65" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -57084,9 +57274,12 @@
       <c r="JL65" s="7">
         <v>165666</v>
       </c>
+      <c r="JM65" s="7">
+        <v>166373</v>
+      </c>
     </row>
-    <row r="66" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+    <row r="66" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -57900,9 +58093,12 @@
       <c r="JL66" s="7">
         <v>19304</v>
       </c>
+      <c r="JM66" s="7">
+        <v>19119</v>
+      </c>
     </row>
-    <row r="67" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+    <row r="67" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -58716,9 +58912,12 @@
       <c r="JL67" s="7">
         <v>6182</v>
       </c>
+      <c r="JM67" s="7">
+        <v>6221</v>
+      </c>
     </row>
-    <row r="68" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+    <row r="68" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -59514,7 +59713,7 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f t="shared" ref="JF68:JL68" si="12">SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JM68" si="12">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
@@ -59534,14 +59733,17 @@
         <v>630421</v>
       </c>
       <c r="JK68" s="10">
-        <f t="shared" ref="JK68" si="13">SUM(JK54:JK67)</f>
+        <f t="shared" ref="JK68:JL68" si="13">SUM(JK54:JK67)</f>
         <v>632610</v>
       </c>
       <c r="JL68" s="10">
+        <f t="shared" si="13"/>
+        <v>634764</v>
+      </c>
+      <c r="JM68" s="10">
         <f t="shared" si="12"/>
-        <v>634764</v>
-      </c>
-      <c r="JM68" s="29"/>
+        <v>632848</v>
+      </c>
       <c r="JN68" s="29"/>
       <c r="JO68" s="29"/>
       <c r="JP68" s="29"/>
@@ -59998,7 +60200,7 @@
       <c r="AAY68" s="29"/>
       <c r="AAZ68" s="29"/>
       <c r="ABA68" s="29"/>
-      <c r="ABB68" s="5"/>
+      <c r="ABB68" s="29"/>
       <c r="ABC68" s="5"/>
       <c r="ABD68" s="5"/>
       <c r="ABE68" s="5"/>
@@ -60179,9 +60381,10 @@
       <c r="AHX68" s="5"/>
       <c r="AHY68" s="5"/>
       <c r="AHZ68" s="5"/>
+      <c r="AIA68" s="5"/>
     </row>
-    <row r="69" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
+    <row r="69" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -60997,9 +61200,12 @@
       <c r="JL69" s="7">
         <v>9729</v>
       </c>
+      <c r="JM69" s="7">
+        <v>9745</v>
+      </c>
     </row>
-    <row r="70" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+    <row r="70" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -61813,9 +62019,12 @@
       <c r="JL70" s="7">
         <v>854</v>
       </c>
+      <c r="JM70" s="7">
+        <v>862</v>
+      </c>
     </row>
-    <row r="71" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+    <row r="71" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -62629,9 +62838,12 @@
       <c r="JL71" s="7">
         <v>33193</v>
       </c>
+      <c r="JM71" s="7">
+        <v>32774</v>
+      </c>
     </row>
-    <row r="72" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+    <row r="72" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -63445,9 +63657,12 @@
       <c r="JL72" s="7">
         <v>4176</v>
       </c>
+      <c r="JM72" s="7">
+        <v>4258</v>
+      </c>
     </row>
-    <row r="73" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+    <row r="73" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -64261,9 +64476,12 @@
       <c r="JL73" s="8">
         <v>543</v>
       </c>
+      <c r="JM73" s="8">
+        <v>548</v>
+      </c>
     </row>
-    <row r="74" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+    <row r="74" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -65077,9 +65295,12 @@
       <c r="JL74" s="7">
         <v>53084</v>
       </c>
+      <c r="JM74" s="7">
+        <v>53198</v>
+      </c>
     </row>
-    <row r="75" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+    <row r="75" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -65875,7 +66096,7 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f t="shared" ref="JF75:JL75" si="14">SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JM75" si="14">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
@@ -65895,14 +66116,17 @@
         <v>100160</v>
       </c>
       <c r="JK75" s="10">
-        <f t="shared" ref="JK75" si="15">SUM(JK69:JK74)</f>
+        <f t="shared" ref="JK75:JL75" si="15">SUM(JK69:JK74)</f>
         <v>100656</v>
       </c>
       <c r="JL75" s="10">
+        <f t="shared" si="15"/>
+        <v>101579</v>
+      </c>
+      <c r="JM75" s="10">
         <f t="shared" si="14"/>
-        <v>101579</v>
-      </c>
-      <c r="JM75" s="29"/>
+        <v>101385</v>
+      </c>
       <c r="JN75" s="29"/>
       <c r="JO75" s="29"/>
       <c r="JP75" s="29"/>
@@ -66359,7 +66583,7 @@
       <c r="AAY75" s="29"/>
       <c r="AAZ75" s="29"/>
       <c r="ABA75" s="29"/>
-      <c r="ABB75" s="5"/>
+      <c r="ABB75" s="29"/>
       <c r="ABC75" s="5"/>
       <c r="ABD75" s="5"/>
       <c r="ABE75" s="5"/>
@@ -66540,8 +66764,9 @@
       <c r="AHX75" s="5"/>
       <c r="AHY75" s="5"/>
       <c r="AHZ75" s="5"/>
+      <c r="AIA75" s="5"/>
     </row>
-    <row r="76" spans="1:910" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:911" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -67339,7 +67564,7 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f t="shared" ref="JF76:JL76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JM76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
@@ -67359,15 +67584,19 @@
         <v>1884715</v>
       </c>
       <c r="JK76" s="19">
-        <f t="shared" ref="JK76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
+        <f t="shared" ref="JK76:JL76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
         <v>1888232</v>
       </c>
       <c r="JL76" s="19">
+        <f t="shared" si="17"/>
+        <v>1896755</v>
+      </c>
+      <c r="JM76" s="19">
         <f t="shared" si="16"/>
-        <v>1896755</v>
+        <v>1896517</v>
       </c>
     </row>
-    <row r="77" spans="1:910" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:911" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -67635,7 +67864,7 @@
       <c r="JJ77" s="30"/>
       <c r="JK77" s="30"/>
       <c r="JL77" s="30"/>
-      <c r="JM77" s="27"/>
+      <c r="JM77" s="30"/>
       <c r="JN77" s="27"/>
       <c r="JO77" s="27"/>
       <c r="JP77" s="27"/>
@@ -68092,36 +68321,16 @@
       <c r="AAY77" s="27"/>
       <c r="AAZ77" s="27"/>
       <c r="ABA77" s="27"/>
+      <c r="ABB77" s="27"/>
     </row>
-    <row r="78" spans="1:910" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:911" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="JG4:JL4"/>
+    <mergeCell ref="JG4:JM4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -68133,6 +68342,27 @@
     <mergeCell ref="GY4:HJ4"/>
     <mergeCell ref="GM4:GX4"/>
     <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="348">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1084,6 +1084,9 @@
   <si>
     <t>2022/julio</t>
   </si>
+  <si>
+    <t>2022/agosto</t>
+  </si>
 </sst>
 </file>
 
@@ -1795,14 +1798,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1812,6 +1809,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2168,11 +2171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIA78"/>
+  <dimension ref="A1:AIB78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JO7" sqref="JO7"/>
+      <selection pane="topRight" activeCell="JR11" sqref="JR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2440,347 +2443,349 @@
     <col min="268" max="269" width="11" style="4" customWidth="1"/>
     <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="271" max="271" width="12.625" style="4" customWidth="1"/>
-    <col min="272" max="273" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="274" max="730" width="10.875" style="28"/>
-    <col min="731" max="911" width="10.875" style="4"/>
-    <col min="912" max="16384" width="10.875" style="3"/>
+    <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
+    <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="275" max="731" width="10.875" style="28"/>
+    <col min="732" max="912" width="10.875" style="4"/>
+    <col min="913" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:911" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38"/>
+      <c r="DG4" s="38">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
+      <c r="DJ4" s="38"/>
+      <c r="DK4" s="38"/>
+      <c r="DL4" s="38"/>
+      <c r="DM4" s="38"/>
+      <c r="DN4" s="38"/>
+      <c r="DO4" s="38"/>
+      <c r="DP4" s="38"/>
+      <c r="DQ4" s="38"/>
+      <c r="DR4" s="38"/>
+      <c r="DS4" s="38">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="38"/>
+      <c r="DU4" s="38"/>
+      <c r="DV4" s="38"/>
+      <c r="DW4" s="38"/>
+      <c r="DX4" s="38"/>
+      <c r="DY4" s="38"/>
+      <c r="DZ4" s="38"/>
+      <c r="EA4" s="38"/>
+      <c r="EB4" s="38"/>
+      <c r="EC4" s="38"/>
+      <c r="ED4" s="38"/>
+      <c r="EE4" s="38">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="38"/>
+      <c r="EG4" s="38"/>
+      <c r="EH4" s="38"/>
+      <c r="EI4" s="38"/>
+      <c r="EJ4" s="38"/>
+      <c r="EK4" s="38"/>
+      <c r="EL4" s="38"/>
+      <c r="EM4" s="38"/>
+      <c r="EN4" s="38"/>
+      <c r="EO4" s="38"/>
+      <c r="EP4" s="38"/>
+      <c r="EQ4" s="38">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="38"/>
+      <c r="ES4" s="38"/>
+      <c r="ET4" s="38"/>
+      <c r="EU4" s="38"/>
+      <c r="EV4" s="38"/>
+      <c r="EW4" s="38"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38"/>
+      <c r="FC4" s="38">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="38"/>
+      <c r="FJ4" s="38"/>
+      <c r="FK4" s="38"/>
+      <c r="FL4" s="38"/>
+      <c r="FM4" s="38"/>
+      <c r="FN4" s="38"/>
+      <c r="FO4" s="38">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="38"/>
+      <c r="FQ4" s="38"/>
+      <c r="FR4" s="38"/>
+      <c r="FS4" s="38"/>
+      <c r="FT4" s="38"/>
+      <c r="FU4" s="38"/>
+      <c r="FV4" s="38"/>
+      <c r="FW4" s="38"/>
+      <c r="FX4" s="38"/>
+      <c r="FY4" s="38"/>
+      <c r="FZ4" s="38"/>
+      <c r="GA4" s="38">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="38"/>
+      <c r="GC4" s="38"/>
+      <c r="GD4" s="38"/>
+      <c r="GE4" s="38"/>
+      <c r="GF4" s="38"/>
+      <c r="GG4" s="38"/>
+      <c r="GH4" s="38"/>
+      <c r="GI4" s="38"/>
+      <c r="GJ4" s="38"/>
+      <c r="GK4" s="38"/>
+      <c r="GL4" s="38"/>
+      <c r="GM4" s="38">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="38"/>
+      <c r="GO4" s="38"/>
+      <c r="GP4" s="38"/>
+      <c r="GQ4" s="38"/>
+      <c r="GR4" s="38"/>
+      <c r="GS4" s="38"/>
+      <c r="GT4" s="38"/>
+      <c r="GU4" s="38"/>
+      <c r="GV4" s="38"/>
+      <c r="GW4" s="38"/>
+      <c r="GX4" s="38"/>
+      <c r="GY4" s="38">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="38"/>
+      <c r="HA4" s="38"/>
+      <c r="HB4" s="38"/>
+      <c r="HC4" s="38"/>
+      <c r="HD4" s="38"/>
+      <c r="HE4" s="38"/>
+      <c r="HF4" s="38"/>
+      <c r="HG4" s="38"/>
+      <c r="HH4" s="38"/>
+      <c r="HI4" s="38"/>
+      <c r="HJ4" s="38"/>
+      <c r="HK4" s="38">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="38"/>
+      <c r="HM4" s="38"/>
+      <c r="HN4" s="38"/>
+      <c r="HO4" s="38"/>
+      <c r="HP4" s="38"/>
+      <c r="HQ4" s="38"/>
+      <c r="HR4" s="38"/>
+      <c r="HS4" s="38"/>
+      <c r="HT4" s="38"/>
+      <c r="HU4" s="38"/>
+      <c r="HV4" s="38"/>
+      <c r="HW4" s="38">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
-      <c r="IH4" s="41"/>
-      <c r="II4" s="41">
+      <c r="HX4" s="38"/>
+      <c r="HY4" s="38"/>
+      <c r="HZ4" s="38"/>
+      <c r="IA4" s="38"/>
+      <c r="IB4" s="38"/>
+      <c r="IC4" s="38"/>
+      <c r="ID4" s="38"/>
+      <c r="IE4" s="38"/>
+      <c r="IF4" s="38"/>
+      <c r="IG4" s="38"/>
+      <c r="IH4" s="39"/>
+      <c r="II4" s="39">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="42"/>
-      <c r="IK4" s="42"/>
-      <c r="IL4" s="42"/>
-      <c r="IM4" s="42"/>
-      <c r="IN4" s="42"/>
-      <c r="IO4" s="42"/>
-      <c r="IP4" s="42"/>
-      <c r="IQ4" s="42"/>
-      <c r="IR4" s="42"/>
-      <c r="IS4" s="42"/>
-      <c r="IT4" s="43"/>
-      <c r="IU4" s="41">
+      <c r="IJ4" s="40"/>
+      <c r="IK4" s="40"/>
+      <c r="IL4" s="40"/>
+      <c r="IM4" s="40"/>
+      <c r="IN4" s="40"/>
+      <c r="IO4" s="40"/>
+      <c r="IP4" s="40"/>
+      <c r="IQ4" s="40"/>
+      <c r="IR4" s="40"/>
+      <c r="IS4" s="40"/>
+      <c r="IT4" s="41"/>
+      <c r="IU4" s="39">
         <v>2021</v>
       </c>
-      <c r="IV4" s="42"/>
-      <c r="IW4" s="42"/>
-      <c r="IX4" s="42"/>
-      <c r="IY4" s="42"/>
-      <c r="IZ4" s="42"/>
-      <c r="JA4" s="42"/>
-      <c r="JB4" s="42"/>
-      <c r="JC4" s="42"/>
-      <c r="JD4" s="42"/>
-      <c r="JE4" s="42"/>
-      <c r="JF4" s="43"/>
-      <c r="JG4" s="39">
+      <c r="IV4" s="40"/>
+      <c r="IW4" s="40"/>
+      <c r="IX4" s="40"/>
+      <c r="IY4" s="40"/>
+      <c r="IZ4" s="40"/>
+      <c r="JA4" s="40"/>
+      <c r="JB4" s="40"/>
+      <c r="JC4" s="40"/>
+      <c r="JD4" s="40"/>
+      <c r="JE4" s="40"/>
+      <c r="JF4" s="41"/>
+      <c r="JG4" s="38">
         <v>2022</v>
       </c>
-      <c r="JH4" s="39"/>
-      <c r="JI4" s="39"/>
-      <c r="JJ4" s="39"/>
-      <c r="JK4" s="39"/>
-      <c r="JL4" s="39"/>
-      <c r="JM4" s="39"/>
-      <c r="JN4" s="29"/>
+      <c r="JH4" s="38"/>
+      <c r="JI4" s="38"/>
+      <c r="JJ4" s="38"/>
+      <c r="JK4" s="38"/>
+      <c r="JL4" s="38"/>
+      <c r="JM4" s="38"/>
+      <c r="JN4" s="38"/>
       <c r="JO4" s="29"/>
       <c r="JP4" s="29"/>
       <c r="JQ4" s="29"/>
@@ -3237,7 +3242,7 @@
       <c r="AAZ4" s="29"/>
       <c r="ABA4" s="29"/>
       <c r="ABB4" s="29"/>
-      <c r="ABC4" s="5"/>
+      <c r="ABC4" s="29"/>
       <c r="ABD4" s="5"/>
       <c r="ABE4" s="5"/>
       <c r="ABF4" s="5"/>
@@ -3418,10 +3423,11 @@
       <c r="AHY4" s="5"/>
       <c r="AHZ4" s="5"/>
       <c r="AIA4" s="5"/>
+      <c r="AIB4" s="5"/>
     </row>
-    <row r="5" spans="1:911" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4235,7 +4241,9 @@
       <c r="JM5" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="JN5" s="29"/>
+      <c r="JN5" s="31" t="s">
+        <v>347</v>
+      </c>
       <c r="JO5" s="29"/>
       <c r="JP5" s="29"/>
       <c r="JQ5" s="29"/>
@@ -4692,7 +4700,7 @@
       <c r="AAZ5" s="29"/>
       <c r="ABA5" s="29"/>
       <c r="ABB5" s="29"/>
-      <c r="ABC5" s="5"/>
+      <c r="ABC5" s="29"/>
       <c r="ABD5" s="5"/>
       <c r="ABE5" s="5"/>
       <c r="ABF5" s="5"/>
@@ -4873,9 +4881,10 @@
       <c r="AHY5" s="5"/>
       <c r="AHZ5" s="5"/>
       <c r="AIA5" s="5"/>
+      <c r="AIB5" s="5"/>
     </row>
-    <row r="6" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5694,9 +5703,12 @@
       <c r="JM6" s="7">
         <v>87732</v>
       </c>
+      <c r="JN6" s="7">
+        <v>90473</v>
+      </c>
     </row>
-    <row r="7" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6513,9 +6525,12 @@
       <c r="JM7" s="8">
         <v>46</v>
       </c>
+      <c r="JN7" s="8">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7332,9 +7347,12 @@
       <c r="JM8" s="7">
         <v>23374</v>
       </c>
+      <c r="JN8" s="7">
+        <v>23221</v>
+      </c>
     </row>
-    <row r="9" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8151,9 +8169,12 @@
       <c r="JM9" s="7">
         <v>1303</v>
       </c>
+      <c r="JN9" s="7">
+        <v>1067</v>
+      </c>
     </row>
-    <row r="10" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8970,9 +8991,12 @@
       <c r="JM10" s="8">
         <v>410</v>
       </c>
+      <c r="JN10" s="8">
+        <v>411</v>
+      </c>
     </row>
-    <row r="11" spans="1:911" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9768,7 +9792,7 @@
         <v>119220</v>
       </c>
       <c r="JF11" s="10">
-        <f t="shared" ref="JF11:JM11" si="0">SUM(JF6:JF10)</f>
+        <f t="shared" ref="JF11:JN11" si="0">SUM(JF6:JF10)</f>
         <v>116251</v>
       </c>
       <c r="JG11" s="10">
@@ -9788,7 +9812,7 @@
         <v>120707</v>
       </c>
       <c r="JK11" s="10">
-        <f t="shared" ref="JK11:JL11" si="1">SUM(JK6:JK10)</f>
+        <f t="shared" ref="JK11:JM11" si="1">SUM(JK6:JK10)</f>
         <v>116527</v>
       </c>
       <c r="JL11" s="10">
@@ -9796,10 +9820,13 @@
         <v>114765</v>
       </c>
       <c r="JM11" s="10">
+        <f t="shared" si="1"/>
+        <v>112865</v>
+      </c>
+      <c r="JN11" s="10">
         <f t="shared" si="0"/>
-        <v>112865</v>
-      </c>
-      <c r="JN11" s="29"/>
+        <v>115219</v>
+      </c>
       <c r="JO11" s="29"/>
       <c r="JP11" s="29"/>
       <c r="JQ11" s="29"/>
@@ -10256,7 +10283,7 @@
       <c r="AAZ11" s="29"/>
       <c r="ABA11" s="29"/>
       <c r="ABB11" s="29"/>
-      <c r="ABC11" s="5"/>
+      <c r="ABC11" s="29"/>
       <c r="ABD11" s="5"/>
       <c r="ABE11" s="5"/>
       <c r="ABF11" s="5"/>
@@ -10437,9 +10464,10 @@
       <c r="AHY11" s="5"/>
       <c r="AHZ11" s="5"/>
       <c r="AIA11" s="5"/>
+      <c r="AIB11" s="5"/>
     </row>
-    <row r="12" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11258,9 +11286,12 @@
       <c r="JM12" s="7">
         <v>77524</v>
       </c>
+      <c r="JN12" s="7">
+        <v>78354</v>
+      </c>
     </row>
-    <row r="13" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12077,9 +12108,12 @@
       <c r="JM13" s="7">
         <v>20623</v>
       </c>
+      <c r="JN13" s="7">
+        <v>20836</v>
+      </c>
     </row>
-    <row r="14" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12896,9 +12930,12 @@
       <c r="JM14" s="7">
         <v>33489</v>
       </c>
+      <c r="JN14" s="7">
+        <v>33678</v>
+      </c>
     </row>
-    <row r="15" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13715,9 +13752,12 @@
       <c r="JM15" s="7">
         <v>22634</v>
       </c>
+      <c r="JN15" s="7">
+        <v>22637</v>
+      </c>
     </row>
-    <row r="16" spans="1:911" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:912" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14534,9 +14574,12 @@
       <c r="JM16" s="7">
         <v>15588</v>
       </c>
+      <c r="JN16" s="7">
+        <v>15162</v>
+      </c>
     </row>
-    <row r="17" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15353,9 +15396,12 @@
       <c r="JM17" s="7">
         <v>48716</v>
       </c>
+      <c r="JN17" s="7">
+        <v>48963</v>
+      </c>
     </row>
-    <row r="18" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16172,9 +16218,12 @@
       <c r="JM18" s="7">
         <v>60250</v>
       </c>
+      <c r="JN18" s="7">
+        <v>60592</v>
+      </c>
     </row>
-    <row r="19" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16991,9 +17040,12 @@
       <c r="JM19" s="7">
         <v>67829</v>
       </c>
+      <c r="JN19" s="7">
+        <v>68068</v>
+      </c>
     </row>
-    <row r="20" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17810,9 +17862,12 @@
       <c r="JM20" s="7">
         <v>45928</v>
       </c>
+      <c r="JN20" s="7">
+        <v>46170</v>
+      </c>
     </row>
-    <row r="21" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18608,7 +18663,7 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f t="shared" ref="JF21:JM21" si="2">SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JN21" si="2">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
@@ -18628,7 +18683,7 @@
         <v>389372</v>
       </c>
       <c r="JK21" s="10">
-        <f t="shared" ref="JK21:JL21" si="3">SUM(JK12:JK20)</f>
+        <f t="shared" ref="JK21:JM21" si="3">SUM(JK12:JK20)</f>
         <v>390157</v>
       </c>
       <c r="JL21" s="10">
@@ -18636,10 +18691,13 @@
         <v>393243</v>
       </c>
       <c r="JM21" s="10">
+        <f t="shared" si="3"/>
+        <v>392581</v>
+      </c>
+      <c r="JN21" s="10">
         <f t="shared" si="2"/>
-        <v>392581</v>
-      </c>
-      <c r="JN21" s="29"/>
+        <v>394460</v>
+      </c>
       <c r="JO21" s="29"/>
       <c r="JP21" s="29"/>
       <c r="JQ21" s="29"/>
@@ -19096,7 +19154,7 @@
       <c r="AAZ21" s="29"/>
       <c r="ABA21" s="29"/>
       <c r="ABB21" s="29"/>
-      <c r="ABC21" s="5"/>
+      <c r="ABC21" s="29"/>
       <c r="ABD21" s="5"/>
       <c r="ABE21" s="5"/>
       <c r="ABF21" s="5"/>
@@ -19277,9 +19335,10 @@
       <c r="AHY21" s="5"/>
       <c r="AHZ21" s="5"/>
       <c r="AIA21" s="5"/>
+      <c r="AIB21" s="5"/>
     </row>
-    <row r="22" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -20098,9 +20157,12 @@
       <c r="JM22" s="7">
         <v>106727</v>
       </c>
+      <c r="JN22" s="7">
+        <v>108318</v>
+      </c>
     </row>
-    <row r="23" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+    <row r="23" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20917,9 +20979,12 @@
       <c r="JM23" s="7">
         <v>35615</v>
       </c>
+      <c r="JN23" s="7">
+        <v>36323</v>
+      </c>
     </row>
-    <row r="24" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+    <row r="24" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21715,7 +21780,7 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f t="shared" ref="JF24:JM24" si="4">SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JN24" si="4">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
@@ -21735,7 +21800,7 @@
         <v>137135</v>
       </c>
       <c r="JK24" s="10">
-        <f t="shared" ref="JK24:JL24" si="5">SUM(JK22:JK23)</f>
+        <f t="shared" ref="JK24:JM24" si="5">SUM(JK22:JK23)</f>
         <v>139462</v>
       </c>
       <c r="JL24" s="10">
@@ -21743,10 +21808,13 @@
         <v>140587</v>
       </c>
       <c r="JM24" s="10">
+        <f t="shared" si="5"/>
+        <v>142342</v>
+      </c>
+      <c r="JN24" s="10">
         <f t="shared" si="4"/>
-        <v>142342</v>
-      </c>
-      <c r="JN24" s="29"/>
+        <v>144641</v>
+      </c>
       <c r="JO24" s="29"/>
       <c r="JP24" s="29"/>
       <c r="JQ24" s="29"/>
@@ -22203,7 +22271,7 @@
       <c r="AAZ24" s="29"/>
       <c r="ABA24" s="29"/>
       <c r="ABB24" s="29"/>
-      <c r="ABC24" s="5"/>
+      <c r="ABC24" s="29"/>
       <c r="ABD24" s="5"/>
       <c r="ABE24" s="5"/>
       <c r="ABF24" s="5"/>
@@ -22384,9 +22452,10 @@
       <c r="AHY24" s="5"/>
       <c r="AHZ24" s="5"/>
       <c r="AIA24" s="5"/>
+      <c r="AIB24" s="5"/>
     </row>
-    <row r="25" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23205,9 +23274,12 @@
       <c r="JM25" s="7">
         <v>4266</v>
       </c>
+      <c r="JN25" s="7">
+        <v>4326</v>
+      </c>
     </row>
-    <row r="26" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -24024,9 +24096,12 @@
       <c r="JM26" s="7">
         <v>5416</v>
       </c>
+      <c r="JN26" s="7">
+        <v>5437</v>
+      </c>
     </row>
-    <row r="27" spans="1:911" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24822,7 +24897,7 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f t="shared" ref="JF27:JM27" si="6">SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JN27" si="6">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
@@ -24842,7 +24917,7 @@
         <v>9540</v>
       </c>
       <c r="JK27" s="10">
-        <f t="shared" ref="JK27:JL27" si="7">SUM(JK25:JK26)</f>
+        <f t="shared" ref="JK27:JM27" si="7">SUM(JK25:JK26)</f>
         <v>9600</v>
       </c>
       <c r="JL27" s="10">
@@ -24850,10 +24925,13 @@
         <v>9738</v>
       </c>
       <c r="JM27" s="10">
+        <f t="shared" si="7"/>
+        <v>9682</v>
+      </c>
+      <c r="JN27" s="10">
         <f t="shared" si="6"/>
-        <v>9682</v>
-      </c>
-      <c r="JN27" s="29"/>
+        <v>9763</v>
+      </c>
       <c r="JO27" s="29"/>
       <c r="JP27" s="29"/>
       <c r="JQ27" s="29"/>
@@ -25310,7 +25388,7 @@
       <c r="AAZ27" s="29"/>
       <c r="ABA27" s="29"/>
       <c r="ABB27" s="29"/>
-      <c r="ABC27" s="5"/>
+      <c r="ABC27" s="29"/>
       <c r="ABD27" s="5"/>
       <c r="ABE27" s="5"/>
       <c r="ABF27" s="5"/>
@@ -25491,9 +25569,10 @@
       <c r="AHY27" s="5"/>
       <c r="AHZ27" s="5"/>
       <c r="AIA27" s="5"/>
+      <c r="AIB27" s="5"/>
     </row>
-    <row r="28" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26312,9 +26391,12 @@
       <c r="JM28" s="7">
         <v>863</v>
       </c>
+      <c r="JN28" s="7">
+        <v>883</v>
+      </c>
     </row>
-    <row r="29" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -27131,9 +27213,12 @@
       <c r="JM29" s="7">
         <v>10598</v>
       </c>
+      <c r="JN29" s="7">
+        <v>10614</v>
+      </c>
     </row>
-    <row r="30" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27950,9 +28035,12 @@
       <c r="JM30" s="7">
         <v>29478</v>
       </c>
+      <c r="JN30" s="7">
+        <v>29700</v>
+      </c>
     </row>
-    <row r="31" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28769,9 +28857,12 @@
       <c r="JM31" s="7">
         <v>103257</v>
       </c>
+      <c r="JN31" s="7">
+        <v>104119</v>
+      </c>
     </row>
-    <row r="32" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29588,9 +29679,12 @@
       <c r="JM32" s="7">
         <v>25371</v>
       </c>
+      <c r="JN32" s="7">
+        <v>25657</v>
+      </c>
     </row>
-    <row r="33" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30407,9 +30501,12 @@
       <c r="JM33" s="7">
         <v>9767</v>
       </c>
+      <c r="JN33" s="7">
+        <v>9812</v>
+      </c>
     </row>
-    <row r="34" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31226,9 +31323,12 @@
       <c r="JM34" s="7">
         <v>43964</v>
       </c>
+      <c r="JN34" s="7">
+        <v>44139</v>
+      </c>
     </row>
-    <row r="35" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -32045,9 +32145,12 @@
       <c r="JM35" s="7">
         <v>10524</v>
       </c>
+      <c r="JN35" s="7">
+        <v>10621</v>
+      </c>
     </row>
-    <row r="36" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32864,9 +32967,12 @@
       <c r="JM36" s="7">
         <v>53575</v>
       </c>
+      <c r="JN36" s="7">
+        <v>53618</v>
+      </c>
     </row>
-    <row r="37" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33683,9 +33789,12 @@
       <c r="JM37" s="7">
         <v>69684</v>
       </c>
+      <c r="JN37" s="7">
+        <v>70608</v>
+      </c>
     </row>
-    <row r="38" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34502,9 +34611,12 @@
       <c r="JM38" s="7">
         <v>21982</v>
       </c>
+      <c r="JN38" s="7">
+        <v>21970</v>
+      </c>
     </row>
-    <row r="39" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35321,9 +35433,12 @@
       <c r="JM39" s="7">
         <v>23442</v>
       </c>
+      <c r="JN39" s="7">
+        <v>23733</v>
+      </c>
     </row>
-    <row r="40" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -36140,9 +36255,12 @@
       <c r="JM40" s="7">
         <v>12036</v>
       </c>
+      <c r="JN40" s="7">
+        <v>12070</v>
+      </c>
     </row>
-    <row r="41" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36959,9 +37077,12 @@
       <c r="JM41" s="7">
         <v>10870</v>
       </c>
+      <c r="JN41" s="7">
+        <v>10909</v>
+      </c>
     </row>
-    <row r="42" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37778,9 +37899,12 @@
       <c r="JM42" s="7">
         <v>44194</v>
       </c>
+      <c r="JN42" s="7">
+        <v>44320</v>
+      </c>
     </row>
-    <row r="43" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38597,9 +38721,12 @@
       <c r="JM43" s="7">
         <v>4928</v>
       </c>
+      <c r="JN43" s="7">
+        <v>4927</v>
+      </c>
     </row>
-    <row r="44" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -39416,9 +39543,12 @@
       <c r="JM44" s="7">
         <v>5763</v>
       </c>
+      <c r="JN44" s="7">
+        <v>5824</v>
+      </c>
     </row>
-    <row r="45" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -40235,9 +40365,12 @@
       <c r="JM45" s="7">
         <v>7163</v>
       </c>
+      <c r="JN45" s="7">
+        <v>7197</v>
+      </c>
     </row>
-    <row r="46" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -41054,9 +41187,12 @@
       <c r="JM46" s="7">
         <v>13286</v>
       </c>
+      <c r="JN46" s="7">
+        <v>13280</v>
+      </c>
     </row>
-    <row r="47" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41873,9 +42009,12 @@
       <c r="JM47" s="7">
         <v>1604</v>
       </c>
+      <c r="JN47" s="7">
+        <v>1596</v>
+      </c>
     </row>
-    <row r="48" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42671,7 +42810,7 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f t="shared" ref="JF48:JM48" si="8">SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JN48" si="8">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
@@ -42691,7 +42830,7 @@
         <v>494824</v>
       </c>
       <c r="JK48" s="10">
-        <f t="shared" ref="JK48:JL48" si="9">SUM(JK28:JK47)</f>
+        <f t="shared" ref="JK48:JM48" si="9">SUM(JK28:JK47)</f>
         <v>496682</v>
       </c>
       <c r="JL48" s="10">
@@ -42699,10 +42838,13 @@
         <v>499541</v>
       </c>
       <c r="JM48" s="10">
+        <f t="shared" si="9"/>
+        <v>502349</v>
+      </c>
+      <c r="JN48" s="10">
         <f t="shared" si="8"/>
-        <v>502349</v>
-      </c>
-      <c r="JN48" s="29"/>
+        <v>505597</v>
+      </c>
       <c r="JO48" s="29"/>
       <c r="JP48" s="29"/>
       <c r="JQ48" s="29"/>
@@ -43159,7 +43301,7 @@
       <c r="AAZ48" s="29"/>
       <c r="ABA48" s="29"/>
       <c r="ABB48" s="29"/>
-      <c r="ABC48" s="5"/>
+      <c r="ABC48" s="29"/>
       <c r="ABD48" s="5"/>
       <c r="ABE48" s="5"/>
       <c r="ABF48" s="5"/>
@@ -43340,9 +43482,10 @@
       <c r="AHY48" s="5"/>
       <c r="AHZ48" s="5"/>
       <c r="AIA48" s="5"/>
+      <c r="AIB48" s="5"/>
     </row>
-    <row r="49" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -44161,9 +44304,12 @@
       <c r="JM49" s="8">
         <v>11</v>
       </c>
+      <c r="JN49" s="8">
+        <v>13</v>
+      </c>
     </row>
-    <row r="50" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44980,9 +45126,12 @@
       <c r="JM50" s="8">
         <v>12</v>
       </c>
+      <c r="JN50" s="8">
+        <v>14</v>
+      </c>
     </row>
-    <row r="51" spans="1:273" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:274" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -45799,9 +45948,12 @@
       <c r="JM51" s="7">
         <v>1414</v>
       </c>
+      <c r="JN51" s="7">
+        <v>1439</v>
+      </c>
     </row>
-    <row r="52" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -46618,9 +46770,12 @@
       <c r="JM52" s="7">
         <v>1028</v>
       </c>
+      <c r="JN52" s="7">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="53" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -47416,7 +47571,7 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f t="shared" ref="JF53:JM53" si="10">SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JN53" si="10">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
@@ -47436,7 +47591,7 @@
         <v>2556</v>
       </c>
       <c r="JK53" s="10">
-        <f t="shared" ref="JK53:JL53" si="11">SUM(JK49:JK52)</f>
+        <f t="shared" ref="JK53:JM53" si="11">SUM(JK49:JK52)</f>
         <v>2538</v>
       </c>
       <c r="JL53" s="10">
@@ -47444,12 +47599,16 @@
         <v>2538</v>
       </c>
       <c r="JM53" s="10">
+        <f t="shared" si="11"/>
+        <v>2465</v>
+      </c>
+      <c r="JN53" s="10">
         <f t="shared" si="10"/>
-        <v>2465</v>
+        <v>2477</v>
       </c>
     </row>
-    <row r="54" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -48268,9 +48427,12 @@
       <c r="JM54" s="36">
         <v>5713</v>
       </c>
+      <c r="JN54" s="36">
+        <v>5710</v>
+      </c>
     </row>
-    <row r="55" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -49087,9 +49249,12 @@
       <c r="JM55" s="7">
         <v>52455</v>
       </c>
+      <c r="JN55" s="7">
+        <v>52859</v>
+      </c>
     </row>
-    <row r="56" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+    <row r="56" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -49906,9 +50071,12 @@
       <c r="JM56" s="7">
         <v>7234</v>
       </c>
+      <c r="JN56" s="7">
+        <v>7204</v>
+      </c>
     </row>
-    <row r="57" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -50725,9 +50893,12 @@
       <c r="JM57" s="7">
         <v>190203</v>
       </c>
+      <c r="JN57" s="7">
+        <v>190019</v>
+      </c>
     </row>
-    <row r="58" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -51544,9 +51715,12 @@
       <c r="JM58" s="7">
         <v>32677</v>
       </c>
+      <c r="JN58" s="7">
+        <v>32687</v>
+      </c>
     </row>
-    <row r="59" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+    <row r="59" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -52363,9 +52537,12 @@
       <c r="JM59" s="7">
         <v>6406</v>
       </c>
+      <c r="JN59" s="7">
+        <v>6473</v>
+      </c>
     </row>
-    <row r="60" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -53182,9 +53359,12 @@
       <c r="JM60" s="7">
         <v>43708</v>
       </c>
+      <c r="JN60" s="7">
+        <v>46510</v>
+      </c>
     </row>
-    <row r="61" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+    <row r="61" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -54001,9 +54181,12 @@
       <c r="JM61" s="8">
         <v>139</v>
       </c>
+      <c r="JN61" s="8">
+        <v>140</v>
+      </c>
     </row>
-    <row r="62" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+    <row r="62" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -54820,9 +55003,12 @@
       <c r="JM62" s="7">
         <v>19992</v>
       </c>
+      <c r="JN62" s="7">
+        <v>20112</v>
+      </c>
     </row>
-    <row r="63" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+    <row r="63" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -55639,9 +55825,12 @@
       <c r="JM63" s="7">
         <v>33889</v>
       </c>
+      <c r="JN63" s="7">
+        <v>33993</v>
+      </c>
     </row>
-    <row r="64" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+    <row r="64" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -56458,9 +56647,12 @@
       <c r="JM64" s="7">
         <v>48719</v>
       </c>
+      <c r="JN64" s="7">
+        <v>48426</v>
+      </c>
     </row>
-    <row r="65" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+    <row r="65" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -57277,9 +57469,12 @@
       <c r="JM65" s="7">
         <v>166373</v>
       </c>
+      <c r="JN65" s="7">
+        <v>167622</v>
+      </c>
     </row>
-    <row r="66" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+    <row r="66" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -58096,9 +58291,12 @@
       <c r="JM66" s="7">
         <v>19119</v>
       </c>
+      <c r="JN66" s="7">
+        <v>18822</v>
+      </c>
     </row>
-    <row r="67" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+    <row r="67" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -58915,9 +59113,12 @@
       <c r="JM67" s="7">
         <v>6221</v>
       </c>
+      <c r="JN67" s="7">
+        <v>6285</v>
+      </c>
     </row>
-    <row r="68" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+    <row r="68" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -59713,7 +59914,7 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f t="shared" ref="JF68:JM68" si="12">SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JN68" si="12">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
@@ -59733,7 +59934,7 @@
         <v>630421</v>
       </c>
       <c r="JK68" s="10">
-        <f t="shared" ref="JK68:JL68" si="13">SUM(JK54:JK67)</f>
+        <f t="shared" ref="JK68:JM68" si="13">SUM(JK54:JK67)</f>
         <v>632610</v>
       </c>
       <c r="JL68" s="10">
@@ -59741,10 +59942,13 @@
         <v>634764</v>
       </c>
       <c r="JM68" s="10">
+        <f t="shared" si="13"/>
+        <v>632848</v>
+      </c>
+      <c r="JN68" s="10">
         <f t="shared" si="12"/>
-        <v>632848</v>
-      </c>
-      <c r="JN68" s="29"/>
+        <v>636862</v>
+      </c>
       <c r="JO68" s="29"/>
       <c r="JP68" s="29"/>
       <c r="JQ68" s="29"/>
@@ -60201,7 +60405,7 @@
       <c r="AAZ68" s="29"/>
       <c r="ABA68" s="29"/>
       <c r="ABB68" s="29"/>
-      <c r="ABC68" s="5"/>
+      <c r="ABC68" s="29"/>
       <c r="ABD68" s="5"/>
       <c r="ABE68" s="5"/>
       <c r="ABF68" s="5"/>
@@ -60382,9 +60586,10 @@
       <c r="AHY68" s="5"/>
       <c r="AHZ68" s="5"/>
       <c r="AIA68" s="5"/>
+      <c r="AIB68" s="5"/>
     </row>
-    <row r="69" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+    <row r="69" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -61203,9 +61408,12 @@
       <c r="JM69" s="7">
         <v>9745</v>
       </c>
+      <c r="JN69" s="7">
+        <v>9704</v>
+      </c>
     </row>
-    <row r="70" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+    <row r="70" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -62022,9 +62230,12 @@
       <c r="JM70" s="7">
         <v>862</v>
       </c>
+      <c r="JN70" s="7">
+        <v>870</v>
+      </c>
     </row>
-    <row r="71" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+    <row r="71" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -62841,9 +63052,12 @@
       <c r="JM71" s="7">
         <v>32774</v>
       </c>
+      <c r="JN71" s="7">
+        <v>33027</v>
+      </c>
     </row>
-    <row r="72" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+    <row r="72" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -63660,9 +63874,12 @@
       <c r="JM72" s="7">
         <v>4258</v>
       </c>
+      <c r="JN72" s="7">
+        <v>4286</v>
+      </c>
     </row>
-    <row r="73" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+    <row r="73" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -64479,9 +64696,12 @@
       <c r="JM73" s="8">
         <v>548</v>
       </c>
+      <c r="JN73" s="8">
+        <v>514</v>
+      </c>
     </row>
-    <row r="74" spans="1:911" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+    <row r="74" spans="1:912" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -65298,9 +65518,12 @@
       <c r="JM74" s="7">
         <v>53198</v>
       </c>
+      <c r="JN74" s="7">
+        <v>53207</v>
+      </c>
     </row>
-    <row r="75" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+    <row r="75" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -66096,7 +66319,7 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f t="shared" ref="JF75:JM75" si="14">SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JN75" si="14">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
@@ -66116,7 +66339,7 @@
         <v>100160</v>
       </c>
       <c r="JK75" s="10">
-        <f t="shared" ref="JK75:JL75" si="15">SUM(JK69:JK74)</f>
+        <f t="shared" ref="JK75:JM75" si="15">SUM(JK69:JK74)</f>
         <v>100656</v>
       </c>
       <c r="JL75" s="10">
@@ -66124,10 +66347,13 @@
         <v>101579</v>
       </c>
       <c r="JM75" s="10">
+        <f t="shared" si="15"/>
+        <v>101385</v>
+      </c>
+      <c r="JN75" s="10">
         <f t="shared" si="14"/>
-        <v>101385</v>
-      </c>
-      <c r="JN75" s="29"/>
+        <v>101608</v>
+      </c>
       <c r="JO75" s="29"/>
       <c r="JP75" s="29"/>
       <c r="JQ75" s="29"/>
@@ -66584,7 +66810,7 @@
       <c r="AAZ75" s="29"/>
       <c r="ABA75" s="29"/>
       <c r="ABB75" s="29"/>
-      <c r="ABC75" s="5"/>
+      <c r="ABC75" s="29"/>
       <c r="ABD75" s="5"/>
       <c r="ABE75" s="5"/>
       <c r="ABF75" s="5"/>
@@ -66765,8 +66991,9 @@
       <c r="AHY75" s="5"/>
       <c r="AHZ75" s="5"/>
       <c r="AIA75" s="5"/>
+      <c r="AIB75" s="5"/>
     </row>
-    <row r="76" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -67564,7 +67791,7 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f t="shared" ref="JF76:JM76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JN76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
@@ -67584,7 +67811,7 @@
         <v>1884715</v>
       </c>
       <c r="JK76" s="19">
-        <f t="shared" ref="JK76:JL76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
+        <f t="shared" ref="JK76:JM76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
         <v>1888232</v>
       </c>
       <c r="JL76" s="19">
@@ -67592,11 +67819,15 @@
         <v>1896755</v>
       </c>
       <c r="JM76" s="19">
+        <f t="shared" si="17"/>
+        <v>1896517</v>
+      </c>
+      <c r="JN76" s="19">
         <f t="shared" si="16"/>
-        <v>1896517</v>
+        <v>1910627</v>
       </c>
     </row>
-    <row r="77" spans="1:911" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:912" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -67865,7 +68096,7 @@
       <c r="JK77" s="30"/>
       <c r="JL77" s="30"/>
       <c r="JM77" s="30"/>
-      <c r="JN77" s="27"/>
+      <c r="JN77" s="30"/>
       <c r="JO77" s="27"/>
       <c r="JP77" s="27"/>
       <c r="JQ77" s="27"/>
@@ -68322,15 +68553,35 @@
       <c r="AAZ77" s="27"/>
       <c r="ABA77" s="27"/>
       <c r="ABB77" s="27"/>
+      <c r="ABC77" s="27"/>
     </row>
-    <row r="78" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="JG4:JM4"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="JG4:JN4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -68344,25 +68595,6 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="349">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1086,6 +1086,9 @@
   </si>
   <si>
     <t>2022/agosto</t>
+  </si>
+  <si>
+    <t>2022/septiembre</t>
   </si>
 </sst>
 </file>
@@ -2174,8 +2177,8 @@
   <dimension ref="A1:AIB78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JR11" sqref="JR11"/>
+      <pane xSplit="2" topLeftCell="JF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JQ11" sqref="JQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2446,7 +2449,8 @@
     <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
     <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="275" max="731" width="10.875" style="28"/>
+    <col min="275" max="275" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="276" max="731" width="10.875" style="28"/>
     <col min="732" max="912" width="10.875" style="4"/>
     <col min="913" max="16384" width="10.875" style="3"/>
   </cols>
@@ -2786,7 +2790,7 @@
       <c r="JL4" s="38"/>
       <c r="JM4" s="38"/>
       <c r="JN4" s="38"/>
-      <c r="JO4" s="29"/>
+      <c r="JO4" s="38"/>
       <c r="JP4" s="29"/>
       <c r="JQ4" s="29"/>
       <c r="JR4" s="29"/>
@@ -4244,7 +4248,9 @@
       <c r="JN5" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="JO5" s="29"/>
+      <c r="JO5" s="31" t="s">
+        <v>348</v>
+      </c>
       <c r="JP5" s="29"/>
       <c r="JQ5" s="29"/>
       <c r="JR5" s="29"/>
@@ -5706,6 +5712,9 @@
       <c r="JN6" s="7">
         <v>90473</v>
       </c>
+      <c r="JO6" s="7">
+        <v>94353</v>
+      </c>
     </row>
     <row r="7" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
@@ -6528,6 +6537,9 @@
       <c r="JN7" s="8">
         <v>47</v>
       </c>
+      <c r="JO7" s="8">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
@@ -7350,6 +7362,9 @@
       <c r="JN8" s="7">
         <v>23221</v>
       </c>
+      <c r="JO8" s="7">
+        <v>23448</v>
+      </c>
     </row>
     <row r="9" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
@@ -8172,6 +8187,9 @@
       <c r="JN9" s="7">
         <v>1067</v>
       </c>
+      <c r="JO9" s="7">
+        <v>835</v>
+      </c>
     </row>
     <row r="10" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
@@ -8994,6 +9012,9 @@
       <c r="JN10" s="8">
         <v>411</v>
       </c>
+      <c r="JO10" s="8">
+        <v>405</v>
+      </c>
     </row>
     <row r="11" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
@@ -9827,7 +9848,10 @@
         <f t="shared" si="0"/>
         <v>115219</v>
       </c>
-      <c r="JO11" s="29"/>
+      <c r="JO11" s="10">
+        <f t="shared" ref="JO11" si="2">SUM(JO6:JO10)</f>
+        <v>119089</v>
+      </c>
       <c r="JP11" s="29"/>
       <c r="JQ11" s="29"/>
       <c r="JR11" s="29"/>
@@ -11289,6 +11313,9 @@
       <c r="JN12" s="7">
         <v>78354</v>
       </c>
+      <c r="JO12" s="7">
+        <v>78693</v>
+      </c>
     </row>
     <row r="13" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
@@ -12111,6 +12138,9 @@
       <c r="JN13" s="7">
         <v>20836</v>
       </c>
+      <c r="JO13" s="7">
+        <v>20883</v>
+      </c>
     </row>
     <row r="14" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
@@ -12933,6 +12963,9 @@
       <c r="JN14" s="7">
         <v>33678</v>
       </c>
+      <c r="JO14" s="7">
+        <v>33945</v>
+      </c>
     </row>
     <row r="15" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
@@ -13755,6 +13788,9 @@
       <c r="JN15" s="7">
         <v>22637</v>
       </c>
+      <c r="JO15" s="7">
+        <v>22472</v>
+      </c>
     </row>
     <row r="16" spans="1:912" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
@@ -14577,6 +14613,9 @@
       <c r="JN16" s="7">
         <v>15162</v>
       </c>
+      <c r="JO16" s="7">
+        <v>15872</v>
+      </c>
     </row>
     <row r="17" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
@@ -15399,6 +15438,9 @@
       <c r="JN17" s="7">
         <v>48963</v>
       </c>
+      <c r="JO17" s="7">
+        <v>49096</v>
+      </c>
     </row>
     <row r="18" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
@@ -16221,6 +16263,9 @@
       <c r="JN18" s="7">
         <v>60592</v>
       </c>
+      <c r="JO18" s="7">
+        <v>60738</v>
+      </c>
     </row>
     <row r="19" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
@@ -17043,6 +17088,9 @@
       <c r="JN19" s="7">
         <v>68068</v>
       </c>
+      <c r="JO19" s="7">
+        <v>68456</v>
+      </c>
     </row>
     <row r="20" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
@@ -17865,6 +17913,9 @@
       <c r="JN20" s="7">
         <v>46170</v>
       </c>
+      <c r="JO20" s="7">
+        <v>46857</v>
+      </c>
     </row>
     <row r="21" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
@@ -18663,42 +18714,45 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f t="shared" ref="JF21:JN21" si="2">SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JN21" si="3">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>388222</v>
       </c>
       <c r="JH21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>388746</v>
       </c>
       <c r="JI21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>389036</v>
       </c>
       <c r="JJ21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>389372</v>
       </c>
       <c r="JK21" s="10">
-        <f t="shared" ref="JK21:JM21" si="3">SUM(JK12:JK20)</f>
+        <f t="shared" ref="JK21:JM21" si="4">SUM(JK12:JK20)</f>
         <v>390157</v>
       </c>
       <c r="JL21" s="10">
+        <f t="shared" si="4"/>
+        <v>393243</v>
+      </c>
+      <c r="JM21" s="10">
+        <f t="shared" si="4"/>
+        <v>392581</v>
+      </c>
+      <c r="JN21" s="10">
         <f t="shared" si="3"/>
-        <v>393243</v>
-      </c>
-      <c r="JM21" s="10">
-        <f t="shared" si="3"/>
-        <v>392581</v>
-      </c>
-      <c r="JN21" s="10">
-        <f t="shared" si="2"/>
         <v>394460</v>
       </c>
-      <c r="JO21" s="29"/>
+      <c r="JO21" s="10">
+        <f t="shared" ref="JO21" si="5">SUM(JO12:JO20)</f>
+        <v>397012</v>
+      </c>
       <c r="JP21" s="29"/>
       <c r="JQ21" s="29"/>
       <c r="JR21" s="29"/>
@@ -20160,6 +20214,9 @@
       <c r="JN22" s="7">
         <v>108318</v>
       </c>
+      <c r="JO22" s="7">
+        <v>108423</v>
+      </c>
     </row>
     <row r="23" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
@@ -20982,6 +21039,9 @@
       <c r="JN23" s="7">
         <v>36323</v>
       </c>
+      <c r="JO23" s="7">
+        <v>36740</v>
+      </c>
     </row>
     <row r="24" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
@@ -21780,42 +21840,45 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f t="shared" ref="JF24:JN24" si="4">SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JN24" si="6">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>135688</v>
       </c>
       <c r="JH24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>136388</v>
       </c>
       <c r="JI24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>137344</v>
       </c>
       <c r="JJ24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>137135</v>
       </c>
       <c r="JK24" s="10">
-        <f t="shared" ref="JK24:JM24" si="5">SUM(JK22:JK23)</f>
+        <f t="shared" ref="JK24:JM24" si="7">SUM(JK22:JK23)</f>
         <v>139462</v>
       </c>
       <c r="JL24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>140587</v>
       </c>
       <c r="JM24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>142342</v>
       </c>
       <c r="JN24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>144641</v>
       </c>
-      <c r="JO24" s="29"/>
+      <c r="JO24" s="10">
+        <f t="shared" ref="JO24" si="8">SUM(JO22:JO23)</f>
+        <v>145163</v>
+      </c>
       <c r="JP24" s="29"/>
       <c r="JQ24" s="29"/>
       <c r="JR24" s="29"/>
@@ -23277,6 +23340,9 @@
       <c r="JN25" s="7">
         <v>4326</v>
       </c>
+      <c r="JO25" s="7">
+        <v>4292</v>
+      </c>
     </row>
     <row r="26" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
@@ -24099,6 +24165,9 @@
       <c r="JN26" s="7">
         <v>5437</v>
       </c>
+      <c r="JO26" s="7">
+        <v>5394</v>
+      </c>
     </row>
     <row r="27" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
@@ -24897,42 +24966,45 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f t="shared" ref="JF27:JN27" si="6">SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JN27" si="9">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9433</v>
       </c>
       <c r="JH27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9550</v>
       </c>
       <c r="JI27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9619</v>
       </c>
       <c r="JJ27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9540</v>
       </c>
       <c r="JK27" s="10">
-        <f t="shared" ref="JK27:JM27" si="7">SUM(JK25:JK26)</f>
+        <f t="shared" ref="JK27:JM27" si="10">SUM(JK25:JK26)</f>
         <v>9600</v>
       </c>
       <c r="JL27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9738</v>
       </c>
       <c r="JM27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9682</v>
       </c>
       <c r="JN27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9763</v>
       </c>
-      <c r="JO27" s="29"/>
+      <c r="JO27" s="10">
+        <f t="shared" ref="JO27" si="11">SUM(JO25:JO26)</f>
+        <v>9686</v>
+      </c>
       <c r="JP27" s="29"/>
       <c r="JQ27" s="29"/>
       <c r="JR27" s="29"/>
@@ -26394,6 +26466,9 @@
       <c r="JN28" s="7">
         <v>883</v>
       </c>
+      <c r="JO28" s="7">
+        <v>886</v>
+      </c>
     </row>
     <row r="29" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
@@ -27216,6 +27291,9 @@
       <c r="JN29" s="7">
         <v>10614</v>
       </c>
+      <c r="JO29" s="7">
+        <v>11561</v>
+      </c>
     </row>
     <row r="30" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
@@ -28038,6 +28116,9 @@
       <c r="JN30" s="7">
         <v>29700</v>
       </c>
+      <c r="JO30" s="7">
+        <v>29640</v>
+      </c>
     </row>
     <row r="31" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -28860,6 +28941,9 @@
       <c r="JN31" s="7">
         <v>104119</v>
       </c>
+      <c r="JO31" s="7">
+        <v>104468</v>
+      </c>
     </row>
     <row r="32" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
@@ -29682,6 +29766,9 @@
       <c r="JN32" s="7">
         <v>25657</v>
       </c>
+      <c r="JO32" s="7">
+        <v>26088</v>
+      </c>
     </row>
     <row r="33" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -30504,6 +30591,9 @@
       <c r="JN33" s="7">
         <v>9812</v>
       </c>
+      <c r="JO33" s="7">
+        <v>9833</v>
+      </c>
     </row>
     <row r="34" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
@@ -31326,6 +31416,9 @@
       <c r="JN34" s="7">
         <v>44139</v>
       </c>
+      <c r="JO34" s="7">
+        <v>44045</v>
+      </c>
     </row>
     <row r="35" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -32148,6 +32241,9 @@
       <c r="JN35" s="7">
         <v>10621</v>
       </c>
+      <c r="JO35" s="7">
+        <v>10855</v>
+      </c>
     </row>
     <row r="36" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -32970,6 +33066,9 @@
       <c r="JN36" s="7">
         <v>53618</v>
       </c>
+      <c r="JO36" s="7">
+        <v>53957</v>
+      </c>
     </row>
     <row r="37" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
@@ -33792,6 +33891,9 @@
       <c r="JN37" s="7">
         <v>70608</v>
       </c>
+      <c r="JO37" s="7">
+        <v>72034</v>
+      </c>
     </row>
     <row r="38" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
@@ -34614,6 +34716,9 @@
       <c r="JN38" s="7">
         <v>21970</v>
       </c>
+      <c r="JO38" s="7">
+        <v>21986</v>
+      </c>
     </row>
     <row r="39" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
@@ -35436,6 +35541,9 @@
       <c r="JN39" s="7">
         <v>23733</v>
       </c>
+      <c r="JO39" s="7">
+        <v>23991</v>
+      </c>
     </row>
     <row r="40" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
@@ -36258,6 +36366,9 @@
       <c r="JN40" s="7">
         <v>12070</v>
       </c>
+      <c r="JO40" s="7">
+        <v>12107</v>
+      </c>
     </row>
     <row r="41" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
@@ -37080,6 +37191,9 @@
       <c r="JN41" s="7">
         <v>10909</v>
       </c>
+      <c r="JO41" s="7">
+        <v>11124</v>
+      </c>
     </row>
     <row r="42" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
@@ -37902,6 +38016,9 @@
       <c r="JN42" s="7">
         <v>44320</v>
       </c>
+      <c r="JO42" s="7">
+        <v>44328</v>
+      </c>
     </row>
     <row r="43" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
@@ -38724,6 +38841,9 @@
       <c r="JN43" s="7">
         <v>4927</v>
       </c>
+      <c r="JO43" s="7">
+        <v>4923</v>
+      </c>
     </row>
     <row r="44" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
@@ -39546,6 +39666,9 @@
       <c r="JN44" s="7">
         <v>5824</v>
       </c>
+      <c r="JO44" s="7">
+        <v>5943</v>
+      </c>
     </row>
     <row r="45" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
@@ -40368,6 +40491,9 @@
       <c r="JN45" s="7">
         <v>7197</v>
       </c>
+      <c r="JO45" s="7">
+        <v>7193</v>
+      </c>
     </row>
     <row r="46" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
@@ -41190,6 +41316,9 @@
       <c r="JN46" s="7">
         <v>13280</v>
       </c>
+      <c r="JO46" s="7">
+        <v>13316</v>
+      </c>
     </row>
     <row r="47" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
@@ -42012,6 +42141,9 @@
       <c r="JN47" s="7">
         <v>1596</v>
       </c>
+      <c r="JO47" s="7">
+        <v>1596</v>
+      </c>
     </row>
     <row r="48" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
@@ -42810,42 +42942,45 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f t="shared" ref="JF48:JN48" si="8">SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JN48" si="12">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>483047</v>
       </c>
       <c r="JH48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>487818</v>
       </c>
       <c r="JI48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>493413</v>
       </c>
       <c r="JJ48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>494824</v>
       </c>
       <c r="JK48" s="10">
-        <f t="shared" ref="JK48:JM48" si="9">SUM(JK28:JK47)</f>
+        <f t="shared" ref="JK48:JM48" si="13">SUM(JK28:JK47)</f>
         <v>496682</v>
       </c>
       <c r="JL48" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>499541</v>
       </c>
       <c r="JM48" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>502349</v>
       </c>
       <c r="JN48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>505597</v>
       </c>
-      <c r="JO48" s="29"/>
+      <c r="JO48" s="10">
+        <f t="shared" ref="JO48" si="14">SUM(JO28:JO47)</f>
+        <v>509874</v>
+      </c>
       <c r="JP48" s="29"/>
       <c r="JQ48" s="29"/>
       <c r="JR48" s="29"/>
@@ -43484,7 +43619,7 @@
       <c r="AIA48" s="5"/>
       <c r="AIB48" s="5"/>
     </row>
-    <row r="49" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
@@ -44307,8 +44442,11 @@
       <c r="JN49" s="8">
         <v>13</v>
       </c>
+      <c r="JO49" s="8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="50" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
@@ -45129,8 +45267,11 @@
       <c r="JN50" s="8">
         <v>14</v>
       </c>
+      <c r="JO50" s="8">
+        <v>24</v>
+      </c>
     </row>
-    <row r="51" spans="1:274" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:275" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
@@ -45951,8 +46092,11 @@
       <c r="JN51" s="7">
         <v>1439</v>
       </c>
+      <c r="JO51" s="7">
+        <v>1490</v>
+      </c>
     </row>
-    <row r="52" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
@@ -46773,8 +46917,11 @@
       <c r="JN52" s="7">
         <v>1011</v>
       </c>
+      <c r="JO52" s="7">
+        <v>992</v>
+      </c>
     </row>
-    <row r="53" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
@@ -47571,43 +47718,47 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f t="shared" ref="JF53:JN53" si="10">SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JN53" si="15">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2642</v>
       </c>
       <c r="JH53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2643</v>
       </c>
       <c r="JI53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2577</v>
       </c>
       <c r="JJ53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2556</v>
       </c>
       <c r="JK53" s="10">
-        <f t="shared" ref="JK53:JM53" si="11">SUM(JK49:JK52)</f>
+        <f t="shared" ref="JK53:JM53" si="16">SUM(JK49:JK52)</f>
         <v>2538</v>
       </c>
       <c r="JL53" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2538</v>
       </c>
       <c r="JM53" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2465</v>
       </c>
       <c r="JN53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2477</v>
       </c>
+      <c r="JO53" s="10">
+        <f t="shared" ref="JO53" si="17">SUM(JO49:JO52)</f>
+        <v>2518</v>
+      </c>
     </row>
-    <row r="54" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
@@ -48430,8 +48581,11 @@
       <c r="JN54" s="36">
         <v>5710</v>
       </c>
+      <c r="JO54" s="36">
+        <v>5669</v>
+      </c>
     </row>
-    <row r="55" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
@@ -49252,8 +49406,11 @@
       <c r="JN55" s="7">
         <v>52859</v>
       </c>
+      <c r="JO55" s="7">
+        <v>52860</v>
+      </c>
     </row>
-    <row r="56" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
@@ -50074,8 +50231,11 @@
       <c r="JN56" s="7">
         <v>7204</v>
       </c>
+      <c r="JO56" s="7">
+        <v>7199</v>
+      </c>
     </row>
-    <row r="57" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
@@ -50896,8 +51056,11 @@
       <c r="JN57" s="7">
         <v>190019</v>
       </c>
+      <c r="JO57" s="7">
+        <v>189397</v>
+      </c>
     </row>
-    <row r="58" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
@@ -51718,8 +51881,11 @@
       <c r="JN58" s="7">
         <v>32687</v>
       </c>
+      <c r="JO58" s="7">
+        <v>33538</v>
+      </c>
     </row>
-    <row r="59" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
@@ -52540,8 +52706,11 @@
       <c r="JN59" s="7">
         <v>6473</v>
       </c>
+      <c r="JO59" s="7">
+        <v>6516</v>
+      </c>
     </row>
-    <row r="60" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
@@ -53362,8 +53531,11 @@
       <c r="JN60" s="7">
         <v>46510</v>
       </c>
+      <c r="JO60" s="7">
+        <v>49446</v>
+      </c>
     </row>
-    <row r="61" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
@@ -54184,8 +54356,11 @@
       <c r="JN61" s="8">
         <v>140</v>
       </c>
+      <c r="JO61" s="8">
+        <v>139</v>
+      </c>
     </row>
-    <row r="62" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
@@ -55006,8 +55181,11 @@
       <c r="JN62" s="7">
         <v>20112</v>
       </c>
+      <c r="JO62" s="7">
+        <v>20170</v>
+      </c>
     </row>
-    <row r="63" spans="1:274" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
@@ -55828,8 +56006,11 @@
       <c r="JN63" s="7">
         <v>33993</v>
       </c>
+      <c r="JO63" s="7">
+        <v>34047</v>
+      </c>
     </row>
-    <row r="64" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
@@ -56649,6 +56830,9 @@
       </c>
       <c r="JN64" s="7">
         <v>48426</v>
+      </c>
+      <c r="JO64" s="7">
+        <v>48792</v>
       </c>
     </row>
     <row r="65" spans="1:912" x14ac:dyDescent="0.25">
@@ -57472,6 +57656,9 @@
       <c r="JN65" s="7">
         <v>167622</v>
       </c>
+      <c r="JO65" s="7">
+        <v>167313</v>
+      </c>
     </row>
     <row r="66" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
@@ -58294,6 +58481,9 @@
       <c r="JN66" s="7">
         <v>18822</v>
       </c>
+      <c r="JO66" s="7">
+        <v>18847</v>
+      </c>
     </row>
     <row r="67" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
@@ -59116,6 +59306,9 @@
       <c r="JN67" s="7">
         <v>6285</v>
       </c>
+      <c r="JO67" s="7">
+        <v>6324</v>
+      </c>
     </row>
     <row r="68" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
@@ -59914,42 +60107,45 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f t="shared" ref="JF68:JN68" si="12">SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JN68" si="18">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>622201</v>
       </c>
       <c r="JH68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>626630</v>
       </c>
       <c r="JI68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>630046</v>
       </c>
       <c r="JJ68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>630421</v>
       </c>
       <c r="JK68" s="10">
-        <f t="shared" ref="JK68:JM68" si="13">SUM(JK54:JK67)</f>
+        <f t="shared" ref="JK68:JM68" si="19">SUM(JK54:JK67)</f>
         <v>632610</v>
       </c>
       <c r="JL68" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>634764</v>
       </c>
       <c r="JM68" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>632848</v>
       </c>
       <c r="JN68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>636862</v>
       </c>
-      <c r="JO68" s="29"/>
+      <c r="JO68" s="10">
+        <f t="shared" ref="JO68" si="20">SUM(JO54:JO67)</f>
+        <v>640257</v>
+      </c>
       <c r="JP68" s="29"/>
       <c r="JQ68" s="29"/>
       <c r="JR68" s="29"/>
@@ -61411,6 +61607,9 @@
       <c r="JN69" s="7">
         <v>9704</v>
       </c>
+      <c r="JO69" s="7">
+        <v>9776</v>
+      </c>
     </row>
     <row r="70" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
@@ -62233,6 +62432,9 @@
       <c r="JN70" s="7">
         <v>870</v>
       </c>
+      <c r="JO70" s="7">
+        <v>855</v>
+      </c>
     </row>
     <row r="71" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
@@ -63055,6 +63257,9 @@
       <c r="JN71" s="7">
         <v>33027</v>
       </c>
+      <c r="JO71" s="7">
+        <v>34548</v>
+      </c>
     </row>
     <row r="72" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
@@ -63877,6 +64082,9 @@
       <c r="JN72" s="7">
         <v>4286</v>
       </c>
+      <c r="JO72" s="7">
+        <v>4302</v>
+      </c>
     </row>
     <row r="73" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
@@ -64699,6 +64907,9 @@
       <c r="JN73" s="8">
         <v>514</v>
       </c>
+      <c r="JO73" s="8">
+        <v>569</v>
+      </c>
     </row>
     <row r="74" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
@@ -65521,6 +65732,9 @@
       <c r="JN74" s="7">
         <v>53207</v>
       </c>
+      <c r="JO74" s="7">
+        <v>53998</v>
+      </c>
     </row>
     <row r="75" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
@@ -66319,42 +66533,45 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f t="shared" ref="JF75:JN75" si="14">SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JN75" si="21">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>98343</v>
       </c>
       <c r="JH75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>99545</v>
       </c>
       <c r="JI75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>99824</v>
       </c>
       <c r="JJ75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>100160</v>
       </c>
       <c r="JK75" s="10">
-        <f t="shared" ref="JK75:JM75" si="15">SUM(JK69:JK74)</f>
+        <f t="shared" ref="JK75:JM75" si="22">SUM(JK69:JK74)</f>
         <v>100656</v>
       </c>
       <c r="JL75" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>101579</v>
       </c>
       <c r="JM75" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>101385</v>
       </c>
       <c r="JN75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>101608</v>
       </c>
-      <c r="JO75" s="29"/>
+      <c r="JO75" s="10">
+        <f t="shared" ref="JO75" si="23">SUM(JO69:JO74)</f>
+        <v>104048</v>
+      </c>
       <c r="JP75" s="29"/>
       <c r="JQ75" s="29"/>
       <c r="JR75" s="29"/>
@@ -67791,40 +68008,44 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f t="shared" ref="JF76:JN76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JN76" si="24">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1861159</v>
       </c>
       <c r="JH76" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1874622</v>
       </c>
       <c r="JI76" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1886776</v>
       </c>
       <c r="JJ76" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1884715</v>
       </c>
       <c r="JK76" s="19">
-        <f t="shared" ref="JK76:JM76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
+        <f t="shared" ref="JK76:JM76" si="25">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
         <v>1888232</v>
       </c>
       <c r="JL76" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1896755</v>
       </c>
       <c r="JM76" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1896517</v>
       </c>
       <c r="JN76" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1910627</v>
+      </c>
+      <c r="JO76" s="19">
+        <f t="shared" ref="JO76" si="26">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <v>1927647</v>
       </c>
     </row>
     <row r="77" spans="1:912" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -68097,7 +68318,7 @@
       <c r="JL77" s="30"/>
       <c r="JM77" s="30"/>
       <c r="JN77" s="30"/>
-      <c r="JO77" s="27"/>
+      <c r="JO77" s="30"/>
       <c r="JP77" s="27"/>
       <c r="JQ77" s="27"/>
       <c r="JR77" s="27"/>
@@ -68581,7 +68802,6 @@
     <mergeCell ref="A28:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
-    <mergeCell ref="JG4:JN4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -68595,6 +68815,7 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="JG4:JO4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="350">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t>2022/septiembre</t>
+  </si>
+  <si>
+    <t>2022/octubre</t>
   </si>
 </sst>
 </file>
@@ -2174,11 +2177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIB78"/>
+  <dimension ref="A1:AIC78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JQ11" sqref="JQ11"/>
+      <pane xSplit="2" topLeftCell="JI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JS76" sqref="JS76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2449,23 +2452,23 @@
     <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
     <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="276" max="731" width="10.875" style="28"/>
-    <col min="732" max="912" width="10.875" style="4"/>
-    <col min="913" max="16384" width="10.875" style="3"/>
+    <col min="275" max="276" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="277" max="732" width="10.875" style="28"/>
+    <col min="733" max="913" width="10.875" style="4"/>
+    <col min="914" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
@@ -2791,7 +2794,7 @@
       <c r="JM4" s="38"/>
       <c r="JN4" s="38"/>
       <c r="JO4" s="38"/>
-      <c r="JP4" s="29"/>
+      <c r="JP4" s="38"/>
       <c r="JQ4" s="29"/>
       <c r="JR4" s="29"/>
       <c r="JS4" s="29"/>
@@ -3247,7 +3250,7 @@
       <c r="ABA4" s="29"/>
       <c r="ABB4" s="29"/>
       <c r="ABC4" s="29"/>
-      <c r="ABD4" s="5"/>
+      <c r="ABD4" s="29"/>
       <c r="ABE4" s="5"/>
       <c r="ABF4" s="5"/>
       <c r="ABG4" s="5"/>
@@ -3428,8 +3431,9 @@
       <c r="AHZ4" s="5"/>
       <c r="AIA4" s="5"/>
       <c r="AIB4" s="5"/>
+      <c r="AIC4" s="5"/>
     </row>
-    <row r="5" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
@@ -4251,7 +4255,9 @@
       <c r="JO5" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="JP5" s="29"/>
+      <c r="JP5" s="31" t="s">
+        <v>349</v>
+      </c>
       <c r="JQ5" s="29"/>
       <c r="JR5" s="29"/>
       <c r="JS5" s="29"/>
@@ -4707,7 +4713,7 @@
       <c r="ABA5" s="29"/>
       <c r="ABB5" s="29"/>
       <c r="ABC5" s="29"/>
-      <c r="ABD5" s="5"/>
+      <c r="ABD5" s="29"/>
       <c r="ABE5" s="5"/>
       <c r="ABF5" s="5"/>
       <c r="ABG5" s="5"/>
@@ -4888,8 +4894,9 @@
       <c r="AHZ5" s="5"/>
       <c r="AIA5" s="5"/>
       <c r="AIB5" s="5"/>
+      <c r="AIC5" s="5"/>
     </row>
-    <row r="6" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>244</v>
       </c>
@@ -5715,8 +5722,11 @@
       <c r="JO6" s="7">
         <v>94353</v>
       </c>
+      <c r="JP6" s="7">
+        <v>96089</v>
+      </c>
     </row>
-    <row r="7" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
@@ -6540,8 +6550,11 @@
       <c r="JO7" s="8">
         <v>48</v>
       </c>
+      <c r="JP7" s="8">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
@@ -7365,8 +7378,11 @@
       <c r="JO8" s="7">
         <v>23448</v>
       </c>
+      <c r="JP8" s="7">
+        <v>23820</v>
+      </c>
     </row>
-    <row r="9" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
@@ -8190,8 +8206,11 @@
       <c r="JO9" s="7">
         <v>835</v>
       </c>
+      <c r="JP9" s="7">
+        <v>867</v>
+      </c>
     </row>
-    <row r="10" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
@@ -9015,8 +9034,11 @@
       <c r="JO10" s="8">
         <v>405</v>
       </c>
+      <c r="JP10" s="8">
+        <v>431</v>
+      </c>
     </row>
-    <row r="11" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:913" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
@@ -9849,10 +9871,13 @@
         <v>115219</v>
       </c>
       <c r="JO11" s="10">
-        <f t="shared" ref="JO11" si="2">SUM(JO6:JO10)</f>
+        <f t="shared" ref="JO11:JP11" si="2">SUM(JO6:JO10)</f>
         <v>119089</v>
       </c>
-      <c r="JP11" s="29"/>
+      <c r="JP11" s="10">
+        <f t="shared" si="2"/>
+        <v>121255</v>
+      </c>
       <c r="JQ11" s="29"/>
       <c r="JR11" s="29"/>
       <c r="JS11" s="29"/>
@@ -10308,7 +10333,7 @@
       <c r="ABA11" s="29"/>
       <c r="ABB11" s="29"/>
       <c r="ABC11" s="29"/>
-      <c r="ABD11" s="5"/>
+      <c r="ABD11" s="29"/>
       <c r="ABE11" s="5"/>
       <c r="ABF11" s="5"/>
       <c r="ABG11" s="5"/>
@@ -10489,8 +10514,9 @@
       <c r="AHZ11" s="5"/>
       <c r="AIA11" s="5"/>
       <c r="AIB11" s="5"/>
+      <c r="AIC11" s="5"/>
     </row>
-    <row r="12" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>249</v>
       </c>
@@ -11316,8 +11342,11 @@
       <c r="JO12" s="7">
         <v>78693</v>
       </c>
+      <c r="JP12" s="7">
+        <v>79258</v>
+      </c>
     </row>
-    <row r="13" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
@@ -12141,8 +12170,11 @@
       <c r="JO13" s="7">
         <v>20883</v>
       </c>
+      <c r="JP13" s="7">
+        <v>20915</v>
+      </c>
     </row>
-    <row r="14" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
@@ -12966,8 +12998,11 @@
       <c r="JO14" s="7">
         <v>33945</v>
       </c>
+      <c r="JP14" s="7">
+        <v>34037</v>
+      </c>
     </row>
-    <row r="15" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
@@ -13791,8 +13826,11 @@
       <c r="JO15" s="7">
         <v>22472</v>
       </c>
+      <c r="JP15" s="7">
+        <v>22521</v>
+      </c>
     </row>
-    <row r="16" spans="1:912" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:913" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
@@ -14616,8 +14654,11 @@
       <c r="JO16" s="7">
         <v>15872</v>
       </c>
+      <c r="JP16" s="7">
+        <v>16025</v>
+      </c>
     </row>
-    <row r="17" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
@@ -15441,8 +15482,11 @@
       <c r="JO17" s="7">
         <v>49096</v>
       </c>
+      <c r="JP17" s="7">
+        <v>50090</v>
+      </c>
     </row>
-    <row r="18" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
@@ -16266,8 +16310,11 @@
       <c r="JO18" s="7">
         <v>60738</v>
       </c>
+      <c r="JP18" s="7">
+        <v>61672</v>
+      </c>
     </row>
-    <row r="19" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
@@ -17091,8 +17138,11 @@
       <c r="JO19" s="7">
         <v>68456</v>
       </c>
+      <c r="JP19" s="7">
+        <v>69447</v>
+      </c>
     </row>
-    <row r="20" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
@@ -17916,8 +17966,11 @@
       <c r="JO20" s="7">
         <v>46857</v>
       </c>
+      <c r="JP20" s="7">
+        <v>48903</v>
+      </c>
     </row>
-    <row r="21" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
@@ -18750,10 +18803,13 @@
         <v>394460</v>
       </c>
       <c r="JO21" s="10">
-        <f t="shared" ref="JO21" si="5">SUM(JO12:JO20)</f>
+        <f t="shared" ref="JO21:JP21" si="5">SUM(JO12:JO20)</f>
         <v>397012</v>
       </c>
-      <c r="JP21" s="29"/>
+      <c r="JP21" s="10">
+        <f t="shared" si="5"/>
+        <v>402868</v>
+      </c>
       <c r="JQ21" s="29"/>
       <c r="JR21" s="29"/>
       <c r="JS21" s="29"/>
@@ -19209,7 +19265,7 @@
       <c r="ABA21" s="29"/>
       <c r="ABB21" s="29"/>
       <c r="ABC21" s="29"/>
-      <c r="ABD21" s="5"/>
+      <c r="ABD21" s="29"/>
       <c r="ABE21" s="5"/>
       <c r="ABF21" s="5"/>
       <c r="ABG21" s="5"/>
@@ -19390,8 +19446,9 @@
       <c r="AHZ21" s="5"/>
       <c r="AIA21" s="5"/>
       <c r="AIB21" s="5"/>
+      <c r="AIC21" s="5"/>
     </row>
-    <row r="22" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>259</v>
       </c>
@@ -20217,8 +20274,11 @@
       <c r="JO22" s="7">
         <v>108423</v>
       </c>
+      <c r="JP22" s="7">
+        <v>113781</v>
+      </c>
     </row>
-    <row r="23" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
@@ -21042,8 +21102,11 @@
       <c r="JO23" s="7">
         <v>36740</v>
       </c>
+      <c r="JP23" s="7">
+        <v>36800</v>
+      </c>
     </row>
-    <row r="24" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
@@ -21876,10 +21939,13 @@
         <v>144641</v>
       </c>
       <c r="JO24" s="10">
-        <f t="shared" ref="JO24" si="8">SUM(JO22:JO23)</f>
+        <f t="shared" ref="JO24:JP24" si="8">SUM(JO22:JO23)</f>
         <v>145163</v>
       </c>
-      <c r="JP24" s="29"/>
+      <c r="JP24" s="10">
+        <f t="shared" si="8"/>
+        <v>150581</v>
+      </c>
       <c r="JQ24" s="29"/>
       <c r="JR24" s="29"/>
       <c r="JS24" s="29"/>
@@ -22335,7 +22401,7 @@
       <c r="ABA24" s="29"/>
       <c r="ABB24" s="29"/>
       <c r="ABC24" s="29"/>
-      <c r="ABD24" s="5"/>
+      <c r="ABD24" s="29"/>
       <c r="ABE24" s="5"/>
       <c r="ABF24" s="5"/>
       <c r="ABG24" s="5"/>
@@ -22516,8 +22582,9 @@
       <c r="AHZ24" s="5"/>
       <c r="AIA24" s="5"/>
       <c r="AIB24" s="5"/>
+      <c r="AIC24" s="5"/>
     </row>
-    <row r="25" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>262</v>
       </c>
@@ -23343,8 +23410,11 @@
       <c r="JO25" s="7">
         <v>4292</v>
       </c>
+      <c r="JP25" s="7">
+        <v>4302</v>
+      </c>
     </row>
-    <row r="26" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
@@ -24168,8 +24238,11 @@
       <c r="JO26" s="7">
         <v>5394</v>
       </c>
+      <c r="JP26" s="7">
+        <v>5443</v>
+      </c>
     </row>
-    <row r="27" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:913" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
@@ -25002,10 +25075,13 @@
         <v>9763</v>
       </c>
       <c r="JO27" s="10">
-        <f t="shared" ref="JO27" si="11">SUM(JO25:JO26)</f>
+        <f t="shared" ref="JO27:JP27" si="11">SUM(JO25:JO26)</f>
         <v>9686</v>
       </c>
-      <c r="JP27" s="29"/>
+      <c r="JP27" s="10">
+        <f t="shared" si="11"/>
+        <v>9745</v>
+      </c>
       <c r="JQ27" s="29"/>
       <c r="JR27" s="29"/>
       <c r="JS27" s="29"/>
@@ -25461,7 +25537,7 @@
       <c r="ABA27" s="29"/>
       <c r="ABB27" s="29"/>
       <c r="ABC27" s="29"/>
-      <c r="ABD27" s="5"/>
+      <c r="ABD27" s="29"/>
       <c r="ABE27" s="5"/>
       <c r="ABF27" s="5"/>
       <c r="ABG27" s="5"/>
@@ -25642,8 +25718,9 @@
       <c r="AHZ27" s="5"/>
       <c r="AIA27" s="5"/>
       <c r="AIB27" s="5"/>
+      <c r="AIC27" s="5"/>
     </row>
-    <row r="28" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>265</v>
       </c>
@@ -26469,8 +26546,11 @@
       <c r="JO28" s="7">
         <v>886</v>
       </c>
+      <c r="JP28" s="7">
+        <v>908</v>
+      </c>
     </row>
-    <row r="29" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
@@ -27294,8 +27374,11 @@
       <c r="JO29" s="7">
         <v>11561</v>
       </c>
+      <c r="JP29" s="7">
+        <v>11376</v>
+      </c>
     </row>
-    <row r="30" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
@@ -28119,8 +28202,11 @@
       <c r="JO30" s="7">
         <v>29640</v>
       </c>
+      <c r="JP30" s="7">
+        <v>29921</v>
+      </c>
     </row>
-    <row r="31" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
@@ -28944,8 +29030,11 @@
       <c r="JO31" s="7">
         <v>104468</v>
       </c>
+      <c r="JP31" s="7">
+        <v>105547</v>
+      </c>
     </row>
-    <row r="32" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
@@ -29769,8 +29858,11 @@
       <c r="JO32" s="7">
         <v>26088</v>
       </c>
+      <c r="JP32" s="7">
+        <v>26441</v>
+      </c>
     </row>
-    <row r="33" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
@@ -30594,8 +30686,11 @@
       <c r="JO33" s="7">
         <v>9833</v>
       </c>
+      <c r="JP33" s="7">
+        <v>9796</v>
+      </c>
     </row>
-    <row r="34" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
@@ -31419,8 +31514,11 @@
       <c r="JO34" s="7">
         <v>44045</v>
       </c>
+      <c r="JP34" s="7">
+        <v>44276</v>
+      </c>
     </row>
-    <row r="35" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
@@ -32244,8 +32342,11 @@
       <c r="JO35" s="7">
         <v>10855</v>
       </c>
+      <c r="JP35" s="7">
+        <v>11192</v>
+      </c>
     </row>
-    <row r="36" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
@@ -33069,8 +33170,11 @@
       <c r="JO36" s="7">
         <v>53957</v>
       </c>
+      <c r="JP36" s="7">
+        <v>54063</v>
+      </c>
     </row>
-    <row r="37" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
@@ -33894,8 +33998,11 @@
       <c r="JO37" s="7">
         <v>72034</v>
       </c>
+      <c r="JP37" s="7">
+        <v>73425</v>
+      </c>
     </row>
-    <row r="38" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
@@ -34719,8 +34826,11 @@
       <c r="JO38" s="7">
         <v>21986</v>
       </c>
+      <c r="JP38" s="7">
+        <v>22004</v>
+      </c>
     </row>
-    <row r="39" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
@@ -35544,8 +35654,11 @@
       <c r="JO39" s="7">
         <v>23991</v>
       </c>
+      <c r="JP39" s="7">
+        <v>24094</v>
+      </c>
     </row>
-    <row r="40" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
@@ -36369,8 +36482,11 @@
       <c r="JO40" s="7">
         <v>12107</v>
       </c>
+      <c r="JP40" s="7">
+        <v>12176</v>
+      </c>
     </row>
-    <row r="41" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
@@ -37194,8 +37310,11 @@
       <c r="JO41" s="7">
         <v>11124</v>
       </c>
+      <c r="JP41" s="7">
+        <v>11090</v>
+      </c>
     </row>
-    <row r="42" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
@@ -38019,8 +38138,11 @@
       <c r="JO42" s="7">
         <v>44328</v>
       </c>
+      <c r="JP42" s="7">
+        <v>44392</v>
+      </c>
     </row>
-    <row r="43" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
@@ -38844,8 +38966,11 @@
       <c r="JO43" s="7">
         <v>4923</v>
       </c>
+      <c r="JP43" s="7">
+        <v>4831</v>
+      </c>
     </row>
-    <row r="44" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
@@ -39669,8 +39794,11 @@
       <c r="JO44" s="7">
         <v>5943</v>
       </c>
+      <c r="JP44" s="7">
+        <v>5960</v>
+      </c>
     </row>
-    <row r="45" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
@@ -40494,8 +40622,11 @@
       <c r="JO45" s="7">
         <v>7193</v>
       </c>
+      <c r="JP45" s="7">
+        <v>7209</v>
+      </c>
     </row>
-    <row r="46" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
@@ -41319,8 +41450,11 @@
       <c r="JO46" s="7">
         <v>13316</v>
       </c>
+      <c r="JP46" s="7">
+        <v>13420</v>
+      </c>
     </row>
-    <row r="47" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
@@ -42144,8 +42278,11 @@
       <c r="JO47" s="7">
         <v>1596</v>
       </c>
+      <c r="JP47" s="7">
+        <v>1613</v>
+      </c>
     </row>
-    <row r="48" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
@@ -42978,10 +43115,13 @@
         <v>505597</v>
       </c>
       <c r="JO48" s="10">
-        <f t="shared" ref="JO48" si="14">SUM(JO28:JO47)</f>
+        <f t="shared" ref="JO48:JP48" si="14">SUM(JO28:JO47)</f>
         <v>509874</v>
       </c>
-      <c r="JP48" s="29"/>
+      <c r="JP48" s="10">
+        <f t="shared" si="14"/>
+        <v>513734</v>
+      </c>
       <c r="JQ48" s="29"/>
       <c r="JR48" s="29"/>
       <c r="JS48" s="29"/>
@@ -43437,7 +43577,7 @@
       <c r="ABA48" s="29"/>
       <c r="ABB48" s="29"/>
       <c r="ABC48" s="29"/>
-      <c r="ABD48" s="5"/>
+      <c r="ABD48" s="29"/>
       <c r="ABE48" s="5"/>
       <c r="ABF48" s="5"/>
       <c r="ABG48" s="5"/>
@@ -43618,8 +43758,9 @@
       <c r="AHZ48" s="5"/>
       <c r="AIA48" s="5"/>
       <c r="AIB48" s="5"/>
+      <c r="AIC48" s="5"/>
     </row>
-    <row r="49" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
@@ -44445,8 +44586,11 @@
       <c r="JO49" s="8">
         <v>12</v>
       </c>
+      <c r="JP49" s="8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="50" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
@@ -45270,8 +45414,11 @@
       <c r="JO50" s="8">
         <v>24</v>
       </c>
+      <c r="JP50" s="8">
+        <v>30</v>
+      </c>
     </row>
-    <row r="51" spans="1:275" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:276" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
@@ -46095,8 +46242,11 @@
       <c r="JO51" s="7">
         <v>1490</v>
       </c>
+      <c r="JP51" s="7">
+        <v>1488</v>
+      </c>
     </row>
-    <row r="52" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
@@ -46920,8 +47070,11 @@
       <c r="JO52" s="7">
         <v>992</v>
       </c>
+      <c r="JP52" s="7">
+        <v>975</v>
+      </c>
     </row>
-    <row r="53" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
@@ -47754,11 +47907,15 @@
         <v>2477</v>
       </c>
       <c r="JO53" s="10">
-        <f t="shared" ref="JO53" si="17">SUM(JO49:JO52)</f>
+        <f t="shared" ref="JO53:JP53" si="17">SUM(JO49:JO52)</f>
         <v>2518</v>
       </c>
+      <c r="JP53" s="10">
+        <f t="shared" si="17"/>
+        <v>2505</v>
+      </c>
     </row>
-    <row r="54" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
@@ -48584,8 +48741,11 @@
       <c r="JO54" s="36">
         <v>5669</v>
       </c>
+      <c r="JP54" s="36">
+        <v>5809</v>
+      </c>
     </row>
-    <row r="55" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
@@ -49409,8 +49569,11 @@
       <c r="JO55" s="7">
         <v>52860</v>
       </c>
+      <c r="JP55" s="7">
+        <v>53691</v>
+      </c>
     </row>
-    <row r="56" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
@@ -50234,8 +50397,11 @@
       <c r="JO56" s="7">
         <v>7199</v>
       </c>
+      <c r="JP56" s="7">
+        <v>6989</v>
+      </c>
     </row>
-    <row r="57" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
@@ -51059,8 +51225,11 @@
       <c r="JO57" s="7">
         <v>189397</v>
       </c>
+      <c r="JP57" s="7">
+        <v>190438</v>
+      </c>
     </row>
-    <row r="58" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
@@ -51884,8 +52053,11 @@
       <c r="JO58" s="7">
         <v>33538</v>
       </c>
+      <c r="JP58" s="7">
+        <v>34008</v>
+      </c>
     </row>
-    <row r="59" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
@@ -52709,8 +52881,11 @@
       <c r="JO59" s="7">
         <v>6516</v>
       </c>
+      <c r="JP59" s="7">
+        <v>6702</v>
+      </c>
     </row>
-    <row r="60" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
@@ -53534,8 +53709,11 @@
       <c r="JO60" s="7">
         <v>49446</v>
       </c>
+      <c r="JP60" s="7">
+        <v>49906</v>
+      </c>
     </row>
-    <row r="61" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
@@ -54359,8 +54537,11 @@
       <c r="JO61" s="8">
         <v>139</v>
       </c>
+      <c r="JP61" s="8">
+        <v>141</v>
+      </c>
     </row>
-    <row r="62" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
@@ -55184,8 +55365,11 @@
       <c r="JO62" s="7">
         <v>20170</v>
       </c>
+      <c r="JP62" s="7">
+        <v>20296</v>
+      </c>
     </row>
-    <row r="63" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
@@ -56009,8 +56193,11 @@
       <c r="JO63" s="7">
         <v>34047</v>
       </c>
+      <c r="JP63" s="7">
+        <v>34207</v>
+      </c>
     </row>
-    <row r="64" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
@@ -56834,8 +57021,11 @@
       <c r="JO64" s="7">
         <v>48792</v>
       </c>
+      <c r="JP64" s="7">
+        <v>48805</v>
+      </c>
     </row>
-    <row r="65" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
@@ -57659,8 +57849,11 @@
       <c r="JO65" s="7">
         <v>167313</v>
       </c>
+      <c r="JP65" s="7">
+        <v>168418</v>
+      </c>
     </row>
-    <row r="66" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
@@ -58484,8 +58677,11 @@
       <c r="JO66" s="7">
         <v>18847</v>
       </c>
+      <c r="JP66" s="7">
+        <v>19623</v>
+      </c>
     </row>
-    <row r="67" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
@@ -59309,8 +59505,11 @@
       <c r="JO67" s="7">
         <v>6324</v>
       </c>
+      <c r="JP67" s="7">
+        <v>6376</v>
+      </c>
     </row>
-    <row r="68" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
@@ -60143,10 +60342,13 @@
         <v>636862</v>
       </c>
       <c r="JO68" s="10">
-        <f t="shared" ref="JO68" si="20">SUM(JO54:JO67)</f>
+        <f t="shared" ref="JO68:JP68" si="20">SUM(JO54:JO67)</f>
         <v>640257</v>
       </c>
-      <c r="JP68" s="29"/>
+      <c r="JP68" s="10">
+        <f t="shared" si="20"/>
+        <v>645409</v>
+      </c>
       <c r="JQ68" s="29"/>
       <c r="JR68" s="29"/>
       <c r="JS68" s="29"/>
@@ -60602,7 +60804,7 @@
       <c r="ABA68" s="29"/>
       <c r="ABB68" s="29"/>
       <c r="ABC68" s="29"/>
-      <c r="ABD68" s="5"/>
+      <c r="ABD68" s="29"/>
       <c r="ABE68" s="5"/>
       <c r="ABF68" s="5"/>
       <c r="ABG68" s="5"/>
@@ -60783,8 +60985,9 @@
       <c r="AHZ68" s="5"/>
       <c r="AIA68" s="5"/>
       <c r="AIB68" s="5"/>
+      <c r="AIC68" s="5"/>
     </row>
-    <row r="69" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A69" s="42" t="s">
         <v>306</v>
       </c>
@@ -61610,8 +61813,11 @@
       <c r="JO69" s="7">
         <v>9776</v>
       </c>
+      <c r="JP69" s="7">
+        <v>9799</v>
+      </c>
     </row>
-    <row r="70" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
@@ -62435,8 +62641,11 @@
       <c r="JO70" s="7">
         <v>855</v>
       </c>
+      <c r="JP70" s="7">
+        <v>875</v>
+      </c>
     </row>
-    <row r="71" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
@@ -63260,8 +63469,11 @@
       <c r="JO71" s="7">
         <v>34548</v>
       </c>
+      <c r="JP71" s="7">
+        <v>34816</v>
+      </c>
     </row>
-    <row r="72" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
@@ -64085,8 +64297,11 @@
       <c r="JO72" s="7">
         <v>4302</v>
       </c>
+      <c r="JP72" s="7">
+        <v>4430</v>
+      </c>
     </row>
-    <row r="73" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
@@ -64910,8 +65125,11 @@
       <c r="JO73" s="8">
         <v>569</v>
       </c>
+      <c r="JP73" s="8">
+        <v>574</v>
+      </c>
     </row>
-    <row r="74" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
@@ -65735,8 +65953,11 @@
       <c r="JO74" s="7">
         <v>53998</v>
       </c>
+      <c r="JP74" s="7">
+        <v>54350</v>
+      </c>
     </row>
-    <row r="75" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
@@ -66569,10 +66790,13 @@
         <v>101608</v>
       </c>
       <c r="JO75" s="10">
-        <f t="shared" ref="JO75" si="23">SUM(JO69:JO74)</f>
+        <f t="shared" ref="JO75:JP75" si="23">SUM(JO69:JO74)</f>
         <v>104048</v>
       </c>
-      <c r="JP75" s="29"/>
+      <c r="JP75" s="10">
+        <f t="shared" si="23"/>
+        <v>104844</v>
+      </c>
       <c r="JQ75" s="29"/>
       <c r="JR75" s="29"/>
       <c r="JS75" s="29"/>
@@ -67028,7 +67252,7 @@
       <c r="ABA75" s="29"/>
       <c r="ABB75" s="29"/>
       <c r="ABC75" s="29"/>
-      <c r="ABD75" s="5"/>
+      <c r="ABD75" s="29"/>
       <c r="ABE75" s="5"/>
       <c r="ABF75" s="5"/>
       <c r="ABG75" s="5"/>
@@ -67209,8 +67433,9 @@
       <c r="AHZ75" s="5"/>
       <c r="AIA75" s="5"/>
       <c r="AIB75" s="5"/>
+      <c r="AIC75" s="5"/>
     </row>
-    <row r="76" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -68044,11 +68269,15 @@
         <v>1910627</v>
       </c>
       <c r="JO76" s="19">
-        <f t="shared" ref="JO76" si="26">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <f t="shared" ref="JO76:JP76" si="26">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
         <v>1927647</v>
       </c>
+      <c r="JP76" s="19">
+        <f t="shared" si="26"/>
+        <v>1950941</v>
+      </c>
     </row>
-    <row r="77" spans="1:912" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:913" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -68319,7 +68548,7 @@
       <c r="JM77" s="30"/>
       <c r="JN77" s="30"/>
       <c r="JO77" s="30"/>
-      <c r="JP77" s="27"/>
+      <c r="JP77" s="30"/>
       <c r="JQ77" s="27"/>
       <c r="JR77" s="27"/>
       <c r="JS77" s="27"/>
@@ -68775,8 +69004,9 @@
       <c r="ABA77" s="27"/>
       <c r="ABB77" s="27"/>
       <c r="ABC77" s="27"/>
+      <c r="ABD77" s="27"/>
     </row>
-    <row r="78" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
@@ -68802,6 +69032,7 @@
     <mergeCell ref="A28:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
+    <mergeCell ref="JG4:JP4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -68815,7 +69046,6 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="JG4:JO4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="351">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1093,6 +1093,9 @@
   <si>
     <t>2022/octubre</t>
   </si>
+  <si>
+    <t>2022/noviembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1804,8 +1807,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1815,12 +1824,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2177,11 +2180,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIC78"/>
+  <dimension ref="A1:AID78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JS76" sqref="JS76"/>
+      <pane xSplit="2" topLeftCell="JF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JS74" sqref="JS74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2452,350 +2455,350 @@
     <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
     <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="275" max="276" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="277" max="732" width="10.875" style="28"/>
-    <col min="733" max="913" width="10.875" style="4"/>
-    <col min="914" max="16384" width="10.875" style="3"/>
+    <col min="275" max="277" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="278" max="733" width="10.875" style="28"/>
+    <col min="734" max="914" width="10.875" style="4"/>
+    <col min="915" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:913" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:914" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:913" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:914" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:914" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="38"/>
-      <c r="CU4" s="38">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="38"/>
-      <c r="CW4" s="38"/>
-      <c r="CX4" s="38"/>
-      <c r="CY4" s="38"/>
-      <c r="CZ4" s="38"/>
-      <c r="DA4" s="38"/>
-      <c r="DB4" s="38"/>
-      <c r="DC4" s="38"/>
-      <c r="DD4" s="38"/>
-      <c r="DE4" s="38"/>
-      <c r="DF4" s="38"/>
-      <c r="DG4" s="38">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="38"/>
-      <c r="DI4" s="38"/>
-      <c r="DJ4" s="38"/>
-      <c r="DK4" s="38"/>
-      <c r="DL4" s="38"/>
-      <c r="DM4" s="38"/>
-      <c r="DN4" s="38"/>
-      <c r="DO4" s="38"/>
-      <c r="DP4" s="38"/>
-      <c r="DQ4" s="38"/>
-      <c r="DR4" s="38"/>
-      <c r="DS4" s="38">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="38"/>
-      <c r="DU4" s="38"/>
-      <c r="DV4" s="38"/>
-      <c r="DW4" s="38"/>
-      <c r="DX4" s="38"/>
-      <c r="DY4" s="38"/>
-      <c r="DZ4" s="38"/>
-      <c r="EA4" s="38"/>
-      <c r="EB4" s="38"/>
-      <c r="EC4" s="38"/>
-      <c r="ED4" s="38"/>
-      <c r="EE4" s="38">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="38"/>
-      <c r="EG4" s="38"/>
-      <c r="EH4" s="38"/>
-      <c r="EI4" s="38"/>
-      <c r="EJ4" s="38"/>
-      <c r="EK4" s="38"/>
-      <c r="EL4" s="38"/>
-      <c r="EM4" s="38"/>
-      <c r="EN4" s="38"/>
-      <c r="EO4" s="38"/>
-      <c r="EP4" s="38"/>
-      <c r="EQ4" s="38">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="38"/>
-      <c r="ES4" s="38"/>
-      <c r="ET4" s="38"/>
-      <c r="EU4" s="38"/>
-      <c r="EV4" s="38"/>
-      <c r="EW4" s="38"/>
-      <c r="EX4" s="38"/>
-      <c r="EY4" s="38"/>
-      <c r="EZ4" s="38"/>
-      <c r="FA4" s="38"/>
-      <c r="FB4" s="38"/>
-      <c r="FC4" s="38">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="38"/>
-      <c r="FE4" s="38"/>
-      <c r="FF4" s="38"/>
-      <c r="FG4" s="38"/>
-      <c r="FH4" s="38"/>
-      <c r="FI4" s="38"/>
-      <c r="FJ4" s="38"/>
-      <c r="FK4" s="38"/>
-      <c r="FL4" s="38"/>
-      <c r="FM4" s="38"/>
-      <c r="FN4" s="38"/>
-      <c r="FO4" s="38">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="38"/>
-      <c r="FQ4" s="38"/>
-      <c r="FR4" s="38"/>
-      <c r="FS4" s="38"/>
-      <c r="FT4" s="38"/>
-      <c r="FU4" s="38"/>
-      <c r="FV4" s="38"/>
-      <c r="FW4" s="38"/>
-      <c r="FX4" s="38"/>
-      <c r="FY4" s="38"/>
-      <c r="FZ4" s="38"/>
-      <c r="GA4" s="38">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="38"/>
-      <c r="GC4" s="38"/>
-      <c r="GD4" s="38"/>
-      <c r="GE4" s="38"/>
-      <c r="GF4" s="38"/>
-      <c r="GG4" s="38"/>
-      <c r="GH4" s="38"/>
-      <c r="GI4" s="38"/>
-      <c r="GJ4" s="38"/>
-      <c r="GK4" s="38"/>
-      <c r="GL4" s="38"/>
-      <c r="GM4" s="38">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="38"/>
-      <c r="GO4" s="38"/>
-      <c r="GP4" s="38"/>
-      <c r="GQ4" s="38"/>
-      <c r="GR4" s="38"/>
-      <c r="GS4" s="38"/>
-      <c r="GT4" s="38"/>
-      <c r="GU4" s="38"/>
-      <c r="GV4" s="38"/>
-      <c r="GW4" s="38"/>
-      <c r="GX4" s="38"/>
-      <c r="GY4" s="38">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="38"/>
-      <c r="HA4" s="38"/>
-      <c r="HB4" s="38"/>
-      <c r="HC4" s="38"/>
-      <c r="HD4" s="38"/>
-      <c r="HE4" s="38"/>
-      <c r="HF4" s="38"/>
-      <c r="HG4" s="38"/>
-      <c r="HH4" s="38"/>
-      <c r="HI4" s="38"/>
-      <c r="HJ4" s="38"/>
-      <c r="HK4" s="38">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="38"/>
-      <c r="HM4" s="38"/>
-      <c r="HN4" s="38"/>
-      <c r="HO4" s="38"/>
-      <c r="HP4" s="38"/>
-      <c r="HQ4" s="38"/>
-      <c r="HR4" s="38"/>
-      <c r="HS4" s="38"/>
-      <c r="HT4" s="38"/>
-      <c r="HU4" s="38"/>
-      <c r="HV4" s="38"/>
-      <c r="HW4" s="38">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="38"/>
-      <c r="HY4" s="38"/>
-      <c r="HZ4" s="38"/>
-      <c r="IA4" s="38"/>
-      <c r="IB4" s="38"/>
-      <c r="IC4" s="38"/>
-      <c r="ID4" s="38"/>
-      <c r="IE4" s="38"/>
-      <c r="IF4" s="38"/>
-      <c r="IG4" s="38"/>
-      <c r="IH4" s="39"/>
-      <c r="II4" s="39">
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="41"/>
+      <c r="II4" s="41">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="40"/>
-      <c r="IK4" s="40"/>
-      <c r="IL4" s="40"/>
-      <c r="IM4" s="40"/>
-      <c r="IN4" s="40"/>
-      <c r="IO4" s="40"/>
-      <c r="IP4" s="40"/>
-      <c r="IQ4" s="40"/>
-      <c r="IR4" s="40"/>
-      <c r="IS4" s="40"/>
-      <c r="IT4" s="41"/>
-      <c r="IU4" s="39">
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="43"/>
+      <c r="IU4" s="41">
         <v>2021</v>
       </c>
-      <c r="IV4" s="40"/>
-      <c r="IW4" s="40"/>
-      <c r="IX4" s="40"/>
-      <c r="IY4" s="40"/>
-      <c r="IZ4" s="40"/>
-      <c r="JA4" s="40"/>
-      <c r="JB4" s="40"/>
-      <c r="JC4" s="40"/>
-      <c r="JD4" s="40"/>
-      <c r="JE4" s="40"/>
-      <c r="JF4" s="41"/>
-      <c r="JG4" s="38">
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
+      <c r="IY4" s="42"/>
+      <c r="IZ4" s="42"/>
+      <c r="JA4" s="42"/>
+      <c r="JB4" s="42"/>
+      <c r="JC4" s="42"/>
+      <c r="JD4" s="42"/>
+      <c r="JE4" s="42"/>
+      <c r="JF4" s="43"/>
+      <c r="JG4" s="39">
         <v>2022</v>
       </c>
-      <c r="JH4" s="38"/>
-      <c r="JI4" s="38"/>
-      <c r="JJ4" s="38"/>
-      <c r="JK4" s="38"/>
-      <c r="JL4" s="38"/>
-      <c r="JM4" s="38"/>
-      <c r="JN4" s="38"/>
-      <c r="JO4" s="38"/>
-      <c r="JP4" s="38"/>
-      <c r="JQ4" s="29"/>
+      <c r="JH4" s="39"/>
+      <c r="JI4" s="39"/>
+      <c r="JJ4" s="39"/>
+      <c r="JK4" s="39"/>
+      <c r="JL4" s="39"/>
+      <c r="JM4" s="39"/>
+      <c r="JN4" s="39"/>
+      <c r="JO4" s="39"/>
+      <c r="JP4" s="39"/>
+      <c r="JQ4" s="39"/>
       <c r="JR4" s="29"/>
       <c r="JS4" s="29"/>
       <c r="JT4" s="29"/>
@@ -3251,7 +3254,7 @@
       <c r="ABB4" s="29"/>
       <c r="ABC4" s="29"/>
       <c r="ABD4" s="29"/>
-      <c r="ABE4" s="5"/>
+      <c r="ABE4" s="29"/>
       <c r="ABF4" s="5"/>
       <c r="ABG4" s="5"/>
       <c r="ABH4" s="5"/>
@@ -3432,10 +3435,11 @@
       <c r="AIA4" s="5"/>
       <c r="AIB4" s="5"/>
       <c r="AIC4" s="5"/>
+      <c r="AID4" s="5"/>
     </row>
-    <row r="5" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="43"/>
+    <row r="5" spans="1:914" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4258,7 +4262,9 @@
       <c r="JP5" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="JQ5" s="29"/>
+      <c r="JQ5" s="31" t="s">
+        <v>350</v>
+      </c>
       <c r="JR5" s="29"/>
       <c r="JS5" s="29"/>
       <c r="JT5" s="29"/>
@@ -4714,7 +4720,7 @@
       <c r="ABB5" s="29"/>
       <c r="ABC5" s="29"/>
       <c r="ABD5" s="29"/>
-      <c r="ABE5" s="5"/>
+      <c r="ABE5" s="29"/>
       <c r="ABF5" s="5"/>
       <c r="ABG5" s="5"/>
       <c r="ABH5" s="5"/>
@@ -4895,9 +4901,10 @@
       <c r="AIA5" s="5"/>
       <c r="AIB5" s="5"/>
       <c r="AIC5" s="5"/>
+      <c r="AID5" s="5"/>
     </row>
-    <row r="6" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5725,9 +5732,12 @@
       <c r="JP6" s="7">
         <v>96089</v>
       </c>
+      <c r="JQ6" s="7">
+        <v>96008</v>
+      </c>
     </row>
-    <row r="7" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6553,9 +6563,12 @@
       <c r="JP7" s="8">
         <v>48</v>
       </c>
+      <c r="JQ7" s="8">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+    <row r="8" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7381,9 +7394,12 @@
       <c r="JP8" s="7">
         <v>23820</v>
       </c>
+      <c r="JQ8" s="7">
+        <v>23917</v>
+      </c>
     </row>
-    <row r="9" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+    <row r="9" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8209,9 +8225,12 @@
       <c r="JP9" s="7">
         <v>867</v>
       </c>
+      <c r="JQ9" s="7">
+        <v>480</v>
+      </c>
     </row>
-    <row r="10" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -9037,9 +9056,12 @@
       <c r="JP10" s="8">
         <v>431</v>
       </c>
+      <c r="JQ10" s="8">
+        <v>465</v>
+      </c>
     </row>
-    <row r="11" spans="1:913" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:914" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9871,14 +9893,17 @@
         <v>115219</v>
       </c>
       <c r="JO11" s="10">
-        <f t="shared" ref="JO11:JP11" si="2">SUM(JO6:JO10)</f>
+        <f t="shared" ref="JO11:JQ11" si="2">SUM(JO6:JO10)</f>
         <v>119089</v>
       </c>
       <c r="JP11" s="10">
+        <f t="shared" ref="JP11" si="3">SUM(JP6:JP10)</f>
+        <v>121255</v>
+      </c>
+      <c r="JQ11" s="10">
         <f t="shared" si="2"/>
-        <v>121255</v>
-      </c>
-      <c r="JQ11" s="29"/>
+        <v>120917</v>
+      </c>
       <c r="JR11" s="29"/>
       <c r="JS11" s="29"/>
       <c r="JT11" s="29"/>
@@ -10334,7 +10359,7 @@
       <c r="ABB11" s="29"/>
       <c r="ABC11" s="29"/>
       <c r="ABD11" s="29"/>
-      <c r="ABE11" s="5"/>
+      <c r="ABE11" s="29"/>
       <c r="ABF11" s="5"/>
       <c r="ABG11" s="5"/>
       <c r="ABH11" s="5"/>
@@ -10515,9 +10540,10 @@
       <c r="AIA11" s="5"/>
       <c r="AIB11" s="5"/>
       <c r="AIC11" s="5"/>
+      <c r="AID11" s="5"/>
     </row>
-    <row r="12" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11345,9 +11371,12 @@
       <c r="JP12" s="7">
         <v>79258</v>
       </c>
+      <c r="JQ12" s="7">
+        <v>79770</v>
+      </c>
     </row>
-    <row r="13" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12173,9 +12202,12 @@
       <c r="JP13" s="7">
         <v>20915</v>
       </c>
+      <c r="JQ13" s="7">
+        <v>21079</v>
+      </c>
     </row>
-    <row r="14" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+    <row r="14" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -13001,9 +13033,12 @@
       <c r="JP14" s="7">
         <v>34037</v>
       </c>
+      <c r="JQ14" s="7">
+        <v>34398</v>
+      </c>
     </row>
-    <row r="15" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13829,9 +13864,12 @@
       <c r="JP15" s="7">
         <v>22521</v>
       </c>
+      <c r="JQ15" s="7">
+        <v>22432</v>
+      </c>
     </row>
-    <row r="16" spans="1:913" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:914" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14657,9 +14695,12 @@
       <c r="JP16" s="7">
         <v>16025</v>
       </c>
+      <c r="JQ16" s="7">
+        <v>14058</v>
+      </c>
     </row>
-    <row r="17" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15485,9 +15526,12 @@
       <c r="JP17" s="7">
         <v>50090</v>
       </c>
+      <c r="JQ17" s="7">
+        <v>50150</v>
+      </c>
     </row>
-    <row r="18" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+    <row r="18" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16313,9 +16357,12 @@
       <c r="JP18" s="7">
         <v>61672</v>
       </c>
+      <c r="JQ18" s="7">
+        <v>61621</v>
+      </c>
     </row>
-    <row r="19" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+    <row r="19" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -17141,9 +17188,12 @@
       <c r="JP19" s="7">
         <v>69447</v>
       </c>
+      <c r="JQ19" s="7">
+        <v>70647</v>
+      </c>
     </row>
-    <row r="20" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+    <row r="20" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17969,9 +18019,12 @@
       <c r="JP20" s="7">
         <v>48903</v>
       </c>
+      <c r="JQ20" s="7">
+        <v>49834</v>
+      </c>
     </row>
-    <row r="21" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+    <row r="21" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18767,50 +18820,53 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f t="shared" ref="JF21:JN21" si="3">SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JN21" si="4">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>388222</v>
       </c>
       <c r="JH21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>388746</v>
       </c>
       <c r="JI21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389036</v>
       </c>
       <c r="JJ21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389372</v>
       </c>
       <c r="JK21" s="10">
-        <f t="shared" ref="JK21:JM21" si="4">SUM(JK12:JK20)</f>
+        <f t="shared" ref="JK21:JM21" si="5">SUM(JK12:JK20)</f>
         <v>390157</v>
       </c>
       <c r="JL21" s="10">
+        <f t="shared" si="5"/>
+        <v>393243</v>
+      </c>
+      <c r="JM21" s="10">
+        <f t="shared" si="5"/>
+        <v>392581</v>
+      </c>
+      <c r="JN21" s="10">
         <f t="shared" si="4"/>
-        <v>393243</v>
-      </c>
-      <c r="JM21" s="10">
-        <f t="shared" si="4"/>
-        <v>392581</v>
-      </c>
-      <c r="JN21" s="10">
-        <f t="shared" si="3"/>
         <v>394460</v>
       </c>
       <c r="JO21" s="10">
-        <f t="shared" ref="JO21:JP21" si="5">SUM(JO12:JO20)</f>
+        <f t="shared" ref="JO21:JQ21" si="6">SUM(JO12:JO20)</f>
         <v>397012</v>
       </c>
       <c r="JP21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="JP21" si="7">SUM(JP12:JP20)</f>
         <v>402868</v>
       </c>
-      <c r="JQ21" s="29"/>
+      <c r="JQ21" s="10">
+        <f t="shared" si="6"/>
+        <v>403989</v>
+      </c>
       <c r="JR21" s="29"/>
       <c r="JS21" s="29"/>
       <c r="JT21" s="29"/>
@@ -19266,7 +19322,7 @@
       <c r="ABB21" s="29"/>
       <c r="ABC21" s="29"/>
       <c r="ABD21" s="29"/>
-      <c r="ABE21" s="5"/>
+      <c r="ABE21" s="29"/>
       <c r="ABF21" s="5"/>
       <c r="ABG21" s="5"/>
       <c r="ABH21" s="5"/>
@@ -19447,9 +19503,10 @@
       <c r="AIA21" s="5"/>
       <c r="AIB21" s="5"/>
       <c r="AIC21" s="5"/>
+      <c r="AID21" s="5"/>
     </row>
-    <row r="22" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -20277,9 +20334,12 @@
       <c r="JP22" s="7">
         <v>113781</v>
       </c>
+      <c r="JQ22" s="7">
+        <v>115311</v>
+      </c>
     </row>
-    <row r="23" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -21105,9 +21165,12 @@
       <c r="JP23" s="7">
         <v>36800</v>
       </c>
+      <c r="JQ23" s="7">
+        <v>36817</v>
+      </c>
     </row>
-    <row r="24" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21903,50 +21966,53 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f t="shared" ref="JF24:JN24" si="6">SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JN24" si="8">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>135688</v>
       </c>
       <c r="JH24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>136388</v>
       </c>
       <c r="JI24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>137344</v>
       </c>
       <c r="JJ24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>137135</v>
       </c>
       <c r="JK24" s="10">
-        <f t="shared" ref="JK24:JM24" si="7">SUM(JK22:JK23)</f>
+        <f t="shared" ref="JK24:JM24" si="9">SUM(JK22:JK23)</f>
         <v>139462</v>
       </c>
       <c r="JL24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>140587</v>
       </c>
       <c r="JM24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>142342</v>
       </c>
       <c r="JN24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>144641</v>
       </c>
       <c r="JO24" s="10">
-        <f t="shared" ref="JO24:JP24" si="8">SUM(JO22:JO23)</f>
+        <f t="shared" ref="JO24:JQ24" si="10">SUM(JO22:JO23)</f>
         <v>145163</v>
       </c>
       <c r="JP24" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="JP24" si="11">SUM(JP22:JP23)</f>
         <v>150581</v>
       </c>
-      <c r="JQ24" s="29"/>
+      <c r="JQ24" s="10">
+        <f t="shared" si="10"/>
+        <v>152128</v>
+      </c>
       <c r="JR24" s="29"/>
       <c r="JS24" s="29"/>
       <c r="JT24" s="29"/>
@@ -22402,7 +22468,7 @@
       <c r="ABB24" s="29"/>
       <c r="ABC24" s="29"/>
       <c r="ABD24" s="29"/>
-      <c r="ABE24" s="5"/>
+      <c r="ABE24" s="29"/>
       <c r="ABF24" s="5"/>
       <c r="ABG24" s="5"/>
       <c r="ABH24" s="5"/>
@@ -22583,9 +22649,10 @@
       <c r="AIA24" s="5"/>
       <c r="AIB24" s="5"/>
       <c r="AIC24" s="5"/>
+      <c r="AID24" s="5"/>
     </row>
-    <row r="25" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23413,9 +23480,12 @@
       <c r="JP25" s="7">
         <v>4302</v>
       </c>
+      <c r="JQ25" s="7">
+        <v>4331</v>
+      </c>
     </row>
-    <row r="26" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+    <row r="26" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -24241,9 +24311,12 @@
       <c r="JP26" s="7">
         <v>5443</v>
       </c>
+      <c r="JQ26" s="7">
+        <v>5516</v>
+      </c>
     </row>
-    <row r="27" spans="1:913" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+    <row r="27" spans="1:914" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -25039,50 +25112,53 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f t="shared" ref="JF27:JN27" si="9">SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JN27" si="12">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9433</v>
       </c>
       <c r="JH27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9550</v>
       </c>
       <c r="JI27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9619</v>
       </c>
       <c r="JJ27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9540</v>
       </c>
       <c r="JK27" s="10">
-        <f t="shared" ref="JK27:JM27" si="10">SUM(JK25:JK26)</f>
+        <f t="shared" ref="JK27:JM27" si="13">SUM(JK25:JK26)</f>
         <v>9600</v>
       </c>
       <c r="JL27" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9738</v>
       </c>
       <c r="JM27" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9682</v>
       </c>
       <c r="JN27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9763</v>
       </c>
       <c r="JO27" s="10">
-        <f t="shared" ref="JO27:JP27" si="11">SUM(JO25:JO26)</f>
+        <f t="shared" ref="JO27:JQ27" si="14">SUM(JO25:JO26)</f>
         <v>9686</v>
       </c>
       <c r="JP27" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="JP27" si="15">SUM(JP25:JP26)</f>
         <v>9745</v>
       </c>
-      <c r="JQ27" s="29"/>
+      <c r="JQ27" s="10">
+        <f t="shared" si="14"/>
+        <v>9847</v>
+      </c>
       <c r="JR27" s="29"/>
       <c r="JS27" s="29"/>
       <c r="JT27" s="29"/>
@@ -25538,7 +25614,7 @@
       <c r="ABB27" s="29"/>
       <c r="ABC27" s="29"/>
       <c r="ABD27" s="29"/>
-      <c r="ABE27" s="5"/>
+      <c r="ABE27" s="29"/>
       <c r="ABF27" s="5"/>
       <c r="ABG27" s="5"/>
       <c r="ABH27" s="5"/>
@@ -25719,9 +25795,10 @@
       <c r="AIA27" s="5"/>
       <c r="AIB27" s="5"/>
       <c r="AIC27" s="5"/>
+      <c r="AID27" s="5"/>
     </row>
-    <row r="28" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26549,9 +26626,12 @@
       <c r="JP28" s="7">
         <v>908</v>
       </c>
+      <c r="JQ28" s="7">
+        <v>910</v>
+      </c>
     </row>
-    <row r="29" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+    <row r="29" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -27377,9 +27457,12 @@
       <c r="JP29" s="7">
         <v>11376</v>
       </c>
+      <c r="JQ29" s="7">
+        <v>11478</v>
+      </c>
     </row>
-    <row r="30" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+    <row r="30" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -28205,9 +28288,12 @@
       <c r="JP30" s="7">
         <v>29921</v>
       </c>
+      <c r="JQ30" s="7">
+        <v>29825</v>
+      </c>
     </row>
-    <row r="31" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+    <row r="31" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -29033,9 +29119,12 @@
       <c r="JP31" s="7">
         <v>105547</v>
       </c>
+      <c r="JQ31" s="7">
+        <v>106421</v>
+      </c>
     </row>
-    <row r="32" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29861,9 +29950,12 @@
       <c r="JP32" s="7">
         <v>26441</v>
       </c>
+      <c r="JQ32" s="7">
+        <v>26724</v>
+      </c>
     </row>
-    <row r="33" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+    <row r="33" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30689,9 +30781,12 @@
       <c r="JP33" s="7">
         <v>9796</v>
       </c>
+      <c r="JQ33" s="7">
+        <v>9836</v>
+      </c>
     </row>
-    <row r="34" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+    <row r="34" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31517,9 +31612,12 @@
       <c r="JP34" s="7">
         <v>44276</v>
       </c>
+      <c r="JQ34" s="7">
+        <v>44425</v>
+      </c>
     </row>
-    <row r="35" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+    <row r="35" spans="1:914" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -32345,9 +32443,12 @@
       <c r="JP35" s="7">
         <v>11192</v>
       </c>
+      <c r="JQ35" s="7">
+        <v>11168</v>
+      </c>
     </row>
-    <row r="36" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+    <row r="36" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -33173,9 +33274,12 @@
       <c r="JP36" s="7">
         <v>54063</v>
       </c>
+      <c r="JQ36" s="7">
+        <v>53863</v>
+      </c>
     </row>
-    <row r="37" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+    <row r="37" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -34001,9 +34105,12 @@
       <c r="JP37" s="7">
         <v>73425</v>
       </c>
+      <c r="JQ37" s="7">
+        <v>73848</v>
+      </c>
     </row>
-    <row r="38" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+    <row r="38" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34829,9 +34936,12 @@
       <c r="JP38" s="7">
         <v>22004</v>
       </c>
+      <c r="JQ38" s="7">
+        <v>21938</v>
+      </c>
     </row>
-    <row r="39" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+    <row r="39" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35657,9 +35767,12 @@
       <c r="JP39" s="7">
         <v>24094</v>
       </c>
+      <c r="JQ39" s="7">
+        <v>24203</v>
+      </c>
     </row>
-    <row r="40" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+    <row r="40" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -36485,9 +36598,12 @@
       <c r="JP40" s="7">
         <v>12176</v>
       </c>
+      <c r="JQ40" s="7">
+        <v>12161</v>
+      </c>
     </row>
-    <row r="41" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+    <row r="41" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -37313,9 +37429,12 @@
       <c r="JP41" s="7">
         <v>11090</v>
       </c>
+      <c r="JQ41" s="7">
+        <v>11172</v>
+      </c>
     </row>
-    <row r="42" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+    <row r="42" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -38141,9 +38260,12 @@
       <c r="JP42" s="7">
         <v>44392</v>
       </c>
+      <c r="JQ42" s="7">
+        <v>44490</v>
+      </c>
     </row>
-    <row r="43" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+    <row r="43" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38969,9 +39091,12 @@
       <c r="JP43" s="7">
         <v>4831</v>
       </c>
+      <c r="JQ43" s="7">
+        <v>4792</v>
+      </c>
     </row>
-    <row r="44" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+    <row r="44" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -39797,9 +39922,12 @@
       <c r="JP44" s="7">
         <v>5960</v>
       </c>
+      <c r="JQ44" s="7">
+        <v>5885</v>
+      </c>
     </row>
-    <row r="45" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+    <row r="45" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -40625,9 +40753,12 @@
       <c r="JP45" s="7">
         <v>7209</v>
       </c>
+      <c r="JQ45" s="7">
+        <v>7249</v>
+      </c>
     </row>
-    <row r="46" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+    <row r="46" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -41453,9 +41584,12 @@
       <c r="JP46" s="7">
         <v>13420</v>
       </c>
+      <c r="JQ46" s="7">
+        <v>13324</v>
+      </c>
     </row>
-    <row r="47" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+    <row r="47" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -42281,9 +42415,12 @@
       <c r="JP47" s="7">
         <v>1613</v>
       </c>
+      <c r="JQ47" s="7">
+        <v>1591</v>
+      </c>
     </row>
-    <row r="48" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+    <row r="48" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -43079,50 +43216,53 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f t="shared" ref="JF48:JN48" si="12">SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JN48" si="16">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>483047</v>
       </c>
       <c r="JH48" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>487818</v>
       </c>
       <c r="JI48" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>493413</v>
       </c>
       <c r="JJ48" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>494824</v>
       </c>
       <c r="JK48" s="10">
-        <f t="shared" ref="JK48:JM48" si="13">SUM(JK28:JK47)</f>
+        <f t="shared" ref="JK48:JM48" si="17">SUM(JK28:JK47)</f>
         <v>496682</v>
       </c>
       <c r="JL48" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>499541</v>
       </c>
       <c r="JM48" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>502349</v>
       </c>
       <c r="JN48" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>505597</v>
       </c>
       <c r="JO48" s="10">
-        <f t="shared" ref="JO48:JP48" si="14">SUM(JO28:JO47)</f>
+        <f t="shared" ref="JO48:JQ48" si="18">SUM(JO28:JO47)</f>
         <v>509874</v>
       </c>
       <c r="JP48" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="JP48" si="19">SUM(JP28:JP47)</f>
         <v>513734</v>
       </c>
-      <c r="JQ48" s="29"/>
+      <c r="JQ48" s="10">
+        <f t="shared" si="18"/>
+        <v>515303</v>
+      </c>
       <c r="JR48" s="29"/>
       <c r="JS48" s="29"/>
       <c r="JT48" s="29"/>
@@ -43578,7 +43718,7 @@
       <c r="ABB48" s="29"/>
       <c r="ABC48" s="29"/>
       <c r="ABD48" s="29"/>
-      <c r="ABE48" s="5"/>
+      <c r="ABE48" s="29"/>
       <c r="ABF48" s="5"/>
       <c r="ABG48" s="5"/>
       <c r="ABH48" s="5"/>
@@ -43759,9 +43899,10 @@
       <c r="AIA48" s="5"/>
       <c r="AIB48" s="5"/>
       <c r="AIC48" s="5"/>
+      <c r="AID48" s="5"/>
     </row>
-    <row r="49" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -44589,9 +44730,12 @@
       <c r="JP49" s="8">
         <v>12</v>
       </c>
+      <c r="JQ49" s="8">
+        <v>13</v>
+      </c>
     </row>
-    <row r="50" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+    <row r="50" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -45417,9 +45561,12 @@
       <c r="JP50" s="8">
         <v>30</v>
       </c>
+      <c r="JQ50" s="8">
+        <v>37</v>
+      </c>
     </row>
-    <row r="51" spans="1:276" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+    <row r="51" spans="1:277" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -46245,9 +46392,12 @@
       <c r="JP51" s="7">
         <v>1488</v>
       </c>
+      <c r="JQ51" s="7">
+        <v>1495</v>
+      </c>
     </row>
-    <row r="52" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -47073,9 +47223,12 @@
       <c r="JP52" s="7">
         <v>975</v>
       </c>
+      <c r="JQ52" s="7">
+        <v>970</v>
+      </c>
     </row>
-    <row r="53" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+    <row r="53" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -47871,52 +48024,56 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f t="shared" ref="JF53:JN53" si="15">SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JN53" si="20">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2642</v>
       </c>
       <c r="JH53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2643</v>
       </c>
       <c r="JI53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2577</v>
       </c>
       <c r="JJ53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2556</v>
       </c>
       <c r="JK53" s="10">
-        <f t="shared" ref="JK53:JM53" si="16">SUM(JK49:JK52)</f>
+        <f t="shared" ref="JK53:JM53" si="21">SUM(JK49:JK52)</f>
         <v>2538</v>
       </c>
       <c r="JL53" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2538</v>
       </c>
       <c r="JM53" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2465</v>
       </c>
       <c r="JN53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2477</v>
       </c>
       <c r="JO53" s="10">
-        <f t="shared" ref="JO53:JP53" si="17">SUM(JO49:JO52)</f>
+        <f t="shared" ref="JO53:JQ53" si="22">SUM(JO49:JO52)</f>
         <v>2518</v>
       </c>
       <c r="JP53" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="JP53" si="23">SUM(JP49:JP52)</f>
         <v>2505</v>
       </c>
+      <c r="JQ53" s="10">
+        <f t="shared" si="22"/>
+        <v>2515</v>
+      </c>
     </row>
-    <row r="54" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -48744,9 +48901,12 @@
       <c r="JP54" s="36">
         <v>5809</v>
       </c>
+      <c r="JQ54" s="36">
+        <v>5746</v>
+      </c>
     </row>
-    <row r="55" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+    <row r="55" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -49572,9 +49732,12 @@
       <c r="JP55" s="7">
         <v>53691</v>
       </c>
+      <c r="JQ55" s="7">
+        <v>54539</v>
+      </c>
     </row>
-    <row r="56" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
+    <row r="56" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -50400,9 +50563,12 @@
       <c r="JP56" s="7">
         <v>6989</v>
       </c>
+      <c r="JQ56" s="7">
+        <v>7037</v>
+      </c>
     </row>
-    <row r="57" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+    <row r="57" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -51228,9 +51394,12 @@
       <c r="JP57" s="7">
         <v>190438</v>
       </c>
+      <c r="JQ57" s="7">
+        <v>191103</v>
+      </c>
     </row>
-    <row r="58" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+    <row r="58" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -52056,9 +52225,12 @@
       <c r="JP58" s="7">
         <v>34008</v>
       </c>
+      <c r="JQ58" s="7">
+        <v>34882</v>
+      </c>
     </row>
-    <row r="59" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+    <row r="59" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -52884,9 +53056,12 @@
       <c r="JP59" s="7">
         <v>6702</v>
       </c>
+      <c r="JQ59" s="7">
+        <v>6902</v>
+      </c>
     </row>
-    <row r="60" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+    <row r="60" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -53712,9 +53887,12 @@
       <c r="JP60" s="7">
         <v>49906</v>
       </c>
+      <c r="JQ60" s="7">
+        <v>50301</v>
+      </c>
     </row>
-    <row r="61" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+    <row r="61" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -54540,9 +54718,12 @@
       <c r="JP61" s="8">
         <v>141</v>
       </c>
+      <c r="JQ61" s="8">
+        <v>145</v>
+      </c>
     </row>
-    <row r="62" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+    <row r="62" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -55368,9 +55549,12 @@
       <c r="JP62" s="7">
         <v>20296</v>
       </c>
+      <c r="JQ62" s="7">
+        <v>20120</v>
+      </c>
     </row>
-    <row r="63" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+    <row r="63" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -56196,9 +56380,12 @@
       <c r="JP63" s="7">
         <v>34207</v>
       </c>
+      <c r="JQ63" s="7">
+        <v>34426</v>
+      </c>
     </row>
-    <row r="64" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+    <row r="64" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -57024,9 +57211,12 @@
       <c r="JP64" s="7">
         <v>48805</v>
       </c>
+      <c r="JQ64" s="7">
+        <v>48887</v>
+      </c>
     </row>
-    <row r="65" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+    <row r="65" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -57852,9 +58042,12 @@
       <c r="JP65" s="7">
         <v>168418</v>
       </c>
+      <c r="JQ65" s="7">
+        <v>170137</v>
+      </c>
     </row>
-    <row r="66" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+    <row r="66" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -58680,9 +58873,12 @@
       <c r="JP66" s="7">
         <v>19623</v>
       </c>
+      <c r="JQ66" s="7">
+        <v>20167</v>
+      </c>
     </row>
-    <row r="67" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+    <row r="67" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -59508,9 +59704,12 @@
       <c r="JP67" s="7">
         <v>6376</v>
       </c>
+      <c r="JQ67" s="7">
+        <v>6387</v>
+      </c>
     </row>
-    <row r="68" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+    <row r="68" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -60306,50 +60505,53 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f t="shared" ref="JF68:JN68" si="18">SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JN68" si="24">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>622201</v>
       </c>
       <c r="JH68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>626630</v>
       </c>
       <c r="JI68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>630046</v>
       </c>
       <c r="JJ68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>630421</v>
       </c>
       <c r="JK68" s="10">
-        <f t="shared" ref="JK68:JM68" si="19">SUM(JK54:JK67)</f>
+        <f t="shared" ref="JK68:JM68" si="25">SUM(JK54:JK67)</f>
         <v>632610</v>
       </c>
       <c r="JL68" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>634764</v>
       </c>
       <c r="JM68" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>632848</v>
       </c>
       <c r="JN68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>636862</v>
       </c>
       <c r="JO68" s="10">
-        <f t="shared" ref="JO68:JP68" si="20">SUM(JO54:JO67)</f>
+        <f t="shared" ref="JO68:JQ68" si="26">SUM(JO54:JO67)</f>
         <v>640257</v>
       </c>
       <c r="JP68" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="JP68" si="27">SUM(JP54:JP67)</f>
         <v>645409</v>
       </c>
-      <c r="JQ68" s="29"/>
+      <c r="JQ68" s="10">
+        <f t="shared" si="26"/>
+        <v>650779</v>
+      </c>
       <c r="JR68" s="29"/>
       <c r="JS68" s="29"/>
       <c r="JT68" s="29"/>
@@ -60805,7 +61007,7 @@
       <c r="ABB68" s="29"/>
       <c r="ABC68" s="29"/>
       <c r="ABD68" s="29"/>
-      <c r="ABE68" s="5"/>
+      <c r="ABE68" s="29"/>
       <c r="ABF68" s="5"/>
       <c r="ABG68" s="5"/>
       <c r="ABH68" s="5"/>
@@ -60986,9 +61188,10 @@
       <c r="AIA68" s="5"/>
       <c r="AIB68" s="5"/>
       <c r="AIC68" s="5"/>
+      <c r="AID68" s="5"/>
     </row>
-    <row r="69" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+    <row r="69" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -61816,9 +62019,12 @@
       <c r="JP69" s="7">
         <v>9799</v>
       </c>
+      <c r="JQ69" s="7">
+        <v>9906</v>
+      </c>
     </row>
-    <row r="70" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+    <row r="70" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -62644,9 +62850,12 @@
       <c r="JP70" s="7">
         <v>875</v>
       </c>
+      <c r="JQ70" s="7">
+        <v>883</v>
+      </c>
     </row>
-    <row r="71" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+    <row r="71" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -63472,9 +63681,12 @@
       <c r="JP71" s="7">
         <v>34816</v>
       </c>
+      <c r="JQ71" s="7">
+        <v>34790</v>
+      </c>
     </row>
-    <row r="72" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+    <row r="72" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -64300,9 +64512,12 @@
       <c r="JP72" s="7">
         <v>4430</v>
       </c>
+      <c r="JQ72" s="7">
+        <v>4381</v>
+      </c>
     </row>
-    <row r="73" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+    <row r="73" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -65128,9 +65343,12 @@
       <c r="JP73" s="8">
         <v>574</v>
       </c>
+      <c r="JQ73" s="8">
+        <v>570</v>
+      </c>
     </row>
-    <row r="74" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+    <row r="74" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -65956,9 +66174,12 @@
       <c r="JP74" s="7">
         <v>54350</v>
       </c>
+      <c r="JQ74" s="7">
+        <v>54502</v>
+      </c>
     </row>
-    <row r="75" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+    <row r="75" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -66754,50 +66975,53 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f t="shared" ref="JF75:JN75" si="21">SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JN75" si="28">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>98343</v>
       </c>
       <c r="JH75" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>99545</v>
       </c>
       <c r="JI75" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>99824</v>
       </c>
       <c r="JJ75" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>100160</v>
       </c>
       <c r="JK75" s="10">
-        <f t="shared" ref="JK75:JM75" si="22">SUM(JK69:JK74)</f>
+        <f t="shared" ref="JK75:JM75" si="29">SUM(JK69:JK74)</f>
         <v>100656</v>
       </c>
       <c r="JL75" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>101579</v>
       </c>
       <c r="JM75" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>101385</v>
       </c>
       <c r="JN75" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>101608</v>
       </c>
       <c r="JO75" s="10">
-        <f t="shared" ref="JO75:JP75" si="23">SUM(JO69:JO74)</f>
+        <f t="shared" ref="JO75:JQ75" si="30">SUM(JO69:JO74)</f>
         <v>104048</v>
       </c>
       <c r="JP75" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="JP75" si="31">SUM(JP69:JP74)</f>
         <v>104844</v>
       </c>
-      <c r="JQ75" s="29"/>
+      <c r="JQ75" s="10">
+        <f t="shared" si="30"/>
+        <v>105032</v>
+      </c>
       <c r="JR75" s="29"/>
       <c r="JS75" s="29"/>
       <c r="JT75" s="29"/>
@@ -67253,7 +67477,7 @@
       <c r="ABB75" s="29"/>
       <c r="ABC75" s="29"/>
       <c r="ABD75" s="29"/>
-      <c r="ABE75" s="5"/>
+      <c r="ABE75" s="29"/>
       <c r="ABF75" s="5"/>
       <c r="ABG75" s="5"/>
       <c r="ABH75" s="5"/>
@@ -67434,8 +67658,9 @@
       <c r="AIA75" s="5"/>
       <c r="AIB75" s="5"/>
       <c r="AIC75" s="5"/>
+      <c r="AID75" s="5"/>
     </row>
-    <row r="76" spans="1:913" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:914" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -68233,51 +68458,55 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f t="shared" ref="JF76:JN76" si="24">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JN76" si="32">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1861159</v>
       </c>
       <c r="JH76" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1874622</v>
       </c>
       <c r="JI76" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1886776</v>
       </c>
       <c r="JJ76" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1884715</v>
       </c>
       <c r="JK76" s="19">
-        <f t="shared" ref="JK76:JM76" si="25">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
+        <f t="shared" ref="JK76:JM76" si="33">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
         <v>1888232</v>
       </c>
       <c r="JL76" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1896755</v>
       </c>
       <c r="JM76" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1896517</v>
       </c>
       <c r="JN76" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1910627</v>
       </c>
       <c r="JO76" s="19">
-        <f t="shared" ref="JO76:JP76" si="26">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <f t="shared" ref="JO76:JQ76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
         <v>1927647</v>
       </c>
       <c r="JP76" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="JP76" si="35">JP11+JP21+JP24+JP27+JP48+JP53+JP68+JP75</f>
         <v>1950941</v>
       </c>
+      <c r="JQ76" s="19">
+        <f t="shared" si="34"/>
+        <v>1960510</v>
+      </c>
     </row>
-    <row r="77" spans="1:913" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:914" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -68549,7 +68778,7 @@
       <c r="JN77" s="30"/>
       <c r="JO77" s="30"/>
       <c r="JP77" s="30"/>
-      <c r="JQ77" s="27"/>
+      <c r="JQ77" s="30"/>
       <c r="JR77" s="27"/>
       <c r="JS77" s="27"/>
       <c r="JT77" s="27"/>
@@ -69005,34 +69234,16 @@
       <c r="ABB77" s="27"/>
       <c r="ABC77" s="27"/>
       <c r="ABD77" s="27"/>
+      <c r="ABE77" s="27"/>
     </row>
-    <row r="78" spans="1:913" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:914" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="JG4:JP4"/>
+    <mergeCell ref="JG4:JQ4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -69046,6 +69257,25 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="352">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1095,6 +1095,9 @@
   </si>
   <si>
     <t>2022/noviembre</t>
+  </si>
+  <si>
+    <t>2022/diciembre</t>
   </si>
 </sst>
 </file>
@@ -2180,11 +2183,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AID78"/>
+  <dimension ref="A1:AIE78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JS74" sqref="JS74"/>
+      <pane xSplit="2" topLeftCell="JG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JP90" sqref="JP90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2455,23 +2458,23 @@
     <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
     <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="275" max="277" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="278" max="733" width="10.875" style="28"/>
-    <col min="734" max="914" width="10.875" style="4"/>
-    <col min="915" max="16384" width="10.875" style="3"/>
+    <col min="275" max="278" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="279" max="734" width="10.875" style="28"/>
+    <col min="735" max="915" width="10.875" style="4"/>
+    <col min="916" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:914" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
@@ -2799,7 +2802,7 @@
       <c r="JO4" s="39"/>
       <c r="JP4" s="39"/>
       <c r="JQ4" s="39"/>
-      <c r="JR4" s="29"/>
+      <c r="JR4" s="39"/>
       <c r="JS4" s="29"/>
       <c r="JT4" s="29"/>
       <c r="JU4" s="29"/>
@@ -3255,7 +3258,7 @@
       <c r="ABC4" s="29"/>
       <c r="ABD4" s="29"/>
       <c r="ABE4" s="29"/>
-      <c r="ABF4" s="5"/>
+      <c r="ABF4" s="29"/>
       <c r="ABG4" s="5"/>
       <c r="ABH4" s="5"/>
       <c r="ABI4" s="5"/>
@@ -3436,8 +3439,9 @@
       <c r="AIB4" s="5"/>
       <c r="AIC4" s="5"/>
       <c r="AID4" s="5"/>
+      <c r="AIE4" s="5"/>
     </row>
-    <row r="5" spans="1:914" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
@@ -4265,7 +4269,9 @@
       <c r="JQ5" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="JR5" s="29"/>
+      <c r="JR5" s="31" t="s">
+        <v>351</v>
+      </c>
       <c r="JS5" s="29"/>
       <c r="JT5" s="29"/>
       <c r="JU5" s="29"/>
@@ -4721,7 +4727,7 @@
       <c r="ABC5" s="29"/>
       <c r="ABD5" s="29"/>
       <c r="ABE5" s="29"/>
-      <c r="ABF5" s="5"/>
+      <c r="ABF5" s="29"/>
       <c r="ABG5" s="5"/>
       <c r="ABH5" s="5"/>
       <c r="ABI5" s="5"/>
@@ -4902,8 +4908,9 @@
       <c r="AIB5" s="5"/>
       <c r="AIC5" s="5"/>
       <c r="AID5" s="5"/>
+      <c r="AIE5" s="5"/>
     </row>
-    <row r="6" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
@@ -5735,8 +5742,11 @@
       <c r="JQ6" s="7">
         <v>96008</v>
       </c>
+      <c r="JR6" s="7">
+        <v>94055</v>
+      </c>
     </row>
-    <row r="7" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
@@ -6566,8 +6576,11 @@
       <c r="JQ7" s="8">
         <v>47</v>
       </c>
+      <c r="JR7" s="8">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
@@ -7397,8 +7410,11 @@
       <c r="JQ8" s="7">
         <v>23917</v>
       </c>
+      <c r="JR8" s="7">
+        <v>23769</v>
+      </c>
     </row>
-    <row r="9" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
@@ -8228,8 +8244,11 @@
       <c r="JQ9" s="7">
         <v>480</v>
       </c>
+      <c r="JR9" s="7">
+        <v>428</v>
+      </c>
     </row>
-    <row r="10" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
@@ -9059,8 +9078,11 @@
       <c r="JQ10" s="8">
         <v>465</v>
       </c>
+      <c r="JR10" s="8">
+        <v>409</v>
+      </c>
     </row>
-    <row r="11" spans="1:914" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:915" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
@@ -9893,18 +9915,21 @@
         <v>115219</v>
       </c>
       <c r="JO11" s="10">
-        <f t="shared" ref="JO11:JQ11" si="2">SUM(JO6:JO10)</f>
+        <f t="shared" ref="JO11:JR11" si="2">SUM(JO6:JO10)</f>
         <v>119089</v>
       </c>
       <c r="JP11" s="10">
-        <f t="shared" ref="JP11" si="3">SUM(JP6:JP10)</f>
+        <f t="shared" ref="JP11:JQ11" si="3">SUM(JP6:JP10)</f>
         <v>121255</v>
       </c>
       <c r="JQ11" s="10">
+        <f t="shared" si="3"/>
+        <v>120917</v>
+      </c>
+      <c r="JR11" s="10">
         <f t="shared" si="2"/>
-        <v>120917</v>
-      </c>
-      <c r="JR11" s="29"/>
+        <v>118708</v>
+      </c>
       <c r="JS11" s="29"/>
       <c r="JT11" s="29"/>
       <c r="JU11" s="29"/>
@@ -10360,7 +10385,7 @@
       <c r="ABC11" s="29"/>
       <c r="ABD11" s="29"/>
       <c r="ABE11" s="29"/>
-      <c r="ABF11" s="5"/>
+      <c r="ABF11" s="29"/>
       <c r="ABG11" s="5"/>
       <c r="ABH11" s="5"/>
       <c r="ABI11" s="5"/>
@@ -10541,8 +10566,9 @@
       <c r="AIB11" s="5"/>
       <c r="AIC11" s="5"/>
       <c r="AID11" s="5"/>
+      <c r="AIE11" s="5"/>
     </row>
-    <row r="12" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
@@ -11374,8 +11400,11 @@
       <c r="JQ12" s="7">
         <v>79770</v>
       </c>
+      <c r="JR12" s="7">
+        <v>79016</v>
+      </c>
     </row>
-    <row r="13" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
@@ -12205,8 +12234,11 @@
       <c r="JQ13" s="7">
         <v>21079</v>
       </c>
+      <c r="JR13" s="7">
+        <v>20604</v>
+      </c>
     </row>
-    <row r="14" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
@@ -13036,8 +13068,11 @@
       <c r="JQ14" s="7">
         <v>34398</v>
       </c>
+      <c r="JR14" s="7">
+        <v>34405</v>
+      </c>
     </row>
-    <row r="15" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
@@ -13867,8 +13902,11 @@
       <c r="JQ15" s="7">
         <v>22432</v>
       </c>
+      <c r="JR15" s="7">
+        <v>22400</v>
+      </c>
     </row>
-    <row r="16" spans="1:914" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:915" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
@@ -14698,8 +14736,11 @@
       <c r="JQ16" s="7">
         <v>14058</v>
       </c>
+      <c r="JR16" s="7">
+        <v>13723</v>
+      </c>
     </row>
-    <row r="17" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
@@ -15529,8 +15570,11 @@
       <c r="JQ17" s="7">
         <v>50150</v>
       </c>
+      <c r="JR17" s="7">
+        <v>49835</v>
+      </c>
     </row>
-    <row r="18" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
@@ -16360,8 +16404,11 @@
       <c r="JQ18" s="7">
         <v>61621</v>
       </c>
+      <c r="JR18" s="7">
+        <v>61234</v>
+      </c>
     </row>
-    <row r="19" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
@@ -17191,8 +17238,11 @@
       <c r="JQ19" s="7">
         <v>70647</v>
       </c>
+      <c r="JR19" s="7">
+        <v>70017</v>
+      </c>
     </row>
-    <row r="20" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
@@ -18022,8 +18072,11 @@
       <c r="JQ20" s="7">
         <v>49834</v>
       </c>
+      <c r="JR20" s="7">
+        <v>48373</v>
+      </c>
     </row>
-    <row r="21" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
@@ -18856,18 +18909,21 @@
         <v>394460</v>
       </c>
       <c r="JO21" s="10">
-        <f t="shared" ref="JO21:JQ21" si="6">SUM(JO12:JO20)</f>
+        <f t="shared" ref="JO21:JR21" si="6">SUM(JO12:JO20)</f>
         <v>397012</v>
       </c>
       <c r="JP21" s="10">
-        <f t="shared" ref="JP21" si="7">SUM(JP12:JP20)</f>
+        <f t="shared" ref="JP21:JQ21" si="7">SUM(JP12:JP20)</f>
         <v>402868</v>
       </c>
       <c r="JQ21" s="10">
+        <f t="shared" si="7"/>
+        <v>403989</v>
+      </c>
+      <c r="JR21" s="10">
         <f t="shared" si="6"/>
-        <v>403989</v>
-      </c>
-      <c r="JR21" s="29"/>
+        <v>399607</v>
+      </c>
       <c r="JS21" s="29"/>
       <c r="JT21" s="29"/>
       <c r="JU21" s="29"/>
@@ -19323,7 +19379,7 @@
       <c r="ABC21" s="29"/>
       <c r="ABD21" s="29"/>
       <c r="ABE21" s="29"/>
-      <c r="ABF21" s="5"/>
+      <c r="ABF21" s="29"/>
       <c r="ABG21" s="5"/>
       <c r="ABH21" s="5"/>
       <c r="ABI21" s="5"/>
@@ -19504,8 +19560,9 @@
       <c r="AIB21" s="5"/>
       <c r="AIC21" s="5"/>
       <c r="AID21" s="5"/>
+      <c r="AIE21" s="5"/>
     </row>
-    <row r="22" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
@@ -20337,8 +20394,11 @@
       <c r="JQ22" s="7">
         <v>115311</v>
       </c>
+      <c r="JR22" s="7">
+        <v>109309</v>
+      </c>
     </row>
-    <row r="23" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
@@ -21168,8 +21228,11 @@
       <c r="JQ23" s="7">
         <v>36817</v>
       </c>
+      <c r="JR23" s="7">
+        <v>36037</v>
+      </c>
     </row>
-    <row r="24" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
@@ -22002,18 +22065,21 @@
         <v>144641</v>
       </c>
       <c r="JO24" s="10">
-        <f t="shared" ref="JO24:JQ24" si="10">SUM(JO22:JO23)</f>
+        <f t="shared" ref="JO24:JR24" si="10">SUM(JO22:JO23)</f>
         <v>145163</v>
       </c>
       <c r="JP24" s="10">
-        <f t="shared" ref="JP24" si="11">SUM(JP22:JP23)</f>
+        <f t="shared" ref="JP24:JQ24" si="11">SUM(JP22:JP23)</f>
         <v>150581</v>
       </c>
       <c r="JQ24" s="10">
+        <f t="shared" si="11"/>
+        <v>152128</v>
+      </c>
+      <c r="JR24" s="10">
         <f t="shared" si="10"/>
-        <v>152128</v>
-      </c>
-      <c r="JR24" s="29"/>
+        <v>145346</v>
+      </c>
       <c r="JS24" s="29"/>
       <c r="JT24" s="29"/>
       <c r="JU24" s="29"/>
@@ -22469,7 +22535,7 @@
       <c r="ABC24" s="29"/>
       <c r="ABD24" s="29"/>
       <c r="ABE24" s="29"/>
-      <c r="ABF24" s="5"/>
+      <c r="ABF24" s="29"/>
       <c r="ABG24" s="5"/>
       <c r="ABH24" s="5"/>
       <c r="ABI24" s="5"/>
@@ -22650,8 +22716,9 @@
       <c r="AIB24" s="5"/>
       <c r="AIC24" s="5"/>
       <c r="AID24" s="5"/>
+      <c r="AIE24" s="5"/>
     </row>
-    <row r="25" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
@@ -23483,8 +23550,11 @@
       <c r="JQ25" s="7">
         <v>4331</v>
       </c>
+      <c r="JR25" s="7">
+        <v>4282</v>
+      </c>
     </row>
-    <row r="26" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
@@ -24314,8 +24384,11 @@
       <c r="JQ26" s="7">
         <v>5516</v>
       </c>
+      <c r="JR26" s="7">
+        <v>5532</v>
+      </c>
     </row>
-    <row r="27" spans="1:914" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:915" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
@@ -25148,18 +25221,21 @@
         <v>9763</v>
       </c>
       <c r="JO27" s="10">
-        <f t="shared" ref="JO27:JQ27" si="14">SUM(JO25:JO26)</f>
+        <f t="shared" ref="JO27:JR27" si="14">SUM(JO25:JO26)</f>
         <v>9686</v>
       </c>
       <c r="JP27" s="10">
-        <f t="shared" ref="JP27" si="15">SUM(JP25:JP26)</f>
+        <f t="shared" ref="JP27:JQ27" si="15">SUM(JP25:JP26)</f>
         <v>9745</v>
       </c>
       <c r="JQ27" s="10">
+        <f t="shared" si="15"/>
+        <v>9847</v>
+      </c>
+      <c r="JR27" s="10">
         <f t="shared" si="14"/>
-        <v>9847</v>
-      </c>
-      <c r="JR27" s="29"/>
+        <v>9814</v>
+      </c>
       <c r="JS27" s="29"/>
       <c r="JT27" s="29"/>
       <c r="JU27" s="29"/>
@@ -25615,7 +25691,7 @@
       <c r="ABC27" s="29"/>
       <c r="ABD27" s="29"/>
       <c r="ABE27" s="29"/>
-      <c r="ABF27" s="5"/>
+      <c r="ABF27" s="29"/>
       <c r="ABG27" s="5"/>
       <c r="ABH27" s="5"/>
       <c r="ABI27" s="5"/>
@@ -25796,8 +25872,9 @@
       <c r="AIB27" s="5"/>
       <c r="AIC27" s="5"/>
       <c r="AID27" s="5"/>
+      <c r="AIE27" s="5"/>
     </row>
-    <row r="28" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
@@ -26629,8 +26706,11 @@
       <c r="JQ28" s="7">
         <v>910</v>
       </c>
+      <c r="JR28" s="7">
+        <v>882</v>
+      </c>
     </row>
-    <row r="29" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
@@ -27460,8 +27540,11 @@
       <c r="JQ29" s="7">
         <v>11478</v>
       </c>
+      <c r="JR29" s="7">
+        <v>11464</v>
+      </c>
     </row>
-    <row r="30" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
@@ -28291,8 +28374,11 @@
       <c r="JQ30" s="7">
         <v>29825</v>
       </c>
+      <c r="JR30" s="7">
+        <v>29463</v>
+      </c>
     </row>
-    <row r="31" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
@@ -29122,8 +29208,11 @@
       <c r="JQ31" s="7">
         <v>106421</v>
       </c>
+      <c r="JR31" s="7">
+        <v>105116</v>
+      </c>
     </row>
-    <row r="32" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
@@ -29953,8 +30042,11 @@
       <c r="JQ32" s="7">
         <v>26724</v>
       </c>
+      <c r="JR32" s="7">
+        <v>26425</v>
+      </c>
     </row>
-    <row r="33" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
@@ -30784,8 +30876,11 @@
       <c r="JQ33" s="7">
         <v>9836</v>
       </c>
+      <c r="JR33" s="7">
+        <v>9720</v>
+      </c>
     </row>
-    <row r="34" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
@@ -31615,8 +31710,11 @@
       <c r="JQ34" s="7">
         <v>44425</v>
       </c>
+      <c r="JR34" s="7">
+        <v>43400</v>
+      </c>
     </row>
-    <row r="35" spans="1:914" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:915" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
@@ -32446,8 +32544,11 @@
       <c r="JQ35" s="7">
         <v>11168</v>
       </c>
+      <c r="JR35" s="7">
+        <v>11052</v>
+      </c>
     </row>
-    <row r="36" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
@@ -33277,8 +33378,11 @@
       <c r="JQ36" s="7">
         <v>53863</v>
       </c>
+      <c r="JR36" s="7">
+        <v>52413</v>
+      </c>
     </row>
-    <row r="37" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
@@ -34108,8 +34212,11 @@
       <c r="JQ37" s="7">
         <v>73848</v>
       </c>
+      <c r="JR37" s="7">
+        <v>73539</v>
+      </c>
     </row>
-    <row r="38" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
@@ -34939,8 +35046,11 @@
       <c r="JQ38" s="7">
         <v>21938</v>
       </c>
+      <c r="JR38" s="7">
+        <v>21607</v>
+      </c>
     </row>
-    <row r="39" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
@@ -35770,8 +35880,11 @@
       <c r="JQ39" s="7">
         <v>24203</v>
       </c>
+      <c r="JR39" s="7">
+        <v>23937</v>
+      </c>
     </row>
-    <row r="40" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
@@ -36601,8 +36714,11 @@
       <c r="JQ40" s="7">
         <v>12161</v>
       </c>
+      <c r="JR40" s="7">
+        <v>11936</v>
+      </c>
     </row>
-    <row r="41" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
@@ -37432,8 +37548,11 @@
       <c r="JQ41" s="7">
         <v>11172</v>
       </c>
+      <c r="JR41" s="7">
+        <v>10936</v>
+      </c>
     </row>
-    <row r="42" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
@@ -38263,8 +38382,11 @@
       <c r="JQ42" s="7">
         <v>44490</v>
       </c>
+      <c r="JR42" s="7">
+        <v>44022</v>
+      </c>
     </row>
-    <row r="43" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
@@ -39094,8 +39216,11 @@
       <c r="JQ43" s="7">
         <v>4792</v>
       </c>
+      <c r="JR43" s="7">
+        <v>4653</v>
+      </c>
     </row>
-    <row r="44" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
@@ -39925,8 +40050,11 @@
       <c r="JQ44" s="7">
         <v>5885</v>
       </c>
+      <c r="JR44" s="7">
+        <v>5827</v>
+      </c>
     </row>
-    <row r="45" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
@@ -40756,8 +40884,11 @@
       <c r="JQ45" s="7">
         <v>7249</v>
       </c>
+      <c r="JR45" s="7">
+        <v>7147</v>
+      </c>
     </row>
-    <row r="46" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
@@ -41587,8 +41718,11 @@
       <c r="JQ46" s="7">
         <v>13324</v>
       </c>
+      <c r="JR46" s="7">
+        <v>13200</v>
+      </c>
     </row>
-    <row r="47" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
@@ -42418,8 +42552,11 @@
       <c r="JQ47" s="7">
         <v>1591</v>
       </c>
+      <c r="JR47" s="7">
+        <v>1407</v>
+      </c>
     </row>
-    <row r="48" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
@@ -43252,18 +43389,21 @@
         <v>505597</v>
       </c>
       <c r="JO48" s="10">
-        <f t="shared" ref="JO48:JQ48" si="18">SUM(JO28:JO47)</f>
+        <f t="shared" ref="JO48:JR48" si="18">SUM(JO28:JO47)</f>
         <v>509874</v>
       </c>
       <c r="JP48" s="10">
-        <f t="shared" ref="JP48" si="19">SUM(JP28:JP47)</f>
+        <f t="shared" ref="JP48:JQ48" si="19">SUM(JP28:JP47)</f>
         <v>513734</v>
       </c>
       <c r="JQ48" s="10">
+        <f t="shared" si="19"/>
+        <v>515303</v>
+      </c>
+      <c r="JR48" s="10">
         <f t="shared" si="18"/>
-        <v>515303</v>
-      </c>
-      <c r="JR48" s="29"/>
+        <v>508146</v>
+      </c>
       <c r="JS48" s="29"/>
       <c r="JT48" s="29"/>
       <c r="JU48" s="29"/>
@@ -43719,7 +43859,7 @@
       <c r="ABC48" s="29"/>
       <c r="ABD48" s="29"/>
       <c r="ABE48" s="29"/>
-      <c r="ABF48" s="5"/>
+      <c r="ABF48" s="29"/>
       <c r="ABG48" s="5"/>
       <c r="ABH48" s="5"/>
       <c r="ABI48" s="5"/>
@@ -43900,8 +44040,9 @@
       <c r="AIB48" s="5"/>
       <c r="AIC48" s="5"/>
       <c r="AID48" s="5"/>
+      <c r="AIE48" s="5"/>
     </row>
-    <row r="49" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
@@ -44733,8 +44874,11 @@
       <c r="JQ49" s="8">
         <v>13</v>
       </c>
+      <c r="JR49" s="8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="50" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
@@ -45564,8 +45708,11 @@
       <c r="JQ50" s="8">
         <v>37</v>
       </c>
+      <c r="JR50" s="8">
+        <v>40</v>
+      </c>
     </row>
-    <row r="51" spans="1:277" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:278" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
@@ -46395,8 +46542,11 @@
       <c r="JQ51" s="7">
         <v>1495</v>
       </c>
+      <c r="JR51" s="7">
+        <v>1504</v>
+      </c>
     </row>
-    <row r="52" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
@@ -47226,8 +47376,11 @@
       <c r="JQ52" s="7">
         <v>970</v>
       </c>
+      <c r="JR52" s="7">
+        <v>944</v>
+      </c>
     </row>
-    <row r="53" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
@@ -48060,19 +48213,23 @@
         <v>2477</v>
       </c>
       <c r="JO53" s="10">
-        <f t="shared" ref="JO53:JQ53" si="22">SUM(JO49:JO52)</f>
+        <f t="shared" ref="JO53:JR53" si="22">SUM(JO49:JO52)</f>
         <v>2518</v>
       </c>
       <c r="JP53" s="10">
-        <f t="shared" ref="JP53" si="23">SUM(JP49:JP52)</f>
+        <f t="shared" ref="JP53:JQ53" si="23">SUM(JP49:JP52)</f>
         <v>2505</v>
       </c>
       <c r="JQ53" s="10">
+        <f t="shared" si="23"/>
+        <v>2515</v>
+      </c>
+      <c r="JR53" s="10">
         <f t="shared" si="22"/>
-        <v>2515</v>
+        <v>2500</v>
       </c>
     </row>
-    <row r="54" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
@@ -48904,8 +49061,11 @@
       <c r="JQ54" s="36">
         <v>5746</v>
       </c>
+      <c r="JR54" s="36">
+        <v>5740</v>
+      </c>
     </row>
-    <row r="55" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
@@ -49735,8 +49895,11 @@
       <c r="JQ55" s="7">
         <v>54539</v>
       </c>
+      <c r="JR55" s="7">
+        <v>54061</v>
+      </c>
     </row>
-    <row r="56" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
@@ -50566,8 +50729,11 @@
       <c r="JQ56" s="7">
         <v>7037</v>
       </c>
+      <c r="JR56" s="7">
+        <v>7002</v>
+      </c>
     </row>
-    <row r="57" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
@@ -51397,8 +51563,11 @@
       <c r="JQ57" s="7">
         <v>191103</v>
       </c>
+      <c r="JR57" s="7">
+        <v>191123</v>
+      </c>
     </row>
-    <row r="58" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
@@ -52228,8 +52397,11 @@
       <c r="JQ58" s="7">
         <v>34882</v>
       </c>
+      <c r="JR58" s="7">
+        <v>34825</v>
+      </c>
     </row>
-    <row r="59" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
@@ -53059,8 +53231,11 @@
       <c r="JQ59" s="7">
         <v>6902</v>
       </c>
+      <c r="JR59" s="7">
+        <v>6872</v>
+      </c>
     </row>
-    <row r="60" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
@@ -53890,8 +54065,11 @@
       <c r="JQ60" s="7">
         <v>50301</v>
       </c>
+      <c r="JR60" s="7">
+        <v>46723</v>
+      </c>
     </row>
-    <row r="61" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
@@ -54721,8 +54899,11 @@
       <c r="JQ61" s="8">
         <v>145</v>
       </c>
+      <c r="JR61" s="8">
+        <v>146</v>
+      </c>
     </row>
-    <row r="62" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
@@ -55552,8 +55733,11 @@
       <c r="JQ62" s="7">
         <v>20120</v>
       </c>
+      <c r="JR62" s="7">
+        <v>20229</v>
+      </c>
     </row>
-    <row r="63" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
@@ -56383,8 +56567,11 @@
       <c r="JQ63" s="7">
         <v>34426</v>
       </c>
+      <c r="JR63" s="7">
+        <v>34258</v>
+      </c>
     </row>
-    <row r="64" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
@@ -57214,8 +57401,11 @@
       <c r="JQ64" s="7">
         <v>48887</v>
       </c>
+      <c r="JR64" s="7">
+        <v>47971</v>
+      </c>
     </row>
-    <row r="65" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
@@ -58045,8 +58235,11 @@
       <c r="JQ65" s="7">
         <v>170137</v>
       </c>
+      <c r="JR65" s="7">
+        <v>169070</v>
+      </c>
     </row>
-    <row r="66" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
@@ -58876,8 +59069,11 @@
       <c r="JQ66" s="7">
         <v>20167</v>
       </c>
+      <c r="JR66" s="7">
+        <v>20116</v>
+      </c>
     </row>
-    <row r="67" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
@@ -59707,8 +59903,11 @@
       <c r="JQ67" s="7">
         <v>6387</v>
       </c>
+      <c r="JR67" s="7">
+        <v>6261</v>
+      </c>
     </row>
-    <row r="68" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
@@ -60541,18 +60740,21 @@
         <v>636862</v>
       </c>
       <c r="JO68" s="10">
-        <f t="shared" ref="JO68:JQ68" si="26">SUM(JO54:JO67)</f>
+        <f t="shared" ref="JO68:JR68" si="26">SUM(JO54:JO67)</f>
         <v>640257</v>
       </c>
       <c r="JP68" s="10">
-        <f t="shared" ref="JP68" si="27">SUM(JP54:JP67)</f>
+        <f t="shared" ref="JP68:JQ68" si="27">SUM(JP54:JP67)</f>
         <v>645409</v>
       </c>
       <c r="JQ68" s="10">
+        <f t="shared" si="27"/>
+        <v>650779</v>
+      </c>
+      <c r="JR68" s="10">
         <f t="shared" si="26"/>
-        <v>650779</v>
-      </c>
-      <c r="JR68" s="29"/>
+        <v>644397</v>
+      </c>
       <c r="JS68" s="29"/>
       <c r="JT68" s="29"/>
       <c r="JU68" s="29"/>
@@ -61008,7 +61210,7 @@
       <c r="ABC68" s="29"/>
       <c r="ABD68" s="29"/>
       <c r="ABE68" s="29"/>
-      <c r="ABF68" s="5"/>
+      <c r="ABF68" s="29"/>
       <c r="ABG68" s="5"/>
       <c r="ABH68" s="5"/>
       <c r="ABI68" s="5"/>
@@ -61189,8 +61391,9 @@
       <c r="AIB68" s="5"/>
       <c r="AIC68" s="5"/>
       <c r="AID68" s="5"/>
+      <c r="AIE68" s="5"/>
     </row>
-    <row r="69" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
@@ -62022,8 +62225,11 @@
       <c r="JQ69" s="7">
         <v>9906</v>
       </c>
+      <c r="JR69" s="7">
+        <v>9835</v>
+      </c>
     </row>
-    <row r="70" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
@@ -62853,8 +63059,11 @@
       <c r="JQ70" s="7">
         <v>883</v>
       </c>
+      <c r="JR70" s="7">
+        <v>876</v>
+      </c>
     </row>
-    <row r="71" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
@@ -63684,8 +63893,11 @@
       <c r="JQ71" s="7">
         <v>34790</v>
       </c>
+      <c r="JR71" s="7">
+        <v>34493</v>
+      </c>
     </row>
-    <row r="72" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
@@ -64515,8 +64727,11 @@
       <c r="JQ72" s="7">
         <v>4381</v>
       </c>
+      <c r="JR72" s="7">
+        <v>4603</v>
+      </c>
     </row>
-    <row r="73" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
@@ -65346,8 +65561,11 @@
       <c r="JQ73" s="8">
         <v>570</v>
       </c>
+      <c r="JR73" s="8">
+        <v>569</v>
+      </c>
     </row>
-    <row r="74" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
@@ -66177,8 +66395,11 @@
       <c r="JQ74" s="7">
         <v>54502</v>
       </c>
+      <c r="JR74" s="7">
+        <v>54068</v>
+      </c>
     </row>
-    <row r="75" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
@@ -67011,18 +67232,21 @@
         <v>101608</v>
       </c>
       <c r="JO75" s="10">
-        <f t="shared" ref="JO75:JQ75" si="30">SUM(JO69:JO74)</f>
+        <f t="shared" ref="JO75:JR75" si="30">SUM(JO69:JO74)</f>
         <v>104048</v>
       </c>
       <c r="JP75" s="10">
-        <f t="shared" ref="JP75" si="31">SUM(JP69:JP74)</f>
+        <f t="shared" ref="JP75:JQ75" si="31">SUM(JP69:JP74)</f>
         <v>104844</v>
       </c>
       <c r="JQ75" s="10">
+        <f t="shared" si="31"/>
+        <v>105032</v>
+      </c>
+      <c r="JR75" s="10">
         <f t="shared" si="30"/>
-        <v>105032</v>
-      </c>
-      <c r="JR75" s="29"/>
+        <v>104444</v>
+      </c>
       <c r="JS75" s="29"/>
       <c r="JT75" s="29"/>
       <c r="JU75" s="29"/>
@@ -67478,7 +67702,7 @@
       <c r="ABC75" s="29"/>
       <c r="ABD75" s="29"/>
       <c r="ABE75" s="29"/>
-      <c r="ABF75" s="5"/>
+      <c r="ABF75" s="29"/>
       <c r="ABG75" s="5"/>
       <c r="ABH75" s="5"/>
       <c r="ABI75" s="5"/>
@@ -67659,8 +67883,9 @@
       <c r="AIB75" s="5"/>
       <c r="AIC75" s="5"/>
       <c r="AID75" s="5"/>
+      <c r="AIE75" s="5"/>
     </row>
-    <row r="76" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -68494,19 +68719,23 @@
         <v>1910627</v>
       </c>
       <c r="JO76" s="19">
-        <f t="shared" ref="JO76:JQ76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <f t="shared" ref="JO76:JR76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
         <v>1927647</v>
       </c>
       <c r="JP76" s="19">
-        <f t="shared" ref="JP76" si="35">JP11+JP21+JP24+JP27+JP48+JP53+JP68+JP75</f>
+        <f t="shared" ref="JP76:JQ76" si="35">JP11+JP21+JP24+JP27+JP48+JP53+JP68+JP75</f>
         <v>1950941</v>
       </c>
       <c r="JQ76" s="19">
+        <f t="shared" si="35"/>
+        <v>1960510</v>
+      </c>
+      <c r="JR76" s="19">
         <f t="shared" si="34"/>
-        <v>1960510</v>
+        <v>1932962</v>
       </c>
     </row>
-    <row r="77" spans="1:914" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:915" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -68779,7 +69008,7 @@
       <c r="JO77" s="30"/>
       <c r="JP77" s="30"/>
       <c r="JQ77" s="30"/>
-      <c r="JR77" s="27"/>
+      <c r="JR77" s="30"/>
       <c r="JS77" s="27"/>
       <c r="JT77" s="27"/>
       <c r="JU77" s="27"/>
@@ -69235,15 +69464,16 @@
       <c r="ABC77" s="27"/>
       <c r="ABD77" s="27"/>
       <c r="ABE77" s="27"/>
+      <c r="ABF77" s="27"/>
     </row>
-    <row r="78" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="JG4:JQ4"/>
+    <mergeCell ref="JG4:JR4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="352">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1061,9 +1061,6 @@
     <t>2021/Diciembre</t>
   </si>
   <si>
-    <t>2000-2022</t>
-  </si>
-  <si>
     <t>2022/Enero</t>
   </si>
   <si>
@@ -1098,6 +1095,9 @@
   </si>
   <si>
     <t>2022/diciembre</t>
+  </si>
+  <si>
+    <t>2000-2023</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1703,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1809,6 +1809,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2186,8 +2189,8 @@
   <dimension ref="A1:AIE78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JP90" sqref="JP90"/>
+      <pane xSplit="2" topLeftCell="JI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JW11" sqref="JW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2459,7 +2462,8 @@
     <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
     <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="275" max="278" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="279" max="734" width="10.875" style="28"/>
+    <col min="279" max="279" width="14.375" style="4" customWidth="1"/>
+    <col min="280" max="734" width="10.875" style="28"/>
     <col min="735" max="915" width="10.875" style="4"/>
     <col min="916" max="16384" width="10.875" style="3"/>
   </cols>
@@ -2471,339 +2475,341 @@
     </row>
     <row r="2" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="40">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40"/>
+      <c r="BQ4" s="40"/>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="40"/>
+      <c r="BV4" s="40"/>
+      <c r="BW4" s="40">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="40"/>
+      <c r="BY4" s="40"/>
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
+      <c r="CC4" s="40"/>
+      <c r="CD4" s="40"/>
+      <c r="CE4" s="40"/>
+      <c r="CF4" s="40"/>
+      <c r="CG4" s="40"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="40">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="40"/>
+      <c r="CK4" s="40"/>
+      <c r="CL4" s="40"/>
+      <c r="CM4" s="40"/>
+      <c r="CN4" s="40"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="40"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="40"/>
+      <c r="CS4" s="40"/>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="40">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="40"/>
+      <c r="CW4" s="40"/>
+      <c r="CX4" s="40"/>
+      <c r="CY4" s="40"/>
+      <c r="CZ4" s="40"/>
+      <c r="DA4" s="40"/>
+      <c r="DB4" s="40"/>
+      <c r="DC4" s="40"/>
+      <c r="DD4" s="40"/>
+      <c r="DE4" s="40"/>
+      <c r="DF4" s="40"/>
+      <c r="DG4" s="40">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="40"/>
+      <c r="DI4" s="40"/>
+      <c r="DJ4" s="40"/>
+      <c r="DK4" s="40"/>
+      <c r="DL4" s="40"/>
+      <c r="DM4" s="40"/>
+      <c r="DN4" s="40"/>
+      <c r="DO4" s="40"/>
+      <c r="DP4" s="40"/>
+      <c r="DQ4" s="40"/>
+      <c r="DR4" s="40"/>
+      <c r="DS4" s="40">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="40"/>
+      <c r="DU4" s="40"/>
+      <c r="DV4" s="40"/>
+      <c r="DW4" s="40"/>
+      <c r="DX4" s="40"/>
+      <c r="DY4" s="40"/>
+      <c r="DZ4" s="40"/>
+      <c r="EA4" s="40"/>
+      <c r="EB4" s="40"/>
+      <c r="EC4" s="40"/>
+      <c r="ED4" s="40"/>
+      <c r="EE4" s="40">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="40"/>
+      <c r="EG4" s="40"/>
+      <c r="EH4" s="40"/>
+      <c r="EI4" s="40"/>
+      <c r="EJ4" s="40"/>
+      <c r="EK4" s="40"/>
+      <c r="EL4" s="40"/>
+      <c r="EM4" s="40"/>
+      <c r="EN4" s="40"/>
+      <c r="EO4" s="40"/>
+      <c r="EP4" s="40"/>
+      <c r="EQ4" s="40">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="40"/>
+      <c r="ES4" s="40"/>
+      <c r="ET4" s="40"/>
+      <c r="EU4" s="40"/>
+      <c r="EV4" s="40"/>
+      <c r="EW4" s="40"/>
+      <c r="EX4" s="40"/>
+      <c r="EY4" s="40"/>
+      <c r="EZ4" s="40"/>
+      <c r="FA4" s="40"/>
+      <c r="FB4" s="40"/>
+      <c r="FC4" s="40">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="40"/>
+      <c r="FE4" s="40"/>
+      <c r="FF4" s="40"/>
+      <c r="FG4" s="40"/>
+      <c r="FH4" s="40"/>
+      <c r="FI4" s="40"/>
+      <c r="FJ4" s="40"/>
+      <c r="FK4" s="40"/>
+      <c r="FL4" s="40"/>
+      <c r="FM4" s="40"/>
+      <c r="FN4" s="40"/>
+      <c r="FO4" s="40">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="40"/>
+      <c r="FQ4" s="40"/>
+      <c r="FR4" s="40"/>
+      <c r="FS4" s="40"/>
+      <c r="FT4" s="40"/>
+      <c r="FU4" s="40"/>
+      <c r="FV4" s="40"/>
+      <c r="FW4" s="40"/>
+      <c r="FX4" s="40"/>
+      <c r="FY4" s="40"/>
+      <c r="FZ4" s="40"/>
+      <c r="GA4" s="40">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="40"/>
+      <c r="GC4" s="40"/>
+      <c r="GD4" s="40"/>
+      <c r="GE4" s="40"/>
+      <c r="GF4" s="40"/>
+      <c r="GG4" s="40"/>
+      <c r="GH4" s="40"/>
+      <c r="GI4" s="40"/>
+      <c r="GJ4" s="40"/>
+      <c r="GK4" s="40"/>
+      <c r="GL4" s="40"/>
+      <c r="GM4" s="40">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="40"/>
+      <c r="GO4" s="40"/>
+      <c r="GP4" s="40"/>
+      <c r="GQ4" s="40"/>
+      <c r="GR4" s="40"/>
+      <c r="GS4" s="40"/>
+      <c r="GT4" s="40"/>
+      <c r="GU4" s="40"/>
+      <c r="GV4" s="40"/>
+      <c r="GW4" s="40"/>
+      <c r="GX4" s="40"/>
+      <c r="GY4" s="40">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="40"/>
+      <c r="HA4" s="40"/>
+      <c r="HB4" s="40"/>
+      <c r="HC4" s="40"/>
+      <c r="HD4" s="40"/>
+      <c r="HE4" s="40"/>
+      <c r="HF4" s="40"/>
+      <c r="HG4" s="40"/>
+      <c r="HH4" s="40"/>
+      <c r="HI4" s="40"/>
+      <c r="HJ4" s="40"/>
+      <c r="HK4" s="40">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="40"/>
+      <c r="HM4" s="40"/>
+      <c r="HN4" s="40"/>
+      <c r="HO4" s="40"/>
+      <c r="HP4" s="40"/>
+      <c r="HQ4" s="40"/>
+      <c r="HR4" s="40"/>
+      <c r="HS4" s="40"/>
+      <c r="HT4" s="40"/>
+      <c r="HU4" s="40"/>
+      <c r="HV4" s="40"/>
+      <c r="HW4" s="40">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
-      <c r="IH4" s="41"/>
-      <c r="II4" s="41">
+      <c r="HX4" s="40"/>
+      <c r="HY4" s="40"/>
+      <c r="HZ4" s="40"/>
+      <c r="IA4" s="40"/>
+      <c r="IB4" s="40"/>
+      <c r="IC4" s="40"/>
+      <c r="ID4" s="40"/>
+      <c r="IE4" s="40"/>
+      <c r="IF4" s="40"/>
+      <c r="IG4" s="40"/>
+      <c r="IH4" s="42"/>
+      <c r="II4" s="42">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="42"/>
-      <c r="IK4" s="42"/>
-      <c r="IL4" s="42"/>
-      <c r="IM4" s="42"/>
-      <c r="IN4" s="42"/>
-      <c r="IO4" s="42"/>
-      <c r="IP4" s="42"/>
-      <c r="IQ4" s="42"/>
-      <c r="IR4" s="42"/>
-      <c r="IS4" s="42"/>
-      <c r="IT4" s="43"/>
-      <c r="IU4" s="41">
+      <c r="IJ4" s="43"/>
+      <c r="IK4" s="43"/>
+      <c r="IL4" s="43"/>
+      <c r="IM4" s="43"/>
+      <c r="IN4" s="43"/>
+      <c r="IO4" s="43"/>
+      <c r="IP4" s="43"/>
+      <c r="IQ4" s="43"/>
+      <c r="IR4" s="43"/>
+      <c r="IS4" s="43"/>
+      <c r="IT4" s="44"/>
+      <c r="IU4" s="42">
         <v>2021</v>
       </c>
-      <c r="IV4" s="42"/>
-      <c r="IW4" s="42"/>
-      <c r="IX4" s="42"/>
-      <c r="IY4" s="42"/>
-      <c r="IZ4" s="42"/>
-      <c r="JA4" s="42"/>
-      <c r="JB4" s="42"/>
-      <c r="JC4" s="42"/>
-      <c r="JD4" s="42"/>
-      <c r="JE4" s="42"/>
-      <c r="JF4" s="43"/>
-      <c r="JG4" s="39">
+      <c r="IV4" s="43"/>
+      <c r="IW4" s="43"/>
+      <c r="IX4" s="43"/>
+      <c r="IY4" s="43"/>
+      <c r="IZ4" s="43"/>
+      <c r="JA4" s="43"/>
+      <c r="JB4" s="43"/>
+      <c r="JC4" s="43"/>
+      <c r="JD4" s="43"/>
+      <c r="JE4" s="43"/>
+      <c r="JF4" s="44"/>
+      <c r="JG4" s="40">
         <v>2022</v>
       </c>
-      <c r="JH4" s="39"/>
-      <c r="JI4" s="39"/>
-      <c r="JJ4" s="39"/>
-      <c r="JK4" s="39"/>
-      <c r="JL4" s="39"/>
-      <c r="JM4" s="39"/>
-      <c r="JN4" s="39"/>
-      <c r="JO4" s="39"/>
-      <c r="JP4" s="39"/>
-      <c r="JQ4" s="39"/>
-      <c r="JR4" s="39"/>
-      <c r="JS4" s="29"/>
+      <c r="JH4" s="40"/>
+      <c r="JI4" s="40"/>
+      <c r="JJ4" s="40"/>
+      <c r="JK4" s="40"/>
+      <c r="JL4" s="40"/>
+      <c r="JM4" s="40"/>
+      <c r="JN4" s="40"/>
+      <c r="JO4" s="40"/>
+      <c r="JP4" s="40"/>
+      <c r="JQ4" s="40"/>
+      <c r="JR4" s="40"/>
+      <c r="JS4" s="38">
+        <v>2023</v>
+      </c>
       <c r="JT4" s="29"/>
       <c r="JU4" s="29"/>
       <c r="JV4" s="29"/>
@@ -3442,8 +3448,8 @@
       <c r="AIE4" s="5"/>
     </row>
     <row r="5" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4237,42 +4243,44 @@
         <v>338</v>
       </c>
       <c r="JG5" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="JH5" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="JH5" s="31" t="s">
+      <c r="JI5" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="JI5" s="31" t="s">
+      <c r="JJ5" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="JJ5" s="31" t="s">
+      <c r="JK5" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="JK5" s="31" t="s">
+      <c r="JL5" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="JL5" s="31" t="s">
+      <c r="JM5" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="JM5" s="31" t="s">
+      <c r="JN5" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="JN5" s="31" t="s">
+      <c r="JO5" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="JO5" s="31" t="s">
+      <c r="JP5" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="JP5" s="31" t="s">
+      <c r="JQ5" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="JQ5" s="31" t="s">
+      <c r="JR5" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="JR5" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="JS5" s="29"/>
+      <c r="JS5" s="31" t="s">
+        <v>339</v>
+      </c>
       <c r="JT5" s="29"/>
       <c r="JU5" s="29"/>
       <c r="JV5" s="29"/>
@@ -4911,7 +4919,7 @@
       <c r="AIE5" s="5"/>
     </row>
     <row r="6" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5745,9 +5753,12 @@
       <c r="JR6" s="7">
         <v>94055</v>
       </c>
+      <c r="JS6" s="7">
+        <v>100760</v>
+      </c>
     </row>
     <row r="7" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6579,9 +6590,12 @@
       <c r="JR7" s="8">
         <v>47</v>
       </c>
+      <c r="JS7" s="8">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7413,9 +7427,12 @@
       <c r="JR8" s="7">
         <v>23769</v>
       </c>
+      <c r="JS8" s="7">
+        <v>23747</v>
+      </c>
     </row>
     <row r="9" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8247,9 +8264,12 @@
       <c r="JR9" s="7">
         <v>428</v>
       </c>
+      <c r="JS9" s="7">
+        <v>410</v>
+      </c>
     </row>
     <row r="10" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -9081,9 +9101,12 @@
       <c r="JR10" s="8">
         <v>409</v>
       </c>
+      <c r="JS10" s="8">
+        <v>447</v>
+      </c>
     </row>
     <row r="11" spans="1:915" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9915,7 +9938,7 @@
         <v>115219</v>
       </c>
       <c r="JO11" s="10">
-        <f t="shared" ref="JO11:JR11" si="2">SUM(JO6:JO10)</f>
+        <f t="shared" ref="JO11:JS11" si="2">SUM(JO6:JO10)</f>
         <v>119089</v>
       </c>
       <c r="JP11" s="10">
@@ -9930,7 +9953,10 @@
         <f t="shared" si="2"/>
         <v>118708</v>
       </c>
-      <c r="JS11" s="29"/>
+      <c r="JS11" s="10">
+        <f t="shared" si="2"/>
+        <v>125411</v>
+      </c>
       <c r="JT11" s="29"/>
       <c r="JU11" s="29"/>
       <c r="JV11" s="29"/>
@@ -10569,7 +10595,7 @@
       <c r="AIE11" s="5"/>
     </row>
     <row r="12" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11403,9 +11429,12 @@
       <c r="JR12" s="7">
         <v>79016</v>
       </c>
+      <c r="JS12" s="7">
+        <v>78690</v>
+      </c>
     </row>
     <row r="13" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12237,9 +12266,12 @@
       <c r="JR13" s="7">
         <v>20604</v>
       </c>
+      <c r="JS13" s="7">
+        <v>20200</v>
+      </c>
     </row>
     <row r="14" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -13071,9 +13103,12 @@
       <c r="JR14" s="7">
         <v>34405</v>
       </c>
+      <c r="JS14" s="7">
+        <v>34436</v>
+      </c>
     </row>
     <row r="15" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13905,9 +13940,12 @@
       <c r="JR15" s="7">
         <v>22400</v>
       </c>
+      <c r="JS15" s="7">
+        <v>22420</v>
+      </c>
     </row>
     <row r="16" spans="1:915" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14739,9 +14777,12 @@
       <c r="JR16" s="7">
         <v>13723</v>
       </c>
+      <c r="JS16" s="7">
+        <v>13640</v>
+      </c>
     </row>
     <row r="17" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15573,9 +15614,12 @@
       <c r="JR17" s="7">
         <v>49835</v>
       </c>
+      <c r="JS17" s="7">
+        <v>50356</v>
+      </c>
     </row>
     <row r="18" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16407,9 +16451,12 @@
       <c r="JR18" s="7">
         <v>61234</v>
       </c>
+      <c r="JS18" s="7">
+        <v>60814</v>
+      </c>
     </row>
     <row r="19" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -17241,9 +17288,12 @@
       <c r="JR19" s="7">
         <v>70017</v>
       </c>
+      <c r="JS19" s="7">
+        <v>69566</v>
+      </c>
     </row>
     <row r="20" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -18075,9 +18125,12 @@
       <c r="JR20" s="7">
         <v>48373</v>
       </c>
+      <c r="JS20" s="7">
+        <v>47283</v>
+      </c>
     </row>
     <row r="21" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18909,7 +18962,7 @@
         <v>394460</v>
       </c>
       <c r="JO21" s="10">
-        <f t="shared" ref="JO21:JR21" si="6">SUM(JO12:JO20)</f>
+        <f t="shared" ref="JO21:JS21" si="6">SUM(JO12:JO20)</f>
         <v>397012</v>
       </c>
       <c r="JP21" s="10">
@@ -18924,7 +18977,10 @@
         <f t="shared" si="6"/>
         <v>399607</v>
       </c>
-      <c r="JS21" s="29"/>
+      <c r="JS21" s="10">
+        <f t="shared" si="6"/>
+        <v>397405</v>
+      </c>
       <c r="JT21" s="29"/>
       <c r="JU21" s="29"/>
       <c r="JV21" s="29"/>
@@ -19563,7 +19619,7 @@
       <c r="AIE21" s="5"/>
     </row>
     <row r="22" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="39" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -20397,9 +20453,12 @@
       <c r="JR22" s="7">
         <v>109309</v>
       </c>
+      <c r="JS22" s="7">
+        <v>112548</v>
+      </c>
     </row>
     <row r="23" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -21231,9 +21290,12 @@
       <c r="JR23" s="7">
         <v>36037</v>
       </c>
+      <c r="JS23" s="7">
+        <v>36279</v>
+      </c>
     </row>
     <row r="24" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -22065,7 +22127,7 @@
         <v>144641</v>
       </c>
       <c r="JO24" s="10">
-        <f t="shared" ref="JO24:JR24" si="10">SUM(JO22:JO23)</f>
+        <f t="shared" ref="JO24:JS24" si="10">SUM(JO22:JO23)</f>
         <v>145163</v>
       </c>
       <c r="JP24" s="10">
@@ -22080,7 +22142,10 @@
         <f t="shared" si="10"/>
         <v>145346</v>
       </c>
-      <c r="JS24" s="29"/>
+      <c r="JS24" s="10">
+        <f t="shared" si="10"/>
+        <v>148827</v>
+      </c>
       <c r="JT24" s="29"/>
       <c r="JU24" s="29"/>
       <c r="JV24" s="29"/>
@@ -22719,7 +22784,7 @@
       <c r="AIE24" s="5"/>
     </row>
     <row r="25" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23553,9 +23618,12 @@
       <c r="JR25" s="7">
         <v>4282</v>
       </c>
+      <c r="JS25" s="7">
+        <v>4329</v>
+      </c>
     </row>
     <row r="26" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -24387,9 +24455,12 @@
       <c r="JR26" s="7">
         <v>5532</v>
       </c>
+      <c r="JS26" s="7">
+        <v>5518</v>
+      </c>
     </row>
     <row r="27" spans="1:915" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -25221,7 +25292,7 @@
         <v>9763</v>
       </c>
       <c r="JO27" s="10">
-        <f t="shared" ref="JO27:JR27" si="14">SUM(JO25:JO26)</f>
+        <f t="shared" ref="JO27:JS27" si="14">SUM(JO25:JO26)</f>
         <v>9686</v>
       </c>
       <c r="JP27" s="10">
@@ -25236,7 +25307,10 @@
         <f t="shared" si="14"/>
         <v>9814</v>
       </c>
-      <c r="JS27" s="29"/>
+      <c r="JS27" s="10">
+        <f t="shared" si="14"/>
+        <v>9847</v>
+      </c>
       <c r="JT27" s="29"/>
       <c r="JU27" s="29"/>
       <c r="JV27" s="29"/>
@@ -25875,7 +25949,7 @@
       <c r="AIE27" s="5"/>
     </row>
     <row r="28" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="39" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26709,9 +26783,12 @@
       <c r="JR28" s="7">
         <v>882</v>
       </c>
+      <c r="JS28" s="7">
+        <v>852</v>
+      </c>
     </row>
     <row r="29" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -27543,9 +27620,12 @@
       <c r="JR29" s="7">
         <v>11464</v>
       </c>
+      <c r="JS29" s="7">
+        <v>11348</v>
+      </c>
     </row>
     <row r="30" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -28377,9 +28457,12 @@
       <c r="JR30" s="7">
         <v>29463</v>
       </c>
+      <c r="JS30" s="7">
+        <v>27034</v>
+      </c>
     </row>
     <row r="31" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -29211,9 +29294,12 @@
       <c r="JR31" s="7">
         <v>105116</v>
       </c>
+      <c r="JS31" s="7">
+        <v>105761</v>
+      </c>
     </row>
     <row r="32" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -30045,9 +30131,12 @@
       <c r="JR32" s="7">
         <v>26425</v>
       </c>
+      <c r="JS32" s="7">
+        <v>26701</v>
+      </c>
     </row>
     <row r="33" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30879,9 +30968,12 @@
       <c r="JR33" s="7">
         <v>9720</v>
       </c>
+      <c r="JS33" s="7">
+        <v>9843</v>
+      </c>
     </row>
     <row r="34" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31713,9 +31805,12 @@
       <c r="JR34" s="7">
         <v>43400</v>
       </c>
+      <c r="JS34" s="7">
+        <v>43766</v>
+      </c>
     </row>
     <row r="35" spans="1:915" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -32547,9 +32642,12 @@
       <c r="JR35" s="7">
         <v>11052</v>
       </c>
+      <c r="JS35" s="7">
+        <v>11333</v>
+      </c>
     </row>
     <row r="36" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -33381,9 +33479,12 @@
       <c r="JR36" s="7">
         <v>52413</v>
       </c>
+      <c r="JS36" s="7">
+        <v>53059</v>
+      </c>
     </row>
     <row r="37" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -34215,9 +34316,12 @@
       <c r="JR37" s="7">
         <v>73539</v>
       </c>
+      <c r="JS37" s="7">
+        <v>77908</v>
+      </c>
     </row>
     <row r="38" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -35049,9 +35153,12 @@
       <c r="JR38" s="7">
         <v>21607</v>
       </c>
+      <c r="JS38" s="7">
+        <v>21691</v>
+      </c>
     </row>
     <row r="39" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35883,9 +35990,12 @@
       <c r="JR39" s="7">
         <v>23937</v>
       </c>
+      <c r="JS39" s="7">
+        <v>23781</v>
+      </c>
     </row>
     <row r="40" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -36717,9 +36827,12 @@
       <c r="JR40" s="7">
         <v>11936</v>
       </c>
+      <c r="JS40" s="7">
+        <v>12087</v>
+      </c>
     </row>
     <row r="41" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -37551,9 +37664,12 @@
       <c r="JR41" s="7">
         <v>10936</v>
       </c>
+      <c r="JS41" s="7">
+        <v>11235</v>
+      </c>
     </row>
     <row r="42" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -38385,9 +38501,12 @@
       <c r="JR42" s="7">
         <v>44022</v>
       </c>
+      <c r="JS42" s="7">
+        <v>44398</v>
+      </c>
     </row>
     <row r="43" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -39219,9 +39338,12 @@
       <c r="JR43" s="7">
         <v>4653</v>
       </c>
+      <c r="JS43" s="7">
+        <v>4610</v>
+      </c>
     </row>
     <row r="44" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -40053,9 +40175,12 @@
       <c r="JR44" s="7">
         <v>5827</v>
       </c>
+      <c r="JS44" s="7">
+        <v>5770</v>
+      </c>
     </row>
     <row r="45" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -40887,9 +41012,12 @@
       <c r="JR45" s="7">
         <v>7147</v>
       </c>
+      <c r="JS45" s="7">
+        <v>7201</v>
+      </c>
     </row>
     <row r="46" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -41721,9 +41849,12 @@
       <c r="JR46" s="7">
         <v>13200</v>
       </c>
+      <c r="JS46" s="7">
+        <v>13167</v>
+      </c>
     </row>
     <row r="47" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -42555,9 +42686,12 @@
       <c r="JR47" s="7">
         <v>1407</v>
       </c>
+      <c r="JS47" s="7">
+        <v>1358</v>
+      </c>
     </row>
     <row r="48" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -43389,7 +43523,7 @@
         <v>505597</v>
       </c>
       <c r="JO48" s="10">
-        <f t="shared" ref="JO48:JR48" si="18">SUM(JO28:JO47)</f>
+        <f t="shared" ref="JO48:JS48" si="18">SUM(JO28:JO47)</f>
         <v>509874</v>
       </c>
       <c r="JP48" s="10">
@@ -43404,7 +43538,10 @@
         <f t="shared" si="18"/>
         <v>508146</v>
       </c>
-      <c r="JS48" s="29"/>
+      <c r="JS48" s="10">
+        <f t="shared" si="18"/>
+        <v>512903</v>
+      </c>
       <c r="JT48" s="29"/>
       <c r="JU48" s="29"/>
       <c r="JV48" s="29"/>
@@ -44042,8 +44179,8 @@
       <c r="AID48" s="5"/>
       <c r="AIE48" s="5"/>
     </row>
-    <row r="49" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -44877,9 +45014,12 @@
       <c r="JR49" s="8">
         <v>12</v>
       </c>
+      <c r="JS49" s="8">
+        <v>14</v>
+      </c>
     </row>
-    <row r="50" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -45711,9 +45851,12 @@
       <c r="JR50" s="8">
         <v>40</v>
       </c>
+      <c r="JS50" s="8">
+        <v>43</v>
+      </c>
     </row>
-    <row r="51" spans="1:278" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:279" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -46545,9 +46688,12 @@
       <c r="JR51" s="7">
         <v>1504</v>
       </c>
+      <c r="JS51" s="7">
+        <v>1530</v>
+      </c>
     </row>
-    <row r="52" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -47379,9 +47525,12 @@
       <c r="JR52" s="7">
         <v>944</v>
       </c>
+      <c r="JS52" s="7">
+        <v>993</v>
+      </c>
     </row>
-    <row r="53" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -48213,7 +48362,7 @@
         <v>2477</v>
       </c>
       <c r="JO53" s="10">
-        <f t="shared" ref="JO53:JR53" si="22">SUM(JO49:JO52)</f>
+        <f t="shared" ref="JO53:JS53" si="22">SUM(JO49:JO52)</f>
         <v>2518</v>
       </c>
       <c r="JP53" s="10">
@@ -48228,9 +48377,13 @@
         <f t="shared" si="22"/>
         <v>2500</v>
       </c>
+      <c r="JS53" s="10">
+        <f t="shared" si="22"/>
+        <v>2580</v>
+      </c>
     </row>
-    <row r="54" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -49064,9 +49217,12 @@
       <c r="JR54" s="36">
         <v>5740</v>
       </c>
+      <c r="JS54" s="7">
+        <v>5757</v>
+      </c>
     </row>
-    <row r="55" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -49898,9 +50054,12 @@
       <c r="JR55" s="7">
         <v>54061</v>
       </c>
+      <c r="JS55" s="7">
+        <v>54053</v>
+      </c>
     </row>
-    <row r="56" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+    <row r="56" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -50732,9 +50891,12 @@
       <c r="JR56" s="7">
         <v>7002</v>
       </c>
+      <c r="JS56" s="7">
+        <v>6970</v>
+      </c>
     </row>
-    <row r="57" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -51566,9 +51728,12 @@
       <c r="JR57" s="7">
         <v>191123</v>
       </c>
+      <c r="JS57" s="7">
+        <v>191108</v>
+      </c>
     </row>
-    <row r="58" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -52400,9 +52565,12 @@
       <c r="JR58" s="7">
         <v>34825</v>
       </c>
+      <c r="JS58" s="7">
+        <v>34950</v>
+      </c>
     </row>
-    <row r="59" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+    <row r="59" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -53234,9 +53402,12 @@
       <c r="JR59" s="7">
         <v>6872</v>
       </c>
+      <c r="JS59" s="7">
+        <v>7182</v>
+      </c>
     </row>
-    <row r="60" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -54068,9 +54239,12 @@
       <c r="JR60" s="7">
         <v>46723</v>
       </c>
+      <c r="JS60" s="7">
+        <v>49365</v>
+      </c>
     </row>
-    <row r="61" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+    <row r="61" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -54902,9 +55076,12 @@
       <c r="JR61" s="8">
         <v>146</v>
       </c>
+      <c r="JS61" s="8">
+        <v>146</v>
+      </c>
     </row>
-    <row r="62" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+    <row r="62" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -55736,9 +55913,12 @@
       <c r="JR62" s="7">
         <v>20229</v>
       </c>
+      <c r="JS62" s="7">
+        <v>20358</v>
+      </c>
     </row>
-    <row r="63" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+    <row r="63" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -56570,9 +56750,12 @@
       <c r="JR63" s="7">
         <v>34258</v>
       </c>
+      <c r="JS63" s="7">
+        <v>34496</v>
+      </c>
     </row>
-    <row r="64" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+    <row r="64" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -57404,9 +57587,12 @@
       <c r="JR64" s="7">
         <v>47971</v>
       </c>
+      <c r="JS64" s="7">
+        <v>48975</v>
+      </c>
     </row>
     <row r="65" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -58238,9 +58424,12 @@
       <c r="JR65" s="7">
         <v>169070</v>
       </c>
+      <c r="JS65" s="7">
+        <v>170091</v>
+      </c>
     </row>
     <row r="66" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -59072,9 +59261,12 @@
       <c r="JR66" s="7">
         <v>20116</v>
       </c>
+      <c r="JS66" s="7">
+        <v>20005</v>
+      </c>
     </row>
     <row r="67" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -59906,9 +60098,12 @@
       <c r="JR67" s="7">
         <v>6261</v>
       </c>
+      <c r="JS67" s="7">
+        <v>6322</v>
+      </c>
     </row>
     <row r="68" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -60740,7 +60935,7 @@
         <v>636862</v>
       </c>
       <c r="JO68" s="10">
-        <f t="shared" ref="JO68:JR68" si="26">SUM(JO54:JO67)</f>
+        <f t="shared" ref="JO68:JS68" si="26">SUM(JO54:JO67)</f>
         <v>640257</v>
       </c>
       <c r="JP68" s="10">
@@ -60755,7 +60950,10 @@
         <f t="shared" si="26"/>
         <v>644397</v>
       </c>
-      <c r="JS68" s="29"/>
+      <c r="JS68" s="10">
+        <f t="shared" si="26"/>
+        <v>649778</v>
+      </c>
       <c r="JT68" s="29"/>
       <c r="JU68" s="29"/>
       <c r="JV68" s="29"/>
@@ -61394,7 +61592,7 @@
       <c r="AIE68" s="5"/>
     </row>
     <row r="69" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="39" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -62228,9 +62426,12 @@
       <c r="JR69" s="7">
         <v>9835</v>
       </c>
+      <c r="JS69" s="7">
+        <v>9739</v>
+      </c>
     </row>
     <row r="70" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -63062,9 +63263,12 @@
       <c r="JR70" s="7">
         <v>876</v>
       </c>
+      <c r="JS70" s="7">
+        <v>889</v>
+      </c>
     </row>
     <row r="71" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -63896,9 +64100,12 @@
       <c r="JR71" s="7">
         <v>34493</v>
       </c>
+      <c r="JS71" s="7">
+        <v>34154</v>
+      </c>
     </row>
     <row r="72" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -64730,9 +64937,12 @@
       <c r="JR72" s="7">
         <v>4603</v>
       </c>
+      <c r="JS72" s="7">
+        <v>4611</v>
+      </c>
     </row>
     <row r="73" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -65564,9 +65774,12 @@
       <c r="JR73" s="8">
         <v>569</v>
       </c>
+      <c r="JS73" s="8">
+        <v>612</v>
+      </c>
     </row>
     <row r="74" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -66398,9 +66611,12 @@
       <c r="JR74" s="7">
         <v>54068</v>
       </c>
+      <c r="JS74" s="7">
+        <v>54500</v>
+      </c>
     </row>
     <row r="75" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -67232,7 +67448,7 @@
         <v>101608</v>
       </c>
       <c r="JO75" s="10">
-        <f t="shared" ref="JO75:JR75" si="30">SUM(JO69:JO74)</f>
+        <f t="shared" ref="JO75:JS75" si="30">SUM(JO69:JO74)</f>
         <v>104048</v>
       </c>
       <c r="JP75" s="10">
@@ -67247,7 +67463,10 @@
         <f t="shared" si="30"/>
         <v>104444</v>
       </c>
-      <c r="JS75" s="29"/>
+      <c r="JS75" s="10">
+        <f t="shared" si="30"/>
+        <v>104505</v>
+      </c>
       <c r="JT75" s="29"/>
       <c r="JU75" s="29"/>
       <c r="JV75" s="29"/>
@@ -68719,7 +68938,7 @@
         <v>1910627</v>
       </c>
       <c r="JO76" s="19">
-        <f t="shared" ref="JO76:JR76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <f t="shared" ref="JO76:JS76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
         <v>1927647</v>
       </c>
       <c r="JP76" s="19">
@@ -68733,6 +68952,10 @@
       <c r="JR76" s="19">
         <f t="shared" si="34"/>
         <v>1932962</v>
+      </c>
+      <c r="JS76" s="19">
+        <f t="shared" si="34"/>
+        <v>1951256</v>
       </c>
     </row>
     <row r="77" spans="1:915" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -69009,7 +69232,7 @@
       <c r="JP77" s="30"/>
       <c r="JQ77" s="30"/>
       <c r="JR77" s="30"/>
-      <c r="JS77" s="27"/>
+      <c r="JS77" s="30"/>
       <c r="JT77" s="27"/>
       <c r="JU77" s="27"/>
       <c r="JV77" s="27"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="356">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1108,6 +1108,9 @@
   <si>
     <t>2023/Febrero</t>
   </si>
+  <si>
+    <t>2023/Abril</t>
+  </si>
 </sst>
 </file>
 
@@ -1819,9 +1822,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1833,6 +1833,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2192,11 +2195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIE78"/>
+  <dimension ref="A1:AIF78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="JM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JT76" sqref="JT76"/>
+      <selection pane="topRight" activeCell="JQ3" sqref="JQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2469,358 +2472,358 @@
     <col min="274" max="274" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="275" max="278" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="279" max="279" width="14.33203125" style="4" customWidth="1"/>
-    <col min="280" max="280" width="13.88671875" style="28" customWidth="1"/>
-    <col min="281" max="281" width="13.6640625" style="28" customWidth="1"/>
-    <col min="282" max="734" width="10.88671875" style="28"/>
-    <col min="735" max="915" width="10.88671875" style="4"/>
-    <col min="916" max="16384" width="10.88671875" style="3"/>
+    <col min="280" max="281" width="13.88671875" style="28" customWidth="1"/>
+    <col min="282" max="282" width="13.6640625" style="28" customWidth="1"/>
+    <col min="283" max="735" width="10.88671875" style="28"/>
+    <col min="736" max="916" width="10.88671875" style="4"/>
+    <col min="917" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:915" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:916" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:915" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:916" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:916" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
         <v>313</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="42">
         <v>2000</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42">
         <v>2001</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38">
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42">
         <v>2002</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38">
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42">
         <v>2003</v>
       </c>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38">
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38">
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42">
         <v>2005</v>
       </c>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38">
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="42">
         <v>2006</v>
       </c>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38">
+      <c r="BX4" s="42"/>
+      <c r="BY4" s="42"/>
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="38"/>
-      <c r="CU4" s="38">
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="42"/>
+      <c r="CL4" s="42"/>
+      <c r="CM4" s="42"/>
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42"/>
+      <c r="CT4" s="42"/>
+      <c r="CU4" s="42">
         <v>2008</v>
       </c>
-      <c r="CV4" s="38"/>
-      <c r="CW4" s="38"/>
-      <c r="CX4" s="38"/>
-      <c r="CY4" s="38"/>
-      <c r="CZ4" s="38"/>
-      <c r="DA4" s="38"/>
-      <c r="DB4" s="38"/>
-      <c r="DC4" s="38"/>
-      <c r="DD4" s="38"/>
-      <c r="DE4" s="38"/>
-      <c r="DF4" s="38"/>
-      <c r="DG4" s="38">
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
+      <c r="DA4" s="42"/>
+      <c r="DB4" s="42"/>
+      <c r="DC4" s="42"/>
+      <c r="DD4" s="42"/>
+      <c r="DE4" s="42"/>
+      <c r="DF4" s="42"/>
+      <c r="DG4" s="42">
         <v>2009</v>
       </c>
-      <c r="DH4" s="38"/>
-      <c r="DI4" s="38"/>
-      <c r="DJ4" s="38"/>
-      <c r="DK4" s="38"/>
-      <c r="DL4" s="38"/>
-      <c r="DM4" s="38"/>
-      <c r="DN4" s="38"/>
-      <c r="DO4" s="38"/>
-      <c r="DP4" s="38"/>
-      <c r="DQ4" s="38"/>
-      <c r="DR4" s="38"/>
-      <c r="DS4" s="38">
+      <c r="DH4" s="42"/>
+      <c r="DI4" s="42"/>
+      <c r="DJ4" s="42"/>
+      <c r="DK4" s="42"/>
+      <c r="DL4" s="42"/>
+      <c r="DM4" s="42"/>
+      <c r="DN4" s="42"/>
+      <c r="DO4" s="42"/>
+      <c r="DP4" s="42"/>
+      <c r="DQ4" s="42"/>
+      <c r="DR4" s="42"/>
+      <c r="DS4" s="42">
         <v>2010</v>
       </c>
-      <c r="DT4" s="38"/>
-      <c r="DU4" s="38"/>
-      <c r="DV4" s="38"/>
-      <c r="DW4" s="38"/>
-      <c r="DX4" s="38"/>
-      <c r="DY4" s="38"/>
-      <c r="DZ4" s="38"/>
-      <c r="EA4" s="38"/>
-      <c r="EB4" s="38"/>
-      <c r="EC4" s="38"/>
-      <c r="ED4" s="38"/>
-      <c r="EE4" s="38">
+      <c r="DT4" s="42"/>
+      <c r="DU4" s="42"/>
+      <c r="DV4" s="42"/>
+      <c r="DW4" s="42"/>
+      <c r="DX4" s="42"/>
+      <c r="DY4" s="42"/>
+      <c r="DZ4" s="42"/>
+      <c r="EA4" s="42"/>
+      <c r="EB4" s="42"/>
+      <c r="EC4" s="42"/>
+      <c r="ED4" s="42"/>
+      <c r="EE4" s="42">
         <v>2011</v>
       </c>
-      <c r="EF4" s="38"/>
-      <c r="EG4" s="38"/>
-      <c r="EH4" s="38"/>
-      <c r="EI4" s="38"/>
-      <c r="EJ4" s="38"/>
-      <c r="EK4" s="38"/>
-      <c r="EL4" s="38"/>
-      <c r="EM4" s="38"/>
-      <c r="EN4" s="38"/>
-      <c r="EO4" s="38"/>
-      <c r="EP4" s="38"/>
-      <c r="EQ4" s="38">
+      <c r="EF4" s="42"/>
+      <c r="EG4" s="42"/>
+      <c r="EH4" s="42"/>
+      <c r="EI4" s="42"/>
+      <c r="EJ4" s="42"/>
+      <c r="EK4" s="42"/>
+      <c r="EL4" s="42"/>
+      <c r="EM4" s="42"/>
+      <c r="EN4" s="42"/>
+      <c r="EO4" s="42"/>
+      <c r="EP4" s="42"/>
+      <c r="EQ4" s="42">
         <v>2012</v>
       </c>
-      <c r="ER4" s="38"/>
-      <c r="ES4" s="38"/>
-      <c r="ET4" s="38"/>
-      <c r="EU4" s="38"/>
-      <c r="EV4" s="38"/>
-      <c r="EW4" s="38"/>
-      <c r="EX4" s="38"/>
-      <c r="EY4" s="38"/>
-      <c r="EZ4" s="38"/>
-      <c r="FA4" s="38"/>
-      <c r="FB4" s="38"/>
-      <c r="FC4" s="38">
+      <c r="ER4" s="42"/>
+      <c r="ES4" s="42"/>
+      <c r="ET4" s="42"/>
+      <c r="EU4" s="42"/>
+      <c r="EV4" s="42"/>
+      <c r="EW4" s="42"/>
+      <c r="EX4" s="42"/>
+      <c r="EY4" s="42"/>
+      <c r="EZ4" s="42"/>
+      <c r="FA4" s="42"/>
+      <c r="FB4" s="42"/>
+      <c r="FC4" s="42">
         <v>2013</v>
       </c>
-      <c r="FD4" s="38"/>
-      <c r="FE4" s="38"/>
-      <c r="FF4" s="38"/>
-      <c r="FG4" s="38"/>
-      <c r="FH4" s="38"/>
-      <c r="FI4" s="38"/>
-      <c r="FJ4" s="38"/>
-      <c r="FK4" s="38"/>
-      <c r="FL4" s="38"/>
-      <c r="FM4" s="38"/>
-      <c r="FN4" s="38"/>
-      <c r="FO4" s="38">
+      <c r="FD4" s="42"/>
+      <c r="FE4" s="42"/>
+      <c r="FF4" s="42"/>
+      <c r="FG4" s="42"/>
+      <c r="FH4" s="42"/>
+      <c r="FI4" s="42"/>
+      <c r="FJ4" s="42"/>
+      <c r="FK4" s="42"/>
+      <c r="FL4" s="42"/>
+      <c r="FM4" s="42"/>
+      <c r="FN4" s="42"/>
+      <c r="FO4" s="42">
         <v>2014</v>
       </c>
-      <c r="FP4" s="38"/>
-      <c r="FQ4" s="38"/>
-      <c r="FR4" s="38"/>
-      <c r="FS4" s="38"/>
-      <c r="FT4" s="38"/>
-      <c r="FU4" s="38"/>
-      <c r="FV4" s="38"/>
-      <c r="FW4" s="38"/>
-      <c r="FX4" s="38"/>
-      <c r="FY4" s="38"/>
-      <c r="FZ4" s="38"/>
-      <c r="GA4" s="38">
+      <c r="FP4" s="42"/>
+      <c r="FQ4" s="42"/>
+      <c r="FR4" s="42"/>
+      <c r="FS4" s="42"/>
+      <c r="FT4" s="42"/>
+      <c r="FU4" s="42"/>
+      <c r="FV4" s="42"/>
+      <c r="FW4" s="42"/>
+      <c r="FX4" s="42"/>
+      <c r="FY4" s="42"/>
+      <c r="FZ4" s="42"/>
+      <c r="GA4" s="42">
         <v>2015</v>
       </c>
-      <c r="GB4" s="38"/>
-      <c r="GC4" s="38"/>
-      <c r="GD4" s="38"/>
-      <c r="GE4" s="38"/>
-      <c r="GF4" s="38"/>
-      <c r="GG4" s="38"/>
-      <c r="GH4" s="38"/>
-      <c r="GI4" s="38"/>
-      <c r="GJ4" s="38"/>
-      <c r="GK4" s="38"/>
-      <c r="GL4" s="38"/>
-      <c r="GM4" s="38">
+      <c r="GB4" s="42"/>
+      <c r="GC4" s="42"/>
+      <c r="GD4" s="42"/>
+      <c r="GE4" s="42"/>
+      <c r="GF4" s="42"/>
+      <c r="GG4" s="42"/>
+      <c r="GH4" s="42"/>
+      <c r="GI4" s="42"/>
+      <c r="GJ4" s="42"/>
+      <c r="GK4" s="42"/>
+      <c r="GL4" s="42"/>
+      <c r="GM4" s="42">
         <v>2016</v>
       </c>
-      <c r="GN4" s="38"/>
-      <c r="GO4" s="38"/>
-      <c r="GP4" s="38"/>
-      <c r="GQ4" s="38"/>
-      <c r="GR4" s="38"/>
-      <c r="GS4" s="38"/>
-      <c r="GT4" s="38"/>
-      <c r="GU4" s="38"/>
-      <c r="GV4" s="38"/>
-      <c r="GW4" s="38"/>
-      <c r="GX4" s="38"/>
-      <c r="GY4" s="38">
+      <c r="GN4" s="42"/>
+      <c r="GO4" s="42"/>
+      <c r="GP4" s="42"/>
+      <c r="GQ4" s="42"/>
+      <c r="GR4" s="42"/>
+      <c r="GS4" s="42"/>
+      <c r="GT4" s="42"/>
+      <c r="GU4" s="42"/>
+      <c r="GV4" s="42"/>
+      <c r="GW4" s="42"/>
+      <c r="GX4" s="42"/>
+      <c r="GY4" s="42">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="38"/>
-      <c r="HA4" s="38"/>
-      <c r="HB4" s="38"/>
-      <c r="HC4" s="38"/>
-      <c r="HD4" s="38"/>
-      <c r="HE4" s="38"/>
-      <c r="HF4" s="38"/>
-      <c r="HG4" s="38"/>
-      <c r="HH4" s="38"/>
-      <c r="HI4" s="38"/>
-      <c r="HJ4" s="38"/>
-      <c r="HK4" s="38">
+      <c r="GZ4" s="42"/>
+      <c r="HA4" s="42"/>
+      <c r="HB4" s="42"/>
+      <c r="HC4" s="42"/>
+      <c r="HD4" s="42"/>
+      <c r="HE4" s="42"/>
+      <c r="HF4" s="42"/>
+      <c r="HG4" s="42"/>
+      <c r="HH4" s="42"/>
+      <c r="HI4" s="42"/>
+      <c r="HJ4" s="42"/>
+      <c r="HK4" s="42">
         <v>2018</v>
       </c>
-      <c r="HL4" s="38"/>
-      <c r="HM4" s="38"/>
-      <c r="HN4" s="38"/>
-      <c r="HO4" s="38"/>
-      <c r="HP4" s="38"/>
-      <c r="HQ4" s="38"/>
-      <c r="HR4" s="38"/>
-      <c r="HS4" s="38"/>
-      <c r="HT4" s="38"/>
-      <c r="HU4" s="38"/>
-      <c r="HV4" s="38"/>
-      <c r="HW4" s="38">
+      <c r="HL4" s="42"/>
+      <c r="HM4" s="42"/>
+      <c r="HN4" s="42"/>
+      <c r="HO4" s="42"/>
+      <c r="HP4" s="42"/>
+      <c r="HQ4" s="42"/>
+      <c r="HR4" s="42"/>
+      <c r="HS4" s="42"/>
+      <c r="HT4" s="42"/>
+      <c r="HU4" s="42"/>
+      <c r="HV4" s="42"/>
+      <c r="HW4" s="42">
         <v>2019</v>
       </c>
-      <c r="HX4" s="38"/>
-      <c r="HY4" s="38"/>
-      <c r="HZ4" s="38"/>
-      <c r="IA4" s="38"/>
-      <c r="IB4" s="38"/>
-      <c r="IC4" s="38"/>
-      <c r="ID4" s="38"/>
-      <c r="IE4" s="38"/>
-      <c r="IF4" s="38"/>
-      <c r="IG4" s="38"/>
-      <c r="IH4" s="39"/>
-      <c r="II4" s="39">
+      <c r="HX4" s="42"/>
+      <c r="HY4" s="42"/>
+      <c r="HZ4" s="42"/>
+      <c r="IA4" s="42"/>
+      <c r="IB4" s="42"/>
+      <c r="IC4" s="42"/>
+      <c r="ID4" s="42"/>
+      <c r="IE4" s="42"/>
+      <c r="IF4" s="42"/>
+      <c r="IG4" s="42"/>
+      <c r="IH4" s="38"/>
+      <c r="II4" s="38">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="40"/>
-      <c r="IK4" s="40"/>
-      <c r="IL4" s="40"/>
-      <c r="IM4" s="40"/>
-      <c r="IN4" s="40"/>
-      <c r="IO4" s="40"/>
-      <c r="IP4" s="40"/>
-      <c r="IQ4" s="40"/>
-      <c r="IR4" s="40"/>
-      <c r="IS4" s="40"/>
-      <c r="IT4" s="41"/>
-      <c r="IU4" s="39">
+      <c r="IJ4" s="39"/>
+      <c r="IK4" s="39"/>
+      <c r="IL4" s="39"/>
+      <c r="IM4" s="39"/>
+      <c r="IN4" s="39"/>
+      <c r="IO4" s="39"/>
+      <c r="IP4" s="39"/>
+      <c r="IQ4" s="39"/>
+      <c r="IR4" s="39"/>
+      <c r="IS4" s="39"/>
+      <c r="IT4" s="40"/>
+      <c r="IU4" s="38">
         <v>2021</v>
       </c>
-      <c r="IV4" s="40"/>
-      <c r="IW4" s="40"/>
-      <c r="IX4" s="40"/>
-      <c r="IY4" s="40"/>
-      <c r="IZ4" s="40"/>
-      <c r="JA4" s="40"/>
-      <c r="JB4" s="40"/>
-      <c r="JC4" s="40"/>
-      <c r="JD4" s="40"/>
-      <c r="JE4" s="40"/>
-      <c r="JF4" s="41"/>
-      <c r="JG4" s="38">
+      <c r="IV4" s="39"/>
+      <c r="IW4" s="39"/>
+      <c r="IX4" s="39"/>
+      <c r="IY4" s="39"/>
+      <c r="IZ4" s="39"/>
+      <c r="JA4" s="39"/>
+      <c r="JB4" s="39"/>
+      <c r="JC4" s="39"/>
+      <c r="JD4" s="39"/>
+      <c r="JE4" s="39"/>
+      <c r="JF4" s="40"/>
+      <c r="JG4" s="42">
         <v>2022</v>
       </c>
-      <c r="JH4" s="38"/>
-      <c r="JI4" s="38"/>
-      <c r="JJ4" s="38"/>
-      <c r="JK4" s="38"/>
-      <c r="JL4" s="38"/>
-      <c r="JM4" s="38"/>
-      <c r="JN4" s="38"/>
-      <c r="JO4" s="38"/>
-      <c r="JP4" s="38"/>
-      <c r="JQ4" s="38"/>
-      <c r="JR4" s="38"/>
-      <c r="JS4" s="39">
+      <c r="JH4" s="42"/>
+      <c r="JI4" s="42"/>
+      <c r="JJ4" s="42"/>
+      <c r="JK4" s="42"/>
+      <c r="JL4" s="42"/>
+      <c r="JM4" s="42"/>
+      <c r="JN4" s="42"/>
+      <c r="JO4" s="42"/>
+      <c r="JP4" s="42"/>
+      <c r="JQ4" s="42"/>
+      <c r="JR4" s="42"/>
+      <c r="JS4" s="38">
         <v>2023</v>
       </c>
-      <c r="JT4" s="40"/>
-      <c r="JU4" s="41"/>
-      <c r="JV4" s="29"/>
+      <c r="JT4" s="39"/>
+      <c r="JU4" s="39"/>
+      <c r="JV4" s="40"/>
       <c r="JW4" s="29"/>
       <c r="JX4" s="29"/>
       <c r="JY4" s="29"/>
@@ -3273,7 +3276,7 @@
       <c r="ABD4" s="29"/>
       <c r="ABE4" s="29"/>
       <c r="ABF4" s="29"/>
-      <c r="ABG4" s="5"/>
+      <c r="ABG4" s="29"/>
       <c r="ABH4" s="5"/>
       <c r="ABI4" s="5"/>
       <c r="ABJ4" s="5"/>
@@ -3454,9 +3457,10 @@
       <c r="AIC4" s="5"/>
       <c r="AID4" s="5"/>
       <c r="AIE4" s="5"/>
+      <c r="AIF4" s="5"/>
     </row>
-    <row r="5" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:916" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
       <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
@@ -4295,7 +4299,9 @@
       <c r="JU5" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="JV5" s="29"/>
+      <c r="JV5" s="31" t="s">
+        <v>355</v>
+      </c>
       <c r="JW5" s="29"/>
       <c r="JX5" s="29"/>
       <c r="JY5" s="29"/>
@@ -4748,7 +4754,7 @@
       <c r="ABD5" s="29"/>
       <c r="ABE5" s="29"/>
       <c r="ABF5" s="29"/>
-      <c r="ABG5" s="5"/>
+      <c r="ABG5" s="29"/>
       <c r="ABH5" s="5"/>
       <c r="ABI5" s="5"/>
       <c r="ABJ5" s="5"/>
@@ -4929,9 +4935,10 @@
       <c r="AIC5" s="5"/>
       <c r="AID5" s="5"/>
       <c r="AIE5" s="5"/>
+      <c r="AIF5" s="5"/>
     </row>
-    <row r="6" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5774,9 +5781,12 @@
       <c r="JU6" s="7">
         <v>101871</v>
       </c>
+      <c r="JV6" s="7">
+        <v>98363</v>
+      </c>
     </row>
-    <row r="7" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6617,9 +6627,12 @@
       <c r="JU7" s="8">
         <v>47</v>
       </c>
+      <c r="JV7" s="8">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+    <row r="8" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7460,9 +7473,12 @@
       <c r="JU8" s="7">
         <v>23916</v>
       </c>
+      <c r="JV8" s="7">
+        <v>23993</v>
+      </c>
     </row>
-    <row r="9" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+    <row r="9" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8303,9 +8319,12 @@
       <c r="JU9" s="7">
         <v>256</v>
       </c>
+      <c r="JV9" s="7">
+        <v>259</v>
+      </c>
     </row>
-    <row r="10" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -9146,9 +9165,12 @@
       <c r="JU10" s="8">
         <v>481</v>
       </c>
+      <c r="JV10" s="8">
+        <v>495</v>
+      </c>
     </row>
-    <row r="11" spans="1:915" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:916" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -10005,7 +10027,9 @@
       <c r="JU11" s="10">
         <v>126571</v>
       </c>
-      <c r="JV11" s="29"/>
+      <c r="JV11" s="10">
+        <v>123159</v>
+      </c>
       <c r="JW11" s="29"/>
       <c r="JX11" s="29"/>
       <c r="JY11" s="29"/>
@@ -10458,7 +10482,7 @@
       <c r="ABD11" s="29"/>
       <c r="ABE11" s="29"/>
       <c r="ABF11" s="29"/>
-      <c r="ABG11" s="5"/>
+      <c r="ABG11" s="29"/>
       <c r="ABH11" s="5"/>
       <c r="ABI11" s="5"/>
       <c r="ABJ11" s="5"/>
@@ -10639,9 +10663,10 @@
       <c r="AIC11" s="5"/>
       <c r="AID11" s="5"/>
       <c r="AIE11" s="5"/>
+      <c r="AIF11" s="5"/>
     </row>
-    <row r="12" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11484,9 +11509,12 @@
       <c r="JU12" s="7">
         <v>79957</v>
       </c>
+      <c r="JV12" s="7">
+        <v>80865</v>
+      </c>
     </row>
-    <row r="13" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12327,9 +12355,12 @@
       <c r="JU13" s="7">
         <v>20233</v>
       </c>
+      <c r="JV13" s="7">
+        <v>20120</v>
+      </c>
     </row>
-    <row r="14" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+    <row r="14" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -13170,9 +13201,12 @@
       <c r="JU14" s="7">
         <v>34979</v>
       </c>
+      <c r="JV14" s="7">
+        <v>35175</v>
+      </c>
     </row>
-    <row r="15" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -14013,9 +14047,12 @@
       <c r="JU15" s="7">
         <v>22621</v>
       </c>
+      <c r="JV15" s="7">
+        <v>22648</v>
+      </c>
     </row>
-    <row r="16" spans="1:915" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:916" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="41"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14856,9 +14893,12 @@
       <c r="JU16" s="7">
         <v>13939</v>
       </c>
+      <c r="JV16" s="7">
+        <v>13950</v>
+      </c>
     </row>
-    <row r="17" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15699,9 +15739,12 @@
       <c r="JU17" s="7">
         <v>51269</v>
       </c>
+      <c r="JV17" s="7">
+        <v>51476</v>
+      </c>
     </row>
-    <row r="18" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
+    <row r="18" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16542,9 +16585,12 @@
       <c r="JU18" s="7">
         <v>61684</v>
       </c>
+      <c r="JV18" s="7">
+        <v>61945</v>
+      </c>
     </row>
-    <row r="19" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
+    <row r="19" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -17385,9 +17431,12 @@
       <c r="JU19" s="7">
         <v>70295</v>
       </c>
+      <c r="JV19" s="7">
+        <v>70524</v>
+      </c>
     </row>
-    <row r="20" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
+    <row r="20" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="41"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -18228,9 +18277,12 @@
       <c r="JU20" s="7">
         <v>47198</v>
       </c>
+      <c r="JV20" s="7">
+        <v>48076</v>
+      </c>
     </row>
-    <row r="21" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+    <row r="21" spans="1:916" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="41"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -19087,7 +19139,9 @@
       <c r="JU21" s="10">
         <v>402175</v>
       </c>
-      <c r="JV21" s="29"/>
+      <c r="JV21" s="10">
+        <v>404779</v>
+      </c>
       <c r="JW21" s="29"/>
       <c r="JX21" s="29"/>
       <c r="JY21" s="29"/>
@@ -19540,7 +19594,7 @@
       <c r="ABD21" s="29"/>
       <c r="ABE21" s="29"/>
       <c r="ABF21" s="29"/>
-      <c r="ABG21" s="5"/>
+      <c r="ABG21" s="29"/>
       <c r="ABH21" s="5"/>
       <c r="ABI21" s="5"/>
       <c r="ABJ21" s="5"/>
@@ -19721,9 +19775,10 @@
       <c r="AIC21" s="5"/>
       <c r="AID21" s="5"/>
       <c r="AIE21" s="5"/>
+      <c r="AIF21" s="5"/>
     </row>
-    <row r="22" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -20566,9 +20621,12 @@
       <c r="JU22" s="7">
         <v>113270</v>
       </c>
+      <c r="JV22" s="7">
+        <v>112400</v>
+      </c>
     </row>
-    <row r="23" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="41"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -21409,9 +21467,12 @@
       <c r="JU23" s="7">
         <v>36739</v>
       </c>
+      <c r="JV23" s="7">
+        <v>37187</v>
+      </c>
     </row>
-    <row r="24" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:916" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -22268,7 +22329,9 @@
       <c r="JU24" s="10">
         <v>150009</v>
       </c>
-      <c r="JV24" s="29"/>
+      <c r="JV24" s="10">
+        <v>149587</v>
+      </c>
       <c r="JW24" s="29"/>
       <c r="JX24" s="29"/>
       <c r="JY24" s="29"/>
@@ -22721,7 +22784,7 @@
       <c r="ABD24" s="29"/>
       <c r="ABE24" s="29"/>
       <c r="ABF24" s="29"/>
-      <c r="ABG24" s="5"/>
+      <c r="ABG24" s="29"/>
       <c r="ABH24" s="5"/>
       <c r="ABI24" s="5"/>
       <c r="ABJ24" s="5"/>
@@ -22902,9 +22965,10 @@
       <c r="AIC24" s="5"/>
       <c r="AID24" s="5"/>
       <c r="AIE24" s="5"/>
+      <c r="AIF24" s="5"/>
     </row>
-    <row r="25" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23747,9 +23811,12 @@
       <c r="JU25" s="7">
         <v>4437</v>
       </c>
+      <c r="JV25" s="7">
+        <v>4444</v>
+      </c>
     </row>
-    <row r="26" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
+    <row r="26" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -24590,9 +24657,12 @@
       <c r="JU26" s="7">
         <v>5581</v>
       </c>
+      <c r="JV26" s="7">
+        <v>5548</v>
+      </c>
     </row>
-    <row r="27" spans="1:915" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+    <row r="27" spans="1:916" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -25449,7 +25519,9 @@
       <c r="JU27" s="10">
         <v>10018</v>
       </c>
-      <c r="JV27" s="29"/>
+      <c r="JV27" s="10">
+        <v>9992</v>
+      </c>
       <c r="JW27" s="29"/>
       <c r="JX27" s="29"/>
       <c r="JY27" s="29"/>
@@ -25902,7 +25974,7 @@
       <c r="ABD27" s="29"/>
       <c r="ABE27" s="29"/>
       <c r="ABF27" s="29"/>
-      <c r="ABG27" s="5"/>
+      <c r="ABG27" s="29"/>
       <c r="ABH27" s="5"/>
       <c r="ABI27" s="5"/>
       <c r="ABJ27" s="5"/>
@@ -26083,9 +26155,10 @@
       <c r="AIC27" s="5"/>
       <c r="AID27" s="5"/>
       <c r="AIE27" s="5"/>
+      <c r="AIF27" s="5"/>
     </row>
-    <row r="28" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26928,9 +27001,12 @@
       <c r="JU28" s="7">
         <v>839</v>
       </c>
+      <c r="JV28" s="7">
+        <v>849</v>
+      </c>
     </row>
-    <row r="29" spans="1:915" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
+    <row r="29" spans="1:916" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="41"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -27771,9 +27847,12 @@
       <c r="JU29" s="7">
         <v>11627</v>
       </c>
+      <c r="JV29" s="7">
+        <v>11119</v>
+      </c>
     </row>
-    <row r="30" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
+    <row r="30" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="41"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -28614,9 +28693,12 @@
       <c r="JU30" s="7">
         <v>27480</v>
       </c>
+      <c r="JV30" s="7">
+        <v>27445</v>
+      </c>
     </row>
-    <row r="31" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
+    <row r="31" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A31" s="41"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -29457,9 +29539,12 @@
       <c r="JU31" s="7">
         <v>107374</v>
       </c>
+      <c r="JV31" s="7">
+        <v>107348</v>
+      </c>
     </row>
-    <row r="32" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A32" s="41"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -30300,9 +30385,12 @@
       <c r="JU32" s="7">
         <v>27268</v>
       </c>
+      <c r="JV32" s="7">
+        <v>27449</v>
+      </c>
     </row>
-    <row r="33" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
+    <row r="33" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A33" s="41"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -31143,9 +31231,12 @@
       <c r="JU33" s="7">
         <v>10082</v>
       </c>
+      <c r="JV33" s="7">
+        <v>10009</v>
+      </c>
     </row>
-    <row r="34" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+    <row r="34" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A34" s="41"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31986,9 +32077,12 @@
       <c r="JU34" s="7">
         <v>44759</v>
       </c>
+      <c r="JV34" s="7">
+        <v>44833</v>
+      </c>
     </row>
-    <row r="35" spans="1:915" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
+    <row r="35" spans="1:916" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -32829,9 +32923,12 @@
       <c r="JU35" s="7">
         <v>11436</v>
       </c>
+      <c r="JV35" s="7">
+        <v>11376</v>
+      </c>
     </row>
-    <row r="36" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
+    <row r="36" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="41"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -33672,9 +33769,12 @@
       <c r="JU36" s="7">
         <v>53625</v>
       </c>
+      <c r="JV36" s="7">
+        <v>53836</v>
+      </c>
     </row>
-    <row r="37" spans="1:915" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
+    <row r="37" spans="1:916" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="41"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -34515,9 +34615,12 @@
       <c r="JU37" s="7">
         <v>78868</v>
       </c>
+      <c r="JV37" s="7">
+        <v>78474</v>
+      </c>
     </row>
-    <row r="38" spans="1:915" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
+    <row r="38" spans="1:916" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -35358,9 +35461,12 @@
       <c r="JU38" s="7">
         <v>21431</v>
       </c>
+      <c r="JV38" s="7">
+        <v>21296</v>
+      </c>
     </row>
-    <row r="39" spans="1:915" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
+    <row r="39" spans="1:916" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="41"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -36201,9 +36307,12 @@
       <c r="JU39" s="7">
         <v>24288</v>
       </c>
+      <c r="JV39" s="7">
+        <v>24137</v>
+      </c>
     </row>
-    <row r="40" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
+    <row r="40" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A40" s="41"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -37044,9 +37153,12 @@
       <c r="JU40" s="7">
         <v>12297</v>
       </c>
+      <c r="JV40" s="7">
+        <v>12387</v>
+      </c>
     </row>
-    <row r="41" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
+    <row r="41" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A41" s="41"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -37887,9 +37999,12 @@
       <c r="JU41" s="7">
         <v>10912</v>
       </c>
+      <c r="JV41" s="7">
+        <v>10765</v>
+      </c>
     </row>
-    <row r="42" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
+    <row r="42" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A42" s="41"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -38730,9 +38845,12 @@
       <c r="JU42" s="7">
         <v>44845</v>
       </c>
+      <c r="JV42" s="7">
+        <v>44874</v>
+      </c>
     </row>
-    <row r="43" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
+    <row r="43" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A43" s="41"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -39573,9 +39691,12 @@
       <c r="JU43" s="7">
         <v>4702</v>
       </c>
+      <c r="JV43" s="7">
+        <v>4694</v>
+      </c>
     </row>
-    <row r="44" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
+    <row r="44" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="41"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -40416,9 +40537,12 @@
       <c r="JU44" s="7">
         <v>5762</v>
       </c>
+      <c r="JV44" s="7">
+        <v>44833</v>
+      </c>
     </row>
-    <row r="45" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
+    <row r="45" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A45" s="41"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -41259,9 +41383,12 @@
       <c r="JU45" s="7">
         <v>7330</v>
       </c>
+      <c r="JV45" s="7">
+        <v>7126</v>
+      </c>
     </row>
-    <row r="46" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
+    <row r="46" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A46" s="41"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -42102,9 +42229,12 @@
       <c r="JU46" s="7">
         <v>13526</v>
       </c>
+      <c r="JV46" s="7">
+        <v>13631</v>
+      </c>
     </row>
-    <row r="47" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
+    <row r="47" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="41"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -42945,9 +43075,12 @@
       <c r="JU47" s="7">
         <v>1418</v>
       </c>
+      <c r="JV47" s="7">
+        <v>1425</v>
+      </c>
     </row>
-    <row r="48" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
+    <row r="48" spans="1:916" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -43804,7 +43937,9 @@
       <c r="JU48" s="10">
         <v>519869</v>
       </c>
-      <c r="JV48" s="29"/>
+      <c r="JV48" s="10">
+        <v>518782</v>
+      </c>
       <c r="JW48" s="29"/>
       <c r="JX48" s="29"/>
       <c r="JY48" s="29"/>
@@ -44257,7 +44392,7 @@
       <c r="ABD48" s="29"/>
       <c r="ABE48" s="29"/>
       <c r="ABF48" s="29"/>
-      <c r="ABG48" s="5"/>
+      <c r="ABG48" s="29"/>
       <c r="ABH48" s="5"/>
       <c r="ABI48" s="5"/>
       <c r="ABJ48" s="5"/>
@@ -44438,9 +44573,10 @@
       <c r="AIC48" s="5"/>
       <c r="AID48" s="5"/>
       <c r="AIE48" s="5"/>
+      <c r="AIF48" s="5"/>
     </row>
-    <row r="49" spans="1:281" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -45283,9 +45419,12 @@
       <c r="JU49" s="8">
         <v>14</v>
       </c>
+      <c r="JV49" s="8">
+        <v>14</v>
+      </c>
     </row>
-    <row r="50" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
+    <row r="50" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A50" s="41"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -46126,9 +46265,12 @@
       <c r="JU50" s="8">
         <v>68</v>
       </c>
+      <c r="JV50" s="8">
+        <v>73</v>
+      </c>
     </row>
-    <row r="51" spans="1:281" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
+    <row r="51" spans="1:282" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -46969,9 +47111,12 @@
       <c r="JU51" s="7">
         <v>1516</v>
       </c>
+      <c r="JV51" s="7">
+        <v>1522</v>
+      </c>
     </row>
-    <row r="52" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A52" s="41"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -47812,9 +47957,12 @@
       <c r="JU52" s="7">
         <v>878</v>
       </c>
+      <c r="JV52" s="7">
+        <v>936</v>
+      </c>
     </row>
-    <row r="53" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
+    <row r="53" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A53" s="41"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -48671,9 +48819,12 @@
       <c r="JU53" s="10">
         <v>2476</v>
       </c>
+      <c r="JV53" s="10">
+        <v>2545</v>
+      </c>
     </row>
-    <row r="54" spans="1:281" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -49516,9 +49667,12 @@
       <c r="JU54" s="7">
         <v>5838</v>
       </c>
+      <c r="JV54" s="7">
+        <v>5785</v>
+      </c>
     </row>
-    <row r="55" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
+    <row r="55" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A55" s="41"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -50359,9 +50513,12 @@
       <c r="JU55" s="7">
         <v>55566</v>
       </c>
+      <c r="JV55" s="7">
+        <v>56092</v>
+      </c>
     </row>
-    <row r="56" spans="1:281" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
+    <row r="56" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="41"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -51202,9 +51359,12 @@
       <c r="JU56" s="7">
         <v>6938</v>
       </c>
+      <c r="JV56" s="7">
+        <v>6949</v>
+      </c>
     </row>
-    <row r="57" spans="1:281" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
+    <row r="57" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="41"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -52045,9 +52205,12 @@
       <c r="JU57" s="7">
         <v>192492</v>
       </c>
+      <c r="JV57" s="7">
+        <v>192955</v>
+      </c>
     </row>
-    <row r="58" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
+    <row r="58" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A58" s="41"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -52888,9 +53051,12 @@
       <c r="JU58" s="7">
         <v>35531</v>
       </c>
+      <c r="JV58" s="7">
+        <v>35543</v>
+      </c>
     </row>
-    <row r="59" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
+    <row r="59" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A59" s="41"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -53731,9 +53897,12 @@
       <c r="JU59" s="7">
         <v>7014</v>
       </c>
+      <c r="JV59" s="7">
+        <v>7092</v>
+      </c>
     </row>
-    <row r="60" spans="1:281" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
+    <row r="60" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="41"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -54574,9 +54743,12 @@
       <c r="JU60" s="7">
         <v>50591</v>
       </c>
+      <c r="JV60" s="7">
+        <v>49804</v>
+      </c>
     </row>
-    <row r="61" spans="1:281" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
+    <row r="61" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="41"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -55417,9 +55589,12 @@
       <c r="JU61" s="8">
         <v>148</v>
       </c>
+      <c r="JV61" s="8">
+        <v>145</v>
+      </c>
     </row>
-    <row r="62" spans="1:281" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
+    <row r="62" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="41"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -56260,9 +56435,12 @@
       <c r="JU62" s="7">
         <v>20521</v>
       </c>
+      <c r="JV62" s="7">
+        <v>20674</v>
+      </c>
     </row>
-    <row r="63" spans="1:281" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
+    <row r="63" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="41"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -57103,9 +57281,12 @@
       <c r="JU63" s="7">
         <v>34931</v>
       </c>
+      <c r="JV63" s="7">
+        <v>35129</v>
+      </c>
     </row>
-    <row r="64" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
+    <row r="64" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A64" s="41"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -57946,9 +58127,12 @@
       <c r="JU64" s="7">
         <v>50045</v>
       </c>
+      <c r="JV64" s="7">
+        <v>50560</v>
+      </c>
     </row>
-    <row r="65" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
+    <row r="65" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A65" s="41"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -58789,9 +58973,12 @@
       <c r="JU65" s="7">
         <v>170352</v>
       </c>
+      <c r="JV65" s="7">
+        <v>171056</v>
+      </c>
     </row>
-    <row r="66" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
+    <row r="66" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A66" s="41"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -59632,9 +59819,12 @@
       <c r="JU66" s="7">
         <v>20191</v>
       </c>
+      <c r="JV66" s="7">
+        <v>20818</v>
+      </c>
     </row>
-    <row r="67" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
+    <row r="67" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A67" s="41"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -60475,9 +60665,12 @@
       <c r="JU67" s="7">
         <v>6447</v>
       </c>
+      <c r="JV67" s="7">
+        <v>6543</v>
+      </c>
     </row>
-    <row r="68" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
+    <row r="68" spans="1:916" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="41"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -61334,7 +61527,9 @@
       <c r="JU68" s="10">
         <v>656605</v>
       </c>
-      <c r="JV68" s="29"/>
+      <c r="JV68" s="10">
+        <v>659145</v>
+      </c>
       <c r="JW68" s="29"/>
       <c r="JX68" s="29"/>
       <c r="JY68" s="29"/>
@@ -61787,7 +61982,7 @@
       <c r="ABD68" s="29"/>
       <c r="ABE68" s="29"/>
       <c r="ABF68" s="29"/>
-      <c r="ABG68" s="5"/>
+      <c r="ABG68" s="29"/>
       <c r="ABH68" s="5"/>
       <c r="ABI68" s="5"/>
       <c r="ABJ68" s="5"/>
@@ -61968,9 +62163,10 @@
       <c r="AIC68" s="5"/>
       <c r="AID68" s="5"/>
       <c r="AIE68" s="5"/>
+      <c r="AIF68" s="5"/>
     </row>
-    <row r="69" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A69" s="42" t="s">
+    <row r="69" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A69" s="41" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -62813,9 +63009,12 @@
       <c r="JU69" s="7">
         <v>9710</v>
       </c>
+      <c r="JV69" s="7">
+        <v>9671</v>
+      </c>
     </row>
-    <row r="70" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
+    <row r="70" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A70" s="41"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -63656,9 +63855,12 @@
       <c r="JU70" s="7">
         <v>884</v>
       </c>
+      <c r="JV70" s="7">
+        <v>909</v>
+      </c>
     </row>
-    <row r="71" spans="1:915" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
+    <row r="71" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="41"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -64499,9 +64701,12 @@
       <c r="JU71" s="7">
         <v>34199</v>
       </c>
+      <c r="JV71" s="7">
+        <v>34349</v>
+      </c>
     </row>
-    <row r="72" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
+    <row r="72" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A72" s="41"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -65342,9 +65547,12 @@
       <c r="JU72" s="7">
         <v>4735</v>
       </c>
+      <c r="JV72" s="7">
+        <v>4761</v>
+      </c>
     </row>
-    <row r="73" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
+    <row r="73" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A73" s="41"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -66185,9 +66393,12 @@
       <c r="JU73" s="8">
         <v>763</v>
       </c>
+      <c r="JV73" s="8">
+        <v>719</v>
+      </c>
     </row>
-    <row r="74" spans="1:915" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
+    <row r="74" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A74" s="41"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -67028,9 +67239,12 @@
       <c r="JU74" s="7">
         <v>54701</v>
       </c>
+      <c r="JV74" s="7">
+        <v>54804</v>
+      </c>
     </row>
-    <row r="75" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
+    <row r="75" spans="1:916" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="41"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -67887,7 +68101,9 @@
       <c r="JU75" s="10">
         <v>104992</v>
       </c>
-      <c r="JV75" s="29"/>
+      <c r="JV75" s="10">
+        <v>105213</v>
+      </c>
       <c r="JW75" s="29"/>
       <c r="JX75" s="29"/>
       <c r="JY75" s="29"/>
@@ -68340,7 +68556,7 @@
       <c r="ABD75" s="29"/>
       <c r="ABE75" s="29"/>
       <c r="ABF75" s="29"/>
-      <c r="ABG75" s="5"/>
+      <c r="ABG75" s="29"/>
       <c r="ABH75" s="5"/>
       <c r="ABI75" s="5"/>
       <c r="ABJ75" s="5"/>
@@ -68521,8 +68737,9 @@
       <c r="AIC75" s="5"/>
       <c r="AID75" s="5"/>
       <c r="AIE75" s="5"/>
+      <c r="AIF75" s="5"/>
     </row>
-    <row r="76" spans="1:915" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:916" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -69383,8 +69600,12 @@
         <f>JU11+JU21+JU24+JU27+JU48+JU53+JU68+JU75</f>
         <v>1972715</v>
       </c>
+      <c r="JV76" s="19">
+        <f>JV11+JV21+JV24+JV27+JV48+JV53+JV68+JV75</f>
+        <v>1973202</v>
+      </c>
     </row>
-    <row r="77" spans="1:915" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:916" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -70114,15 +70335,34 @@
       <c r="ABD77" s="27"/>
       <c r="ABE77" s="27"/>
       <c r="ABF77" s="27"/>
+      <c r="ABG77" s="27"/>
     </row>
-    <row r="78" spans="1:915" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:916" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="JS4:JU4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="JS4:JV4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -70135,27 +70375,9 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
     <mergeCell ref="JG4:JR4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A91F2DD-CE63-4684-8319-54C2C9A11FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95345AB-EE3C-4DCE-A073-454E46DA07B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8520" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta_división_grupo" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ta_división_grupo!$A$4:$IL$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1116,7 +1127,7 @@
     <t>2023/Mayo</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>2023/Junio</t>
   </si>
 </sst>
 </file>
@@ -2197,304 +2208,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AIB78"/>
+  <dimension ref="A1:AIC78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JS4" sqref="JS4:JW4"/>
+      <pane xSplit="2" topLeftCell="JN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JY7" sqref="JY7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="188" max="188" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="197" max="197" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="209" max="209" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="221" max="221" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="224" max="224" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="233" max="233" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="236" max="236" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="245" max="245" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="248" max="249" width="10.85546875" style="3"/>
+    <col min="246" max="246" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="10.88671875" style="3"/>
     <col min="250" max="250" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="252" max="254" width="16.28515625" style="3" customWidth="1"/>
+    <col min="251" max="251" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="252" max="254" width="16.33203125" style="3" customWidth="1"/>
     <col min="255" max="255" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.140625" style="3" customWidth="1"/>
-    <col min="260" max="262" width="11.7109375" style="3" customWidth="1"/>
-    <col min="263" max="265" width="16.140625" style="3" customWidth="1"/>
-    <col min="266" max="266" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="10.109375" style="3" customWidth="1"/>
+    <col min="260" max="262" width="11.6640625" style="3" customWidth="1"/>
+    <col min="263" max="265" width="16.109375" style="3" customWidth="1"/>
+    <col min="266" max="266" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="268" max="269" width="11" style="3" customWidth="1"/>
-    <col min="270" max="270" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="12.7109375" style="3" customWidth="1"/>
-    <col min="272" max="272" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="12.7109375" style="3" customWidth="1"/>
-    <col min="274" max="274" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="275" max="278" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="14.28515625" style="3" customWidth="1"/>
-    <col min="280" max="281" width="13.85546875" style="3" customWidth="1"/>
-    <col min="282" max="283" width="13.7109375" style="3" customWidth="1"/>
-    <col min="284" max="16384" width="10.85546875" style="3"/>
+    <col min="270" max="270" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="12.6640625" style="3" customWidth="1"/>
+    <col min="272" max="272" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="12.6640625" style="3" customWidth="1"/>
+    <col min="274" max="274" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="285" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="JS3" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>313</v>
       </c>
@@ -2829,9 +2841,10 @@
       <c r="JT4" s="38"/>
       <c r="JU4" s="38"/>
       <c r="JV4" s="38"/>
-      <c r="JW4" s="39"/>
+      <c r="JW4" s="38"/>
+      <c r="JX4" s="39"/>
     </row>
-    <row r="5" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
@@ -3674,11 +3687,14 @@
       <c r="JV5" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="JW5" s="34" t="s">
+      <c r="JW5" s="33" t="s">
         <v>356</v>
       </c>
+      <c r="JX5" s="34" t="s">
+        <v>357</v>
+      </c>
     </row>
-    <row r="6" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>244</v>
       </c>
@@ -4525,11 +4541,14 @@
       <c r="JV6" s="23">
         <v>98363</v>
       </c>
-      <c r="JW6" s="5">
+      <c r="JW6" s="23">
         <v>95347</v>
       </c>
+      <c r="JX6" s="5">
+        <v>94157</v>
+      </c>
     </row>
-    <row r="7" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
       <c r="B7" s="4" t="s">
         <v>245</v>
@@ -5377,8 +5396,11 @@
       <c r="JW7" s="6">
         <v>48</v>
       </c>
+      <c r="JX7" s="6">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>246</v>
@@ -6226,8 +6248,11 @@
       <c r="JW8" s="5">
         <v>23967</v>
       </c>
+      <c r="JX8" s="5">
+        <v>23892</v>
+      </c>
     </row>
-    <row r="9" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
         <v>247</v>
@@ -7075,8 +7100,11 @@
       <c r="JW9" s="5">
         <v>252</v>
       </c>
+      <c r="JX9" s="5">
+        <v>252</v>
+      </c>
     </row>
-    <row r="10" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>248</v>
@@ -7924,8 +7952,11 @@
       <c r="JW10" s="6">
         <v>487</v>
       </c>
+      <c r="JX10" s="6">
+        <v>505</v>
+      </c>
     </row>
-    <row r="11" spans="1:912" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:913" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>244</v>
@@ -8789,7 +8820,9 @@
       <c r="JW11" s="8">
         <v>120101</v>
       </c>
-      <c r="JX11" s="1"/>
+      <c r="JX11" s="8">
+        <v>118854</v>
+      </c>
       <c r="JY11" s="1"/>
       <c r="JZ11" s="1"/>
       <c r="KA11" s="1"/>
@@ -9418,8 +9451,9 @@
       <c r="AHZ11" s="1"/>
       <c r="AIA11" s="1"/>
       <c r="AIB11" s="1"/>
+      <c r="AIC11" s="1"/>
     </row>
-    <row r="12" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>249</v>
       </c>
@@ -10269,8 +10303,11 @@
       <c r="JW12" s="5">
         <v>81592</v>
       </c>
+      <c r="JX12" s="5">
+        <v>82029</v>
+      </c>
     </row>
-    <row r="13" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="4" t="s">
         <v>251</v>
@@ -11118,8 +11155,11 @@
       <c r="JW13" s="5">
         <v>20217</v>
       </c>
+      <c r="JX13" s="5">
+        <v>20256</v>
+      </c>
     </row>
-    <row r="14" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="4" t="s">
         <v>252</v>
@@ -11967,8 +12007,11 @@
       <c r="JW14" s="5">
         <v>35688</v>
       </c>
+      <c r="JX14" s="5">
+        <v>36197</v>
+      </c>
     </row>
-    <row r="15" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="4" t="s">
         <v>253</v>
@@ -12816,8 +12859,11 @@
       <c r="JW15" s="5">
         <v>22678</v>
       </c>
+      <c r="JX15" s="5">
+        <v>22653</v>
+      </c>
     </row>
-    <row r="16" spans="1:912" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:913" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="4" t="s">
         <v>254</v>
@@ -13665,8 +13711,11 @@
       <c r="JW16" s="5">
         <v>14156</v>
       </c>
+      <c r="JX16" s="5">
+        <v>14083</v>
+      </c>
     </row>
-    <row r="17" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="4" t="s">
         <v>255</v>
@@ -14514,8 +14563,11 @@
       <c r="JW17" s="5">
         <v>50448</v>
       </c>
+      <c r="JX17" s="5">
+        <v>50616</v>
+      </c>
     </row>
-    <row r="18" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="4" t="s">
         <v>256</v>
@@ -15363,8 +15415,11 @@
       <c r="JW18" s="5">
         <v>62352</v>
       </c>
+      <c r="JX18" s="5">
+        <v>63108</v>
+      </c>
     </row>
-    <row r="19" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="4" t="s">
         <v>257</v>
@@ -16212,8 +16267,11 @@
       <c r="JW19" s="5">
         <v>70798</v>
       </c>
+      <c r="JX19" s="5">
+        <v>72337</v>
+      </c>
     </row>
-    <row r="20" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
         <v>258</v>
@@ -17061,8 +17119,11 @@
       <c r="JW20" s="5">
         <v>48032</v>
       </c>
+      <c r="JX20" s="5">
+        <v>47918</v>
+      </c>
     </row>
-    <row r="21" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
@@ -17926,7 +17987,9 @@
       <c r="JW21" s="8">
         <v>405961</v>
       </c>
-      <c r="JX21" s="1"/>
+      <c r="JX21" s="8">
+        <v>409197</v>
+      </c>
       <c r="JY21" s="1"/>
       <c r="JZ21" s="1"/>
       <c r="KA21" s="1"/>
@@ -18555,8 +18618,9 @@
       <c r="AHZ21" s="1"/>
       <c r="AIA21" s="1"/>
       <c r="AIB21" s="1"/>
+      <c r="AIC21" s="1"/>
     </row>
-    <row r="22" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>259</v>
       </c>
@@ -19406,8 +19470,11 @@
       <c r="JW22" s="5">
         <v>113226</v>
       </c>
+      <c r="JX22" s="5">
+        <v>114315</v>
+      </c>
     </row>
-    <row r="23" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
         <v>261</v>
@@ -20255,8 +20322,11 @@
       <c r="JW23" s="5">
         <v>37926</v>
       </c>
+      <c r="JX23" s="5">
+        <v>38534</v>
+      </c>
     </row>
-    <row r="24" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37"/>
       <c r="B24" s="7" t="s">
         <v>259</v>
@@ -21120,7 +21190,9 @@
       <c r="JW24" s="8">
         <v>151152</v>
       </c>
-      <c r="JX24" s="1"/>
+      <c r="JX24" s="8">
+        <v>152849</v>
+      </c>
       <c r="JY24" s="1"/>
       <c r="JZ24" s="1"/>
       <c r="KA24" s="1"/>
@@ -21749,8 +21821,9 @@
       <c r="AHZ24" s="1"/>
       <c r="AIA24" s="1"/>
       <c r="AIB24" s="1"/>
+      <c r="AIC24" s="1"/>
     </row>
-    <row r="25" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>262</v>
       </c>
@@ -22600,8 +22673,11 @@
       <c r="JW25" s="5">
         <v>4461</v>
       </c>
+      <c r="JX25" s="5">
+        <v>4496</v>
+      </c>
     </row>
-    <row r="26" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="37"/>
       <c r="B26" s="4" t="s">
         <v>264</v>
@@ -23449,8 +23525,11 @@
       <c r="JW26" s="5">
         <v>5559</v>
       </c>
+      <c r="JX26" s="5">
+        <v>5564</v>
+      </c>
     </row>
-    <row r="27" spans="1:912" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:913" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
       <c r="B27" s="7" t="s">
         <v>262</v>
@@ -24314,7 +24393,9 @@
       <c r="JW27" s="8">
         <v>10020</v>
       </c>
-      <c r="JX27" s="1"/>
+      <c r="JX27" s="8">
+        <v>10060</v>
+      </c>
       <c r="JY27" s="1"/>
       <c r="JZ27" s="1"/>
       <c r="KA27" s="1"/>
@@ -24943,8 +25024,9 @@
       <c r="AHZ27" s="1"/>
       <c r="AIA27" s="1"/>
       <c r="AIB27" s="1"/>
+      <c r="AIC27" s="1"/>
     </row>
-    <row r="28" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>265</v>
       </c>
@@ -25794,8 +25876,11 @@
       <c r="JW28" s="5">
         <v>841</v>
       </c>
+      <c r="JX28" s="5">
+        <v>842</v>
+      </c>
     </row>
-    <row r="29" spans="1:912" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="4" t="s">
         <v>267</v>
@@ -26643,8 +26728,11 @@
       <c r="JW29" s="5">
         <v>11110</v>
       </c>
+      <c r="JX29" s="5">
+        <v>10921</v>
+      </c>
     </row>
-    <row r="30" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
       <c r="B30" s="4" t="s">
         <v>268</v>
@@ -27492,8 +27580,11 @@
       <c r="JW30" s="5">
         <v>27780</v>
       </c>
+      <c r="JX30" s="5">
+        <v>27785</v>
+      </c>
     </row>
-    <row r="31" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
       <c r="B31" s="4" t="s">
         <v>269</v>
@@ -28341,8 +28432,11 @@
       <c r="JW31" s="5">
         <v>107153</v>
       </c>
+      <c r="JX31" s="5">
+        <v>107083</v>
+      </c>
     </row>
-    <row r="32" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
       <c r="B32" s="4" t="s">
         <v>270</v>
@@ -29190,8 +29284,11 @@
       <c r="JW32" s="5">
         <v>27612</v>
       </c>
+      <c r="JX32" s="5">
+        <v>27469</v>
+      </c>
     </row>
-    <row r="33" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="B33" s="4" t="s">
         <v>271</v>
@@ -30039,8 +30136,11 @@
       <c r="JW33" s="5">
         <v>9931</v>
       </c>
+      <c r="JX33" s="5">
+        <v>9791</v>
+      </c>
     </row>
-    <row r="34" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="4" t="s">
         <v>272</v>
@@ -30888,8 +30988,11 @@
       <c r="JW34" s="5">
         <v>44991</v>
       </c>
+      <c r="JX34" s="5">
+        <v>45083</v>
+      </c>
     </row>
-    <row r="35" spans="1:912" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:913" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
       <c r="B35" s="4" t="s">
         <v>273</v>
@@ -31737,8 +31840,11 @@
       <c r="JW35" s="5">
         <v>11473</v>
       </c>
+      <c r="JX35" s="5">
+        <v>11295</v>
+      </c>
     </row>
-    <row r="36" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="37"/>
       <c r="B36" s="4" t="s">
         <v>274</v>
@@ -32586,8 +32692,11 @@
       <c r="JW36" s="5">
         <v>53467</v>
       </c>
+      <c r="JX36" s="5">
+        <v>53338</v>
+      </c>
     </row>
-    <row r="37" spans="1:912" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
       <c r="B37" s="4" t="s">
         <v>275</v>
@@ -33435,8 +33544,11 @@
       <c r="JW37" s="5">
         <v>78076</v>
       </c>
+      <c r="JX37" s="5">
+        <v>78229</v>
+      </c>
     </row>
-    <row r="38" spans="1:912" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
       <c r="B38" s="4" t="s">
         <v>276</v>
@@ -34284,8 +34396,11 @@
       <c r="JW38" s="5">
         <v>21173</v>
       </c>
+      <c r="JX38" s="5">
+        <v>21259</v>
+      </c>
     </row>
-    <row r="39" spans="1:912" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="4" t="s">
         <v>277</v>
@@ -35133,8 +35248,11 @@
       <c r="JW39" s="5">
         <v>24037</v>
       </c>
+      <c r="JX39" s="5">
+        <v>24157</v>
+      </c>
     </row>
-    <row r="40" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A40" s="37"/>
       <c r="B40" s="4" t="s">
         <v>278</v>
@@ -35982,8 +36100,11 @@
       <c r="JW40" s="5">
         <v>12540</v>
       </c>
+      <c r="JX40" s="5">
+        <v>12650</v>
+      </c>
     </row>
-    <row r="41" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A41" s="37"/>
       <c r="B41" s="4" t="s">
         <v>279</v>
@@ -36831,8 +36952,11 @@
       <c r="JW41" s="5">
         <v>10753</v>
       </c>
+      <c r="JX41" s="5">
+        <v>11239</v>
+      </c>
     </row>
-    <row r="42" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A42" s="37"/>
       <c r="B42" s="4" t="s">
         <v>280</v>
@@ -37680,8 +37804,11 @@
       <c r="JW42" s="5">
         <v>45223</v>
       </c>
+      <c r="JX42" s="5">
+        <v>45517</v>
+      </c>
     </row>
-    <row r="43" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
       <c r="B43" s="4" t="s">
         <v>281</v>
@@ -38529,8 +38656,11 @@
       <c r="JW43" s="5">
         <v>4774</v>
       </c>
+      <c r="JX43" s="5">
+        <v>4799</v>
+      </c>
     </row>
-    <row r="44" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
       <c r="B44" s="4" t="s">
         <v>282</v>
@@ -39378,8 +39508,11 @@
       <c r="JW44" s="5">
         <v>5698</v>
       </c>
+      <c r="JX44" s="5">
+        <v>5672</v>
+      </c>
     </row>
-    <row r="45" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A45" s="37"/>
       <c r="B45" s="4" t="s">
         <v>283</v>
@@ -40227,8 +40360,11 @@
       <c r="JW45" s="5">
         <v>7422</v>
       </c>
+      <c r="JX45" s="5">
+        <v>7359</v>
+      </c>
     </row>
-    <row r="46" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A46" s="37"/>
       <c r="B46" s="4" t="s">
         <v>284</v>
@@ -41076,8 +41212,11 @@
       <c r="JW46" s="5">
         <v>13860</v>
       </c>
+      <c r="JX46" s="5">
+        <v>14252</v>
+      </c>
     </row>
-    <row r="47" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="37"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
@@ -41925,8 +42064,11 @@
       <c r="JW47" s="5">
         <v>1434</v>
       </c>
+      <c r="JX47" s="5">
+        <v>1466</v>
+      </c>
     </row>
-    <row r="48" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37"/>
       <c r="B48" s="7" t="s">
         <v>265</v>
@@ -42790,7 +42932,9 @@
       <c r="JW48" s="8">
         <v>519348</v>
       </c>
-      <c r="JX48" s="1"/>
+      <c r="JX48" s="8">
+        <v>520206</v>
+      </c>
       <c r="JY48" s="1"/>
       <c r="JZ48" s="1"/>
       <c r="KA48" s="1"/>
@@ -43419,8 +43563,9 @@
       <c r="AHZ48" s="1"/>
       <c r="AIA48" s="1"/>
       <c r="AIB48" s="1"/>
+      <c r="AIC48" s="1"/>
     </row>
-    <row r="49" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>286</v>
       </c>
@@ -44270,8 +44415,11 @@
       <c r="JW49" s="6">
         <v>16</v>
       </c>
+      <c r="JX49" s="6">
+        <v>17</v>
+      </c>
     </row>
-    <row r="50" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A50" s="37"/>
       <c r="B50" s="4" t="s">
         <v>288</v>
@@ -45119,8 +45267,11 @@
       <c r="JW50" s="6">
         <v>88</v>
       </c>
+      <c r="JX50" s="6">
+        <v>98</v>
+      </c>
     </row>
-    <row r="51" spans="1:283" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:284" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="37"/>
       <c r="B51" s="4" t="s">
         <v>289</v>
@@ -45968,8 +46119,11 @@
       <c r="JW51" s="5">
         <v>1508</v>
       </c>
+      <c r="JX51" s="5">
+        <v>1561</v>
+      </c>
     </row>
-    <row r="52" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A52" s="37"/>
       <c r="B52" s="4" t="s">
         <v>290</v>
@@ -46817,8 +46971,11 @@
       <c r="JW52" s="5">
         <v>926</v>
       </c>
+      <c r="JX52" s="5">
+        <v>917</v>
+      </c>
     </row>
-    <row r="53" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A53" s="37"/>
       <c r="B53" s="7" t="s">
         <v>286</v>
@@ -47682,8 +47839,11 @@
       <c r="JW53" s="8">
         <v>2538</v>
       </c>
+      <c r="JX53" s="8">
+        <v>2593</v>
+      </c>
     </row>
-    <row r="54" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
         <v>291</v>
       </c>
@@ -48533,8 +48693,11 @@
       <c r="JW54" s="5">
         <v>5697</v>
       </c>
+      <c r="JX54" s="5">
+        <v>5674</v>
+      </c>
     </row>
-    <row r="55" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A55" s="37"/>
       <c r="B55" s="4" t="s">
         <v>293</v>
@@ -49382,8 +49545,11 @@
       <c r="JW55" s="5">
         <v>56469</v>
       </c>
+      <c r="JX55" s="5">
+        <v>57254</v>
+      </c>
     </row>
-    <row r="56" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="37"/>
       <c r="B56" s="4" t="s">
         <v>294</v>
@@ -50231,8 +50397,11 @@
       <c r="JW56" s="5">
         <v>6921</v>
       </c>
+      <c r="JX56" s="5">
+        <v>6994</v>
+      </c>
     </row>
-    <row r="57" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="37"/>
       <c r="B57" s="4" t="s">
         <v>295</v>
@@ -51080,8 +51249,11 @@
       <c r="JW57" s="5">
         <v>193242</v>
       </c>
+      <c r="JX57" s="5">
+        <v>193323</v>
+      </c>
     </row>
-    <row r="58" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A58" s="37"/>
       <c r="B58" s="4" t="s">
         <v>296</v>
@@ -51929,8 +52101,11 @@
       <c r="JW58" s="5">
         <v>35674</v>
       </c>
+      <c r="JX58" s="5">
+        <v>35934</v>
+      </c>
     </row>
-    <row r="59" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A59" s="37"/>
       <c r="B59" s="4" t="s">
         <v>297</v>
@@ -52778,8 +52953,11 @@
       <c r="JW59" s="5">
         <v>7120</v>
       </c>
+      <c r="JX59" s="5">
+        <v>7040</v>
+      </c>
     </row>
-    <row r="60" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="37"/>
       <c r="B60" s="4" t="s">
         <v>298</v>
@@ -53627,8 +53805,11 @@
       <c r="JW60" s="5">
         <v>49424</v>
       </c>
+      <c r="JX60" s="5">
+        <v>49011</v>
+      </c>
     </row>
-    <row r="61" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="37"/>
       <c r="B61" s="4" t="s">
         <v>299</v>
@@ -54476,8 +54657,11 @@
       <c r="JW61" s="6">
         <v>148</v>
       </c>
+      <c r="JX61" s="6">
+        <v>149</v>
+      </c>
     </row>
-    <row r="62" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="37"/>
       <c r="B62" s="4" t="s">
         <v>300</v>
@@ -55325,8 +55509,11 @@
       <c r="JW62" s="5">
         <v>20842</v>
       </c>
+      <c r="JX62" s="5">
+        <v>20962</v>
+      </c>
     </row>
-    <row r="63" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="37"/>
       <c r="B63" s="4" t="s">
         <v>301</v>
@@ -56174,8 +56361,11 @@
       <c r="JW63" s="5">
         <v>35412</v>
       </c>
+      <c r="JX63" s="5">
+        <v>35547</v>
+      </c>
     </row>
-    <row r="64" spans="1:283" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A64" s="37"/>
       <c r="B64" s="4" t="s">
         <v>302</v>
@@ -57023,8 +57213,11 @@
       <c r="JW64" s="5">
         <v>51259</v>
       </c>
+      <c r="JX64" s="5">
+        <v>50918</v>
+      </c>
     </row>
-    <row r="65" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A65" s="37"/>
       <c r="B65" s="4" t="s">
         <v>303</v>
@@ -57872,8 +58065,11 @@
       <c r="JW65" s="5">
         <v>169986</v>
       </c>
+      <c r="JX65" s="5">
+        <v>170079</v>
+      </c>
     </row>
-    <row r="66" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A66" s="37"/>
       <c r="B66" s="4" t="s">
         <v>304</v>
@@ -58721,8 +58917,11 @@
       <c r="JW66" s="5">
         <v>20873</v>
       </c>
+      <c r="JX66" s="5">
+        <v>21063</v>
+      </c>
     </row>
-    <row r="67" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A67" s="37"/>
       <c r="B67" s="4" t="s">
         <v>305</v>
@@ -59570,8 +59769,11 @@
       <c r="JW67" s="5">
         <v>6626</v>
       </c>
+      <c r="JX67" s="5">
+        <v>6680</v>
+      </c>
     </row>
-    <row r="68" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="37"/>
       <c r="B68" s="7" t="s">
         <v>291</v>
@@ -60435,7 +60637,9 @@
       <c r="JW68" s="8">
         <v>659693</v>
       </c>
-      <c r="JX68" s="1"/>
+      <c r="JX68" s="8">
+        <v>660628</v>
+      </c>
       <c r="JY68" s="1"/>
       <c r="JZ68" s="1"/>
       <c r="KA68" s="1"/>
@@ -61064,8 +61268,9 @@
       <c r="AHZ68" s="1"/>
       <c r="AIA68" s="1"/>
       <c r="AIB68" s="1"/>
+      <c r="AIC68" s="1"/>
     </row>
-    <row r="69" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A69" s="37" t="s">
         <v>306</v>
       </c>
@@ -61915,8 +62120,11 @@
       <c r="JW69" s="5">
         <v>9618</v>
       </c>
+      <c r="JX69" s="5">
+        <v>9785</v>
+      </c>
     </row>
-    <row r="70" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A70" s="37"/>
       <c r="B70" s="4" t="s">
         <v>308</v>
@@ -62764,8 +62972,11 @@
       <c r="JW70" s="5">
         <v>948</v>
       </c>
+      <c r="JX70" s="5">
+        <v>981</v>
+      </c>
     </row>
-    <row r="71" spans="1:912" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="37"/>
       <c r="B71" s="4" t="s">
         <v>309</v>
@@ -63613,8 +63824,11 @@
       <c r="JW71" s="5">
         <v>34961</v>
       </c>
+      <c r="JX71" s="5">
+        <v>34962</v>
+      </c>
     </row>
-    <row r="72" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A72" s="37"/>
       <c r="B72" s="4" t="s">
         <v>310</v>
@@ -64462,8 +64676,11 @@
       <c r="JW72" s="5">
         <v>4796</v>
       </c>
+      <c r="JX72" s="5">
+        <v>4829</v>
+      </c>
     </row>
-    <row r="73" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A73" s="37"/>
       <c r="B73" s="4" t="s">
         <v>311</v>
@@ -65311,8 +65528,11 @@
       <c r="JW73" s="6">
         <v>759</v>
       </c>
+      <c r="JX73" s="6">
+        <v>789</v>
+      </c>
     </row>
-    <row r="74" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A74" s="37"/>
       <c r="B74" s="4" t="s">
         <v>312</v>
@@ -66160,8 +66380,11 @@
       <c r="JW74" s="5">
         <v>54670</v>
       </c>
+      <c r="JX74" s="5">
+        <v>55057</v>
+      </c>
     </row>
-    <row r="75" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37"/>
       <c r="B75" s="7" t="s">
         <v>306</v>
@@ -67025,7 +67248,9 @@
       <c r="JW75" s="8">
         <v>105752</v>
       </c>
-      <c r="JX75" s="1"/>
+      <c r="JX75" s="8">
+        <v>106403</v>
+      </c>
       <c r="JY75" s="1"/>
       <c r="JZ75" s="1"/>
       <c r="KA75" s="1"/>
@@ -67654,8 +67879,9 @@
       <c r="AHZ75" s="1"/>
       <c r="AIA75" s="1"/>
       <c r="AIB75" s="1"/>
+      <c r="AIC75" s="1"/>
     </row>
-    <row r="76" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
@@ -68521,11 +68747,13 @@
         <v>1973202</v>
       </c>
       <c r="JW76" s="31">
-        <f>JW11+JW21+JW24+JW27+JW48+JW53+JW68+JW75</f>
         <v>1974565</v>
       </c>
+      <c r="JX76" s="31">
+        <v>1980790</v>
+      </c>
     </row>
-    <row r="77" spans="1:912" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:913" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -69252,15 +69480,16 @@
       <c r="ABA77" s="25"/>
       <c r="ABB77" s="25"/>
       <c r="ABC77" s="25"/>
+      <c r="ABD77" s="25"/>
     </row>
-    <row r="78" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="JS4:JW4"/>
+    <mergeCell ref="JS4:JX4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95345AB-EE3C-4DCE-A073-454E46DA07B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43CD4BE-F4C2-4FC6-966E-C2D039806A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="359">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1129,6 +1129,9 @@
   <si>
     <t>2023/Junio</t>
   </si>
+  <si>
+    <t>2023/Julio</t>
+  </si>
 </sst>
 </file>
 
@@ -1831,19 +1834,19 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2208,11 +2211,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AIC78"/>
+  <dimension ref="A1:AIB78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="JN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JY7" sqref="JY7"/>
+      <selection pane="topRight" activeCell="KC14" sqref="KC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2492,360 +2495,362 @@
     <col min="281" max="281" width="11.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="282" max="282" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="283" max="283" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="285" max="16384" width="10.88671875" style="3"/>
+    <col min="284" max="284" width="10.77734375" style="3" customWidth="1"/>
+    <col min="285" max="285" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="286" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:913" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:912" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:913" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:912" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="35"/>
-      <c r="CM4" s="35"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="35"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="35">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="35"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="35"/>
-      <c r="CY4" s="35"/>
-      <c r="CZ4" s="35"/>
-      <c r="DA4" s="35"/>
-      <c r="DB4" s="35"/>
-      <c r="DC4" s="35"/>
-      <c r="DD4" s="35"/>
-      <c r="DE4" s="35"/>
-      <c r="DF4" s="35"/>
-      <c r="DG4" s="35">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="35"/>
-      <c r="DI4" s="35"/>
-      <c r="DJ4" s="35"/>
-      <c r="DK4" s="35"/>
-      <c r="DL4" s="35"/>
-      <c r="DM4" s="35"/>
-      <c r="DN4" s="35"/>
-      <c r="DO4" s="35"/>
-      <c r="DP4" s="35"/>
-      <c r="DQ4" s="35"/>
-      <c r="DR4" s="35"/>
-      <c r="DS4" s="35">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="35"/>
-      <c r="DU4" s="35"/>
-      <c r="DV4" s="35"/>
-      <c r="DW4" s="35"/>
-      <c r="DX4" s="35"/>
-      <c r="DY4" s="35"/>
-      <c r="DZ4" s="35"/>
-      <c r="EA4" s="35"/>
-      <c r="EB4" s="35"/>
-      <c r="EC4" s="35"/>
-      <c r="ED4" s="35"/>
-      <c r="EE4" s="35">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="35"/>
-      <c r="EG4" s="35"/>
-      <c r="EH4" s="35"/>
-      <c r="EI4" s="35"/>
-      <c r="EJ4" s="35"/>
-      <c r="EK4" s="35"/>
-      <c r="EL4" s="35"/>
-      <c r="EM4" s="35"/>
-      <c r="EN4" s="35"/>
-      <c r="EO4" s="35"/>
-      <c r="EP4" s="35"/>
-      <c r="EQ4" s="35">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="35"/>
-      <c r="ES4" s="35"/>
-      <c r="ET4" s="35"/>
-      <c r="EU4" s="35"/>
-      <c r="EV4" s="35"/>
-      <c r="EW4" s="35"/>
-      <c r="EX4" s="35"/>
-      <c r="EY4" s="35"/>
-      <c r="EZ4" s="35"/>
-      <c r="FA4" s="35"/>
-      <c r="FB4" s="35"/>
-      <c r="FC4" s="35">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="35"/>
-      <c r="FE4" s="35"/>
-      <c r="FF4" s="35"/>
-      <c r="FG4" s="35"/>
-      <c r="FH4" s="35"/>
-      <c r="FI4" s="35"/>
-      <c r="FJ4" s="35"/>
-      <c r="FK4" s="35"/>
-      <c r="FL4" s="35"/>
-      <c r="FM4" s="35"/>
-      <c r="FN4" s="35"/>
-      <c r="FO4" s="35">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="35"/>
-      <c r="FQ4" s="35"/>
-      <c r="FR4" s="35"/>
-      <c r="FS4" s="35"/>
-      <c r="FT4" s="35"/>
-      <c r="FU4" s="35"/>
-      <c r="FV4" s="35"/>
-      <c r="FW4" s="35"/>
-      <c r="FX4" s="35"/>
-      <c r="FY4" s="35"/>
-      <c r="FZ4" s="35"/>
-      <c r="GA4" s="35">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="35"/>
-      <c r="GC4" s="35"/>
-      <c r="GD4" s="35"/>
-      <c r="GE4" s="35"/>
-      <c r="GF4" s="35"/>
-      <c r="GG4" s="35"/>
-      <c r="GH4" s="35"/>
-      <c r="GI4" s="35"/>
-      <c r="GJ4" s="35"/>
-      <c r="GK4" s="35"/>
-      <c r="GL4" s="35"/>
-      <c r="GM4" s="35">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="35"/>
-      <c r="GO4" s="35"/>
-      <c r="GP4" s="35"/>
-      <c r="GQ4" s="35"/>
-      <c r="GR4" s="35"/>
-      <c r="GS4" s="35"/>
-      <c r="GT4" s="35"/>
-      <c r="GU4" s="35"/>
-      <c r="GV4" s="35"/>
-      <c r="GW4" s="35"/>
-      <c r="GX4" s="35"/>
-      <c r="GY4" s="35">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="35"/>
-      <c r="HA4" s="35"/>
-      <c r="HB4" s="35"/>
-      <c r="HC4" s="35"/>
-      <c r="HD4" s="35"/>
-      <c r="HE4" s="35"/>
-      <c r="HF4" s="35"/>
-      <c r="HG4" s="35"/>
-      <c r="HH4" s="35"/>
-      <c r="HI4" s="35"/>
-      <c r="HJ4" s="35"/>
-      <c r="HK4" s="35">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="35"/>
-      <c r="HM4" s="35"/>
-      <c r="HN4" s="35"/>
-      <c r="HO4" s="35"/>
-      <c r="HP4" s="35"/>
-      <c r="HQ4" s="35"/>
-      <c r="HR4" s="35"/>
-      <c r="HS4" s="35"/>
-      <c r="HT4" s="35"/>
-      <c r="HU4" s="35"/>
-      <c r="HV4" s="35"/>
-      <c r="HW4" s="35">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="35"/>
-      <c r="HY4" s="35"/>
-      <c r="HZ4" s="35"/>
-      <c r="IA4" s="35"/>
-      <c r="IB4" s="35"/>
-      <c r="IC4" s="35"/>
-      <c r="ID4" s="35"/>
-      <c r="IE4" s="35"/>
-      <c r="IF4" s="35"/>
-      <c r="IG4" s="35"/>
-      <c r="IH4" s="36"/>
-      <c r="II4" s="36">
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="35"/>
+      <c r="II4" s="35">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="38"/>
-      <c r="IK4" s="38"/>
-      <c r="IL4" s="38"/>
-      <c r="IM4" s="38"/>
-      <c r="IN4" s="38"/>
-      <c r="IO4" s="38"/>
-      <c r="IP4" s="38"/>
-      <c r="IQ4" s="38"/>
-      <c r="IR4" s="38"/>
-      <c r="IS4" s="38"/>
-      <c r="IT4" s="39"/>
-      <c r="IU4" s="36">
+      <c r="IJ4" s="36"/>
+      <c r="IK4" s="36"/>
+      <c r="IL4" s="36"/>
+      <c r="IM4" s="36"/>
+      <c r="IN4" s="36"/>
+      <c r="IO4" s="36"/>
+      <c r="IP4" s="36"/>
+      <c r="IQ4" s="36"/>
+      <c r="IR4" s="36"/>
+      <c r="IS4" s="36"/>
+      <c r="IT4" s="37"/>
+      <c r="IU4" s="35">
         <v>2021</v>
       </c>
-      <c r="IV4" s="38"/>
-      <c r="IW4" s="38"/>
-      <c r="IX4" s="38"/>
-      <c r="IY4" s="38"/>
-      <c r="IZ4" s="38"/>
-      <c r="JA4" s="38"/>
-      <c r="JB4" s="38"/>
-      <c r="JC4" s="38"/>
-      <c r="JD4" s="38"/>
-      <c r="JE4" s="38"/>
-      <c r="JF4" s="39"/>
-      <c r="JG4" s="35">
+      <c r="IV4" s="36"/>
+      <c r="IW4" s="36"/>
+      <c r="IX4" s="36"/>
+      <c r="IY4" s="36"/>
+      <c r="IZ4" s="36"/>
+      <c r="JA4" s="36"/>
+      <c r="JB4" s="36"/>
+      <c r="JC4" s="36"/>
+      <c r="JD4" s="36"/>
+      <c r="JE4" s="36"/>
+      <c r="JF4" s="37"/>
+      <c r="JG4" s="39">
         <v>2022</v>
       </c>
-      <c r="JH4" s="35"/>
-      <c r="JI4" s="35"/>
-      <c r="JJ4" s="35"/>
-      <c r="JK4" s="35"/>
-      <c r="JL4" s="35"/>
-      <c r="JM4" s="35"/>
-      <c r="JN4" s="35"/>
-      <c r="JO4" s="35"/>
-      <c r="JP4" s="35"/>
-      <c r="JQ4" s="35"/>
-      <c r="JR4" s="35"/>
-      <c r="JS4" s="36">
+      <c r="JH4" s="39"/>
+      <c r="JI4" s="39"/>
+      <c r="JJ4" s="39"/>
+      <c r="JK4" s="39"/>
+      <c r="JL4" s="39"/>
+      <c r="JM4" s="39"/>
+      <c r="JN4" s="39"/>
+      <c r="JO4" s="39"/>
+      <c r="JP4" s="39"/>
+      <c r="JQ4" s="39"/>
+      <c r="JR4" s="39"/>
+      <c r="JS4" s="35">
         <v>2023</v>
       </c>
-      <c r="JT4" s="38"/>
-      <c r="JU4" s="38"/>
-      <c r="JV4" s="38"/>
-      <c r="JW4" s="38"/>
-      <c r="JX4" s="39"/>
+      <c r="JT4" s="36"/>
+      <c r="JU4" s="36"/>
+      <c r="JV4" s="36"/>
+      <c r="JW4" s="36"/>
+      <c r="JX4" s="36"/>
+      <c r="JY4" s="37"/>
     </row>
-    <row r="5" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
       <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -3690,12 +3695,15 @@
       <c r="JW5" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="JX5" s="34" t="s">
+      <c r="JX5" s="33" t="s">
         <v>357</v>
       </c>
+      <c r="JY5" s="34" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="6" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4544,12 +4552,15 @@
       <c r="JW6" s="23">
         <v>95347</v>
       </c>
-      <c r="JX6" s="5">
+      <c r="JX6" s="23">
         <v>94157</v>
       </c>
+      <c r="JY6" s="5">
+        <v>91508</v>
+      </c>
     </row>
-    <row r="7" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
       <c r="B7" s="4" t="s">
         <v>245</v>
       </c>
@@ -5399,9 +5410,12 @@
       <c r="JX7" s="6">
         <v>48</v>
       </c>
+      <c r="JY7" s="6">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
       <c r="B8" s="4" t="s">
         <v>246</v>
       </c>
@@ -6251,9 +6265,12 @@
       <c r="JX8" s="5">
         <v>23892</v>
       </c>
+      <c r="JY8" s="5">
+        <v>23944</v>
+      </c>
     </row>
-    <row r="9" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
       <c r="B9" s="4" t="s">
         <v>247</v>
       </c>
@@ -7103,9 +7120,12 @@
       <c r="JX9" s="5">
         <v>252</v>
       </c>
+      <c r="JY9" s="5">
+        <v>258</v>
+      </c>
     </row>
-    <row r="10" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
       <c r="B10" s="4" t="s">
         <v>248</v>
       </c>
@@ -7955,9 +7975,12 @@
       <c r="JX10" s="6">
         <v>505</v>
       </c>
+      <c r="JY10" s="6">
+        <v>505</v>
+      </c>
     </row>
-    <row r="11" spans="1:913" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:912" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
       <c r="B11" s="7" t="s">
         <v>244</v>
       </c>
@@ -8823,7 +8846,10 @@
       <c r="JX11" s="8">
         <v>118854</v>
       </c>
-      <c r="JY11" s="1"/>
+      <c r="JY11" s="8">
+        <f>SUM(JY6:JY10)</f>
+        <v>116264</v>
+      </c>
       <c r="JZ11" s="1"/>
       <c r="KA11" s="1"/>
       <c r="KB11" s="1"/>
@@ -9451,10 +9477,9 @@
       <c r="AHZ11" s="1"/>
       <c r="AIA11" s="1"/>
       <c r="AIB11" s="1"/>
-      <c r="AIC11" s="1"/>
     </row>
-    <row r="12" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10306,9 +10331,12 @@
       <c r="JX12" s="5">
         <v>82029</v>
       </c>
+      <c r="JY12" s="5">
+        <v>82689</v>
+      </c>
     </row>
-    <row r="13" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+    <row r="13" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
       <c r="B13" s="4" t="s">
         <v>251</v>
       </c>
@@ -11158,9 +11186,12 @@
       <c r="JX13" s="5">
         <v>20256</v>
       </c>
+      <c r="JY13" s="5">
+        <v>20458</v>
+      </c>
     </row>
-    <row r="14" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
       <c r="B14" s="4" t="s">
         <v>252</v>
       </c>
@@ -12010,9 +12041,12 @@
       <c r="JX14" s="5">
         <v>36197</v>
       </c>
+      <c r="JY14" s="5">
+        <v>36869</v>
+      </c>
     </row>
-    <row r="15" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
       <c r="B15" s="4" t="s">
         <v>253</v>
       </c>
@@ -12862,9 +12896,12 @@
       <c r="JX15" s="5">
         <v>22653</v>
       </c>
+      <c r="JY15" s="5">
+        <v>22810</v>
+      </c>
     </row>
-    <row r="16" spans="1:913" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+    <row r="16" spans="1:912" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
       <c r="B16" s="4" t="s">
         <v>254</v>
       </c>
@@ -13714,9 +13751,12 @@
       <c r="JX16" s="5">
         <v>14083</v>
       </c>
+      <c r="JY16" s="5">
+        <v>13899</v>
+      </c>
     </row>
-    <row r="17" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
       <c r="B17" s="4" t="s">
         <v>255</v>
       </c>
@@ -14566,9 +14606,12 @@
       <c r="JX17" s="5">
         <v>50616</v>
       </c>
+      <c r="JY17" s="5">
+        <v>51107</v>
+      </c>
     </row>
-    <row r="18" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
+    <row r="18" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
       <c r="B18" s="4" t="s">
         <v>256</v>
       </c>
@@ -15418,9 +15461,12 @@
       <c r="JX18" s="5">
         <v>63108</v>
       </c>
+      <c r="JY18" s="5">
+        <v>63042</v>
+      </c>
     </row>
-    <row r="19" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
       <c r="B19" s="4" t="s">
         <v>257</v>
       </c>
@@ -16270,9 +16316,12 @@
       <c r="JX19" s="5">
         <v>72337</v>
       </c>
+      <c r="JY19" s="5">
+        <v>72399</v>
+      </c>
     </row>
-    <row r="20" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
       <c r="B20" s="4" t="s">
         <v>258</v>
       </c>
@@ -17122,9 +17171,12 @@
       <c r="JX20" s="5">
         <v>47918</v>
       </c>
+      <c r="JY20" s="5">
+        <v>48355</v>
+      </c>
     </row>
-    <row r="21" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+    <row r="21" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
       </c>
@@ -17990,7 +18042,10 @@
       <c r="JX21" s="8">
         <v>409197</v>
       </c>
-      <c r="JY21" s="1"/>
+      <c r="JY21" s="8">
+        <f>SUM(JY12:JY20)</f>
+        <v>411628</v>
+      </c>
       <c r="JZ21" s="1"/>
       <c r="KA21" s="1"/>
       <c r="KB21" s="1"/>
@@ -18618,10 +18673,9 @@
       <c r="AHZ21" s="1"/>
       <c r="AIA21" s="1"/>
       <c r="AIB21" s="1"/>
-      <c r="AIC21" s="1"/>
     </row>
-    <row r="22" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -19473,9 +19527,12 @@
       <c r="JX22" s="5">
         <v>114315</v>
       </c>
+      <c r="JY22" s="5">
+        <v>114226</v>
+      </c>
     </row>
-    <row r="23" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
       <c r="B23" s="4" t="s">
         <v>261</v>
       </c>
@@ -20325,9 +20382,12 @@
       <c r="JX23" s="5">
         <v>38534</v>
       </c>
+      <c r="JY23" s="5">
+        <v>39029</v>
+      </c>
     </row>
-    <row r="24" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
       <c r="B24" s="7" t="s">
         <v>259</v>
       </c>
@@ -21193,7 +21253,10 @@
       <c r="JX24" s="8">
         <v>152849</v>
       </c>
-      <c r="JY24" s="1"/>
+      <c r="JY24" s="8">
+        <f>SUM(JY22:JY23)</f>
+        <v>153255</v>
+      </c>
       <c r="JZ24" s="1"/>
       <c r="KA24" s="1"/>
       <c r="KB24" s="1"/>
@@ -21821,10 +21884,9 @@
       <c r="AHZ24" s="1"/>
       <c r="AIA24" s="1"/>
       <c r="AIB24" s="1"/>
-      <c r="AIC24" s="1"/>
     </row>
-    <row r="25" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -22676,9 +22738,12 @@
       <c r="JX25" s="5">
         <v>4496</v>
       </c>
+      <c r="JY25" s="5">
+        <v>4475</v>
+      </c>
     </row>
-    <row r="26" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
       <c r="B26" s="4" t="s">
         <v>264</v>
       </c>
@@ -23528,9 +23593,12 @@
       <c r="JX26" s="5">
         <v>5564</v>
       </c>
+      <c r="JY26" s="5">
+        <v>5613</v>
+      </c>
     </row>
-    <row r="27" spans="1:913" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:912" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
       <c r="B27" s="7" t="s">
         <v>262</v>
       </c>
@@ -24396,7 +24464,10 @@
       <c r="JX27" s="8">
         <v>10060</v>
       </c>
-      <c r="JY27" s="1"/>
+      <c r="JY27" s="8">
+        <f>SUM(JY25:JY26)</f>
+        <v>10088</v>
+      </c>
       <c r="JZ27" s="1"/>
       <c r="KA27" s="1"/>
       <c r="KB27" s="1"/>
@@ -25024,10 +25095,9 @@
       <c r="AHZ27" s="1"/>
       <c r="AIA27" s="1"/>
       <c r="AIB27" s="1"/>
-      <c r="AIC27" s="1"/>
     </row>
-    <row r="28" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -25879,9 +25949,12 @@
       <c r="JX28" s="5">
         <v>842</v>
       </c>
+      <c r="JY28" s="5">
+        <v>838</v>
+      </c>
     </row>
-    <row r="29" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+    <row r="29" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
       <c r="B29" s="4" t="s">
         <v>267</v>
       </c>
@@ -26731,9 +26804,12 @@
       <c r="JX29" s="5">
         <v>10921</v>
       </c>
+      <c r="JY29" s="5">
+        <v>10518</v>
+      </c>
     </row>
-    <row r="30" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+    <row r="30" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
       <c r="B30" s="4" t="s">
         <v>268</v>
       </c>
@@ -27583,9 +27659,12 @@
       <c r="JX30" s="5">
         <v>27785</v>
       </c>
+      <c r="JY30" s="5">
+        <v>27876</v>
+      </c>
     </row>
-    <row r="31" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
       <c r="B31" s="4" t="s">
         <v>269</v>
       </c>
@@ -28435,9 +28514,12 @@
       <c r="JX31" s="5">
         <v>107083</v>
       </c>
+      <c r="JY31" s="5">
+        <v>107611</v>
+      </c>
     </row>
-    <row r="32" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
       <c r="B32" s="4" t="s">
         <v>270</v>
       </c>
@@ -29287,9 +29369,12 @@
       <c r="JX32" s="5">
         <v>27469</v>
       </c>
+      <c r="JY32" s="5">
+        <v>27654</v>
+      </c>
     </row>
-    <row r="33" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
       <c r="B33" s="4" t="s">
         <v>271</v>
       </c>
@@ -30139,9 +30224,12 @@
       <c r="JX33" s="5">
         <v>9791</v>
       </c>
+      <c r="JY33" s="5">
+        <v>9683</v>
+      </c>
     </row>
-    <row r="34" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
       <c r="B34" s="4" t="s">
         <v>272</v>
       </c>
@@ -30991,9 +31079,12 @@
       <c r="JX34" s="5">
         <v>45083</v>
       </c>
+      <c r="JY34" s="5">
+        <v>45425</v>
+      </c>
     </row>
-    <row r="35" spans="1:913" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:912" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
       <c r="B35" s="4" t="s">
         <v>273</v>
       </c>
@@ -31843,9 +31934,12 @@
       <c r="JX35" s="5">
         <v>11295</v>
       </c>
+      <c r="JY35" s="5">
+        <v>11256</v>
+      </c>
     </row>
-    <row r="36" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+    <row r="36" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
       <c r="B36" s="4" t="s">
         <v>274</v>
       </c>
@@ -32695,9 +32789,12 @@
       <c r="JX36" s="5">
         <v>53338</v>
       </c>
+      <c r="JY36" s="5">
+        <v>53525</v>
+      </c>
     </row>
-    <row r="37" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
+    <row r="37" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
       <c r="B37" s="4" t="s">
         <v>275</v>
       </c>
@@ -33547,9 +33644,12 @@
       <c r="JX37" s="5">
         <v>78229</v>
       </c>
+      <c r="JY37" s="6">
+        <v>77148</v>
+      </c>
     </row>
-    <row r="38" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
       <c r="B38" s="4" t="s">
         <v>276</v>
       </c>
@@ -34399,9 +34499,12 @@
       <c r="JX38" s="5">
         <v>21259</v>
       </c>
+      <c r="JY38" s="5">
+        <v>21139</v>
+      </c>
     </row>
-    <row r="39" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
+    <row r="39" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
       <c r="B39" s="4" t="s">
         <v>277</v>
       </c>
@@ -35251,9 +35354,12 @@
       <c r="JX39" s="5">
         <v>24157</v>
       </c>
+      <c r="JY39" s="5">
+        <v>24344</v>
+      </c>
     </row>
-    <row r="40" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
+    <row r="40" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
       <c r="B40" s="4" t="s">
         <v>278</v>
       </c>
@@ -36103,9 +36209,12 @@
       <c r="JX40" s="5">
         <v>12650</v>
       </c>
+      <c r="JY40" s="5">
+        <v>12669</v>
+      </c>
     </row>
-    <row r="41" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
+    <row r="41" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
       <c r="B41" s="4" t="s">
         <v>279</v>
       </c>
@@ -36955,9 +37064,12 @@
       <c r="JX41" s="5">
         <v>11239</v>
       </c>
+      <c r="JY41" s="5">
+        <v>11156</v>
+      </c>
     </row>
-    <row r="42" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
+    <row r="42" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
       <c r="B42" s="4" t="s">
         <v>280</v>
       </c>
@@ -37807,9 +37919,12 @@
       <c r="JX42" s="5">
         <v>45517</v>
       </c>
+      <c r="JY42" s="5">
+        <v>45871</v>
+      </c>
     </row>
-    <row r="43" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
+    <row r="43" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
       <c r="B43" s="4" t="s">
         <v>281</v>
       </c>
@@ -38659,9 +38774,12 @@
       <c r="JX43" s="5">
         <v>4799</v>
       </c>
+      <c r="JY43" s="5">
+        <v>4728</v>
+      </c>
     </row>
-    <row r="44" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
+    <row r="44" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
       <c r="B44" s="4" t="s">
         <v>282</v>
       </c>
@@ -39511,9 +39629,12 @@
       <c r="JX44" s="5">
         <v>5672</v>
       </c>
+      <c r="JY44" s="5">
+        <v>5600</v>
+      </c>
     </row>
-    <row r="45" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
+    <row r="45" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
       <c r="B45" s="4" t="s">
         <v>283</v>
       </c>
@@ -40363,9 +40484,12 @@
       <c r="JX45" s="5">
         <v>7359</v>
       </c>
+      <c r="JY45" s="5">
+        <v>7324</v>
+      </c>
     </row>
-    <row r="46" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
+    <row r="46" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
       <c r="B46" s="4" t="s">
         <v>284</v>
       </c>
@@ -41215,9 +41339,12 @@
       <c r="JX46" s="5">
         <v>14252</v>
       </c>
+      <c r="JY46" s="5">
+        <v>14364</v>
+      </c>
     </row>
-    <row r="47" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
       </c>
@@ -42067,9 +42194,12 @@
       <c r="JX47" s="5">
         <v>1466</v>
       </c>
+      <c r="JY47" s="5">
+        <v>1457</v>
+      </c>
     </row>
-    <row r="48" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
+    <row r="48" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
       <c r="B48" s="7" t="s">
         <v>265</v>
       </c>
@@ -42935,7 +43065,10 @@
       <c r="JX48" s="8">
         <v>520206</v>
       </c>
-      <c r="JY48" s="1"/>
+      <c r="JY48" s="8">
+        <f>SUM(JY28:JY47)</f>
+        <v>520186</v>
+      </c>
       <c r="JZ48" s="1"/>
       <c r="KA48" s="1"/>
       <c r="KB48" s="1"/>
@@ -43563,10 +43696,9 @@
       <c r="AHZ48" s="1"/>
       <c r="AIA48" s="1"/>
       <c r="AIB48" s="1"/>
-      <c r="AIC48" s="1"/>
     </row>
-    <row r="49" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -44418,9 +44550,12 @@
       <c r="JX49" s="6">
         <v>17</v>
       </c>
+      <c r="JY49" s="6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
+    <row r="50" spans="1:285" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
       <c r="B50" s="4" t="s">
         <v>288</v>
       </c>
@@ -45270,9 +45405,12 @@
       <c r="JX50" s="6">
         <v>98</v>
       </c>
+      <c r="JY50" s="6">
+        <v>111</v>
+      </c>
     </row>
-    <row r="51" spans="1:284" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
+    <row r="51" spans="1:285" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
       <c r="B51" s="4" t="s">
         <v>289</v>
       </c>
@@ -46122,9 +46260,12 @@
       <c r="JX51" s="5">
         <v>1561</v>
       </c>
+      <c r="JY51" s="5">
+        <v>1559</v>
+      </c>
     </row>
-    <row r="52" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
+    <row r="52" spans="1:285" x14ac:dyDescent="0.3">
+      <c r="A52" s="38"/>
       <c r="B52" s="4" t="s">
         <v>290</v>
       </c>
@@ -46974,9 +47115,12 @@
       <c r="JX52" s="5">
         <v>917</v>
       </c>
+      <c r="JY52" s="5">
+        <v>913</v>
+      </c>
     </row>
-    <row r="53" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
+    <row r="53" spans="1:285" x14ac:dyDescent="0.3">
+      <c r="A53" s="38"/>
       <c r="B53" s="7" t="s">
         <v>286</v>
       </c>
@@ -47842,9 +47986,13 @@
       <c r="JX53" s="8">
         <v>2593</v>
       </c>
+      <c r="JY53" s="8">
+        <f>SUM(JY49:JY52)</f>
+        <v>2602</v>
+      </c>
     </row>
-    <row r="54" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="37" t="s">
+    <row r="54" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -48696,9 +48844,12 @@
       <c r="JX54" s="5">
         <v>5674</v>
       </c>
+      <c r="JY54" s="5">
+        <v>5705</v>
+      </c>
     </row>
-    <row r="55" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
+    <row r="55" spans="1:285" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
       <c r="B55" s="4" t="s">
         <v>293</v>
       </c>
@@ -49548,9 +49699,12 @@
       <c r="JX55" s="5">
         <v>57254</v>
       </c>
+      <c r="JY55" s="5">
+        <v>58326</v>
+      </c>
     </row>
-    <row r="56" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
+    <row r="56" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="38"/>
       <c r="B56" s="4" t="s">
         <v>294</v>
       </c>
@@ -50400,9 +50554,12 @@
       <c r="JX56" s="5">
         <v>6994</v>
       </c>
+      <c r="JY56" s="5">
+        <v>6964</v>
+      </c>
     </row>
-    <row r="57" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
+    <row r="57" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="38"/>
       <c r="B57" s="4" t="s">
         <v>295</v>
       </c>
@@ -51252,9 +51409,12 @@
       <c r="JX57" s="5">
         <v>193323</v>
       </c>
+      <c r="JY57" s="5">
+        <v>193323</v>
+      </c>
     </row>
-    <row r="58" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
+    <row r="58" spans="1:285" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
       <c r="B58" s="4" t="s">
         <v>296</v>
       </c>
@@ -52104,9 +52264,12 @@
       <c r="JX58" s="5">
         <v>35934</v>
       </c>
+      <c r="JY58" s="5">
+        <v>36177</v>
+      </c>
     </row>
-    <row r="59" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
+    <row r="59" spans="1:285" x14ac:dyDescent="0.3">
+      <c r="A59" s="38"/>
       <c r="B59" s="4" t="s">
         <v>297</v>
       </c>
@@ -52956,9 +53119,12 @@
       <c r="JX59" s="5">
         <v>7040</v>
       </c>
+      <c r="JY59" s="5">
+        <v>7252</v>
+      </c>
     </row>
-    <row r="60" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="37"/>
+    <row r="60" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="38"/>
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -53808,9 +53974,12 @@
       <c r="JX60" s="5">
         <v>49011</v>
       </c>
+      <c r="JY60" s="5">
+        <v>45601</v>
+      </c>
     </row>
-    <row r="61" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
+    <row r="61" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="38"/>
       <c r="B61" s="4" t="s">
         <v>299</v>
       </c>
@@ -54660,9 +54829,12 @@
       <c r="JX61" s="6">
         <v>149</v>
       </c>
+      <c r="JY61" s="6">
+        <v>149</v>
+      </c>
     </row>
-    <row r="62" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
+    <row r="62" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="38"/>
       <c r="B62" s="4" t="s">
         <v>300</v>
       </c>
@@ -55512,9 +55684,12 @@
       <c r="JX62" s="5">
         <v>20962</v>
       </c>
+      <c r="JY62" s="5">
+        <v>21147</v>
+      </c>
     </row>
-    <row r="63" spans="1:284" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="37"/>
+    <row r="63" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="38"/>
       <c r="B63" s="4" t="s">
         <v>301</v>
       </c>
@@ -56364,9 +56539,12 @@
       <c r="JX63" s="5">
         <v>35547</v>
       </c>
+      <c r="JY63" s="5">
+        <v>35811</v>
+      </c>
     </row>
-    <row r="64" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A64" s="37"/>
+    <row r="64" spans="1:285" x14ac:dyDescent="0.3">
+      <c r="A64" s="38"/>
       <c r="B64" s="4" t="s">
         <v>302</v>
       </c>
@@ -57216,9 +57394,12 @@
       <c r="JX64" s="5">
         <v>50918</v>
       </c>
+      <c r="JY64" s="5">
+        <v>50925</v>
+      </c>
     </row>
-    <row r="65" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
+    <row r="65" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A65" s="38"/>
       <c r="B65" s="4" t="s">
         <v>303</v>
       </c>
@@ -58068,9 +58249,12 @@
       <c r="JX65" s="5">
         <v>170079</v>
       </c>
+      <c r="JY65" s="5">
+        <v>171212</v>
+      </c>
     </row>
-    <row r="66" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
+    <row r="66" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A66" s="38"/>
       <c r="B66" s="4" t="s">
         <v>304</v>
       </c>
@@ -58920,9 +59104,12 @@
       <c r="JX66" s="5">
         <v>21063</v>
       </c>
+      <c r="JY66" s="5">
+        <v>21357</v>
+      </c>
     </row>
-    <row r="67" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A67" s="37"/>
+    <row r="67" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A67" s="38"/>
       <c r="B67" s="4" t="s">
         <v>305</v>
       </c>
@@ -59772,9 +59959,16 @@
       <c r="JX67" s="5">
         <v>6680</v>
       </c>
+      <c r="JY67" s="5">
+        <v>6724</v>
+      </c>
+      <c r="KA67" s="3" t="e">
+        <f>GETPIVOTDATA("Trabajadores asegurados",#REF!,"División económica","SERVICIOS PARA EMPRESAS, PERSONAS Y EL HOGAR")+GETPIVOTDATA("Trabajadores asegurados",#REF!,"División económica","SERVICIOS SOCIALES Y COMUNALES")</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="68" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="37"/>
+    <row r="68" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="38"/>
       <c r="B68" s="7" t="s">
         <v>291</v>
       </c>
@@ -60640,7 +60834,10 @@
       <c r="JX68" s="8">
         <v>660628</v>
       </c>
-      <c r="JY68" s="1"/>
+      <c r="JY68" s="8">
+        <f>SUM(JY54:JY67)</f>
+        <v>660673</v>
+      </c>
       <c r="JZ68" s="1"/>
       <c r="KA68" s="1"/>
       <c r="KB68" s="1"/>
@@ -61268,10 +61465,9 @@
       <c r="AHZ68" s="1"/>
       <c r="AIA68" s="1"/>
       <c r="AIB68" s="1"/>
-      <c r="AIC68" s="1"/>
     </row>
-    <row r="69" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
+    <row r="69" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -62123,9 +62319,12 @@
       <c r="JX69" s="5">
         <v>9785</v>
       </c>
+      <c r="JY69" s="5">
+        <v>9751</v>
+      </c>
     </row>
-    <row r="70" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A70" s="37"/>
+    <row r="70" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A70" s="38"/>
       <c r="B70" s="4" t="s">
         <v>308</v>
       </c>
@@ -62975,9 +63174,12 @@
       <c r="JX70" s="5">
         <v>981</v>
       </c>
+      <c r="JY70" s="5">
+        <v>991</v>
+      </c>
     </row>
-    <row r="71" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="37"/>
+    <row r="71" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="38"/>
       <c r="B71" s="4" t="s">
         <v>309</v>
       </c>
@@ -63827,9 +64029,12 @@
       <c r="JX71" s="5">
         <v>34962</v>
       </c>
+      <c r="JY71" s="5">
+        <v>35156</v>
+      </c>
     </row>
-    <row r="72" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
+    <row r="72" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A72" s="38"/>
       <c r="B72" s="4" t="s">
         <v>310</v>
       </c>
@@ -64679,9 +64884,12 @@
       <c r="JX72" s="5">
         <v>4829</v>
       </c>
+      <c r="JY72" s="5">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="73" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
+    <row r="73" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A73" s="38"/>
       <c r="B73" s="4" t="s">
         <v>311</v>
       </c>
@@ -65531,9 +65739,12 @@
       <c r="JX73" s="6">
         <v>789</v>
       </c>
+      <c r="JY73" s="6">
+        <v>657</v>
+      </c>
     </row>
-    <row r="74" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A74" s="37"/>
+    <row r="74" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A74" s="38"/>
       <c r="B74" s="4" t="s">
         <v>312</v>
       </c>
@@ -66383,9 +66594,12 @@
       <c r="JX74" s="5">
         <v>55057</v>
       </c>
+      <c r="JY74" s="5">
+        <v>54995</v>
+      </c>
     </row>
-    <row r="75" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="37"/>
+    <row r="75" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="38"/>
       <c r="B75" s="7" t="s">
         <v>306</v>
       </c>
@@ -67251,7 +67465,10 @@
       <c r="JX75" s="8">
         <v>106403</v>
       </c>
-      <c r="JY75" s="1"/>
+      <c r="JY75" s="8">
+        <f>SUM(JY69:JY74)</f>
+        <v>106450</v>
+      </c>
       <c r="JZ75" s="1"/>
       <c r="KA75" s="1"/>
       <c r="KB75" s="1"/>
@@ -67879,9 +68096,8 @@
       <c r="AHZ75" s="1"/>
       <c r="AIA75" s="1"/>
       <c r="AIB75" s="1"/>
-      <c r="AIC75" s="1"/>
     </row>
-    <row r="76" spans="1:913" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:912" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
@@ -68752,8 +68968,12 @@
       <c r="JX76" s="31">
         <v>1980790</v>
       </c>
+      <c r="JY76" s="31">
+        <f>JY11+JY21+JY24+JY27+JY48+JY53+JY68+JY75</f>
+        <v>1981146</v>
+      </c>
     </row>
-    <row r="77" spans="1:913" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:912" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -69480,16 +69700,33 @@
       <c r="ABA77" s="25"/>
       <c r="ABB77" s="25"/>
       <c r="ABC77" s="25"/>
-      <c r="ABD77" s="25"/>
     </row>
-    <row r="78" spans="1:913" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:912" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="JS4:JX4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="JS4:JY4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -69505,24 +69742,6 @@
     <mergeCell ref="JG4:JR4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43CD4BE-F4C2-4FC6-966E-C2D039806A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6765AF0F-2607-4CC5-B6A7-C9380F5F06D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="360">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1132,6 +1132,9 @@
   <si>
     <t>2023/Julio</t>
   </si>
+  <si>
+    <t>2023/Agosto</t>
+  </si>
 </sst>
 </file>
 
@@ -1736,7 +1739,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1833,6 +1836,13 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2211,11 +2221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AIB78"/>
+  <dimension ref="A1:AIC78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KC14" sqref="KC14"/>
+      <pane xSplit="2" topLeftCell="JO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KA83" sqref="KA83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2495,363 +2505,367 @@
     <col min="281" max="281" width="11.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="282" max="282" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="283" max="283" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="10.77734375" style="3" customWidth="1"/>
-    <col min="285" max="285" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="286" max="16384" width="10.88671875" style="3"/>
+    <col min="284" max="285" width="10.77734375" style="3" customWidth="1"/>
+    <col min="286" max="286" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="10.88671875" style="3"/>
+    <col min="288" max="288" width="49" style="3" customWidth="1"/>
+    <col min="289" max="289" width="13.109375" style="3" customWidth="1"/>
+    <col min="290" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="42">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="42">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="42"/>
+      <c r="BY4" s="42"/>
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="42"/>
+      <c r="CL4" s="42"/>
+      <c r="CM4" s="42"/>
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42"/>
+      <c r="CT4" s="42"/>
+      <c r="CU4" s="42">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
+      <c r="DA4" s="42"/>
+      <c r="DB4" s="42"/>
+      <c r="DC4" s="42"/>
+      <c r="DD4" s="42"/>
+      <c r="DE4" s="42"/>
+      <c r="DF4" s="42"/>
+      <c r="DG4" s="42">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="42"/>
+      <c r="DI4" s="42"/>
+      <c r="DJ4" s="42"/>
+      <c r="DK4" s="42"/>
+      <c r="DL4" s="42"/>
+      <c r="DM4" s="42"/>
+      <c r="DN4" s="42"/>
+      <c r="DO4" s="42"/>
+      <c r="DP4" s="42"/>
+      <c r="DQ4" s="42"/>
+      <c r="DR4" s="42"/>
+      <c r="DS4" s="42">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="42"/>
+      <c r="DU4" s="42"/>
+      <c r="DV4" s="42"/>
+      <c r="DW4" s="42"/>
+      <c r="DX4" s="42"/>
+      <c r="DY4" s="42"/>
+      <c r="DZ4" s="42"/>
+      <c r="EA4" s="42"/>
+      <c r="EB4" s="42"/>
+      <c r="EC4" s="42"/>
+      <c r="ED4" s="42"/>
+      <c r="EE4" s="42">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="42"/>
+      <c r="EG4" s="42"/>
+      <c r="EH4" s="42"/>
+      <c r="EI4" s="42"/>
+      <c r="EJ4" s="42"/>
+      <c r="EK4" s="42"/>
+      <c r="EL4" s="42"/>
+      <c r="EM4" s="42"/>
+      <c r="EN4" s="42"/>
+      <c r="EO4" s="42"/>
+      <c r="EP4" s="42"/>
+      <c r="EQ4" s="42">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="42"/>
+      <c r="ES4" s="42"/>
+      <c r="ET4" s="42"/>
+      <c r="EU4" s="42"/>
+      <c r="EV4" s="42"/>
+      <c r="EW4" s="42"/>
+      <c r="EX4" s="42"/>
+      <c r="EY4" s="42"/>
+      <c r="EZ4" s="42"/>
+      <c r="FA4" s="42"/>
+      <c r="FB4" s="42"/>
+      <c r="FC4" s="42">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="42"/>
+      <c r="FE4" s="42"/>
+      <c r="FF4" s="42"/>
+      <c r="FG4" s="42"/>
+      <c r="FH4" s="42"/>
+      <c r="FI4" s="42"/>
+      <c r="FJ4" s="42"/>
+      <c r="FK4" s="42"/>
+      <c r="FL4" s="42"/>
+      <c r="FM4" s="42"/>
+      <c r="FN4" s="42"/>
+      <c r="FO4" s="42">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="42"/>
+      <c r="FQ4" s="42"/>
+      <c r="FR4" s="42"/>
+      <c r="FS4" s="42"/>
+      <c r="FT4" s="42"/>
+      <c r="FU4" s="42"/>
+      <c r="FV4" s="42"/>
+      <c r="FW4" s="42"/>
+      <c r="FX4" s="42"/>
+      <c r="FY4" s="42"/>
+      <c r="FZ4" s="42"/>
+      <c r="GA4" s="42">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="42"/>
+      <c r="GC4" s="42"/>
+      <c r="GD4" s="42"/>
+      <c r="GE4" s="42"/>
+      <c r="GF4" s="42"/>
+      <c r="GG4" s="42"/>
+      <c r="GH4" s="42"/>
+      <c r="GI4" s="42"/>
+      <c r="GJ4" s="42"/>
+      <c r="GK4" s="42"/>
+      <c r="GL4" s="42"/>
+      <c r="GM4" s="42">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="42"/>
+      <c r="GO4" s="42"/>
+      <c r="GP4" s="42"/>
+      <c r="GQ4" s="42"/>
+      <c r="GR4" s="42"/>
+      <c r="GS4" s="42"/>
+      <c r="GT4" s="42"/>
+      <c r="GU4" s="42"/>
+      <c r="GV4" s="42"/>
+      <c r="GW4" s="42"/>
+      <c r="GX4" s="42"/>
+      <c r="GY4" s="42">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="42"/>
+      <c r="HA4" s="42"/>
+      <c r="HB4" s="42"/>
+      <c r="HC4" s="42"/>
+      <c r="HD4" s="42"/>
+      <c r="HE4" s="42"/>
+      <c r="HF4" s="42"/>
+      <c r="HG4" s="42"/>
+      <c r="HH4" s="42"/>
+      <c r="HI4" s="42"/>
+      <c r="HJ4" s="42"/>
+      <c r="HK4" s="42">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="42"/>
+      <c r="HM4" s="42"/>
+      <c r="HN4" s="42"/>
+      <c r="HO4" s="42"/>
+      <c r="HP4" s="42"/>
+      <c r="HQ4" s="42"/>
+      <c r="HR4" s="42"/>
+      <c r="HS4" s="42"/>
+      <c r="HT4" s="42"/>
+      <c r="HU4" s="42"/>
+      <c r="HV4" s="42"/>
+      <c r="HW4" s="42">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
-      <c r="IH4" s="35"/>
-      <c r="II4" s="35">
+      <c r="HX4" s="42"/>
+      <c r="HY4" s="42"/>
+      <c r="HZ4" s="42"/>
+      <c r="IA4" s="42"/>
+      <c r="IB4" s="42"/>
+      <c r="IC4" s="42"/>
+      <c r="ID4" s="42"/>
+      <c r="IE4" s="42"/>
+      <c r="IF4" s="42"/>
+      <c r="IG4" s="42"/>
+      <c r="IH4" s="38"/>
+      <c r="II4" s="38">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="36"/>
-      <c r="IK4" s="36"/>
-      <c r="IL4" s="36"/>
-      <c r="IM4" s="36"/>
-      <c r="IN4" s="36"/>
-      <c r="IO4" s="36"/>
-      <c r="IP4" s="36"/>
-      <c r="IQ4" s="36"/>
-      <c r="IR4" s="36"/>
-      <c r="IS4" s="36"/>
-      <c r="IT4" s="37"/>
-      <c r="IU4" s="35">
+      <c r="IJ4" s="39"/>
+      <c r="IK4" s="39"/>
+      <c r="IL4" s="39"/>
+      <c r="IM4" s="39"/>
+      <c r="IN4" s="39"/>
+      <c r="IO4" s="39"/>
+      <c r="IP4" s="39"/>
+      <c r="IQ4" s="39"/>
+      <c r="IR4" s="39"/>
+      <c r="IS4" s="39"/>
+      <c r="IT4" s="40"/>
+      <c r="IU4" s="38">
         <v>2021</v>
       </c>
-      <c r="IV4" s="36"/>
-      <c r="IW4" s="36"/>
-      <c r="IX4" s="36"/>
-      <c r="IY4" s="36"/>
-      <c r="IZ4" s="36"/>
-      <c r="JA4" s="36"/>
-      <c r="JB4" s="36"/>
-      <c r="JC4" s="36"/>
-      <c r="JD4" s="36"/>
-      <c r="JE4" s="36"/>
-      <c r="JF4" s="37"/>
-      <c r="JG4" s="39">
+      <c r="IV4" s="39"/>
+      <c r="IW4" s="39"/>
+      <c r="IX4" s="39"/>
+      <c r="IY4" s="39"/>
+      <c r="IZ4" s="39"/>
+      <c r="JA4" s="39"/>
+      <c r="JB4" s="39"/>
+      <c r="JC4" s="39"/>
+      <c r="JD4" s="39"/>
+      <c r="JE4" s="39"/>
+      <c r="JF4" s="40"/>
+      <c r="JG4" s="42">
         <v>2022</v>
       </c>
-      <c r="JH4" s="39"/>
-      <c r="JI4" s="39"/>
-      <c r="JJ4" s="39"/>
-      <c r="JK4" s="39"/>
-      <c r="JL4" s="39"/>
-      <c r="JM4" s="39"/>
-      <c r="JN4" s="39"/>
-      <c r="JO4" s="39"/>
-      <c r="JP4" s="39"/>
-      <c r="JQ4" s="39"/>
-      <c r="JR4" s="39"/>
-      <c r="JS4" s="35">
+      <c r="JH4" s="42"/>
+      <c r="JI4" s="42"/>
+      <c r="JJ4" s="42"/>
+      <c r="JK4" s="42"/>
+      <c r="JL4" s="42"/>
+      <c r="JM4" s="42"/>
+      <c r="JN4" s="42"/>
+      <c r="JO4" s="42"/>
+      <c r="JP4" s="42"/>
+      <c r="JQ4" s="42"/>
+      <c r="JR4" s="42"/>
+      <c r="JS4" s="38">
         <v>2023</v>
       </c>
-      <c r="JT4" s="36"/>
-      <c r="JU4" s="36"/>
-      <c r="JV4" s="36"/>
-      <c r="JW4" s="36"/>
-      <c r="JX4" s="36"/>
-      <c r="JY4" s="37"/>
+      <c r="JT4" s="39"/>
+      <c r="JU4" s="39"/>
+      <c r="JV4" s="39"/>
+      <c r="JW4" s="39"/>
+      <c r="JX4" s="39"/>
+      <c r="JY4" s="39"/>
+      <c r="JZ4" s="40"/>
     </row>
-    <row r="5" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
@@ -3701,9 +3715,12 @@
       <c r="JY5" s="34" t="s">
         <v>358</v>
       </c>
+      <c r="JZ5" s="34" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="6" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4558,9 +4575,14 @@
       <c r="JY6" s="5">
         <v>91508</v>
       </c>
+      <c r="JZ6" s="5">
+        <v>90842</v>
+      </c>
+      <c r="KB6" s="36"/>
+      <c r="KC6" s="36"/>
     </row>
-    <row r="7" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
       <c r="B7" s="4" t="s">
         <v>245</v>
       </c>
@@ -5413,9 +5435,14 @@
       <c r="JY7" s="6">
         <v>49</v>
       </c>
+      <c r="JZ7" s="6">
+        <v>49</v>
+      </c>
+      <c r="KB7" s="35"/>
+      <c r="KC7"/>
     </row>
-    <row r="8" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
       <c r="B8" s="4" t="s">
         <v>246</v>
       </c>
@@ -6268,9 +6295,14 @@
       <c r="JY8" s="5">
         <v>23944</v>
       </c>
+      <c r="JZ8" s="5">
+        <v>24376</v>
+      </c>
+      <c r="KB8" s="35"/>
+      <c r="KC8"/>
     </row>
-    <row r="9" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
       <c r="B9" s="4" t="s">
         <v>247</v>
       </c>
@@ -7123,9 +7155,14 @@
       <c r="JY9" s="5">
         <v>258</v>
       </c>
+      <c r="JZ9" s="5">
+        <v>274</v>
+      </c>
+      <c r="KB9" s="35"/>
+      <c r="KC9"/>
     </row>
-    <row r="10" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
       <c r="B10" s="4" t="s">
         <v>248</v>
       </c>
@@ -7978,9 +8015,14 @@
       <c r="JY10" s="6">
         <v>505</v>
       </c>
+      <c r="JZ10" s="6">
+        <v>504</v>
+      </c>
+      <c r="KB10" s="35"/>
+      <c r="KC10"/>
     </row>
-    <row r="11" spans="1:912" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:913" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>244</v>
       </c>
@@ -8850,10 +8892,13 @@
         <f>SUM(JY6:JY10)</f>
         <v>116264</v>
       </c>
-      <c r="JZ11" s="1"/>
+      <c r="JZ11" s="8">
+        <f>SUM(JZ6:JZ10)</f>
+        <v>116045</v>
+      </c>
       <c r="KA11" s="1"/>
-      <c r="KB11" s="1"/>
-      <c r="KC11" s="1"/>
+      <c r="KB11" s="35"/>
+      <c r="KC11"/>
       <c r="KD11" s="1"/>
       <c r="KE11" s="1"/>
       <c r="KF11" s="1"/>
@@ -9477,9 +9522,10 @@
       <c r="AHZ11" s="1"/>
       <c r="AIA11" s="1"/>
       <c r="AIB11" s="1"/>
+      <c r="AIC11" s="1"/>
     </row>
-    <row r="12" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10334,9 +10380,14 @@
       <c r="JY12" s="5">
         <v>82689</v>
       </c>
+      <c r="JZ12" s="5">
+        <v>83352</v>
+      </c>
+      <c r="KB12" s="36"/>
+      <c r="KC12" s="36"/>
     </row>
-    <row r="13" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
       <c r="B13" s="4" t="s">
         <v>251</v>
       </c>
@@ -11189,9 +11240,14 @@
       <c r="JY13" s="5">
         <v>20458</v>
       </c>
+      <c r="JZ13" s="5">
+        <v>20498</v>
+      </c>
+      <c r="KB13" s="35"/>
+      <c r="KC13"/>
     </row>
-    <row r="14" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
       <c r="B14" s="4" t="s">
         <v>252</v>
       </c>
@@ -12044,9 +12100,14 @@
       <c r="JY14" s="5">
         <v>36869</v>
       </c>
+      <c r="JZ14" s="5">
+        <v>37061</v>
+      </c>
+      <c r="KB14" s="35"/>
+      <c r="KC14"/>
     </row>
-    <row r="15" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
       <c r="B15" s="4" t="s">
         <v>253</v>
       </c>
@@ -12899,9 +12960,14 @@
       <c r="JY15" s="5">
         <v>22810</v>
       </c>
+      <c r="JZ15" s="5">
+        <v>22905</v>
+      </c>
+      <c r="KB15" s="35"/>
+      <c r="KC15"/>
     </row>
-    <row r="16" spans="1:912" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:913" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="41"/>
       <c r="B16" s="4" t="s">
         <v>254</v>
       </c>
@@ -13754,9 +13820,14 @@
       <c r="JY16" s="5">
         <v>13899</v>
       </c>
+      <c r="JZ16" s="5">
+        <v>13985</v>
+      </c>
+      <c r="KB16" s="35"/>
+      <c r="KC16"/>
     </row>
-    <row r="17" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
       <c r="B17" s="4" t="s">
         <v>255</v>
       </c>
@@ -14609,9 +14680,14 @@
       <c r="JY17" s="5">
         <v>51107</v>
       </c>
+      <c r="JZ17" s="5">
+        <v>50794</v>
+      </c>
+      <c r="KB17" s="35"/>
+      <c r="KC17"/>
     </row>
-    <row r="18" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
       <c r="B18" s="4" t="s">
         <v>256</v>
       </c>
@@ -15464,9 +15540,14 @@
       <c r="JY18" s="5">
         <v>63042</v>
       </c>
+      <c r="JZ18" s="5">
+        <v>62802</v>
+      </c>
+      <c r="KB18" s="35"/>
+      <c r="KC18"/>
     </row>
-    <row r="19" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
       <c r="B19" s="4" t="s">
         <v>257</v>
       </c>
@@ -16319,9 +16400,14 @@
       <c r="JY19" s="5">
         <v>72399</v>
       </c>
+      <c r="JZ19" s="5">
+        <v>71794</v>
+      </c>
+      <c r="KB19" s="35"/>
+      <c r="KC19"/>
     </row>
-    <row r="20" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="41"/>
       <c r="B20" s="4" t="s">
         <v>258</v>
       </c>
@@ -17174,9 +17260,14 @@
       <c r="JY20" s="5">
         <v>48355</v>
       </c>
+      <c r="JZ20" s="5">
+        <v>47916</v>
+      </c>
+      <c r="KB20" s="35"/>
+      <c r="KC20"/>
     </row>
-    <row r="21" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="41"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
       </c>
@@ -18046,10 +18137,13 @@
         <f>SUM(JY12:JY20)</f>
         <v>411628</v>
       </c>
-      <c r="JZ21" s="1"/>
+      <c r="JZ21" s="8">
+        <f>SUM(JZ12:JZ20)</f>
+        <v>411107</v>
+      </c>
       <c r="KA21" s="1"/>
-      <c r="KB21" s="1"/>
-      <c r="KC21" s="1"/>
+      <c r="KB21" s="35"/>
+      <c r="KC21"/>
       <c r="KD21" s="1"/>
       <c r="KE21" s="1"/>
       <c r="KF21" s="1"/>
@@ -18673,9 +18767,10 @@
       <c r="AHZ21" s="1"/>
       <c r="AIA21" s="1"/>
       <c r="AIB21" s="1"/>
+      <c r="AIC21" s="1"/>
     </row>
-    <row r="22" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -19530,9 +19625,14 @@
       <c r="JY22" s="5">
         <v>114226</v>
       </c>
+      <c r="JZ22" s="5">
+        <v>117958</v>
+      </c>
+      <c r="KB22" s="36"/>
+      <c r="KC22" s="36"/>
     </row>
-    <row r="23" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
+    <row r="23" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="41"/>
       <c r="B23" s="4" t="s">
         <v>261</v>
       </c>
@@ -20385,9 +20485,14 @@
       <c r="JY23" s="5">
         <v>39029</v>
       </c>
+      <c r="JZ23" s="5">
+        <v>39065</v>
+      </c>
+      <c r="KB23" s="35"/>
+      <c r="KC23"/>
     </row>
-    <row r="24" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
+    <row r="24" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
       <c r="B24" s="7" t="s">
         <v>259</v>
       </c>
@@ -21257,10 +21362,13 @@
         <f>SUM(JY22:JY23)</f>
         <v>153255</v>
       </c>
-      <c r="JZ24" s="1"/>
+      <c r="JZ24" s="8">
+        <f>SUM(JZ22:JZ23)</f>
+        <v>157023</v>
+      </c>
       <c r="KA24" s="1"/>
-      <c r="KB24" s="1"/>
-      <c r="KC24" s="1"/>
+      <c r="KB24" s="35"/>
+      <c r="KC24"/>
       <c r="KD24" s="1"/>
       <c r="KE24" s="1"/>
       <c r="KF24" s="1"/>
@@ -21884,9 +21992,10 @@
       <c r="AHZ24" s="1"/>
       <c r="AIA24" s="1"/>
       <c r="AIB24" s="1"/>
+      <c r="AIC24" s="1"/>
     </row>
-    <row r="25" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -22741,9 +22850,14 @@
       <c r="JY25" s="5">
         <v>4475</v>
       </c>
+      <c r="JZ25" s="5">
+        <v>4501</v>
+      </c>
+      <c r="KB25" s="37"/>
+      <c r="KC25" s="36"/>
     </row>
-    <row r="26" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
       <c r="B26" s="4" t="s">
         <v>264</v>
       </c>
@@ -23596,9 +23710,12 @@
       <c r="JY26" s="5">
         <v>5613</v>
       </c>
+      <c r="JZ26" s="5">
+        <v>5584</v>
+      </c>
     </row>
-    <row r="27" spans="1:912" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:913" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
       <c r="B27" s="7" t="s">
         <v>262</v>
       </c>
@@ -24468,7 +24585,10 @@
         <f>SUM(JY25:JY26)</f>
         <v>10088</v>
       </c>
-      <c r="JZ27" s="1"/>
+      <c r="JZ27" s="8">
+        <f>SUM(JZ25:JZ26)</f>
+        <v>10085</v>
+      </c>
       <c r="KA27" s="1"/>
       <c r="KB27" s="1"/>
       <c r="KC27" s="1"/>
@@ -25095,9 +25215,10 @@
       <c r="AHZ27" s="1"/>
       <c r="AIA27" s="1"/>
       <c r="AIB27" s="1"/>
+      <c r="AIC27" s="1"/>
     </row>
-    <row r="28" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -25952,9 +26073,14 @@
       <c r="JY28" s="5">
         <v>838</v>
       </c>
+      <c r="JZ28" s="5">
+        <v>843</v>
+      </c>
+      <c r="KB28"/>
+      <c r="KC28"/>
     </row>
-    <row r="29" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="41"/>
       <c r="B29" s="4" t="s">
         <v>267</v>
       </c>
@@ -26807,9 +26933,14 @@
       <c r="JY29" s="5">
         <v>10518</v>
       </c>
+      <c r="JZ29" s="5">
+        <v>10659</v>
+      </c>
+      <c r="KB29" s="35"/>
+      <c r="KC29"/>
     </row>
-    <row r="30" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="41"/>
       <c r="B30" s="4" t="s">
         <v>268</v>
       </c>
@@ -27662,9 +27793,14 @@
       <c r="JY30" s="5">
         <v>27876</v>
       </c>
+      <c r="JZ30" s="5">
+        <v>27813</v>
+      </c>
+      <c r="KB30" s="35"/>
+      <c r="KC30"/>
     </row>
-    <row r="31" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A31" s="41"/>
       <c r="B31" s="4" t="s">
         <v>269</v>
       </c>
@@ -28517,9 +28653,14 @@
       <c r="JY31" s="5">
         <v>107611</v>
       </c>
+      <c r="JZ31" s="5">
+        <v>108058</v>
+      </c>
+      <c r="KB31" s="35"/>
+      <c r="KC31"/>
     </row>
-    <row r="32" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A32" s="41"/>
       <c r="B32" s="4" t="s">
         <v>270</v>
       </c>
@@ -29372,9 +29513,14 @@
       <c r="JY32" s="5">
         <v>27654</v>
       </c>
+      <c r="JZ32" s="5">
+        <v>27644</v>
+      </c>
+      <c r="KB32" s="35"/>
+      <c r="KC32"/>
     </row>
-    <row r="33" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A33" s="41"/>
       <c r="B33" s="4" t="s">
         <v>271</v>
       </c>
@@ -30227,9 +30373,14 @@
       <c r="JY33" s="5">
         <v>9683</v>
       </c>
+      <c r="JZ33" s="5">
+        <v>9591</v>
+      </c>
+      <c r="KB33" s="35"/>
+      <c r="KC33"/>
     </row>
-    <row r="34" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A34" s="41"/>
       <c r="B34" s="4" t="s">
         <v>272</v>
       </c>
@@ -31082,9 +31233,14 @@
       <c r="JY34" s="5">
         <v>45425</v>
       </c>
+      <c r="JZ34" s="5">
+        <v>45694</v>
+      </c>
+      <c r="KB34" s="35"/>
+      <c r="KC34"/>
     </row>
-    <row r="35" spans="1:912" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41"/>
       <c r="B35" s="4" t="s">
         <v>273</v>
       </c>
@@ -31937,9 +32093,14 @@
       <c r="JY35" s="5">
         <v>11256</v>
       </c>
+      <c r="JZ35" s="5">
+        <v>11323</v>
+      </c>
+      <c r="KB35" s="35"/>
+      <c r="KC35"/>
     </row>
-    <row r="36" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="41"/>
       <c r="B36" s="4" t="s">
         <v>274</v>
       </c>
@@ -32792,9 +32953,14 @@
       <c r="JY36" s="5">
         <v>53525</v>
       </c>
+      <c r="JZ36" s="5">
+        <v>54055</v>
+      </c>
+      <c r="KB36" s="35"/>
+      <c r="KC36"/>
     </row>
-    <row r="37" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="41"/>
       <c r="B37" s="4" t="s">
         <v>275</v>
       </c>
@@ -33644,12 +33810,17 @@
       <c r="JX37" s="5">
         <v>78229</v>
       </c>
-      <c r="JY37" s="6">
+      <c r="JY37" s="5">
         <v>77148</v>
       </c>
+      <c r="JZ37" s="5">
+        <v>75943</v>
+      </c>
+      <c r="KB37" s="35"/>
+      <c r="KC37"/>
     </row>
-    <row r="38" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
       <c r="B38" s="4" t="s">
         <v>276</v>
       </c>
@@ -34502,9 +34673,14 @@
       <c r="JY38" s="5">
         <v>21139</v>
       </c>
+      <c r="JZ38" s="5">
+        <v>21206</v>
+      </c>
+      <c r="KB38" s="35"/>
+      <c r="KC38"/>
     </row>
-    <row r="39" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="41"/>
       <c r="B39" s="4" t="s">
         <v>277</v>
       </c>
@@ -35357,9 +35533,14 @@
       <c r="JY39" s="5">
         <v>24344</v>
       </c>
+      <c r="JZ39" s="5">
+        <v>25159</v>
+      </c>
+      <c r="KB39" s="35"/>
+      <c r="KC39"/>
     </row>
-    <row r="40" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A40" s="41"/>
       <c r="B40" s="4" t="s">
         <v>278</v>
       </c>
@@ -36212,9 +36393,14 @@
       <c r="JY40" s="5">
         <v>12669</v>
       </c>
+      <c r="JZ40" s="5">
+        <v>12796</v>
+      </c>
+      <c r="KB40" s="35"/>
+      <c r="KC40"/>
     </row>
-    <row r="41" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A41" s="41"/>
       <c r="B41" s="4" t="s">
         <v>279</v>
       </c>
@@ -37067,9 +37253,14 @@
       <c r="JY41" s="5">
         <v>11156</v>
       </c>
+      <c r="JZ41" s="5">
+        <v>11143</v>
+      </c>
+      <c r="KB41" s="35"/>
+      <c r="KC41"/>
     </row>
-    <row r="42" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A42" s="41"/>
       <c r="B42" s="4" t="s">
         <v>280</v>
       </c>
@@ -37922,9 +38113,14 @@
       <c r="JY42" s="5">
         <v>45871</v>
       </c>
+      <c r="JZ42" s="5">
+        <v>46126</v>
+      </c>
+      <c r="KB42" s="35"/>
+      <c r="KC42"/>
     </row>
-    <row r="43" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A43" s="41"/>
       <c r="B43" s="4" t="s">
         <v>281</v>
       </c>
@@ -38777,9 +38973,14 @@
       <c r="JY43" s="5">
         <v>4728</v>
       </c>
+      <c r="JZ43" s="5">
+        <v>4680</v>
+      </c>
+      <c r="KB43" s="35"/>
+      <c r="KC43"/>
     </row>
-    <row r="44" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="41"/>
       <c r="B44" s="4" t="s">
         <v>282</v>
       </c>
@@ -39632,9 +39833,14 @@
       <c r="JY44" s="5">
         <v>5600</v>
       </c>
+      <c r="JZ44" s="5">
+        <v>5596</v>
+      </c>
+      <c r="KB44" s="35"/>
+      <c r="KC44"/>
     </row>
-    <row r="45" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A45" s="41"/>
       <c r="B45" s="4" t="s">
         <v>283</v>
       </c>
@@ -40487,9 +40693,14 @@
       <c r="JY45" s="5">
         <v>7324</v>
       </c>
+      <c r="JZ45" s="5">
+        <v>7190</v>
+      </c>
+      <c r="KB45" s="35"/>
+      <c r="KC45"/>
     </row>
-    <row r="46" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A46" s="41"/>
       <c r="B46" s="4" t="s">
         <v>284</v>
       </c>
@@ -41342,9 +41553,14 @@
       <c r="JY46" s="5">
         <v>14364</v>
       </c>
+      <c r="JZ46" s="5">
+        <v>14651</v>
+      </c>
+      <c r="KB46" s="35"/>
+      <c r="KC46"/>
     </row>
-    <row r="47" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="41"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
       </c>
@@ -42197,9 +42413,14 @@
       <c r="JY47" s="5">
         <v>1457</v>
       </c>
+      <c r="JZ47" s="5">
+        <v>1481</v>
+      </c>
+      <c r="KB47" s="35"/>
+      <c r="KC47"/>
     </row>
-    <row r="48" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
       <c r="B48" s="7" t="s">
         <v>265</v>
       </c>
@@ -43069,10 +43290,13 @@
         <f>SUM(JY28:JY47)</f>
         <v>520186</v>
       </c>
-      <c r="JZ48" s="1"/>
+      <c r="JZ48" s="8">
+        <f>SUM(JZ28:JZ47)</f>
+        <v>521651</v>
+      </c>
       <c r="KA48" s="1"/>
-      <c r="KB48" s="1"/>
-      <c r="KC48" s="1"/>
+      <c r="KB48" s="35"/>
+      <c r="KC48"/>
       <c r="KD48" s="1"/>
       <c r="KE48" s="1"/>
       <c r="KF48" s="1"/>
@@ -43696,9 +43920,10 @@
       <c r="AHZ48" s="1"/>
       <c r="AIA48" s="1"/>
       <c r="AIB48" s="1"/>
+      <c r="AIC48" s="1"/>
     </row>
-    <row r="49" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -44553,9 +44778,14 @@
       <c r="JY49" s="6">
         <v>19</v>
       </c>
+      <c r="JZ49" s="6">
+        <v>21</v>
+      </c>
+      <c r="KB49" s="35"/>
+      <c r="KC49"/>
     </row>
-    <row r="50" spans="1:285" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:289" x14ac:dyDescent="0.3">
+      <c r="A50" s="41"/>
       <c r="B50" s="4" t="s">
         <v>288</v>
       </c>
@@ -45408,9 +45638,14 @@
       <c r="JY50" s="6">
         <v>111</v>
       </c>
+      <c r="JZ50" s="6">
+        <v>117</v>
+      </c>
+      <c r="KB50"/>
+      <c r="KC50"/>
     </row>
-    <row r="51" spans="1:285" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:289" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
       <c r="B51" s="4" t="s">
         <v>289</v>
       </c>
@@ -46263,9 +46498,12 @@
       <c r="JY51" s="5">
         <v>1559</v>
       </c>
+      <c r="JZ51" s="5">
+        <v>1574</v>
+      </c>
     </row>
-    <row r="52" spans="1:285" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:289" x14ac:dyDescent="0.3">
+      <c r="A52" s="41"/>
       <c r="B52" s="4" t="s">
         <v>290</v>
       </c>
@@ -47118,9 +47356,12 @@
       <c r="JY52" s="5">
         <v>913</v>
       </c>
+      <c r="JZ52" s="5">
+        <v>872</v>
+      </c>
     </row>
-    <row r="53" spans="1:285" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:289" x14ac:dyDescent="0.3">
+      <c r="A53" s="41"/>
       <c r="B53" s="7" t="s">
         <v>286</v>
       </c>
@@ -47990,9 +48231,13 @@
         <f>SUM(JY49:JY52)</f>
         <v>2602</v>
       </c>
+      <c r="JZ53" s="8">
+        <f>SUM(JZ49:JZ52)</f>
+        <v>2584</v>
+      </c>
     </row>
-    <row r="54" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -48847,9 +49092,12 @@
       <c r="JY54" s="5">
         <v>5705</v>
       </c>
+      <c r="JZ54" s="5">
+        <v>5703</v>
+      </c>
     </row>
-    <row r="55" spans="1:285" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:289" x14ac:dyDescent="0.3">
+      <c r="A55" s="41"/>
       <c r="B55" s="4" t="s">
         <v>293</v>
       </c>
@@ -49702,9 +49950,12 @@
       <c r="JY55" s="5">
         <v>58326</v>
       </c>
+      <c r="JZ55" s="5">
+        <v>58041</v>
+      </c>
     </row>
-    <row r="56" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
+    <row r="56" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="41"/>
       <c r="B56" s="4" t="s">
         <v>294</v>
       </c>
@@ -50557,9 +50808,12 @@
       <c r="JY56" s="5">
         <v>6964</v>
       </c>
+      <c r="JZ56" s="5">
+        <v>6936</v>
+      </c>
     </row>
-    <row r="57" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="41"/>
       <c r="B57" s="4" t="s">
         <v>295</v>
       </c>
@@ -51412,9 +51666,12 @@
       <c r="JY57" s="5">
         <v>193323</v>
       </c>
+      <c r="JZ57" s="5">
+        <v>193393</v>
+      </c>
     </row>
-    <row r="58" spans="1:285" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:289" x14ac:dyDescent="0.3">
+      <c r="A58" s="41"/>
       <c r="B58" s="4" t="s">
         <v>296</v>
       </c>
@@ -52267,9 +52524,12 @@
       <c r="JY58" s="5">
         <v>36177</v>
       </c>
+      <c r="JZ58" s="5">
+        <v>35992</v>
+      </c>
     </row>
-    <row r="59" spans="1:285" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
+    <row r="59" spans="1:289" x14ac:dyDescent="0.3">
+      <c r="A59" s="41"/>
       <c r="B59" s="4" t="s">
         <v>297</v>
       </c>
@@ -53122,9 +53382,12 @@
       <c r="JY59" s="5">
         <v>7252</v>
       </c>
+      <c r="JZ59" s="5">
+        <v>7263</v>
+      </c>
     </row>
-    <row r="60" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="41"/>
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -53977,9 +54240,12 @@
       <c r="JY60" s="5">
         <v>45601</v>
       </c>
+      <c r="JZ60" s="5">
+        <v>48643</v>
+      </c>
     </row>
-    <row r="61" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
+    <row r="61" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="41"/>
       <c r="B61" s="4" t="s">
         <v>299</v>
       </c>
@@ -54832,9 +55098,12 @@
       <c r="JY61" s="6">
         <v>149</v>
       </c>
+      <c r="JZ61" s="6">
+        <v>152</v>
+      </c>
     </row>
-    <row r="62" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="38"/>
+    <row r="62" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="41"/>
       <c r="B62" s="4" t="s">
         <v>300</v>
       </c>
@@ -55687,9 +55956,12 @@
       <c r="JY62" s="5">
         <v>21147</v>
       </c>
+      <c r="JZ62" s="5">
+        <v>21317</v>
+      </c>
     </row>
-    <row r="63" spans="1:285" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="38"/>
+    <row r="63" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="41"/>
       <c r="B63" s="4" t="s">
         <v>301</v>
       </c>
@@ -56542,9 +56814,12 @@
       <c r="JY63" s="5">
         <v>35811</v>
       </c>
+      <c r="JZ63" s="5">
+        <v>35936</v>
+      </c>
     </row>
-    <row r="64" spans="1:285" x14ac:dyDescent="0.3">
-      <c r="A64" s="38"/>
+    <row r="64" spans="1:289" x14ac:dyDescent="0.3">
+      <c r="A64" s="41"/>
       <c r="B64" s="4" t="s">
         <v>302</v>
       </c>
@@ -57397,9 +57672,12 @@
       <c r="JY64" s="5">
         <v>50925</v>
       </c>
+      <c r="JZ64" s="5">
+        <v>51181</v>
+      </c>
     </row>
-    <row r="65" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
+    <row r="65" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A65" s="41"/>
       <c r="B65" s="4" t="s">
         <v>303</v>
       </c>
@@ -58252,9 +58530,12 @@
       <c r="JY65" s="5">
         <v>171212</v>
       </c>
+      <c r="JZ65" s="5">
+        <v>170576</v>
+      </c>
     </row>
-    <row r="66" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A66" s="38"/>
+    <row r="66" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A66" s="41"/>
       <c r="B66" s="4" t="s">
         <v>304</v>
       </c>
@@ -59107,9 +59388,12 @@
       <c r="JY66" s="5">
         <v>21357</v>
       </c>
+      <c r="JZ66" s="5">
+        <v>20945</v>
+      </c>
     </row>
-    <row r="67" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A67" s="38"/>
+    <row r="67" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A67" s="41"/>
       <c r="B67" s="4" t="s">
         <v>305</v>
       </c>
@@ -59962,13 +60246,12 @@
       <c r="JY67" s="5">
         <v>6724</v>
       </c>
-      <c r="KA67" s="3" t="e">
-        <f>GETPIVOTDATA("Trabajadores asegurados",#REF!,"División económica","SERVICIOS PARA EMPRESAS, PERSONAS Y EL HOGAR")+GETPIVOTDATA("Trabajadores asegurados",#REF!,"División económica","SERVICIOS SOCIALES Y COMUNALES")</f>
-        <v>#REF!</v>
+      <c r="JZ67" s="5">
+        <v>6755</v>
       </c>
     </row>
-    <row r="68" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="38"/>
+    <row r="68" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="41"/>
       <c r="B68" s="7" t="s">
         <v>291</v>
       </c>
@@ -60838,7 +61121,10 @@
         <f>SUM(JY54:JY67)</f>
         <v>660673</v>
       </c>
-      <c r="JZ68" s="1"/>
+      <c r="JZ68" s="8">
+        <f>SUM(JZ54:JZ67)</f>
+        <v>662833</v>
+      </c>
       <c r="KA68" s="1"/>
       <c r="KB68" s="1"/>
       <c r="KC68" s="1"/>
@@ -61465,9 +61751,10 @@
       <c r="AHZ68" s="1"/>
       <c r="AIA68" s="1"/>
       <c r="AIB68" s="1"/>
+      <c r="AIC68" s="1"/>
     </row>
-    <row r="69" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A69" s="38" t="s">
+    <row r="69" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A69" s="41" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -62322,9 +62609,12 @@
       <c r="JY69" s="5">
         <v>9751</v>
       </c>
+      <c r="JZ69" s="5">
+        <v>9952</v>
+      </c>
     </row>
-    <row r="70" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
+    <row r="70" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A70" s="41"/>
       <c r="B70" s="4" t="s">
         <v>308</v>
       </c>
@@ -63177,9 +63467,12 @@
       <c r="JY70" s="5">
         <v>991</v>
       </c>
+      <c r="JZ70" s="5">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="71" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="38"/>
+    <row r="71" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="41"/>
       <c r="B71" s="4" t="s">
         <v>309</v>
       </c>
@@ -64032,9 +64325,12 @@
       <c r="JY71" s="5">
         <v>35156</v>
       </c>
+      <c r="JZ71" s="5">
+        <v>35886</v>
+      </c>
     </row>
-    <row r="72" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A72" s="38"/>
+    <row r="72" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A72" s="41"/>
       <c r="B72" s="4" t="s">
         <v>310</v>
       </c>
@@ -64887,9 +65183,12 @@
       <c r="JY72" s="5">
         <v>4900</v>
       </c>
+      <c r="JZ72" s="5">
+        <v>4933</v>
+      </c>
     </row>
-    <row r="73" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A73" s="38"/>
+    <row r="73" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A73" s="41"/>
       <c r="B73" s="4" t="s">
         <v>311</v>
       </c>
@@ -65742,9 +66041,12 @@
       <c r="JY73" s="6">
         <v>657</v>
       </c>
+      <c r="JZ73" s="6">
+        <v>671</v>
+      </c>
     </row>
-    <row r="74" spans="1:912" x14ac:dyDescent="0.3">
-      <c r="A74" s="38"/>
+    <row r="74" spans="1:913" x14ac:dyDescent="0.3">
+      <c r="A74" s="41"/>
       <c r="B74" s="4" t="s">
         <v>312</v>
       </c>
@@ -66597,9 +66899,12 @@
       <c r="JY74" s="5">
         <v>54995</v>
       </c>
+      <c r="JZ74" s="5">
+        <v>54963</v>
+      </c>
     </row>
-    <row r="75" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="38"/>
+    <row r="75" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="41"/>
       <c r="B75" s="7" t="s">
         <v>306</v>
       </c>
@@ -67469,7 +67774,10 @@
         <f>SUM(JY69:JY74)</f>
         <v>106450</v>
       </c>
-      <c r="JZ75" s="1"/>
+      <c r="JZ75" s="8">
+        <f>SUM(JZ69:JZ74)</f>
+        <v>107418</v>
+      </c>
       <c r="KA75" s="1"/>
       <c r="KB75" s="1"/>
       <c r="KC75" s="1"/>
@@ -68096,8 +68404,9 @@
       <c r="AHZ75" s="1"/>
       <c r="AIA75" s="1"/>
       <c r="AIB75" s="1"/>
+      <c r="AIC75" s="1"/>
     </row>
-    <row r="76" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
@@ -68972,8 +69281,12 @@
         <f>JY11+JY21+JY24+JY27+JY48+JY53+JY68+JY75</f>
         <v>1981146</v>
       </c>
+      <c r="JZ76" s="31">
+        <f>JZ11+JZ21+JZ24+JZ27+JZ48+JZ53+JZ68+JZ75</f>
+        <v>1988746</v>
+      </c>
     </row>
-    <row r="77" spans="1:912" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:913" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -69700,8 +70013,9 @@
       <c r="ABA77" s="25"/>
       <c r="ABB77" s="25"/>
       <c r="ABC77" s="25"/>
+      <c r="ABD77" s="25"/>
     </row>
-    <row r="78" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:913" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
@@ -69726,7 +70040,7 @@
     <mergeCell ref="A28:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
-    <mergeCell ref="JS4:JY4"/>
+    <mergeCell ref="JS4:JZ4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6765AF0F-2607-4CC5-B6A7-C9380F5F06D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8676BC50-7F15-4F3B-8E5C-C12B7CFFF37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="361">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1135,6 +1135,9 @@
   <si>
     <t>2023/Agosto</t>
   </si>
+  <si>
+    <t>2023/Septiembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1739,7 +1742,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1837,26 +1840,19 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,11 +2217,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AIC78"/>
+  <dimension ref="A1:AIB78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KA83" sqref="KA83"/>
+      <pane xSplit="2" topLeftCell="JP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KF66" sqref="KF66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2507,365 +2503,364 @@
     <col min="283" max="283" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="284" max="285" width="10.77734375" style="3" customWidth="1"/>
     <col min="286" max="286" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="10.88671875" style="3"/>
-    <col min="288" max="288" width="49" style="3" customWidth="1"/>
-    <col min="289" max="289" width="13.109375" style="3" customWidth="1"/>
-    <col min="290" max="16384" width="10.88671875" style="3"/>
+    <col min="287" max="287" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="288" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:913" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:912" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:913" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:912" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="35">
         <v>2000</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35">
         <v>2001</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35">
         <v>2002</v>
       </c>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42">
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35">
         <v>2003</v>
       </c>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="42">
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="42"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="42"/>
-      <c r="BK4" s="42">
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35">
         <v>2005</v>
       </c>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="42"/>
-      <c r="BQ4" s="42"/>
-      <c r="BR4" s="42"/>
-      <c r="BS4" s="42"/>
-      <c r="BT4" s="42"/>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="42"/>
-      <c r="BW4" s="42">
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35">
         <v>2006</v>
       </c>
-      <c r="BX4" s="42"/>
-      <c r="BY4" s="42"/>
-      <c r="BZ4" s="42"/>
-      <c r="CA4" s="42"/>
-      <c r="CB4" s="42"/>
-      <c r="CC4" s="42"/>
-      <c r="CD4" s="42"/>
-      <c r="CE4" s="42"/>
-      <c r="CF4" s="42"/>
-      <c r="CG4" s="42"/>
-      <c r="CH4" s="42"/>
-      <c r="CI4" s="42">
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="35">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="42"/>
-      <c r="CK4" s="42"/>
-      <c r="CL4" s="42"/>
-      <c r="CM4" s="42"/>
-      <c r="CN4" s="42"/>
-      <c r="CO4" s="42"/>
-      <c r="CP4" s="42"/>
-      <c r="CQ4" s="42"/>
-      <c r="CR4" s="42"/>
-      <c r="CS4" s="42"/>
-      <c r="CT4" s="42"/>
-      <c r="CU4" s="42">
+      <c r="CJ4" s="35"/>
+      <c r="CK4" s="35"/>
+      <c r="CL4" s="35"/>
+      <c r="CM4" s="35"/>
+      <c r="CN4" s="35"/>
+      <c r="CO4" s="35"/>
+      <c r="CP4" s="35"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="35"/>
+      <c r="CT4" s="35"/>
+      <c r="CU4" s="35">
         <v>2008</v>
       </c>
-      <c r="CV4" s="42"/>
-      <c r="CW4" s="42"/>
-      <c r="CX4" s="42"/>
-      <c r="CY4" s="42"/>
-      <c r="CZ4" s="42"/>
-      <c r="DA4" s="42"/>
-      <c r="DB4" s="42"/>
-      <c r="DC4" s="42"/>
-      <c r="DD4" s="42"/>
-      <c r="DE4" s="42"/>
-      <c r="DF4" s="42"/>
-      <c r="DG4" s="42">
+      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
+      <c r="CX4" s="35"/>
+      <c r="CY4" s="35"/>
+      <c r="CZ4" s="35"/>
+      <c r="DA4" s="35"/>
+      <c r="DB4" s="35"/>
+      <c r="DC4" s="35"/>
+      <c r="DD4" s="35"/>
+      <c r="DE4" s="35"/>
+      <c r="DF4" s="35"/>
+      <c r="DG4" s="35">
         <v>2009</v>
       </c>
-      <c r="DH4" s="42"/>
-      <c r="DI4" s="42"/>
-      <c r="DJ4" s="42"/>
-      <c r="DK4" s="42"/>
-      <c r="DL4" s="42"/>
-      <c r="DM4" s="42"/>
-      <c r="DN4" s="42"/>
-      <c r="DO4" s="42"/>
-      <c r="DP4" s="42"/>
-      <c r="DQ4" s="42"/>
-      <c r="DR4" s="42"/>
-      <c r="DS4" s="42">
+      <c r="DH4" s="35"/>
+      <c r="DI4" s="35"/>
+      <c r="DJ4" s="35"/>
+      <c r="DK4" s="35"/>
+      <c r="DL4" s="35"/>
+      <c r="DM4" s="35"/>
+      <c r="DN4" s="35"/>
+      <c r="DO4" s="35"/>
+      <c r="DP4" s="35"/>
+      <c r="DQ4" s="35"/>
+      <c r="DR4" s="35"/>
+      <c r="DS4" s="35">
         <v>2010</v>
       </c>
-      <c r="DT4" s="42"/>
-      <c r="DU4" s="42"/>
-      <c r="DV4" s="42"/>
-      <c r="DW4" s="42"/>
-      <c r="DX4" s="42"/>
-      <c r="DY4" s="42"/>
-      <c r="DZ4" s="42"/>
-      <c r="EA4" s="42"/>
-      <c r="EB4" s="42"/>
-      <c r="EC4" s="42"/>
-      <c r="ED4" s="42"/>
-      <c r="EE4" s="42">
+      <c r="DT4" s="35"/>
+      <c r="DU4" s="35"/>
+      <c r="DV4" s="35"/>
+      <c r="DW4" s="35"/>
+      <c r="DX4" s="35"/>
+      <c r="DY4" s="35"/>
+      <c r="DZ4" s="35"/>
+      <c r="EA4" s="35"/>
+      <c r="EB4" s="35"/>
+      <c r="EC4" s="35"/>
+      <c r="ED4" s="35"/>
+      <c r="EE4" s="35">
         <v>2011</v>
       </c>
-      <c r="EF4" s="42"/>
-      <c r="EG4" s="42"/>
-      <c r="EH4" s="42"/>
-      <c r="EI4" s="42"/>
-      <c r="EJ4" s="42"/>
-      <c r="EK4" s="42"/>
-      <c r="EL4" s="42"/>
-      <c r="EM4" s="42"/>
-      <c r="EN4" s="42"/>
-      <c r="EO4" s="42"/>
-      <c r="EP4" s="42"/>
-      <c r="EQ4" s="42">
+      <c r="EF4" s="35"/>
+      <c r="EG4" s="35"/>
+      <c r="EH4" s="35"/>
+      <c r="EI4" s="35"/>
+      <c r="EJ4" s="35"/>
+      <c r="EK4" s="35"/>
+      <c r="EL4" s="35"/>
+      <c r="EM4" s="35"/>
+      <c r="EN4" s="35"/>
+      <c r="EO4" s="35"/>
+      <c r="EP4" s="35"/>
+      <c r="EQ4" s="35">
         <v>2012</v>
       </c>
-      <c r="ER4" s="42"/>
-      <c r="ES4" s="42"/>
-      <c r="ET4" s="42"/>
-      <c r="EU4" s="42"/>
-      <c r="EV4" s="42"/>
-      <c r="EW4" s="42"/>
-      <c r="EX4" s="42"/>
-      <c r="EY4" s="42"/>
-      <c r="EZ4" s="42"/>
-      <c r="FA4" s="42"/>
-      <c r="FB4" s="42"/>
-      <c r="FC4" s="42">
+      <c r="ER4" s="35"/>
+      <c r="ES4" s="35"/>
+      <c r="ET4" s="35"/>
+      <c r="EU4" s="35"/>
+      <c r="EV4" s="35"/>
+      <c r="EW4" s="35"/>
+      <c r="EX4" s="35"/>
+      <c r="EY4" s="35"/>
+      <c r="EZ4" s="35"/>
+      <c r="FA4" s="35"/>
+      <c r="FB4" s="35"/>
+      <c r="FC4" s="35">
         <v>2013</v>
       </c>
-      <c r="FD4" s="42"/>
-      <c r="FE4" s="42"/>
-      <c r="FF4" s="42"/>
-      <c r="FG4" s="42"/>
-      <c r="FH4" s="42"/>
-      <c r="FI4" s="42"/>
-      <c r="FJ4" s="42"/>
-      <c r="FK4" s="42"/>
-      <c r="FL4" s="42"/>
-      <c r="FM4" s="42"/>
-      <c r="FN4" s="42"/>
-      <c r="FO4" s="42">
+      <c r="FD4" s="35"/>
+      <c r="FE4" s="35"/>
+      <c r="FF4" s="35"/>
+      <c r="FG4" s="35"/>
+      <c r="FH4" s="35"/>
+      <c r="FI4" s="35"/>
+      <c r="FJ4" s="35"/>
+      <c r="FK4" s="35"/>
+      <c r="FL4" s="35"/>
+      <c r="FM4" s="35"/>
+      <c r="FN4" s="35"/>
+      <c r="FO4" s="35">
         <v>2014</v>
       </c>
-      <c r="FP4" s="42"/>
-      <c r="FQ4" s="42"/>
-      <c r="FR4" s="42"/>
-      <c r="FS4" s="42"/>
-      <c r="FT4" s="42"/>
-      <c r="FU4" s="42"/>
-      <c r="FV4" s="42"/>
-      <c r="FW4" s="42"/>
-      <c r="FX4" s="42"/>
-      <c r="FY4" s="42"/>
-      <c r="FZ4" s="42"/>
-      <c r="GA4" s="42">
+      <c r="FP4" s="35"/>
+      <c r="FQ4" s="35"/>
+      <c r="FR4" s="35"/>
+      <c r="FS4" s="35"/>
+      <c r="FT4" s="35"/>
+      <c r="FU4" s="35"/>
+      <c r="FV4" s="35"/>
+      <c r="FW4" s="35"/>
+      <c r="FX4" s="35"/>
+      <c r="FY4" s="35"/>
+      <c r="FZ4" s="35"/>
+      <c r="GA4" s="35">
         <v>2015</v>
       </c>
-      <c r="GB4" s="42"/>
-      <c r="GC4" s="42"/>
-      <c r="GD4" s="42"/>
-      <c r="GE4" s="42"/>
-      <c r="GF4" s="42"/>
-      <c r="GG4" s="42"/>
-      <c r="GH4" s="42"/>
-      <c r="GI4" s="42"/>
-      <c r="GJ4" s="42"/>
-      <c r="GK4" s="42"/>
-      <c r="GL4" s="42"/>
-      <c r="GM4" s="42">
+      <c r="GB4" s="35"/>
+      <c r="GC4" s="35"/>
+      <c r="GD4" s="35"/>
+      <c r="GE4" s="35"/>
+      <c r="GF4" s="35"/>
+      <c r="GG4" s="35"/>
+      <c r="GH4" s="35"/>
+      <c r="GI4" s="35"/>
+      <c r="GJ4" s="35"/>
+      <c r="GK4" s="35"/>
+      <c r="GL4" s="35"/>
+      <c r="GM4" s="35">
         <v>2016</v>
       </c>
-      <c r="GN4" s="42"/>
-      <c r="GO4" s="42"/>
-      <c r="GP4" s="42"/>
-      <c r="GQ4" s="42"/>
-      <c r="GR4" s="42"/>
-      <c r="GS4" s="42"/>
-      <c r="GT4" s="42"/>
-      <c r="GU4" s="42"/>
-      <c r="GV4" s="42"/>
-      <c r="GW4" s="42"/>
-      <c r="GX4" s="42"/>
-      <c r="GY4" s="42">
+      <c r="GN4" s="35"/>
+      <c r="GO4" s="35"/>
+      <c r="GP4" s="35"/>
+      <c r="GQ4" s="35"/>
+      <c r="GR4" s="35"/>
+      <c r="GS4" s="35"/>
+      <c r="GT4" s="35"/>
+      <c r="GU4" s="35"/>
+      <c r="GV4" s="35"/>
+      <c r="GW4" s="35"/>
+      <c r="GX4" s="35"/>
+      <c r="GY4" s="35">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="42"/>
-      <c r="HA4" s="42"/>
-      <c r="HB4" s="42"/>
-      <c r="HC4" s="42"/>
-      <c r="HD4" s="42"/>
-      <c r="HE4" s="42"/>
-      <c r="HF4" s="42"/>
-      <c r="HG4" s="42"/>
-      <c r="HH4" s="42"/>
-      <c r="HI4" s="42"/>
-      <c r="HJ4" s="42"/>
-      <c r="HK4" s="42">
+      <c r="GZ4" s="35"/>
+      <c r="HA4" s="35"/>
+      <c r="HB4" s="35"/>
+      <c r="HC4" s="35"/>
+      <c r="HD4" s="35"/>
+      <c r="HE4" s="35"/>
+      <c r="HF4" s="35"/>
+      <c r="HG4" s="35"/>
+      <c r="HH4" s="35"/>
+      <c r="HI4" s="35"/>
+      <c r="HJ4" s="35"/>
+      <c r="HK4" s="35">
         <v>2018</v>
       </c>
-      <c r="HL4" s="42"/>
-      <c r="HM4" s="42"/>
-      <c r="HN4" s="42"/>
-      <c r="HO4" s="42"/>
-      <c r="HP4" s="42"/>
-      <c r="HQ4" s="42"/>
-      <c r="HR4" s="42"/>
-      <c r="HS4" s="42"/>
-      <c r="HT4" s="42"/>
-      <c r="HU4" s="42"/>
-      <c r="HV4" s="42"/>
-      <c r="HW4" s="42">
+      <c r="HL4" s="35"/>
+      <c r="HM4" s="35"/>
+      <c r="HN4" s="35"/>
+      <c r="HO4" s="35"/>
+      <c r="HP4" s="35"/>
+      <c r="HQ4" s="35"/>
+      <c r="HR4" s="35"/>
+      <c r="HS4" s="35"/>
+      <c r="HT4" s="35"/>
+      <c r="HU4" s="35"/>
+      <c r="HV4" s="35"/>
+      <c r="HW4" s="35">
         <v>2019</v>
       </c>
-      <c r="HX4" s="42"/>
-      <c r="HY4" s="42"/>
-      <c r="HZ4" s="42"/>
-      <c r="IA4" s="42"/>
-      <c r="IB4" s="42"/>
-      <c r="IC4" s="42"/>
-      <c r="ID4" s="42"/>
-      <c r="IE4" s="42"/>
-      <c r="IF4" s="42"/>
-      <c r="IG4" s="42"/>
-      <c r="IH4" s="38"/>
-      <c r="II4" s="38">
+      <c r="HX4" s="35"/>
+      <c r="HY4" s="35"/>
+      <c r="HZ4" s="35"/>
+      <c r="IA4" s="35"/>
+      <c r="IB4" s="35"/>
+      <c r="IC4" s="35"/>
+      <c r="ID4" s="35"/>
+      <c r="IE4" s="35"/>
+      <c r="IF4" s="35"/>
+      <c r="IG4" s="35"/>
+      <c r="IH4" s="36"/>
+      <c r="II4" s="36">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="39"/>
-      <c r="IK4" s="39"/>
-      <c r="IL4" s="39"/>
-      <c r="IM4" s="39"/>
-      <c r="IN4" s="39"/>
-      <c r="IO4" s="39"/>
-      <c r="IP4" s="39"/>
-      <c r="IQ4" s="39"/>
-      <c r="IR4" s="39"/>
-      <c r="IS4" s="39"/>
-      <c r="IT4" s="40"/>
-      <c r="IU4" s="38">
+      <c r="IJ4" s="38"/>
+      <c r="IK4" s="38"/>
+      <c r="IL4" s="38"/>
+      <c r="IM4" s="38"/>
+      <c r="IN4" s="38"/>
+      <c r="IO4" s="38"/>
+      <c r="IP4" s="38"/>
+      <c r="IQ4" s="38"/>
+      <c r="IR4" s="38"/>
+      <c r="IS4" s="38"/>
+      <c r="IT4" s="39"/>
+      <c r="IU4" s="36">
         <v>2021</v>
       </c>
-      <c r="IV4" s="39"/>
-      <c r="IW4" s="39"/>
-      <c r="IX4" s="39"/>
-      <c r="IY4" s="39"/>
-      <c r="IZ4" s="39"/>
-      <c r="JA4" s="39"/>
-      <c r="JB4" s="39"/>
-      <c r="JC4" s="39"/>
-      <c r="JD4" s="39"/>
-      <c r="JE4" s="39"/>
-      <c r="JF4" s="40"/>
-      <c r="JG4" s="42">
+      <c r="IV4" s="38"/>
+      <c r="IW4" s="38"/>
+      <c r="IX4" s="38"/>
+      <c r="IY4" s="38"/>
+      <c r="IZ4" s="38"/>
+      <c r="JA4" s="38"/>
+      <c r="JB4" s="38"/>
+      <c r="JC4" s="38"/>
+      <c r="JD4" s="38"/>
+      <c r="JE4" s="38"/>
+      <c r="JF4" s="39"/>
+      <c r="JG4" s="35">
         <v>2022</v>
       </c>
-      <c r="JH4" s="42"/>
-      <c r="JI4" s="42"/>
-      <c r="JJ4" s="42"/>
-      <c r="JK4" s="42"/>
-      <c r="JL4" s="42"/>
-      <c r="JM4" s="42"/>
-      <c r="JN4" s="42"/>
-      <c r="JO4" s="42"/>
-      <c r="JP4" s="42"/>
-      <c r="JQ4" s="42"/>
-      <c r="JR4" s="42"/>
-      <c r="JS4" s="38">
+      <c r="JH4" s="35"/>
+      <c r="JI4" s="35"/>
+      <c r="JJ4" s="35"/>
+      <c r="JK4" s="35"/>
+      <c r="JL4" s="35"/>
+      <c r="JM4" s="35"/>
+      <c r="JN4" s="35"/>
+      <c r="JO4" s="35"/>
+      <c r="JP4" s="35"/>
+      <c r="JQ4" s="35"/>
+      <c r="JR4" s="35"/>
+      <c r="JS4" s="36">
         <v>2023</v>
       </c>
-      <c r="JT4" s="39"/>
-      <c r="JU4" s="39"/>
-      <c r="JV4" s="39"/>
-      <c r="JW4" s="39"/>
-      <c r="JX4" s="39"/>
-      <c r="JY4" s="39"/>
-      <c r="JZ4" s="40"/>
+      <c r="JT4" s="38"/>
+      <c r="JU4" s="38"/>
+      <c r="JV4" s="38"/>
+      <c r="JW4" s="38"/>
+      <c r="JX4" s="38"/>
+      <c r="JY4" s="38"/>
+      <c r="JZ4" s="38"/>
+      <c r="KA4" s="39"/>
     </row>
-    <row r="5" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
+    <row r="5" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
@@ -3718,9 +3713,12 @@
       <c r="JZ5" s="34" t="s">
         <v>359</v>
       </c>
+      <c r="KA5" s="34" t="s">
+        <v>360</v>
+      </c>
     </row>
-    <row r="6" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4578,11 +4576,12 @@
       <c r="JZ6" s="5">
         <v>90842</v>
       </c>
-      <c r="KB6" s="36"/>
-      <c r="KC6" s="36"/>
+      <c r="KA6" s="5">
+        <v>93023</v>
+      </c>
     </row>
-    <row r="7" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+    <row r="7" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
       <c r="B7" s="4" t="s">
         <v>245</v>
       </c>
@@ -5438,11 +5437,12 @@
       <c r="JZ7" s="6">
         <v>49</v>
       </c>
-      <c r="KB7" s="35"/>
-      <c r="KC7"/>
+      <c r="KA7" s="6">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+    <row r="8" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>246</v>
       </c>
@@ -6298,11 +6298,12 @@
       <c r="JZ8" s="5">
         <v>24376</v>
       </c>
-      <c r="KB8" s="35"/>
-      <c r="KC8"/>
+      <c r="KA8" s="5">
+        <v>24404</v>
+      </c>
     </row>
-    <row r="9" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
         <v>247</v>
       </c>
@@ -7158,11 +7159,12 @@
       <c r="JZ9" s="5">
         <v>274</v>
       </c>
-      <c r="KB9" s="35"/>
-      <c r="KC9"/>
+      <c r="KA9" s="5">
+        <v>268</v>
+      </c>
     </row>
-    <row r="10" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>248</v>
       </c>
@@ -8018,11 +8020,12 @@
       <c r="JZ10" s="6">
         <v>504</v>
       </c>
-      <c r="KB10" s="35"/>
-      <c r="KC10"/>
+      <c r="KA10" s="6">
+        <v>480</v>
+      </c>
     </row>
-    <row r="11" spans="1:913" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
+    <row r="11" spans="1:912" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>244</v>
       </c>
@@ -8893,12 +8896,14 @@
         <v>116264</v>
       </c>
       <c r="JZ11" s="8">
-        <f>SUM(JZ6:JZ10)</f>
         <v>116045</v>
       </c>
-      <c r="KA11" s="1"/>
-      <c r="KB11" s="35"/>
-      <c r="KC11"/>
+      <c r="KA11" s="8">
+        <f>SUM(KA6:KA10)</f>
+        <v>118223</v>
+      </c>
+      <c r="KB11" s="1"/>
+      <c r="KC11" s="1"/>
       <c r="KD11" s="1"/>
       <c r="KE11" s="1"/>
       <c r="KF11" s="1"/>
@@ -9522,10 +9527,9 @@
       <c r="AHZ11" s="1"/>
       <c r="AIA11" s="1"/>
       <c r="AIB11" s="1"/>
-      <c r="AIC11" s="1"/>
     </row>
-    <row r="12" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10383,11 +10387,12 @@
       <c r="JZ12" s="5">
         <v>83352</v>
       </c>
-      <c r="KB12" s="36"/>
-      <c r="KC12" s="36"/>
+      <c r="KA12" s="5">
+        <v>84099</v>
+      </c>
     </row>
-    <row r="13" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
       <c r="B13" s="4" t="s">
         <v>251</v>
       </c>
@@ -11243,11 +11248,12 @@
       <c r="JZ13" s="5">
         <v>20498</v>
       </c>
-      <c r="KB13" s="35"/>
-      <c r="KC13"/>
+      <c r="KA13" s="5">
+        <v>20253</v>
+      </c>
     </row>
-    <row r="14" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
       <c r="B14" s="4" t="s">
         <v>252</v>
       </c>
@@ -12103,11 +12109,12 @@
       <c r="JZ14" s="5">
         <v>37061</v>
       </c>
-      <c r="KB14" s="35"/>
-      <c r="KC14"/>
+      <c r="KA14" s="5">
+        <v>37171</v>
+      </c>
     </row>
-    <row r="15" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
       <c r="B15" s="4" t="s">
         <v>253</v>
       </c>
@@ -12963,11 +12970,12 @@
       <c r="JZ15" s="5">
         <v>22905</v>
       </c>
-      <c r="KB15" s="35"/>
-      <c r="KC15"/>
+      <c r="KA15" s="5">
+        <v>22901</v>
+      </c>
     </row>
-    <row r="16" spans="1:913" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:912" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
       <c r="B16" s="4" t="s">
         <v>254</v>
       </c>
@@ -13823,11 +13831,12 @@
       <c r="JZ16" s="5">
         <v>13985</v>
       </c>
-      <c r="KB16" s="35"/>
-      <c r="KC16"/>
+      <c r="KA16" s="5">
+        <v>14474</v>
+      </c>
     </row>
-    <row r="17" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+    <row r="17" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
       <c r="B17" s="4" t="s">
         <v>255</v>
       </c>
@@ -14683,11 +14692,12 @@
       <c r="JZ17" s="5">
         <v>50794</v>
       </c>
-      <c r="KB17" s="35"/>
-      <c r="KC17"/>
+      <c r="KA17" s="5">
+        <v>50727</v>
+      </c>
     </row>
-    <row r="18" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
       <c r="B18" s="4" t="s">
         <v>256</v>
       </c>
@@ -15543,11 +15553,12 @@
       <c r="JZ18" s="5">
         <v>62802</v>
       </c>
-      <c r="KB18" s="35"/>
-      <c r="KC18"/>
+      <c r="KA18" s="5">
+        <v>62816</v>
+      </c>
     </row>
-    <row r="19" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
+    <row r="19" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
       <c r="B19" s="4" t="s">
         <v>257</v>
       </c>
@@ -16403,11 +16414,12 @@
       <c r="JZ19" s="5">
         <v>71794</v>
       </c>
-      <c r="KB19" s="35"/>
-      <c r="KC19"/>
+      <c r="KA19" s="5">
+        <v>71171</v>
+      </c>
     </row>
-    <row r="20" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+    <row r="20" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
         <v>258</v>
       </c>
@@ -17263,11 +17275,12 @@
       <c r="JZ20" s="5">
         <v>47916</v>
       </c>
-      <c r="KB20" s="35"/>
-      <c r="KC20"/>
+      <c r="KA20" s="5">
+        <v>49004</v>
+      </c>
     </row>
-    <row r="21" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
+    <row r="21" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
       </c>
@@ -18138,12 +18151,14 @@
         <v>411628</v>
       </c>
       <c r="JZ21" s="8">
-        <f>SUM(JZ12:JZ20)</f>
         <v>411107</v>
       </c>
-      <c r="KA21" s="1"/>
-      <c r="KB21" s="35"/>
-      <c r="KC21"/>
+      <c r="KA21" s="8">
+        <f>SUM(KA12:KA20)</f>
+        <v>412616</v>
+      </c>
+      <c r="KB21" s="1"/>
+      <c r="KC21" s="1"/>
       <c r="KD21" s="1"/>
       <c r="KE21" s="1"/>
       <c r="KF21" s="1"/>
@@ -18767,10 +18782,9 @@
       <c r="AHZ21" s="1"/>
       <c r="AIA21" s="1"/>
       <c r="AIB21" s="1"/>
-      <c r="AIC21" s="1"/>
     </row>
-    <row r="22" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -19628,11 +19642,12 @@
       <c r="JZ22" s="5">
         <v>117958</v>
       </c>
-      <c r="KB22" s="36"/>
-      <c r="KC22" s="36"/>
+      <c r="KA22" s="5">
+        <v>117424</v>
+      </c>
     </row>
-    <row r="23" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
         <v>261</v>
       </c>
@@ -20488,11 +20503,12 @@
       <c r="JZ23" s="5">
         <v>39065</v>
       </c>
-      <c r="KB23" s="35"/>
-      <c r="KC23"/>
+      <c r="KA23" s="5">
+        <v>39327</v>
+      </c>
     </row>
-    <row r="24" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
+    <row r="24" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
       <c r="B24" s="7" t="s">
         <v>259</v>
       </c>
@@ -21363,12 +21379,14 @@
         <v>153255</v>
       </c>
       <c r="JZ24" s="8">
-        <f>SUM(JZ22:JZ23)</f>
         <v>157023</v>
       </c>
-      <c r="KA24" s="1"/>
-      <c r="KB24" s="35"/>
-      <c r="KC24"/>
+      <c r="KA24" s="8">
+        <f>SUM(KA22:KA23)</f>
+        <v>156751</v>
+      </c>
+      <c r="KB24" s="1"/>
+      <c r="KC24" s="1"/>
       <c r="KD24" s="1"/>
       <c r="KE24" s="1"/>
       <c r="KF24" s="1"/>
@@ -21992,10 +22010,9 @@
       <c r="AHZ24" s="1"/>
       <c r="AIA24" s="1"/>
       <c r="AIB24" s="1"/>
-      <c r="AIC24" s="1"/>
     </row>
-    <row r="25" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -22853,11 +22870,12 @@
       <c r="JZ25" s="5">
         <v>4501</v>
       </c>
-      <c r="KB25" s="37"/>
-      <c r="KC25" s="36"/>
+      <c r="KA25" s="5">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="26" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
+    <row r="26" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
       <c r="B26" s="4" t="s">
         <v>264</v>
       </c>
@@ -23713,9 +23731,12 @@
       <c r="JZ26" s="5">
         <v>5584</v>
       </c>
+      <c r="KA26" s="5">
+        <v>5607</v>
+      </c>
     </row>
-    <row r="27" spans="1:913" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
+    <row r="27" spans="1:912" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
       <c r="B27" s="7" t="s">
         <v>262</v>
       </c>
@@ -24586,10 +24607,12 @@
         <v>10088</v>
       </c>
       <c r="JZ27" s="8">
-        <f>SUM(JZ25:JZ26)</f>
         <v>10085</v>
       </c>
-      <c r="KA27" s="1"/>
+      <c r="KA27" s="8">
+        <f>SUM(KA25:KA26)</f>
+        <v>10107</v>
+      </c>
       <c r="KB27" s="1"/>
       <c r="KC27" s="1"/>
       <c r="KD27" s="1"/>
@@ -25215,10 +25238,9 @@
       <c r="AHZ27" s="1"/>
       <c r="AIA27" s="1"/>
       <c r="AIB27" s="1"/>
-      <c r="AIC27" s="1"/>
     </row>
-    <row r="28" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -26076,11 +26098,12 @@
       <c r="JZ28" s="5">
         <v>843</v>
       </c>
-      <c r="KB28"/>
-      <c r="KC28"/>
+      <c r="KA28" s="5">
+        <v>842</v>
+      </c>
     </row>
-    <row r="29" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
+    <row r="29" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
       <c r="B29" s="4" t="s">
         <v>267</v>
       </c>
@@ -26936,11 +26959,12 @@
       <c r="JZ29" s="5">
         <v>10659</v>
       </c>
-      <c r="KB29" s="35"/>
-      <c r="KC29"/>
+      <c r="KA29" s="5">
+        <v>10687</v>
+      </c>
     </row>
-    <row r="30" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
+    <row r="30" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
       <c r="B30" s="4" t="s">
         <v>268</v>
       </c>
@@ -27796,11 +27820,12 @@
       <c r="JZ30" s="5">
         <v>27813</v>
       </c>
-      <c r="KB30" s="35"/>
-      <c r="KC30"/>
+      <c r="KA30" s="5">
+        <v>28491</v>
+      </c>
     </row>
-    <row r="31" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
+    <row r="31" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
       <c r="B31" s="4" t="s">
         <v>269</v>
       </c>
@@ -28656,11 +28681,12 @@
       <c r="JZ31" s="5">
         <v>108058</v>
       </c>
-      <c r="KB31" s="35"/>
-      <c r="KC31"/>
+      <c r="KA31" s="5">
+        <v>108504</v>
+      </c>
     </row>
-    <row r="32" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
+    <row r="32" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
       <c r="B32" s="4" t="s">
         <v>270</v>
       </c>
@@ -29516,11 +29542,12 @@
       <c r="JZ32" s="5">
         <v>27644</v>
       </c>
-      <c r="KB32" s="35"/>
-      <c r="KC32"/>
+      <c r="KA32" s="5">
+        <v>27676</v>
+      </c>
     </row>
-    <row r="33" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
+    <row r="33" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
       <c r="B33" s="4" t="s">
         <v>271</v>
       </c>
@@ -30376,11 +30403,12 @@
       <c r="JZ33" s="5">
         <v>9591</v>
       </c>
-      <c r="KB33" s="35"/>
-      <c r="KC33"/>
+      <c r="KA33" s="5">
+        <v>9519</v>
+      </c>
     </row>
-    <row r="34" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
+    <row r="34" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
       <c r="B34" s="4" t="s">
         <v>272</v>
       </c>
@@ -31236,11 +31264,12 @@
       <c r="JZ34" s="5">
         <v>45694</v>
       </c>
-      <c r="KB34" s="35"/>
-      <c r="KC34"/>
+      <c r="KA34" s="5">
+        <v>46028</v>
+      </c>
     </row>
-    <row r="35" spans="1:913" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
+    <row r="35" spans="1:912" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37"/>
       <c r="B35" s="4" t="s">
         <v>273</v>
       </c>
@@ -32096,11 +32125,12 @@
       <c r="JZ35" s="5">
         <v>11323</v>
       </c>
-      <c r="KB35" s="35"/>
-      <c r="KC35"/>
+      <c r="KA35" s="5">
+        <v>11167</v>
+      </c>
     </row>
-    <row r="36" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
+    <row r="36" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
       <c r="B36" s="4" t="s">
         <v>274</v>
       </c>
@@ -32956,11 +32986,12 @@
       <c r="JZ36" s="5">
         <v>54055</v>
       </c>
-      <c r="KB36" s="35"/>
-      <c r="KC36"/>
+      <c r="KA36" s="5">
+        <v>54036</v>
+      </c>
     </row>
-    <row r="37" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
+    <row r="37" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="37"/>
       <c r="B37" s="4" t="s">
         <v>275</v>
       </c>
@@ -33816,11 +33847,12 @@
       <c r="JZ37" s="5">
         <v>75943</v>
       </c>
-      <c r="KB37" s="35"/>
-      <c r="KC37"/>
+      <c r="KA37" s="5">
+        <v>75325</v>
+      </c>
     </row>
-    <row r="38" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
+    <row r="38" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="37"/>
       <c r="B38" s="4" t="s">
         <v>276</v>
       </c>
@@ -34676,11 +34708,12 @@
       <c r="JZ38" s="5">
         <v>21206</v>
       </c>
-      <c r="KB38" s="35"/>
-      <c r="KC38"/>
+      <c r="KA38" s="5">
+        <v>21356</v>
+      </c>
     </row>
-    <row r="39" spans="1:913" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
+    <row r="39" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="37"/>
       <c r="B39" s="4" t="s">
         <v>277</v>
       </c>
@@ -35536,11 +35569,12 @@
       <c r="JZ39" s="5">
         <v>25159</v>
       </c>
-      <c r="KB39" s="35"/>
-      <c r="KC39"/>
+      <c r="KA39" s="5">
+        <v>25510</v>
+      </c>
     </row>
-    <row r="40" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
+    <row r="40" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
       <c r="B40" s="4" t="s">
         <v>278</v>
       </c>
@@ -36396,11 +36430,12 @@
       <c r="JZ40" s="5">
         <v>12796</v>
       </c>
-      <c r="KB40" s="35"/>
-      <c r="KC40"/>
+      <c r="KA40" s="5">
+        <v>12964</v>
+      </c>
     </row>
-    <row r="41" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
+    <row r="41" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
       <c r="B41" s="4" t="s">
         <v>279</v>
       </c>
@@ -37256,11 +37291,12 @@
       <c r="JZ41" s="5">
         <v>11143</v>
       </c>
-      <c r="KB41" s="35"/>
-      <c r="KC41"/>
+      <c r="KA41" s="5">
+        <v>11196</v>
+      </c>
     </row>
-    <row r="42" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
+    <row r="42" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A42" s="37"/>
       <c r="B42" s="4" t="s">
         <v>280</v>
       </c>
@@ -38116,11 +38152,12 @@
       <c r="JZ42" s="5">
         <v>46126</v>
       </c>
-      <c r="KB42" s="35"/>
-      <c r="KC42"/>
+      <c r="KA42" s="5">
+        <v>46527</v>
+      </c>
     </row>
-    <row r="43" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
+    <row r="43" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
       <c r="B43" s="4" t="s">
         <v>281</v>
       </c>
@@ -38976,11 +39013,12 @@
       <c r="JZ43" s="5">
         <v>4680</v>
       </c>
-      <c r="KB43" s="35"/>
-      <c r="KC43"/>
+      <c r="KA43" s="5">
+        <v>4761</v>
+      </c>
     </row>
-    <row r="44" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
+    <row r="44" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="37"/>
       <c r="B44" s="4" t="s">
         <v>282</v>
       </c>
@@ -39836,11 +39874,12 @@
       <c r="JZ44" s="5">
         <v>5596</v>
       </c>
-      <c r="KB44" s="35"/>
-      <c r="KC44"/>
+      <c r="KA44" s="5">
+        <v>5338</v>
+      </c>
     </row>
-    <row r="45" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
+    <row r="45" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A45" s="37"/>
       <c r="B45" s="4" t="s">
         <v>283</v>
       </c>
@@ -40696,11 +40735,12 @@
       <c r="JZ45" s="5">
         <v>7190</v>
       </c>
-      <c r="KB45" s="35"/>
-      <c r="KC45"/>
+      <c r="KA45" s="5">
+        <v>7257</v>
+      </c>
     </row>
-    <row r="46" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
+    <row r="46" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A46" s="37"/>
       <c r="B46" s="4" t="s">
         <v>284</v>
       </c>
@@ -41556,11 +41596,12 @@
       <c r="JZ46" s="5">
         <v>14651</v>
       </c>
-      <c r="KB46" s="35"/>
-      <c r="KC46"/>
+      <c r="KA46" s="5">
+        <v>14726</v>
+      </c>
     </row>
-    <row r="47" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
+    <row r="47" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="37"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
       </c>
@@ -42416,11 +42457,12 @@
       <c r="JZ47" s="5">
         <v>1481</v>
       </c>
-      <c r="KB47" s="35"/>
-      <c r="KC47"/>
+      <c r="KA47" s="5">
+        <v>1456</v>
+      </c>
     </row>
-    <row r="48" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
+    <row r="48" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37"/>
       <c r="B48" s="7" t="s">
         <v>265</v>
       </c>
@@ -43291,12 +43333,14 @@
         <v>520186</v>
       </c>
       <c r="JZ48" s="8">
-        <f>SUM(JZ28:JZ47)</f>
         <v>521651</v>
       </c>
-      <c r="KA48" s="1"/>
-      <c r="KB48" s="35"/>
-      <c r="KC48"/>
+      <c r="KA48" s="8">
+        <f>SUM(KA28:KA47)</f>
+        <v>523366</v>
+      </c>
+      <c r="KB48" s="1"/>
+      <c r="KC48" s="1"/>
       <c r="KD48" s="1"/>
       <c r="KE48" s="1"/>
       <c r="KF48" s="1"/>
@@ -43920,10 +43964,9 @@
       <c r="AHZ48" s="1"/>
       <c r="AIA48" s="1"/>
       <c r="AIB48" s="1"/>
-      <c r="AIC48" s="1"/>
     </row>
-    <row r="49" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -44781,11 +44824,12 @@
       <c r="JZ49" s="6">
         <v>21</v>
       </c>
-      <c r="KB49" s="35"/>
-      <c r="KC49"/>
+      <c r="KA49" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="50" spans="1:289" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
+    <row r="50" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A50" s="37"/>
       <c r="B50" s="4" t="s">
         <v>288</v>
       </c>
@@ -45641,11 +45685,12 @@
       <c r="JZ50" s="6">
         <v>117</v>
       </c>
-      <c r="KB50"/>
-      <c r="KC50"/>
+      <c r="KA50" s="6">
+        <v>129</v>
+      </c>
     </row>
-    <row r="51" spans="1:289" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
+    <row r="51" spans="1:287" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="37"/>
       <c r="B51" s="4" t="s">
         <v>289</v>
       </c>
@@ -46501,9 +46546,12 @@
       <c r="JZ51" s="5">
         <v>1574</v>
       </c>
+      <c r="KA51" s="5">
+        <v>1556</v>
+      </c>
     </row>
-    <row r="52" spans="1:289" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
+    <row r="52" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A52" s="37"/>
       <c r="B52" s="4" t="s">
         <v>290</v>
       </c>
@@ -47359,9 +47407,12 @@
       <c r="JZ52" s="5">
         <v>872</v>
       </c>
+      <c r="KA52" s="5">
+        <v>854</v>
+      </c>
     </row>
-    <row r="53" spans="1:289" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
+    <row r="53" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A53" s="37"/>
       <c r="B53" s="7" t="s">
         <v>286</v>
       </c>
@@ -48232,12 +48283,15 @@
         <v>2602</v>
       </c>
       <c r="JZ53" s="8">
-        <f>SUM(JZ49:JZ52)</f>
         <v>2584</v>
       </c>
+      <c r="KA53" s="8">
+        <f>SUM(KA49:KA52)</f>
+        <v>2562</v>
+      </c>
     </row>
-    <row r="54" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+    <row r="54" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="37" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -49095,9 +49149,12 @@
       <c r="JZ54" s="5">
         <v>5703</v>
       </c>
+      <c r="KA54" s="5">
+        <v>5729</v>
+      </c>
     </row>
-    <row r="55" spans="1:289" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
+    <row r="55" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A55" s="37"/>
       <c r="B55" s="4" t="s">
         <v>293</v>
       </c>
@@ -49953,9 +50010,12 @@
       <c r="JZ55" s="5">
         <v>58041</v>
       </c>
+      <c r="KA55" s="5">
+        <v>58790</v>
+      </c>
     </row>
-    <row r="56" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
+    <row r="56" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="37"/>
       <c r="B56" s="4" t="s">
         <v>294</v>
       </c>
@@ -50811,9 +50871,12 @@
       <c r="JZ56" s="5">
         <v>6936</v>
       </c>
+      <c r="KA56" s="5">
+        <v>6909</v>
+      </c>
     </row>
-    <row r="57" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
+    <row r="57" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="37"/>
       <c r="B57" s="4" t="s">
         <v>295</v>
       </c>
@@ -51669,9 +51732,12 @@
       <c r="JZ57" s="5">
         <v>193393</v>
       </c>
+      <c r="KA57" s="5">
+        <v>194226</v>
+      </c>
     </row>
-    <row r="58" spans="1:289" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
+    <row r="58" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A58" s="37"/>
       <c r="B58" s="4" t="s">
         <v>296</v>
       </c>
@@ -52527,9 +52593,12 @@
       <c r="JZ58" s="5">
         <v>35992</v>
       </c>
+      <c r="KA58" s="5">
+        <v>35759</v>
+      </c>
     </row>
-    <row r="59" spans="1:289" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
+    <row r="59" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A59" s="37"/>
       <c r="B59" s="4" t="s">
         <v>297</v>
       </c>
@@ -53385,9 +53454,12 @@
       <c r="JZ59" s="5">
         <v>7263</v>
       </c>
+      <c r="KA59" s="5">
+        <v>7380</v>
+      </c>
     </row>
-    <row r="60" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
+    <row r="60" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="37"/>
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -54243,9 +54315,12 @@
       <c r="JZ60" s="5">
         <v>48643</v>
       </c>
+      <c r="KA60" s="5">
+        <v>51112</v>
+      </c>
     </row>
-    <row r="61" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
+    <row r="61" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="37"/>
       <c r="B61" s="4" t="s">
         <v>299</v>
       </c>
@@ -55101,9 +55176,12 @@
       <c r="JZ61" s="6">
         <v>152</v>
       </c>
+      <c r="KA61" s="6">
+        <v>152</v>
+      </c>
     </row>
-    <row r="62" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
+    <row r="62" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="37"/>
       <c r="B62" s="4" t="s">
         <v>300</v>
       </c>
@@ -55959,9 +56037,12 @@
       <c r="JZ62" s="5">
         <v>21317</v>
       </c>
+      <c r="KA62" s="5">
+        <v>21261</v>
+      </c>
     </row>
-    <row r="63" spans="1:289" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
+    <row r="63" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="37"/>
       <c r="B63" s="4" t="s">
         <v>301</v>
       </c>
@@ -56817,9 +56898,12 @@
       <c r="JZ63" s="5">
         <v>35936</v>
       </c>
+      <c r="KA63" s="5">
+        <v>36003</v>
+      </c>
     </row>
-    <row r="64" spans="1:289" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
+    <row r="64" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A64" s="37"/>
       <c r="B64" s="4" t="s">
         <v>302</v>
       </c>
@@ -57675,9 +57759,12 @@
       <c r="JZ64" s="5">
         <v>51181</v>
       </c>
+      <c r="KA64" s="5">
+        <v>50966</v>
+      </c>
     </row>
-    <row r="65" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
+    <row r="65" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A65" s="37"/>
       <c r="B65" s="4" t="s">
         <v>303</v>
       </c>
@@ -58533,9 +58620,12 @@
       <c r="JZ65" s="5">
         <v>170576</v>
       </c>
+      <c r="KA65" s="5">
+        <v>171557</v>
+      </c>
     </row>
-    <row r="66" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A66" s="41"/>
+    <row r="66" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A66" s="37"/>
       <c r="B66" s="4" t="s">
         <v>304</v>
       </c>
@@ -59391,9 +59481,12 @@
       <c r="JZ66" s="5">
         <v>20945</v>
       </c>
+      <c r="KA66" s="5">
+        <v>21085</v>
+      </c>
     </row>
-    <row r="67" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
+    <row r="67" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A67" s="37"/>
       <c r="B67" s="4" t="s">
         <v>305</v>
       </c>
@@ -60249,9 +60342,12 @@
       <c r="JZ67" s="5">
         <v>6755</v>
       </c>
+      <c r="KA67" s="5">
+        <v>6942</v>
+      </c>
     </row>
-    <row r="68" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
+    <row r="68" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="37"/>
       <c r="B68" s="7" t="s">
         <v>291</v>
       </c>
@@ -61122,10 +61218,12 @@
         <v>660673</v>
       </c>
       <c r="JZ68" s="8">
-        <f>SUM(JZ54:JZ67)</f>
         <v>662833</v>
       </c>
-      <c r="KA68" s="1"/>
+      <c r="KA68" s="8">
+        <f>SUM(KA54:KA67)</f>
+        <v>667871</v>
+      </c>
       <c r="KB68" s="1"/>
       <c r="KC68" s="1"/>
       <c r="KD68" s="1"/>
@@ -61751,10 +61849,9 @@
       <c r="AHZ68" s="1"/>
       <c r="AIA68" s="1"/>
       <c r="AIB68" s="1"/>
-      <c r="AIC68" s="1"/>
     </row>
-    <row r="69" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A69" s="41" t="s">
+    <row r="69" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A69" s="37" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -62612,9 +62709,12 @@
       <c r="JZ69" s="5">
         <v>9952</v>
       </c>
+      <c r="KA69" s="5">
+        <v>10089</v>
+      </c>
     </row>
-    <row r="70" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
+    <row r="70" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A70" s="37"/>
       <c r="B70" s="4" t="s">
         <v>308</v>
       </c>
@@ -63470,9 +63570,12 @@
       <c r="JZ70" s="5">
         <v>1013</v>
       </c>
+      <c r="KA70" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="71" spans="1:913" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
+    <row r="71" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="37"/>
       <c r="B71" s="4" t="s">
         <v>309</v>
       </c>
@@ -64328,9 +64431,12 @@
       <c r="JZ71" s="5">
         <v>35886</v>
       </c>
+      <c r="KA71" s="5">
+        <v>36122</v>
+      </c>
     </row>
-    <row r="72" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A72" s="41"/>
+    <row r="72" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A72" s="37"/>
       <c r="B72" s="4" t="s">
         <v>310</v>
       </c>
@@ -65186,9 +65292,12 @@
       <c r="JZ72" s="5">
         <v>4933</v>
       </c>
+      <c r="KA72" s="5">
+        <v>4906</v>
+      </c>
     </row>
-    <row r="73" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
+    <row r="73" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A73" s="37"/>
       <c r="B73" s="4" t="s">
         <v>311</v>
       </c>
@@ -66044,9 +66153,12 @@
       <c r="JZ73" s="6">
         <v>671</v>
       </c>
+      <c r="KA73" s="6">
+        <v>700</v>
+      </c>
     </row>
-    <row r="74" spans="1:913" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
+    <row r="74" spans="1:912" x14ac:dyDescent="0.3">
+      <c r="A74" s="37"/>
       <c r="B74" s="4" t="s">
         <v>312</v>
       </c>
@@ -66902,9 +67014,12 @@
       <c r="JZ74" s="5">
         <v>54963</v>
       </c>
+      <c r="KA74" s="5">
+        <v>55047</v>
+      </c>
     </row>
-    <row r="75" spans="1:913" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41"/>
+    <row r="75" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="37"/>
       <c r="B75" s="7" t="s">
         <v>306</v>
       </c>
@@ -67775,10 +67890,12 @@
         <v>106450</v>
       </c>
       <c r="JZ75" s="8">
-        <f>SUM(JZ69:JZ74)</f>
         <v>107418</v>
       </c>
-      <c r="KA75" s="1"/>
+      <c r="KA75" s="8">
+        <f>SUM(KA69:KA74)</f>
+        <v>107864</v>
+      </c>
       <c r="KB75" s="1"/>
       <c r="KC75" s="1"/>
       <c r="KD75" s="1"/>
@@ -68404,9 +68521,8 @@
       <c r="AHZ75" s="1"/>
       <c r="AIA75" s="1"/>
       <c r="AIB75" s="1"/>
-      <c r="AIC75" s="1"/>
     </row>
-    <row r="76" spans="1:913" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:912" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
@@ -69282,11 +69398,14 @@
         <v>1981146</v>
       </c>
       <c r="JZ76" s="31">
-        <f>JZ11+JZ21+JZ24+JZ27+JZ48+JZ53+JZ68+JZ75</f>
         <v>1988746</v>
       </c>
+      <c r="KA76" s="31">
+        <f>KA11+KA21+KA24+KA27+KA48+KA53+KA68+KA75</f>
+        <v>1999360</v>
+      </c>
     </row>
-    <row r="77" spans="1:913" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:912" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -70013,34 +70132,15 @@
       <c r="ABA77" s="25"/>
       <c r="ABB77" s="25"/>
       <c r="ABC77" s="25"/>
-      <c r="ABD77" s="25"/>
     </row>
-    <row r="78" spans="1:913" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:912" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="JS4:JZ4"/>
+    <mergeCell ref="JS4:KA4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -70056,6 +70156,24 @@
     <mergeCell ref="JG4:JR4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8676BC50-7F15-4F3B-8E5C-C12B7CFFF37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D20032-F6C7-4B87-9FE5-21962C25C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="362">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1138,6 +1138,9 @@
   <si>
     <t>2023/Septiembre</t>
   </si>
+  <si>
+    <t>2023/Octubre</t>
+  </si>
 </sst>
 </file>
 
@@ -2217,11 +2220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AIB78"/>
+  <dimension ref="A1:AHY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KF66" sqref="KF66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="JR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KI17" sqref="KI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2504,20 +2507,21 @@
     <col min="284" max="285" width="10.77734375" style="3" customWidth="1"/>
     <col min="286" max="286" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="287" max="287" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="288" max="16384" width="10.88671875" style="3"/>
+    <col min="288" max="288" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="289" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>313</v>
       </c>
@@ -2856,9 +2860,10 @@
       <c r="JX4" s="38"/>
       <c r="JY4" s="38"/>
       <c r="JZ4" s="38"/>
-      <c r="KA4" s="39"/>
+      <c r="KA4" s="38"/>
+      <c r="KB4" s="39"/>
     </row>
-    <row r="5" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
@@ -3716,8 +3721,11 @@
       <c r="KA5" s="34" t="s">
         <v>360</v>
       </c>
+      <c r="KB5" s="34" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="6" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>244</v>
       </c>
@@ -4579,8 +4587,11 @@
       <c r="KA6" s="5">
         <v>93023</v>
       </c>
+      <c r="KB6" s="5">
+        <v>94889</v>
+      </c>
     </row>
-    <row r="7" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
       <c r="B7" s="4" t="s">
         <v>245</v>
@@ -5440,8 +5451,11 @@
       <c r="KA7" s="6">
         <v>48</v>
       </c>
+      <c r="KB7" s="6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>246</v>
@@ -6301,8 +6315,11 @@
       <c r="KA8" s="5">
         <v>24404</v>
       </c>
+      <c r="KB8" s="5">
+        <v>24491</v>
+      </c>
     </row>
-    <row r="9" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="4" t="s">
         <v>247</v>
@@ -7162,8 +7179,11 @@
       <c r="KA9" s="5">
         <v>268</v>
       </c>
+      <c r="KB9" s="5">
+        <v>276</v>
+      </c>
     </row>
-    <row r="10" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>248</v>
@@ -8023,8 +8043,11 @@
       <c r="KA10" s="6">
         <v>480</v>
       </c>
+      <c r="KB10" s="6">
+        <v>499</v>
+      </c>
     </row>
-    <row r="11" spans="1:912" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:909" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>244</v>
@@ -8902,7 +8925,10 @@
         <f>SUM(KA6:KA10)</f>
         <v>118223</v>
       </c>
-      <c r="KB11" s="1"/>
+      <c r="KB11" s="8">
+        <f>SUM(KB6:KB10)</f>
+        <v>120205</v>
+      </c>
       <c r="KC11" s="1"/>
       <c r="KD11" s="1"/>
       <c r="KE11" s="1"/>
@@ -9524,11 +9550,8 @@
       <c r="AHW11" s="1"/>
       <c r="AHX11" s="1"/>
       <c r="AHY11" s="1"/>
-      <c r="AHZ11" s="1"/>
-      <c r="AIA11" s="1"/>
-      <c r="AIB11" s="1"/>
     </row>
-    <row r="12" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>249</v>
       </c>
@@ -10390,8 +10413,11 @@
       <c r="KA12" s="5">
         <v>84099</v>
       </c>
+      <c r="KB12" s="5">
+        <v>85330</v>
+      </c>
     </row>
-    <row r="13" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="4" t="s">
         <v>251</v>
@@ -11251,8 +11277,11 @@
       <c r="KA13" s="5">
         <v>20253</v>
       </c>
+      <c r="KB13" s="5">
+        <v>20443</v>
+      </c>
     </row>
-    <row r="14" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="4" t="s">
         <v>252</v>
@@ -12112,8 +12141,11 @@
       <c r="KA14" s="5">
         <v>37171</v>
       </c>
+      <c r="KB14" s="5">
+        <v>37485</v>
+      </c>
     </row>
-    <row r="15" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="4" t="s">
         <v>253</v>
@@ -12973,8 +13005,11 @@
       <c r="KA15" s="5">
         <v>22901</v>
       </c>
+      <c r="KB15" s="5">
+        <v>22997</v>
+      </c>
     </row>
-    <row r="16" spans="1:912" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:909" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="4" t="s">
         <v>254</v>
@@ -13834,8 +13869,11 @@
       <c r="KA16" s="5">
         <v>14474</v>
       </c>
+      <c r="KB16" s="5">
+        <v>14934</v>
+      </c>
     </row>
-    <row r="17" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="4" t="s">
         <v>255</v>
@@ -14695,8 +14733,11 @@
       <c r="KA17" s="5">
         <v>50727</v>
       </c>
+      <c r="KB17" s="5">
+        <v>50911</v>
+      </c>
     </row>
-    <row r="18" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="4" t="s">
         <v>256</v>
@@ -15556,8 +15597,11 @@
       <c r="KA18" s="5">
         <v>62816</v>
       </c>
+      <c r="KB18" s="5">
+        <v>62952</v>
+      </c>
     </row>
-    <row r="19" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="4" t="s">
         <v>257</v>
@@ -16417,8 +16461,11 @@
       <c r="KA19" s="5">
         <v>71171</v>
       </c>
+      <c r="KB19" s="5">
+        <v>71864</v>
+      </c>
     </row>
-    <row r="20" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
         <v>258</v>
@@ -17278,8 +17325,11 @@
       <c r="KA20" s="5">
         <v>49004</v>
       </c>
+      <c r="KB20" s="5">
+        <v>49337</v>
+      </c>
     </row>
-    <row r="21" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:909" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
@@ -18157,7 +18207,10 @@
         <f>SUM(KA12:KA20)</f>
         <v>412616</v>
       </c>
-      <c r="KB21" s="1"/>
+      <c r="KB21" s="8">
+        <f>SUM(KB12:KB20)</f>
+        <v>416253</v>
+      </c>
       <c r="KC21" s="1"/>
       <c r="KD21" s="1"/>
       <c r="KE21" s="1"/>
@@ -18779,11 +18832,8 @@
       <c r="AHW21" s="1"/>
       <c r="AHX21" s="1"/>
       <c r="AHY21" s="1"/>
-      <c r="AHZ21" s="1"/>
-      <c r="AIA21" s="1"/>
-      <c r="AIB21" s="1"/>
     </row>
-    <row r="22" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>259</v>
       </c>
@@ -19645,8 +19695,11 @@
       <c r="KA22" s="5">
         <v>117424</v>
       </c>
+      <c r="KB22" s="6">
+        <v>118385</v>
+      </c>
     </row>
-    <row r="23" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
         <v>261</v>
@@ -20506,8 +20559,11 @@
       <c r="KA23" s="5">
         <v>39327</v>
       </c>
+      <c r="KB23" s="6">
+        <v>39420</v>
+      </c>
     </row>
-    <row r="24" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:909" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37"/>
       <c r="B24" s="7" t="s">
         <v>259</v>
@@ -21385,7 +21441,10 @@
         <f>SUM(KA22:KA23)</f>
         <v>156751</v>
       </c>
-      <c r="KB24" s="1"/>
+      <c r="KB24" s="8">
+        <f>SUM(KB22:KB23)</f>
+        <v>157805</v>
+      </c>
       <c r="KC24" s="1"/>
       <c r="KD24" s="1"/>
       <c r="KE24" s="1"/>
@@ -22007,11 +22066,8 @@
       <c r="AHW24" s="1"/>
       <c r="AHX24" s="1"/>
       <c r="AHY24" s="1"/>
-      <c r="AHZ24" s="1"/>
-      <c r="AIA24" s="1"/>
-      <c r="AIB24" s="1"/>
     </row>
-    <row r="25" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>262</v>
       </c>
@@ -22873,8 +22929,11 @@
       <c r="KA25" s="5">
         <v>4500</v>
       </c>
+      <c r="KB25" s="5">
+        <v>4529</v>
+      </c>
     </row>
-    <row r="26" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="37"/>
       <c r="B26" s="4" t="s">
         <v>264</v>
@@ -23734,8 +23793,11 @@
       <c r="KA26" s="5">
         <v>5607</v>
       </c>
+      <c r="KB26" s="5">
+        <v>5616</v>
+      </c>
     </row>
-    <row r="27" spans="1:912" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:909" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
       <c r="B27" s="7" t="s">
         <v>262</v>
@@ -24613,7 +24675,10 @@
         <f>SUM(KA25:KA26)</f>
         <v>10107</v>
       </c>
-      <c r="KB27" s="1"/>
+      <c r="KB27" s="8">
+        <f>SUM(KB25:KB26)</f>
+        <v>10145</v>
+      </c>
       <c r="KC27" s="1"/>
       <c r="KD27" s="1"/>
       <c r="KE27" s="1"/>
@@ -25235,11 +25300,8 @@
       <c r="AHW27" s="1"/>
       <c r="AHX27" s="1"/>
       <c r="AHY27" s="1"/>
-      <c r="AHZ27" s="1"/>
-      <c r="AIA27" s="1"/>
-      <c r="AIB27" s="1"/>
     </row>
-    <row r="28" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>265</v>
       </c>
@@ -26101,8 +26163,11 @@
       <c r="KA28" s="5">
         <v>842</v>
       </c>
+      <c r="KB28" s="5">
+        <v>844</v>
+      </c>
     </row>
-    <row r="29" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:909" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="4" t="s">
         <v>267</v>
@@ -26962,8 +27027,11 @@
       <c r="KA29" s="5">
         <v>10687</v>
       </c>
+      <c r="KB29" s="5">
+        <v>10729</v>
+      </c>
     </row>
-    <row r="30" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
       <c r="B30" s="4" t="s">
         <v>268</v>
@@ -27823,8 +27891,11 @@
       <c r="KA30" s="5">
         <v>28491</v>
       </c>
+      <c r="KB30" s="5">
+        <v>28952</v>
+      </c>
     </row>
-    <row r="31" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
       <c r="B31" s="4" t="s">
         <v>269</v>
@@ -28684,8 +28755,11 @@
       <c r="KA31" s="5">
         <v>108504</v>
       </c>
+      <c r="KB31" s="5">
+        <v>108680</v>
+      </c>
     </row>
-    <row r="32" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
       <c r="B32" s="4" t="s">
         <v>270</v>
@@ -29545,8 +29619,11 @@
       <c r="KA32" s="5">
         <v>27676</v>
       </c>
+      <c r="KB32" s="5">
+        <v>27679</v>
+      </c>
     </row>
-    <row r="33" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="B33" s="4" t="s">
         <v>271</v>
@@ -30406,8 +30483,11 @@
       <c r="KA33" s="5">
         <v>9519</v>
       </c>
+      <c r="KB33" s="5">
+        <v>9442</v>
+      </c>
     </row>
-    <row r="34" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="4" t="s">
         <v>272</v>
@@ -31267,8 +31347,11 @@
       <c r="KA34" s="5">
         <v>46028</v>
       </c>
+      <c r="KB34" s="5">
+        <v>46380</v>
+      </c>
     </row>
-    <row r="35" spans="1:912" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
       <c r="B35" s="4" t="s">
         <v>273</v>
@@ -32128,8 +32211,11 @@
       <c r="KA35" s="5">
         <v>11167</v>
       </c>
+      <c r="KB35" s="5">
+        <v>11333</v>
+      </c>
     </row>
-    <row r="36" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="37"/>
       <c r="B36" s="4" t="s">
         <v>274</v>
@@ -32989,8 +33075,11 @@
       <c r="KA36" s="5">
         <v>54036</v>
       </c>
+      <c r="KB36" s="5">
+        <v>53434</v>
+      </c>
     </row>
-    <row r="37" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:909" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
       <c r="B37" s="4" t="s">
         <v>275</v>
@@ -33850,8 +33939,11 @@
       <c r="KA37" s="5">
         <v>75325</v>
       </c>
+      <c r="KB37" s="5">
+        <v>74106</v>
+      </c>
     </row>
-    <row r="38" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:909" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
       <c r="B38" s="4" t="s">
         <v>276</v>
@@ -34711,8 +34803,11 @@
       <c r="KA38" s="5">
         <v>21356</v>
       </c>
+      <c r="KB38" s="5">
+        <v>21603</v>
+      </c>
     </row>
-    <row r="39" spans="1:912" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:909" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="4" t="s">
         <v>277</v>
@@ -35572,8 +35667,11 @@
       <c r="KA39" s="5">
         <v>25510</v>
       </c>
+      <c r="KB39" s="5">
+        <v>25781</v>
+      </c>
     </row>
-    <row r="40" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A40" s="37"/>
       <c r="B40" s="4" t="s">
         <v>278</v>
@@ -36433,8 +36531,11 @@
       <c r="KA40" s="5">
         <v>12964</v>
       </c>
+      <c r="KB40" s="5">
+        <v>13055</v>
+      </c>
     </row>
-    <row r="41" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A41" s="37"/>
       <c r="B41" s="4" t="s">
         <v>279</v>
@@ -37294,8 +37395,11 @@
       <c r="KA41" s="5">
         <v>11196</v>
       </c>
+      <c r="KB41" s="5">
+        <v>11112</v>
+      </c>
     </row>
-    <row r="42" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A42" s="37"/>
       <c r="B42" s="4" t="s">
         <v>280</v>
@@ -38155,8 +38259,11 @@
       <c r="KA42" s="5">
         <v>46527</v>
       </c>
+      <c r="KB42" s="5">
+        <v>46621</v>
+      </c>
     </row>
-    <row r="43" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
       <c r="B43" s="4" t="s">
         <v>281</v>
@@ -39016,8 +39123,11 @@
       <c r="KA43" s="5">
         <v>4761</v>
       </c>
+      <c r="KB43" s="5">
+        <v>4774</v>
+      </c>
     </row>
-    <row r="44" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
       <c r="B44" s="4" t="s">
         <v>282</v>
@@ -39877,8 +39987,11 @@
       <c r="KA44" s="5">
         <v>5338</v>
       </c>
+      <c r="KB44" s="5">
+        <v>5436</v>
+      </c>
     </row>
-    <row r="45" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A45" s="37"/>
       <c r="B45" s="4" t="s">
         <v>283</v>
@@ -40738,8 +40851,11 @@
       <c r="KA45" s="5">
         <v>7257</v>
       </c>
+      <c r="KB45" s="5">
+        <v>7265</v>
+      </c>
     </row>
-    <row r="46" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A46" s="37"/>
       <c r="B46" s="4" t="s">
         <v>284</v>
@@ -41599,8 +41715,11 @@
       <c r="KA46" s="5">
         <v>14726</v>
       </c>
+      <c r="KB46" s="5">
+        <v>14885</v>
+      </c>
     </row>
-    <row r="47" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="37"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
@@ -42460,8 +42579,11 @@
       <c r="KA47" s="5">
         <v>1456</v>
       </c>
+      <c r="KB47" s="5">
+        <v>1453</v>
+      </c>
     </row>
-    <row r="48" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:909" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37"/>
       <c r="B48" s="7" t="s">
         <v>265</v>
@@ -43339,7 +43461,10 @@
         <f>SUM(KA28:KA47)</f>
         <v>523366</v>
       </c>
-      <c r="KB48" s="1"/>
+      <c r="KB48" s="8">
+        <f>SUM(KB28:KB47)</f>
+        <v>523564</v>
+      </c>
       <c r="KC48" s="1"/>
       <c r="KD48" s="1"/>
       <c r="KE48" s="1"/>
@@ -43961,11 +44086,8 @@
       <c r="AHW48" s="1"/>
       <c r="AHX48" s="1"/>
       <c r="AHY48" s="1"/>
-      <c r="AHZ48" s="1"/>
-      <c r="AIA48" s="1"/>
-      <c r="AIB48" s="1"/>
     </row>
-    <row r="49" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>286</v>
       </c>
@@ -44827,8 +44949,11 @@
       <c r="KA49" s="6">
         <v>23</v>
       </c>
+      <c r="KB49" s="6">
+        <v>24</v>
+      </c>
     </row>
-    <row r="50" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A50" s="37"/>
       <c r="B50" s="4" t="s">
         <v>288</v>
@@ -45688,8 +45813,11 @@
       <c r="KA50" s="6">
         <v>129</v>
       </c>
+      <c r="KB50" s="6">
+        <v>148</v>
+      </c>
     </row>
-    <row r="51" spans="1:287" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:288" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="37"/>
       <c r="B51" s="4" t="s">
         <v>289</v>
@@ -46549,8 +46677,11 @@
       <c r="KA51" s="5">
         <v>1556</v>
       </c>
+      <c r="KB51" s="5">
+        <v>1565</v>
+      </c>
     </row>
-    <row r="52" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A52" s="37"/>
       <c r="B52" s="4" t="s">
         <v>290</v>
@@ -47410,8 +47541,11 @@
       <c r="KA52" s="5">
         <v>854</v>
       </c>
+      <c r="KB52" s="5">
+        <v>849</v>
+      </c>
     </row>
-    <row r="53" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A53" s="37"/>
       <c r="B53" s="7" t="s">
         <v>286</v>
@@ -48289,8 +48423,12 @@
         <f>SUM(KA49:KA52)</f>
         <v>2562</v>
       </c>
+      <c r="KB53" s="8">
+        <f>SUM(KB49:KB52)</f>
+        <v>2586</v>
+      </c>
     </row>
-    <row r="54" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
         <v>291</v>
       </c>
@@ -49152,8 +49290,11 @@
       <c r="KA54" s="5">
         <v>5729</v>
       </c>
+      <c r="KB54" s="5">
+        <v>5839</v>
+      </c>
     </row>
-    <row r="55" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A55" s="37"/>
       <c r="B55" s="4" t="s">
         <v>293</v>
@@ -50013,8 +50154,11 @@
       <c r="KA55" s="5">
         <v>58790</v>
       </c>
+      <c r="KB55" s="5">
+        <v>59466</v>
+      </c>
     </row>
-    <row r="56" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="37"/>
       <c r="B56" s="4" t="s">
         <v>294</v>
@@ -50874,8 +51018,11 @@
       <c r="KA56" s="5">
         <v>6909</v>
       </c>
+      <c r="KB56" s="5">
+        <v>6847</v>
+      </c>
     </row>
-    <row r="57" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="37"/>
       <c r="B57" s="4" t="s">
         <v>295</v>
@@ -51735,8 +51882,11 @@
       <c r="KA57" s="5">
         <v>194226</v>
       </c>
+      <c r="KB57" s="5">
+        <v>195013</v>
+      </c>
     </row>
-    <row r="58" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A58" s="37"/>
       <c r="B58" s="4" t="s">
         <v>296</v>
@@ -52596,8 +52746,11 @@
       <c r="KA58" s="5">
         <v>35759</v>
       </c>
+      <c r="KB58" s="5">
+        <v>36043</v>
+      </c>
     </row>
-    <row r="59" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A59" s="37"/>
       <c r="B59" s="4" t="s">
         <v>297</v>
@@ -53457,8 +53610,11 @@
       <c r="KA59" s="5">
         <v>7380</v>
       </c>
+      <c r="KB59" s="5">
+        <v>7365</v>
+      </c>
     </row>
-    <row r="60" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="37"/>
       <c r="B60" s="4" t="s">
         <v>298</v>
@@ -54318,8 +54474,11 @@
       <c r="KA60" s="5">
         <v>51112</v>
       </c>
+      <c r="KB60" s="5">
+        <v>51550</v>
+      </c>
     </row>
-    <row r="61" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="37"/>
       <c r="B61" s="4" t="s">
         <v>299</v>
@@ -55179,8 +55338,11 @@
       <c r="KA61" s="6">
         <v>152</v>
       </c>
+      <c r="KB61" s="6">
+        <v>152</v>
+      </c>
     </row>
-    <row r="62" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="37"/>
       <c r="B62" s="4" t="s">
         <v>300</v>
@@ -56040,8 +56202,11 @@
       <c r="KA62" s="5">
         <v>21261</v>
       </c>
+      <c r="KB62" s="5">
+        <v>21427</v>
+      </c>
     </row>
-    <row r="63" spans="1:287" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="37"/>
       <c r="B63" s="4" t="s">
         <v>301</v>
@@ -56901,8 +57066,11 @@
       <c r="KA63" s="5">
         <v>36003</v>
       </c>
+      <c r="KB63" s="5">
+        <v>36290</v>
+      </c>
     </row>
-    <row r="64" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A64" s="37"/>
       <c r="B64" s="4" t="s">
         <v>302</v>
@@ -57762,8 +57930,11 @@
       <c r="KA64" s="5">
         <v>50966</v>
       </c>
+      <c r="KB64" s="5">
+        <v>51823</v>
+      </c>
     </row>
-    <row r="65" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A65" s="37"/>
       <c r="B65" s="4" t="s">
         <v>303</v>
@@ -58623,8 +58794,11 @@
       <c r="KA65" s="5">
         <v>171557</v>
       </c>
+      <c r="KB65" s="5">
+        <v>173303</v>
+      </c>
     </row>
-    <row r="66" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A66" s="37"/>
       <c r="B66" s="4" t="s">
         <v>304</v>
@@ -59484,8 +59658,11 @@
       <c r="KA66" s="5">
         <v>21085</v>
       </c>
+      <c r="KB66" s="5">
+        <v>21186</v>
+      </c>
     </row>
-    <row r="67" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A67" s="37"/>
       <c r="B67" s="4" t="s">
         <v>305</v>
@@ -60345,8 +60522,11 @@
       <c r="KA67" s="5">
         <v>6942</v>
       </c>
+      <c r="KB67" s="5">
+        <v>7046</v>
+      </c>
     </row>
-    <row r="68" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:909" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="37"/>
       <c r="B68" s="7" t="s">
         <v>291</v>
@@ -61224,7 +61404,10 @@
         <f>SUM(KA54:KA67)</f>
         <v>667871</v>
       </c>
-      <c r="KB68" s="1"/>
+      <c r="KB68" s="8">
+        <f>SUM(KB54:KB67)</f>
+        <v>673350</v>
+      </c>
       <c r="KC68" s="1"/>
       <c r="KD68" s="1"/>
       <c r="KE68" s="1"/>
@@ -61846,11 +62029,8 @@
       <c r="AHW68" s="1"/>
       <c r="AHX68" s="1"/>
       <c r="AHY68" s="1"/>
-      <c r="AHZ68" s="1"/>
-      <c r="AIA68" s="1"/>
-      <c r="AIB68" s="1"/>
     </row>
-    <row r="69" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A69" s="37" t="s">
         <v>306</v>
       </c>
@@ -62712,8 +62892,11 @@
       <c r="KA69" s="5">
         <v>10089</v>
       </c>
+      <c r="KB69" s="5">
+        <v>10354</v>
+      </c>
     </row>
-    <row r="70" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A70" s="37"/>
       <c r="B70" s="4" t="s">
         <v>308</v>
@@ -63573,8 +63756,11 @@
       <c r="KA70" s="5">
         <v>1000</v>
       </c>
+      <c r="KB70" s="5">
+        <v>1031</v>
+      </c>
     </row>
-    <row r="71" spans="1:912" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="37"/>
       <c r="B71" s="4" t="s">
         <v>309</v>
@@ -64434,8 +64620,11 @@
       <c r="KA71" s="5">
         <v>36122</v>
       </c>
+      <c r="KB71" s="5">
+        <v>37338</v>
+      </c>
     </row>
-    <row r="72" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A72" s="37"/>
       <c r="B72" s="4" t="s">
         <v>310</v>
@@ -65295,8 +65484,11 @@
       <c r="KA72" s="5">
         <v>4906</v>
       </c>
+      <c r="KB72" s="5">
+        <v>4426</v>
+      </c>
     </row>
-    <row r="73" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A73" s="37"/>
       <c r="B73" s="4" t="s">
         <v>311</v>
@@ -66156,8 +66348,11 @@
       <c r="KA73" s="6">
         <v>700</v>
       </c>
+      <c r="KB73" s="6">
+        <v>712</v>
+      </c>
     </row>
-    <row r="74" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A74" s="37"/>
       <c r="B74" s="4" t="s">
         <v>312</v>
@@ -67017,8 +67212,11 @@
       <c r="KA74" s="5">
         <v>55047</v>
       </c>
+      <c r="KB74" s="5">
+        <v>55662</v>
+      </c>
     </row>
-    <row r="75" spans="1:912" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:909" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37"/>
       <c r="B75" s="7" t="s">
         <v>306</v>
@@ -67896,7 +68094,10 @@
         <f>SUM(KA69:KA74)</f>
         <v>107864</v>
       </c>
-      <c r="KB75" s="1"/>
+      <c r="KB75" s="8">
+        <f>SUM(KB69:KB74)</f>
+        <v>109523</v>
+      </c>
       <c r="KC75" s="1"/>
       <c r="KD75" s="1"/>
       <c r="KE75" s="1"/>
@@ -68518,11 +68719,8 @@
       <c r="AHW75" s="1"/>
       <c r="AHX75" s="1"/>
       <c r="AHY75" s="1"/>
-      <c r="AHZ75" s="1"/>
-      <c r="AIA75" s="1"/>
-      <c r="AIB75" s="1"/>
     </row>
-    <row r="76" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
@@ -69404,8 +69602,12 @@
         <f>KA11+KA21+KA24+KA27+KA48+KA53+KA68+KA75</f>
         <v>1999360</v>
       </c>
+      <c r="KB76" s="31">
+        <f>KB11+KB21+KB24+KB27+KB48+KB53+KB68+KB75</f>
+        <v>2013431</v>
+      </c>
     </row>
-    <row r="77" spans="1:912" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:909" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -70129,18 +70331,15 @@
       <c r="AAX77" s="25"/>
       <c r="AAY77" s="25"/>
       <c r="AAZ77" s="25"/>
-      <c r="ABA77" s="25"/>
-      <c r="ABB77" s="25"/>
-      <c r="ABC77" s="25"/>
     </row>
-    <row r="78" spans="1:912" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:909" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="JS4:KA4"/>
+    <mergeCell ref="JS4:KB4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D20032-F6C7-4B87-9FE5-21962C25C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5917A13-0250-46EE-A8FF-CCFF8D7C53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="363">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1141,6 +1141,9 @@
   <si>
     <t>2023/Octubre</t>
   </si>
+  <si>
+    <t>2023/Noviembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1487,7 +1490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1700,6 +1703,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1745,7 +1757,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1842,6 +1854,17 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2220,11 +2243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AHY78"/>
+  <dimension ref="A1:AHZ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="JR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KI17" sqref="KI17"/>
+      <selection pane="topRight" activeCell="KE62" sqref="KE62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2508,364 +2531,368 @@
     <col min="286" max="286" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="287" max="287" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="288" max="288" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="289" max="16384" width="10.88671875" style="3"/>
+    <col min="289" max="289" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="10.88671875" style="3"/>
+    <col min="291" max="291" width="44.44140625" style="3" customWidth="1"/>
+    <col min="292" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:909" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:910" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:909" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:910" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="40">
         <v>2000</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40">
         <v>2001</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40">
         <v>2002</v>
       </c>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40">
         <v>2003</v>
       </c>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35">
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35">
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40">
         <v>2005</v>
       </c>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35">
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40"/>
+      <c r="BQ4" s="40"/>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="40"/>
+      <c r="BV4" s="40"/>
+      <c r="BW4" s="40">
         <v>2006</v>
       </c>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35">
+      <c r="BX4" s="40"/>
+      <c r="BY4" s="40"/>
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
+      <c r="CC4" s="40"/>
+      <c r="CD4" s="40"/>
+      <c r="CE4" s="40"/>
+      <c r="CF4" s="40"/>
+      <c r="CG4" s="40"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="40">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="35"/>
-      <c r="CM4" s="35"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="35"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="35">
+      <c r="CJ4" s="40"/>
+      <c r="CK4" s="40"/>
+      <c r="CL4" s="40"/>
+      <c r="CM4" s="40"/>
+      <c r="CN4" s="40"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="40"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="40"/>
+      <c r="CS4" s="40"/>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="40">
         <v>2008</v>
       </c>
-      <c r="CV4" s="35"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="35"/>
-      <c r="CY4" s="35"/>
-      <c r="CZ4" s="35"/>
-      <c r="DA4" s="35"/>
-      <c r="DB4" s="35"/>
-      <c r="DC4" s="35"/>
-      <c r="DD4" s="35"/>
-      <c r="DE4" s="35"/>
-      <c r="DF4" s="35"/>
-      <c r="DG4" s="35">
+      <c r="CV4" s="40"/>
+      <c r="CW4" s="40"/>
+      <c r="CX4" s="40"/>
+      <c r="CY4" s="40"/>
+      <c r="CZ4" s="40"/>
+      <c r="DA4" s="40"/>
+      <c r="DB4" s="40"/>
+      <c r="DC4" s="40"/>
+      <c r="DD4" s="40"/>
+      <c r="DE4" s="40"/>
+      <c r="DF4" s="40"/>
+      <c r="DG4" s="40">
         <v>2009</v>
       </c>
-      <c r="DH4" s="35"/>
-      <c r="DI4" s="35"/>
-      <c r="DJ4" s="35"/>
-      <c r="DK4" s="35"/>
-      <c r="DL4" s="35"/>
-      <c r="DM4" s="35"/>
-      <c r="DN4" s="35"/>
-      <c r="DO4" s="35"/>
-      <c r="DP4" s="35"/>
-      <c r="DQ4" s="35"/>
-      <c r="DR4" s="35"/>
-      <c r="DS4" s="35">
+      <c r="DH4" s="40"/>
+      <c r="DI4" s="40"/>
+      <c r="DJ4" s="40"/>
+      <c r="DK4" s="40"/>
+      <c r="DL4" s="40"/>
+      <c r="DM4" s="40"/>
+      <c r="DN4" s="40"/>
+      <c r="DO4" s="40"/>
+      <c r="DP4" s="40"/>
+      <c r="DQ4" s="40"/>
+      <c r="DR4" s="40"/>
+      <c r="DS4" s="40">
         <v>2010</v>
       </c>
-      <c r="DT4" s="35"/>
-      <c r="DU4" s="35"/>
-      <c r="DV4" s="35"/>
-      <c r="DW4" s="35"/>
-      <c r="DX4" s="35"/>
-      <c r="DY4" s="35"/>
-      <c r="DZ4" s="35"/>
-      <c r="EA4" s="35"/>
-      <c r="EB4" s="35"/>
-      <c r="EC4" s="35"/>
-      <c r="ED4" s="35"/>
-      <c r="EE4" s="35">
+      <c r="DT4" s="40"/>
+      <c r="DU4" s="40"/>
+      <c r="DV4" s="40"/>
+      <c r="DW4" s="40"/>
+      <c r="DX4" s="40"/>
+      <c r="DY4" s="40"/>
+      <c r="DZ4" s="40"/>
+      <c r="EA4" s="40"/>
+      <c r="EB4" s="40"/>
+      <c r="EC4" s="40"/>
+      <c r="ED4" s="40"/>
+      <c r="EE4" s="40">
         <v>2011</v>
       </c>
-      <c r="EF4" s="35"/>
-      <c r="EG4" s="35"/>
-      <c r="EH4" s="35"/>
-      <c r="EI4" s="35"/>
-      <c r="EJ4" s="35"/>
-      <c r="EK4" s="35"/>
-      <c r="EL4" s="35"/>
-      <c r="EM4" s="35"/>
-      <c r="EN4" s="35"/>
-      <c r="EO4" s="35"/>
-      <c r="EP4" s="35"/>
-      <c r="EQ4" s="35">
+      <c r="EF4" s="40"/>
+      <c r="EG4" s="40"/>
+      <c r="EH4" s="40"/>
+      <c r="EI4" s="40"/>
+      <c r="EJ4" s="40"/>
+      <c r="EK4" s="40"/>
+      <c r="EL4" s="40"/>
+      <c r="EM4" s="40"/>
+      <c r="EN4" s="40"/>
+      <c r="EO4" s="40"/>
+      <c r="EP4" s="40"/>
+      <c r="EQ4" s="40">
         <v>2012</v>
       </c>
-      <c r="ER4" s="35"/>
-      <c r="ES4" s="35"/>
-      <c r="ET4" s="35"/>
-      <c r="EU4" s="35"/>
-      <c r="EV4" s="35"/>
-      <c r="EW4" s="35"/>
-      <c r="EX4" s="35"/>
-      <c r="EY4" s="35"/>
-      <c r="EZ4" s="35"/>
-      <c r="FA4" s="35"/>
-      <c r="FB4" s="35"/>
-      <c r="FC4" s="35">
+      <c r="ER4" s="40"/>
+      <c r="ES4" s="40"/>
+      <c r="ET4" s="40"/>
+      <c r="EU4" s="40"/>
+      <c r="EV4" s="40"/>
+      <c r="EW4" s="40"/>
+      <c r="EX4" s="40"/>
+      <c r="EY4" s="40"/>
+      <c r="EZ4" s="40"/>
+      <c r="FA4" s="40"/>
+      <c r="FB4" s="40"/>
+      <c r="FC4" s="40">
         <v>2013</v>
       </c>
-      <c r="FD4" s="35"/>
-      <c r="FE4" s="35"/>
-      <c r="FF4" s="35"/>
-      <c r="FG4" s="35"/>
-      <c r="FH4" s="35"/>
-      <c r="FI4" s="35"/>
-      <c r="FJ4" s="35"/>
-      <c r="FK4" s="35"/>
-      <c r="FL4" s="35"/>
-      <c r="FM4" s="35"/>
-      <c r="FN4" s="35"/>
-      <c r="FO4" s="35">
+      <c r="FD4" s="40"/>
+      <c r="FE4" s="40"/>
+      <c r="FF4" s="40"/>
+      <c r="FG4" s="40"/>
+      <c r="FH4" s="40"/>
+      <c r="FI4" s="40"/>
+      <c r="FJ4" s="40"/>
+      <c r="FK4" s="40"/>
+      <c r="FL4" s="40"/>
+      <c r="FM4" s="40"/>
+      <c r="FN4" s="40"/>
+      <c r="FO4" s="40">
         <v>2014</v>
       </c>
-      <c r="FP4" s="35"/>
-      <c r="FQ4" s="35"/>
-      <c r="FR4" s="35"/>
-      <c r="FS4" s="35"/>
-      <c r="FT4" s="35"/>
-      <c r="FU4" s="35"/>
-      <c r="FV4" s="35"/>
-      <c r="FW4" s="35"/>
-      <c r="FX4" s="35"/>
-      <c r="FY4" s="35"/>
-      <c r="FZ4" s="35"/>
-      <c r="GA4" s="35">
+      <c r="FP4" s="40"/>
+      <c r="FQ4" s="40"/>
+      <c r="FR4" s="40"/>
+      <c r="FS4" s="40"/>
+      <c r="FT4" s="40"/>
+      <c r="FU4" s="40"/>
+      <c r="FV4" s="40"/>
+      <c r="FW4" s="40"/>
+      <c r="FX4" s="40"/>
+      <c r="FY4" s="40"/>
+      <c r="FZ4" s="40"/>
+      <c r="GA4" s="40">
         <v>2015</v>
       </c>
-      <c r="GB4" s="35"/>
-      <c r="GC4" s="35"/>
-      <c r="GD4" s="35"/>
-      <c r="GE4" s="35"/>
-      <c r="GF4" s="35"/>
-      <c r="GG4" s="35"/>
-      <c r="GH4" s="35"/>
-      <c r="GI4" s="35"/>
-      <c r="GJ4" s="35"/>
-      <c r="GK4" s="35"/>
-      <c r="GL4" s="35"/>
-      <c r="GM4" s="35">
+      <c r="GB4" s="40"/>
+      <c r="GC4" s="40"/>
+      <c r="GD4" s="40"/>
+      <c r="GE4" s="40"/>
+      <c r="GF4" s="40"/>
+      <c r="GG4" s="40"/>
+      <c r="GH4" s="40"/>
+      <c r="GI4" s="40"/>
+      <c r="GJ4" s="40"/>
+      <c r="GK4" s="40"/>
+      <c r="GL4" s="40"/>
+      <c r="GM4" s="40">
         <v>2016</v>
       </c>
-      <c r="GN4" s="35"/>
-      <c r="GO4" s="35"/>
-      <c r="GP4" s="35"/>
-      <c r="GQ4" s="35"/>
-      <c r="GR4" s="35"/>
-      <c r="GS4" s="35"/>
-      <c r="GT4" s="35"/>
-      <c r="GU4" s="35"/>
-      <c r="GV4" s="35"/>
-      <c r="GW4" s="35"/>
-      <c r="GX4" s="35"/>
-      <c r="GY4" s="35">
+      <c r="GN4" s="40"/>
+      <c r="GO4" s="40"/>
+      <c r="GP4" s="40"/>
+      <c r="GQ4" s="40"/>
+      <c r="GR4" s="40"/>
+      <c r="GS4" s="40"/>
+      <c r="GT4" s="40"/>
+      <c r="GU4" s="40"/>
+      <c r="GV4" s="40"/>
+      <c r="GW4" s="40"/>
+      <c r="GX4" s="40"/>
+      <c r="GY4" s="40">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="35"/>
-      <c r="HA4" s="35"/>
-      <c r="HB4" s="35"/>
-      <c r="HC4" s="35"/>
-      <c r="HD4" s="35"/>
-      <c r="HE4" s="35"/>
-      <c r="HF4" s="35"/>
-      <c r="HG4" s="35"/>
-      <c r="HH4" s="35"/>
-      <c r="HI4" s="35"/>
-      <c r="HJ4" s="35"/>
-      <c r="HK4" s="35">
+      <c r="GZ4" s="40"/>
+      <c r="HA4" s="40"/>
+      <c r="HB4" s="40"/>
+      <c r="HC4" s="40"/>
+      <c r="HD4" s="40"/>
+      <c r="HE4" s="40"/>
+      <c r="HF4" s="40"/>
+      <c r="HG4" s="40"/>
+      <c r="HH4" s="40"/>
+      <c r="HI4" s="40"/>
+      <c r="HJ4" s="40"/>
+      <c r="HK4" s="40">
         <v>2018</v>
       </c>
-      <c r="HL4" s="35"/>
-      <c r="HM4" s="35"/>
-      <c r="HN4" s="35"/>
-      <c r="HO4" s="35"/>
-      <c r="HP4" s="35"/>
-      <c r="HQ4" s="35"/>
-      <c r="HR4" s="35"/>
-      <c r="HS4" s="35"/>
-      <c r="HT4" s="35"/>
-      <c r="HU4" s="35"/>
-      <c r="HV4" s="35"/>
-      <c r="HW4" s="35">
+      <c r="HL4" s="40"/>
+      <c r="HM4" s="40"/>
+      <c r="HN4" s="40"/>
+      <c r="HO4" s="40"/>
+      <c r="HP4" s="40"/>
+      <c r="HQ4" s="40"/>
+      <c r="HR4" s="40"/>
+      <c r="HS4" s="40"/>
+      <c r="HT4" s="40"/>
+      <c r="HU4" s="40"/>
+      <c r="HV4" s="40"/>
+      <c r="HW4" s="40">
         <v>2019</v>
       </c>
-      <c r="HX4" s="35"/>
-      <c r="HY4" s="35"/>
-      <c r="HZ4" s="35"/>
-      <c r="IA4" s="35"/>
-      <c r="IB4" s="35"/>
-      <c r="IC4" s="35"/>
-      <c r="ID4" s="35"/>
-      <c r="IE4" s="35"/>
-      <c r="IF4" s="35"/>
-      <c r="IG4" s="35"/>
-      <c r="IH4" s="36"/>
-      <c r="II4" s="36">
+      <c r="HX4" s="40"/>
+      <c r="HY4" s="40"/>
+      <c r="HZ4" s="40"/>
+      <c r="IA4" s="40"/>
+      <c r="IB4" s="40"/>
+      <c r="IC4" s="40"/>
+      <c r="ID4" s="40"/>
+      <c r="IE4" s="40"/>
+      <c r="IF4" s="40"/>
+      <c r="IG4" s="40"/>
+      <c r="IH4" s="41"/>
+      <c r="II4" s="41">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="38"/>
-      <c r="IK4" s="38"/>
-      <c r="IL4" s="38"/>
-      <c r="IM4" s="38"/>
-      <c r="IN4" s="38"/>
-      <c r="IO4" s="38"/>
-      <c r="IP4" s="38"/>
-      <c r="IQ4" s="38"/>
-      <c r="IR4" s="38"/>
-      <c r="IS4" s="38"/>
-      <c r="IT4" s="39"/>
-      <c r="IU4" s="36">
+      <c r="IJ4" s="43"/>
+      <c r="IK4" s="43"/>
+      <c r="IL4" s="43"/>
+      <c r="IM4" s="43"/>
+      <c r="IN4" s="43"/>
+      <c r="IO4" s="43"/>
+      <c r="IP4" s="43"/>
+      <c r="IQ4" s="43"/>
+      <c r="IR4" s="43"/>
+      <c r="IS4" s="43"/>
+      <c r="IT4" s="44"/>
+      <c r="IU4" s="41">
         <v>2021</v>
       </c>
-      <c r="IV4" s="38"/>
-      <c r="IW4" s="38"/>
-      <c r="IX4" s="38"/>
-      <c r="IY4" s="38"/>
-      <c r="IZ4" s="38"/>
-      <c r="JA4" s="38"/>
-      <c r="JB4" s="38"/>
-      <c r="JC4" s="38"/>
-      <c r="JD4" s="38"/>
-      <c r="JE4" s="38"/>
-      <c r="JF4" s="39"/>
-      <c r="JG4" s="35">
+      <c r="IV4" s="43"/>
+      <c r="IW4" s="43"/>
+      <c r="IX4" s="43"/>
+      <c r="IY4" s="43"/>
+      <c r="IZ4" s="43"/>
+      <c r="JA4" s="43"/>
+      <c r="JB4" s="43"/>
+      <c r="JC4" s="43"/>
+      <c r="JD4" s="43"/>
+      <c r="JE4" s="43"/>
+      <c r="JF4" s="44"/>
+      <c r="JG4" s="40">
         <v>2022</v>
       </c>
-      <c r="JH4" s="35"/>
-      <c r="JI4" s="35"/>
-      <c r="JJ4" s="35"/>
-      <c r="JK4" s="35"/>
-      <c r="JL4" s="35"/>
-      <c r="JM4" s="35"/>
-      <c r="JN4" s="35"/>
-      <c r="JO4" s="35"/>
-      <c r="JP4" s="35"/>
-      <c r="JQ4" s="35"/>
-      <c r="JR4" s="35"/>
-      <c r="JS4" s="36">
+      <c r="JH4" s="40"/>
+      <c r="JI4" s="40"/>
+      <c r="JJ4" s="40"/>
+      <c r="JK4" s="40"/>
+      <c r="JL4" s="40"/>
+      <c r="JM4" s="40"/>
+      <c r="JN4" s="40"/>
+      <c r="JO4" s="40"/>
+      <c r="JP4" s="40"/>
+      <c r="JQ4" s="40"/>
+      <c r="JR4" s="40"/>
+      <c r="JS4" s="41">
         <v>2023</v>
       </c>
-      <c r="JT4" s="38"/>
-      <c r="JU4" s="38"/>
-      <c r="JV4" s="38"/>
-      <c r="JW4" s="38"/>
-      <c r="JX4" s="38"/>
-      <c r="JY4" s="38"/>
-      <c r="JZ4" s="38"/>
-      <c r="KA4" s="38"/>
-      <c r="KB4" s="39"/>
+      <c r="JT4" s="43"/>
+      <c r="JU4" s="43"/>
+      <c r="JV4" s="43"/>
+      <c r="JW4" s="43"/>
+      <c r="JX4" s="43"/>
+      <c r="JY4" s="43"/>
+      <c r="JZ4" s="43"/>
+      <c r="KA4" s="43"/>
+      <c r="KB4" s="43"/>
+      <c r="KC4" s="44"/>
     </row>
-    <row r="5" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
@@ -3724,9 +3751,14 @@
       <c r="KB5" s="34" t="s">
         <v>361</v>
       </c>
+      <c r="KC5" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="KE5" s="35"/>
+      <c r="KF5"/>
     </row>
-    <row r="6" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4590,9 +4622,14 @@
       <c r="KB6" s="5">
         <v>94889</v>
       </c>
+      <c r="KC6" s="5">
+        <v>96583</v>
+      </c>
+      <c r="KE6" s="35"/>
+      <c r="KF6"/>
     </row>
-    <row r="7" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
       <c r="B7" s="4" t="s">
         <v>245</v>
       </c>
@@ -5454,9 +5491,14 @@
       <c r="KB7" s="6">
         <v>50</v>
       </c>
+      <c r="KC7" s="6">
+        <v>50</v>
+      </c>
+      <c r="KE7" s="35"/>
+      <c r="KF7"/>
     </row>
-    <row r="8" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
       <c r="B8" s="4" t="s">
         <v>246</v>
       </c>
@@ -6318,9 +6360,14 @@
       <c r="KB8" s="5">
         <v>24491</v>
       </c>
+      <c r="KC8" s="5">
+        <v>24500</v>
+      </c>
+      <c r="KE8" s="35"/>
+      <c r="KF8"/>
     </row>
-    <row r="9" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
       <c r="B9" s="4" t="s">
         <v>247</v>
       </c>
@@ -7182,9 +7229,14 @@
       <c r="KB9" s="5">
         <v>276</v>
       </c>
+      <c r="KC9" s="5">
+        <v>277</v>
+      </c>
+      <c r="KE9" s="35"/>
+      <c r="KF9"/>
     </row>
-    <row r="10" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
       <c r="B10" s="4" t="s">
         <v>248</v>
       </c>
@@ -8046,9 +8098,14 @@
       <c r="KB10" s="6">
         <v>499</v>
       </c>
+      <c r="KC10" s="6">
+        <v>495</v>
+      </c>
+      <c r="KE10" s="36"/>
+      <c r="KF10" s="37"/>
     </row>
-    <row r="11" spans="1:909" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:910" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>244</v>
       </c>
@@ -8929,10 +8986,13 @@
         <f>SUM(KB6:KB10)</f>
         <v>120205</v>
       </c>
-      <c r="KC11" s="1"/>
+      <c r="KC11" s="8">
+        <f>SUM(KC6:KC10)</f>
+        <v>121905</v>
+      </c>
       <c r="KD11" s="1"/>
-      <c r="KE11" s="1"/>
-      <c r="KF11" s="1"/>
+      <c r="KE11" s="38"/>
+      <c r="KF11" s="38"/>
       <c r="KG11" s="1"/>
       <c r="KH11" s="1"/>
       <c r="KI11" s="1"/>
@@ -9550,9 +9610,10 @@
       <c r="AHW11" s="1"/>
       <c r="AHX11" s="1"/>
       <c r="AHY11" s="1"/>
+      <c r="AHZ11" s="1"/>
     </row>
-    <row r="12" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10416,9 +10477,14 @@
       <c r="KB12" s="5">
         <v>85330</v>
       </c>
+      <c r="KC12" s="5">
+        <v>85613</v>
+      </c>
+      <c r="KE12" s="35"/>
+      <c r="KF12"/>
     </row>
-    <row r="13" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+    <row r="13" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
       <c r="B13" s="4" t="s">
         <v>251</v>
       </c>
@@ -11280,9 +11346,14 @@
       <c r="KB13" s="5">
         <v>20443</v>
       </c>
+      <c r="KC13" s="5">
+        <v>20712</v>
+      </c>
+      <c r="KE13" s="35"/>
+      <c r="KF13"/>
     </row>
-    <row r="14" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
       <c r="B14" s="4" t="s">
         <v>252</v>
       </c>
@@ -12144,9 +12215,14 @@
       <c r="KB14" s="5">
         <v>37485</v>
       </c>
+      <c r="KC14" s="5">
+        <v>37843</v>
+      </c>
+      <c r="KE14" s="35"/>
+      <c r="KF14"/>
     </row>
-    <row r="15" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
       <c r="B15" s="4" t="s">
         <v>253</v>
       </c>
@@ -13008,9 +13084,14 @@
       <c r="KB15" s="5">
         <v>22997</v>
       </c>
+      <c r="KC15" s="5">
+        <v>23137</v>
+      </c>
+      <c r="KE15" s="35"/>
+      <c r="KF15"/>
     </row>
-    <row r="16" spans="1:909" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+    <row r="16" spans="1:910" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
       <c r="B16" s="4" t="s">
         <v>254</v>
       </c>
@@ -13872,9 +13953,14 @@
       <c r="KB16" s="5">
         <v>14934</v>
       </c>
+      <c r="KC16" s="5">
+        <v>15068</v>
+      </c>
+      <c r="KE16" s="35"/>
+      <c r="KF16"/>
     </row>
-    <row r="17" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
       <c r="B17" s="4" t="s">
         <v>255</v>
       </c>
@@ -14736,9 +14822,14 @@
       <c r="KB17" s="5">
         <v>50911</v>
       </c>
+      <c r="KC17" s="5">
+        <v>51036</v>
+      </c>
+      <c r="KE17" s="35"/>
+      <c r="KF17"/>
     </row>
-    <row r="18" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
+    <row r="18" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
       <c r="B18" s="4" t="s">
         <v>256</v>
       </c>
@@ -15600,9 +15691,14 @@
       <c r="KB18" s="5">
         <v>62952</v>
       </c>
+      <c r="KC18" s="5">
+        <v>63162</v>
+      </c>
+      <c r="KE18" s="35"/>
+      <c r="KF18"/>
     </row>
-    <row r="19" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
       <c r="B19" s="4" t="s">
         <v>257</v>
       </c>
@@ -16464,9 +16560,14 @@
       <c r="KB19" s="5">
         <v>71864</v>
       </c>
+      <c r="KC19" s="5">
+        <v>73456</v>
+      </c>
+      <c r="KE19" s="35"/>
+      <c r="KF19"/>
     </row>
-    <row r="20" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
       <c r="B20" s="4" t="s">
         <v>258</v>
       </c>
@@ -17328,9 +17429,14 @@
       <c r="KB20" s="5">
         <v>49337</v>
       </c>
+      <c r="KC20" s="5">
+        <v>51192</v>
+      </c>
+      <c r="KE20" s="35"/>
+      <c r="KF20"/>
     </row>
-    <row r="21" spans="1:909" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+    <row r="21" spans="1:910" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
       </c>
@@ -18211,10 +18317,13 @@
         <f>SUM(KB12:KB20)</f>
         <v>416253</v>
       </c>
-      <c r="KC21" s="1"/>
+      <c r="KC21" s="8">
+        <f>SUM(KC12:KC20)</f>
+        <v>421219</v>
+      </c>
       <c r="KD21" s="1"/>
-      <c r="KE21" s="1"/>
-      <c r="KF21" s="1"/>
+      <c r="KE21" s="39"/>
+      <c r="KF21" s="38"/>
       <c r="KG21" s="1"/>
       <c r="KH21" s="1"/>
       <c r="KI21" s="1"/>
@@ -18832,9 +18941,10 @@
       <c r="AHW21" s="1"/>
       <c r="AHX21" s="1"/>
       <c r="AHY21" s="1"/>
+      <c r="AHZ21" s="1"/>
     </row>
-    <row r="22" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -19698,9 +19808,14 @@
       <c r="KB22" s="6">
         <v>118385</v>
       </c>
+      <c r="KC22" s="6">
+        <v>116497</v>
+      </c>
+      <c r="KE22" s="38"/>
+      <c r="KF22" s="38"/>
     </row>
-    <row r="23" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
       <c r="B23" s="4" t="s">
         <v>261</v>
       </c>
@@ -20562,9 +20677,14 @@
       <c r="KB23" s="6">
         <v>39420</v>
       </c>
+      <c r="KC23" s="6">
+        <v>40274</v>
+      </c>
+      <c r="KE23" s="35"/>
+      <c r="KF23"/>
     </row>
-    <row r="24" spans="1:909" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:910" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
       <c r="B24" s="7" t="s">
         <v>259</v>
       </c>
@@ -21445,10 +21565,13 @@
         <f>SUM(KB22:KB23)</f>
         <v>157805</v>
       </c>
-      <c r="KC24" s="1"/>
+      <c r="KC24" s="8">
+        <f>SUM(KC22:KC23)</f>
+        <v>156771</v>
+      </c>
       <c r="KD24" s="1"/>
-      <c r="KE24" s="1"/>
-      <c r="KF24" s="1"/>
+      <c r="KE24" s="35"/>
+      <c r="KF24"/>
       <c r="KG24" s="1"/>
       <c r="KH24" s="1"/>
       <c r="KI24" s="1"/>
@@ -22066,9 +22189,10 @@
       <c r="AHW24" s="1"/>
       <c r="AHX24" s="1"/>
       <c r="AHY24" s="1"/>
+      <c r="AHZ24" s="1"/>
     </row>
-    <row r="25" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -22932,9 +23056,14 @@
       <c r="KB25" s="5">
         <v>4529</v>
       </c>
+      <c r="KC25" s="5">
+        <v>4483</v>
+      </c>
+      <c r="KE25" s="39"/>
+      <c r="KF25" s="38"/>
     </row>
-    <row r="26" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
       <c r="B26" s="4" t="s">
         <v>264</v>
       </c>
@@ -23796,9 +23925,12 @@
       <c r="KB26" s="5">
         <v>5616</v>
       </c>
+      <c r="KC26" s="5">
+        <v>5592</v>
+      </c>
     </row>
-    <row r="27" spans="1:909" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:910" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
       <c r="B27" s="7" t="s">
         <v>262</v>
       </c>
@@ -24679,7 +24811,10 @@
         <f>SUM(KB25:KB26)</f>
         <v>10145</v>
       </c>
-      <c r="KC27" s="1"/>
+      <c r="KC27" s="8">
+        <f>SUM(KC25:KC26)</f>
+        <v>10075</v>
+      </c>
       <c r="KD27" s="1"/>
       <c r="KE27" s="1"/>
       <c r="KF27" s="1"/>
@@ -25300,9 +25435,10 @@
       <c r="AHW27" s="1"/>
       <c r="AHX27" s="1"/>
       <c r="AHY27" s="1"/>
+      <c r="AHZ27" s="1"/>
     </row>
-    <row r="28" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -26166,9 +26302,14 @@
       <c r="KB28" s="5">
         <v>844</v>
       </c>
+      <c r="KC28" s="5">
+        <v>834</v>
+      </c>
+      <c r="KE28" s="38"/>
+      <c r="KF28" s="38"/>
     </row>
-    <row r="29" spans="1:909" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+    <row r="29" spans="1:910" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
       <c r="B29" s="4" t="s">
         <v>267</v>
       </c>
@@ -27030,9 +27171,14 @@
       <c r="KB29" s="5">
         <v>10729</v>
       </c>
+      <c r="KC29" s="5">
+        <v>10813</v>
+      </c>
+      <c r="KE29" s="35"/>
+      <c r="KF29"/>
     </row>
-    <row r="30" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+    <row r="30" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
       <c r="B30" s="4" t="s">
         <v>268</v>
       </c>
@@ -27894,9 +28040,14 @@
       <c r="KB30" s="5">
         <v>28952</v>
       </c>
+      <c r="KC30" s="5">
+        <v>29149</v>
+      </c>
+      <c r="KE30" s="35"/>
+      <c r="KF30"/>
     </row>
-    <row r="31" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
       <c r="B31" s="4" t="s">
         <v>269</v>
       </c>
@@ -28758,9 +28909,14 @@
       <c r="KB31" s="5">
         <v>108680</v>
       </c>
+      <c r="KC31" s="5">
+        <v>109110</v>
+      </c>
+      <c r="KE31" s="35"/>
+      <c r="KF31"/>
     </row>
-    <row r="32" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
       <c r="B32" s="4" t="s">
         <v>270</v>
       </c>
@@ -29622,9 +29778,14 @@
       <c r="KB32" s="5">
         <v>27679</v>
       </c>
+      <c r="KC32" s="5">
+        <v>27707</v>
+      </c>
+      <c r="KE32" s="35"/>
+      <c r="KF32"/>
     </row>
-    <row r="33" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A33" s="42"/>
       <c r="B33" s="4" t="s">
         <v>271</v>
       </c>
@@ -30486,9 +30647,14 @@
       <c r="KB33" s="5">
         <v>9442</v>
       </c>
+      <c r="KC33" s="5">
+        <v>9253</v>
+      </c>
+      <c r="KE33" s="35"/>
+      <c r="KF33"/>
     </row>
-    <row r="34" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A34" s="42"/>
       <c r="B34" s="4" t="s">
         <v>272</v>
       </c>
@@ -31350,9 +31516,14 @@
       <c r="KB34" s="5">
         <v>46380</v>
       </c>
+      <c r="KC34" s="5">
+        <v>46014</v>
+      </c>
+      <c r="KE34" s="35"/>
+      <c r="KF34"/>
     </row>
-    <row r="35" spans="1:909" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
       <c r="B35" s="4" t="s">
         <v>273</v>
       </c>
@@ -32214,9 +32385,14 @@
       <c r="KB35" s="5">
         <v>11333</v>
       </c>
+      <c r="KC35" s="5">
+        <v>11324</v>
+      </c>
+      <c r="KE35" s="35"/>
+      <c r="KF35"/>
     </row>
-    <row r="36" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+    <row r="36" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
       <c r="B36" s="4" t="s">
         <v>274</v>
       </c>
@@ -33078,9 +33254,14 @@
       <c r="KB36" s="5">
         <v>53434</v>
       </c>
+      <c r="KC36" s="5">
+        <v>53117</v>
+      </c>
+      <c r="KE36" s="35"/>
+      <c r="KF36"/>
     </row>
-    <row r="37" spans="1:909" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
+    <row r="37" spans="1:910" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
       <c r="B37" s="4" t="s">
         <v>275</v>
       </c>
@@ -33942,9 +34123,14 @@
       <c r="KB37" s="5">
         <v>74106</v>
       </c>
+      <c r="KC37" s="5">
+        <v>73112</v>
+      </c>
+      <c r="KE37" s="35"/>
+      <c r="KF37"/>
     </row>
-    <row r="38" spans="1:909" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:910" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
       <c r="B38" s="4" t="s">
         <v>276</v>
       </c>
@@ -34806,9 +34992,14 @@
       <c r="KB38" s="5">
         <v>21603</v>
       </c>
+      <c r="KC38" s="5">
+        <v>21827</v>
+      </c>
+      <c r="KE38" s="35"/>
+      <c r="KF38"/>
     </row>
-    <row r="39" spans="1:909" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
+    <row r="39" spans="1:910" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
       <c r="B39" s="4" t="s">
         <v>277</v>
       </c>
@@ -35670,9 +35861,14 @@
       <c r="KB39" s="5">
         <v>25781</v>
       </c>
+      <c r="KC39" s="5">
+        <v>26201</v>
+      </c>
+      <c r="KE39" s="35"/>
+      <c r="KF39"/>
     </row>
-    <row r="40" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
+    <row r="40" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
       <c r="B40" s="4" t="s">
         <v>278</v>
       </c>
@@ -36534,9 +36730,14 @@
       <c r="KB40" s="5">
         <v>13055</v>
       </c>
+      <c r="KC40" s="5">
+        <v>13040</v>
+      </c>
+      <c r="KE40" s="35"/>
+      <c r="KF40"/>
     </row>
-    <row r="41" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
+    <row r="41" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A41" s="42"/>
       <c r="B41" s="4" t="s">
         <v>279</v>
       </c>
@@ -37398,9 +37599,14 @@
       <c r="KB41" s="5">
         <v>11112</v>
       </c>
+      <c r="KC41" s="5">
+        <v>11087</v>
+      </c>
+      <c r="KE41" s="35"/>
+      <c r="KF41"/>
     </row>
-    <row r="42" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
+    <row r="42" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A42" s="42"/>
       <c r="B42" s="4" t="s">
         <v>280</v>
       </c>
@@ -38262,9 +38468,14 @@
       <c r="KB42" s="5">
         <v>46621</v>
       </c>
+      <c r="KC42" s="5">
+        <v>46778</v>
+      </c>
+      <c r="KE42" s="35"/>
+      <c r="KF42"/>
     </row>
-    <row r="43" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
+    <row r="43" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
       <c r="B43" s="4" t="s">
         <v>281</v>
       </c>
@@ -39126,9 +39337,14 @@
       <c r="KB43" s="5">
         <v>4774</v>
       </c>
+      <c r="KC43" s="5">
+        <v>4773</v>
+      </c>
+      <c r="KE43" s="35"/>
+      <c r="KF43"/>
     </row>
-    <row r="44" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
+    <row r="44" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="42"/>
       <c r="B44" s="4" t="s">
         <v>282</v>
       </c>
@@ -39990,9 +40206,14 @@
       <c r="KB44" s="5">
         <v>5436</v>
       </c>
+      <c r="KC44" s="5">
+        <v>5546</v>
+      </c>
+      <c r="KE44" s="35"/>
+      <c r="KF44"/>
     </row>
-    <row r="45" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
+    <row r="45" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A45" s="42"/>
       <c r="B45" s="4" t="s">
         <v>283</v>
       </c>
@@ -40854,9 +41075,14 @@
       <c r="KB45" s="5">
         <v>7265</v>
       </c>
+      <c r="KC45" s="5">
+        <v>7794</v>
+      </c>
+      <c r="KE45" s="35"/>
+      <c r="KF45"/>
     </row>
-    <row r="46" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
+    <row r="46" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A46" s="42"/>
       <c r="B46" s="4" t="s">
         <v>284</v>
       </c>
@@ -41718,9 +41944,14 @@
       <c r="KB46" s="5">
         <v>14885</v>
       </c>
+      <c r="KC46" s="5">
+        <v>14805</v>
+      </c>
+      <c r="KE46" s="35"/>
+      <c r="KF46"/>
     </row>
-    <row r="47" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="42"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
       </c>
@@ -42582,9 +42813,14 @@
       <c r="KB47" s="5">
         <v>1453</v>
       </c>
+      <c r="KC47" s="5">
+        <v>1465</v>
+      </c>
+      <c r="KE47" s="35"/>
+      <c r="KF47"/>
     </row>
-    <row r="48" spans="1:909" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
+    <row r="48" spans="1:910" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="42"/>
       <c r="B48" s="7" t="s">
         <v>265</v>
       </c>
@@ -43465,10 +43701,13 @@
         <f>SUM(KB28:KB47)</f>
         <v>523564</v>
       </c>
-      <c r="KC48" s="1"/>
+      <c r="KC48" s="8">
+        <f>SUM(KC28:KC47)</f>
+        <v>523749</v>
+      </c>
       <c r="KD48" s="1"/>
-      <c r="KE48" s="1"/>
-      <c r="KF48" s="1"/>
+      <c r="KE48" s="35"/>
+      <c r="KF48"/>
       <c r="KG48" s="1"/>
       <c r="KH48" s="1"/>
       <c r="KI48" s="1"/>
@@ -44086,9 +44325,10 @@
       <c r="AHW48" s="1"/>
       <c r="AHX48" s="1"/>
       <c r="AHY48" s="1"/>
+      <c r="AHZ48" s="1"/>
     </row>
-    <row r="49" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -44952,9 +45192,14 @@
       <c r="KB49" s="6">
         <v>24</v>
       </c>
+      <c r="KC49" s="6">
+        <v>24</v>
+      </c>
+      <c r="KE49" s="39"/>
+      <c r="KF49" s="38"/>
     </row>
-    <row r="50" spans="1:288" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
+    <row r="50" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A50" s="42"/>
       <c r="B50" s="4" t="s">
         <v>288</v>
       </c>
@@ -45816,9 +46061,12 @@
       <c r="KB50" s="6">
         <v>148</v>
       </c>
+      <c r="KC50" s="6">
+        <v>150</v>
+      </c>
     </row>
-    <row r="51" spans="1:288" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
+    <row r="51" spans="1:292" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="42"/>
       <c r="B51" s="4" t="s">
         <v>289</v>
       </c>
@@ -46680,9 +46928,12 @@
       <c r="KB51" s="5">
         <v>1565</v>
       </c>
+      <c r="KC51" s="5">
+        <v>1564</v>
+      </c>
     </row>
-    <row r="52" spans="1:288" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
+    <row r="52" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A52" s="42"/>
       <c r="B52" s="4" t="s">
         <v>290</v>
       </c>
@@ -47544,9 +47795,12 @@
       <c r="KB52" s="5">
         <v>849</v>
       </c>
+      <c r="KC52" s="5">
+        <v>854</v>
+      </c>
     </row>
-    <row r="53" spans="1:288" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
+    <row r="53" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A53" s="42"/>
       <c r="B53" s="7" t="s">
         <v>286</v>
       </c>
@@ -48427,9 +48681,13 @@
         <f>SUM(KB49:KB52)</f>
         <v>2586</v>
       </c>
+      <c r="KC53" s="8">
+        <f>SUM(KC49:KC52)</f>
+        <v>2592</v>
+      </c>
     </row>
-    <row r="54" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="37" t="s">
+    <row r="54" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -49293,9 +49551,14 @@
       <c r="KB54" s="5">
         <v>5839</v>
       </c>
+      <c r="KC54" s="5">
+        <v>5763</v>
+      </c>
+      <c r="KE54" s="38"/>
+      <c r="KF54" s="38"/>
     </row>
-    <row r="55" spans="1:288" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
+    <row r="55" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A55" s="42"/>
       <c r="B55" s="4" t="s">
         <v>293</v>
       </c>
@@ -50157,9 +50420,14 @@
       <c r="KB55" s="5">
         <v>59466</v>
       </c>
+      <c r="KC55" s="5">
+        <v>60173</v>
+      </c>
+      <c r="KE55" s="35"/>
+      <c r="KF55"/>
     </row>
-    <row r="56" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
+    <row r="56" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="42"/>
       <c r="B56" s="4" t="s">
         <v>294</v>
       </c>
@@ -51021,9 +51289,14 @@
       <c r="KB56" s="5">
         <v>6847</v>
       </c>
+      <c r="KC56" s="5">
+        <v>6915</v>
+      </c>
+      <c r="KE56" s="35"/>
+      <c r="KF56"/>
     </row>
-    <row r="57" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
+    <row r="57" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="42"/>
       <c r="B57" s="4" t="s">
         <v>295</v>
       </c>
@@ -51885,9 +52158,14 @@
       <c r="KB57" s="5">
         <v>195013</v>
       </c>
+      <c r="KC57" s="5">
+        <v>195738</v>
+      </c>
+      <c r="KE57" s="35"/>
+      <c r="KF57"/>
     </row>
-    <row r="58" spans="1:288" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
+    <row r="58" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A58" s="42"/>
       <c r="B58" s="4" t="s">
         <v>296</v>
       </c>
@@ -52749,9 +53027,14 @@
       <c r="KB58" s="5">
         <v>36043</v>
       </c>
+      <c r="KC58" s="5">
+        <v>36553</v>
+      </c>
+      <c r="KE58" s="35"/>
+      <c r="KF58"/>
     </row>
-    <row r="59" spans="1:288" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
+    <row r="59" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A59" s="42"/>
       <c r="B59" s="4" t="s">
         <v>297</v>
       </c>
@@ -53613,9 +53896,14 @@
       <c r="KB59" s="5">
         <v>7365</v>
       </c>
+      <c r="KC59" s="5">
+        <v>7572</v>
+      </c>
+      <c r="KE59" s="35"/>
+      <c r="KF59"/>
     </row>
-    <row r="60" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="37"/>
+    <row r="60" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="42"/>
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -54477,9 +54765,14 @@
       <c r="KB60" s="5">
         <v>51550</v>
       </c>
+      <c r="KC60" s="5">
+        <v>51765</v>
+      </c>
+      <c r="KE60" s="35"/>
+      <c r="KF60"/>
     </row>
-    <row r="61" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
+    <row r="61" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="42"/>
       <c r="B61" s="4" t="s">
         <v>299</v>
       </c>
@@ -55341,9 +55634,14 @@
       <c r="KB61" s="6">
         <v>152</v>
       </c>
+      <c r="KC61" s="6">
+        <v>153</v>
+      </c>
+      <c r="KE61" s="35"/>
+      <c r="KF61"/>
     </row>
-    <row r="62" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
+    <row r="62" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="42"/>
       <c r="B62" s="4" t="s">
         <v>300</v>
       </c>
@@ -56205,9 +56503,14 @@
       <c r="KB62" s="5">
         <v>21427</v>
       </c>
+      <c r="KC62" s="5">
+        <v>21391</v>
+      </c>
+      <c r="KE62" s="35"/>
+      <c r="KF62"/>
     </row>
-    <row r="63" spans="1:288" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="37"/>
+    <row r="63" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="42"/>
       <c r="B63" s="4" t="s">
         <v>301</v>
       </c>
@@ -57069,9 +57372,14 @@
       <c r="KB63" s="5">
         <v>36290</v>
       </c>
+      <c r="KC63" s="5">
+        <v>36486</v>
+      </c>
+      <c r="KE63" s="35"/>
+      <c r="KF63"/>
     </row>
-    <row r="64" spans="1:288" x14ac:dyDescent="0.3">
-      <c r="A64" s="37"/>
+    <row r="64" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A64" s="42"/>
       <c r="B64" s="4" t="s">
         <v>302</v>
       </c>
@@ -57933,9 +58241,14 @@
       <c r="KB64" s="5">
         <v>51823</v>
       </c>
+      <c r="KC64" s="5">
+        <v>51894</v>
+      </c>
+      <c r="KE64" s="35"/>
+      <c r="KF64"/>
     </row>
-    <row r="65" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
+    <row r="65" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A65" s="42"/>
       <c r="B65" s="4" t="s">
         <v>303</v>
       </c>
@@ -58797,9 +59110,14 @@
       <c r="KB65" s="5">
         <v>173303</v>
       </c>
+      <c r="KC65" s="5">
+        <v>176442</v>
+      </c>
+      <c r="KE65" s="35"/>
+      <c r="KF65"/>
     </row>
-    <row r="66" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
+    <row r="66" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A66" s="42"/>
       <c r="B66" s="4" t="s">
         <v>304</v>
       </c>
@@ -59661,9 +59979,14 @@
       <c r="KB66" s="5">
         <v>21186</v>
       </c>
+      <c r="KC66" s="5">
+        <v>21191</v>
+      </c>
+      <c r="KE66" s="35"/>
+      <c r="KF66"/>
     </row>
-    <row r="67" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A67" s="37"/>
+    <row r="67" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A67" s="42"/>
       <c r="B67" s="4" t="s">
         <v>305</v>
       </c>
@@ -60525,9 +60848,14 @@
       <c r="KB67" s="5">
         <v>7046</v>
       </c>
+      <c r="KC67" s="5">
+        <v>7155</v>
+      </c>
+      <c r="KE67" s="35"/>
+      <c r="KF67"/>
     </row>
-    <row r="68" spans="1:909" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="37"/>
+    <row r="68" spans="1:910" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="42"/>
       <c r="B68" s="7" t="s">
         <v>291</v>
       </c>
@@ -61408,10 +61736,13 @@
         <f>SUM(KB54:KB67)</f>
         <v>673350</v>
       </c>
-      <c r="KC68" s="1"/>
+      <c r="KC68" s="8">
+        <f>SUM(KC54:KC67)</f>
+        <v>679191</v>
+      </c>
       <c r="KD68" s="1"/>
-      <c r="KE68" s="1"/>
-      <c r="KF68" s="1"/>
+      <c r="KE68" s="35"/>
+      <c r="KF68"/>
       <c r="KG68" s="1"/>
       <c r="KH68" s="1"/>
       <c r="KI68" s="1"/>
@@ -62029,9 +62360,10 @@
       <c r="AHW68" s="1"/>
       <c r="AHX68" s="1"/>
       <c r="AHY68" s="1"/>
+      <c r="AHZ68" s="1"/>
     </row>
-    <row r="69" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
+    <row r="69" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A69" s="42" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -62895,9 +63227,14 @@
       <c r="KB69" s="5">
         <v>10354</v>
       </c>
+      <c r="KC69" s="5">
+        <v>10617</v>
+      </c>
+      <c r="KE69" s="38"/>
+      <c r="KF69" s="38"/>
     </row>
-    <row r="70" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A70" s="37"/>
+    <row r="70" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A70" s="42"/>
       <c r="B70" s="4" t="s">
         <v>308</v>
       </c>
@@ -63759,9 +64096,14 @@
       <c r="KB70" s="5">
         <v>1031</v>
       </c>
+      <c r="KC70" s="5">
+        <v>1111</v>
+      </c>
+      <c r="KE70" s="35"/>
+      <c r="KF70"/>
     </row>
-    <row r="71" spans="1:909" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="37"/>
+    <row r="71" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="42"/>
       <c r="B71" s="4" t="s">
         <v>309</v>
       </c>
@@ -64623,9 +64965,14 @@
       <c r="KB71" s="5">
         <v>37338</v>
       </c>
+      <c r="KC71" s="5">
+        <v>38017</v>
+      </c>
+      <c r="KE71" s="35"/>
+      <c r="KF71"/>
     </row>
-    <row r="72" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
+    <row r="72" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A72" s="42"/>
       <c r="B72" s="4" t="s">
         <v>310</v>
       </c>
@@ -65487,9 +65834,14 @@
       <c r="KB72" s="5">
         <v>4426</v>
       </c>
+      <c r="KC72" s="5">
+        <v>4780</v>
+      </c>
+      <c r="KE72" s="35"/>
+      <c r="KF72"/>
     </row>
-    <row r="73" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
+    <row r="73" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A73" s="42"/>
       <c r="B73" s="4" t="s">
         <v>311</v>
       </c>
@@ -66351,9 +66703,14 @@
       <c r="KB73" s="6">
         <v>712</v>
       </c>
+      <c r="KC73" s="6">
+        <v>820</v>
+      </c>
+      <c r="KE73" s="35"/>
+      <c r="KF73"/>
     </row>
-    <row r="74" spans="1:909" x14ac:dyDescent="0.3">
-      <c r="A74" s="37"/>
+    <row r="74" spans="1:910" x14ac:dyDescent="0.3">
+      <c r="A74" s="42"/>
       <c r="B74" s="4" t="s">
         <v>312</v>
       </c>
@@ -67215,9 +67572,14 @@
       <c r="KB74" s="5">
         <v>55662</v>
       </c>
+      <c r="KC74" s="5">
+        <v>56088</v>
+      </c>
+      <c r="KE74" s="35"/>
+      <c r="KF74"/>
     </row>
-    <row r="75" spans="1:909" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="37"/>
+    <row r="75" spans="1:910" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="42"/>
       <c r="B75" s="7" t="s">
         <v>306</v>
       </c>
@@ -68098,10 +68460,13 @@
         <f>SUM(KB69:KB74)</f>
         <v>109523</v>
       </c>
-      <c r="KC75" s="1"/>
+      <c r="KC75" s="8">
+        <f>SUM(KC69:KC74)</f>
+        <v>111433</v>
+      </c>
       <c r="KD75" s="1"/>
-      <c r="KE75" s="1"/>
-      <c r="KF75" s="1"/>
+      <c r="KE75" s="35"/>
+      <c r="KF75"/>
       <c r="KG75" s="1"/>
       <c r="KH75" s="1"/>
       <c r="KI75" s="1"/>
@@ -68719,8 +69084,9 @@
       <c r="AHW75" s="1"/>
       <c r="AHX75" s="1"/>
       <c r="AHY75" s="1"/>
+      <c r="AHZ75" s="1"/>
     </row>
-    <row r="76" spans="1:909" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:910" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
@@ -69606,8 +69972,14 @@
         <f>KB11+KB21+KB24+KB27+KB48+KB53+KB68+KB75</f>
         <v>2013431</v>
       </c>
+      <c r="KC76" s="31">
+        <f>KC11+KC21+KC24+KC27+KC48+KC53+KC68+KC75</f>
+        <v>2026935</v>
+      </c>
+      <c r="KE76" s="39"/>
+      <c r="KF76" s="38"/>
     </row>
-    <row r="77" spans="1:909" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:910" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -70331,15 +70703,16 @@
       <c r="AAX77" s="25"/>
       <c r="AAY77" s="25"/>
       <c r="AAZ77" s="25"/>
+      <c r="ABA77" s="25"/>
     </row>
-    <row r="78" spans="1:909" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:910" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="JS4:KB4"/>
+    <mergeCell ref="JS4:KC4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5917A13-0250-46EE-A8FF-CCFF8D7C53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E13EF-BA4D-41E7-8816-90A90C633C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="364">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1144,6 +1144,9 @@
   <si>
     <t>2023/Noviembre</t>
   </si>
+  <si>
+    <t>2023/Diciembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1490,7 +1493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1703,15 +1706,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1757,7 +1751,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1855,30 +1849,19 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,11 +2226,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AHZ78"/>
+  <dimension ref="A1:AHI78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KE62" sqref="KE62"/>
+      <pane xSplit="2" topLeftCell="JS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KG17" sqref="KG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2531,368 +2514,367 @@
     <col min="286" max="286" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="287" max="287" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="288" max="288" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="10.88671875" style="3"/>
-    <col min="291" max="291" width="44.44140625" style="3" customWidth="1"/>
-    <col min="292" max="16384" width="10.88671875" style="3"/>
+    <col min="289" max="290" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="291" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:910" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:893" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:910" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:893" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:893" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40"/>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="40"/>
-      <c r="BY4" s="40"/>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40"/>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="40"/>
-      <c r="CK4" s="40"/>
-      <c r="CL4" s="40"/>
-      <c r="CM4" s="40"/>
-      <c r="CN4" s="40"/>
-      <c r="CO4" s="40"/>
-      <c r="CP4" s="40"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="40"/>
-      <c r="CS4" s="40"/>
-      <c r="CT4" s="40"/>
-      <c r="CU4" s="40">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="40"/>
-      <c r="CW4" s="40"/>
-      <c r="CX4" s="40"/>
-      <c r="CY4" s="40"/>
-      <c r="CZ4" s="40"/>
-      <c r="DA4" s="40"/>
-      <c r="DB4" s="40"/>
-      <c r="DC4" s="40"/>
-      <c r="DD4" s="40"/>
-      <c r="DE4" s="40"/>
-      <c r="DF4" s="40"/>
-      <c r="DG4" s="40">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="40"/>
-      <c r="DI4" s="40"/>
-      <c r="DJ4" s="40"/>
-      <c r="DK4" s="40"/>
-      <c r="DL4" s="40"/>
-      <c r="DM4" s="40"/>
-      <c r="DN4" s="40"/>
-      <c r="DO4" s="40"/>
-      <c r="DP4" s="40"/>
-      <c r="DQ4" s="40"/>
-      <c r="DR4" s="40"/>
-      <c r="DS4" s="40">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="40"/>
-      <c r="DU4" s="40"/>
-      <c r="DV4" s="40"/>
-      <c r="DW4" s="40"/>
-      <c r="DX4" s="40"/>
-      <c r="DY4" s="40"/>
-      <c r="DZ4" s="40"/>
-      <c r="EA4" s="40"/>
-      <c r="EB4" s="40"/>
-      <c r="EC4" s="40"/>
-      <c r="ED4" s="40"/>
-      <c r="EE4" s="40">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="40"/>
-      <c r="EG4" s="40"/>
-      <c r="EH4" s="40"/>
-      <c r="EI4" s="40"/>
-      <c r="EJ4" s="40"/>
-      <c r="EK4" s="40"/>
-      <c r="EL4" s="40"/>
-      <c r="EM4" s="40"/>
-      <c r="EN4" s="40"/>
-      <c r="EO4" s="40"/>
-      <c r="EP4" s="40"/>
-      <c r="EQ4" s="40">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="40"/>
-      <c r="ES4" s="40"/>
-      <c r="ET4" s="40"/>
-      <c r="EU4" s="40"/>
-      <c r="EV4" s="40"/>
-      <c r="EW4" s="40"/>
-      <c r="EX4" s="40"/>
-      <c r="EY4" s="40"/>
-      <c r="EZ4" s="40"/>
-      <c r="FA4" s="40"/>
-      <c r="FB4" s="40"/>
-      <c r="FC4" s="40">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="40"/>
-      <c r="FE4" s="40"/>
-      <c r="FF4" s="40"/>
-      <c r="FG4" s="40"/>
-      <c r="FH4" s="40"/>
-      <c r="FI4" s="40"/>
-      <c r="FJ4" s="40"/>
-      <c r="FK4" s="40"/>
-      <c r="FL4" s="40"/>
-      <c r="FM4" s="40"/>
-      <c r="FN4" s="40"/>
-      <c r="FO4" s="40">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="40"/>
-      <c r="FQ4" s="40"/>
-      <c r="FR4" s="40"/>
-      <c r="FS4" s="40"/>
-      <c r="FT4" s="40"/>
-      <c r="FU4" s="40"/>
-      <c r="FV4" s="40"/>
-      <c r="FW4" s="40"/>
-      <c r="FX4" s="40"/>
-      <c r="FY4" s="40"/>
-      <c r="FZ4" s="40"/>
-      <c r="GA4" s="40">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="40"/>
-      <c r="GC4" s="40"/>
-      <c r="GD4" s="40"/>
-      <c r="GE4" s="40"/>
-      <c r="GF4" s="40"/>
-      <c r="GG4" s="40"/>
-      <c r="GH4" s="40"/>
-      <c r="GI4" s="40"/>
-      <c r="GJ4" s="40"/>
-      <c r="GK4" s="40"/>
-      <c r="GL4" s="40"/>
-      <c r="GM4" s="40">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="40"/>
-      <c r="GO4" s="40"/>
-      <c r="GP4" s="40"/>
-      <c r="GQ4" s="40"/>
-      <c r="GR4" s="40"/>
-      <c r="GS4" s="40"/>
-      <c r="GT4" s="40"/>
-      <c r="GU4" s="40"/>
-      <c r="GV4" s="40"/>
-      <c r="GW4" s="40"/>
-      <c r="GX4" s="40"/>
-      <c r="GY4" s="40">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="40"/>
-      <c r="HA4" s="40"/>
-      <c r="HB4" s="40"/>
-      <c r="HC4" s="40"/>
-      <c r="HD4" s="40"/>
-      <c r="HE4" s="40"/>
-      <c r="HF4" s="40"/>
-      <c r="HG4" s="40"/>
-      <c r="HH4" s="40"/>
-      <c r="HI4" s="40"/>
-      <c r="HJ4" s="40"/>
-      <c r="HK4" s="40">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="40"/>
-      <c r="HM4" s="40"/>
-      <c r="HN4" s="40"/>
-      <c r="HO4" s="40"/>
-      <c r="HP4" s="40"/>
-      <c r="HQ4" s="40"/>
-      <c r="HR4" s="40"/>
-      <c r="HS4" s="40"/>
-      <c r="HT4" s="40"/>
-      <c r="HU4" s="40"/>
-      <c r="HV4" s="40"/>
-      <c r="HW4" s="40">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="40"/>
-      <c r="HY4" s="40"/>
-      <c r="HZ4" s="40"/>
-      <c r="IA4" s="40"/>
-      <c r="IB4" s="40"/>
-      <c r="IC4" s="40"/>
-      <c r="ID4" s="40"/>
-      <c r="IE4" s="40"/>
-      <c r="IF4" s="40"/>
-      <c r="IG4" s="40"/>
-      <c r="IH4" s="41"/>
-      <c r="II4" s="41">
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="35"/>
+      <c r="II4" s="35">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="43"/>
-      <c r="IK4" s="43"/>
-      <c r="IL4" s="43"/>
-      <c r="IM4" s="43"/>
-      <c r="IN4" s="43"/>
-      <c r="IO4" s="43"/>
-      <c r="IP4" s="43"/>
-      <c r="IQ4" s="43"/>
-      <c r="IR4" s="43"/>
-      <c r="IS4" s="43"/>
-      <c r="IT4" s="44"/>
-      <c r="IU4" s="41">
+      <c r="IJ4" s="36"/>
+      <c r="IK4" s="36"/>
+      <c r="IL4" s="36"/>
+      <c r="IM4" s="36"/>
+      <c r="IN4" s="36"/>
+      <c r="IO4" s="36"/>
+      <c r="IP4" s="36"/>
+      <c r="IQ4" s="36"/>
+      <c r="IR4" s="36"/>
+      <c r="IS4" s="36"/>
+      <c r="IT4" s="37"/>
+      <c r="IU4" s="35">
         <v>2021</v>
       </c>
-      <c r="IV4" s="43"/>
-      <c r="IW4" s="43"/>
-      <c r="IX4" s="43"/>
-      <c r="IY4" s="43"/>
-      <c r="IZ4" s="43"/>
-      <c r="JA4" s="43"/>
-      <c r="JB4" s="43"/>
-      <c r="JC4" s="43"/>
-      <c r="JD4" s="43"/>
-      <c r="JE4" s="43"/>
-      <c r="JF4" s="44"/>
-      <c r="JG4" s="40">
+      <c r="IV4" s="36"/>
+      <c r="IW4" s="36"/>
+      <c r="IX4" s="36"/>
+      <c r="IY4" s="36"/>
+      <c r="IZ4" s="36"/>
+      <c r="JA4" s="36"/>
+      <c r="JB4" s="36"/>
+      <c r="JC4" s="36"/>
+      <c r="JD4" s="36"/>
+      <c r="JE4" s="36"/>
+      <c r="JF4" s="37"/>
+      <c r="JG4" s="39">
         <v>2022</v>
       </c>
-      <c r="JH4" s="40"/>
-      <c r="JI4" s="40"/>
-      <c r="JJ4" s="40"/>
-      <c r="JK4" s="40"/>
-      <c r="JL4" s="40"/>
-      <c r="JM4" s="40"/>
-      <c r="JN4" s="40"/>
-      <c r="JO4" s="40"/>
-      <c r="JP4" s="40"/>
-      <c r="JQ4" s="40"/>
-      <c r="JR4" s="40"/>
-      <c r="JS4" s="41">
+      <c r="JH4" s="39"/>
+      <c r="JI4" s="39"/>
+      <c r="JJ4" s="39"/>
+      <c r="JK4" s="39"/>
+      <c r="JL4" s="39"/>
+      <c r="JM4" s="39"/>
+      <c r="JN4" s="39"/>
+      <c r="JO4" s="39"/>
+      <c r="JP4" s="39"/>
+      <c r="JQ4" s="39"/>
+      <c r="JR4" s="39"/>
+      <c r="JS4" s="35">
         <v>2023</v>
       </c>
-      <c r="JT4" s="43"/>
-      <c r="JU4" s="43"/>
-      <c r="JV4" s="43"/>
-      <c r="JW4" s="43"/>
-      <c r="JX4" s="43"/>
-      <c r="JY4" s="43"/>
-      <c r="JZ4" s="43"/>
-      <c r="KA4" s="43"/>
-      <c r="KB4" s="43"/>
-      <c r="KC4" s="44"/>
+      <c r="JT4" s="36"/>
+      <c r="JU4" s="36"/>
+      <c r="JV4" s="36"/>
+      <c r="JW4" s="36"/>
+      <c r="JX4" s="36"/>
+      <c r="JY4" s="36"/>
+      <c r="JZ4" s="36"/>
+      <c r="KA4" s="36"/>
+      <c r="KB4" s="36"/>
+      <c r="KC4" s="36"/>
+      <c r="KD4" s="37"/>
     </row>
-    <row r="5" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:893" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
@@ -3754,11 +3736,12 @@
       <c r="KC5" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="KE5" s="35"/>
-      <c r="KF5"/>
+      <c r="KD5" s="34" t="s">
+        <v>363</v>
+      </c>
     </row>
-    <row r="6" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4625,11 +4608,12 @@
       <c r="KC6" s="5">
         <v>96583</v>
       </c>
-      <c r="KE6" s="35"/>
-      <c r="KF6"/>
+      <c r="KD6" s="5">
+        <v>94347</v>
+      </c>
     </row>
-    <row r="7" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
       <c r="B7" s="4" t="s">
         <v>245</v>
       </c>
@@ -5494,11 +5478,12 @@
       <c r="KC7" s="6">
         <v>50</v>
       </c>
-      <c r="KE7" s="35"/>
-      <c r="KF7"/>
+      <c r="KD7" s="6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+    <row r="8" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
       <c r="B8" s="4" t="s">
         <v>246</v>
       </c>
@@ -6363,11 +6348,12 @@
       <c r="KC8" s="5">
         <v>24500</v>
       </c>
-      <c r="KE8" s="35"/>
-      <c r="KF8"/>
+      <c r="KD8" s="5">
+        <v>23750</v>
+      </c>
     </row>
-    <row r="9" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+    <row r="9" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
       <c r="B9" s="4" t="s">
         <v>247</v>
       </c>
@@ -7232,11 +7218,12 @@
       <c r="KC9" s="5">
         <v>277</v>
       </c>
-      <c r="KE9" s="35"/>
-      <c r="KF9"/>
+      <c r="KD9" s="5">
+        <v>277</v>
+      </c>
     </row>
-    <row r="10" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
       <c r="B10" s="4" t="s">
         <v>248</v>
       </c>
@@ -8101,11 +8088,12 @@
       <c r="KC10" s="6">
         <v>495</v>
       </c>
-      <c r="KE10" s="36"/>
-      <c r="KF10" s="37"/>
+      <c r="KD10" s="6">
+        <v>450</v>
+      </c>
     </row>
-    <row r="11" spans="1:910" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:893" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
       <c r="B11" s="7" t="s">
         <v>244</v>
       </c>
@@ -8987,12 +8975,14 @@
         <v>120205</v>
       </c>
       <c r="KC11" s="8">
-        <f>SUM(KC6:KC10)</f>
         <v>121905</v>
       </c>
-      <c r="KD11" s="1"/>
-      <c r="KE11" s="38"/>
-      <c r="KF11" s="38"/>
+      <c r="KD11" s="8">
+        <f>SUM(KD6:KD10)</f>
+        <v>118874</v>
+      </c>
+      <c r="KE11" s="1"/>
+      <c r="KF11" s="1"/>
       <c r="KG11" s="1"/>
       <c r="KH11" s="1"/>
       <c r="KI11" s="1"/>
@@ -9594,26 +9584,9 @@
       <c r="AHG11" s="1"/>
       <c r="AHH11" s="1"/>
       <c r="AHI11" s="1"/>
-      <c r="AHJ11" s="1"/>
-      <c r="AHK11" s="1"/>
-      <c r="AHL11" s="1"/>
-      <c r="AHM11" s="1"/>
-      <c r="AHN11" s="1"/>
-      <c r="AHO11" s="1"/>
-      <c r="AHP11" s="1"/>
-      <c r="AHQ11" s="1"/>
-      <c r="AHR11" s="1"/>
-      <c r="AHS11" s="1"/>
-      <c r="AHT11" s="1"/>
-      <c r="AHU11" s="1"/>
-      <c r="AHV11" s="1"/>
-      <c r="AHW11" s="1"/>
-      <c r="AHX11" s="1"/>
-      <c r="AHY11" s="1"/>
-      <c r="AHZ11" s="1"/>
     </row>
-    <row r="12" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10480,11 +10453,12 @@
       <c r="KC12" s="5">
         <v>85613</v>
       </c>
-      <c r="KE12" s="35"/>
-      <c r="KF12"/>
+      <c r="KD12" s="5">
+        <v>84867</v>
+      </c>
     </row>
-    <row r="13" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
       <c r="B13" s="4" t="s">
         <v>251</v>
       </c>
@@ -11349,11 +11323,12 @@
       <c r="KC13" s="5">
         <v>20712</v>
       </c>
-      <c r="KE13" s="35"/>
-      <c r="KF13"/>
+      <c r="KD13" s="5">
+        <v>20491</v>
+      </c>
     </row>
-    <row r="14" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+    <row r="14" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
       <c r="B14" s="4" t="s">
         <v>252</v>
       </c>
@@ -12218,11 +12193,12 @@
       <c r="KC14" s="5">
         <v>37843</v>
       </c>
-      <c r="KE14" s="35"/>
-      <c r="KF14"/>
+      <c r="KD14" s="5">
+        <v>37811</v>
+      </c>
     </row>
-    <row r="15" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
       <c r="B15" s="4" t="s">
         <v>253</v>
       </c>
@@ -13087,11 +13063,12 @@
       <c r="KC15" s="5">
         <v>23137</v>
       </c>
-      <c r="KE15" s="35"/>
-      <c r="KF15"/>
+      <c r="KD15" s="5">
+        <v>23088</v>
+      </c>
     </row>
-    <row r="16" spans="1:910" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:893" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
       <c r="B16" s="4" t="s">
         <v>254</v>
       </c>
@@ -13956,11 +13933,12 @@
       <c r="KC16" s="5">
         <v>15068</v>
       </c>
-      <c r="KE16" s="35"/>
-      <c r="KF16"/>
+      <c r="KD16" s="5">
+        <v>14760</v>
+      </c>
     </row>
-    <row r="17" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
       <c r="B17" s="4" t="s">
         <v>255</v>
       </c>
@@ -14825,11 +14803,12 @@
       <c r="KC17" s="5">
         <v>51036</v>
       </c>
-      <c r="KE17" s="35"/>
-      <c r="KF17"/>
+      <c r="KD17" s="5">
+        <v>50675</v>
+      </c>
     </row>
-    <row r="18" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
+    <row r="18" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
       <c r="B18" s="4" t="s">
         <v>256</v>
       </c>
@@ -15694,11 +15673,12 @@
       <c r="KC18" s="5">
         <v>63162</v>
       </c>
-      <c r="KE18" s="35"/>
-      <c r="KF18"/>
+      <c r="KD18" s="5">
+        <v>62464</v>
+      </c>
     </row>
-    <row r="19" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
+    <row r="19" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
       <c r="B19" s="4" t="s">
         <v>257</v>
       </c>
@@ -16563,11 +16543,12 @@
       <c r="KC19" s="5">
         <v>73456</v>
       </c>
-      <c r="KE19" s="35"/>
-      <c r="KF19"/>
+      <c r="KD19" s="5">
+        <v>72632</v>
+      </c>
     </row>
-    <row r="20" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
+    <row r="20" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
       <c r="B20" s="4" t="s">
         <v>258</v>
       </c>
@@ -17432,11 +17413,12 @@
       <c r="KC20" s="5">
         <v>51192</v>
       </c>
-      <c r="KE20" s="35"/>
-      <c r="KF20"/>
+      <c r="KD20" s="5">
+        <v>49395</v>
+      </c>
     </row>
-    <row r="21" spans="1:910" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+    <row r="21" spans="1:893" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
       </c>
@@ -18318,12 +18300,14 @@
         <v>416253</v>
       </c>
       <c r="KC21" s="8">
-        <f>SUM(KC12:KC20)</f>
         <v>421219</v>
       </c>
-      <c r="KD21" s="1"/>
-      <c r="KE21" s="39"/>
-      <c r="KF21" s="38"/>
+      <c r="KD21" s="8">
+        <f>SUM(KD12:KD20)</f>
+        <v>416183</v>
+      </c>
+      <c r="KE21" s="1"/>
+      <c r="KF21" s="1"/>
       <c r="KG21" s="1"/>
       <c r="KH21" s="1"/>
       <c r="KI21" s="1"/>
@@ -18925,26 +18909,9 @@
       <c r="AHG21" s="1"/>
       <c r="AHH21" s="1"/>
       <c r="AHI21" s="1"/>
-      <c r="AHJ21" s="1"/>
-      <c r="AHK21" s="1"/>
-      <c r="AHL21" s="1"/>
-      <c r="AHM21" s="1"/>
-      <c r="AHN21" s="1"/>
-      <c r="AHO21" s="1"/>
-      <c r="AHP21" s="1"/>
-      <c r="AHQ21" s="1"/>
-      <c r="AHR21" s="1"/>
-      <c r="AHS21" s="1"/>
-      <c r="AHT21" s="1"/>
-      <c r="AHU21" s="1"/>
-      <c r="AHV21" s="1"/>
-      <c r="AHW21" s="1"/>
-      <c r="AHX21" s="1"/>
-      <c r="AHY21" s="1"/>
-      <c r="AHZ21" s="1"/>
     </row>
-    <row r="22" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -19811,11 +19778,12 @@
       <c r="KC22" s="6">
         <v>116497</v>
       </c>
-      <c r="KE22" s="38"/>
-      <c r="KF22" s="38"/>
+      <c r="KD22" s="6">
+        <v>110107</v>
+      </c>
     </row>
-    <row r="23" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
       <c r="B23" s="4" t="s">
         <v>261</v>
       </c>
@@ -20680,11 +20648,12 @@
       <c r="KC23" s="6">
         <v>40274</v>
       </c>
-      <c r="KE23" s="35"/>
-      <c r="KF23"/>
+      <c r="KD23" s="6">
+        <v>38922</v>
+      </c>
     </row>
-    <row r="24" spans="1:910" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:893" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
       <c r="B24" s="7" t="s">
         <v>259</v>
       </c>
@@ -21566,12 +21535,14 @@
         <v>157805</v>
       </c>
       <c r="KC24" s="8">
-        <f>SUM(KC22:KC23)</f>
         <v>156771</v>
       </c>
-      <c r="KD24" s="1"/>
-      <c r="KE24" s="35"/>
-      <c r="KF24"/>
+      <c r="KD24" s="8">
+        <f>SUM(KD22:KD23)</f>
+        <v>149029</v>
+      </c>
+      <c r="KE24" s="1"/>
+      <c r="KF24" s="1"/>
       <c r="KG24" s="1"/>
       <c r="KH24" s="1"/>
       <c r="KI24" s="1"/>
@@ -22173,26 +22144,9 @@
       <c r="AHG24" s="1"/>
       <c r="AHH24" s="1"/>
       <c r="AHI24" s="1"/>
-      <c r="AHJ24" s="1"/>
-      <c r="AHK24" s="1"/>
-      <c r="AHL24" s="1"/>
-      <c r="AHM24" s="1"/>
-      <c r="AHN24" s="1"/>
-      <c r="AHO24" s="1"/>
-      <c r="AHP24" s="1"/>
-      <c r="AHQ24" s="1"/>
-      <c r="AHR24" s="1"/>
-      <c r="AHS24" s="1"/>
-      <c r="AHT24" s="1"/>
-      <c r="AHU24" s="1"/>
-      <c r="AHV24" s="1"/>
-      <c r="AHW24" s="1"/>
-      <c r="AHX24" s="1"/>
-      <c r="AHY24" s="1"/>
-      <c r="AHZ24" s="1"/>
     </row>
-    <row r="25" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -23059,11 +23013,12 @@
       <c r="KC25" s="5">
         <v>4483</v>
       </c>
-      <c r="KE25" s="39"/>
-      <c r="KF25" s="38"/>
+      <c r="KD25" s="5">
+        <v>4493</v>
+      </c>
     </row>
-    <row r="26" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
+    <row r="26" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
       <c r="B26" s="4" t="s">
         <v>264</v>
       </c>
@@ -23928,9 +23883,12 @@
       <c r="KC26" s="5">
         <v>5592</v>
       </c>
+      <c r="KD26" s="5">
+        <v>5651</v>
+      </c>
     </row>
-    <row r="27" spans="1:910" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+    <row r="27" spans="1:893" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
       <c r="B27" s="7" t="s">
         <v>262</v>
       </c>
@@ -24812,10 +24770,12 @@
         <v>10145</v>
       </c>
       <c r="KC27" s="8">
-        <f>SUM(KC25:KC26)</f>
         <v>10075</v>
       </c>
-      <c r="KD27" s="1"/>
+      <c r="KD27" s="8">
+        <f>SUM(KD25:KD26)</f>
+        <v>10144</v>
+      </c>
       <c r="KE27" s="1"/>
       <c r="KF27" s="1"/>
       <c r="KG27" s="1"/>
@@ -25419,26 +25379,9 @@
       <c r="AHG27" s="1"/>
       <c r="AHH27" s="1"/>
       <c r="AHI27" s="1"/>
-      <c r="AHJ27" s="1"/>
-      <c r="AHK27" s="1"/>
-      <c r="AHL27" s="1"/>
-      <c r="AHM27" s="1"/>
-      <c r="AHN27" s="1"/>
-      <c r="AHO27" s="1"/>
-      <c r="AHP27" s="1"/>
-      <c r="AHQ27" s="1"/>
-      <c r="AHR27" s="1"/>
-      <c r="AHS27" s="1"/>
-      <c r="AHT27" s="1"/>
-      <c r="AHU27" s="1"/>
-      <c r="AHV27" s="1"/>
-      <c r="AHW27" s="1"/>
-      <c r="AHX27" s="1"/>
-      <c r="AHY27" s="1"/>
-      <c r="AHZ27" s="1"/>
     </row>
-    <row r="28" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -26305,11 +26248,12 @@
       <c r="KC28" s="5">
         <v>834</v>
       </c>
-      <c r="KE28" s="38"/>
-      <c r="KF28" s="38"/>
+      <c r="KD28" s="5">
+        <v>830</v>
+      </c>
     </row>
-    <row r="29" spans="1:910" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
+    <row r="29" spans="1:893" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
       <c r="B29" s="4" t="s">
         <v>267</v>
       </c>
@@ -27174,11 +27118,12 @@
       <c r="KC29" s="5">
         <v>10813</v>
       </c>
-      <c r="KE29" s="35"/>
-      <c r="KF29"/>
+      <c r="KD29" s="5">
+        <v>10593</v>
+      </c>
     </row>
-    <row r="30" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
+    <row r="30" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
       <c r="B30" s="4" t="s">
         <v>268</v>
       </c>
@@ -28043,11 +27988,12 @@
       <c r="KC30" s="5">
         <v>29149</v>
       </c>
-      <c r="KE30" s="35"/>
-      <c r="KF30"/>
+      <c r="KD30" s="5">
+        <v>28656</v>
+      </c>
     </row>
-    <row r="31" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
+    <row r="31" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
       <c r="B31" s="4" t="s">
         <v>269</v>
       </c>
@@ -28912,11 +28858,12 @@
       <c r="KC31" s="5">
         <v>109110</v>
       </c>
-      <c r="KE31" s="35"/>
-      <c r="KF31"/>
+      <c r="KD31" s="5">
+        <v>108481</v>
+      </c>
     </row>
-    <row r="32" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
       <c r="B32" s="4" t="s">
         <v>270</v>
       </c>
@@ -29781,11 +29728,12 @@
       <c r="KC32" s="5">
         <v>27707</v>
       </c>
-      <c r="KE32" s="35"/>
-      <c r="KF32"/>
+      <c r="KD32" s="5">
+        <v>27335</v>
+      </c>
     </row>
-    <row r="33" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
+    <row r="33" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
       <c r="B33" s="4" t="s">
         <v>271</v>
       </c>
@@ -30650,11 +30598,12 @@
       <c r="KC33" s="5">
         <v>9253</v>
       </c>
-      <c r="KE33" s="35"/>
-      <c r="KF33"/>
+      <c r="KD33" s="5">
+        <v>9045</v>
+      </c>
     </row>
-    <row r="34" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+    <row r="34" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
       <c r="B34" s="4" t="s">
         <v>272</v>
       </c>
@@ -31519,11 +31468,12 @@
       <c r="KC34" s="5">
         <v>46014</v>
       </c>
-      <c r="KE34" s="35"/>
-      <c r="KF34"/>
+      <c r="KD34" s="5">
+        <v>45468</v>
+      </c>
     </row>
-    <row r="35" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
+    <row r="35" spans="1:893" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
       <c r="B35" s="4" t="s">
         <v>273</v>
       </c>
@@ -32388,11 +32338,12 @@
       <c r="KC35" s="5">
         <v>11324</v>
       </c>
-      <c r="KE35" s="35"/>
-      <c r="KF35"/>
+      <c r="KD35" s="5">
+        <v>11249</v>
+      </c>
     </row>
-    <row r="36" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
+    <row r="36" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
       <c r="B36" s="4" t="s">
         <v>274</v>
       </c>
@@ -33257,11 +33208,12 @@
       <c r="KC36" s="5">
         <v>53117</v>
       </c>
-      <c r="KE36" s="35"/>
-      <c r="KF36"/>
+      <c r="KD36" s="5">
+        <v>52152</v>
+      </c>
     </row>
-    <row r="37" spans="1:910" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
+    <row r="37" spans="1:893" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
       <c r="B37" s="4" t="s">
         <v>275</v>
       </c>
@@ -34126,11 +34078,12 @@
       <c r="KC37" s="5">
         <v>73112</v>
       </c>
-      <c r="KE37" s="35"/>
-      <c r="KF37"/>
+      <c r="KD37" s="5">
+        <v>71333</v>
+      </c>
     </row>
-    <row r="38" spans="1:910" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
+    <row r="38" spans="1:893" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
       <c r="B38" s="4" t="s">
         <v>276</v>
       </c>
@@ -34995,11 +34948,12 @@
       <c r="KC38" s="5">
         <v>21827</v>
       </c>
-      <c r="KE38" s="35"/>
-      <c r="KF38"/>
+      <c r="KD38" s="5">
+        <v>21693</v>
+      </c>
     </row>
-    <row r="39" spans="1:910" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
+    <row r="39" spans="1:893" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
       <c r="B39" s="4" t="s">
         <v>277</v>
       </c>
@@ -35864,11 +35818,12 @@
       <c r="KC39" s="5">
         <v>26201</v>
       </c>
-      <c r="KE39" s="35"/>
-      <c r="KF39"/>
+      <c r="KD39" s="5">
+        <v>25979</v>
+      </c>
     </row>
-    <row r="40" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
+    <row r="40" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
       <c r="B40" s="4" t="s">
         <v>278</v>
       </c>
@@ -36733,11 +36688,12 @@
       <c r="KC40" s="5">
         <v>13040</v>
       </c>
-      <c r="KE40" s="35"/>
-      <c r="KF40"/>
+      <c r="KD40" s="5">
+        <v>12786</v>
+      </c>
     </row>
-    <row r="41" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
+    <row r="41" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
       <c r="B41" s="4" t="s">
         <v>279</v>
       </c>
@@ -37602,11 +37558,12 @@
       <c r="KC41" s="5">
         <v>11087</v>
       </c>
-      <c r="KE41" s="35"/>
-      <c r="KF41"/>
+      <c r="KD41" s="5">
+        <v>10845</v>
+      </c>
     </row>
-    <row r="42" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
+    <row r="42" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
       <c r="B42" s="4" t="s">
         <v>280</v>
       </c>
@@ -38471,11 +38428,12 @@
       <c r="KC42" s="5">
         <v>46778</v>
       </c>
-      <c r="KE42" s="35"/>
-      <c r="KF42"/>
+      <c r="KD42" s="5">
+        <v>46326</v>
+      </c>
     </row>
-    <row r="43" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
+    <row r="43" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
       <c r="B43" s="4" t="s">
         <v>281</v>
       </c>
@@ -39340,11 +39298,12 @@
       <c r="KC43" s="5">
         <v>4773</v>
       </c>
-      <c r="KE43" s="35"/>
-      <c r="KF43"/>
+      <c r="KD43" s="5">
+        <v>4745</v>
+      </c>
     </row>
-    <row r="44" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
+    <row r="44" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
       <c r="B44" s="4" t="s">
         <v>282</v>
       </c>
@@ -40209,11 +40168,12 @@
       <c r="KC44" s="5">
         <v>5546</v>
       </c>
-      <c r="KE44" s="35"/>
-      <c r="KF44"/>
+      <c r="KD44" s="5">
+        <v>5388</v>
+      </c>
     </row>
-    <row r="45" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
+    <row r="45" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
       <c r="B45" s="4" t="s">
         <v>283</v>
       </c>
@@ -41078,11 +41038,12 @@
       <c r="KC45" s="5">
         <v>7794</v>
       </c>
-      <c r="KE45" s="35"/>
-      <c r="KF45"/>
+      <c r="KD45" s="5">
+        <v>7799</v>
+      </c>
     </row>
-    <row r="46" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
+    <row r="46" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
       <c r="B46" s="4" t="s">
         <v>284</v>
       </c>
@@ -41947,11 +41908,12 @@
       <c r="KC46" s="5">
         <v>14805</v>
       </c>
-      <c r="KE46" s="35"/>
-      <c r="KF46"/>
+      <c r="KD46" s="5">
+        <v>14465</v>
+      </c>
     </row>
-    <row r="47" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
+    <row r="47" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
       </c>
@@ -42816,11 +42778,12 @@
       <c r="KC47" s="5">
         <v>1465</v>
       </c>
-      <c r="KE47" s="35"/>
-      <c r="KF47"/>
+      <c r="KD47" s="5">
+        <v>1438</v>
+      </c>
     </row>
-    <row r="48" spans="1:910" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
+    <row r="48" spans="1:893" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
       <c r="B48" s="7" t="s">
         <v>265</v>
       </c>
@@ -43702,12 +43665,14 @@
         <v>523564</v>
       </c>
       <c r="KC48" s="8">
-        <f>SUM(KC28:KC47)</f>
         <v>523749</v>
       </c>
-      <c r="KD48" s="1"/>
-      <c r="KE48" s="35"/>
-      <c r="KF48"/>
+      <c r="KD48" s="8">
+        <f>SUM(KD28:KD47)</f>
+        <v>516606</v>
+      </c>
+      <c r="KE48" s="1"/>
+      <c r="KF48" s="1"/>
       <c r="KG48" s="1"/>
       <c r="KH48" s="1"/>
       <c r="KI48" s="1"/>
@@ -44309,26 +44274,9 @@
       <c r="AHG48" s="1"/>
       <c r="AHH48" s="1"/>
       <c r="AHI48" s="1"/>
-      <c r="AHJ48" s="1"/>
-      <c r="AHK48" s="1"/>
-      <c r="AHL48" s="1"/>
-      <c r="AHM48" s="1"/>
-      <c r="AHN48" s="1"/>
-      <c r="AHO48" s="1"/>
-      <c r="AHP48" s="1"/>
-      <c r="AHQ48" s="1"/>
-      <c r="AHR48" s="1"/>
-      <c r="AHS48" s="1"/>
-      <c r="AHT48" s="1"/>
-      <c r="AHU48" s="1"/>
-      <c r="AHV48" s="1"/>
-      <c r="AHW48" s="1"/>
-      <c r="AHX48" s="1"/>
-      <c r="AHY48" s="1"/>
-      <c r="AHZ48" s="1"/>
     </row>
-    <row r="49" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -45195,11 +45143,12 @@
       <c r="KC49" s="6">
         <v>24</v>
       </c>
-      <c r="KE49" s="39"/>
-      <c r="KF49" s="38"/>
+      <c r="KD49" s="6">
+        <v>24</v>
+      </c>
     </row>
-    <row r="50" spans="1:292" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
+    <row r="50" spans="1:290" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
       <c r="B50" s="4" t="s">
         <v>288</v>
       </c>
@@ -46064,9 +46013,12 @@
       <c r="KC50" s="6">
         <v>150</v>
       </c>
+      <c r="KD50" s="6">
+        <v>158</v>
+      </c>
     </row>
-    <row r="51" spans="1:292" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
+    <row r="51" spans="1:290" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
       <c r="B51" s="4" t="s">
         <v>289</v>
       </c>
@@ -46931,9 +46883,12 @@
       <c r="KC51" s="5">
         <v>1564</v>
       </c>
+      <c r="KD51" s="5">
+        <v>1565</v>
+      </c>
     </row>
-    <row r="52" spans="1:292" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:290" x14ac:dyDescent="0.3">
+      <c r="A52" s="38"/>
       <c r="B52" s="4" t="s">
         <v>290</v>
       </c>
@@ -47798,9 +47753,12 @@
       <c r="KC52" s="5">
         <v>854</v>
       </c>
+      <c r="KD52" s="5">
+        <v>869</v>
+      </c>
     </row>
-    <row r="53" spans="1:292" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
+    <row r="53" spans="1:290" x14ac:dyDescent="0.3">
+      <c r="A53" s="38"/>
       <c r="B53" s="7" t="s">
         <v>286</v>
       </c>
@@ -48682,12 +48640,15 @@
         <v>2586</v>
       </c>
       <c r="KC53" s="8">
-        <f>SUM(KC49:KC52)</f>
         <v>2592</v>
       </c>
+      <c r="KD53" s="8">
+        <f>SUM(KD49:KD52)</f>
+        <v>2616</v>
+      </c>
     </row>
-    <row r="54" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -49554,11 +49515,12 @@
       <c r="KC54" s="5">
         <v>5763</v>
       </c>
-      <c r="KE54" s="38"/>
-      <c r="KF54" s="38"/>
+      <c r="KD54" s="5">
+        <v>5794</v>
+      </c>
     </row>
-    <row r="55" spans="1:292" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
+    <row r="55" spans="1:290" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
       <c r="B55" s="4" t="s">
         <v>293</v>
       </c>
@@ -50423,11 +50385,12 @@
       <c r="KC55" s="5">
         <v>60173</v>
       </c>
-      <c r="KE55" s="35"/>
-      <c r="KF55"/>
+      <c r="KD55" s="5">
+        <v>59609</v>
+      </c>
     </row>
-    <row r="56" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
+    <row r="56" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="38"/>
       <c r="B56" s="4" t="s">
         <v>294</v>
       </c>
@@ -51292,11 +51255,12 @@
       <c r="KC56" s="5">
         <v>6915</v>
       </c>
-      <c r="KE56" s="35"/>
-      <c r="KF56"/>
+      <c r="KD56" s="5">
+        <v>6819</v>
+      </c>
     </row>
-    <row r="57" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
+    <row r="57" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="38"/>
       <c r="B57" s="4" t="s">
         <v>295</v>
       </c>
@@ -52161,11 +52125,12 @@
       <c r="KC57" s="5">
         <v>195738</v>
       </c>
-      <c r="KE57" s="35"/>
-      <c r="KF57"/>
+      <c r="KD57" s="5">
+        <v>195115</v>
+      </c>
     </row>
-    <row r="58" spans="1:292" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
+    <row r="58" spans="1:290" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
       <c r="B58" s="4" t="s">
         <v>296</v>
       </c>
@@ -53030,11 +52995,12 @@
       <c r="KC58" s="5">
         <v>36553</v>
       </c>
-      <c r="KE58" s="35"/>
-      <c r="KF58"/>
+      <c r="KD58" s="5">
+        <v>36828</v>
+      </c>
     </row>
-    <row r="59" spans="1:292" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
+    <row r="59" spans="1:290" x14ac:dyDescent="0.3">
+      <c r="A59" s="38"/>
       <c r="B59" s="4" t="s">
         <v>297</v>
       </c>
@@ -53899,11 +53865,12 @@
       <c r="KC59" s="5">
         <v>7572</v>
       </c>
-      <c r="KE59" s="35"/>
-      <c r="KF59"/>
+      <c r="KD59" s="5">
+        <v>7586</v>
+      </c>
     </row>
-    <row r="60" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
+    <row r="60" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="38"/>
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -54768,11 +54735,12 @@
       <c r="KC60" s="5">
         <v>51765</v>
       </c>
-      <c r="KE60" s="35"/>
-      <c r="KF60"/>
+      <c r="KD60" s="5">
+        <v>47018</v>
+      </c>
     </row>
-    <row r="61" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
+    <row r="61" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="38"/>
       <c r="B61" s="4" t="s">
         <v>299</v>
       </c>
@@ -55637,11 +55605,12 @@
       <c r="KC61" s="6">
         <v>153</v>
       </c>
-      <c r="KE61" s="35"/>
-      <c r="KF61"/>
+      <c r="KD61" s="6">
+        <v>150</v>
+      </c>
     </row>
-    <row r="62" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
+    <row r="62" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="38"/>
       <c r="B62" s="4" t="s">
         <v>300</v>
       </c>
@@ -56506,11 +56475,12 @@
       <c r="KC62" s="5">
         <v>21391</v>
       </c>
-      <c r="KE62" s="35"/>
-      <c r="KF62"/>
+      <c r="KD62" s="5">
+        <v>21360</v>
+      </c>
     </row>
-    <row r="63" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
+    <row r="63" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="38"/>
       <c r="B63" s="4" t="s">
         <v>301</v>
       </c>
@@ -57375,11 +57345,12 @@
       <c r="KC63" s="5">
         <v>36486</v>
       </c>
-      <c r="KE63" s="35"/>
-      <c r="KF63"/>
+      <c r="KD63" s="5">
+        <v>36327</v>
+      </c>
     </row>
-    <row r="64" spans="1:292" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
+    <row r="64" spans="1:290" x14ac:dyDescent="0.3">
+      <c r="A64" s="38"/>
       <c r="B64" s="4" t="s">
         <v>302</v>
       </c>
@@ -58244,11 +58215,12 @@
       <c r="KC64" s="5">
         <v>51894</v>
       </c>
-      <c r="KE64" s="35"/>
-      <c r="KF64"/>
+      <c r="KD64" s="5">
+        <v>50497</v>
+      </c>
     </row>
-    <row r="65" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
+    <row r="65" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A65" s="38"/>
       <c r="B65" s="4" t="s">
         <v>303</v>
       </c>
@@ -59113,11 +59085,12 @@
       <c r="KC65" s="5">
         <v>176442</v>
       </c>
-      <c r="KE65" s="35"/>
-      <c r="KF65"/>
+      <c r="KD65" s="5">
+        <v>174758</v>
+      </c>
     </row>
-    <row r="66" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
+    <row r="66" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A66" s="38"/>
       <c r="B66" s="4" t="s">
         <v>304</v>
       </c>
@@ -59982,11 +59955,12 @@
       <c r="KC66" s="5">
         <v>21191</v>
       </c>
-      <c r="KE66" s="35"/>
-      <c r="KF66"/>
+      <c r="KD66" s="5">
+        <v>21007</v>
+      </c>
     </row>
-    <row r="67" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
+    <row r="67" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A67" s="38"/>
       <c r="B67" s="4" t="s">
         <v>305</v>
       </c>
@@ -60851,11 +60825,12 @@
       <c r="KC67" s="5">
         <v>7155</v>
       </c>
-      <c r="KE67" s="35"/>
-      <c r="KF67"/>
+      <c r="KD67" s="5">
+        <v>7044</v>
+      </c>
     </row>
-    <row r="68" spans="1:910" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
+    <row r="68" spans="1:893" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="38"/>
       <c r="B68" s="7" t="s">
         <v>291</v>
       </c>
@@ -61737,12 +61712,14 @@
         <v>673350</v>
       </c>
       <c r="KC68" s="8">
-        <f>SUM(KC54:KC67)</f>
         <v>679191</v>
       </c>
-      <c r="KD68" s="1"/>
-      <c r="KE68" s="35"/>
-      <c r="KF68"/>
+      <c r="KD68" s="8">
+        <f>SUM(KD54:KD67)</f>
+        <v>669912</v>
+      </c>
+      <c r="KE68" s="1"/>
+      <c r="KF68" s="1"/>
       <c r="KG68" s="1"/>
       <c r="KH68" s="1"/>
       <c r="KI68" s="1"/>
@@ -62344,26 +62321,9 @@
       <c r="AHG68" s="1"/>
       <c r="AHH68" s="1"/>
       <c r="AHI68" s="1"/>
-      <c r="AHJ68" s="1"/>
-      <c r="AHK68" s="1"/>
-      <c r="AHL68" s="1"/>
-      <c r="AHM68" s="1"/>
-      <c r="AHN68" s="1"/>
-      <c r="AHO68" s="1"/>
-      <c r="AHP68" s="1"/>
-      <c r="AHQ68" s="1"/>
-      <c r="AHR68" s="1"/>
-      <c r="AHS68" s="1"/>
-      <c r="AHT68" s="1"/>
-      <c r="AHU68" s="1"/>
-      <c r="AHV68" s="1"/>
-      <c r="AHW68" s="1"/>
-      <c r="AHX68" s="1"/>
-      <c r="AHY68" s="1"/>
-      <c r="AHZ68" s="1"/>
     </row>
-    <row r="69" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A69" s="42" t="s">
+    <row r="69" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -63230,11 +63190,12 @@
       <c r="KC69" s="5">
         <v>10617</v>
       </c>
-      <c r="KE69" s="38"/>
-      <c r="KF69" s="38"/>
+      <c r="KD69" s="5">
+        <v>10836</v>
+      </c>
     </row>
-    <row r="70" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
+    <row r="70" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A70" s="38"/>
       <c r="B70" s="4" t="s">
         <v>308</v>
       </c>
@@ -64099,11 +64060,12 @@
       <c r="KC70" s="5">
         <v>1111</v>
       </c>
-      <c r="KE70" s="35"/>
-      <c r="KF70"/>
+      <c r="KD70" s="5">
+        <v>1056</v>
+      </c>
     </row>
-    <row r="71" spans="1:910" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
+    <row r="71" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="38"/>
       <c r="B71" s="4" t="s">
         <v>309</v>
       </c>
@@ -64968,11 +64930,12 @@
       <c r="KC71" s="5">
         <v>38017</v>
       </c>
-      <c r="KE71" s="35"/>
-      <c r="KF71"/>
+      <c r="KD71" s="5">
+        <v>38083</v>
+      </c>
     </row>
-    <row r="72" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
+    <row r="72" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A72" s="38"/>
       <c r="B72" s="4" t="s">
         <v>310</v>
       </c>
@@ -65837,11 +65800,12 @@
       <c r="KC72" s="5">
         <v>4780</v>
       </c>
-      <c r="KE72" s="35"/>
-      <c r="KF72"/>
+      <c r="KD72" s="5">
+        <v>5130</v>
+      </c>
     </row>
-    <row r="73" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
+    <row r="73" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A73" s="38"/>
       <c r="B73" s="4" t="s">
         <v>311</v>
       </c>
@@ -66706,11 +66670,12 @@
       <c r="KC73" s="6">
         <v>820</v>
       </c>
-      <c r="KE73" s="35"/>
-      <c r="KF73"/>
+      <c r="KD73" s="6">
+        <v>855</v>
+      </c>
     </row>
-    <row r="74" spans="1:910" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
+    <row r="74" spans="1:893" x14ac:dyDescent="0.3">
+      <c r="A74" s="38"/>
       <c r="B74" s="4" t="s">
         <v>312</v>
       </c>
@@ -67575,11 +67540,12 @@
       <c r="KC74" s="5">
         <v>56088</v>
       </c>
-      <c r="KE74" s="35"/>
-      <c r="KF74"/>
+      <c r="KD74" s="5">
+        <v>56033</v>
+      </c>
     </row>
-    <row r="75" spans="1:910" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
+    <row r="75" spans="1:893" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="38"/>
       <c r="B75" s="7" t="s">
         <v>306</v>
       </c>
@@ -68461,12 +68427,14 @@
         <v>109523</v>
       </c>
       <c r="KC75" s="8">
-        <f>SUM(KC69:KC74)</f>
         <v>111433</v>
       </c>
-      <c r="KD75" s="1"/>
-      <c r="KE75" s="35"/>
-      <c r="KF75"/>
+      <c r="KD75" s="8">
+        <f>SUM(KD69:KD74)</f>
+        <v>111993</v>
+      </c>
+      <c r="KE75" s="1"/>
+      <c r="KF75" s="1"/>
       <c r="KG75" s="1"/>
       <c r="KH75" s="1"/>
       <c r="KI75" s="1"/>
@@ -69068,25 +69036,8 @@
       <c r="AHG75" s="1"/>
       <c r="AHH75" s="1"/>
       <c r="AHI75" s="1"/>
-      <c r="AHJ75" s="1"/>
-      <c r="AHK75" s="1"/>
-      <c r="AHL75" s="1"/>
-      <c r="AHM75" s="1"/>
-      <c r="AHN75" s="1"/>
-      <c r="AHO75" s="1"/>
-      <c r="AHP75" s="1"/>
-      <c r="AHQ75" s="1"/>
-      <c r="AHR75" s="1"/>
-      <c r="AHS75" s="1"/>
-      <c r="AHT75" s="1"/>
-      <c r="AHU75" s="1"/>
-      <c r="AHV75" s="1"/>
-      <c r="AHW75" s="1"/>
-      <c r="AHX75" s="1"/>
-      <c r="AHY75" s="1"/>
-      <c r="AHZ75" s="1"/>
     </row>
-    <row r="76" spans="1:910" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:893" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
@@ -69973,13 +69924,14 @@
         <v>2013431</v>
       </c>
       <c r="KC76" s="31">
-        <f>KC11+KC21+KC24+KC27+KC48+KC53+KC68+KC75</f>
         <v>2026935</v>
       </c>
-      <c r="KE76" s="39"/>
-      <c r="KF76" s="38"/>
+      <c r="KD76" s="31">
+        <f>KD11+KD21+KD24+KD27+KD48+KD53+KD68+KD75</f>
+        <v>1995357</v>
+      </c>
     </row>
-    <row r="77" spans="1:910" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:893" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -70687,32 +70639,33 @@
       <c r="AAH77" s="25"/>
       <c r="AAI77" s="25"/>
       <c r="AAJ77" s="25"/>
-      <c r="AAK77" s="25"/>
-      <c r="AAL77" s="25"/>
-      <c r="AAM77" s="25"/>
-      <c r="AAN77" s="25"/>
-      <c r="AAO77" s="25"/>
-      <c r="AAP77" s="25"/>
-      <c r="AAQ77" s="25"/>
-      <c r="AAR77" s="25"/>
-      <c r="AAS77" s="25"/>
-      <c r="AAT77" s="25"/>
-      <c r="AAU77" s="25"/>
-      <c r="AAV77" s="25"/>
-      <c r="AAW77" s="25"/>
-      <c r="AAX77" s="25"/>
-      <c r="AAY77" s="25"/>
-      <c r="AAZ77" s="25"/>
-      <c r="ABA77" s="25"/>
     </row>
-    <row r="78" spans="1:910" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:893" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="JS4:KC4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="JS4:KD4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -70728,24 +70681,6 @@
     <mergeCell ref="JG4:JR4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E13EF-BA4D-41E7-8816-90A90C633C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318022F5-3FC2-4431-9D7F-1C17E2F90FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="365">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1109,9 +1109,6 @@
     <t>2022/diciembre</t>
   </si>
   <si>
-    <t>2000-2023</t>
-  </si>
-  <si>
     <t>2023/Enero</t>
   </si>
   <si>
@@ -1146,6 +1143,12 @@
   </si>
   <si>
     <t>2023/Diciembre</t>
+  </si>
+  <si>
+    <t>2000-2024</t>
+  </si>
+  <si>
+    <t>2024/Enero</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1754,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1849,8 +1852,17 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1858,14 +1870,11 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2226,11 +2235,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AHI78"/>
+  <dimension ref="A1:AHF78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KG17" sqref="KG17"/>
+      <pane xSplit="2" topLeftCell="JU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KC89" sqref="KC89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2514,367 +2523,372 @@
     <col min="286" max="286" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="287" max="287" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="288" max="288" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="289" max="290" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="291" max="16384" width="10.88671875" style="3"/>
+    <col min="289" max="289" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="15.21875" style="3" customWidth="1"/>
+    <col min="291" max="291" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="292" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:893" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:890" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="36">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
+      <c r="BJ4" s="36"/>
+      <c r="BK4" s="36">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="36"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="36"/>
+      <c r="BQ4" s="36"/>
+      <c r="BR4" s="36"/>
+      <c r="BS4" s="36"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="36"/>
+      <c r="BV4" s="36"/>
+      <c r="BW4" s="36">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="36"/>
+      <c r="BY4" s="36"/>
+      <c r="BZ4" s="36"/>
+      <c r="CA4" s="36"/>
+      <c r="CB4" s="36"/>
+      <c r="CC4" s="36"/>
+      <c r="CD4" s="36"/>
+      <c r="CE4" s="36"/>
+      <c r="CF4" s="36"/>
+      <c r="CG4" s="36"/>
+      <c r="CH4" s="36"/>
+      <c r="CI4" s="36">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="36"/>
+      <c r="CK4" s="36"/>
+      <c r="CL4" s="36"/>
+      <c r="CM4" s="36"/>
+      <c r="CN4" s="36"/>
+      <c r="CO4" s="36"/>
+      <c r="CP4" s="36"/>
+      <c r="CQ4" s="36"/>
+      <c r="CR4" s="36"/>
+      <c r="CS4" s="36"/>
+      <c r="CT4" s="36"/>
+      <c r="CU4" s="36">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="36"/>
+      <c r="CW4" s="36"/>
+      <c r="CX4" s="36"/>
+      <c r="CY4" s="36"/>
+      <c r="CZ4" s="36"/>
+      <c r="DA4" s="36"/>
+      <c r="DB4" s="36"/>
+      <c r="DC4" s="36"/>
+      <c r="DD4" s="36"/>
+      <c r="DE4" s="36"/>
+      <c r="DF4" s="36"/>
+      <c r="DG4" s="36">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="36"/>
+      <c r="DI4" s="36"/>
+      <c r="DJ4" s="36"/>
+      <c r="DK4" s="36"/>
+      <c r="DL4" s="36"/>
+      <c r="DM4" s="36"/>
+      <c r="DN4" s="36"/>
+      <c r="DO4" s="36"/>
+      <c r="DP4" s="36"/>
+      <c r="DQ4" s="36"/>
+      <c r="DR4" s="36"/>
+      <c r="DS4" s="36">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="36"/>
+      <c r="DU4" s="36"/>
+      <c r="DV4" s="36"/>
+      <c r="DW4" s="36"/>
+      <c r="DX4" s="36"/>
+      <c r="DY4" s="36"/>
+      <c r="DZ4" s="36"/>
+      <c r="EA4" s="36"/>
+      <c r="EB4" s="36"/>
+      <c r="EC4" s="36"/>
+      <c r="ED4" s="36"/>
+      <c r="EE4" s="36">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="36"/>
+      <c r="EG4" s="36"/>
+      <c r="EH4" s="36"/>
+      <c r="EI4" s="36"/>
+      <c r="EJ4" s="36"/>
+      <c r="EK4" s="36"/>
+      <c r="EL4" s="36"/>
+      <c r="EM4" s="36"/>
+      <c r="EN4" s="36"/>
+      <c r="EO4" s="36"/>
+      <c r="EP4" s="36"/>
+      <c r="EQ4" s="36">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="36"/>
+      <c r="ES4" s="36"/>
+      <c r="ET4" s="36"/>
+      <c r="EU4" s="36"/>
+      <c r="EV4" s="36"/>
+      <c r="EW4" s="36"/>
+      <c r="EX4" s="36"/>
+      <c r="EY4" s="36"/>
+      <c r="EZ4" s="36"/>
+      <c r="FA4" s="36"/>
+      <c r="FB4" s="36"/>
+      <c r="FC4" s="36">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="36"/>
+      <c r="FE4" s="36"/>
+      <c r="FF4" s="36"/>
+      <c r="FG4" s="36"/>
+      <c r="FH4" s="36"/>
+      <c r="FI4" s="36"/>
+      <c r="FJ4" s="36"/>
+      <c r="FK4" s="36"/>
+      <c r="FL4" s="36"/>
+      <c r="FM4" s="36"/>
+      <c r="FN4" s="36"/>
+      <c r="FO4" s="36">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="36"/>
+      <c r="FQ4" s="36"/>
+      <c r="FR4" s="36"/>
+      <c r="FS4" s="36"/>
+      <c r="FT4" s="36"/>
+      <c r="FU4" s="36"/>
+      <c r="FV4" s="36"/>
+      <c r="FW4" s="36"/>
+      <c r="FX4" s="36"/>
+      <c r="FY4" s="36"/>
+      <c r="FZ4" s="36"/>
+      <c r="GA4" s="36">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="36"/>
+      <c r="GC4" s="36"/>
+      <c r="GD4" s="36"/>
+      <c r="GE4" s="36"/>
+      <c r="GF4" s="36"/>
+      <c r="GG4" s="36"/>
+      <c r="GH4" s="36"/>
+      <c r="GI4" s="36"/>
+      <c r="GJ4" s="36"/>
+      <c r="GK4" s="36"/>
+      <c r="GL4" s="36"/>
+      <c r="GM4" s="36">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="36"/>
+      <c r="GO4" s="36"/>
+      <c r="GP4" s="36"/>
+      <c r="GQ4" s="36"/>
+      <c r="GR4" s="36"/>
+      <c r="GS4" s="36"/>
+      <c r="GT4" s="36"/>
+      <c r="GU4" s="36"/>
+      <c r="GV4" s="36"/>
+      <c r="GW4" s="36"/>
+      <c r="GX4" s="36"/>
+      <c r="GY4" s="36">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="36"/>
+      <c r="HA4" s="36"/>
+      <c r="HB4" s="36"/>
+      <c r="HC4" s="36"/>
+      <c r="HD4" s="36"/>
+      <c r="HE4" s="36"/>
+      <c r="HF4" s="36"/>
+      <c r="HG4" s="36"/>
+      <c r="HH4" s="36"/>
+      <c r="HI4" s="36"/>
+      <c r="HJ4" s="36"/>
+      <c r="HK4" s="36">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="36"/>
+      <c r="HM4" s="36"/>
+      <c r="HN4" s="36"/>
+      <c r="HO4" s="36"/>
+      <c r="HP4" s="36"/>
+      <c r="HQ4" s="36"/>
+      <c r="HR4" s="36"/>
+      <c r="HS4" s="36"/>
+      <c r="HT4" s="36"/>
+      <c r="HU4" s="36"/>
+      <c r="HV4" s="36"/>
+      <c r="HW4" s="36">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
-      <c r="IH4" s="35"/>
-      <c r="II4" s="35">
+      <c r="HX4" s="36"/>
+      <c r="HY4" s="36"/>
+      <c r="HZ4" s="36"/>
+      <c r="IA4" s="36"/>
+      <c r="IB4" s="36"/>
+      <c r="IC4" s="36"/>
+      <c r="ID4" s="36"/>
+      <c r="IE4" s="36"/>
+      <c r="IF4" s="36"/>
+      <c r="IG4" s="36"/>
+      <c r="IH4" s="37"/>
+      <c r="II4" s="37">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="36"/>
-      <c r="IK4" s="36"/>
-      <c r="IL4" s="36"/>
-      <c r="IM4" s="36"/>
-      <c r="IN4" s="36"/>
-      <c r="IO4" s="36"/>
-      <c r="IP4" s="36"/>
-      <c r="IQ4" s="36"/>
-      <c r="IR4" s="36"/>
-      <c r="IS4" s="36"/>
-      <c r="IT4" s="37"/>
-      <c r="IU4" s="35">
+      <c r="IJ4" s="39"/>
+      <c r="IK4" s="39"/>
+      <c r="IL4" s="39"/>
+      <c r="IM4" s="39"/>
+      <c r="IN4" s="39"/>
+      <c r="IO4" s="39"/>
+      <c r="IP4" s="39"/>
+      <c r="IQ4" s="39"/>
+      <c r="IR4" s="39"/>
+      <c r="IS4" s="39"/>
+      <c r="IT4" s="40"/>
+      <c r="IU4" s="37">
         <v>2021</v>
       </c>
-      <c r="IV4" s="36"/>
-      <c r="IW4" s="36"/>
-      <c r="IX4" s="36"/>
-      <c r="IY4" s="36"/>
-      <c r="IZ4" s="36"/>
-      <c r="JA4" s="36"/>
-      <c r="JB4" s="36"/>
-      <c r="JC4" s="36"/>
-      <c r="JD4" s="36"/>
-      <c r="JE4" s="36"/>
-      <c r="JF4" s="37"/>
-      <c r="JG4" s="39">
+      <c r="IV4" s="39"/>
+      <c r="IW4" s="39"/>
+      <c r="IX4" s="39"/>
+      <c r="IY4" s="39"/>
+      <c r="IZ4" s="39"/>
+      <c r="JA4" s="39"/>
+      <c r="JB4" s="39"/>
+      <c r="JC4" s="39"/>
+      <c r="JD4" s="39"/>
+      <c r="JE4" s="39"/>
+      <c r="JF4" s="40"/>
+      <c r="JG4" s="36">
         <v>2022</v>
       </c>
-      <c r="JH4" s="39"/>
-      <c r="JI4" s="39"/>
-      <c r="JJ4" s="39"/>
-      <c r="JK4" s="39"/>
-      <c r="JL4" s="39"/>
-      <c r="JM4" s="39"/>
-      <c r="JN4" s="39"/>
-      <c r="JO4" s="39"/>
-      <c r="JP4" s="39"/>
-      <c r="JQ4" s="39"/>
-      <c r="JR4" s="39"/>
-      <c r="JS4" s="35">
+      <c r="JH4" s="36"/>
+      <c r="JI4" s="36"/>
+      <c r="JJ4" s="36"/>
+      <c r="JK4" s="36"/>
+      <c r="JL4" s="36"/>
+      <c r="JM4" s="36"/>
+      <c r="JN4" s="36"/>
+      <c r="JO4" s="36"/>
+      <c r="JP4" s="36"/>
+      <c r="JQ4" s="36"/>
+      <c r="JR4" s="36"/>
+      <c r="JS4" s="37">
         <v>2023</v>
       </c>
-      <c r="JT4" s="36"/>
-      <c r="JU4" s="36"/>
-      <c r="JV4" s="36"/>
-      <c r="JW4" s="36"/>
-      <c r="JX4" s="36"/>
-      <c r="JY4" s="36"/>
-      <c r="JZ4" s="36"/>
-      <c r="KA4" s="36"/>
-      <c r="KB4" s="36"/>
-      <c r="KC4" s="36"/>
-      <c r="KD4" s="37"/>
+      <c r="JT4" s="39"/>
+      <c r="JU4" s="39"/>
+      <c r="JV4" s="39"/>
+      <c r="JW4" s="39"/>
+      <c r="JX4" s="39"/>
+      <c r="JY4" s="39"/>
+      <c r="JZ4" s="39"/>
+      <c r="KA4" s="39"/>
+      <c r="KB4" s="39"/>
+      <c r="KC4" s="39"/>
+      <c r="KD4" s="40"/>
+      <c r="KE4" s="35">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:893" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:890" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
@@ -3704,43 +3718,46 @@
         <v>350</v>
       </c>
       <c r="JS5" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="JT5" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="JU5" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="JT5" s="33" t="s">
+      <c r="JV5" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="JU5" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="JV5" s="33" t="s">
+      <c r="JW5" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="JW5" s="33" t="s">
+      <c r="JX5" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="JX5" s="33" t="s">
+      <c r="JY5" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="JY5" s="34" t="s">
+      <c r="JZ5" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="JZ5" s="34" t="s">
+      <c r="KA5" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="KA5" s="34" t="s">
+      <c r="KB5" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="KB5" s="34" t="s">
+      <c r="KC5" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="KC5" s="34" t="s">
+      <c r="KD5" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="KD5" s="34" t="s">
-        <v>363</v>
+      <c r="KE5" s="34" t="s">
+        <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
@@ -4611,8 +4628,11 @@
       <c r="KD6" s="5">
         <v>94347</v>
       </c>
+      <c r="KE6" s="5">
+        <v>97459</v>
+      </c>
     </row>
-    <row r="7" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A7" s="38"/>
       <c r="B7" s="4" t="s">
         <v>245</v>
@@ -5481,8 +5501,11 @@
       <c r="KD7" s="6">
         <v>50</v>
       </c>
+      <c r="KE7" s="6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="4" t="s">
         <v>246</v>
@@ -6351,8 +6374,11 @@
       <c r="KD8" s="5">
         <v>23750</v>
       </c>
+      <c r="KE8" s="5">
+        <v>24056</v>
+      </c>
     </row>
-    <row r="9" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
       <c r="B9" s="4" t="s">
         <v>247</v>
@@ -7221,8 +7247,11 @@
       <c r="KD9" s="5">
         <v>277</v>
       </c>
+      <c r="KE9" s="5">
+        <v>276</v>
+      </c>
     </row>
-    <row r="10" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="4" t="s">
         <v>248</v>
@@ -8091,8 +8120,11 @@
       <c r="KD10" s="6">
         <v>450</v>
       </c>
+      <c r="KE10" s="6">
+        <v>478</v>
+      </c>
     </row>
-    <row r="11" spans="1:893" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:890" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
       <c r="B11" s="7" t="s">
         <v>244</v>
@@ -8978,10 +9010,12 @@
         <v>121905</v>
       </c>
       <c r="KD11" s="8">
-        <f>SUM(KD6:KD10)</f>
         <v>118874</v>
       </c>
-      <c r="KE11" s="1"/>
+      <c r="KE11" s="8">
+        <f>SUM(KE6:KE10)</f>
+        <v>122319</v>
+      </c>
       <c r="KF11" s="1"/>
       <c r="KG11" s="1"/>
       <c r="KH11" s="1"/>
@@ -9581,11 +9615,8 @@
       <c r="AHD11" s="1"/>
       <c r="AHE11" s="1"/>
       <c r="AHF11" s="1"/>
-      <c r="AHG11" s="1"/>
-      <c r="AHH11" s="1"/>
-      <c r="AHI11" s="1"/>
     </row>
-    <row r="12" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
@@ -10456,8 +10487,11 @@
       <c r="KD12" s="5">
         <v>84867</v>
       </c>
+      <c r="KE12" s="5">
+        <v>85365</v>
+      </c>
     </row>
-    <row r="13" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="4" t="s">
         <v>251</v>
@@ -11326,8 +11360,11 @@
       <c r="KD13" s="5">
         <v>20491</v>
       </c>
+      <c r="KE13" s="5">
+        <v>20360</v>
+      </c>
     </row>
-    <row r="14" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="4" t="s">
         <v>252</v>
@@ -12196,8 +12233,11 @@
       <c r="KD14" s="5">
         <v>37811</v>
       </c>
+      <c r="KE14" s="5">
+        <v>38252</v>
+      </c>
     </row>
-    <row r="15" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="4" t="s">
         <v>253</v>
@@ -13066,8 +13106,11 @@
       <c r="KD15" s="5">
         <v>23088</v>
       </c>
+      <c r="KE15" s="5">
+        <v>23216</v>
+      </c>
     </row>
-    <row r="16" spans="1:893" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:890" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="4" t="s">
         <v>254</v>
@@ -13936,8 +13979,11 @@
       <c r="KD16" s="5">
         <v>14760</v>
       </c>
+      <c r="KE16" s="5">
+        <v>14649</v>
+      </c>
     </row>
-    <row r="17" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="4" t="s">
         <v>255</v>
@@ -14806,8 +14852,11 @@
       <c r="KD17" s="5">
         <v>50675</v>
       </c>
+      <c r="KE17" s="5">
+        <v>51005</v>
+      </c>
     </row>
-    <row r="18" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="4" t="s">
         <v>256</v>
@@ -15676,8 +15725,11 @@
       <c r="KD18" s="5">
         <v>62464</v>
       </c>
+      <c r="KE18" s="5">
+        <v>62601</v>
+      </c>
     </row>
-    <row r="19" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="4" t="s">
         <v>257</v>
@@ -16546,8 +16598,11 @@
       <c r="KD19" s="5">
         <v>72632</v>
       </c>
+      <c r="KE19" s="5">
+        <v>71800</v>
+      </c>
     </row>
-    <row r="20" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="4" t="s">
         <v>258</v>
@@ -17416,8 +17471,11 @@
       <c r="KD20" s="5">
         <v>49395</v>
       </c>
+      <c r="KE20" s="5">
+        <v>49376</v>
+      </c>
     </row>
-    <row r="21" spans="1:893" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:890" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
@@ -18303,10 +18361,12 @@
         <v>421219</v>
       </c>
       <c r="KD21" s="8">
-        <f>SUM(KD12:KD20)</f>
         <v>416183</v>
       </c>
-      <c r="KE21" s="1"/>
+      <c r="KE21" s="8">
+        <f>SUM(KE12:KE20)</f>
+        <v>416624</v>
+      </c>
       <c r="KF21" s="1"/>
       <c r="KG21" s="1"/>
       <c r="KH21" s="1"/>
@@ -18906,11 +18966,8 @@
       <c r="AHD21" s="1"/>
       <c r="AHE21" s="1"/>
       <c r="AHF21" s="1"/>
-      <c r="AHG21" s="1"/>
-      <c r="AHH21" s="1"/>
-      <c r="AHI21" s="1"/>
     </row>
-    <row r="22" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
@@ -19781,8 +19838,11 @@
       <c r="KD22" s="6">
         <v>110107</v>
       </c>
+      <c r="KE22" s="6">
+        <v>114601</v>
+      </c>
     </row>
-    <row r="23" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="4" t="s">
         <v>261</v>
@@ -20651,8 +20711,11 @@
       <c r="KD23" s="6">
         <v>38922</v>
       </c>
+      <c r="KE23" s="6">
+        <v>39490</v>
+      </c>
     </row>
-    <row r="24" spans="1:893" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:890" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="7" t="s">
         <v>259</v>
@@ -21538,10 +21601,12 @@
         <v>156771</v>
       </c>
       <c r="KD24" s="8">
-        <f>SUM(KD22:KD23)</f>
         <v>149029</v>
       </c>
-      <c r="KE24" s="1"/>
+      <c r="KE24" s="8">
+        <f>SUM(KE22:KE23)</f>
+        <v>154091</v>
+      </c>
       <c r="KF24" s="1"/>
       <c r="KG24" s="1"/>
       <c r="KH24" s="1"/>
@@ -22141,11 +22206,8 @@
       <c r="AHD24" s="1"/>
       <c r="AHE24" s="1"/>
       <c r="AHF24" s="1"/>
-      <c r="AHG24" s="1"/>
-      <c r="AHH24" s="1"/>
-      <c r="AHI24" s="1"/>
     </row>
-    <row r="25" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
@@ -23016,8 +23078,11 @@
       <c r="KD25" s="5">
         <v>4493</v>
       </c>
+      <c r="KE25" s="5">
+        <v>4511</v>
+      </c>
     </row>
-    <row r="26" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="4" t="s">
         <v>264</v>
@@ -23886,8 +23951,11 @@
       <c r="KD26" s="5">
         <v>5651</v>
       </c>
+      <c r="KE26" s="5">
+        <v>5571</v>
+      </c>
     </row>
-    <row r="27" spans="1:893" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:890" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="7" t="s">
         <v>262</v>
@@ -24773,10 +24841,12 @@
         <v>10075</v>
       </c>
       <c r="KD27" s="8">
-        <f>SUM(KD25:KD26)</f>
         <v>10144</v>
       </c>
-      <c r="KE27" s="1"/>
+      <c r="KE27" s="8">
+        <f>SUM(KE25:KE26)</f>
+        <v>10082</v>
+      </c>
       <c r="KF27" s="1"/>
       <c r="KG27" s="1"/>
       <c r="KH27" s="1"/>
@@ -25376,11 +25446,8 @@
       <c r="AHD27" s="1"/>
       <c r="AHE27" s="1"/>
       <c r="AHF27" s="1"/>
-      <c r="AHG27" s="1"/>
-      <c r="AHH27" s="1"/>
-      <c r="AHI27" s="1"/>
     </row>
-    <row r="28" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
@@ -26251,8 +26318,11 @@
       <c r="KD28" s="5">
         <v>830</v>
       </c>
+      <c r="KE28" s="5">
+        <v>784</v>
+      </c>
     </row>
-    <row r="29" spans="1:893" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:890" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="4" t="s">
         <v>267</v>
@@ -27121,8 +27191,11 @@
       <c r="KD29" s="5">
         <v>10593</v>
       </c>
+      <c r="KE29" s="5">
+        <v>10214</v>
+      </c>
     </row>
-    <row r="30" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="B30" s="4" t="s">
         <v>268</v>
@@ -27991,8 +28064,11 @@
       <c r="KD30" s="5">
         <v>28656</v>
       </c>
+      <c r="KE30" s="5">
+        <v>28881</v>
+      </c>
     </row>
-    <row r="31" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A31" s="38"/>
       <c r="B31" s="4" t="s">
         <v>269</v>
@@ -28861,8 +28937,11 @@
       <c r="KD31" s="5">
         <v>108481</v>
       </c>
+      <c r="KE31" s="5">
+        <v>108957</v>
+      </c>
     </row>
-    <row r="32" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
       <c r="B32" s="4" t="s">
         <v>270</v>
@@ -29731,8 +29810,11 @@
       <c r="KD32" s="5">
         <v>27335</v>
       </c>
+      <c r="KE32" s="5">
+        <v>27224</v>
+      </c>
     </row>
-    <row r="33" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
       <c r="B33" s="4" t="s">
         <v>271</v>
@@ -30601,8 +30683,11 @@
       <c r="KD33" s="5">
         <v>9045</v>
       </c>
+      <c r="KE33" s="5">
+        <v>8839</v>
+      </c>
     </row>
-    <row r="34" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="B34" s="4" t="s">
         <v>272</v>
@@ -31471,8 +31556,11 @@
       <c r="KD34" s="5">
         <v>45468</v>
       </c>
+      <c r="KE34" s="5">
+        <v>46114</v>
+      </c>
     </row>
-    <row r="35" spans="1:893" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:890" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="B35" s="4" t="s">
         <v>273</v>
@@ -32341,8 +32429,11 @@
       <c r="KD35" s="5">
         <v>11249</v>
       </c>
+      <c r="KE35" s="5">
+        <v>11311</v>
+      </c>
     </row>
-    <row r="36" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="4" t="s">
         <v>274</v>
@@ -33211,8 +33302,11 @@
       <c r="KD36" s="5">
         <v>52152</v>
       </c>
+      <c r="KE36" s="5">
+        <v>52786</v>
+      </c>
     </row>
-    <row r="37" spans="1:893" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:890" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="4" t="s">
         <v>275</v>
@@ -34081,8 +34175,11 @@
       <c r="KD37" s="5">
         <v>71333</v>
       </c>
+      <c r="KE37" s="5">
+        <v>70329</v>
+      </c>
     </row>
-    <row r="38" spans="1:893" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:890" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="4" t="s">
         <v>276</v>
@@ -34951,8 +35048,11 @@
       <c r="KD38" s="5">
         <v>21693</v>
       </c>
+      <c r="KE38" s="5">
+        <v>21773</v>
+      </c>
     </row>
-    <row r="39" spans="1:893" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:890" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
       <c r="B39" s="4" t="s">
         <v>277</v>
@@ -35821,8 +35921,11 @@
       <c r="KD39" s="5">
         <v>25979</v>
       </c>
+      <c r="KE39" s="5">
+        <v>26135</v>
+      </c>
     </row>
-    <row r="40" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
       <c r="B40" s="4" t="s">
         <v>278</v>
@@ -36691,8 +36794,11 @@
       <c r="KD40" s="5">
         <v>12786</v>
       </c>
+      <c r="KE40" s="5">
+        <v>12986</v>
+      </c>
     </row>
-    <row r="41" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
       <c r="B41" s="4" t="s">
         <v>279</v>
@@ -37561,8 +37667,11 @@
       <c r="KD41" s="5">
         <v>10845</v>
       </c>
+      <c r="KE41" s="5">
+        <v>10663</v>
+      </c>
     </row>
-    <row r="42" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A42" s="38"/>
       <c r="B42" s="4" t="s">
         <v>280</v>
@@ -38431,8 +38540,11 @@
       <c r="KD42" s="5">
         <v>46326</v>
       </c>
+      <c r="KE42" s="5">
+        <v>46592</v>
+      </c>
     </row>
-    <row r="43" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="4" t="s">
         <v>281</v>
@@ -39301,8 +39413,11 @@
       <c r="KD43" s="5">
         <v>4745</v>
       </c>
+      <c r="KE43" s="5">
+        <v>4703</v>
+      </c>
     </row>
-    <row r="44" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="4" t="s">
         <v>282</v>
@@ -40171,8 +40286,11 @@
       <c r="KD44" s="5">
         <v>5388</v>
       </c>
+      <c r="KE44" s="5">
+        <v>5365</v>
+      </c>
     </row>
-    <row r="45" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="4" t="s">
         <v>283</v>
@@ -41041,8 +41159,11 @@
       <c r="KD45" s="5">
         <v>7799</v>
       </c>
+      <c r="KE45" s="5">
+        <v>7902</v>
+      </c>
     </row>
-    <row r="46" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="4" t="s">
         <v>284</v>
@@ -41911,8 +42032,11 @@
       <c r="KD46" s="5">
         <v>14465</v>
       </c>
+      <c r="KE46" s="5">
+        <v>14328</v>
+      </c>
     </row>
-    <row r="47" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
@@ -42781,8 +42905,11 @@
       <c r="KD47" s="5">
         <v>1438</v>
       </c>
+      <c r="KE47" s="5">
+        <v>1477</v>
+      </c>
     </row>
-    <row r="48" spans="1:893" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:890" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="7" t="s">
         <v>265</v>
@@ -43668,10 +43795,12 @@
         <v>523749</v>
       </c>
       <c r="KD48" s="8">
-        <f>SUM(KD28:KD47)</f>
         <v>516606</v>
       </c>
-      <c r="KE48" s="1"/>
+      <c r="KE48" s="8">
+        <f>SUM(KE28:KE47)</f>
+        <v>517363</v>
+      </c>
       <c r="KF48" s="1"/>
       <c r="KG48" s="1"/>
       <c r="KH48" s="1"/>
@@ -44271,11 +44400,8 @@
       <c r="AHD48" s="1"/>
       <c r="AHE48" s="1"/>
       <c r="AHF48" s="1"/>
-      <c r="AHG48" s="1"/>
-      <c r="AHH48" s="1"/>
-      <c r="AHI48" s="1"/>
     </row>
-    <row r="49" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
@@ -45146,8 +45272,11 @@
       <c r="KD49" s="6">
         <v>24</v>
       </c>
+      <c r="KE49" s="5">
+        <v>27</v>
+      </c>
     </row>
-    <row r="50" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="4" t="s">
         <v>288</v>
@@ -46016,8 +46145,11 @@
       <c r="KD50" s="6">
         <v>158</v>
       </c>
+      <c r="KE50" s="5">
+        <v>160</v>
+      </c>
     </row>
-    <row r="51" spans="1:290" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:291" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="4" t="s">
         <v>289</v>
@@ -46886,8 +47018,11 @@
       <c r="KD51" s="5">
         <v>1565</v>
       </c>
+      <c r="KE51" s="5">
+        <v>1567</v>
+      </c>
     </row>
-    <row r="52" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="4" t="s">
         <v>290</v>
@@ -47756,8 +47891,11 @@
       <c r="KD52" s="5">
         <v>869</v>
       </c>
+      <c r="KE52" s="5">
+        <v>899</v>
+      </c>
     </row>
-    <row r="53" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="7" t="s">
         <v>286</v>
@@ -48643,11 +48781,14 @@
         <v>2592</v>
       </c>
       <c r="KD53" s="8">
-        <f>SUM(KD49:KD52)</f>
         <v>2616</v>
       </c>
+      <c r="KE53" s="8">
+        <f>SUM(KE49:KE52)</f>
+        <v>2653</v>
+      </c>
     </row>
-    <row r="54" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
@@ -49518,8 +49659,11 @@
       <c r="KD54" s="5">
         <v>5794</v>
       </c>
+      <c r="KE54" s="5">
+        <v>5784</v>
+      </c>
     </row>
-    <row r="55" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="4" t="s">
         <v>293</v>
@@ -50388,8 +50532,11 @@
       <c r="KD55" s="5">
         <v>59609</v>
       </c>
+      <c r="KE55" s="5">
+        <v>59010</v>
+      </c>
     </row>
-    <row r="56" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
       <c r="B56" s="4" t="s">
         <v>294</v>
@@ -51258,8 +51405,11 @@
       <c r="KD56" s="5">
         <v>6819</v>
       </c>
+      <c r="KE56" s="5">
+        <v>6680</v>
+      </c>
     </row>
-    <row r="57" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
       <c r="B57" s="4" t="s">
         <v>295</v>
@@ -52128,8 +52278,11 @@
       <c r="KD57" s="5">
         <v>195115</v>
       </c>
+      <c r="KE57" s="5">
+        <v>194956</v>
+      </c>
     </row>
-    <row r="58" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="4" t="s">
         <v>296</v>
@@ -52998,8 +53151,11 @@
       <c r="KD58" s="5">
         <v>36828</v>
       </c>
+      <c r="KE58" s="5">
+        <v>36638</v>
+      </c>
     </row>
-    <row r="59" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="B59" s="4" t="s">
         <v>297</v>
@@ -53868,8 +54024,11 @@
       <c r="KD59" s="5">
         <v>7586</v>
       </c>
+      <c r="KE59" s="5">
+        <v>7802</v>
+      </c>
     </row>
-    <row r="60" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="4" t="s">
         <v>298</v>
@@ -54738,8 +54897,11 @@
       <c r="KD60" s="5">
         <v>47018</v>
       </c>
+      <c r="KE60" s="5">
+        <v>50344</v>
+      </c>
     </row>
-    <row r="61" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="4" t="s">
         <v>299</v>
@@ -55608,8 +55770,11 @@
       <c r="KD61" s="6">
         <v>150</v>
       </c>
+      <c r="KE61" s="5">
+        <v>152</v>
+      </c>
     </row>
-    <row r="62" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="B62" s="4" t="s">
         <v>300</v>
@@ -56478,8 +56643,11 @@
       <c r="KD62" s="5">
         <v>21360</v>
       </c>
+      <c r="KE62" s="5">
+        <v>21439</v>
+      </c>
     </row>
-    <row r="63" spans="1:290" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="B63" s="4" t="s">
         <v>301</v>
@@ -57348,8 +57516,11 @@
       <c r="KD63" s="5">
         <v>36327</v>
       </c>
+      <c r="KE63" s="5">
+        <v>36431</v>
+      </c>
     </row>
-    <row r="64" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
       <c r="B64" s="4" t="s">
         <v>302</v>
@@ -58218,8 +58389,11 @@
       <c r="KD64" s="5">
         <v>50497</v>
       </c>
+      <c r="KE64" s="5">
+        <v>51486</v>
+      </c>
     </row>
-    <row r="65" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="B65" s="4" t="s">
         <v>303</v>
@@ -59088,8 +59262,11 @@
       <c r="KD65" s="5">
         <v>174758</v>
       </c>
+      <c r="KE65" s="5">
+        <v>174625</v>
+      </c>
     </row>
-    <row r="66" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
       <c r="B66" s="4" t="s">
         <v>304</v>
@@ -59958,8 +60135,11 @@
       <c r="KD66" s="5">
         <v>21007</v>
       </c>
+      <c r="KE66" s="5">
+        <v>20916</v>
+      </c>
     </row>
-    <row r="67" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="4" t="s">
         <v>305</v>
@@ -60828,8 +61008,11 @@
       <c r="KD67" s="5">
         <v>7044</v>
       </c>
+      <c r="KE67" s="5">
+        <v>7376</v>
+      </c>
     </row>
-    <row r="68" spans="1:893" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:890" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="7" t="s">
         <v>291</v>
@@ -61715,10 +61898,12 @@
         <v>679191</v>
       </c>
       <c r="KD68" s="8">
-        <f>SUM(KD54:KD67)</f>
         <v>669912</v>
       </c>
-      <c r="KE68" s="1"/>
+      <c r="KE68" s="8">
+        <f>SUM(KE54:KE67)</f>
+        <v>673639</v>
+      </c>
       <c r="KF68" s="1"/>
       <c r="KG68" s="1"/>
       <c r="KH68" s="1"/>
@@ -62318,11 +62503,8 @@
       <c r="AHD68" s="1"/>
       <c r="AHE68" s="1"/>
       <c r="AHF68" s="1"/>
-      <c r="AHG68" s="1"/>
-      <c r="AHH68" s="1"/>
-      <c r="AHI68" s="1"/>
     </row>
-    <row r="69" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
@@ -63193,8 +63375,11 @@
       <c r="KD69" s="5">
         <v>10836</v>
       </c>
+      <c r="KE69" s="42">
+        <v>10973</v>
+      </c>
     </row>
-    <row r="70" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="4" t="s">
         <v>308</v>
@@ -64063,8 +64248,11 @@
       <c r="KD70" s="5">
         <v>1056</v>
       </c>
+      <c r="KE70" s="42">
+        <v>980</v>
+      </c>
     </row>
-    <row r="71" spans="1:893" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="4" t="s">
         <v>309</v>
@@ -64933,8 +65121,11 @@
       <c r="KD71" s="5">
         <v>38083</v>
       </c>
+      <c r="KE71" s="42">
+        <v>38627</v>
+      </c>
     </row>
-    <row r="72" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="4" t="s">
         <v>310</v>
@@ -65803,8 +65994,11 @@
       <c r="KD72" s="5">
         <v>5130</v>
       </c>
+      <c r="KE72" s="42">
+        <v>5185</v>
+      </c>
     </row>
-    <row r="73" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="B73" s="4" t="s">
         <v>311</v>
@@ -66673,8 +66867,11 @@
       <c r="KD73" s="6">
         <v>855</v>
       </c>
+      <c r="KE73" s="42">
+        <v>856</v>
+      </c>
     </row>
-    <row r="74" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="4" t="s">
         <v>312</v>
@@ -67543,8 +67740,11 @@
       <c r="KD74" s="5">
         <v>56033</v>
       </c>
+      <c r="KE74" s="42">
+        <v>56461</v>
+      </c>
     </row>
-    <row r="75" spans="1:893" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:890" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
       <c r="B75" s="7" t="s">
         <v>306</v>
@@ -68430,10 +68630,12 @@
         <v>111433</v>
       </c>
       <c r="KD75" s="8">
-        <f>SUM(KD69:KD74)</f>
         <v>111993</v>
       </c>
-      <c r="KE75" s="1"/>
+      <c r="KE75" s="8">
+        <f>SUM(KE69:KE74)</f>
+        <v>113082</v>
+      </c>
       <c r="KF75" s="1"/>
       <c r="KG75" s="1"/>
       <c r="KH75" s="1"/>
@@ -69033,11 +69235,8 @@
       <c r="AHD75" s="1"/>
       <c r="AHE75" s="1"/>
       <c r="AHF75" s="1"/>
-      <c r="AHG75" s="1"/>
-      <c r="AHH75" s="1"/>
-      <c r="AHI75" s="1"/>
     </row>
-    <row r="76" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
@@ -69927,11 +70126,14 @@
         <v>2026935</v>
       </c>
       <c r="KD76" s="31">
-        <f>KD11+KD21+KD24+KD27+KD48+KD53+KD68+KD75</f>
         <v>1995357</v>
       </c>
+      <c r="KE76" s="31">
+        <f>KE11+KE21+KE24+KE27+KE48+KE53+KE68+KE75</f>
+        <v>2009853</v>
+      </c>
     </row>
-    <row r="77" spans="1:893" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:890" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -70636,35 +70838,14 @@
       <c r="AAE77" s="25"/>
       <c r="AAF77" s="25"/>
       <c r="AAG77" s="25"/>
-      <c r="AAH77" s="25"/>
-      <c r="AAI77" s="25"/>
-      <c r="AAJ77" s="25"/>
     </row>
-    <row r="78" spans="1:893" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:890" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
     <mergeCell ref="JS4:KD4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
@@ -70681,6 +70862,24 @@
     <mergeCell ref="JG4:JR4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318022F5-3FC2-4431-9D7F-1C17E2F90FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8842F9-1715-4EE5-9F00-05C78E632903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="366">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1150,6 +1150,9 @@
   <si>
     <t>2024/Enero</t>
   </si>
+  <si>
+    <t>2024/Febrero</t>
+  </si>
 </sst>
 </file>
 
@@ -1754,7 +1757,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1852,17 +1855,11 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1870,11 +1867,11 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2235,11 +2232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AHF78"/>
+  <dimension ref="A1:AHA78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="JU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KC89" sqref="KC89"/>
+      <selection pane="topRight" activeCell="KG6" sqref="KG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2525,370 +2522,372 @@
     <col min="288" max="288" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="289" max="289" width="15.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="290" max="290" width="15.21875" style="3" customWidth="1"/>
-    <col min="291" max="291" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="292" max="16384" width="10.88671875" style="3"/>
+    <col min="291" max="291" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="293" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:890" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:885" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:890" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:885" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:890" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:885" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>2000</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35">
         <v>2001</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35">
         <v>2002</v>
       </c>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36">
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35">
         <v>2003</v>
       </c>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36">
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36">
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35">
         <v>2005</v>
       </c>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="36"/>
-      <c r="BQ4" s="36"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="36"/>
-      <c r="BV4" s="36"/>
-      <c r="BW4" s="36">
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35">
         <v>2006</v>
       </c>
-      <c r="BX4" s="36"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="36"/>
-      <c r="CA4" s="36"/>
-      <c r="CB4" s="36"/>
-      <c r="CC4" s="36"/>
-      <c r="CD4" s="36"/>
-      <c r="CE4" s="36"/>
-      <c r="CF4" s="36"/>
-      <c r="CG4" s="36"/>
-      <c r="CH4" s="36"/>
-      <c r="CI4" s="36">
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="35">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="36"/>
-      <c r="CK4" s="36"/>
-      <c r="CL4" s="36"/>
-      <c r="CM4" s="36"/>
-      <c r="CN4" s="36"/>
-      <c r="CO4" s="36"/>
-      <c r="CP4" s="36"/>
-      <c r="CQ4" s="36"/>
-      <c r="CR4" s="36"/>
-      <c r="CS4" s="36"/>
-      <c r="CT4" s="36"/>
-      <c r="CU4" s="36">
+      <c r="CJ4" s="35"/>
+      <c r="CK4" s="35"/>
+      <c r="CL4" s="35"/>
+      <c r="CM4" s="35"/>
+      <c r="CN4" s="35"/>
+      <c r="CO4" s="35"/>
+      <c r="CP4" s="35"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="35"/>
+      <c r="CT4" s="35"/>
+      <c r="CU4" s="35">
         <v>2008</v>
       </c>
-      <c r="CV4" s="36"/>
-      <c r="CW4" s="36"/>
-      <c r="CX4" s="36"/>
-      <c r="CY4" s="36"/>
-      <c r="CZ4" s="36"/>
-      <c r="DA4" s="36"/>
-      <c r="DB4" s="36"/>
-      <c r="DC4" s="36"/>
-      <c r="DD4" s="36"/>
-      <c r="DE4" s="36"/>
-      <c r="DF4" s="36"/>
-      <c r="DG4" s="36">
+      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
+      <c r="CX4" s="35"/>
+      <c r="CY4" s="35"/>
+      <c r="CZ4" s="35"/>
+      <c r="DA4" s="35"/>
+      <c r="DB4" s="35"/>
+      <c r="DC4" s="35"/>
+      <c r="DD4" s="35"/>
+      <c r="DE4" s="35"/>
+      <c r="DF4" s="35"/>
+      <c r="DG4" s="35">
         <v>2009</v>
       </c>
-      <c r="DH4" s="36"/>
-      <c r="DI4" s="36"/>
-      <c r="DJ4" s="36"/>
-      <c r="DK4" s="36"/>
-      <c r="DL4" s="36"/>
-      <c r="DM4" s="36"/>
-      <c r="DN4" s="36"/>
-      <c r="DO4" s="36"/>
-      <c r="DP4" s="36"/>
-      <c r="DQ4" s="36"/>
-      <c r="DR4" s="36"/>
-      <c r="DS4" s="36">
+      <c r="DH4" s="35"/>
+      <c r="DI4" s="35"/>
+      <c r="DJ4" s="35"/>
+      <c r="DK4" s="35"/>
+      <c r="DL4" s="35"/>
+      <c r="DM4" s="35"/>
+      <c r="DN4" s="35"/>
+      <c r="DO4" s="35"/>
+      <c r="DP4" s="35"/>
+      <c r="DQ4" s="35"/>
+      <c r="DR4" s="35"/>
+      <c r="DS4" s="35">
         <v>2010</v>
       </c>
-      <c r="DT4" s="36"/>
-      <c r="DU4" s="36"/>
-      <c r="DV4" s="36"/>
-      <c r="DW4" s="36"/>
-      <c r="DX4" s="36"/>
-      <c r="DY4" s="36"/>
-      <c r="DZ4" s="36"/>
-      <c r="EA4" s="36"/>
-      <c r="EB4" s="36"/>
-      <c r="EC4" s="36"/>
-      <c r="ED4" s="36"/>
-      <c r="EE4" s="36">
+      <c r="DT4" s="35"/>
+      <c r="DU4" s="35"/>
+      <c r="DV4" s="35"/>
+      <c r="DW4" s="35"/>
+      <c r="DX4" s="35"/>
+      <c r="DY4" s="35"/>
+      <c r="DZ4" s="35"/>
+      <c r="EA4" s="35"/>
+      <c r="EB4" s="35"/>
+      <c r="EC4" s="35"/>
+      <c r="ED4" s="35"/>
+      <c r="EE4" s="35">
         <v>2011</v>
       </c>
-      <c r="EF4" s="36"/>
-      <c r="EG4" s="36"/>
-      <c r="EH4" s="36"/>
-      <c r="EI4" s="36"/>
-      <c r="EJ4" s="36"/>
-      <c r="EK4" s="36"/>
-      <c r="EL4" s="36"/>
-      <c r="EM4" s="36"/>
-      <c r="EN4" s="36"/>
-      <c r="EO4" s="36"/>
-      <c r="EP4" s="36"/>
-      <c r="EQ4" s="36">
+      <c r="EF4" s="35"/>
+      <c r="EG4" s="35"/>
+      <c r="EH4" s="35"/>
+      <c r="EI4" s="35"/>
+      <c r="EJ4" s="35"/>
+      <c r="EK4" s="35"/>
+      <c r="EL4" s="35"/>
+      <c r="EM4" s="35"/>
+      <c r="EN4" s="35"/>
+      <c r="EO4" s="35"/>
+      <c r="EP4" s="35"/>
+      <c r="EQ4" s="35">
         <v>2012</v>
       </c>
-      <c r="ER4" s="36"/>
-      <c r="ES4" s="36"/>
-      <c r="ET4" s="36"/>
-      <c r="EU4" s="36"/>
-      <c r="EV4" s="36"/>
-      <c r="EW4" s="36"/>
-      <c r="EX4" s="36"/>
-      <c r="EY4" s="36"/>
-      <c r="EZ4" s="36"/>
-      <c r="FA4" s="36"/>
-      <c r="FB4" s="36"/>
-      <c r="FC4" s="36">
+      <c r="ER4" s="35"/>
+      <c r="ES4" s="35"/>
+      <c r="ET4" s="35"/>
+      <c r="EU4" s="35"/>
+      <c r="EV4" s="35"/>
+      <c r="EW4" s="35"/>
+      <c r="EX4" s="35"/>
+      <c r="EY4" s="35"/>
+      <c r="EZ4" s="35"/>
+      <c r="FA4" s="35"/>
+      <c r="FB4" s="35"/>
+      <c r="FC4" s="35">
         <v>2013</v>
       </c>
-      <c r="FD4" s="36"/>
-      <c r="FE4" s="36"/>
-      <c r="FF4" s="36"/>
-      <c r="FG4" s="36"/>
-      <c r="FH4" s="36"/>
-      <c r="FI4" s="36"/>
-      <c r="FJ4" s="36"/>
-      <c r="FK4" s="36"/>
-      <c r="FL4" s="36"/>
-      <c r="FM4" s="36"/>
-      <c r="FN4" s="36"/>
-      <c r="FO4" s="36">
+      <c r="FD4" s="35"/>
+      <c r="FE4" s="35"/>
+      <c r="FF4" s="35"/>
+      <c r="FG4" s="35"/>
+      <c r="FH4" s="35"/>
+      <c r="FI4" s="35"/>
+      <c r="FJ4" s="35"/>
+      <c r="FK4" s="35"/>
+      <c r="FL4" s="35"/>
+      <c r="FM4" s="35"/>
+      <c r="FN4" s="35"/>
+      <c r="FO4" s="35">
         <v>2014</v>
       </c>
-      <c r="FP4" s="36"/>
-      <c r="FQ4" s="36"/>
-      <c r="FR4" s="36"/>
-      <c r="FS4" s="36"/>
-      <c r="FT4" s="36"/>
-      <c r="FU4" s="36"/>
-      <c r="FV4" s="36"/>
-      <c r="FW4" s="36"/>
-      <c r="FX4" s="36"/>
-      <c r="FY4" s="36"/>
-      <c r="FZ4" s="36"/>
-      <c r="GA4" s="36">
+      <c r="FP4" s="35"/>
+      <c r="FQ4" s="35"/>
+      <c r="FR4" s="35"/>
+      <c r="FS4" s="35"/>
+      <c r="FT4" s="35"/>
+      <c r="FU4" s="35"/>
+      <c r="FV4" s="35"/>
+      <c r="FW4" s="35"/>
+      <c r="FX4" s="35"/>
+      <c r="FY4" s="35"/>
+      <c r="FZ4" s="35"/>
+      <c r="GA4" s="35">
         <v>2015</v>
       </c>
-      <c r="GB4" s="36"/>
-      <c r="GC4" s="36"/>
-      <c r="GD4" s="36"/>
-      <c r="GE4" s="36"/>
-      <c r="GF4" s="36"/>
-      <c r="GG4" s="36"/>
-      <c r="GH4" s="36"/>
-      <c r="GI4" s="36"/>
-      <c r="GJ4" s="36"/>
-      <c r="GK4" s="36"/>
-      <c r="GL4" s="36"/>
-      <c r="GM4" s="36">
+      <c r="GB4" s="35"/>
+      <c r="GC4" s="35"/>
+      <c r="GD4" s="35"/>
+      <c r="GE4" s="35"/>
+      <c r="GF4" s="35"/>
+      <c r="GG4" s="35"/>
+      <c r="GH4" s="35"/>
+      <c r="GI4" s="35"/>
+      <c r="GJ4" s="35"/>
+      <c r="GK4" s="35"/>
+      <c r="GL4" s="35"/>
+      <c r="GM4" s="35">
         <v>2016</v>
       </c>
-      <c r="GN4" s="36"/>
-      <c r="GO4" s="36"/>
-      <c r="GP4" s="36"/>
-      <c r="GQ4" s="36"/>
-      <c r="GR4" s="36"/>
-      <c r="GS4" s="36"/>
-      <c r="GT4" s="36"/>
-      <c r="GU4" s="36"/>
-      <c r="GV4" s="36"/>
-      <c r="GW4" s="36"/>
-      <c r="GX4" s="36"/>
-      <c r="GY4" s="36">
+      <c r="GN4" s="35"/>
+      <c r="GO4" s="35"/>
+      <c r="GP4" s="35"/>
+      <c r="GQ4" s="35"/>
+      <c r="GR4" s="35"/>
+      <c r="GS4" s="35"/>
+      <c r="GT4" s="35"/>
+      <c r="GU4" s="35"/>
+      <c r="GV4" s="35"/>
+      <c r="GW4" s="35"/>
+      <c r="GX4" s="35"/>
+      <c r="GY4" s="35">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="36"/>
-      <c r="HA4" s="36"/>
-      <c r="HB4" s="36"/>
-      <c r="HC4" s="36"/>
-      <c r="HD4" s="36"/>
-      <c r="HE4" s="36"/>
-      <c r="HF4" s="36"/>
-      <c r="HG4" s="36"/>
-      <c r="HH4" s="36"/>
-      <c r="HI4" s="36"/>
-      <c r="HJ4" s="36"/>
-      <c r="HK4" s="36">
+      <c r="GZ4" s="35"/>
+      <c r="HA4" s="35"/>
+      <c r="HB4" s="35"/>
+      <c r="HC4" s="35"/>
+      <c r="HD4" s="35"/>
+      <c r="HE4" s="35"/>
+      <c r="HF4" s="35"/>
+      <c r="HG4" s="35"/>
+      <c r="HH4" s="35"/>
+      <c r="HI4" s="35"/>
+      <c r="HJ4" s="35"/>
+      <c r="HK4" s="35">
         <v>2018</v>
       </c>
-      <c r="HL4" s="36"/>
-      <c r="HM4" s="36"/>
-      <c r="HN4" s="36"/>
-      <c r="HO4" s="36"/>
-      <c r="HP4" s="36"/>
-      <c r="HQ4" s="36"/>
-      <c r="HR4" s="36"/>
-      <c r="HS4" s="36"/>
-      <c r="HT4" s="36"/>
-      <c r="HU4" s="36"/>
-      <c r="HV4" s="36"/>
-      <c r="HW4" s="36">
+      <c r="HL4" s="35"/>
+      <c r="HM4" s="35"/>
+      <c r="HN4" s="35"/>
+      <c r="HO4" s="35"/>
+      <c r="HP4" s="35"/>
+      <c r="HQ4" s="35"/>
+      <c r="HR4" s="35"/>
+      <c r="HS4" s="35"/>
+      <c r="HT4" s="35"/>
+      <c r="HU4" s="35"/>
+      <c r="HV4" s="35"/>
+      <c r="HW4" s="35">
         <v>2019</v>
       </c>
-      <c r="HX4" s="36"/>
-      <c r="HY4" s="36"/>
-      <c r="HZ4" s="36"/>
-      <c r="IA4" s="36"/>
-      <c r="IB4" s="36"/>
-      <c r="IC4" s="36"/>
-      <c r="ID4" s="36"/>
-      <c r="IE4" s="36"/>
-      <c r="IF4" s="36"/>
-      <c r="IG4" s="36"/>
-      <c r="IH4" s="37"/>
-      <c r="II4" s="37">
+      <c r="HX4" s="35"/>
+      <c r="HY4" s="35"/>
+      <c r="HZ4" s="35"/>
+      <c r="IA4" s="35"/>
+      <c r="IB4" s="35"/>
+      <c r="IC4" s="35"/>
+      <c r="ID4" s="35"/>
+      <c r="IE4" s="35"/>
+      <c r="IF4" s="35"/>
+      <c r="IG4" s="35"/>
+      <c r="IH4" s="36"/>
+      <c r="II4" s="36">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="39"/>
-      <c r="IK4" s="39"/>
-      <c r="IL4" s="39"/>
-      <c r="IM4" s="39"/>
-      <c r="IN4" s="39"/>
-      <c r="IO4" s="39"/>
-      <c r="IP4" s="39"/>
-      <c r="IQ4" s="39"/>
-      <c r="IR4" s="39"/>
-      <c r="IS4" s="39"/>
-      <c r="IT4" s="40"/>
-      <c r="IU4" s="37">
+      <c r="IJ4" s="37"/>
+      <c r="IK4" s="37"/>
+      <c r="IL4" s="37"/>
+      <c r="IM4" s="37"/>
+      <c r="IN4" s="37"/>
+      <c r="IO4" s="37"/>
+      <c r="IP4" s="37"/>
+      <c r="IQ4" s="37"/>
+      <c r="IR4" s="37"/>
+      <c r="IS4" s="37"/>
+      <c r="IT4" s="38"/>
+      <c r="IU4" s="36">
         <v>2021</v>
       </c>
-      <c r="IV4" s="39"/>
-      <c r="IW4" s="39"/>
-      <c r="IX4" s="39"/>
-      <c r="IY4" s="39"/>
-      <c r="IZ4" s="39"/>
-      <c r="JA4" s="39"/>
-      <c r="JB4" s="39"/>
-      <c r="JC4" s="39"/>
-      <c r="JD4" s="39"/>
-      <c r="JE4" s="39"/>
-      <c r="JF4" s="40"/>
-      <c r="JG4" s="36">
+      <c r="IV4" s="37"/>
+      <c r="IW4" s="37"/>
+      <c r="IX4" s="37"/>
+      <c r="IY4" s="37"/>
+      <c r="IZ4" s="37"/>
+      <c r="JA4" s="37"/>
+      <c r="JB4" s="37"/>
+      <c r="JC4" s="37"/>
+      <c r="JD4" s="37"/>
+      <c r="JE4" s="37"/>
+      <c r="JF4" s="38"/>
+      <c r="JG4" s="35">
         <v>2022</v>
       </c>
-      <c r="JH4" s="36"/>
-      <c r="JI4" s="36"/>
-      <c r="JJ4" s="36"/>
-      <c r="JK4" s="36"/>
-      <c r="JL4" s="36"/>
-      <c r="JM4" s="36"/>
-      <c r="JN4" s="36"/>
-      <c r="JO4" s="36"/>
-      <c r="JP4" s="36"/>
-      <c r="JQ4" s="36"/>
-      <c r="JR4" s="36"/>
-      <c r="JS4" s="37">
+      <c r="JH4" s="35"/>
+      <c r="JI4" s="35"/>
+      <c r="JJ4" s="35"/>
+      <c r="JK4" s="35"/>
+      <c r="JL4" s="35"/>
+      <c r="JM4" s="35"/>
+      <c r="JN4" s="35"/>
+      <c r="JO4" s="35"/>
+      <c r="JP4" s="35"/>
+      <c r="JQ4" s="35"/>
+      <c r="JR4" s="35"/>
+      <c r="JS4" s="36">
         <v>2023</v>
       </c>
-      <c r="JT4" s="39"/>
-      <c r="JU4" s="39"/>
-      <c r="JV4" s="39"/>
-      <c r="JW4" s="39"/>
-      <c r="JX4" s="39"/>
-      <c r="JY4" s="39"/>
-      <c r="JZ4" s="39"/>
-      <c r="KA4" s="39"/>
-      <c r="KB4" s="39"/>
-      <c r="KC4" s="39"/>
-      <c r="KD4" s="40"/>
-      <c r="KE4" s="35">
+      <c r="JT4" s="37"/>
+      <c r="JU4" s="37"/>
+      <c r="JV4" s="37"/>
+      <c r="JW4" s="37"/>
+      <c r="JX4" s="37"/>
+      <c r="JY4" s="37"/>
+      <c r="JZ4" s="37"/>
+      <c r="KA4" s="37"/>
+      <c r="KB4" s="37"/>
+      <c r="KC4" s="37"/>
+      <c r="KD4" s="38"/>
+      <c r="KE4" s="36">
         <v>2024</v>
       </c>
+      <c r="KF4" s="38"/>
     </row>
-    <row r="5" spans="1:890" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="41"/>
+    <row r="5" spans="1:885" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
@@ -3756,9 +3755,12 @@
       <c r="KE5" s="34" t="s">
         <v>364</v>
       </c>
+      <c r="KF5" s="34" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="6" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4631,9 +4633,12 @@
       <c r="KE6" s="5">
         <v>97459</v>
       </c>
+      <c r="KF6" s="5">
+        <v>97205</v>
+      </c>
     </row>
-    <row r="7" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
       <c r="B7" s="4" t="s">
         <v>245</v>
       </c>
@@ -5504,9 +5509,12 @@
       <c r="KE7" s="6">
         <v>50</v>
       </c>
+      <c r="KF7" s="6">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
       <c r="B8" s="4" t="s">
         <v>246</v>
       </c>
@@ -6377,9 +6385,12 @@
       <c r="KE8" s="5">
         <v>24056</v>
       </c>
+      <c r="KF8" s="5">
+        <v>24093</v>
+      </c>
     </row>
-    <row r="9" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
       <c r="B9" s="4" t="s">
         <v>247</v>
       </c>
@@ -7250,9 +7261,12 @@
       <c r="KE9" s="5">
         <v>276</v>
       </c>
+      <c r="KF9" s="5">
+        <v>282</v>
+      </c>
     </row>
-    <row r="10" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
       <c r="B10" s="4" t="s">
         <v>248</v>
       </c>
@@ -8123,9 +8137,12 @@
       <c r="KE10" s="6">
         <v>478</v>
       </c>
+      <c r="KF10" s="6">
+        <v>491</v>
+      </c>
     </row>
-    <row r="11" spans="1:890" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:885" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
       <c r="B11" s="7" t="s">
         <v>244</v>
       </c>
@@ -9016,7 +9033,10 @@
         <f>SUM(KE6:KE10)</f>
         <v>122319</v>
       </c>
-      <c r="KF11" s="1"/>
+      <c r="KF11" s="8">
+        <f>SUM(KF6:KF10)</f>
+        <v>122122</v>
+      </c>
       <c r="KG11" s="1"/>
       <c r="KH11" s="1"/>
       <c r="KI11" s="1"/>
@@ -9610,14 +9630,9 @@
       <c r="AGY11" s="1"/>
       <c r="AGZ11" s="1"/>
       <c r="AHA11" s="1"/>
-      <c r="AHB11" s="1"/>
-      <c r="AHC11" s="1"/>
-      <c r="AHD11" s="1"/>
-      <c r="AHE11" s="1"/>
-      <c r="AHF11" s="1"/>
     </row>
-    <row r="12" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10490,9 +10505,12 @@
       <c r="KE12" s="5">
         <v>85365</v>
       </c>
+      <c r="KF12" s="5">
+        <v>85970</v>
+      </c>
     </row>
-    <row r="13" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
       <c r="B13" s="4" t="s">
         <v>251</v>
       </c>
@@ -11363,9 +11381,12 @@
       <c r="KE13" s="5">
         <v>20360</v>
       </c>
+      <c r="KF13" s="5">
+        <v>20139</v>
+      </c>
     </row>
-    <row r="14" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
       <c r="B14" s="4" t="s">
         <v>252</v>
       </c>
@@ -12236,9 +12257,12 @@
       <c r="KE14" s="5">
         <v>38252</v>
       </c>
+      <c r="KF14" s="5">
+        <v>38356</v>
+      </c>
     </row>
-    <row r="15" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
       <c r="B15" s="4" t="s">
         <v>253</v>
       </c>
@@ -13109,9 +13133,12 @@
       <c r="KE15" s="5">
         <v>23216</v>
       </c>
+      <c r="KF15" s="5">
+        <v>23314</v>
+      </c>
     </row>
-    <row r="16" spans="1:890" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:885" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
       <c r="B16" s="4" t="s">
         <v>254</v>
       </c>
@@ -13982,9 +14009,12 @@
       <c r="KE16" s="5">
         <v>14649</v>
       </c>
+      <c r="KF16" s="5">
+        <v>14952</v>
+      </c>
     </row>
-    <row r="17" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
       <c r="B17" s="4" t="s">
         <v>255</v>
       </c>
@@ -14855,9 +14885,12 @@
       <c r="KE17" s="5">
         <v>51005</v>
       </c>
+      <c r="KF17" s="5">
+        <v>51323</v>
+      </c>
     </row>
-    <row r="18" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
       <c r="B18" s="4" t="s">
         <v>256</v>
       </c>
@@ -15728,9 +15761,12 @@
       <c r="KE18" s="5">
         <v>62601</v>
       </c>
+      <c r="KF18" s="5">
+        <v>63079</v>
+      </c>
     </row>
-    <row r="19" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
       <c r="B19" s="4" t="s">
         <v>257</v>
       </c>
@@ -16601,9 +16637,12 @@
       <c r="KE19" s="5">
         <v>71800</v>
       </c>
+      <c r="KF19" s="5">
+        <v>70824</v>
+      </c>
     </row>
-    <row r="20" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
       <c r="B20" s="4" t="s">
         <v>258</v>
       </c>
@@ -17474,9 +17513,12 @@
       <c r="KE20" s="5">
         <v>49376</v>
       </c>
+      <c r="KF20" s="5">
+        <v>49598</v>
+      </c>
     </row>
-    <row r="21" spans="1:890" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:885" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
       <c r="B21" s="7" t="s">
         <v>249</v>
       </c>
@@ -18367,7 +18409,10 @@
         <f>SUM(KE12:KE20)</f>
         <v>416624</v>
       </c>
-      <c r="KF21" s="1"/>
+      <c r="KF21" s="8">
+        <f>SUM(KF12:KF20)</f>
+        <v>417555</v>
+      </c>
       <c r="KG21" s="1"/>
       <c r="KH21" s="1"/>
       <c r="KI21" s="1"/>
@@ -18961,14 +19006,9 @@
       <c r="AGY21" s="1"/>
       <c r="AGZ21" s="1"/>
       <c r="AHA21" s="1"/>
-      <c r="AHB21" s="1"/>
-      <c r="AHC21" s="1"/>
-      <c r="AHD21" s="1"/>
-      <c r="AHE21" s="1"/>
-      <c r="AHF21" s="1"/>
     </row>
-    <row r="22" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -19841,9 +19881,12 @@
       <c r="KE22" s="6">
         <v>114601</v>
       </c>
+      <c r="KF22" s="6">
+        <v>116162</v>
+      </c>
     </row>
-    <row r="23" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
+    <row r="23" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
       <c r="B23" s="4" t="s">
         <v>261</v>
       </c>
@@ -20714,9 +20757,12 @@
       <c r="KE23" s="6">
         <v>39490</v>
       </c>
+      <c r="KF23" s="6">
+        <v>38919</v>
+      </c>
     </row>
-    <row r="24" spans="1:890" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
+    <row r="24" spans="1:885" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
       <c r="B24" s="7" t="s">
         <v>259</v>
       </c>
@@ -21607,7 +21653,10 @@
         <f>SUM(KE22:KE23)</f>
         <v>154091</v>
       </c>
-      <c r="KF24" s="1"/>
+      <c r="KF24" s="8">
+        <f>SUM(KF22:KF23)</f>
+        <v>155081</v>
+      </c>
       <c r="KG24" s="1"/>
       <c r="KH24" s="1"/>
       <c r="KI24" s="1"/>
@@ -22201,14 +22250,9 @@
       <c r="AGY24" s="1"/>
       <c r="AGZ24" s="1"/>
       <c r="AHA24" s="1"/>
-      <c r="AHB24" s="1"/>
-      <c r="AHC24" s="1"/>
-      <c r="AHD24" s="1"/>
-      <c r="AHE24" s="1"/>
-      <c r="AHF24" s="1"/>
     </row>
-    <row r="25" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -23081,9 +23125,12 @@
       <c r="KE25" s="5">
         <v>4511</v>
       </c>
+      <c r="KF25" s="5">
+        <v>4578</v>
+      </c>
     </row>
-    <row r="26" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="39"/>
       <c r="B26" s="4" t="s">
         <v>264</v>
       </c>
@@ -23954,9 +24001,12 @@
       <c r="KE26" s="5">
         <v>5571</v>
       </c>
+      <c r="KF26" s="5">
+        <v>5557</v>
+      </c>
     </row>
-    <row r="27" spans="1:890" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:885" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="39"/>
       <c r="B27" s="7" t="s">
         <v>262</v>
       </c>
@@ -24847,7 +24897,10 @@
         <f>SUM(KE25:KE26)</f>
         <v>10082</v>
       </c>
-      <c r="KF27" s="1"/>
+      <c r="KF27" s="8">
+        <f>SUM(KF25:KF26)</f>
+        <v>10135</v>
+      </c>
       <c r="KG27" s="1"/>
       <c r="KH27" s="1"/>
       <c r="KI27" s="1"/>
@@ -25441,14 +25494,9 @@
       <c r="AGY27" s="1"/>
       <c r="AGZ27" s="1"/>
       <c r="AHA27" s="1"/>
-      <c r="AHB27" s="1"/>
-      <c r="AHC27" s="1"/>
-      <c r="AHD27" s="1"/>
-      <c r="AHE27" s="1"/>
-      <c r="AHF27" s="1"/>
     </row>
-    <row r="28" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -26321,9 +26369,12 @@
       <c r="KE28" s="5">
         <v>784</v>
       </c>
+      <c r="KF28" s="5">
+        <v>778</v>
+      </c>
     </row>
-    <row r="29" spans="1:890" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:885" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="39"/>
       <c r="B29" s="4" t="s">
         <v>267</v>
       </c>
@@ -27194,9 +27245,12 @@
       <c r="KE29" s="5">
         <v>10214</v>
       </c>
+      <c r="KF29" s="5">
+        <v>10376</v>
+      </c>
     </row>
-    <row r="30" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
       <c r="B30" s="4" t="s">
         <v>268</v>
       </c>
@@ -28067,9 +28121,12 @@
       <c r="KE30" s="5">
         <v>28881</v>
       </c>
+      <c r="KF30" s="5">
+        <v>29276</v>
+      </c>
     </row>
-    <row r="31" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
       <c r="B31" s="4" t="s">
         <v>269</v>
       </c>
@@ -28940,9 +28997,12 @@
       <c r="KE31" s="5">
         <v>108957</v>
       </c>
+      <c r="KF31" s="5">
+        <v>109837</v>
+      </c>
     </row>
-    <row r="32" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A32" s="39"/>
       <c r="B32" s="4" t="s">
         <v>270</v>
       </c>
@@ -29813,9 +29873,12 @@
       <c r="KE32" s="5">
         <v>27224</v>
       </c>
+      <c r="KF32" s="5">
+        <v>27383</v>
+      </c>
     </row>
-    <row r="33" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A33" s="39"/>
       <c r="B33" s="4" t="s">
         <v>271</v>
       </c>
@@ -30686,9 +30749,12 @@
       <c r="KE33" s="5">
         <v>8839</v>
       </c>
+      <c r="KF33" s="5">
+        <v>8861</v>
+      </c>
     </row>
-    <row r="34" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A34" s="39"/>
       <c r="B34" s="4" t="s">
         <v>272</v>
       </c>
@@ -31559,9 +31625,12 @@
       <c r="KE34" s="5">
         <v>46114</v>
       </c>
+      <c r="KF34" s="5">
+        <v>46133</v>
+      </c>
     </row>
-    <row r="35" spans="1:890" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:885" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39"/>
       <c r="B35" s="4" t="s">
         <v>273</v>
       </c>
@@ -32432,9 +32501,12 @@
       <c r="KE35" s="5">
         <v>11311</v>
       </c>
+      <c r="KF35" s="5">
+        <v>11276</v>
+      </c>
     </row>
-    <row r="36" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="39"/>
       <c r="B36" s="4" t="s">
         <v>274</v>
       </c>
@@ -33305,9 +33377,12 @@
       <c r="KE36" s="5">
         <v>52786</v>
       </c>
+      <c r="KF36" s="5">
+        <v>53530</v>
+      </c>
     </row>
-    <row r="37" spans="1:890" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:885" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="39"/>
       <c r="B37" s="4" t="s">
         <v>275</v>
       </c>
@@ -34178,9 +34253,12 @@
       <c r="KE37" s="5">
         <v>70329</v>
       </c>
+      <c r="KF37" s="5">
+        <v>70112</v>
+      </c>
     </row>
-    <row r="38" spans="1:890" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:885" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="39"/>
       <c r="B38" s="4" t="s">
         <v>276</v>
       </c>
@@ -35051,9 +35129,12 @@
       <c r="KE38" s="5">
         <v>21773</v>
       </c>
+      <c r="KF38" s="5">
+        <v>21769</v>
+      </c>
     </row>
-    <row r="39" spans="1:890" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:885" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="39"/>
       <c r="B39" s="4" t="s">
         <v>277</v>
       </c>
@@ -35924,9 +36005,12 @@
       <c r="KE39" s="5">
         <v>26135</v>
       </c>
+      <c r="KF39" s="5">
+        <v>26660</v>
+      </c>
     </row>
-    <row r="40" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A40" s="39"/>
       <c r="B40" s="4" t="s">
         <v>278</v>
       </c>
@@ -36797,9 +36881,12 @@
       <c r="KE40" s="5">
         <v>12986</v>
       </c>
+      <c r="KF40" s="5">
+        <v>13133</v>
+      </c>
     </row>
-    <row r="41" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A41" s="39"/>
       <c r="B41" s="4" t="s">
         <v>279</v>
       </c>
@@ -37670,9 +37757,12 @@
       <c r="KE41" s="5">
         <v>10663</v>
       </c>
+      <c r="KF41" s="5">
+        <v>10805</v>
+      </c>
     </row>
-    <row r="42" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A42" s="39"/>
       <c r="B42" s="4" t="s">
         <v>280</v>
       </c>
@@ -38543,9 +38633,12 @@
       <c r="KE42" s="5">
         <v>46592</v>
       </c>
+      <c r="KF42" s="5">
+        <v>46845</v>
+      </c>
     </row>
-    <row r="43" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A43" s="39"/>
       <c r="B43" s="4" t="s">
         <v>281</v>
       </c>
@@ -39416,9 +39509,12 @@
       <c r="KE43" s="5">
         <v>4703</v>
       </c>
+      <c r="KF43" s="5">
+        <v>4699</v>
+      </c>
     </row>
-    <row r="44" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="39"/>
       <c r="B44" s="4" t="s">
         <v>282</v>
       </c>
@@ -40289,9 +40385,12 @@
       <c r="KE44" s="5">
         <v>5365</v>
       </c>
+      <c r="KF44" s="5">
+        <v>5342</v>
+      </c>
     </row>
-    <row r="45" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A45" s="39"/>
       <c r="B45" s="4" t="s">
         <v>283</v>
       </c>
@@ -41162,9 +41261,12 @@
       <c r="KE45" s="5">
         <v>7902</v>
       </c>
+      <c r="KF45" s="5">
+        <v>7862</v>
+      </c>
     </row>
-    <row r="46" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A46" s="39"/>
       <c r="B46" s="4" t="s">
         <v>284</v>
       </c>
@@ -42035,9 +42137,12 @@
       <c r="KE46" s="5">
         <v>14328</v>
       </c>
+      <c r="KF46" s="5">
+        <v>14410</v>
+      </c>
     </row>
-    <row r="47" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
       </c>
@@ -42908,9 +43013,12 @@
       <c r="KE47" s="5">
         <v>1477</v>
       </c>
+      <c r="KF47" s="5">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="48" spans="1:890" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:885" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="39"/>
       <c r="B48" s="7" t="s">
         <v>265</v>
       </c>
@@ -43801,7 +43909,10 @@
         <f>SUM(KE28:KE47)</f>
         <v>517363</v>
       </c>
-      <c r="KF48" s="1"/>
+      <c r="KF48" s="8">
+        <f>SUM(KF28:KF47)</f>
+        <v>520587</v>
+      </c>
       <c r="KG48" s="1"/>
       <c r="KH48" s="1"/>
       <c r="KI48" s="1"/>
@@ -44395,14 +44506,9 @@
       <c r="AGY48" s="1"/>
       <c r="AGZ48" s="1"/>
       <c r="AHA48" s="1"/>
-      <c r="AHB48" s="1"/>
-      <c r="AHC48" s="1"/>
-      <c r="AHD48" s="1"/>
-      <c r="AHE48" s="1"/>
-      <c r="AHF48" s="1"/>
     </row>
-    <row r="49" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -45275,9 +45381,12 @@
       <c r="KE49" s="5">
         <v>27</v>
       </c>
+      <c r="KF49" s="5">
+        <v>32</v>
+      </c>
     </row>
-    <row r="50" spans="1:291" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A50" s="39"/>
       <c r="B50" s="4" t="s">
         <v>288</v>
       </c>
@@ -46148,9 +46257,12 @@
       <c r="KE50" s="5">
         <v>160</v>
       </c>
+      <c r="KF50" s="5">
+        <v>167</v>
+      </c>
     </row>
-    <row r="51" spans="1:291" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:292" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="39"/>
       <c r="B51" s="4" t="s">
         <v>289</v>
       </c>
@@ -47021,9 +47133,12 @@
       <c r="KE51" s="5">
         <v>1567</v>
       </c>
+      <c r="KF51" s="5">
+        <v>1585</v>
+      </c>
     </row>
-    <row r="52" spans="1:291" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A52" s="39"/>
       <c r="B52" s="4" t="s">
         <v>290</v>
       </c>
@@ -47894,9 +48009,12 @@
       <c r="KE52" s="5">
         <v>899</v>
       </c>
+      <c r="KF52" s="5">
+        <v>916</v>
+      </c>
     </row>
-    <row r="53" spans="1:291" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A53" s="39"/>
       <c r="B53" s="7" t="s">
         <v>286</v>
       </c>
@@ -48787,9 +48905,13 @@
         <f>SUM(KE49:KE52)</f>
         <v>2653</v>
       </c>
+      <c r="KF53" s="8">
+        <f>SUM(KF49:KF52)</f>
+        <v>2700</v>
+      </c>
     </row>
-    <row r="54" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -49662,9 +49784,12 @@
       <c r="KE54" s="5">
         <v>5784</v>
       </c>
+      <c r="KF54" s="5">
+        <v>5874</v>
+      </c>
     </row>
-    <row r="55" spans="1:291" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A55" s="39"/>
       <c r="B55" s="4" t="s">
         <v>293</v>
       </c>
@@ -50535,9 +50660,12 @@
       <c r="KE55" s="5">
         <v>59010</v>
       </c>
+      <c r="KF55" s="5">
+        <v>59397</v>
+      </c>
     </row>
-    <row r="56" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
+    <row r="56" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="39"/>
       <c r="B56" s="4" t="s">
         <v>294</v>
       </c>
@@ -51408,9 +51536,12 @@
       <c r="KE56" s="5">
         <v>6680</v>
       </c>
+      <c r="KF56" s="5">
+        <v>6634</v>
+      </c>
     </row>
-    <row r="57" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="39"/>
       <c r="B57" s="4" t="s">
         <v>295</v>
       </c>
@@ -52281,9 +52412,12 @@
       <c r="KE57" s="5">
         <v>194956</v>
       </c>
+      <c r="KF57" s="5">
+        <v>195496</v>
+      </c>
     </row>
-    <row r="58" spans="1:291" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A58" s="39"/>
       <c r="B58" s="4" t="s">
         <v>296</v>
       </c>
@@ -53154,9 +53288,12 @@
       <c r="KE58" s="5">
         <v>36638</v>
       </c>
+      <c r="KF58" s="5">
+        <v>36958</v>
+      </c>
     </row>
-    <row r="59" spans="1:291" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
+    <row r="59" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A59" s="39"/>
       <c r="B59" s="4" t="s">
         <v>297</v>
       </c>
@@ -54027,9 +54164,12 @@
       <c r="KE59" s="5">
         <v>7802</v>
       </c>
+      <c r="KF59" s="5">
+        <v>7955</v>
+      </c>
     </row>
-    <row r="60" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="39"/>
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -54900,9 +55040,12 @@
       <c r="KE60" s="5">
         <v>50344</v>
       </c>
+      <c r="KF60" s="5">
+        <v>51288</v>
+      </c>
     </row>
-    <row r="61" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
+    <row r="61" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="39"/>
       <c r="B61" s="4" t="s">
         <v>299</v>
       </c>
@@ -55773,9 +55916,12 @@
       <c r="KE61" s="5">
         <v>152</v>
       </c>
+      <c r="KF61" s="5">
+        <v>151</v>
+      </c>
     </row>
-    <row r="62" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="38"/>
+    <row r="62" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="39"/>
       <c r="B62" s="4" t="s">
         <v>300</v>
       </c>
@@ -56646,9 +56792,12 @@
       <c r="KE62" s="5">
         <v>21439</v>
       </c>
+      <c r="KF62" s="5">
+        <v>21523</v>
+      </c>
     </row>
-    <row r="63" spans="1:291" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="38"/>
+    <row r="63" spans="1:292" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="39"/>
       <c r="B63" s="4" t="s">
         <v>301</v>
       </c>
@@ -57519,9 +57668,12 @@
       <c r="KE63" s="5">
         <v>36431</v>
       </c>
+      <c r="KF63" s="5">
+        <v>36663</v>
+      </c>
     </row>
-    <row r="64" spans="1:291" x14ac:dyDescent="0.3">
-      <c r="A64" s="38"/>
+    <row r="64" spans="1:292" x14ac:dyDescent="0.3">
+      <c r="A64" s="39"/>
       <c r="B64" s="4" t="s">
         <v>302</v>
       </c>
@@ -58392,9 +58544,12 @@
       <c r="KE64" s="5">
         <v>51486</v>
       </c>
+      <c r="KF64" s="5">
+        <v>52443</v>
+      </c>
     </row>
-    <row r="65" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
+    <row r="65" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A65" s="39"/>
       <c r="B65" s="4" t="s">
         <v>303</v>
       </c>
@@ -59265,9 +59420,12 @@
       <c r="KE65" s="5">
         <v>174625</v>
       </c>
+      <c r="KF65" s="5">
+        <v>172454</v>
+      </c>
     </row>
-    <row r="66" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A66" s="38"/>
+    <row r="66" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A66" s="39"/>
       <c r="B66" s="4" t="s">
         <v>304</v>
       </c>
@@ -60138,9 +60296,12 @@
       <c r="KE66" s="5">
         <v>20916</v>
       </c>
+      <c r="KF66" s="5">
+        <v>20956</v>
+      </c>
     </row>
-    <row r="67" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A67" s="38"/>
+    <row r="67" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A67" s="39"/>
       <c r="B67" s="4" t="s">
         <v>305</v>
       </c>
@@ -61011,9 +61172,12 @@
       <c r="KE67" s="5">
         <v>7376</v>
       </c>
+      <c r="KF67" s="5">
+        <v>7473</v>
+      </c>
     </row>
-    <row r="68" spans="1:890" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="38"/>
+    <row r="68" spans="1:885" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="39"/>
       <c r="B68" s="7" t="s">
         <v>291</v>
       </c>
@@ -61904,7 +62068,10 @@
         <f>SUM(KE54:KE67)</f>
         <v>673639</v>
       </c>
-      <c r="KF68" s="1"/>
+      <c r="KF68" s="8">
+        <f>SUM(KF54:KF67)</f>
+        <v>675265</v>
+      </c>
       <c r="KG68" s="1"/>
       <c r="KH68" s="1"/>
       <c r="KI68" s="1"/>
@@ -62498,14 +62665,9 @@
       <c r="AGY68" s="1"/>
       <c r="AGZ68" s="1"/>
       <c r="AHA68" s="1"/>
-      <c r="AHB68" s="1"/>
-      <c r="AHC68" s="1"/>
-      <c r="AHD68" s="1"/>
-      <c r="AHE68" s="1"/>
-      <c r="AHF68" s="1"/>
     </row>
-    <row r="69" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A69" s="38" t="s">
+    <row r="69" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A69" s="39" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -63375,12 +63537,15 @@
       <c r="KD69" s="5">
         <v>10836</v>
       </c>
-      <c r="KE69" s="42">
+      <c r="KE69" s="5">
         <v>10973</v>
       </c>
+      <c r="KF69" s="5">
+        <v>10888</v>
+      </c>
     </row>
-    <row r="70" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
+    <row r="70" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A70" s="39"/>
       <c r="B70" s="4" t="s">
         <v>308</v>
       </c>
@@ -64248,12 +64413,15 @@
       <c r="KD70" s="5">
         <v>1056</v>
       </c>
-      <c r="KE70" s="42">
+      <c r="KE70" s="5">
         <v>980</v>
       </c>
+      <c r="KF70" s="5">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="71" spans="1:890" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="38"/>
+    <row r="71" spans="1:885" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="39"/>
       <c r="B71" s="4" t="s">
         <v>309</v>
       </c>
@@ -65121,12 +65289,15 @@
       <c r="KD71" s="5">
         <v>38083</v>
       </c>
-      <c r="KE71" s="42">
+      <c r="KE71" s="5">
         <v>38627</v>
       </c>
+      <c r="KF71" s="5">
+        <v>39190</v>
+      </c>
     </row>
-    <row r="72" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A72" s="38"/>
+    <row r="72" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A72" s="39"/>
       <c r="B72" s="4" t="s">
         <v>310</v>
       </c>
@@ -65994,12 +66165,15 @@
       <c r="KD72" s="5">
         <v>5130</v>
       </c>
-      <c r="KE72" s="42">
+      <c r="KE72" s="5">
         <v>5185</v>
       </c>
+      <c r="KF72" s="5">
+        <v>5156</v>
+      </c>
     </row>
-    <row r="73" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A73" s="38"/>
+    <row r="73" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A73" s="39"/>
       <c r="B73" s="4" t="s">
         <v>311</v>
       </c>
@@ -66867,12 +67041,15 @@
       <c r="KD73" s="6">
         <v>855</v>
       </c>
-      <c r="KE73" s="42">
+      <c r="KE73" s="5">
         <v>856</v>
       </c>
+      <c r="KF73" s="5">
+        <v>811</v>
+      </c>
     </row>
-    <row r="74" spans="1:890" x14ac:dyDescent="0.3">
-      <c r="A74" s="38"/>
+    <row r="74" spans="1:885" x14ac:dyDescent="0.3">
+      <c r="A74" s="39"/>
       <c r="B74" s="4" t="s">
         <v>312</v>
       </c>
@@ -67740,12 +67917,15 @@
       <c r="KD74" s="5">
         <v>56033</v>
       </c>
-      <c r="KE74" s="42">
+      <c r="KE74" s="5">
         <v>56461</v>
       </c>
+      <c r="KF74" s="5">
+        <v>57373</v>
+      </c>
     </row>
-    <row r="75" spans="1:890" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="38"/>
+    <row r="75" spans="1:885" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="39"/>
       <c r="B75" s="7" t="s">
         <v>306</v>
       </c>
@@ -68636,7 +68816,10 @@
         <f>SUM(KE69:KE74)</f>
         <v>113082</v>
       </c>
-      <c r="KF75" s="1"/>
+      <c r="KF75" s="8">
+        <f>SUM(KF69:KF74)</f>
+        <v>114434</v>
+      </c>
       <c r="KG75" s="1"/>
       <c r="KH75" s="1"/>
       <c r="KI75" s="1"/>
@@ -69230,13 +69413,8 @@
       <c r="AGY75" s="1"/>
       <c r="AGZ75" s="1"/>
       <c r="AHA75" s="1"/>
-      <c r="AHB75" s="1"/>
-      <c r="AHC75" s="1"/>
-      <c r="AHD75" s="1"/>
-      <c r="AHE75" s="1"/>
-      <c r="AHF75" s="1"/>
     </row>
-    <row r="76" spans="1:890" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:885" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
@@ -70132,8 +70310,12 @@
         <f>KE11+KE21+KE24+KE27+KE48+KE53+KE68+KE75</f>
         <v>2009853</v>
       </c>
+      <c r="KF76" s="31">
+        <f>KF11+KF21+KF24+KF27+KF48+KF53+KF68+KF75</f>
+        <v>2017879</v>
+      </c>
     </row>
-    <row r="77" spans="1:890" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:885" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -70833,20 +71015,14 @@
       <c r="ZZ77" s="25"/>
       <c r="AAA77" s="25"/>
       <c r="AAB77" s="25"/>
-      <c r="AAC77" s="25"/>
-      <c r="AAD77" s="25"/>
-      <c r="AAE77" s="25"/>
-      <c r="AAF77" s="25"/>
-      <c r="AAG77" s="25"/>
     </row>
-    <row r="78" spans="1:890" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:885" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="JS4:KD4"/>
+  <mergeCells count="35">
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -70859,8 +71035,16 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="KE4:KF4"/>
+    <mergeCell ref="JS4:KD4"/>
     <mergeCell ref="JG4:JR4"/>
     <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="A69:A75"/>
     <mergeCell ref="A12:A21"/>
@@ -70874,12 +71058,6 @@
     <mergeCell ref="HK4:HV4"/>
     <mergeCell ref="EQ4:FB4"/>
     <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77104E6E-79FD-40B2-8FE9-DC7415703577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60149AAA-D08D-486A-9102-23C315A1E2F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta_jalisco_div_gpo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>grupo</t>
   </si>
@@ -259,13 +259,16 @@
     <t>Trabajadores asegurados registrados en Jalisco, por división y grupo económico</t>
   </si>
   <si>
-    <t>diciembre 2023-mayo 2024</t>
+    <t>imss_2024_6</t>
+  </si>
+  <si>
+    <t>diciembre 2023-junio 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1117,26 +1120,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -1161,8 +1164,11 @@
       <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1187,8 +1193,11 @@
       <c r="H8">
         <v>91801</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>89306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1213,8 +1222,11 @@
       <c r="H9">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1239,8 +1251,11 @@
       <c r="H10">
         <v>24185</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>24194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1265,8 +1280,11 @@
       <c r="H11">
         <v>267</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1291,8 +1309,11 @@
       <c r="H12">
         <v>517</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1317,8 +1338,11 @@
       <c r="H13">
         <v>88182</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>88363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1343,8 +1367,11 @@
       <c r="H14">
         <v>20211</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>20203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1369,8 +1396,11 @@
       <c r="H15">
         <v>39253</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>39388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1395,8 +1425,11 @@
       <c r="H16">
         <v>23454</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>23534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1421,8 +1454,11 @@
       <c r="H17">
         <v>16910</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>15185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1447,8 +1483,11 @@
       <c r="H18">
         <v>52075</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>51810</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1473,8 +1512,11 @@
       <c r="H19">
         <v>63757</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>64794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1499,8 +1541,11 @@
       <c r="H20">
         <v>72110</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>72242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1525,8 +1570,11 @@
       <c r="H21">
         <v>50367</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>50986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1551,8 +1599,11 @@
       <c r="H22">
         <v>112437</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>114129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1628,11 @@
       <c r="H23">
         <v>38787</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>38995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1603,8 +1657,11 @@
       <c r="H24">
         <v>4697</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1629,8 +1686,11 @@
       <c r="H25">
         <v>5697</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>5682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1655,8 +1715,11 @@
       <c r="H26">
         <v>760</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1744,11 @@
       <c r="H27">
         <v>10207</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>10081</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1707,8 +1773,11 @@
       <c r="H28">
         <v>29798</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>30167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1733,8 +1802,11 @@
       <c r="H29">
         <v>27217</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>27346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1831,11 @@
       <c r="H30">
         <v>8429</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>8292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1785,8 +1860,11 @@
       <c r="H31">
         <v>109896</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>109626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1811,8 +1889,11 @@
       <c r="H32">
         <v>45812</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1837,8 +1918,11 @@
       <c r="H33">
         <v>10799</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>10875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1863,8 +1947,11 @@
       <c r="H34">
         <v>53998</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>54266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1889,8 +1976,11 @@
       <c r="H35">
         <v>68316</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>68771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1915,8 +2005,11 @@
       <c r="H36">
         <v>21118</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>20924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1941,8 +2034,11 @@
       <c r="H37">
         <v>26626</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>26493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1967,8 +2063,11 @@
       <c r="H38">
         <v>12969</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>13034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1993,8 +2092,11 @@
       <c r="H39">
         <v>47947</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>48173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="H40">
         <v>4727</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -2045,8 +2150,11 @@
       <c r="H41">
         <v>5443</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -2071,8 +2179,11 @@
       <c r="H42">
         <v>10820</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>10824</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -2097,8 +2208,11 @@
       <c r="H43">
         <v>7332</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>7803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -2123,8 +2237,11 @@
       <c r="H44">
         <v>14569</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>14493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -2149,8 +2266,11 @@
       <c r="H45">
         <v>1606</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2175,8 +2295,11 @@
       <c r="H46">
         <v>34</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2201,8 +2324,11 @@
       <c r="H47">
         <v>214</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2227,8 +2353,11 @@
       <c r="H48">
         <v>1575</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2253,8 +2382,11 @@
       <c r="H49">
         <v>948</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2279,8 +2411,11 @@
       <c r="H50">
         <v>5847</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2305,8 +2440,11 @@
       <c r="H51">
         <v>61015</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>61526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2331,8 +2469,11 @@
       <c r="H52">
         <v>6455</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>6491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2357,8 +2498,11 @@
       <c r="H53">
         <v>196858</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>197465</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2383,8 +2527,11 @@
       <c r="H54">
         <v>37981</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>37970</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2409,8 +2556,11 @@
       <c r="H55">
         <v>8437</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2435,8 +2585,11 @@
       <c r="H56">
         <v>50554</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>49853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2461,8 +2614,11 @@
       <c r="H57">
         <v>150</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2487,8 +2643,11 @@
       <c r="H58">
         <v>21480</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>21410</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2513,8 +2672,11 @@
       <c r="H59">
         <v>37594</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>37801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -2539,8 +2701,11 @@
       <c r="H60">
         <v>52127</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>50788</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -2565,8 +2730,11 @@
       <c r="H61">
         <v>172955</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>172322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -2591,8 +2759,11 @@
       <c r="H62">
         <v>21487</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>22025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -2617,8 +2788,11 @@
       <c r="H63">
         <v>7796</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2643,8 +2817,11 @@
       <c r="H64">
         <v>11057</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>10834</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -2669,8 +2846,11 @@
       <c r="H65">
         <v>963</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2695,8 +2875,11 @@
       <c r="H66">
         <v>41244</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>41013</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2721,8 +2904,11 @@
       <c r="H67">
         <v>5118</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2747,8 +2933,11 @@
       <c r="H68">
         <v>759</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2772,6 +2961,9 @@
       </c>
       <c r="H69">
         <v>57801</v>
+      </c>
+      <c r="I69">
+        <v>58108</v>
       </c>
     </row>
   </sheetData>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60149AAA-D08D-486A-9102-23C315A1E2F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F7A8A-AC3F-4850-89A7-31D545B782B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>grupo</t>
   </si>
@@ -253,16 +253,19 @@
     <t>Transporte terrestre</t>
   </si>
   <si>
-    <t>división</t>
-  </si>
-  <si>
     <t>Trabajadores asegurados registrados en Jalisco, por división y grupo económico</t>
   </si>
   <si>
     <t>imss_2024_6</t>
   </si>
   <si>
-    <t>diciembre 2023-junio 2024</t>
+    <t>diciembre 2023-julio 2024</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>imss_2024_7</t>
   </si>
 </sst>
 </file>
@@ -1121,27 +1124,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1165,10 +1168,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1196,8 +1202,11 @@
       <c r="I8">
         <v>89306</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>83894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1225,8 +1234,11 @@
       <c r="I9">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1254,8 +1266,11 @@
       <c r="I10">
         <v>24194</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1283,8 +1298,11 @@
       <c r="I11">
         <v>269</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1312,8 +1330,11 @@
       <c r="I12">
         <v>492</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1341,8 +1362,11 @@
       <c r="I13">
         <v>88363</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>89145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1370,8 +1394,11 @@
       <c r="I14">
         <v>20203</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>20278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1399,8 +1426,11 @@
       <c r="I15">
         <v>39388</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>39705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1428,8 +1458,11 @@
       <c r="I16">
         <v>23534</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>23739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1457,8 +1490,11 @@
       <c r="I17">
         <v>15185</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>14673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1486,8 +1522,11 @@
       <c r="I18">
         <v>51810</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>51944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1515,8 +1554,11 @@
       <c r="I19">
         <v>64794</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>64892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1544,8 +1586,11 @@
       <c r="I20">
         <v>72242</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>72755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1573,8 +1618,11 @@
       <c r="I21">
         <v>50986</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>51493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1602,8 +1650,11 @@
       <c r="I22">
         <v>114129</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>115588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1682,11 @@
       <c r="I23">
         <v>38995</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>38768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1660,8 +1714,11 @@
       <c r="I24">
         <v>4705</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1689,8 +1746,11 @@
       <c r="I25">
         <v>5682</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1718,8 +1778,11 @@
       <c r="I26">
         <v>763</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1747,8 +1810,11 @@
       <c r="I27">
         <v>10081</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>10078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="I28">
         <v>30167</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>30515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1805,8 +1874,11 @@
       <c r="I29">
         <v>27346</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>27364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1834,8 +1906,11 @@
       <c r="I30">
         <v>8292</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1863,8 +1938,11 @@
       <c r="I31">
         <v>109626</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>109908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1892,8 +1970,11 @@
       <c r="I32">
         <v>45791</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1921,8 +2002,11 @@
       <c r="I33">
         <v>10875</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>10923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1950,8 +2034,11 @@
       <c r="I34">
         <v>54266</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>54509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1979,8 +2066,11 @@
       <c r="I35">
         <v>68771</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>69376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2008,8 +2098,11 @@
       <c r="I36">
         <v>20924</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>20822</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2037,8 +2130,11 @@
       <c r="I37">
         <v>26493</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>26628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -2066,8 +2162,11 @@
       <c r="I38">
         <v>13034</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>13303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -2095,8 +2194,11 @@
       <c r="I39">
         <v>48173</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>48573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2124,8 +2226,11 @@
       <c r="I40">
         <v>4742</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2258,11 @@
       <c r="I41">
         <v>5395</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -2182,8 +2290,11 @@
       <c r="I42">
         <v>10824</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>10867</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -2211,8 +2322,11 @@
       <c r="I43">
         <v>7803</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>7953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -2240,8 +2354,11 @@
       <c r="I44">
         <v>14493</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>14471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -2269,8 +2386,11 @@
       <c r="I45">
         <v>1617</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2298,8 +2418,11 @@
       <c r="I46">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2327,8 +2450,11 @@
       <c r="I47">
         <v>228</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2356,8 +2482,11 @@
       <c r="I48">
         <v>1587</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2385,8 +2514,11 @@
       <c r="I49">
         <v>862</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2414,8 +2546,11 @@
       <c r="I50">
         <v>5796</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2443,8 +2578,11 @@
       <c r="I51">
         <v>61526</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>61530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2472,8 +2610,11 @@
       <c r="I52">
         <v>6491</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2501,8 +2642,11 @@
       <c r="I53">
         <v>197465</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>196593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2530,8 +2674,11 @@
       <c r="I54">
         <v>37970</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>38055</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2559,8 +2706,11 @@
       <c r="I55">
         <v>8490</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>8625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2588,8 +2738,11 @@
       <c r="I56">
         <v>49853</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>46161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2617,8 +2770,11 @@
       <c r="I57">
         <v>150</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2646,8 +2802,11 @@
       <c r="I58">
         <v>21410</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>21657</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2675,8 +2834,11 @@
       <c r="I59">
         <v>37801</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>38053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -2704,8 +2866,11 @@
       <c r="I60">
         <v>50788</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>51810</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -2733,8 +2898,11 @@
       <c r="I61">
         <v>172322</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>173251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -2762,8 +2930,11 @@
       <c r="I62">
         <v>22025</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>22058</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -2791,8 +2962,11 @@
       <c r="I63">
         <v>8021</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <v>8377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2820,8 +2994,11 @@
       <c r="I64">
         <v>10834</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -2849,8 +3026,11 @@
       <c r="I65">
         <v>887</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2878,8 +3058,11 @@
       <c r="I66">
         <v>41013</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>41197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2907,8 +3090,11 @@
       <c r="I67">
         <v>5088</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2936,8 +3122,11 @@
       <c r="I68">
         <v>751</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2964,6 +3153,9 @@
       </c>
       <c r="I69">
         <v>58108</v>
+      </c>
+      <c r="J69">
+        <v>58903</v>
       </c>
     </row>
   </sheetData>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F7A8A-AC3F-4850-89A7-31D545B782B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB170B9-C66F-474A-A727-496AA58F43E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="83">
   <si>
     <t>grupo</t>
   </si>
@@ -259,13 +259,16 @@
     <t>imss_2024_6</t>
   </si>
   <si>
-    <t>diciembre 2023-julio 2024</t>
-  </si>
-  <si>
     <t>division</t>
   </si>
   <si>
     <t>imss_2024_7</t>
+  </si>
+  <si>
+    <t>imss_2024_8</t>
+  </si>
+  <si>
+    <t>diciembre 2023-agosto 2024</t>
   </si>
 </sst>
 </file>
@@ -1124,27 +1127,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1171,10 +1178,13 @@
         <v>78</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1205,8 +1215,11 @@
       <c r="J8">
         <v>83894</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>82976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1237,8 +1250,11 @@
       <c r="J9">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1269,8 +1285,11 @@
       <c r="J10">
         <v>24300</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>24235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1301,8 +1320,11 @@
       <c r="J11">
         <v>258</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1333,8 +1355,11 @@
       <c r="J12">
         <v>497</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1365,8 +1390,11 @@
       <c r="J13">
         <v>89145</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>89286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1397,8 +1425,11 @@
       <c r="J14">
         <v>20278</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>20215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1429,8 +1460,11 @@
       <c r="J15">
         <v>39705</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>39806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1461,8 +1495,11 @@
       <c r="J16">
         <v>23739</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>23844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1493,8 +1530,11 @@
       <c r="J17">
         <v>14673</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>14657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1525,8 +1565,11 @@
       <c r="J18">
         <v>51944</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>51791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1557,8 +1600,11 @@
       <c r="J19">
         <v>64892</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>64867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1589,8 +1635,11 @@
       <c r="J20">
         <v>72755</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>72095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1621,8 +1670,11 @@
       <c r="J21">
         <v>51493</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>51042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1653,8 +1705,11 @@
       <c r="J22">
         <v>115588</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>114638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1740,11 @@
       <c r="J23">
         <v>38768</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>39296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1717,8 +1775,11 @@
       <c r="J24">
         <v>4670</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1749,8 +1810,11 @@
       <c r="J25">
         <v>5707</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1781,8 +1845,11 @@
       <c r="J26">
         <v>722</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1813,8 +1880,11 @@
       <c r="J27">
         <v>10078</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>9505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1845,8 +1915,11 @@
       <c r="J28">
         <v>30515</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>30444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1877,8 +1950,11 @@
       <c r="J29">
         <v>27364</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>27403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1909,8 +1985,11 @@
       <c r="J30">
         <v>8274</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>8131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1941,8 +2020,11 @@
       <c r="J31">
         <v>109908</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>110318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1973,8 +2055,11 @@
       <c r="J32">
         <v>45868</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2005,8 +2090,11 @@
       <c r="J33">
         <v>10923</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>10978</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2037,8 +2125,11 @@
       <c r="J34">
         <v>54509</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>54809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2069,8 +2160,11 @@
       <c r="J35">
         <v>69376</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>69432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2101,8 +2195,11 @@
       <c r="J36">
         <v>20822</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>20510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2133,8 +2230,11 @@
       <c r="J37">
         <v>26628</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>26476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -2165,8 +2265,11 @@
       <c r="J38">
         <v>13303</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>13301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -2197,8 +2300,11 @@
       <c r="J39">
         <v>48573</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>48714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2229,8 +2335,11 @@
       <c r="J40">
         <v>4783</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -2261,8 +2370,11 @@
       <c r="J41">
         <v>5383</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -2293,8 +2405,11 @@
       <c r="J42">
         <v>10867</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>10836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -2325,8 +2440,11 @@
       <c r="J43">
         <v>7953</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>8026</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -2357,8 +2475,11 @@
       <c r="J44">
         <v>14471</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>14301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2510,11 @@
       <c r="J45">
         <v>1626</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2421,8 +2545,11 @@
       <c r="J46">
         <v>37</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2453,8 +2580,11 @@
       <c r="J47">
         <v>255</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2485,8 +2615,11 @@
       <c r="J48">
         <v>1555</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2517,8 +2650,11 @@
       <c r="J49">
         <v>946</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2549,8 +2685,11 @@
       <c r="J50">
         <v>5792</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2581,8 +2720,11 @@
       <c r="J51">
         <v>61530</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>61662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2613,8 +2755,11 @@
       <c r="J52">
         <v>6455</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2645,8 +2790,11 @@
       <c r="J53">
         <v>196593</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>195789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2677,8 +2825,11 @@
       <c r="J54">
         <v>38055</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>37821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2709,8 +2860,11 @@
       <c r="J55">
         <v>8625</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>8747</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2741,8 +2895,11 @@
       <c r="J56">
         <v>46161</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>49717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2773,8 +2930,11 @@
       <c r="J57">
         <v>152</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2805,8 +2965,11 @@
       <c r="J58">
         <v>21657</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>21683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2837,8 +3000,11 @@
       <c r="J59">
         <v>38053</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>38332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -2869,8 +3035,11 @@
       <c r="J60">
         <v>51810</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>50857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -2901,8 +3070,11 @@
       <c r="J61">
         <v>173251</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <v>172323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -2933,8 +3105,11 @@
       <c r="J62">
         <v>22058</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <v>21763</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -2965,8 +3140,11 @@
       <c r="J63">
         <v>8377</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <v>8426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2997,8 +3175,11 @@
       <c r="J64">
         <v>10869</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -3029,8 +3210,11 @@
       <c r="J65">
         <v>887</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -3061,8 +3245,11 @@
       <c r="J66">
         <v>41197</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <v>40767</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -3093,8 +3280,11 @@
       <c r="J67">
         <v>5125</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -3125,8 +3315,11 @@
       <c r="J68">
         <v>826</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -3156,6 +3349,9 @@
       </c>
       <c r="J69">
         <v>58903</v>
+      </c>
+      <c r="K69">
+        <v>59262</v>
       </c>
     </row>
   </sheetData>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB170B9-C66F-474A-A727-496AA58F43E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174EFF98-03F5-428A-A75E-E284009E062B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>grupo</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>diciembre 2023-agosto 2024</t>
+  </si>
+  <si>
+    <t>imss_2024_9</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1139,17 +1142,17 @@
     <col min="4" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
@@ -1183,8 +1186,11 @@
       <c r="K7" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1218,8 +1224,11 @@
       <c r="K8">
         <v>82976</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>84496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1253,8 +1262,11 @@
       <c r="K9">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1288,8 +1300,11 @@
       <c r="K10">
         <v>24235</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>24372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1323,8 +1338,11 @@
       <c r="K11">
         <v>237</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1358,8 +1376,11 @@
       <c r="K12">
         <v>488</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1393,8 +1414,11 @@
       <c r="K13">
         <v>89286</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>89597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1428,8 +1452,11 @@
       <c r="K14">
         <v>20215</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>20352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1463,8 +1490,11 @@
       <c r="K15">
         <v>39806</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>38033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1498,8 +1528,11 @@
       <c r="K16">
         <v>23844</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>23931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1533,8 +1566,11 @@
       <c r="K17">
         <v>14657</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>15054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1568,8 +1604,11 @@
       <c r="K18">
         <v>51791</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>51275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1603,8 +1642,11 @@
       <c r="K19">
         <v>64867</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>64546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1638,8 +1680,11 @@
       <c r="K20">
         <v>72095</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>72509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1673,8 +1718,11 @@
       <c r="K21">
         <v>51042</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>52532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1708,8 +1756,11 @@
       <c r="K22">
         <v>114638</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>115566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1743,8 +1794,11 @@
       <c r="K23">
         <v>39296</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>39294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1778,8 +1832,11 @@
       <c r="K24">
         <v>4632</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1813,8 +1870,11 @@
       <c r="K25">
         <v>5680</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1848,8 +1908,11 @@
       <c r="K26">
         <v>713</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1883,8 +1946,11 @@
       <c r="K27">
         <v>9505</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>9456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1918,8 +1984,11 @@
       <c r="K28">
         <v>30444</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>30489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1953,8 +2022,11 @@
       <c r="K29">
         <v>27403</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>27325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1988,8 +2060,11 @@
       <c r="K30">
         <v>8131</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>8072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2023,8 +2098,11 @@
       <c r="K31">
         <v>110318</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>110800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2058,8 +2136,11 @@
       <c r="K32">
         <v>46100</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2093,8 +2174,11 @@
       <c r="K33">
         <v>10978</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>10793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2128,8 +2212,11 @@
       <c r="K34">
         <v>54809</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>54972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2163,8 +2250,11 @@
       <c r="K35">
         <v>69432</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>70088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2198,8 +2288,11 @@
       <c r="K36">
         <v>20510</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>20594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2233,8 +2326,11 @@
       <c r="K37">
         <v>26476</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>26770</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -2268,8 +2364,11 @@
       <c r="K38">
         <v>13301</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>13188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -2303,8 +2402,11 @@
       <c r="K39">
         <v>48714</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>49018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2338,8 +2440,11 @@
       <c r="K40">
         <v>4593</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -2373,8 +2478,11 @@
       <c r="K41">
         <v>5305</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -2408,8 +2516,11 @@
       <c r="K42">
         <v>10836</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>10545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -2443,8 +2554,11 @@
       <c r="K43">
         <v>8026</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -2478,8 +2592,11 @@
       <c r="K44">
         <v>14301</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>14225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -2513,8 +2630,11 @@
       <c r="K45">
         <v>1644</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2548,8 +2668,11 @@
       <c r="K46">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2583,8 +2706,11 @@
       <c r="K47">
         <v>273</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2618,8 +2744,11 @@
       <c r="K48">
         <v>1587</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2653,8 +2782,11 @@
       <c r="K49">
         <v>980</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2688,8 +2820,11 @@
       <c r="K50">
         <v>5786</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2723,8 +2858,11 @@
       <c r="K51">
         <v>61662</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>63154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2758,8 +2896,11 @@
       <c r="K52">
         <v>6511</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2793,8 +2934,11 @@
       <c r="K53">
         <v>195789</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>195299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2828,8 +2972,11 @@
       <c r="K54">
         <v>37821</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>36912</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2863,8 +3010,11 @@
       <c r="K55">
         <v>8747</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>8865</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2898,8 +3048,11 @@
       <c r="K56">
         <v>49717</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>51958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2933,8 +3086,11 @@
       <c r="K57">
         <v>152</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2968,8 +3124,11 @@
       <c r="K58">
         <v>21683</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>21696</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -3003,8 +3162,11 @@
       <c r="K59">
         <v>38332</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>38858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -3038,8 +3200,11 @@
       <c r="K60">
         <v>50857</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>51711</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -3073,8 +3238,11 @@
       <c r="K61">
         <v>172323</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>177020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -3108,8 +3276,11 @@
       <c r="K62">
         <v>21763</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>21847</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -3143,8 +3314,11 @@
       <c r="K63">
         <v>8426</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3178,8 +3352,11 @@
       <c r="K64">
         <v>10990</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>11126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -3213,8 +3390,11 @@
       <c r="K65">
         <v>950</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -3248,8 +3428,11 @@
       <c r="K66">
         <v>40767</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>40937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -3283,8 +3466,11 @@
       <c r="K67">
         <v>5231</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -3318,8 +3504,11 @@
       <c r="K68">
         <v>866</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -3352,6 +3541,9 @@
       </c>
       <c r="K69">
         <v>59262</v>
+      </c>
+      <c r="L69">
+        <v>60302</v>
       </c>
     </row>
   </sheetData>

--- a/Historicos/ta_div_gpo.xlsx
+++ b/Historicos/ta_div_gpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174EFF98-03F5-428A-A75E-E284009E062B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524D5924-7B64-4A79-BB3E-A72D1E8F5556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
   <si>
     <t>grupo</t>
   </si>
@@ -268,10 +268,13 @@
     <t>imss_2024_8</t>
   </si>
   <si>
-    <t>diciembre 2023-agosto 2024</t>
-  </si>
-  <si>
     <t>imss_2024_9</t>
+  </si>
+  <si>
+    <t>imss_2024_10</t>
+  </si>
+  <si>
+    <t>diciembre 2023-octubre 2024</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1142,17 +1145,17 @@
     <col min="4" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
@@ -1187,10 +1190,13 @@
         <v>81</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1227,8 +1233,11 @@
       <c r="L8">
         <v>84496</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>86543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1265,8 +1274,11 @@
       <c r="L9">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1303,8 +1315,11 @@
       <c r="L10">
         <v>24372</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1341,8 +1356,11 @@
       <c r="L11">
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1379,8 +1397,11 @@
       <c r="L12">
         <v>470</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1417,8 +1438,11 @@
       <c r="L13">
         <v>89597</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>91971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1455,8 +1479,11 @@
       <c r="L14">
         <v>20352</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>20521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1493,8 +1520,11 @@
       <c r="L15">
         <v>38033</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>38202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1531,8 +1561,11 @@
       <c r="L16">
         <v>23931</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>24079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1569,8 +1602,11 @@
       <c r="L17">
         <v>15054</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>15582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1607,8 +1643,11 @@
       <c r="L18">
         <v>51275</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>51266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1645,8 +1684,11 @@
       <c r="L19">
         <v>64546</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>64725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1683,8 +1725,11 @@
       <c r="L20">
         <v>72509</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>72419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1721,8 +1766,11 @@
       <c r="L21">
         <v>52532</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>54012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1759,8 +1807,11 @@
       <c r="L22">
         <v>115566</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>116483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1797,8 +1848,11 @@
       <c r="L23">
         <v>39294</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>39081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1835,8 +1889,11 @@
       <c r="L24">
         <v>4573</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1873,8 +1930,11 @@
       <c r="L25">
         <v>5683</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1911,8 +1971,11 @@
       <c r="L26">
         <v>709</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1949,8 +2012,11 @@
       <c r="L27">
         <v>9456</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>9495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1987,8 +2053,11 @@
       <c r="L28">
         <v>30489</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>30699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2025,8 +2094,11 @@
       <c r="L29">
         <v>27325</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>27236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2063,8 +2135,11 @@
       <c r="L30">
         <v>8072</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>8029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2101,8 +2176,11 @@
       <c r="L31">
         <v>110800</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>111493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2139,8 +2217,11 @@
       <c r="L32">
         <v>45925</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>46415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2177,8 +2258,11 @@
       <c r="L33">
         <v>10793</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>10794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2215,8 +2299,11 @@
       <c r="L34">
         <v>54972</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>55358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2253,8 +2340,11 @@
       <c r="L35">
         <v>70088</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>70661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2291,8 +2381,11 @@
       <c r="L36">
         <v>20594</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    